--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\文件\全战斗模拟\depend\ship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\文件\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9616882B-686E-4A53-AFDB-414C7E8A7072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="3720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="3720" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-改造" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -140,13 +139,17 @@
   </si>
   <si>
     <t>装备栏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +199,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{A7899781-2BED-4937-AB07-E7C142B378EF}"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,16 +476,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,8 +558,11 @@
       <c r="X1" t="s">
         <v>25</v>
       </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11022</v>
       </c>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\文件\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6531F930-B88D-455F-BDA4-295EC03D189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2492D5BF-8C6B-45D5-92D2-5B1DD0252577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="2625" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="2625" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="504">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1731,6 +1731,32 @@
   </si>
   <si>
     <t>Accessory</t>
+  </si>
+  <si>
+    <t>DiveBomber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBF（乔治·布什）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBD（百思特机）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11006</t>
+  </si>
+  <si>
+    <t>SBD（麦克拉斯基队）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11007</t>
   </si>
 </sst>
 </file>
@@ -7474,13 +7500,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2355D0-61B2-44EC-BDFA-0F85F10122D5}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7656,6 +7682,81 @@
       </c>
       <c r="Q5">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C6" t="s">
+        <v>498</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>502</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -16115,7 +16216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C445BB4-C52C-4697-8BE9-D00E77917C9F}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\文件\WSGR_simulation\depend\ship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\游戏\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DD88BD-FE2A-4E79-AA9F-55B286215D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839C48A-A0F5-4FFD-B382-F31ED4C73832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="3555" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="装备数据-深海" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$Y$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$Y$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$177</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$Y$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$550</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13671" uniqueCount="1854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13674" uniqueCount="1855">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5843,6 +5843,10 @@
   </si>
   <si>
     <t>11014</t>
+  </si>
+  <si>
+    <t>可畏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6397,10 +6401,10 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8651,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L32">
         <v>44</v>
@@ -9245,13 +9249,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9462,7 +9466,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R31" si="0">SUM($S3:$V3)</f>
+        <f t="shared" ref="R3:R32" si="0">SUM($S3:$V3)</f>
         <v>24</v>
       </c>
       <c r="S3">
@@ -10638,6 +10642,9 @@
       <c r="V19">
         <v>0</v>
       </c>
+      <c r="W19">
+        <v>111231</v>
+      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
@@ -10707,6 +10714,9 @@
       <c r="V20">
         <v>0</v>
       </c>
+      <c r="W20">
+        <v>111231</v>
+      </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
@@ -10992,6 +11002,9 @@
       <c r="V24">
         <v>15</v>
       </c>
+      <c r="W24">
+        <v>112201</v>
+      </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
@@ -11217,154 +11230,160 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>1854</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E28">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F28">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I28">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28">
-        <v>101</v>
+      <c r="K28" s="2">
+        <v>97</v>
       </c>
       <c r="L28">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M28">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N28">
-        <v>29.5</v>
+        <v>30.5</v>
       </c>
       <c r="O28">
         <v>1</v>
       </c>
       <c r="P28">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="Q28">
         <v>4</v>
       </c>
       <c r="R28">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="S28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T28">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="U28">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="V28">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="W28">
+        <v>102241</v>
+      </c>
+      <c r="X28">
+        <v>112242</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>11227</v>
+        <v>11225</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I29">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M29">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N29">
-        <v>25.5</v>
+        <v>29.5</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R29">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="S29">
+        <v>20</v>
+      </c>
+      <c r="T29">
+        <v>17</v>
+      </c>
+      <c r="U29">
+        <v>30</v>
+      </c>
+      <c r="V29">
         <v>15</v>
       </c>
-      <c r="T29">
-        <v>20</v>
-      </c>
-      <c r="U29">
-        <v>20</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
       <c r="W29">
-        <v>112271</v>
+        <v>112251</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>11228</v>
+        <v>11227</v>
       </c>
       <c r="B30" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -11379,10 +11398,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I30">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -11403,7 +11422,7 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -11425,86 +11444,158 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>112281</v>
+        <v>112271</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>11339</v>
+        <v>11228</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F31">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="I31">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L31">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M31">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N31">
-        <v>30</v>
+        <v>25.5</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="P31">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="S31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T31">
         <v>20</v>
       </c>
       <c r="U31">
+        <v>20</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>112281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>11339</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32">
+        <v>80</v>
+      </c>
+      <c r="F32">
+        <v>40</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>84</v>
+      </c>
+      <c r="I32">
+        <v>73</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>102</v>
+      </c>
+      <c r="L32">
+        <v>58</v>
+      </c>
+      <c r="M32">
+        <v>72</v>
+      </c>
+      <c r="N32">
         <v>30</v>
       </c>
-      <c r="V31">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>9</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="S32">
         <v>16</v>
       </c>
-      <c r="W31">
+      <c r="T32">
+        <v>20</v>
+      </c>
+      <c r="U32">
+        <v>30</v>
+      </c>
+      <c r="V32">
+        <v>16</v>
+      </c>
+      <c r="W32">
         <v>113391</v>
       </c>
-      <c r="X31">
+      <c r="X32">
         <v>113392</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y31" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:Y32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
     <cfRule type="expression" dxfId="23" priority="19">
@@ -11546,7 +11637,7 @@
       <formula>F5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C28">
+  <conditionalFormatting sqref="C19:C29">
     <cfRule type="expression" dxfId="11" priority="7">
       <formula>F19=6</formula>
     </cfRule>
@@ -11566,24 +11657,24 @@
       <formula>F19=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C31">
+  <conditionalFormatting sqref="C30:C32">
     <cfRule type="expression" dxfId="5" priority="1">
-      <formula>F29=6</formula>
+      <formula>F30=6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="2">
-      <formula>F29=5</formula>
+      <formula>F30=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>F29=4</formula>
+      <formula>F30=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>F29=3</formula>
+      <formula>F30=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>F29=2</formula>
+      <formula>F30=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>F29=1</formula>
+      <formula>F30=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11595,7 +11686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -53993,11 +54084,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\游戏\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839C48A-A0F5-4FFD-B382-F31ED4C73832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA8431-594A-44D2-84E6-283DFE516604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13674" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13677" uniqueCount="1856">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5846,6 +5846,10 @@
   </si>
   <si>
     <t>可畏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6400,11 +6404,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomRight" activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9255,7 +9259,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11687,10 +11691,10 @@
   <dimension ref="A1:AA550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="AB559" sqref="AB559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22479,8 +22483,14 @@
       <c r="V144" s="7" t="s">
         <v>284</v>
       </c>
+      <c r="W144" s="6" t="s">
+        <v>1855</v>
+      </c>
       <c r="X144" s="7">
         <v>4</v>
+      </c>
+      <c r="Y144" s="7">
+        <v>0.25</v>
       </c>
       <c r="Z144" s="7" t="s">
         <v>1725</v>
@@ -44397,8 +44407,14 @@
       <c r="V426" s="7" t="s">
         <v>284</v>
       </c>
+      <c r="W426" s="6" t="s">
+        <v>1855</v>
+      </c>
       <c r="X426" s="7">
         <v>4</v>
+      </c>
+      <c r="Y426" s="9">
+        <v>0.1</v>
       </c>
       <c r="Z426" s="7" t="s">
         <v>1769</v>
@@ -52812,8 +52828,14 @@
       <c r="V534" s="7" t="s">
         <v>284</v>
       </c>
+      <c r="W534" s="6" t="s">
+        <v>1855</v>
+      </c>
       <c r="X534" s="7">
         <v>4</v>
+      </c>
+      <c r="Y534" s="9">
+        <v>0.25</v>
       </c>
       <c r="Z534" s="7" t="s">
         <v>1725</v>
@@ -54084,7 +54106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\游戏\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA8431-594A-44D2-84E6-283DFE516604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191471E3-54FF-43EB-A072-5ADA5269F5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="3" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="装备数据-深海" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$Y$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$177</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$Y$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13677" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13685" uniqueCount="1860">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5851,6 +5851,18 @@
   <si>
     <t>004</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给油耗</t>
+  </si>
+  <si>
+    <t>补给弹耗</t>
+  </si>
+  <si>
+    <t>修理油耗</t>
+  </si>
+  <si>
+    <t>修理钢耗</t>
   </si>
 </sst>
 </file>
@@ -6402,13 +6414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y38" sqref="Y38"/>
+      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6417,7 +6429,7 @@
     <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6493,8 +6505,20 @@
       <c r="Y1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>10022</v>
       </c>
@@ -6563,7 +6587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>10023</v>
       </c>
@@ -6632,7 +6656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>10029</v>
       </c>
@@ -6701,7 +6725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>10030</v>
       </c>
@@ -6770,7 +6794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>10031</v>
       </c>
@@ -6839,7 +6863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>10117</v>
       </c>
@@ -6908,7 +6932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>10118</v>
       </c>
@@ -6977,7 +7001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>10119</v>
       </c>
@@ -7049,7 +7073,7 @@
         <v>101191</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10120</v>
       </c>
@@ -7118,7 +7142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10121</v>
       </c>
@@ -7190,7 +7214,7 @@
         <v>111211</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10219</v>
       </c>
@@ -7259,7 +7283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10220</v>
       </c>
@@ -7328,7 +7352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10221</v>
       </c>
@@ -7397,7 +7421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10222</v>
       </c>
@@ -7466,7 +7490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>10223</v>
       </c>
@@ -9204,7 +9228,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AC39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C28">
     <cfRule type="expression" dxfId="35" priority="7">
@@ -9253,13 +9277,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9268,7 +9292,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9344,8 +9368,20 @@
       <c r="Y1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>11002</v>
       </c>
@@ -9417,7 +9453,7 @@
         <v>110021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>11004</v>
       </c>
@@ -9489,7 +9525,7 @@
         <v>110041</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>11005</v>
       </c>
@@ -9561,7 +9597,7 @@
         <v>110051</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>11022</v>
       </c>
@@ -9635,8 +9671,20 @@
       <c r="X5">
         <v>110222</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5">
+        <v>60</v>
+      </c>
+      <c r="AA5">
+        <v>55</v>
+      </c>
+      <c r="AB5">
+        <v>2.4</v>
+      </c>
+      <c r="AC5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>11023</v>
       </c>
@@ -9711,7 +9759,7 @@
         <v>110232</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>11024</v>
       </c>
@@ -9783,7 +9831,7 @@
         <v>110241</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>11025</v>
       </c>
@@ -9855,7 +9903,7 @@
         <v>110251</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>11026</v>
       </c>
@@ -9924,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>11027</v>
       </c>
@@ -9993,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>11028</v>
       </c>
@@ -10065,7 +10113,7 @@
         <v>110281</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11029</v>
       </c>
@@ -10137,7 +10185,7 @@
         <v>110291</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11030</v>
       </c>
@@ -10212,7 +10260,7 @@
         <v>110302</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11031</v>
       </c>
@@ -10284,7 +10332,7 @@
         <v>110311</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>11117</v>
       </c>
@@ -10359,7 +10407,7 @@
         <v>111172</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11118</v>
       </c>
@@ -11599,7 +11647,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:AC32" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
     <cfRule type="expression" dxfId="23" priority="19">

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\游戏\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EC036A-A309-47C9-A4BB-125678AE0366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FCF6EF-275E-4E2B-8E28-DF69B7EE9DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="3540" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$147</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$183</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14157" uniqueCount="2012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14209" uniqueCount="2026">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6346,6 +6346,52 @@
   <si>
     <t>fubuki</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01012</t>
+  </si>
+  <si>
+    <t>01013</t>
+  </si>
+  <si>
+    <t>01014</t>
+  </si>
+  <si>
+    <t>01015</t>
+  </si>
+  <si>
+    <t>01016</t>
+  </si>
+  <si>
+    <t>Tirpitz</t>
+  </si>
+  <si>
+    <t>Hindenburg</t>
+  </si>
+  <si>
+    <t>Scharnhorst</t>
+  </si>
+  <si>
+    <t>Barbarossa</t>
+  </si>
+  <si>
+    <t>深海战斗机Ⅲ型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>景云改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leopold(K5)</t>
   </si>
 </sst>
 </file>
@@ -6430,7 +6476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6471,72 +6517,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="114">
-    <dxf>
-      <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9933FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9933FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF808080"/>
@@ -7047,6 +7036,66 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9900"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9933FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9900"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9933FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7323,10 +7372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC04AE67-517B-4CCF-9FE9-D4A79EB519A2}">
-  <dimension ref="A1:AC78"/>
+  <dimension ref="A1:AC79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7476,7 +7528,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R65" si="0">SUM($S2:$V2)</f>
+        <f>SUM($S2:$V2)</f>
         <v>76</v>
       </c>
       <c r="S2">
@@ -7557,7 +7609,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
+        <f>SUM($S3:$V3)</f>
         <v>90</v>
       </c>
       <c r="S3">
@@ -7638,7 +7690,7 @@
         <v>4</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
+        <f>SUM($S4:$V4)</f>
         <v>80</v>
       </c>
       <c r="S4">
@@ -7719,7 +7771,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f>SUM($S5:$V5)</f>
         <v>80</v>
       </c>
       <c r="S5">
@@ -7800,7 +7852,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f>SUM($S6:$V6)</f>
         <v>75</v>
       </c>
       <c r="S6">
@@ -7881,7 +7933,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f>SUM($S7:$V7)</f>
         <v>8</v>
       </c>
       <c r="S7" s="12">
@@ -7967,7 +8019,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f>SUM($S8:$V8)</f>
         <v>0</v>
       </c>
       <c r="S8" s="12">
@@ -8053,7 +8105,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f>SUM($S9:$V9)</f>
         <v>12</v>
       </c>
       <c r="S9" s="12">
@@ -8139,7 +8191,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f>SUM($S10:$V10)</f>
         <v>60</v>
       </c>
       <c r="S10">
@@ -8223,7 +8275,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f>SUM($S11:$V11)</f>
         <v>48</v>
       </c>
       <c r="S11">
@@ -8304,7 +8356,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f>SUM($S12:$V12)</f>
         <v>72</v>
       </c>
       <c r="S12">
@@ -8388,7 +8440,7 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f>SUM($S13:$V13)</f>
         <v>75</v>
       </c>
       <c r="S13">
@@ -8469,7 +8521,7 @@
         <v>4</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f>SUM($S14:$V14)</f>
         <v>75</v>
       </c>
       <c r="S14">
@@ -8553,7 +8605,7 @@
         <v>4</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f>SUM($S15:$V15)</f>
         <v>16</v>
       </c>
       <c r="S15" s="12">
@@ -8639,7 +8691,7 @@
         <v>4</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f>SUM($S16:$V16)</f>
         <v>16</v>
       </c>
       <c r="S16" s="12">
@@ -8725,7 +8777,7 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f>SUM($S17:$V17)</f>
         <v>12</v>
       </c>
       <c r="S17" s="12">
@@ -8811,7 +8863,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f>SUM($S18:$V18)</f>
         <v>12</v>
       </c>
       <c r="S18" s="12">
@@ -8897,7 +8949,7 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f>SUM($S19:$V19)</f>
         <v>12</v>
       </c>
       <c r="S19" s="12">
@@ -8983,7 +9035,7 @@
         <v>4</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
+        <f>SUM($S20:$V20)</f>
         <v>12</v>
       </c>
       <c r="S20" s="12">
@@ -9069,7 +9121,7 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f t="shared" si="0"/>
+        <f>SUM($S21:$V21)</f>
         <v>12</v>
       </c>
       <c r="S21" s="12">
@@ -9155,7 +9207,7 @@
         <v>4</v>
       </c>
       <c r="R22">
-        <f t="shared" si="0"/>
+        <f>SUM($S22:$V22)</f>
         <v>12</v>
       </c>
       <c r="S22" s="12">
@@ -9241,7 +9293,7 @@
         <v>4</v>
       </c>
       <c r="R23">
-        <f t="shared" si="0"/>
+        <f>SUM($S23:$V23)</f>
         <v>16</v>
       </c>
       <c r="S23" s="12">
@@ -9327,7 +9379,7 @@
         <v>4</v>
       </c>
       <c r="R24">
-        <f t="shared" si="0"/>
+        <f>SUM($S24:$V24)</f>
         <v>78</v>
       </c>
       <c r="S24">
@@ -9408,7 +9460,7 @@
         <v>4</v>
       </c>
       <c r="R25">
-        <f t="shared" si="0"/>
+        <f>SUM($S25:$V25)</f>
         <v>78</v>
       </c>
       <c r="S25">
@@ -9489,7 +9541,7 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f t="shared" si="0"/>
+        <f>SUM($S26:$V26)</f>
         <v>63</v>
       </c>
       <c r="S26">
@@ -9570,7 +9622,7 @@
         <v>4</v>
       </c>
       <c r="R27">
-        <f t="shared" si="0"/>
+        <f>SUM($S27:$V27)</f>
         <v>63</v>
       </c>
       <c r="S27">
@@ -9651,7 +9703,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <f t="shared" si="0"/>
+        <f>SUM($S28:$V28)</f>
         <v>59</v>
       </c>
       <c r="S28">
@@ -9735,7 +9787,7 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f t="shared" si="0"/>
+        <f>SUM($S29:$V29)</f>
         <v>57</v>
       </c>
       <c r="S29">
@@ -9819,7 +9871,7 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f t="shared" si="0"/>
+        <f>SUM($S30:$V30)</f>
         <v>70</v>
       </c>
       <c r="S30">
@@ -9900,7 +9952,7 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <f t="shared" si="0"/>
+        <f>SUM($S31:$V31)</f>
         <v>90</v>
       </c>
       <c r="S31">
@@ -9987,7 +10039,7 @@
         <v>4</v>
       </c>
       <c r="R32">
-        <f t="shared" si="0"/>
+        <f>SUM($S32:$V32)</f>
         <v>40</v>
       </c>
       <c r="S32">
@@ -10068,7 +10120,7 @@
         <v>3</v>
       </c>
       <c r="R33">
-        <f t="shared" si="0"/>
+        <f>SUM($S33:$V33)</f>
         <v>6</v>
       </c>
       <c r="S33" s="12">
@@ -10154,7 +10206,7 @@
         <v>3</v>
       </c>
       <c r="R34">
-        <f t="shared" si="0"/>
+        <f>SUM($S34:$V34)</f>
         <v>9</v>
       </c>
       <c r="S34" s="12">
@@ -10240,7 +10292,7 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <f t="shared" si="0"/>
+        <f>SUM($S35:$V35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="12">
@@ -10326,7 +10378,7 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <f t="shared" si="0"/>
+        <f>SUM($S36:$V36)</f>
         <v>16</v>
       </c>
       <c r="S36" s="12">
@@ -10412,7 +10464,7 @@
         <v>4</v>
       </c>
       <c r="R37">
-        <f t="shared" si="0"/>
+        <f>SUM($S37:$V37)</f>
         <v>66</v>
       </c>
       <c r="S37">
@@ -10496,7 +10548,7 @@
         <v>4</v>
       </c>
       <c r="R38">
-        <f t="shared" si="0"/>
+        <f>SUM($S38:$V38)</f>
         <v>90</v>
       </c>
       <c r="S38">
@@ -10583,7 +10635,7 @@
         <v>4</v>
       </c>
       <c r="R39">
-        <f t="shared" si="0"/>
+        <f>SUM($S39:$V39)</f>
         <v>66</v>
       </c>
       <c r="S39">
@@ -10667,7 +10719,7 @@
         <v>4</v>
       </c>
       <c r="R40">
-        <f t="shared" si="0"/>
+        <f>SUM($S40:$V40)</f>
         <v>75</v>
       </c>
       <c r="S40">
@@ -10751,7 +10803,7 @@
         <v>4</v>
       </c>
       <c r="R41">
-        <f t="shared" si="0"/>
+        <f>SUM($S41:$V41)</f>
         <v>12</v>
       </c>
       <c r="S41" s="12">
@@ -10837,7 +10889,7 @@
         <v>3</v>
       </c>
       <c r="R42">
-        <f t="shared" si="0"/>
+        <f>SUM($S42:$V42)</f>
         <v>0</v>
       </c>
       <c r="S42" s="12">
@@ -10921,7 +10973,7 @@
         <v>3</v>
       </c>
       <c r="R43">
-        <f t="shared" si="0"/>
+        <f>SUM($S43:$V43)</f>
         <v>6</v>
       </c>
       <c r="S43" s="12">
@@ -11005,7 +11057,7 @@
         <v>4</v>
       </c>
       <c r="R44">
-        <f t="shared" si="0"/>
+        <f>SUM($S44:$V44)</f>
         <v>16</v>
       </c>
       <c r="S44" s="12">
@@ -11091,7 +11143,7 @@
         <v>4</v>
       </c>
       <c r="R45">
-        <f t="shared" si="0"/>
+        <f>SUM($S45:$V45)</f>
         <v>57</v>
       </c>
       <c r="S45">
@@ -11175,7 +11227,7 @@
         <v>4</v>
       </c>
       <c r="R46">
-        <f t="shared" si="0"/>
+        <f>SUM($S46:$V46)</f>
         <v>92</v>
       </c>
       <c r="S46">
@@ -11262,7 +11314,7 @@
         <v>4</v>
       </c>
       <c r="R47">
-        <f t="shared" si="0"/>
+        <f>SUM($S47:$V47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="12">
@@ -11348,7 +11400,7 @@
         <v>4</v>
       </c>
       <c r="R48">
-        <f t="shared" si="0"/>
+        <f>SUM($S48:$V48)</f>
         <v>12</v>
       </c>
       <c r="S48" s="14">
@@ -11434,7 +11486,7 @@
         <v>3</v>
       </c>
       <c r="R49">
-        <f t="shared" si="0"/>
+        <f>SUM($S49:$V49)</f>
         <v>9</v>
       </c>
       <c r="S49" s="12">
@@ -11518,7 +11570,7 @@
         <v>4</v>
       </c>
       <c r="R50">
-        <f t="shared" si="0"/>
+        <f>SUM($S50:$V50)</f>
         <v>81</v>
       </c>
       <c r="S50">
@@ -11602,7 +11654,7 @@
         <v>4</v>
       </c>
       <c r="R51">
-        <f t="shared" si="0"/>
+        <f>SUM($S51:$V51)</f>
         <v>12</v>
       </c>
       <c r="S51" s="14">
@@ -11688,7 +11740,7 @@
         <v>3</v>
       </c>
       <c r="R52">
-        <f t="shared" si="0"/>
+        <f>SUM($S52:$V52)</f>
         <v>9</v>
       </c>
       <c r="S52" s="12">
@@ -11774,7 +11826,7 @@
         <v>4</v>
       </c>
       <c r="R53">
-        <f t="shared" si="0"/>
+        <f>SUM($S53:$V53)</f>
         <v>0</v>
       </c>
       <c r="S53" s="14">
@@ -11860,7 +11912,7 @@
         <v>3</v>
       </c>
       <c r="R54">
-        <f t="shared" si="0"/>
+        <f>SUM($S54:$V54)</f>
         <v>0</v>
       </c>
       <c r="S54" s="12">
@@ -11944,7 +11996,7 @@
         <v>3</v>
       </c>
       <c r="R55">
-        <f t="shared" si="0"/>
+        <f>SUM($S55:$V55)</f>
         <v>9</v>
       </c>
       <c r="S55" s="12">
@@ -12030,7 +12082,7 @@
         <v>4</v>
       </c>
       <c r="R56">
-        <f t="shared" si="0"/>
+        <f>SUM($S56:$V56)</f>
         <v>62</v>
       </c>
       <c r="S56">
@@ -12114,7 +12166,7 @@
         <v>4</v>
       </c>
       <c r="R57">
-        <f t="shared" si="0"/>
+        <f>SUM($S57:$V57)</f>
         <v>90</v>
       </c>
       <c r="S57">
@@ -12201,7 +12253,7 @@
         <v>3</v>
       </c>
       <c r="R58">
-        <f t="shared" si="0"/>
+        <f>SUM($S58:$V58)</f>
         <v>9</v>
       </c>
       <c r="S58" s="12">
@@ -12285,7 +12337,7 @@
         <v>4</v>
       </c>
       <c r="R59">
-        <f t="shared" si="0"/>
+        <f>SUM($S59:$V59)</f>
         <v>0</v>
       </c>
       <c r="S59" s="14">
@@ -12371,7 +12423,7 @@
         <v>4</v>
       </c>
       <c r="R60">
-        <f t="shared" si="0"/>
+        <f>SUM($S60:$V60)</f>
         <v>9</v>
       </c>
       <c r="S60" s="14">
@@ -12457,7 +12509,7 @@
         <v>4</v>
       </c>
       <c r="R61">
-        <f t="shared" si="0"/>
+        <f>SUM($S61:$V61)</f>
         <v>0</v>
       </c>
       <c r="S61" s="14">
@@ -12543,7 +12595,7 @@
         <v>3</v>
       </c>
       <c r="R62">
-        <f t="shared" si="0"/>
+        <f>SUM($S62:$V62)</f>
         <v>9</v>
       </c>
       <c r="S62" s="12">
@@ -12627,7 +12679,7 @@
         <v>4</v>
       </c>
       <c r="R63">
-        <f t="shared" si="0"/>
+        <f>SUM($S63:$V63)</f>
         <v>0</v>
       </c>
       <c r="S63" s="14">
@@ -12713,7 +12765,7 @@
         <v>4</v>
       </c>
       <c r="R64">
-        <f t="shared" si="0"/>
+        <f>SUM($S64:$V64)</f>
         <v>83</v>
       </c>
       <c r="S64">
@@ -12797,7 +12849,7 @@
         <v>4</v>
       </c>
       <c r="R65">
-        <f t="shared" si="0"/>
+        <f>SUM($S65:$V65)</f>
         <v>12</v>
       </c>
       <c r="S65" s="14">
@@ -12883,7 +12935,7 @@
         <v>4</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R78" si="1">SUM($S66:$V66)</f>
+        <f>SUM($S66:$V66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="14">
@@ -12969,7 +13021,7 @@
         <v>4</v>
       </c>
       <c r="R67">
-        <f t="shared" si="1"/>
+        <f>SUM($S67:$V67)</f>
         <v>0</v>
       </c>
       <c r="S67" s="14">
@@ -13055,7 +13107,7 @@
         <v>4</v>
       </c>
       <c r="R68">
-        <f t="shared" si="1"/>
+        <f>SUM($S68:$V68)</f>
         <v>91</v>
       </c>
       <c r="S68">
@@ -13142,7 +13194,7 @@
         <v>4</v>
       </c>
       <c r="R69">
-        <f t="shared" si="1"/>
+        <f>SUM($S69:$V69)</f>
         <v>51</v>
       </c>
       <c r="S69">
@@ -13226,7 +13278,7 @@
         <v>4</v>
       </c>
       <c r="R70">
-        <f t="shared" si="1"/>
+        <f>SUM($S70:$V70)</f>
         <v>48</v>
       </c>
       <c r="S70">
@@ -13307,7 +13359,7 @@
         <v>4</v>
       </c>
       <c r="R71">
-        <f t="shared" si="1"/>
+        <f>SUM($S71:$V71)</f>
         <v>72</v>
       </c>
       <c r="S71">
@@ -13391,7 +13443,7 @@
         <v>3</v>
       </c>
       <c r="R72">
-        <f t="shared" si="1"/>
+        <f>SUM($S72:$V72)</f>
         <v>18</v>
       </c>
       <c r="S72" s="12">
@@ -13475,7 +13527,7 @@
         <v>4</v>
       </c>
       <c r="R73">
-        <f t="shared" si="1"/>
+        <f>SUM($S73:$V73)</f>
         <v>59</v>
       </c>
       <c r="S73">
@@ -13559,7 +13611,7 @@
         <v>4</v>
       </c>
       <c r="R74">
-        <f t="shared" si="1"/>
+        <f>SUM($S74:$V74)</f>
         <v>75</v>
       </c>
       <c r="S74">
@@ -13643,7 +13695,7 @@
         <v>4</v>
       </c>
       <c r="R75">
-        <f t="shared" si="1"/>
+        <f>SUM($S75:$V75)</f>
         <v>78</v>
       </c>
       <c r="S75">
@@ -13727,7 +13779,7 @@
         <v>4</v>
       </c>
       <c r="R76">
-        <f t="shared" si="1"/>
+        <f>SUM($S76:$V76)</f>
         <v>90</v>
       </c>
       <c r="S76">
@@ -13814,7 +13866,7 @@
         <v>4</v>
       </c>
       <c r="R77">
-        <f t="shared" si="1"/>
+        <f>SUM($S77:$V77)</f>
         <v>12</v>
       </c>
       <c r="S77" s="12">
@@ -13900,7 +13952,7 @@
         <v>4</v>
       </c>
       <c r="R78">
-        <f t="shared" si="1"/>
+        <f>SUM($S78:$V78)</f>
         <v>84</v>
       </c>
       <c r="S78">
@@ -13931,46 +13983,138 @@
         <v>105101</v>
       </c>
     </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>10513</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" s="12">
+        <v>60</v>
+      </c>
+      <c r="F79" s="12">
+        <v>40</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0</v>
+      </c>
+      <c r="H79" s="12">
+        <v>60</v>
+      </c>
+      <c r="I79" s="12">
+        <v>97</v>
+      </c>
+      <c r="J79" s="12">
+        <v>0</v>
+      </c>
+      <c r="K79" s="16">
+        <v>96</v>
+      </c>
+      <c r="L79" s="12">
+        <v>51</v>
+      </c>
+      <c r="M79" s="12">
+        <v>77</v>
+      </c>
+      <c r="N79" s="12">
+        <v>33</v>
+      </c>
+      <c r="O79" s="12">
+        <v>1</v>
+      </c>
+      <c r="P79" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="12">
+        <v>4</v>
+      </c>
+      <c r="R79" s="12">
+        <f>SUM($S79:$V79)</f>
+        <v>90</v>
+      </c>
+      <c r="S79" s="12">
+        <v>21</v>
+      </c>
+      <c r="T79" s="12">
+        <v>21</v>
+      </c>
+      <c r="U79" s="12">
+        <v>29</v>
+      </c>
+      <c r="V79" s="12">
+        <v>19</v>
+      </c>
+      <c r="W79" s="12">
+        <v>60</v>
+      </c>
+      <c r="X79" s="12">
+        <v>60</v>
+      </c>
+      <c r="Y79" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="Z79" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AA79" s="12">
+        <v>105131</v>
+      </c>
+      <c r="AB79" s="12"/>
+      <c r="AC79" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC78" xr:uid="{FC04AE67-517B-4CCF-9FE9-D4A79EB519A2}"/>
+  <autoFilter ref="A1:AC78" xr:uid="{FC04AE67-517B-4CCF-9FE9-D4A79EB519A2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC79">
+      <sortCondition ref="A1:A78"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C28">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="113" priority="7">
       <formula>F2=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="112" priority="8">
       <formula>F2=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="111" priority="9">
       <formula>F2=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="110" priority="10">
       <formula>F2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="109" priority="11">
       <formula>F2=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="108" priority="12">
       <formula>F2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C39">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="107" priority="1">
       <formula>F29=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="106" priority="2">
       <formula>F29=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="105" priority="3">
       <formula>F29=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="104" priority="4">
       <formula>F29=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="103" priority="5">
       <formula>F29=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="102" priority="6">
       <formula>F29=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13987,7 +14131,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA36" sqref="AA36"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26419,342 +26563,342 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="expression" dxfId="113" priority="97">
+    <cfRule type="expression" dxfId="101" priority="97">
       <formula>F2=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="98">
+    <cfRule type="expression" dxfId="100" priority="98">
       <formula>F2=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="99">
+    <cfRule type="expression" dxfId="99" priority="99">
       <formula>F2=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="100">
+    <cfRule type="expression" dxfId="98" priority="100">
       <formula>F2=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="101">
+    <cfRule type="expression" dxfId="97" priority="101">
       <formula>F2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="102">
+    <cfRule type="expression" dxfId="96" priority="102">
       <formula>F2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C18">
-    <cfRule type="expression" dxfId="107" priority="91">
+    <cfRule type="expression" dxfId="95" priority="91">
       <formula>F5=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="92">
+    <cfRule type="expression" dxfId="94" priority="92">
       <formula>F5=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="93">
+    <cfRule type="expression" dxfId="93" priority="93">
       <formula>F5=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="94">
+    <cfRule type="expression" dxfId="92" priority="94">
       <formula>F5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="95">
+    <cfRule type="expression" dxfId="91" priority="95">
       <formula>F5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="96">
+    <cfRule type="expression" dxfId="90" priority="96">
       <formula>F5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C29">
-    <cfRule type="expression" dxfId="101" priority="85">
+    <cfRule type="expression" dxfId="89" priority="85">
       <formula>F19=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="86">
+    <cfRule type="expression" dxfId="88" priority="86">
       <formula>F19=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="87">
+    <cfRule type="expression" dxfId="87" priority="87">
       <formula>F19=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="88">
+    <cfRule type="expression" dxfId="86" priority="88">
       <formula>F19=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="89">
+    <cfRule type="expression" dxfId="85" priority="89">
       <formula>F19=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="90">
+    <cfRule type="expression" dxfId="84" priority="90">
       <formula>F19=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C32">
-    <cfRule type="expression" dxfId="95" priority="79">
+    <cfRule type="expression" dxfId="83" priority="79">
       <formula>F30=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="80">
+    <cfRule type="expression" dxfId="82" priority="80">
       <formula>F30=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="81">
+    <cfRule type="expression" dxfId="81" priority="81">
       <formula>F30=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="82">
+    <cfRule type="expression" dxfId="80" priority="82">
       <formula>F30=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="83">
+    <cfRule type="expression" dxfId="79" priority="83">
       <formula>F30=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="84">
+    <cfRule type="expression" dxfId="78" priority="84">
       <formula>F30=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="89" priority="73">
+    <cfRule type="expression" dxfId="77" priority="73">
       <formula>F33=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="74">
+    <cfRule type="expression" dxfId="76" priority="74">
       <formula>F33=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="75">
+    <cfRule type="expression" dxfId="75" priority="75">
       <formula>F33=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="76">
+    <cfRule type="expression" dxfId="74" priority="76">
       <formula>F33=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="77">
+    <cfRule type="expression" dxfId="73" priority="77">
       <formula>F33=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="78">
+    <cfRule type="expression" dxfId="72" priority="78">
       <formula>F33=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C42">
-    <cfRule type="expression" dxfId="83" priority="67">
+    <cfRule type="expression" dxfId="71" priority="67">
       <formula>F34=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="68">
+    <cfRule type="expression" dxfId="70" priority="68">
       <formula>F34=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="69">
+    <cfRule type="expression" dxfId="69" priority="69">
       <formula>F34=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="70">
+    <cfRule type="expression" dxfId="68" priority="70">
       <formula>F34=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="71">
+    <cfRule type="expression" dxfId="67" priority="71">
       <formula>F34=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="72">
+    <cfRule type="expression" dxfId="66" priority="72">
       <formula>F34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C54">
-    <cfRule type="expression" dxfId="77" priority="61">
+    <cfRule type="expression" dxfId="65" priority="61">
       <formula>E46=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="62">
+    <cfRule type="expression" dxfId="64" priority="62">
       <formula>E46=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="63">
+    <cfRule type="expression" dxfId="63" priority="63">
       <formula>E46=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="64">
+    <cfRule type="expression" dxfId="62" priority="64">
       <formula>E46=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="65">
+    <cfRule type="expression" dxfId="61" priority="65">
       <formula>E46=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="66">
+    <cfRule type="expression" dxfId="60" priority="66">
       <formula>E46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
-    <cfRule type="expression" dxfId="71" priority="55">
+    <cfRule type="expression" dxfId="59" priority="55">
       <formula>F43=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="56">
+    <cfRule type="expression" dxfId="58" priority="56">
       <formula>F43=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="57">
+    <cfRule type="expression" dxfId="57" priority="57">
       <formula>F43=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="58">
+    <cfRule type="expression" dxfId="56" priority="58">
       <formula>F43=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="59">
+    <cfRule type="expression" dxfId="55" priority="59">
       <formula>F43=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="60">
+    <cfRule type="expression" dxfId="54" priority="60">
       <formula>F43=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C67">
-    <cfRule type="expression" dxfId="65" priority="49">
+    <cfRule type="expression" dxfId="53" priority="49">
       <formula>F62=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="50">
+    <cfRule type="expression" dxfId="52" priority="50">
       <formula>F62=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="51">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>F62=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="52">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>F62=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="53">
+    <cfRule type="expression" dxfId="49" priority="53">
       <formula>F62=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="54">
+    <cfRule type="expression" dxfId="48" priority="54">
       <formula>F62=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C61">
-    <cfRule type="expression" dxfId="59" priority="43">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>F59=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="44">
+    <cfRule type="expression" dxfId="46" priority="44">
       <formula>F59=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="45">
+    <cfRule type="expression" dxfId="45" priority="45">
       <formula>F59=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="46">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>F59=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="47">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>F59=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="48">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>F59=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82 C84">
-    <cfRule type="expression" dxfId="53" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>F81=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="32">
+    <cfRule type="expression" dxfId="40" priority="32">
       <formula>F81=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>F81=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>F81=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>F81=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="36">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>F81=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="47" priority="37">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>F84=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="38">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>F84=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>F84=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>F84=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="41">
+    <cfRule type="expression" dxfId="31" priority="41">
       <formula>F84=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>F84=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C102">
-    <cfRule type="expression" dxfId="41" priority="25">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>F90=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="26">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>F90=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="27">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>F90=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>F90=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>F90=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>F90=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103:C107">
-    <cfRule type="expression" dxfId="35" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>F103=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>F103=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>F103=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>F103=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="23">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>F103=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>F103=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108:C111">
-    <cfRule type="expression" dxfId="29" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>F108=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>F108=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>F108=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>F108=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>F108=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>F108=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:C115">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>F112=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>F112=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>F112=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>F112=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>F112=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>F112=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C117">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>E116=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>E116=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>E116=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>E116=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>E116=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>E116=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26768,10 +26912,10 @@
   <dimension ref="A1:AA550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69181,20 +69325,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC177"/>
+  <dimension ref="A1:AC183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="V71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A136" sqref="A136:A141"/>
+      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="20"/>
     <col min="12" max="12" width="9" style="2"/>
     <col min="18" max="18" width="18.125" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="19.25" bestFit="1" customWidth="1"/>
@@ -69213,7 +69357,7 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="20" t="s">
         <v>1564</v>
       </c>
       <c r="F1" t="s">
@@ -69302,7 +69446,7 @@
       <c r="D2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="20">
         <v>100</v>
       </c>
       <c r="F2">
@@ -69371,7 +69515,7 @@
       <c r="D3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="F3">
@@ -69443,7 +69587,7 @@
       <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="20">
         <v>17</v>
       </c>
       <c r="F4">
@@ -69518,7 +69662,7 @@
       <c r="D5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="20">
         <v>53</v>
       </c>
       <c r="F5">
@@ -69596,7 +69740,7 @@
       <c r="D6" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="20">
         <v>77</v>
       </c>
       <c r="F6">
@@ -69674,7 +69818,7 @@
       <c r="D7" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="20">
         <v>3</v>
       </c>
       <c r="F7">
@@ -69749,7 +69893,7 @@
       <c r="D8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="20">
         <v>29</v>
       </c>
       <c r="F8">
@@ -69824,7 +69968,7 @@
       <c r="D9" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="20">
         <v>59</v>
       </c>
       <c r="F9">
@@ -69902,7 +70046,7 @@
       <c r="D10" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10">
@@ -69977,7 +70121,7 @@
       <c r="D11" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="20">
         <v>23</v>
       </c>
       <c r="F11">
@@ -70052,7 +70196,7 @@
       <c r="D12" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="20">
         <v>46</v>
       </c>
       <c r="F12">
@@ -70130,7 +70274,7 @@
       <c r="D13" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="20">
         <v>65</v>
       </c>
       <c r="F13">
@@ -70208,7 +70352,7 @@
       <c r="D14" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="20">
         <v>1</v>
       </c>
       <c r="F14">
@@ -70280,7 +70424,7 @@
       <c r="D15" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="20">
         <v>17</v>
       </c>
       <c r="F15">
@@ -70355,7 +70499,7 @@
       <c r="D16" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="20">
         <v>44</v>
       </c>
       <c r="F16">
@@ -70433,7 +70577,7 @@
       <c r="D17" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="20">
         <v>67</v>
       </c>
       <c r="F17">
@@ -70511,7 +70655,7 @@
       <c r="D18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="20">
         <v>3</v>
       </c>
       <c r="F18">
@@ -70589,7 +70733,7 @@
       <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="20">
         <v>22</v>
       </c>
       <c r="F19">
@@ -70667,7 +70811,7 @@
       <c r="D20" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="20">
         <v>47</v>
       </c>
       <c r="F20">
@@ -70745,7 +70889,7 @@
       <c r="D21" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="20">
         <v>71</v>
       </c>
       <c r="F21">
@@ -70823,7 +70967,7 @@
       <c r="D22" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="20">
         <v>1</v>
       </c>
       <c r="F22">
@@ -70901,7 +71045,7 @@
       <c r="D23" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="20">
         <v>21</v>
       </c>
       <c r="F23">
@@ -70979,7 +71123,7 @@
       <c r="D24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="20">
         <v>41</v>
       </c>
       <c r="F24">
@@ -71057,7 +71201,7 @@
       <c r="D25" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="20">
         <v>1</v>
       </c>
       <c r="F25">
@@ -71132,7 +71276,7 @@
       <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="20">
         <v>17</v>
       </c>
       <c r="F26">
@@ -71207,7 +71351,7 @@
       <c r="D27" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="20">
         <v>47</v>
       </c>
       <c r="F27">
@@ -71288,7 +71432,7 @@
       <c r="D28" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="20">
         <v>65</v>
       </c>
       <c r="F28">
@@ -71369,7 +71513,7 @@
       <c r="D29" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="20">
         <v>2</v>
       </c>
       <c r="F29">
@@ -71444,7 +71588,7 @@
       <c r="D30" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="20">
         <v>16</v>
       </c>
       <c r="F30">
@@ -71519,7 +71663,7 @@
       <c r="D31" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="20">
         <v>33</v>
       </c>
       <c r="F31">
@@ -71597,7 +71741,7 @@
       <c r="D32" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="20">
         <v>73</v>
       </c>
       <c r="F32">
@@ -71678,7 +71822,7 @@
       <c r="D33" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="20">
         <v>4</v>
       </c>
       <c r="F33">
@@ -71756,7 +71900,7 @@
       <c r="D34" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="20">
         <v>23</v>
       </c>
       <c r="F34">
@@ -71834,7 +71978,7 @@
       <c r="D35" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="20">
         <v>41</v>
       </c>
       <c r="F35">
@@ -71915,7 +72059,7 @@
       <c r="D36" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="20">
         <v>64</v>
       </c>
       <c r="F36">
@@ -71996,7 +72140,7 @@
       <c r="D37" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="20">
         <v>3</v>
       </c>
       <c r="F37">
@@ -72074,7 +72218,7 @@
       <c r="D38" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="20">
         <v>21</v>
       </c>
       <c r="F38">
@@ -72155,7 +72299,7 @@
       <c r="D39" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="20">
         <v>51</v>
       </c>
       <c r="F39">
@@ -72236,7 +72380,7 @@
       <c r="D40" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="20">
         <v>84</v>
       </c>
       <c r="F40">
@@ -72317,7 +72461,7 @@
       <c r="D41" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="20">
         <v>8</v>
       </c>
       <c r="F41">
@@ -72398,7 +72542,7 @@
       <c r="D42" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="20">
         <v>33</v>
       </c>
       <c r="F42">
@@ -72476,7 +72620,7 @@
       <c r="D43" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="20">
         <v>61</v>
       </c>
       <c r="F43">
@@ -72554,7 +72698,7 @@
       <c r="D44" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="20">
         <v>77</v>
       </c>
       <c r="F44">
@@ -72632,7 +72776,7 @@
       <c r="D45" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="20">
         <v>1</v>
       </c>
       <c r="F45">
@@ -72710,7 +72854,7 @@
       <c r="D46" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="20">
         <v>21</v>
       </c>
       <c r="F46">
@@ -72788,7 +72932,7 @@
       <c r="D47" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="20">
         <v>41</v>
       </c>
       <c r="F47">
@@ -72866,7 +73010,7 @@
       <c r="D48" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="20">
         <v>98</v>
       </c>
       <c r="F48">
@@ -72947,7 +73091,7 @@
       <c r="D49" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="20">
         <v>101</v>
       </c>
       <c r="F49">
@@ -73028,7 +73172,7 @@
       <c r="D50" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="20">
         <v>148</v>
       </c>
       <c r="F50">
@@ -73109,7 +73253,7 @@
       <c r="D51" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="20">
         <v>196</v>
       </c>
       <c r="F51">
@@ -73190,7 +73334,7 @@
       <c r="D52" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="20">
         <v>1</v>
       </c>
       <c r="F52">
@@ -73265,7 +73409,7 @@
       <c r="D53" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="20">
         <v>17</v>
       </c>
       <c r="F53">
@@ -73343,7 +73487,7 @@
       <c r="D54" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="20">
         <v>35</v>
       </c>
       <c r="F54">
@@ -73421,7 +73565,7 @@
       <c r="D55" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="20">
         <v>53</v>
       </c>
       <c r="F55">
@@ -73496,7 +73640,7 @@
       <c r="D56" t="s">
         <v>92</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="20">
         <v>9</v>
       </c>
       <c r="F56">
@@ -73571,7 +73715,7 @@
       <c r="D57" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="20">
         <v>36</v>
       </c>
       <c r="F57">
@@ -73649,7 +73793,7 @@
       <c r="D58" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="20">
         <v>64</v>
       </c>
       <c r="F58">
@@ -73727,7 +73871,7 @@
       <c r="D59" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="20">
         <v>14</v>
       </c>
       <c r="F59">
@@ -73802,7 +73946,7 @@
       <c r="D60" t="s">
         <v>92</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="20">
         <v>45</v>
       </c>
       <c r="F60">
@@ -73880,7 +74024,7 @@
       <c r="D61" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="20">
         <v>64</v>
       </c>
       <c r="F61">
@@ -73958,7 +74102,7 @@
       <c r="D62" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="20">
         <v>80</v>
       </c>
       <c r="F62">
@@ -74036,7 +74180,7 @@
       <c r="D63" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="20">
         <v>9</v>
       </c>
       <c r="F63">
@@ -74114,7 +74258,7 @@
       <c r="D64" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="20">
         <v>35</v>
       </c>
       <c r="F64">
@@ -74192,7 +74336,7 @@
       <c r="D65" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="20">
         <v>61</v>
       </c>
       <c r="F65">
@@ -74270,7 +74414,7 @@
       <c r="D66" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="20">
         <v>79</v>
       </c>
       <c r="F66">
@@ -74348,7 +74492,7 @@
       <c r="D67" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="20">
         <v>15</v>
       </c>
       <c r="F67">
@@ -74426,7 +74570,7 @@
       <c r="D68" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="20">
         <v>32</v>
       </c>
       <c r="F68">
@@ -74504,7 +74648,7 @@
       <c r="D69" t="s">
         <v>92</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="20">
         <v>59</v>
       </c>
       <c r="F69">
@@ -74582,7 +74726,7 @@
       <c r="D70" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="20">
         <v>85</v>
       </c>
       <c r="F70">
@@ -74660,7 +74804,7 @@
       <c r="D71" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="20">
         <v>1</v>
       </c>
       <c r="F71">
@@ -74732,7 +74876,7 @@
       <c r="D72" t="s">
         <v>92</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="20">
         <v>20</v>
       </c>
       <c r="F72">
@@ -74804,7 +74948,7 @@
       <c r="D73" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="20">
         <v>40</v>
       </c>
       <c r="F73">
@@ -74876,7 +75020,7 @@
       <c r="D74" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="20">
         <v>66</v>
       </c>
       <c r="F74">
@@ -74948,7 +75092,7 @@
       <c r="D75" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="20">
         <v>41</v>
       </c>
       <c r="F75">
@@ -75023,7 +75167,7 @@
       <c r="D76" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="20">
         <v>59</v>
       </c>
       <c r="F76">
@@ -75101,7 +75245,7 @@
       <c r="D77" t="s">
         <v>92</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="20">
         <v>77</v>
       </c>
       <c r="F77">
@@ -75182,7 +75326,7 @@
       <c r="D78" t="s">
         <v>92</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="20">
         <v>89</v>
       </c>
       <c r="F78">
@@ -75263,7 +75407,7 @@
       <c r="D79" t="s">
         <v>92</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="20">
         <v>42</v>
       </c>
       <c r="F79">
@@ -75341,7 +75485,7 @@
       <c r="D80" t="s">
         <v>92</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="20">
         <v>61</v>
       </c>
       <c r="F80">
@@ -75419,7 +75563,7 @@
       <c r="D81" t="s">
         <v>92</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="20">
         <v>75</v>
       </c>
       <c r="F81">
@@ -75497,7 +75641,7 @@
       <c r="D82" t="s">
         <v>92</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="20">
         <v>89</v>
       </c>
       <c r="F82">
@@ -75575,7 +75719,7 @@
       <c r="D83" t="s">
         <v>92</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="20">
         <v>20</v>
       </c>
       <c r="F83">
@@ -75653,7 +75797,7 @@
       <c r="D84" t="s">
         <v>92</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="20">
         <v>36</v>
       </c>
       <c r="F84">
@@ -75731,7 +75875,7 @@
       <c r="D85" t="s">
         <v>92</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="20">
         <v>61</v>
       </c>
       <c r="F85">
@@ -75812,7 +75956,7 @@
       <c r="D86" t="s">
         <v>92</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="20">
         <v>76</v>
       </c>
       <c r="F86">
@@ -75893,7 +76037,7 @@
       <c r="D87" t="s">
         <v>92</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="20">
         <v>42</v>
       </c>
       <c r="F87">
@@ -75971,7 +76115,7 @@
       <c r="D88" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="20">
         <v>59</v>
       </c>
       <c r="F88">
@@ -76049,7 +76193,7 @@
       <c r="D89" t="s">
         <v>92</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="20">
         <v>77</v>
       </c>
       <c r="F89">
@@ -76127,7 +76271,7 @@
       <c r="D90" t="s">
         <v>92</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="20">
         <v>92</v>
       </c>
       <c r="F90">
@@ -76205,7 +76349,7 @@
       <c r="D91" t="s">
         <v>92</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="20">
         <v>41</v>
       </c>
       <c r="F91">
@@ -76286,7 +76430,7 @@
       <c r="D92" t="s">
         <v>92</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="20">
         <v>54</v>
       </c>
       <c r="F92">
@@ -76367,7 +76511,7 @@
       <c r="D93" t="s">
         <v>92</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="20">
         <v>72</v>
       </c>
       <c r="F93">
@@ -76448,7 +76592,7 @@
       <c r="D94" t="s">
         <v>92</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="20">
         <v>86</v>
       </c>
       <c r="F94">
@@ -76529,7 +76673,7 @@
       <c r="D95" t="s">
         <v>92</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="20">
         <v>42</v>
       </c>
       <c r="F95">
@@ -76607,7 +76751,7 @@
       <c r="D96" t="s">
         <v>92</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="20">
         <v>63</v>
       </c>
       <c r="F96">
@@ -76685,7 +76829,7 @@
       <c r="D97" t="s">
         <v>92</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="20">
         <v>73</v>
       </c>
       <c r="F97">
@@ -76766,7 +76910,7 @@
       <c r="D98" t="s">
         <v>92</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="20">
         <v>85</v>
       </c>
       <c r="F98">
@@ -76818,7 +76962,7 @@
         <v>235</v>
       </c>
       <c r="V98">
-        <f t="shared" ref="V98:V129" si="3">SUM(W98:Z98)</f>
+        <f t="shared" ref="V98:V135" si="3">SUM(W98:Z98)</f>
         <v>8</v>
       </c>
       <c r="W98">
@@ -76847,7 +76991,7 @@
       <c r="D99" t="s">
         <v>92</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="20">
         <v>40</v>
       </c>
       <c r="F99">
@@ -76925,7 +77069,7 @@
       <c r="D100" t="s">
         <v>92</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="20">
         <v>60</v>
       </c>
       <c r="F100">
@@ -77003,7 +77147,7 @@
       <c r="D101" t="s">
         <v>92</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="20">
         <v>75</v>
       </c>
       <c r="F101">
@@ -77081,7 +77225,7 @@
       <c r="D102" t="s">
         <v>92</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="20">
         <v>85</v>
       </c>
       <c r="F102">
@@ -77159,7 +77303,7 @@
       <c r="D103" t="s">
         <v>92</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="20">
         <v>40</v>
       </c>
       <c r="F103">
@@ -77237,7 +77381,7 @@
       <c r="D104" t="s">
         <v>92</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="20">
         <v>60</v>
       </c>
       <c r="F104">
@@ -77315,7 +77459,7 @@
       <c r="D105" t="s">
         <v>92</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="20">
         <v>75</v>
       </c>
       <c r="F105">
@@ -77393,7 +77537,7 @@
       <c r="D106" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="20">
         <v>85</v>
       </c>
       <c r="F106">
@@ -77471,7 +77615,7 @@
       <c r="D107" t="s">
         <v>92</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="20">
         <v>60</v>
       </c>
       <c r="F107">
@@ -77552,7 +77696,7 @@
       <c r="D108" t="s">
         <v>92</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="20">
         <v>75</v>
       </c>
       <c r="F108">
@@ -77633,7 +77777,7 @@
       <c r="D109" t="s">
         <v>92</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="20">
         <v>90</v>
       </c>
       <c r="F109">
@@ -77714,7 +77858,7 @@
       <c r="D110" t="s">
         <v>92</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="20">
         <v>40</v>
       </c>
       <c r="F110">
@@ -77795,7 +77939,7 @@
       <c r="D111" t="s">
         <v>92</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="20">
         <v>60</v>
       </c>
       <c r="F111">
@@ -77876,7 +78020,7 @@
       <c r="D112" t="s">
         <v>92</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="20">
         <v>75</v>
       </c>
       <c r="F112">
@@ -77957,7 +78101,7 @@
       <c r="D113" t="s">
         <v>92</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="20">
         <v>90</v>
       </c>
       <c r="F113">
@@ -78026,7 +78170,7 @@
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="18" t="s">
         <v>1682</v>
       </c>
       <c r="B114" t="s">
@@ -78038,7 +78182,7 @@
       <c r="D114" t="s">
         <v>92</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="20">
         <v>100</v>
       </c>
       <c r="F114">
@@ -78107,7 +78251,7 @@
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="19" t="s">
         <v>1683</v>
       </c>
       <c r="B115" t="s">
@@ -78119,7 +78263,7 @@
       <c r="D115" t="s">
         <v>92</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="20">
         <v>100</v>
       </c>
       <c r="F115">
@@ -78188,7 +78332,7 @@
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="19" t="s">
         <v>1684</v>
       </c>
       <c r="B116" t="s">
@@ -78200,7 +78344,7 @@
       <c r="D116" t="s">
         <v>92</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="20">
         <v>20</v>
       </c>
       <c r="F116">
@@ -78263,7 +78407,7 @@
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="19" t="s">
         <v>1685</v>
       </c>
       <c r="B117" t="s">
@@ -78275,7 +78419,7 @@
       <c r="D117" t="s">
         <v>92</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="20">
         <v>25</v>
       </c>
       <c r="F117">
@@ -78338,59 +78482,68 @@
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>1607</v>
+      <c r="A118" s="18" t="s">
+        <v>2013</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C118" t="s">
-        <v>1606</v>
+        <v>2019</v>
       </c>
       <c r="D118" t="s">
         <v>92</v>
       </c>
-      <c r="E118" s="2">
-        <v>5</v>
+      <c r="E118" s="20">
+        <v>110</v>
       </c>
       <c r="F118">
-        <v>20</v>
+        <v>520</v>
       </c>
       <c r="G118">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="H118">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J118">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="K118">
-        <v>22</v>
-      </c>
-      <c r="L118" s="2">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="L118" s="5">
+        <v>92</v>
       </c>
       <c r="M118">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="O118">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q118">
         <v>0</v>
       </c>
       <c r="R118" t="s">
-        <v>221</v>
+        <v>528</v>
+      </c>
+      <c r="S118" t="s">
+        <v>506</v>
+      </c>
+      <c r="T118" t="s">
+        <v>229</v>
+      </c>
+      <c r="U118" t="s">
+        <v>597</v>
       </c>
       <c r="V118">
         <f t="shared" si="3"/>
@@ -78410,59 +78563,68 @@
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>1608</v>
+      <c r="A119" s="19" t="s">
+        <v>2014</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C119" t="s">
-        <v>1565</v>
+        <v>1584</v>
       </c>
       <c r="D119" t="s">
         <v>92</v>
       </c>
-      <c r="E119" s="2">
-        <v>5</v>
+      <c r="E119" s="20">
+        <v>110</v>
       </c>
       <c r="F119">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="G119">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H119">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J119">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="K119">
-        <v>22</v>
-      </c>
-      <c r="L119" s="2">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="L119" s="5">
+        <v>92</v>
       </c>
       <c r="M119">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="N119">
+        <v>44</v>
+      </c>
+      <c r="O119">
+        <v>30</v>
+      </c>
+      <c r="P119">
         <v>3</v>
       </c>
-      <c r="O119">
-        <v>35</v>
-      </c>
-      <c r="P119">
-        <v>1</v>
-      </c>
       <c r="Q119">
         <v>0</v>
       </c>
       <c r="R119" t="s">
-        <v>221</v>
+        <v>528</v>
+      </c>
+      <c r="S119" t="s">
+        <v>506</v>
+      </c>
+      <c r="T119" t="s">
+        <v>229</v>
+      </c>
+      <c r="U119" t="s">
+        <v>597</v>
       </c>
       <c r="V119">
         <f t="shared" si="3"/>
@@ -78482,131 +78644,149 @@
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>1609</v>
+      <c r="A120" s="19" t="s">
+        <v>2015</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>1681</v>
       </c>
       <c r="C120" t="s">
-        <v>1566</v>
+        <v>2025</v>
       </c>
       <c r="D120" t="s">
         <v>92</v>
       </c>
-      <c r="E120" s="2">
-        <v>5</v>
+      <c r="E120" s="20">
+        <v>110</v>
       </c>
       <c r="F120">
-        <v>20</v>
+        <v>666</v>
       </c>
       <c r="G120">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="H120">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J120">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="K120">
-        <v>22</v>
-      </c>
-      <c r="L120" s="2">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="L120" s="5">
+        <v>92</v>
       </c>
       <c r="M120">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="O120">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="P120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q120">
         <v>0</v>
       </c>
       <c r="R120" t="s">
-        <v>221</v>
+        <v>2023</v>
+      </c>
+      <c r="S120" t="s">
+        <v>229</v>
+      </c>
+      <c r="T120" t="s">
+        <v>238</v>
+      </c>
+      <c r="U120" t="s">
+        <v>2024</v>
       </c>
       <c r="V120">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W120">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X120">
         <v>0</v>
       </c>
       <c r="Y120">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>1610</v>
+      <c r="A121" s="19" t="s">
+        <v>2016</v>
       </c>
       <c r="B121" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C121" t="s">
-        <v>1567</v>
+        <v>2020</v>
       </c>
       <c r="D121" t="s">
         <v>92</v>
       </c>
-      <c r="E121" s="2">
-        <v>5</v>
+      <c r="E121" s="20">
+        <v>110</v>
       </c>
       <c r="F121">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="G121">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="H121">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="J121">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="K121">
-        <v>22</v>
-      </c>
-      <c r="L121" s="2">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="L121" s="5">
+        <v>92</v>
       </c>
       <c r="M121">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="N121">
+        <v>44</v>
+      </c>
+      <c r="O121">
+        <v>28</v>
+      </c>
+      <c r="P121">
         <v>3</v>
       </c>
-      <c r="O121">
-        <v>35</v>
-      </c>
-      <c r="P121">
-        <v>1</v>
-      </c>
       <c r="Q121">
         <v>0</v>
       </c>
       <c r="R121" t="s">
-        <v>221</v>
+        <v>528</v>
+      </c>
+      <c r="S121" t="s">
+        <v>506</v>
+      </c>
+      <c r="T121" t="s">
+        <v>229</v>
+      </c>
+      <c r="U121" t="s">
+        <v>597</v>
       </c>
       <c r="V121">
         <f t="shared" si="3"/>
@@ -78626,59 +78806,68 @@
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>1611</v>
+      <c r="A122" s="19" t="s">
+        <v>2017</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C122" t="s">
-        <v>1568</v>
+        <v>2021</v>
       </c>
       <c r="D122" t="s">
         <v>92</v>
       </c>
-      <c r="E122" s="2">
-        <v>5</v>
+      <c r="E122" s="20">
+        <v>110</v>
       </c>
       <c r="F122">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="G122">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="H122">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="J122">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="K122">
-        <v>22</v>
-      </c>
-      <c r="L122" s="2">
+        <v>0</v>
+      </c>
+      <c r="L122" s="5">
+        <v>92</v>
+      </c>
+      <c r="M122">
+        <v>48</v>
+      </c>
+      <c r="N122">
+        <v>38</v>
+      </c>
+      <c r="O122">
         <v>32</v>
       </c>
-      <c r="M122">
-        <v>17</v>
-      </c>
-      <c r="N122">
+      <c r="P122">
         <v>3</v>
       </c>
-      <c r="O122">
-        <v>35</v>
-      </c>
-      <c r="P122">
-        <v>1</v>
-      </c>
       <c r="Q122">
         <v>0</v>
       </c>
       <c r="R122" t="s">
-        <v>221</v>
+        <v>719</v>
+      </c>
+      <c r="S122" t="s">
+        <v>719</v>
+      </c>
+      <c r="T122" t="s">
+        <v>594</v>
+      </c>
+      <c r="U122" t="s">
+        <v>592</v>
       </c>
       <c r="V122">
         <f t="shared" si="3"/>
@@ -78698,59 +78887,68 @@
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>1612</v>
+      <c r="A123" s="19" t="s">
+        <v>2018</v>
       </c>
       <c r="B123" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C123" t="s">
-        <v>1569</v>
+        <v>2022</v>
       </c>
       <c r="D123" t="s">
         <v>92</v>
       </c>
-      <c r="E123" s="2">
-        <v>8</v>
+      <c r="E123" s="20">
+        <v>110</v>
       </c>
       <c r="F123">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H123">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
-      <c r="L123" s="2">
-        <v>36</v>
+      <c r="L123" s="5">
+        <v>92</v>
       </c>
       <c r="M123">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="N123">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="O123">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="P123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q123">
         <v>0</v>
       </c>
       <c r="R123" t="s">
-        <v>233</v>
+        <v>719</v>
+      </c>
+      <c r="S123" t="s">
+        <v>719</v>
+      </c>
+      <c r="T123" t="s">
+        <v>594</v>
+      </c>
+      <c r="U123" t="s">
+        <v>592</v>
       </c>
       <c r="V123">
         <f t="shared" si="3"/>
@@ -78771,64 +78969,58 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="B124" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C124" t="s">
-        <v>1570</v>
+        <v>1606</v>
       </c>
       <c r="D124" t="s">
         <v>92</v>
       </c>
-      <c r="E124" s="2">
-        <v>50</v>
+      <c r="E124" s="20">
+        <v>5</v>
       </c>
       <c r="F124">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G124">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I124">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J124">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L124" s="2">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="M124">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N124">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O124">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q124">
         <v>0</v>
       </c>
       <c r="R124" t="s">
-        <v>229</v>
-      </c>
-      <c r="S124" t="s">
-        <v>228</v>
-      </c>
-      <c r="T124" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="V124">
         <f t="shared" si="3"/>
@@ -78849,49 +79041,49 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="B125" t="s">
         <v>204</v>
       </c>
       <c r="C125" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="D125" t="s">
         <v>92</v>
       </c>
-      <c r="E125" s="2">
-        <v>30</v>
+      <c r="E125" s="20">
+        <v>5</v>
       </c>
       <c r="F125">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G125">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H125">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I125">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J125">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K125">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L125" s="2">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M125">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N125">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P125">
         <v>1</v>
@@ -78902,9 +79094,6 @@
       <c r="R125" t="s">
         <v>221</v>
       </c>
-      <c r="S125" t="s">
-        <v>234</v>
-      </c>
       <c r="V125">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -78924,49 +79113,49 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="B126" t="s">
         <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="D126" t="s">
         <v>92</v>
       </c>
-      <c r="E126" s="2">
-        <v>30</v>
+      <c r="E126" s="20">
+        <v>5</v>
       </c>
       <c r="F126">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G126">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H126">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I126">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J126">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K126">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L126" s="2">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M126">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N126">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O126">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P126">
         <v>1</v>
@@ -78977,9 +79166,6 @@
       <c r="R126" t="s">
         <v>221</v>
       </c>
-      <c r="S126" t="s">
-        <v>234</v>
-      </c>
       <c r="V126">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -78999,49 +79185,49 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="B127" t="s">
         <v>204</v>
       </c>
       <c r="C127" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="D127" t="s">
         <v>92</v>
       </c>
-      <c r="E127" s="2">
-        <v>30</v>
+      <c r="E127" s="20">
+        <v>5</v>
       </c>
       <c r="F127">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G127">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H127">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I127">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J127">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K127">
+        <v>22</v>
+      </c>
+      <c r="L127" s="2">
+        <v>32</v>
+      </c>
+      <c r="M127">
+        <v>17</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127">
         <v>35</v>
-      </c>
-      <c r="L127" s="2">
-        <v>45</v>
-      </c>
-      <c r="M127">
-        <v>48</v>
-      </c>
-      <c r="N127">
-        <v>8</v>
-      </c>
-      <c r="O127">
-        <v>40</v>
       </c>
       <c r="P127">
         <v>1</v>
@@ -79052,9 +79238,6 @@
       <c r="R127" t="s">
         <v>221</v>
       </c>
-      <c r="S127" t="s">
-        <v>234</v>
-      </c>
       <c r="V127">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -79074,49 +79257,49 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="B128" t="s">
         <v>204</v>
       </c>
       <c r="C128" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="D128" t="s">
         <v>92</v>
       </c>
-      <c r="E128" s="2">
-        <v>30</v>
+      <c r="E128" s="20">
+        <v>5</v>
       </c>
       <c r="F128">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G128">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H128">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I128">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J128">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K128">
+        <v>22</v>
+      </c>
+      <c r="L128" s="2">
+        <v>32</v>
+      </c>
+      <c r="M128">
+        <v>17</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128">
         <v>35</v>
-      </c>
-      <c r="L128" s="2">
-        <v>45</v>
-      </c>
-      <c r="M128">
-        <v>48</v>
-      </c>
-      <c r="N128">
-        <v>8</v>
-      </c>
-      <c r="O128">
-        <v>40</v>
       </c>
       <c r="P128">
         <v>1</v>
@@ -79127,9 +79310,6 @@
       <c r="R128" t="s">
         <v>221</v>
       </c>
-      <c r="S128" t="s">
-        <v>234</v>
-      </c>
       <c r="V128">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -79149,49 +79329,49 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C129" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="D129" t="s">
         <v>92</v>
       </c>
-      <c r="E129" s="2">
-        <v>26</v>
+      <c r="E129" s="20">
+        <v>8</v>
       </c>
       <c r="F129">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>44</v>
+      </c>
+      <c r="I129">
+        <v>7</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2">
         <v>36</v>
       </c>
-      <c r="H129">
-        <v>49</v>
-      </c>
-      <c r="I129">
-        <v>23</v>
-      </c>
-      <c r="J129">
-        <v>21</v>
-      </c>
-      <c r="K129">
-        <v>33</v>
-      </c>
-      <c r="L129" s="2">
-        <v>43</v>
-      </c>
       <c r="M129">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O129">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="P129">
         <v>1</v>
@@ -79200,10 +79380,7 @@
         <v>0</v>
       </c>
       <c r="R129" t="s">
-        <v>221</v>
-      </c>
-      <c r="S129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V129">
         <f t="shared" si="3"/>
@@ -79224,7 +79401,7 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="B130" t="s">
         <v>207</v>
@@ -79235,38 +79412,38 @@
       <c r="D130" t="s">
         <v>92</v>
       </c>
-      <c r="E130" s="2">
-        <v>17</v>
+      <c r="E130" s="20">
+        <v>50</v>
       </c>
       <c r="F130">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G130">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="J130">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K130">
         <v>0</v>
       </c>
       <c r="L130" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M130">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N130">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="O130">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P130">
         <v>3</v>
@@ -79284,7 +79461,7 @@
         <v>232</v>
       </c>
       <c r="V130">
-        <f t="shared" ref="V130:V161" si="4">SUM(W130:Z130)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W130">
@@ -79302,67 +79479,64 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C131" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="D131" t="s">
         <v>92</v>
       </c>
-      <c r="E131" s="2">
-        <v>15</v>
+      <c r="E131" s="20">
+        <v>30</v>
       </c>
       <c r="F131">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G131">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I131">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="J131">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L131" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M131">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N131">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O131">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="P131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q131">
         <v>0</v>
       </c>
       <c r="R131" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="S131" t="s">
-        <v>228</v>
-      </c>
-      <c r="T131" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W131">
@@ -79380,67 +79554,64 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="B132" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C132" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="D132" t="s">
         <v>92</v>
       </c>
-      <c r="E132" s="2">
-        <v>15</v>
+      <c r="E132" s="20">
+        <v>30</v>
       </c>
       <c r="F132">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G132">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I132">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="J132">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L132" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M132">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N132">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O132">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="P132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q132">
         <v>0</v>
       </c>
       <c r="R132" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="S132" t="s">
-        <v>228</v>
-      </c>
-      <c r="T132" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W132">
@@ -79458,64 +79629,64 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C133" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="D133" t="s">
         <v>92</v>
       </c>
-      <c r="E133" s="2">
-        <v>3</v>
+      <c r="E133" s="20">
+        <v>30</v>
       </c>
       <c r="F133">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G133">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H133">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I133">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J133">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K133">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L133" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M133">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N133">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O133">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q133">
         <v>0</v>
       </c>
       <c r="R133" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W133">
@@ -79533,64 +79704,64 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C134" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="D134" t="s">
         <v>92</v>
       </c>
-      <c r="E134" s="2">
-        <v>3</v>
+      <c r="E134" s="20">
+        <v>30</v>
       </c>
       <c r="F134">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G134">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I134">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J134">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K134">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L134" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M134">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N134">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O134">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q134">
         <v>0</v>
       </c>
       <c r="R134" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W134">
@@ -79608,64 +79779,64 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="B135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="D135" t="s">
         <v>92</v>
       </c>
-      <c r="E135" s="2">
-        <v>3</v>
+      <c r="E135" s="20">
+        <v>26</v>
       </c>
       <c r="F135">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G135">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I135">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J135">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K135">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L135" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M135">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N135">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O135">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q135">
         <v>0</v>
       </c>
       <c r="R135" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W135">
@@ -79683,604 +79854,601 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="C136" t="s">
-        <v>1581</v>
+        <v>1570</v>
       </c>
       <c r="D136" t="s">
         <v>92</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="20">
+        <v>17</v>
+      </c>
+      <c r="F136">
+        <v>74</v>
+      </c>
+      <c r="G136">
+        <v>126</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>72</v>
+      </c>
+      <c r="J136">
+        <v>72</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2">
+        <v>48</v>
+      </c>
+      <c r="M136">
+        <v>19</v>
+      </c>
+      <c r="N136">
+        <v>15</v>
+      </c>
+      <c r="O136">
+        <v>18</v>
+      </c>
+      <c r="P136">
+        <v>3</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136" t="s">
+        <v>229</v>
+      </c>
+      <c r="S136" t="s">
+        <v>228</v>
+      </c>
+      <c r="T136" t="s">
+        <v>232</v>
+      </c>
+      <c r="V136">
+        <f t="shared" ref="V136:V167" si="4">SUM(W136:Z136)</f>
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B137" t="s">
+        <v>207</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D137" t="s">
+        <v>92</v>
+      </c>
+      <c r="E137" s="20">
+        <v>15</v>
+      </c>
+      <c r="F137">
+        <v>72</v>
+      </c>
+      <c r="G137">
+        <v>124</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>70</v>
+      </c>
+      <c r="J137">
+        <v>66</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2">
+        <v>47</v>
+      </c>
+      <c r="M137">
+        <v>19</v>
+      </c>
+      <c r="N137">
+        <v>12</v>
+      </c>
+      <c r="O137">
+        <v>18</v>
+      </c>
+      <c r="P137">
+        <v>3</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137" t="s">
+        <v>229</v>
+      </c>
+      <c r="S137" t="s">
+        <v>228</v>
+      </c>
+      <c r="T137" t="s">
+        <v>232</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B138" t="s">
+        <v>207</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D138" t="s">
+        <v>92</v>
+      </c>
+      <c r="E138" s="20">
+        <v>15</v>
+      </c>
+      <c r="F138">
+        <v>72</v>
+      </c>
+      <c r="G138">
+        <v>124</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>70</v>
+      </c>
+      <c r="J138">
+        <v>66</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2">
+        <v>47</v>
+      </c>
+      <c r="M138">
+        <v>19</v>
+      </c>
+      <c r="N138">
+        <v>12</v>
+      </c>
+      <c r="O138">
+        <v>18</v>
+      </c>
+      <c r="P138">
+        <v>3</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138" t="s">
+        <v>229</v>
+      </c>
+      <c r="S138" t="s">
+        <v>228</v>
+      </c>
+      <c r="T138" t="s">
+        <v>232</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B139" t="s">
+        <v>205</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E139" s="20">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>24</v>
+      </c>
+      <c r="G139">
+        <v>20</v>
+      </c>
+      <c r="H139">
+        <v>42</v>
+      </c>
+      <c r="I139">
+        <v>14</v>
+      </c>
+      <c r="J139">
+        <v>28</v>
+      </c>
+      <c r="K139">
+        <v>28</v>
+      </c>
+      <c r="L139" s="2">
+        <v>36</v>
+      </c>
+      <c r="M139">
+        <v>30</v>
+      </c>
+      <c r="N139">
+        <v>9</v>
+      </c>
+      <c r="O139">
+        <v>30</v>
+      </c>
+      <c r="P139">
+        <v>2</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139" t="s">
+        <v>226</v>
+      </c>
+      <c r="S139" t="s">
+        <v>233</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B140" t="s">
+        <v>205</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D140" t="s">
+        <v>92</v>
+      </c>
+      <c r="E140" s="20">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>24</v>
+      </c>
+      <c r="G140">
+        <v>20</v>
+      </c>
+      <c r="H140">
+        <v>42</v>
+      </c>
+      <c r="I140">
+        <v>14</v>
+      </c>
+      <c r="J140">
+        <v>28</v>
+      </c>
+      <c r="K140">
+        <v>28</v>
+      </c>
+      <c r="L140" s="2">
+        <v>36</v>
+      </c>
+      <c r="M140">
+        <v>30</v>
+      </c>
+      <c r="N140">
+        <v>9</v>
+      </c>
+      <c r="O140">
+        <v>30</v>
+      </c>
+      <c r="P140">
+        <v>2</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140" t="s">
+        <v>226</v>
+      </c>
+      <c r="S140" t="s">
+        <v>233</v>
+      </c>
+      <c r="V140">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B141" t="s">
+        <v>205</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D141" t="s">
+        <v>92</v>
+      </c>
+      <c r="E141" s="20">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <v>24</v>
+      </c>
+      <c r="G141">
+        <v>20</v>
+      </c>
+      <c r="H141">
+        <v>42</v>
+      </c>
+      <c r="I141">
+        <v>14</v>
+      </c>
+      <c r="J141">
+        <v>28</v>
+      </c>
+      <c r="K141">
+        <v>28</v>
+      </c>
+      <c r="L141" s="2">
+        <v>36</v>
+      </c>
+      <c r="M141">
+        <v>30</v>
+      </c>
+      <c r="N141">
+        <v>9</v>
+      </c>
+      <c r="O141">
+        <v>30</v>
+      </c>
+      <c r="P141">
+        <v>2</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141" t="s">
+        <v>226</v>
+      </c>
+      <c r="S141" t="s">
+        <v>233</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B142" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D142" t="s">
+        <v>92</v>
+      </c>
+      <c r="E142" s="20">
         <v>53</v>
       </c>
-      <c r="F136">
+      <c r="F142">
         <v>72</v>
       </c>
-      <c r="G136">
+      <c r="G142">
         <v>40</v>
       </c>
-      <c r="H136">
+      <c r="H142">
         <v>6</v>
       </c>
-      <c r="I136">
+      <c r="I142">
         <v>60</v>
       </c>
-      <c r="J136">
+      <c r="J142">
         <v>68</v>
       </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2">
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2">
         <v>61</v>
       </c>
-      <c r="M136">
+      <c r="M142">
         <v>39</v>
       </c>
-      <c r="N136">
+      <c r="N142">
         <v>55</v>
       </c>
-      <c r="O136">
+      <c r="O142">
         <v>30</v>
       </c>
-      <c r="P136">
-        <v>1</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136" t="s">
+      <c r="P142">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142" t="s">
         <v>1672</v>
       </c>
-      <c r="S136" t="s">
+      <c r="S142" t="s">
         <v>1671</v>
       </c>
-      <c r="T136" t="s">
+      <c r="T142" t="s">
         <v>1670</v>
       </c>
-      <c r="V136">
+      <c r="V142">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="W136">
+      <c r="W142">
         <v>20</v>
       </c>
-      <c r="X136">
+      <c r="X142">
         <v>20</v>
       </c>
-      <c r="Y136">
+      <c r="Y142">
         <v>30</v>
       </c>
-      <c r="Z136">
+      <c r="Z142">
         <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B137" t="s">
-        <v>207</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1570</v>
-      </c>
-      <c r="D137" t="s">
-        <v>92</v>
-      </c>
-      <c r="E137" s="2">
-        <v>53</v>
-      </c>
-      <c r="F137">
-        <v>78</v>
-      </c>
-      <c r="G137">
-        <v>137</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>85</v>
-      </c>
-      <c r="J137">
-        <v>76</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2">
-        <v>66</v>
-      </c>
-      <c r="M137">
-        <v>32</v>
-      </c>
-      <c r="N137">
-        <v>24</v>
-      </c>
-      <c r="O137">
-        <v>21</v>
-      </c>
-      <c r="P137">
-        <v>3</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137" t="s">
-        <v>229</v>
-      </c>
-      <c r="S137" t="s">
-        <v>228</v>
-      </c>
-      <c r="T137" t="s">
-        <v>232</v>
-      </c>
-      <c r="V137">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-      <c r="X137">
-        <v>0</v>
-      </c>
-      <c r="Y137">
-        <v>0</v>
-      </c>
-      <c r="Z137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B138" t="s">
-        <v>207</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1576</v>
-      </c>
-      <c r="D138" t="s">
-        <v>92</v>
-      </c>
-      <c r="E138" s="2">
-        <v>47</v>
-      </c>
-      <c r="F138">
-        <v>78</v>
-      </c>
-      <c r="G138">
-        <v>134</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>80</v>
-      </c>
-      <c r="J138">
-        <v>74</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2">
-        <v>63</v>
-      </c>
-      <c r="M138">
-        <v>29</v>
-      </c>
-      <c r="N138">
-        <v>22</v>
-      </c>
-      <c r="O138">
-        <v>21</v>
-      </c>
-      <c r="P138">
-        <v>3</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138" t="s">
-        <v>229</v>
-      </c>
-      <c r="S138" t="s">
-        <v>228</v>
-      </c>
-      <c r="T138" t="s">
-        <v>232</v>
-      </c>
-      <c r="V138">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-      <c r="X138">
-        <v>0</v>
-      </c>
-      <c r="Y138">
-        <v>0</v>
-      </c>
-      <c r="Z138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B139" t="s">
-        <v>207</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1577</v>
-      </c>
-      <c r="D139" t="s">
-        <v>92</v>
-      </c>
-      <c r="E139" s="2">
-        <v>47</v>
-      </c>
-      <c r="F139">
-        <v>78</v>
-      </c>
-      <c r="G139">
-        <v>134</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>80</v>
-      </c>
-      <c r="J139">
-        <v>74</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2">
-        <v>63</v>
-      </c>
-      <c r="M139">
-        <v>29</v>
-      </c>
-      <c r="N139">
-        <v>22</v>
-      </c>
-      <c r="O139">
-        <v>21</v>
-      </c>
-      <c r="P139">
-        <v>3</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139" t="s">
-        <v>229</v>
-      </c>
-      <c r="S139" t="s">
-        <v>228</v>
-      </c>
-      <c r="T139" t="s">
-        <v>232</v>
-      </c>
-      <c r="V139">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-      <c r="X139">
-        <v>0</v>
-      </c>
-      <c r="Y139">
-        <v>0</v>
-      </c>
-      <c r="Z139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B140" t="s">
-        <v>204</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D140" t="s">
-        <v>92</v>
-      </c>
-      <c r="E140" s="2">
-        <v>35</v>
-      </c>
-      <c r="F140">
-        <v>27</v>
-      </c>
-      <c r="G140">
-        <v>42</v>
-      </c>
-      <c r="H140">
-        <v>72</v>
-      </c>
-      <c r="I140">
-        <v>18</v>
-      </c>
-      <c r="J140">
-        <v>35</v>
-      </c>
-      <c r="K140">
-        <v>35</v>
-      </c>
-      <c r="L140" s="2">
-        <v>47</v>
-      </c>
-      <c r="M140">
-        <v>49</v>
-      </c>
-      <c r="N140">
-        <v>15</v>
-      </c>
-      <c r="O140">
-        <v>40</v>
-      </c>
-      <c r="P140">
-        <v>1</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140" t="s">
-        <v>222</v>
-      </c>
-      <c r="S140" t="s">
-        <v>235</v>
-      </c>
-      <c r="V140">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W140">
-        <v>0</v>
-      </c>
-      <c r="X140">
-        <v>0</v>
-      </c>
-      <c r="Y140">
-        <v>0</v>
-      </c>
-      <c r="Z140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B141" t="s">
-        <v>204</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D141" t="s">
-        <v>92</v>
-      </c>
-      <c r="E141" s="2">
-        <v>35</v>
-      </c>
-      <c r="F141">
-        <v>27</v>
-      </c>
-      <c r="G141">
-        <v>42</v>
-      </c>
-      <c r="H141">
-        <v>72</v>
-      </c>
-      <c r="I141">
-        <v>18</v>
-      </c>
-      <c r="J141">
-        <v>35</v>
-      </c>
-      <c r="K141">
-        <v>35</v>
-      </c>
-      <c r="L141" s="2">
-        <v>47</v>
-      </c>
-      <c r="M141">
-        <v>49</v>
-      </c>
-      <c r="N141">
-        <v>15</v>
-      </c>
-      <c r="O141">
-        <v>40</v>
-      </c>
-      <c r="P141">
-        <v>1</v>
-      </c>
-      <c r="Q141">
-        <v>0</v>
-      </c>
-      <c r="R141" t="s">
-        <v>222</v>
-      </c>
-      <c r="S141" t="s">
-        <v>235</v>
-      </c>
-      <c r="V141">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-      <c r="X141">
-        <v>0</v>
-      </c>
-      <c r="Y141">
-        <v>0</v>
-      </c>
-      <c r="Z141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B142" t="s">
-        <v>207</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D142" t="s">
-        <v>92</v>
-      </c>
-      <c r="E142" s="2">
-        <v>17</v>
-      </c>
-      <c r="F142">
-        <v>90</v>
-      </c>
-      <c r="G142">
-        <v>109</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>80</v>
-      </c>
-      <c r="J142">
-        <v>25</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2">
-        <v>48</v>
-      </c>
-      <c r="M142">
-        <v>26</v>
-      </c>
-      <c r="N142">
-        <v>16</v>
-      </c>
-      <c r="O142">
-        <v>30</v>
-      </c>
-      <c r="P142">
-        <v>3</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142" t="s">
-        <v>228</v>
-      </c>
-      <c r="S142" t="s">
-        <v>228</v>
-      </c>
-      <c r="T142" t="s">
-        <v>232</v>
-      </c>
-      <c r="V142">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-      <c r="Z142">
-        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="B143" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C143" t="s">
-        <v>1585</v>
+        <v>1570</v>
       </c>
       <c r="D143" t="s">
         <v>92</v>
       </c>
-      <c r="E143" s="2">
-        <v>15</v>
+      <c r="E143" s="20">
+        <v>53</v>
       </c>
       <c r="F143">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G143">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>85</v>
+      </c>
+      <c r="J143">
+        <v>76</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2">
+        <v>66</v>
+      </c>
+      <c r="M143">
+        <v>32</v>
+      </c>
+      <c r="N143">
         <v>24</v>
       </c>
-      <c r="I143">
-        <v>36</v>
-      </c>
-      <c r="J143">
-        <v>22</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2">
-        <v>44</v>
-      </c>
-      <c r="M143">
-        <v>30</v>
-      </c>
-      <c r="N143">
-        <v>14</v>
-      </c>
       <c r="O143">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="P143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q143">
         <v>0</v>
       </c>
       <c r="R143" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="S143" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="T143" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V143">
         <f t="shared" si="4"/>
@@ -80301,61 +80469,64 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="B144" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C144" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="D144" t="s">
         <v>92</v>
       </c>
-      <c r="E144" s="2">
-        <v>5</v>
+      <c r="E144" s="20">
+        <v>47</v>
       </c>
       <c r="F144">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="G144">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>80</v>
+      </c>
+      <c r="J144">
+        <v>74</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2">
+        <v>63</v>
+      </c>
+      <c r="M144">
         <v>29</v>
       </c>
-      <c r="I144">
-        <v>8</v>
-      </c>
-      <c r="J144">
-        <v>12</v>
-      </c>
-      <c r="K144">
+      <c r="N144">
+        <v>22</v>
+      </c>
+      <c r="O144">
         <v>21</v>
       </c>
-      <c r="L144" s="2">
-        <v>32</v>
-      </c>
-      <c r="M144">
-        <v>30</v>
-      </c>
-      <c r="N144">
-        <v>4</v>
-      </c>
-      <c r="O144">
-        <v>35</v>
-      </c>
       <c r="P144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q144">
         <v>0</v>
       </c>
       <c r="R144" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="S144" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="T144" t="s">
+        <v>232</v>
       </c>
       <c r="V144">
         <f t="shared" si="4"/>
@@ -80376,61 +80547,64 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="B145" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C145" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
       <c r="D145" t="s">
         <v>92</v>
       </c>
-      <c r="E145" s="2">
-        <v>5</v>
+      <c r="E145" s="20">
+        <v>47</v>
       </c>
       <c r="F145">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="G145">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>80</v>
+      </c>
+      <c r="J145">
+        <v>74</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2">
+        <v>63</v>
+      </c>
+      <c r="M145">
         <v>29</v>
       </c>
-      <c r="I145">
-        <v>8</v>
-      </c>
-      <c r="J145">
-        <v>12</v>
-      </c>
-      <c r="K145">
+      <c r="N145">
+        <v>22</v>
+      </c>
+      <c r="O145">
         <v>21</v>
       </c>
-      <c r="L145" s="2">
-        <v>32</v>
-      </c>
-      <c r="M145">
-        <v>30</v>
-      </c>
-      <c r="N145">
-        <v>4</v>
-      </c>
-      <c r="O145">
-        <v>35</v>
-      </c>
       <c r="P145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q145">
         <v>0</v>
       </c>
       <c r="R145" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="S145" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="T145" t="s">
+        <v>232</v>
       </c>
       <c r="V145">
         <f t="shared" si="4"/>
@@ -80451,49 +80625,49 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="B146" t="s">
         <v>204</v>
       </c>
       <c r="C146" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D146" t="s">
         <v>92</v>
       </c>
-      <c r="E146" s="2">
-        <v>5</v>
+      <c r="E146" s="20">
+        <v>35</v>
       </c>
       <c r="F146">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G146">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H146">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I146">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J146">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K146">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L146" s="2">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M146">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N146">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O146">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P146">
         <v>1</v>
@@ -80502,10 +80676,10 @@
         <v>0</v>
       </c>
       <c r="R146" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S146" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="V146">
         <f t="shared" si="4"/>
@@ -80526,49 +80700,49 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="B147" t="s">
         <v>204</v>
       </c>
       <c r="C147" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="D147" t="s">
         <v>92</v>
       </c>
-      <c r="E147" s="2">
-        <v>5</v>
+      <c r="E147" s="20">
+        <v>35</v>
       </c>
       <c r="F147">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G147">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I147">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J147">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K147">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L147" s="2">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M147">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O147">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P147">
         <v>1</v>
@@ -80577,10 +80751,10 @@
         <v>0</v>
       </c>
       <c r="R147" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S147" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="V147">
         <f t="shared" si="4"/>
@@ -80601,7 +80775,7 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="B148" t="s">
         <v>207</v>
@@ -80612,35 +80786,35 @@
       <c r="D148" t="s">
         <v>92</v>
       </c>
-      <c r="E148" s="2">
-        <v>47</v>
+      <c r="E148" s="20">
+        <v>17</v>
       </c>
       <c r="F148">
         <v>90</v>
       </c>
       <c r="G148">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J148">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K148">
         <v>0</v>
       </c>
       <c r="L148" s="2">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M148">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N148">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O148">
         <v>30</v>
@@ -80652,37 +80826,34 @@
         <v>0</v>
       </c>
       <c r="R148" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S148" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T148" t="s">
-        <v>245</v>
-      </c>
-      <c r="U148" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="V148">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z148">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="B149" t="s">
         <v>206</v>
@@ -80693,35 +80864,35 @@
       <c r="D149" t="s">
         <v>92</v>
       </c>
-      <c r="E149" s="2">
-        <v>44</v>
+      <c r="E149" s="20">
+        <v>15</v>
       </c>
       <c r="F149">
         <v>54</v>
       </c>
       <c r="G149">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H149">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I149">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="J149">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K149">
         <v>0</v>
       </c>
       <c r="L149" s="2">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M149">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N149">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O149">
         <v>32</v>
@@ -80733,13 +80904,13 @@
         <v>0</v>
       </c>
       <c r="R149" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S149" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T149" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V149">
         <f t="shared" si="4"/>
@@ -80760,7 +80931,7 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="B150" t="s">
         <v>204</v>
@@ -80771,39 +80942,39 @@
       <c r="D150" t="s">
         <v>92</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="20">
+        <v>5</v>
+      </c>
+      <c r="F150">
+        <v>28</v>
+      </c>
+      <c r="G150">
+        <v>9</v>
+      </c>
+      <c r="H150">
+        <v>29</v>
+      </c>
+      <c r="I150">
+        <v>8</v>
+      </c>
+      <c r="J150">
+        <v>12</v>
+      </c>
+      <c r="K150">
+        <v>21</v>
+      </c>
+      <c r="L150" s="2">
+        <v>32</v>
+      </c>
+      <c r="M150">
+        <v>30</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150">
         <v>35</v>
       </c>
-      <c r="F150">
-        <v>27</v>
-      </c>
-      <c r="G150">
-        <v>34</v>
-      </c>
-      <c r="H150">
-        <v>74</v>
-      </c>
-      <c r="I150">
-        <v>21</v>
-      </c>
-      <c r="J150">
-        <v>33</v>
-      </c>
-      <c r="K150">
-        <v>36</v>
-      </c>
-      <c r="L150" s="2">
-        <v>47</v>
-      </c>
-      <c r="M150">
-        <v>60</v>
-      </c>
-      <c r="N150">
-        <v>12</v>
-      </c>
-      <c r="O150">
-        <v>40</v>
-      </c>
       <c r="P150">
         <v>1</v>
       </c>
@@ -80811,10 +80982,10 @@
         <v>0</v>
       </c>
       <c r="R150" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="S150" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="V150">
         <f t="shared" si="4"/>
@@ -80835,7 +81006,7 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="B151" t="s">
         <v>204</v>
@@ -80846,39 +81017,39 @@
       <c r="D151" t="s">
         <v>92</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="20">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>28</v>
+      </c>
+      <c r="G151">
+        <v>9</v>
+      </c>
+      <c r="H151">
+        <v>29</v>
+      </c>
+      <c r="I151">
+        <v>8</v>
+      </c>
+      <c r="J151">
+        <v>12</v>
+      </c>
+      <c r="K151">
+        <v>21</v>
+      </c>
+      <c r="L151" s="2">
+        <v>32</v>
+      </c>
+      <c r="M151">
+        <v>30</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151">
         <v>35</v>
       </c>
-      <c r="F151">
-        <v>27</v>
-      </c>
-      <c r="G151">
-        <v>34</v>
-      </c>
-      <c r="H151">
-        <v>74</v>
-      </c>
-      <c r="I151">
-        <v>21</v>
-      </c>
-      <c r="J151">
-        <v>33</v>
-      </c>
-      <c r="K151">
-        <v>36</v>
-      </c>
-      <c r="L151" s="2">
-        <v>47</v>
-      </c>
-      <c r="M151">
-        <v>60</v>
-      </c>
-      <c r="N151">
-        <v>12</v>
-      </c>
-      <c r="O151">
-        <v>40</v>
-      </c>
       <c r="P151">
         <v>1</v>
       </c>
@@ -80886,10 +81057,10 @@
         <v>0</v>
       </c>
       <c r="R151" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="S151" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="V151">
         <f t="shared" si="4"/>
@@ -80910,49 +81081,49 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D152" t="s">
         <v>92</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="20">
+        <v>5</v>
+      </c>
+      <c r="F152">
+        <v>28</v>
+      </c>
+      <c r="G152">
+        <v>9</v>
+      </c>
+      <c r="H152">
         <v>29</v>
       </c>
-      <c r="F152">
-        <v>27</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>74</v>
-      </c>
       <c r="I152">
+        <v>8</v>
+      </c>
+      <c r="J152">
+        <v>12</v>
+      </c>
+      <c r="K152">
         <v>21</v>
       </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
       <c r="L152" s="2">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M152">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N152">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O152">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="P152">
         <v>1</v>
@@ -80961,7 +81132,10 @@
         <v>0</v>
       </c>
       <c r="R152" t="s">
-        <v>235</v>
+        <v>221</v>
+      </c>
+      <c r="S152" t="s">
+        <v>234</v>
       </c>
       <c r="V152">
         <f t="shared" si="4"/>
@@ -80982,49 +81156,49 @@
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="B153" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C153" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D153" t="s">
         <v>92</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="20">
+        <v>5</v>
+      </c>
+      <c r="F153">
+        <v>28</v>
+      </c>
+      <c r="G153">
+        <v>9</v>
+      </c>
+      <c r="H153">
         <v>29</v>
       </c>
-      <c r="F153">
-        <v>27</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>74</v>
-      </c>
       <c r="I153">
+        <v>8</v>
+      </c>
+      <c r="J153">
+        <v>12</v>
+      </c>
+      <c r="K153">
         <v>21</v>
       </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
       <c r="L153" s="2">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M153">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O153">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="P153">
         <v>1</v>
@@ -81033,7 +81207,10 @@
         <v>0</v>
       </c>
       <c r="R153" t="s">
-        <v>235</v>
+        <v>221</v>
+      </c>
+      <c r="S153" t="s">
+        <v>234</v>
       </c>
       <c r="V153">
         <f t="shared" si="4"/>
@@ -81054,127 +81231,130 @@
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="B154" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="C154" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="D154" t="s">
         <v>92</v>
       </c>
-      <c r="E154" s="2">
-        <v>20</v>
+      <c r="E154" s="20">
+        <v>47</v>
       </c>
       <c r="F154">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="J154">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K154">
         <v>0</v>
       </c>
       <c r="L154" s="2">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="M154">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N154">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O154">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154" t="s">
-        <v>1667</v>
+        <v>229</v>
       </c>
       <c r="S154" t="s">
-        <v>1668</v>
+        <v>229</v>
       </c>
       <c r="T154" t="s">
-        <v>1669</v>
+        <v>245</v>
+      </c>
+      <c r="U154" t="s">
+        <v>249</v>
       </c>
       <c r="V154">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="W154">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="X154">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Y154">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="B155" t="s">
         <v>206</v>
       </c>
       <c r="C155" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="D155" t="s">
         <v>92</v>
       </c>
-      <c r="E155" s="2">
-        <v>13</v>
+      <c r="E155" s="20">
+        <v>44</v>
       </c>
       <c r="F155">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G155">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H155">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I155">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J155">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K155">
         <v>0</v>
       </c>
       <c r="L155" s="2">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="M155">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N155">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="O155">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P155">
         <v>2</v>
@@ -81183,10 +81363,13 @@
         <v>0</v>
       </c>
       <c r="R155" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S155" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="T155" t="s">
+        <v>234</v>
       </c>
       <c r="V155">
         <f t="shared" si="4"/>
@@ -81207,61 +81390,61 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="B156" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C156" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D156" t="s">
         <v>92</v>
       </c>
-      <c r="E156" s="2">
-        <v>13</v>
+      <c r="E156" s="20">
+        <v>35</v>
       </c>
       <c r="F156">
+        <v>27</v>
+      </c>
+      <c r="G156">
+        <v>34</v>
+      </c>
+      <c r="H156">
+        <v>74</v>
+      </c>
+      <c r="I156">
+        <v>21</v>
+      </c>
+      <c r="J156">
+        <v>33</v>
+      </c>
+      <c r="K156">
         <v>36</v>
       </c>
-      <c r="G156">
-        <v>38</v>
-      </c>
-      <c r="H156">
-        <v>14</v>
-      </c>
-      <c r="I156">
-        <v>25</v>
-      </c>
-      <c r="J156">
-        <v>16</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
       <c r="L156" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M156">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N156">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O156">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q156">
         <v>0</v>
       </c>
       <c r="R156" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="S156" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="V156">
         <f t="shared" si="4"/>
@@ -81282,61 +81465,61 @@
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="B157" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C157" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="D157" t="s">
         <v>92</v>
       </c>
-      <c r="E157" s="2">
-        <v>13</v>
+      <c r="E157" s="20">
+        <v>35</v>
       </c>
       <c r="F157">
+        <v>27</v>
+      </c>
+      <c r="G157">
+        <v>34</v>
+      </c>
+      <c r="H157">
+        <v>74</v>
+      </c>
+      <c r="I157">
+        <v>21</v>
+      </c>
+      <c r="J157">
+        <v>33</v>
+      </c>
+      <c r="K157">
         <v>36</v>
       </c>
-      <c r="G157">
-        <v>38</v>
-      </c>
-      <c r="H157">
-        <v>14</v>
-      </c>
-      <c r="I157">
-        <v>25</v>
-      </c>
-      <c r="J157">
-        <v>16</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
       <c r="L157" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M157">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N157">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O157">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q157">
         <v>0</v>
       </c>
       <c r="R157" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="S157" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="V157">
         <f t="shared" si="4"/>
@@ -81357,61 +81540,58 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="B158" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C158" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="D158" t="s">
         <v>92</v>
       </c>
-      <c r="E158" s="2">
-        <v>13</v>
+      <c r="E158" s="20">
+        <v>29</v>
       </c>
       <c r="F158">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G158">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I158">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J158">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K158">
         <v>0</v>
       </c>
       <c r="L158" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M158">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="N158">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O158">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158" t="s">
-        <v>225</v>
-      </c>
-      <c r="S158" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V158">
         <f t="shared" si="4"/>
@@ -81432,50 +81612,50 @@
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="B159" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C159" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="D159" t="s">
         <v>92</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="20">
+        <v>29</v>
+      </c>
+      <c r="F159">
+        <v>27</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>74</v>
+      </c>
+      <c r="I159">
+        <v>21</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2">
+        <v>48</v>
+      </c>
+      <c r="M159">
         <v>5</v>
       </c>
-      <c r="F159">
+      <c r="N159">
+        <v>8</v>
+      </c>
+      <c r="O159">
         <v>15</v>
       </c>
-      <c r="G159">
-        <v>11</v>
-      </c>
-      <c r="H159">
-        <v>27</v>
-      </c>
-      <c r="I159">
-        <v>5</v>
-      </c>
-      <c r="J159">
-        <v>12</v>
-      </c>
-      <c r="K159">
-        <v>20</v>
-      </c>
-      <c r="L159" s="2">
-        <v>32</v>
-      </c>
-      <c r="M159">
-        <v>41</v>
-      </c>
-      <c r="N159">
-        <v>5</v>
-      </c>
-      <c r="O159">
-        <v>35</v>
-      </c>
       <c r="P159">
         <v>1</v>
       </c>
@@ -81483,7 +81663,7 @@
         <v>0</v>
       </c>
       <c r="R159" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="V159">
         <f t="shared" si="4"/>
@@ -81504,127 +81684,127 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C160" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="D160" t="s">
         <v>92</v>
       </c>
-      <c r="E160" s="2">
-        <v>41</v>
+      <c r="E160" s="20">
+        <v>20</v>
       </c>
       <c r="F160">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>4</v>
+      </c>
+      <c r="I160">
+        <v>19</v>
+      </c>
+      <c r="J160">
+        <v>14</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2">
+        <v>43</v>
+      </c>
+      <c r="M160">
+        <v>28</v>
+      </c>
+      <c r="N160">
         <v>39</v>
       </c>
-      <c r="H160">
-        <v>6</v>
-      </c>
-      <c r="I160">
-        <v>49</v>
-      </c>
-      <c r="J160">
-        <v>69</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2">
-        <v>54</v>
-      </c>
-      <c r="M160">
-        <v>47</v>
-      </c>
-      <c r="N160">
-        <v>49</v>
-      </c>
       <c r="O160">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q160">
         <v>0</v>
       </c>
       <c r="R160" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="S160" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="T160" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="V160">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="W160">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="X160">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Y160">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Z160">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="C161" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="D161" t="s">
         <v>92</v>
       </c>
-      <c r="E161" s="2">
-        <v>41</v>
+      <c r="E161" s="20">
+        <v>13</v>
       </c>
       <c r="F161">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G161">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H161">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I161">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J161">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="K161">
         <v>0</v>
       </c>
       <c r="L161" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M161">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N161">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="O161">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P161">
         <v>2</v>
@@ -81633,76 +81813,73 @@
         <v>0</v>
       </c>
       <c r="R161" t="s">
-        <v>1672</v>
+        <v>225</v>
       </c>
       <c r="S161" t="s">
-        <v>1671</v>
-      </c>
-      <c r="T161" t="s">
-        <v>1670</v>
+        <v>233</v>
       </c>
       <c r="V161">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W161">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X161">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y161">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z161">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="B162" t="s">
         <v>206</v>
       </c>
       <c r="C162" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="D162" t="s">
         <v>92</v>
       </c>
-      <c r="E162" s="2">
-        <v>44</v>
+      <c r="E162" s="20">
+        <v>13</v>
       </c>
       <c r="F162">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G162">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H162">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I162">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J162">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162" s="2">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M162">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N162">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O162">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P162">
         <v>2</v>
@@ -81714,76 +81891,70 @@
         <v>225</v>
       </c>
       <c r="S162" t="s">
-        <v>226</v>
-      </c>
-      <c r="T162" t="s">
-        <v>235</v>
-      </c>
-      <c r="U162" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="V162">
-        <f t="shared" ref="V162:V177" si="5">SUM(W162:Z162)</f>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="W162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z162">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="B163" t="s">
         <v>206</v>
       </c>
       <c r="C163" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="D163" t="s">
         <v>92</v>
       </c>
-      <c r="E163" s="2">
-        <v>44</v>
+      <c r="E163" s="20">
+        <v>13</v>
       </c>
       <c r="F163">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G163">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H163">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I163">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J163">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="L163" s="2">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M163">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N163">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O163">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P163">
         <v>2</v>
@@ -81795,544 +81966,547 @@
         <v>225</v>
       </c>
       <c r="S163" t="s">
+        <v>233</v>
+      </c>
+      <c r="V163">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B164" t="s">
+        <v>206</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D164" t="s">
+        <v>92</v>
+      </c>
+      <c r="E164" s="20">
+        <v>13</v>
+      </c>
+      <c r="F164">
+        <v>37</v>
+      </c>
+      <c r="G164">
+        <v>38</v>
+      </c>
+      <c r="H164">
+        <v>14</v>
+      </c>
+      <c r="I164">
+        <v>36</v>
+      </c>
+      <c r="J164">
+        <v>16</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2">
+        <v>43</v>
+      </c>
+      <c r="M164">
+        <v>33</v>
+      </c>
+      <c r="N164">
+        <v>11</v>
+      </c>
+      <c r="O164">
+        <v>25</v>
+      </c>
+      <c r="P164">
+        <v>2</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164" t="s">
+        <v>225</v>
+      </c>
+      <c r="S164" t="s">
+        <v>233</v>
+      </c>
+      <c r="V164">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B165" t="s">
+        <v>204</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D165" t="s">
+        <v>92</v>
+      </c>
+      <c r="E165" s="20">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>15</v>
+      </c>
+      <c r="G165">
+        <v>11</v>
+      </c>
+      <c r="H165">
+        <v>27</v>
+      </c>
+      <c r="I165">
+        <v>5</v>
+      </c>
+      <c r="J165">
+        <v>12</v>
+      </c>
+      <c r="K165">
+        <v>20</v>
+      </c>
+      <c r="L165" s="2">
+        <v>32</v>
+      </c>
+      <c r="M165">
+        <v>41</v>
+      </c>
+      <c r="N165">
+        <v>5</v>
+      </c>
+      <c r="O165">
+        <v>35</v>
+      </c>
+      <c r="P165">
+        <v>1</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165" t="s">
+        <v>221</v>
+      </c>
+      <c r="V165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B166" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D166" t="s">
+        <v>92</v>
+      </c>
+      <c r="E166" s="20">
+        <v>41</v>
+      </c>
+      <c r="F166">
+        <v>62</v>
+      </c>
+      <c r="G166">
+        <v>39</v>
+      </c>
+      <c r="H166">
+        <v>6</v>
+      </c>
+      <c r="I166">
+        <v>49</v>
+      </c>
+      <c r="J166">
+        <v>69</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166" s="2">
+        <v>54</v>
+      </c>
+      <c r="M166">
+        <v>47</v>
+      </c>
+      <c r="N166">
+        <v>49</v>
+      </c>
+      <c r="O166">
+        <v>30</v>
+      </c>
+      <c r="P166">
+        <v>2</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166" t="s">
+        <v>1672</v>
+      </c>
+      <c r="S166" t="s">
+        <v>1671</v>
+      </c>
+      <c r="T166" t="s">
+        <v>1670</v>
+      </c>
+      <c r="V166">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="W166">
+        <v>21</v>
+      </c>
+      <c r="X166">
+        <v>21</v>
+      </c>
+      <c r="Y166">
+        <v>21</v>
+      </c>
+      <c r="Z166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D167" t="s">
+        <v>92</v>
+      </c>
+      <c r="E167" s="20">
+        <v>41</v>
+      </c>
+      <c r="F167">
+        <v>62</v>
+      </c>
+      <c r="G167">
+        <v>39</v>
+      </c>
+      <c r="H167">
+        <v>6</v>
+      </c>
+      <c r="I167">
+        <v>49</v>
+      </c>
+      <c r="J167">
+        <v>69</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2">
+        <v>54</v>
+      </c>
+      <c r="M167">
+        <v>49</v>
+      </c>
+      <c r="N167">
+        <v>49</v>
+      </c>
+      <c r="O167">
+        <v>30</v>
+      </c>
+      <c r="P167">
+        <v>2</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167" t="s">
+        <v>1672</v>
+      </c>
+      <c r="S167" t="s">
+        <v>1671</v>
+      </c>
+      <c r="T167" t="s">
+        <v>1670</v>
+      </c>
+      <c r="V167">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="W167">
+        <v>21</v>
+      </c>
+      <c r="X167">
+        <v>21</v>
+      </c>
+      <c r="Y167">
+        <v>21</v>
+      </c>
+      <c r="Z167">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B168" t="s">
+        <v>206</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D168" t="s">
+        <v>92</v>
+      </c>
+      <c r="E168" s="20">
+        <v>44</v>
+      </c>
+      <c r="F168">
+        <v>45</v>
+      </c>
+      <c r="G168">
+        <v>65</v>
+      </c>
+      <c r="H168">
+        <v>69</v>
+      </c>
+      <c r="I168">
+        <v>49</v>
+      </c>
+      <c r="J168">
+        <v>64</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2">
+        <v>59</v>
+      </c>
+      <c r="M168">
+        <v>45</v>
+      </c>
+      <c r="N168">
+        <v>33</v>
+      </c>
+      <c r="O168">
+        <v>30</v>
+      </c>
+      <c r="P168">
+        <v>2</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168" t="s">
+        <v>225</v>
+      </c>
+      <c r="S168" t="s">
         <v>226</v>
       </c>
-      <c r="T163" t="s">
+      <c r="T168" t="s">
         <v>235</v>
       </c>
-      <c r="U163" t="s">
+      <c r="U168" t="s">
         <v>245</v>
       </c>
-      <c r="V163">
+      <c r="V168">
+        <f t="shared" ref="V168:V183" si="5">SUM(W168:Z168)</f>
+        <v>12</v>
+      </c>
+      <c r="W168">
+        <v>3</v>
+      </c>
+      <c r="X168">
+        <v>3</v>
+      </c>
+      <c r="Y168">
+        <v>3</v>
+      </c>
+      <c r="Z168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B169" t="s">
+        <v>206</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D169" t="s">
+        <v>92</v>
+      </c>
+      <c r="E169" s="20">
+        <v>44</v>
+      </c>
+      <c r="F169">
+        <v>44</v>
+      </c>
+      <c r="G169">
+        <v>65</v>
+      </c>
+      <c r="H169">
+        <v>59</v>
+      </c>
+      <c r="I169">
+        <v>49</v>
+      </c>
+      <c r="J169">
+        <v>54</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2">
+        <v>59</v>
+      </c>
+      <c r="M169">
+        <v>45</v>
+      </c>
+      <c r="N169">
+        <v>33</v>
+      </c>
+      <c r="O169">
+        <v>30</v>
+      </c>
+      <c r="P169">
+        <v>2</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169" t="s">
+        <v>225</v>
+      </c>
+      <c r="S169" t="s">
+        <v>226</v>
+      </c>
+      <c r="T169" t="s">
+        <v>235</v>
+      </c>
+      <c r="U169" t="s">
+        <v>245</v>
+      </c>
+      <c r="V169">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="W163">
+      <c r="W169">
         <v>3</v>
       </c>
-      <c r="X163">
+      <c r="X169">
         <v>3</v>
       </c>
-      <c r="Y163">
+      <c r="Y169">
         <v>3</v>
       </c>
-      <c r="Z163">
+      <c r="Z169">
         <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B164" t="s">
-        <v>204</v>
-      </c>
-      <c r="C164" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D164" t="s">
-        <v>92</v>
-      </c>
-      <c r="E164" s="2">
-        <v>35</v>
-      </c>
-      <c r="F164">
-        <v>15</v>
-      </c>
-      <c r="G164">
-        <v>35</v>
-      </c>
-      <c r="H164">
-        <v>74</v>
-      </c>
-      <c r="I164">
-        <v>19</v>
-      </c>
-      <c r="J164">
-        <v>39</v>
-      </c>
-      <c r="K164">
-        <v>35</v>
-      </c>
-      <c r="L164" s="2">
-        <v>47</v>
-      </c>
-      <c r="M164">
-        <v>60</v>
-      </c>
-      <c r="N164">
-        <v>12</v>
-      </c>
-      <c r="O164">
-        <v>40</v>
-      </c>
-      <c r="P164">
-        <v>2</v>
-      </c>
-      <c r="Q164">
-        <v>0</v>
-      </c>
-      <c r="R164" t="s">
-        <v>221</v>
-      </c>
-      <c r="S164" t="s">
-        <v>234</v>
-      </c>
-      <c r="V164">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W164">
-        <v>0</v>
-      </c>
-      <c r="X164">
-        <v>0</v>
-      </c>
-      <c r="Y164">
-        <v>0</v>
-      </c>
-      <c r="Z164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B165" t="s">
-        <v>204</v>
-      </c>
-      <c r="C165" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D165" t="s">
-        <v>92</v>
-      </c>
-      <c r="E165" s="2">
-        <v>35</v>
-      </c>
-      <c r="F165">
-        <v>15</v>
-      </c>
-      <c r="G165">
-        <v>35</v>
-      </c>
-      <c r="H165">
-        <v>74</v>
-      </c>
-      <c r="I165">
-        <v>19</v>
-      </c>
-      <c r="J165">
-        <v>39</v>
-      </c>
-      <c r="K165">
-        <v>35</v>
-      </c>
-      <c r="L165" s="2">
-        <v>47</v>
-      </c>
-      <c r="M165">
-        <v>60</v>
-      </c>
-      <c r="N165">
-        <v>12</v>
-      </c>
-      <c r="O165">
-        <v>40</v>
-      </c>
-      <c r="P165">
-        <v>2</v>
-      </c>
-      <c r="Q165">
-        <v>0</v>
-      </c>
-      <c r="R165" t="s">
-        <v>221</v>
-      </c>
-      <c r="S165" t="s">
-        <v>234</v>
-      </c>
-      <c r="V165">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-      <c r="X165">
-        <v>0</v>
-      </c>
-      <c r="Y165">
-        <v>0</v>
-      </c>
-      <c r="Z165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B166" t="s">
-        <v>206</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D166" t="s">
-        <v>92</v>
-      </c>
-      <c r="E166" s="2">
-        <v>21</v>
-      </c>
-      <c r="F166">
-        <v>60</v>
-      </c>
-      <c r="G166">
-        <v>53</v>
-      </c>
-      <c r="H166">
-        <v>26</v>
-      </c>
-      <c r="I166">
-        <v>34</v>
-      </c>
-      <c r="J166">
-        <v>18</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166" s="2">
-        <v>47</v>
-      </c>
-      <c r="M166">
-        <v>33</v>
-      </c>
-      <c r="N166">
-        <v>12</v>
-      </c>
-      <c r="O166">
-        <v>25</v>
-      </c>
-      <c r="P166">
-        <v>2</v>
-      </c>
-      <c r="Q166">
-        <v>0</v>
-      </c>
-      <c r="R166" t="s">
-        <v>225</v>
-      </c>
-      <c r="S166" t="s">
-        <v>233</v>
-      </c>
-      <c r="V166">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="W166">
-        <v>3</v>
-      </c>
-      <c r="X166">
-        <v>3</v>
-      </c>
-      <c r="Y166">
-        <v>3</v>
-      </c>
-      <c r="Z166">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B167" t="s">
-        <v>206</v>
-      </c>
-      <c r="C167" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D167" t="s">
-        <v>92</v>
-      </c>
-      <c r="E167" s="2">
-        <v>17</v>
-      </c>
-      <c r="F167">
-        <v>58</v>
-      </c>
-      <c r="G167">
-        <v>47</v>
-      </c>
-      <c r="H167">
-        <v>22</v>
-      </c>
-      <c r="I167">
-        <v>32</v>
-      </c>
-      <c r="J167">
-        <v>16</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167" s="2">
-        <v>45</v>
-      </c>
-      <c r="M167">
-        <v>33</v>
-      </c>
-      <c r="N167">
-        <v>11</v>
-      </c>
-      <c r="O167">
-        <v>25</v>
-      </c>
-      <c r="P167">
-        <v>2</v>
-      </c>
-      <c r="Q167">
-        <v>0</v>
-      </c>
-      <c r="R167" t="s">
-        <v>225</v>
-      </c>
-      <c r="S167" t="s">
-        <v>233</v>
-      </c>
-      <c r="V167">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="W167">
-        <v>3</v>
-      </c>
-      <c r="X167">
-        <v>3</v>
-      </c>
-      <c r="Y167">
-        <v>3</v>
-      </c>
-      <c r="Z167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B168" t="s">
-        <v>206</v>
-      </c>
-      <c r="C168" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D168" t="s">
-        <v>92</v>
-      </c>
-      <c r="E168" s="2">
-        <v>17</v>
-      </c>
-      <c r="F168">
-        <v>58</v>
-      </c>
-      <c r="G168">
-        <v>47</v>
-      </c>
-      <c r="H168">
-        <v>22</v>
-      </c>
-      <c r="I168">
-        <v>32</v>
-      </c>
-      <c r="J168">
-        <v>16</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168" s="2">
-        <v>45</v>
-      </c>
-      <c r="M168">
-        <v>33</v>
-      </c>
-      <c r="N168">
-        <v>11</v>
-      </c>
-      <c r="O168">
-        <v>25</v>
-      </c>
-      <c r="P168">
-        <v>2</v>
-      </c>
-      <c r="Q168">
-        <v>0</v>
-      </c>
-      <c r="R168" t="s">
-        <v>225</v>
-      </c>
-      <c r="S168" t="s">
-        <v>233</v>
-      </c>
-      <c r="V168">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="W168">
-        <v>3</v>
-      </c>
-      <c r="X168">
-        <v>3</v>
-      </c>
-      <c r="Y168">
-        <v>3</v>
-      </c>
-      <c r="Z168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B169" t="s">
-        <v>204</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D169" t="s">
-        <v>92</v>
-      </c>
-      <c r="E169" s="2">
-        <v>15</v>
-      </c>
-      <c r="F169">
-        <v>25</v>
-      </c>
-      <c r="G169">
-        <v>11</v>
-      </c>
-      <c r="H169">
-        <v>37</v>
-      </c>
-      <c r="I169">
-        <v>8</v>
-      </c>
-      <c r="J169">
-        <v>12</v>
-      </c>
-      <c r="K169">
-        <v>38</v>
-      </c>
-      <c r="L169" s="2">
-        <v>37</v>
-      </c>
-      <c r="M169">
-        <v>40</v>
-      </c>
-      <c r="N169">
-        <v>12</v>
-      </c>
-      <c r="O169">
-        <v>35</v>
-      </c>
-      <c r="P169">
-        <v>1</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169" t="s">
-        <v>221</v>
-      </c>
-      <c r="S169" t="s">
-        <v>234</v>
-      </c>
-      <c r="T169" t="s">
-        <v>263</v>
-      </c>
-      <c r="V169">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-      <c r="Y169">
-        <v>0</v>
-      </c>
-      <c r="Z169">
-        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="B170" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C170" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="D170" t="s">
         <v>92</v>
       </c>
-      <c r="E170" s="2">
-        <v>16</v>
+      <c r="E170" s="20">
+        <v>35</v>
       </c>
       <c r="F170">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="G170">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I170">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="J170">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L170" s="2">
         <v>47</v>
       </c>
       <c r="M170">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N170">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O170">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q170">
         <v>0</v>
       </c>
       <c r="R170" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="S170" t="s">
-        <v>228</v>
-      </c>
-      <c r="T170" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V170">
         <f t="shared" si="5"/>
@@ -82353,52 +82527,52 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="B171" t="s">
         <v>204</v>
       </c>
       <c r="C171" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="D171" t="s">
         <v>92</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="20">
+        <v>35</v>
+      </c>
+      <c r="F171">
         <v>15</v>
       </c>
-      <c r="F171">
-        <v>26</v>
-      </c>
       <c r="G171">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H171">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="I171">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J171">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K171">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L171" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M171">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N171">
         <v>12</v>
       </c>
       <c r="O171">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q171">
         <v>0</v>
@@ -82409,9 +82583,6 @@
       <c r="S171" t="s">
         <v>234</v>
       </c>
-      <c r="T171" t="s">
-        <v>263</v>
-      </c>
       <c r="V171">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -82431,7 +82602,7 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="B172" t="s">
         <v>206</v>
@@ -82442,38 +82613,38 @@
       <c r="D172" t="s">
         <v>92</v>
       </c>
-      <c r="E172" s="2">
-        <v>41</v>
+      <c r="E172" s="20">
+        <v>21</v>
       </c>
       <c r="F172">
+        <v>60</v>
+      </c>
+      <c r="G172">
+        <v>53</v>
+      </c>
+      <c r="H172">
+        <v>26</v>
+      </c>
+      <c r="I172">
         <v>34</v>
       </c>
-      <c r="G172">
-        <v>41</v>
-      </c>
-      <c r="H172">
-        <v>22</v>
-      </c>
-      <c r="I172">
-        <v>15</v>
-      </c>
       <c r="J172">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K172">
         <v>0</v>
       </c>
       <c r="L172" s="2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M172">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="N172">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="O172">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P172">
         <v>2</v>
@@ -82485,13 +82656,7 @@
         <v>225</v>
       </c>
       <c r="S172" t="s">
-        <v>226</v>
-      </c>
-      <c r="T172" t="s">
-        <v>235</v>
-      </c>
-      <c r="U172" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="V172">
         <f t="shared" si="5"/>
@@ -82512,7 +82677,7 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="B173" t="s">
         <v>206</v>
@@ -82523,38 +82688,38 @@
       <c r="D173" t="s">
         <v>92</v>
       </c>
-      <c r="E173" s="2">
-        <v>40</v>
+      <c r="E173" s="20">
+        <v>17</v>
       </c>
       <c r="F173">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G173">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H173">
         <v>22</v>
       </c>
       <c r="I173">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J173">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
       <c r="L173" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M173">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N173">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O173">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P173">
         <v>2</v>
@@ -82566,13 +82731,7 @@
         <v>225</v>
       </c>
       <c r="S173" t="s">
-        <v>226</v>
-      </c>
-      <c r="T173" t="s">
-        <v>235</v>
-      </c>
-      <c r="U173" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="V173">
         <f t="shared" si="5"/>
@@ -82593,7 +82752,7 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="B174" t="s">
         <v>206</v>
@@ -82604,38 +82763,38 @@
       <c r="D174" t="s">
         <v>92</v>
       </c>
-      <c r="E174" s="2">
-        <v>40</v>
+      <c r="E174" s="20">
+        <v>17</v>
       </c>
       <c r="F174">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G174">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H174">
         <v>22</v>
       </c>
       <c r="I174">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J174">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="K174">
         <v>0</v>
       </c>
       <c r="L174" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M174">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N174">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O174">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P174">
         <v>2</v>
@@ -82647,13 +82806,7 @@
         <v>225</v>
       </c>
       <c r="S174" t="s">
-        <v>226</v>
-      </c>
-      <c r="T174" t="s">
-        <v>235</v>
-      </c>
-      <c r="U174" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="V174">
         <f t="shared" si="5"/>
@@ -82674,7 +82827,7 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="B175" t="s">
         <v>204</v>
@@ -82685,38 +82838,38 @@
       <c r="D175" t="s">
         <v>92</v>
       </c>
-      <c r="E175" s="2">
-        <v>35</v>
+      <c r="E175" s="20">
+        <v>15</v>
       </c>
       <c r="F175">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G175">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H175">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I175">
+        <v>8</v>
+      </c>
+      <c r="J175">
         <v>12</v>
       </c>
-      <c r="J175">
-        <v>32</v>
-      </c>
       <c r="K175">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="L175" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M175">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N175">
         <v>12</v>
       </c>
       <c r="O175">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P175">
         <v>1</v>
@@ -82725,13 +82878,13 @@
         <v>0</v>
       </c>
       <c r="R175" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S175" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T175" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V175">
         <f t="shared" si="5"/>
@@ -82752,64 +82905,64 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="B176" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C176" t="s">
-        <v>1604</v>
+        <v>1581</v>
       </c>
       <c r="D176" t="s">
         <v>92</v>
       </c>
-      <c r="E176" s="2">
-        <v>35</v>
+      <c r="E176" s="20">
+        <v>16</v>
       </c>
       <c r="F176">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="G176">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="H176">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="J176">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K176">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L176" s="2">
         <v>47</v>
       </c>
       <c r="M176">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N176">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O176">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q176">
         <v>0</v>
       </c>
       <c r="R176" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="S176" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="T176" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="V176">
         <f t="shared" si="5"/>
@@ -82830,86 +82983,563 @@
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C177" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D177" t="s">
         <v>92</v>
       </c>
-      <c r="E177" s="2">
-        <v>32</v>
+      <c r="E177" s="20">
+        <v>15</v>
       </c>
       <c r="F177">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G177">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H177">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I177">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J177">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="K177">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="L177" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M177">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N177">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O177">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q177">
         <v>0</v>
       </c>
       <c r="R177" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S177" t="s">
         <v>234</v>
       </c>
       <c r="T177" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V177">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B178" t="s">
+        <v>206</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D178" t="s">
+        <v>92</v>
+      </c>
+      <c r="E178" s="20">
+        <v>41</v>
+      </c>
+      <c r="F178">
+        <v>34</v>
+      </c>
+      <c r="G178">
+        <v>41</v>
+      </c>
+      <c r="H178">
+        <v>22</v>
+      </c>
+      <c r="I178">
+        <v>15</v>
+      </c>
+      <c r="J178">
+        <v>54</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2">
+        <v>57</v>
+      </c>
+      <c r="M178">
+        <v>58</v>
+      </c>
+      <c r="N178">
+        <v>33</v>
+      </c>
+      <c r="O178">
+        <v>30</v>
+      </c>
+      <c r="P178">
+        <v>2</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178" t="s">
+        <v>225</v>
+      </c>
+      <c r="S178" t="s">
+        <v>226</v>
+      </c>
+      <c r="T178" t="s">
+        <v>235</v>
+      </c>
+      <c r="U178" t="s">
+        <v>245</v>
+      </c>
+      <c r="V178">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="W178">
+        <v>3</v>
+      </c>
+      <c r="X178">
+        <v>3</v>
+      </c>
+      <c r="Y178">
+        <v>3</v>
+      </c>
+      <c r="Z178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B179" t="s">
+        <v>206</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D179" t="s">
+        <v>92</v>
+      </c>
+      <c r="E179" s="20">
+        <v>40</v>
+      </c>
+      <c r="F179">
+        <v>32</v>
+      </c>
+      <c r="G179">
+        <v>41</v>
+      </c>
+      <c r="H179">
+        <v>22</v>
+      </c>
+      <c r="I179">
+        <v>15</v>
+      </c>
+      <c r="J179">
+        <v>54</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2">
+        <v>57</v>
+      </c>
+      <c r="M179">
+        <v>53</v>
+      </c>
+      <c r="N179">
+        <v>33</v>
+      </c>
+      <c r="O179">
+        <v>30</v>
+      </c>
+      <c r="P179">
+        <v>2</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179" t="s">
+        <v>225</v>
+      </c>
+      <c r="S179" t="s">
+        <v>226</v>
+      </c>
+      <c r="T179" t="s">
+        <v>235</v>
+      </c>
+      <c r="U179" t="s">
+        <v>245</v>
+      </c>
+      <c r="V179">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="W179">
+        <v>3</v>
+      </c>
+      <c r="X179">
+        <v>3</v>
+      </c>
+      <c r="Y179">
+        <v>3</v>
+      </c>
+      <c r="Z179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B180" t="s">
+        <v>206</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D180" t="s">
+        <v>92</v>
+      </c>
+      <c r="E180" s="20">
+        <v>40</v>
+      </c>
+      <c r="F180">
+        <v>32</v>
+      </c>
+      <c r="G180">
+        <v>41</v>
+      </c>
+      <c r="H180">
+        <v>22</v>
+      </c>
+      <c r="I180">
+        <v>15</v>
+      </c>
+      <c r="J180">
+        <v>54</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2">
+        <v>57</v>
+      </c>
+      <c r="M180">
+        <v>53</v>
+      </c>
+      <c r="N180">
+        <v>33</v>
+      </c>
+      <c r="O180">
+        <v>30</v>
+      </c>
+      <c r="P180">
+        <v>2</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180" t="s">
+        <v>225</v>
+      </c>
+      <c r="S180" t="s">
+        <v>226</v>
+      </c>
+      <c r="T180" t="s">
+        <v>235</v>
+      </c>
+      <c r="U180" t="s">
+        <v>245</v>
+      </c>
+      <c r="V180">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="W180">
+        <v>3</v>
+      </c>
+      <c r="X180">
+        <v>3</v>
+      </c>
+      <c r="Y180">
+        <v>3</v>
+      </c>
+      <c r="Z180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B181" t="s">
+        <v>204</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D181" t="s">
+        <v>92</v>
+      </c>
+      <c r="E181" s="20">
+        <v>35</v>
+      </c>
+      <c r="F181">
+        <v>35</v>
+      </c>
+      <c r="G181">
+        <v>24</v>
+      </c>
+      <c r="H181">
+        <v>74</v>
+      </c>
+      <c r="I181">
+        <v>12</v>
+      </c>
+      <c r="J181">
+        <v>32</v>
+      </c>
+      <c r="K181">
+        <v>15</v>
+      </c>
+      <c r="L181" s="2">
+        <v>47</v>
+      </c>
+      <c r="M181">
+        <v>60</v>
+      </c>
+      <c r="N181">
+        <v>12</v>
+      </c>
+      <c r="O181">
+        <v>40</v>
+      </c>
+      <c r="P181">
+        <v>1</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181" t="s">
+        <v>222</v>
+      </c>
+      <c r="S181" t="s">
+        <v>235</v>
+      </c>
+      <c r="T181" t="s">
+        <v>262</v>
+      </c>
+      <c r="V181">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B182" t="s">
+        <v>204</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D182" t="s">
+        <v>92</v>
+      </c>
+      <c r="E182" s="20">
+        <v>35</v>
+      </c>
+      <c r="F182">
+        <v>35</v>
+      </c>
+      <c r="G182">
+        <v>24</v>
+      </c>
+      <c r="H182">
+        <v>74</v>
+      </c>
+      <c r="I182">
+        <v>12</v>
+      </c>
+      <c r="J182">
+        <v>32</v>
+      </c>
+      <c r="K182">
+        <v>15</v>
+      </c>
+      <c r="L182" s="2">
+        <v>47</v>
+      </c>
+      <c r="M182">
+        <v>60</v>
+      </c>
+      <c r="N182">
+        <v>12</v>
+      </c>
+      <c r="O182">
+        <v>40</v>
+      </c>
+      <c r="P182">
+        <v>1</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182" t="s">
+        <v>222</v>
+      </c>
+      <c r="S182" t="s">
+        <v>235</v>
+      </c>
+      <c r="T182" t="s">
+        <v>262</v>
+      </c>
+      <c r="V182">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B183" t="s">
+        <v>205</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D183" t="s">
+        <v>92</v>
+      </c>
+      <c r="E183" s="20">
+        <v>32</v>
+      </c>
+      <c r="F183">
+        <v>50</v>
+      </c>
+      <c r="G183">
+        <v>43</v>
+      </c>
+      <c r="H183">
+        <v>71</v>
+      </c>
+      <c r="I183">
+        <v>28</v>
+      </c>
+      <c r="J183">
+        <v>28</v>
+      </c>
+      <c r="K183">
+        <v>16</v>
+      </c>
+      <c r="L183" s="2">
+        <v>51</v>
+      </c>
+      <c r="M183">
+        <v>48</v>
+      </c>
+      <c r="N183">
+        <v>20</v>
+      </c>
+      <c r="O183">
+        <v>30</v>
+      </c>
+      <c r="P183">
+        <v>2</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183" t="s">
+        <v>226</v>
+      </c>
+      <c r="S183" t="s">
+        <v>234</v>
+      </c>
+      <c r="T183" t="s">
+        <v>262</v>
+      </c>
+      <c r="V183">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="W177">
+      <c r="W183">
         <v>2</v>
       </c>
-      <c r="X177">
+      <c r="X183">
         <v>2</v>
       </c>
-      <c r="Y177">
+      <c r="Y183">
         <v>2</v>
       </c>
-      <c r="Z177">
+      <c r="Z183">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC177" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC177">
-      <sortCondition ref="A1:A177"/>
+  <autoFilter ref="A1:AC183" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC183">
+      <sortCondition ref="A1:A183"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -82923,10 +83553,10 @@
   <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\游戏\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7097DDCB-9B45-45FF-B34C-3D87AF6C98F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F941ED8-A869-4005-831F-91987C93678A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="2310" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -5795,10 +5795,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>梭鱼攻击机(720kg)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BTD-1毁灭者(2000磅)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6387,6 +6383,10 @@
   </si>
   <si>
     <t>11015</t>
+  </si>
+  <si>
+    <t>SG-104机载无后坐力炮(JU-288)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6471,7 +6471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6515,6 +6515,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7449,16 +7450,16 @@
         <v>73</v>
       </c>
       <c r="W1" s="10" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X1" s="10" t="s">
         <v>1860</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>1861</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>1862</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>1863</v>
       </c>
       <c r="AA1" t="s">
         <v>23</v>
@@ -7883,7 +7884,7 @@
         <v>207</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>69</v>
@@ -7969,7 +7970,7 @@
         <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>69</v>
@@ -8055,7 +8056,7 @@
         <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>70</v>
@@ -8555,7 +8556,7 @@
         <v>207</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>68</v>
@@ -8641,7 +8642,7 @@
         <v>207</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>69</v>
@@ -8727,7 +8728,7 @@
         <v>207</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>67</v>
@@ -8813,7 +8814,7 @@
         <v>207</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>67</v>
@@ -8899,7 +8900,7 @@
         <v>207</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>67</v>
@@ -8985,7 +8986,7 @@
         <v>207</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>67</v>
@@ -9071,7 +9072,7 @@
         <v>207</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>67</v>
@@ -9157,7 +9158,7 @@
         <v>207</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>71</v>
@@ -9243,7 +9244,7 @@
         <v>207</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>81</v>
@@ -10070,7 +10071,7 @@
         <v>206</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>67</v>
@@ -10156,7 +10157,7 @@
         <v>206</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>67</v>
@@ -10242,7 +10243,7 @@
         <v>207</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>70</v>
@@ -10328,7 +10329,7 @@
         <v>207</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>69</v>
@@ -10753,7 +10754,7 @@
         <v>207</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>67</v>
@@ -10839,7 +10840,7 @@
         <v>206</v>
       </c>
       <c r="C42" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>81</v>
@@ -10923,7 +10924,7 @@
         <v>206</v>
       </c>
       <c r="C43" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>3</v>
@@ -11007,7 +11008,7 @@
         <v>207</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>68</v>
@@ -11264,7 +11265,7 @@
         <v>207</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>69</v>
@@ -11350,7 +11351,7 @@
         <v>207</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>67</v>
@@ -11436,7 +11437,7 @@
         <v>206</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>67</v>
@@ -11604,7 +11605,7 @@
         <v>207</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>67</v>
@@ -11690,7 +11691,7 @@
         <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>67</v>
@@ -11776,7 +11777,7 @@
         <v>207</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>69</v>
@@ -11862,7 +11863,7 @@
         <v>205</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>69</v>
@@ -11946,7 +11947,7 @@
         <v>205</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>67</v>
@@ -12203,7 +12204,7 @@
         <v>206</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>67</v>
@@ -12287,7 +12288,7 @@
         <v>207</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>70</v>
@@ -12373,7 +12374,7 @@
         <v>207</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>70</v>
@@ -12545,7 +12546,7 @@
         <v>206</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>3</v>
@@ -12629,7 +12630,7 @@
         <v>207</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>69</v>
@@ -12799,7 +12800,7 @@
         <v>207</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>67</v>
@@ -12885,7 +12886,7 @@
         <v>207</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>67</v>
@@ -12971,7 +12972,7 @@
         <v>207</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>69</v>
@@ -13393,7 +13394,7 @@
         <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>3</v>
@@ -13816,7 +13817,7 @@
         <v>207</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>70</v>
@@ -13986,7 +13987,7 @@
         <v>21</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>67</v>
@@ -14203,16 +14204,16 @@
         <v>73</v>
       </c>
       <c r="W1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="X1" t="s">
         <v>1856</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>1857</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>1858</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1859</v>
       </c>
       <c r="AA1" t="s">
         <v>23</v>
@@ -14316,7 +14317,7 @@
         <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>3</v>
@@ -14570,7 +14571,7 @@
         <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>68</v>
@@ -14658,7 +14659,7 @@
         <v>207</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>68</v>
@@ -14744,7 +14745,7 @@
         <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>69</v>
@@ -14830,7 +14831,7 @@
         <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>69</v>
@@ -14918,7 +14919,7 @@
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>69</v>
@@ -15006,7 +15007,7 @@
         <v>207</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>67</v>
@@ -15092,7 +15093,7 @@
         <v>207</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>67</v>
@@ -15178,7 +15179,7 @@
         <v>207</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>71</v>
@@ -15264,7 +15265,7 @@
         <v>207</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>3</v>
@@ -16193,7 +16194,7 @@
         <v>206</v>
       </c>
       <c r="C25" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>3</v>
@@ -16276,7 +16277,7 @@
         <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>3</v>
@@ -16359,7 +16360,7 @@
         <v>206</v>
       </c>
       <c r="C27" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>3</v>
@@ -16442,7 +16443,7 @@
         <v>206</v>
       </c>
       <c r="C28" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>3</v>
@@ -16525,7 +16526,7 @@
         <v>206</v>
       </c>
       <c r="C29" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>68</v>
@@ -16608,7 +16609,7 @@
         <v>206</v>
       </c>
       <c r="C30" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>68</v>
@@ -16691,7 +16692,7 @@
         <v>206</v>
       </c>
       <c r="C31" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>68</v>
@@ -16774,7 +16775,7 @@
         <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>67</v>
@@ -16857,7 +16858,7 @@
         <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>67</v>
@@ -16940,7 +16941,7 @@
         <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>69</v>
@@ -17025,10 +17026,10 @@
         <v>205</v>
       </c>
       <c r="C35" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>1945</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>1946</v>
       </c>
       <c r="E35" s="12">
         <v>39</v>
@@ -17110,7 +17111,7 @@
         <v>205</v>
       </c>
       <c r="C36" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>67</v>
@@ -17195,7 +17196,7 @@
         <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>67</v>
@@ -17282,7 +17283,7 @@
         <v>204</v>
       </c>
       <c r="C38" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>3</v>
@@ -17356,7 +17357,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
       <c r="AC38" s="12" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
@@ -17367,7 +17368,7 @@
         <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>3</v>
@@ -17441,7 +17442,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
       <c r="AC39" s="12" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
@@ -17452,7 +17453,7 @@
         <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>3</v>
@@ -17526,7 +17527,7 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
       <c r="AC40" s="12" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
@@ -17537,7 +17538,7 @@
         <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>3</v>
@@ -17611,7 +17612,7 @@
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
       <c r="AC41" s="12" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
@@ -17622,7 +17623,7 @@
         <v>204</v>
       </c>
       <c r="C42" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>3</v>
@@ -17696,7 +17697,7 @@
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
       <c r="AC42" s="12" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -17707,7 +17708,7 @@
         <v>204</v>
       </c>
       <c r="C43" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>81</v>
@@ -17781,7 +17782,7 @@
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
       <c r="AC43" s="12" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
@@ -17792,7 +17793,7 @@
         <v>204</v>
       </c>
       <c r="C44" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>3</v>
@@ -17866,7 +17867,7 @@
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
       <c r="AC44" s="12" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
@@ -17877,7 +17878,7 @@
         <v>204</v>
       </c>
       <c r="C45" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>3</v>
@@ -17951,7 +17952,7 @@
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="12" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
@@ -17962,7 +17963,7 @@
         <v>204</v>
       </c>
       <c r="C46" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>3</v>
@@ -18036,7 +18037,7 @@
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
       <c r="AC46" s="12" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
@@ -18047,7 +18048,7 @@
         <v>204</v>
       </c>
       <c r="C47" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>3</v>
@@ -18121,7 +18122,7 @@
       <c r="AA47" s="12"/>
       <c r="AB47" s="12"/>
       <c r="AC47" s="12" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
@@ -18132,7 +18133,7 @@
         <v>204</v>
       </c>
       <c r="C48" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>68</v>
@@ -18215,7 +18216,7 @@
         <v>204</v>
       </c>
       <c r="C49" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>68</v>
@@ -18298,7 +18299,7 @@
         <v>204</v>
       </c>
       <c r="C50" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>68</v>
@@ -18381,7 +18382,7 @@
         <v>204</v>
       </c>
       <c r="C51" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>68</v>
@@ -18464,7 +18465,7 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>68</v>
@@ -18547,7 +18548,7 @@
         <v>204</v>
       </c>
       <c r="C53" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>69</v>
@@ -18713,7 +18714,7 @@
         <v>204</v>
       </c>
       <c r="C55" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>69</v>
@@ -18796,7 +18797,7 @@
         <v>204</v>
       </c>
       <c r="C56" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>69</v>
@@ -18879,7 +18880,7 @@
         <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>69</v>
@@ -18962,7 +18963,7 @@
         <v>204</v>
       </c>
       <c r="C58" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>69</v>
@@ -19045,7 +19046,7 @@
         <v>204</v>
       </c>
       <c r="C59" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>69</v>
@@ -19128,7 +19129,7 @@
         <v>204</v>
       </c>
       <c r="C60" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>69</v>
@@ -19211,7 +19212,7 @@
         <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>67</v>
@@ -19294,7 +19295,7 @@
         <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>67</v>
@@ -19377,7 +19378,7 @@
         <v>204</v>
       </c>
       <c r="C63" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>67</v>
@@ -19460,7 +19461,7 @@
         <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>70</v>
@@ -19543,7 +19544,7 @@
         <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>70</v>
@@ -19626,7 +19627,7 @@
         <v>207</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>69</v>
@@ -19714,7 +19715,7 @@
         <v>207</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>3</v>
@@ -19802,7 +19803,7 @@
         <v>207</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>3</v>
@@ -19890,7 +19891,7 @@
         <v>207</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>69</v>
@@ -19978,7 +19979,7 @@
         <v>207</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>67</v>
@@ -20064,7 +20065,7 @@
         <v>207</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>67</v>
@@ -20150,7 +20151,7 @@
         <v>207</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>67</v>
@@ -20236,7 +20237,7 @@
         <v>207</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>67</v>
@@ -20324,7 +20325,7 @@
         <v>207</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>67</v>
@@ -20412,7 +20413,7 @@
         <v>207</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>67</v>
@@ -20500,7 +20501,7 @@
         <v>207</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>71</v>
@@ -20586,7 +20587,7 @@
         <v>207</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>70</v>
@@ -21352,7 +21353,7 @@
         <v>206</v>
       </c>
       <c r="C86" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>3</v>
@@ -21435,7 +21436,7 @@
         <v>206</v>
       </c>
       <c r="C87" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>3</v>
@@ -21518,7 +21519,7 @@
         <v>206</v>
       </c>
       <c r="C88" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>3</v>
@@ -21601,7 +21602,7 @@
         <v>206</v>
       </c>
       <c r="C89" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>69</v>
@@ -21684,7 +21685,7 @@
         <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>69</v>
@@ -21767,7 +21768,7 @@
         <v>206</v>
       </c>
       <c r="C91" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>67</v>
@@ -21852,7 +21853,7 @@
         <v>206</v>
       </c>
       <c r="C92" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>67</v>
@@ -21937,7 +21938,7 @@
         <v>206</v>
       </c>
       <c r="C93" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>67</v>
@@ -22020,7 +22021,7 @@
         <v>206</v>
       </c>
       <c r="C94" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>67</v>
@@ -22103,7 +22104,7 @@
         <v>206</v>
       </c>
       <c r="C95" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>67</v>
@@ -22186,7 +22187,7 @@
         <v>205</v>
       </c>
       <c r="C96" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>81</v>
@@ -22271,10 +22272,10 @@
         <v>205</v>
       </c>
       <c r="C97" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E97" s="12">
         <v>33</v>
@@ -22356,7 +22357,7 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>3</v>
@@ -22439,7 +22440,7 @@
         <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>3</v>
@@ -22522,7 +22523,7 @@
         <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>3</v>
@@ -22605,7 +22606,7 @@
         <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>3</v>
@@ -22688,7 +22689,7 @@
         <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>3</v>
@@ -22771,10 +22772,10 @@
         <v>204</v>
       </c>
       <c r="C103" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E103" s="12">
         <v>32</v>
@@ -22854,7 +22855,7 @@
         <v>204</v>
       </c>
       <c r="C104" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>68</v>
@@ -22937,7 +22938,7 @@
         <v>204</v>
       </c>
       <c r="C105" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>69</v>
@@ -23020,7 +23021,7 @@
         <v>204</v>
       </c>
       <c r="C106" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>67</v>
@@ -23103,7 +23104,7 @@
         <v>204</v>
       </c>
       <c r="C107" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>67</v>
@@ -23186,7 +23187,7 @@
         <v>204</v>
       </c>
       <c r="C108" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>67</v>
@@ -23269,7 +23270,7 @@
         <v>204</v>
       </c>
       <c r="C109" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>67</v>
@@ -23352,7 +23353,7 @@
         <v>204</v>
       </c>
       <c r="C110" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>81</v>
@@ -23435,7 +23436,7 @@
         <v>204</v>
       </c>
       <c r="C111" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>71</v>
@@ -23518,7 +23519,7 @@
         <v>204</v>
       </c>
       <c r="C112" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>71</v>
@@ -23601,7 +23602,7 @@
         <v>204</v>
       </c>
       <c r="C113" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>81</v>
@@ -23684,7 +23685,7 @@
         <v>207</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>67</v>
@@ -23772,7 +23773,7 @@
         <v>207</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>67</v>
@@ -23860,7 +23861,7 @@
         <v>207</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>71</v>
@@ -24372,7 +24373,7 @@
         <v>76</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D122" t="s">
         <v>69</v>
@@ -24708,10 +24709,10 @@
         <v>11233</v>
       </c>
       <c r="B126" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>1951</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>1952</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>3</v>
@@ -24794,7 +24795,7 @@
         <v>206</v>
       </c>
       <c r="C127" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>67</v>
@@ -24879,7 +24880,7 @@
         <v>206</v>
       </c>
       <c r="C128" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>67</v>
@@ -24963,10 +24964,10 @@
         <v>11248</v>
       </c>
       <c r="B129" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>3</v>
@@ -25049,7 +25050,7 @@
         <v>204</v>
       </c>
       <c r="C130" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>3</v>
@@ -25132,7 +25133,7 @@
         <v>204</v>
       </c>
       <c r="C131" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>68</v>
@@ -25215,7 +25216,7 @@
         <v>204</v>
       </c>
       <c r="C132" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>68</v>
@@ -25298,7 +25299,7 @@
         <v>204</v>
       </c>
       <c r="C133" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D133" s="11" t="s">
         <v>67</v>
@@ -25381,7 +25382,7 @@
         <v>204</v>
       </c>
       <c r="C134" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>67</v>
@@ -25464,7 +25465,7 @@
         <v>204</v>
       </c>
       <c r="C135" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>67</v>
@@ -25547,7 +25548,7 @@
         <v>204</v>
       </c>
       <c r="C136" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>67</v>
@@ -25630,7 +25631,7 @@
         <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>69</v>
@@ -25713,7 +25714,7 @@
         <v>204</v>
       </c>
       <c r="C138" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D138" s="11" t="s">
         <v>81</v>
@@ -25798,7 +25799,7 @@
         <v>204</v>
       </c>
       <c r="C139" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>81</v>
@@ -25881,7 +25882,7 @@
         <v>204</v>
       </c>
       <c r="C140" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>70</v>
@@ -26053,7 +26054,7 @@
         <v>204</v>
       </c>
       <c r="C142" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>67</v>
@@ -26136,7 +26137,7 @@
         <v>204</v>
       </c>
       <c r="C143" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D143" s="11" t="s">
         <v>67</v>
@@ -26219,7 +26220,7 @@
         <v>204</v>
       </c>
       <c r="C144" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D144" s="11" t="s">
         <v>3</v>
@@ -26302,7 +26303,7 @@
         <v>207</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>69</v>
@@ -26390,7 +26391,7 @@
         <v>206</v>
       </c>
       <c r="C146" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>69</v>
@@ -26473,7 +26474,7 @@
         <v>205</v>
       </c>
       <c r="C147" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>81</v>
@@ -26906,11 +26907,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA551"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27035,7 +27036,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>219</v>
@@ -27061,7 +27062,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>219</v>
@@ -27087,7 +27088,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>494</v>
@@ -27116,7 +27117,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>295</v>
@@ -27373,7 +27374,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>297</v>
@@ -27402,7 +27403,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>295</v>
@@ -27434,7 +27435,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>295</v>
@@ -27466,7 +27467,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>295</v>
@@ -27498,20 +27499,17 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>295</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1839</v>
+        <v>2024</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>1686</v>
       </c>
-      <c r="K14" s="7">
-        <v>-1</v>
-      </c>
       <c r="O14" s="9">
         <v>12</v>
       </c>
@@ -27525,18 +27523,18 @@
         <v>1690</v>
       </c>
       <c r="Y14" s="7">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>295</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>1686</v>
@@ -27556,13 +27554,13 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>219</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>1686</v>
@@ -37777,7 +37775,7 @@
         <v>284</v>
       </c>
       <c r="W145" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="X145" s="7">
         <v>4</v>
@@ -46588,7 +46586,7 @@
         <v>219</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D259" s="8" t="s">
         <v>287</v>
@@ -59701,7 +59699,7 @@
         <v>284</v>
       </c>
       <c r="W427" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="X427" s="7">
         <v>4</v>
@@ -68122,7 +68120,7 @@
         <v>284</v>
       </c>
       <c r="W535" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="X535" s="7">
         <v>4</v>
@@ -69399,11 +69397,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M101" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA120" sqref="AA120"/>
+      <selection pane="bottomRight" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69507,13 +69505,13 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B2" t="s">
         <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D2" t="s">
         <v>92</v>
@@ -78242,7 +78240,7 @@
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="21" t="s">
         <v>1682</v>
       </c>
       <c r="B114" t="s">
@@ -78323,7 +78321,7 @@
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="21" t="s">
         <v>1683</v>
       </c>
       <c r="B115" t="s">
@@ -78404,7 +78402,7 @@
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="21" t="s">
         <v>1684</v>
       </c>
       <c r="B116" t="s">
@@ -78479,7 +78477,7 @@
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="21" t="s">
         <v>1685</v>
       </c>
       <c r="B117" t="s">
@@ -78555,13 +78553,13 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B118" t="s">
         <v>207</v>
       </c>
       <c r="C118" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D118" t="s">
         <v>92</v>
@@ -78636,7 +78634,7 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B119" t="s">
         <v>207</v>
@@ -78717,13 +78715,13 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B120" t="s">
         <v>1681</v>
       </c>
       <c r="C120" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D120" t="s">
         <v>92</v>
@@ -78798,13 +78796,13 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B121" t="s">
         <v>207</v>
       </c>
       <c r="C121" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D121" t="s">
         <v>92</v>
@@ -78879,13 +78877,13 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B122" t="s">
         <v>211</v>
       </c>
       <c r="C122" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D122" t="s">
         <v>92</v>
@@ -78960,13 +78958,13 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B123" t="s">
         <v>211</v>
       </c>
       <c r="C123" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D123" t="s">
         <v>92</v>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\游戏\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49583FBB-8970-4FA5-8019-E7B88A14BAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E9EE47-755B-4F38-BBF4-5E455E1402ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7621,7 +7621,7 @@
         <v>4</v>
       </c>
       <c r="R2" s="14">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R38" si="0">SUM($S2:$V2)</f>
         <v>76</v>
       </c>
       <c r="S2" s="14">
@@ -7702,7 +7702,7 @@
         <v>4</v>
       </c>
       <c r="R3" s="14">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S3" s="14">
@@ -7783,7 +7783,7 @@
         <v>4</v>
       </c>
       <c r="R4" s="14">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S4" s="14">
@@ -7864,7 +7864,7 @@
         <v>4</v>
       </c>
       <c r="R5" s="14">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S5" s="14">
@@ -7945,7 +7945,7 @@
         <v>4</v>
       </c>
       <c r="R6" s="14">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S6" s="14">
@@ -8026,7 +8026,7 @@
         <v>4</v>
       </c>
       <c r="R7" s="14">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S7" s="9">
@@ -8112,7 +8112,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="14">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S8" s="9">
@@ -8198,7 +8198,7 @@
         <v>4</v>
       </c>
       <c r="R9" s="14">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S9" s="9">
@@ -8284,7 +8284,7 @@
         <v>4</v>
       </c>
       <c r="R10" s="14">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="S10" s="14">
@@ -8368,7 +8368,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="14">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S11" s="14">
@@ -8449,7 +8449,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="14">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="S12" s="14">
@@ -8533,7 +8533,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="14">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S13" s="14">
@@ -8614,7 +8614,7 @@
         <v>4</v>
       </c>
       <c r="R14" s="14">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S14" s="14">
@@ -8698,7 +8698,7 @@
         <v>4</v>
       </c>
       <c r="R15" s="14">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S15" s="9">
@@ -8784,7 +8784,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="14">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S16" s="9">
@@ -8870,7 +8870,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="14">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S17" s="9">
@@ -8956,7 +8956,7 @@
         <v>4</v>
       </c>
       <c r="R18" s="14">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S18" s="9">
@@ -9042,7 +9042,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="14">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S19" s="9">
@@ -9128,7 +9128,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="14">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S20" s="9">
@@ -9214,7 +9214,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="14">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S21" s="9">
@@ -9300,7 +9300,7 @@
         <v>4</v>
       </c>
       <c r="R22" s="14">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S22" s="9">
@@ -9386,7 +9386,7 @@
         <v>4</v>
       </c>
       <c r="R23" s="14">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S23" s="9">
@@ -9472,7 +9472,7 @@
         <v>4</v>
       </c>
       <c r="R24" s="14">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S24" s="14">
@@ -9553,7 +9553,7 @@
         <v>4</v>
       </c>
       <c r="R25" s="14">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S25" s="14">
@@ -9634,7 +9634,7 @@
         <v>4</v>
       </c>
       <c r="R26" s="14">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S26" s="14">
@@ -9715,7 +9715,7 @@
         <v>4</v>
       </c>
       <c r="R27" s="14">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S27" s="14">
@@ -9796,7 +9796,7 @@
         <v>4</v>
       </c>
       <c r="R28" s="14">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="S28" s="14">
@@ -9880,7 +9880,7 @@
         <v>4</v>
       </c>
       <c r="R29" s="14">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="S29" s="14">
@@ -9964,7 +9964,7 @@
         <v>4</v>
       </c>
       <c r="R30" s="14">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="S30" s="14">
@@ -10045,7 +10045,7 @@
         <v>4</v>
       </c>
       <c r="R31" s="14">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S31" s="14">
@@ -10132,7 +10132,7 @@
         <v>4</v>
       </c>
       <c r="R32" s="14">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="S32" s="14">
@@ -10213,7 +10213,7 @@
         <v>3</v>
       </c>
       <c r="R33" s="14">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S33" s="9">
@@ -10299,7 +10299,7 @@
         <v>3</v>
       </c>
       <c r="R34" s="14">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="S34" s="9">
@@ -10385,7 +10385,7 @@
         <v>4</v>
       </c>
       <c r="R35" s="14">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S35" s="9">
@@ -10471,7 +10471,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="14">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S36" s="9">
@@ -10557,7 +10557,7 @@
         <v>4</v>
       </c>
       <c r="R37" s="14">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="S37" s="14">
@@ -10641,7 +10641,7 @@
         <v>4</v>
       </c>
       <c r="R38" s="14">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S38" s="14">
@@ -11232,7 +11232,7 @@
         <v>3</v>
       </c>
       <c r="R45" s="14">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" ref="R45:R51" si="1">SUM($S45:$V45)</f>
         <v>6</v>
       </c>
       <c r="S45" s="9">
@@ -11316,7 +11316,7 @@
         <v>4</v>
       </c>
       <c r="R46" s="14">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="S46" s="9">
@@ -11402,7 +11402,7 @@
         <v>4</v>
       </c>
       <c r="R47" s="14">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="S47" s="14">
@@ -11486,7 +11486,7 @@
         <v>4</v>
       </c>
       <c r="R48" s="14">
-        <f>SUM($S48:$V48)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="S48" s="14">
@@ -11573,7 +11573,7 @@
         <v>4</v>
       </c>
       <c r="R49" s="14">
-        <f>SUM($S49:$V49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S49" s="9">
@@ -11659,7 +11659,7 @@
         <v>4</v>
       </c>
       <c r="R50" s="14">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S50" s="16">
@@ -11745,7 +11745,7 @@
         <v>3</v>
       </c>
       <c r="R51" s="14">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S51" s="9">
@@ -11912,7 +11912,7 @@
         <v>4</v>
       </c>
       <c r="R53" s="14">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" ref="R53:R60" si="2">SUM($S53:$V53)</f>
         <v>81</v>
       </c>
       <c r="S53" s="14">
@@ -11996,7 +11996,7 @@
         <v>4</v>
       </c>
       <c r="R54" s="14">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S54" s="16">
@@ -12082,7 +12082,7 @@
         <v>3</v>
       </c>
       <c r="R55" s="14">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S55" s="9">
@@ -12168,7 +12168,7 @@
         <v>4</v>
       </c>
       <c r="R56" s="14">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S56" s="16">
@@ -12254,7 +12254,7 @@
         <v>3</v>
       </c>
       <c r="R57" s="14">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S57" s="9">
@@ -12338,7 +12338,7 @@
         <v>3</v>
       </c>
       <c r="R58" s="14">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S58" s="9">
@@ -12424,7 +12424,7 @@
         <v>4</v>
       </c>
       <c r="R59" s="14">
-        <f>SUM($S59:$V59)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="S59" s="14">
@@ -12508,7 +12508,7 @@
         <v>4</v>
       </c>
       <c r="R60" s="14">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S60" s="14">
@@ -13014,7 +13014,7 @@
         <v>4</v>
       </c>
       <c r="R66" s="14">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" ref="R66:R71" si="3">SUM($S66:$V66)</f>
         <v>9</v>
       </c>
       <c r="S66" s="16">
@@ -13100,7 +13100,7 @@
         <v>4</v>
       </c>
       <c r="R67" s="14">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S67" s="16">
@@ -13186,7 +13186,7 @@
         <v>3</v>
       </c>
       <c r="R68" s="14">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S68" s="9">
@@ -13270,7 +13270,7 @@
         <v>4</v>
       </c>
       <c r="R69" s="14">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S69" s="16">
@@ -13356,7 +13356,7 @@
         <v>4</v>
       </c>
       <c r="R70" s="14">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="S70" s="14">
@@ -13440,7 +13440,7 @@
         <v>4</v>
       </c>
       <c r="R71" s="14">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S71" s="16">
@@ -13609,7 +13609,7 @@
         <v>4</v>
       </c>
       <c r="R73" s="14">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" ref="R73:R80" si="4">SUM($S73:$V73)</f>
         <v>0</v>
       </c>
       <c r="S73" s="16">
@@ -13695,7 +13695,7 @@
         <v>4</v>
       </c>
       <c r="R74" s="14">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S74" s="16">
@@ -13781,7 +13781,7 @@
         <v>4</v>
       </c>
       <c r="R75" s="14">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="S75" s="14">
@@ -13868,7 +13868,7 @@
         <v>4</v>
       </c>
       <c r="R76" s="14">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="S76" s="14">
@@ -13952,7 +13952,7 @@
         <v>4</v>
       </c>
       <c r="R77" s="14">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="S77" s="14">
@@ -14033,7 +14033,7 @@
         <v>4</v>
       </c>
       <c r="R78" s="14">
-        <f>SUM($S78:$V78)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="S78" s="14">
@@ -14117,7 +14117,7 @@
         <v>3</v>
       </c>
       <c r="R79" s="14">
-        <f>SUM($S79:$V79)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="S79" s="9">
@@ -14201,7 +14201,7 @@
         <v>4</v>
       </c>
       <c r="R80" s="14">
-        <f>SUM($S80:$V80)</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="S80" s="14">
@@ -14968,10 +14968,10 @@
   <dimension ref="A1:AC152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="AB152" sqref="AB152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25971,7 +25971,9 @@
       <c r="Z130" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA130" s="9"/>
+      <c r="AA130" s="9">
+        <v>112331</v>
+      </c>
       <c r="AB130" s="9"/>
       <c r="AC130" s="9"/>
     </row>
@@ -26226,7 +26228,9 @@
       <c r="Z133" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA133" s="9"/>
+      <c r="AA133" s="9">
+        <v>112481</v>
+      </c>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
     </row>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\游戏\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E9EE47-755B-4F38-BBF4-5E455E1402ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F07B5-2C20-41C1-A7D3-4CAA9787B349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="3000" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -7465,7 +7465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC04AE67-517B-4CCF-9FE9-D4A79EB519A2}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -14967,11 +14967,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H121" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="O22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB152" sqref="AB152"/>
+      <selection pane="bottomRight" activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17948,7 +17948,9 @@
       <c r="Z35" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="9">
+        <v>110391</v>
+      </c>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
     </row>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\游戏\WSGR_simulation\depend\ship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F07B5-2C20-41C1-A7D3-4CAA9787B349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87824C82-CC8B-409F-BF2F-4464A4596DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="3000" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -6434,7 +6434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6490,6 +6490,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6512,7 +6520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6550,6 +6558,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7466,10 +7477,10 @@
   <dimension ref="A1:AC88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q105" sqref="Q105"/>
+      <selection pane="bottomRight" activeCell="AA43" sqref="AA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14968,10 +14979,10 @@
   <dimension ref="A1:AC152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC33" sqref="AC33"/>
+      <selection pane="bottomRight" activeCell="AA135" sqref="AA135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17367,7 +17378,9 @@
       <c r="Z28" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA28" s="9"/>
+      <c r="AA28" s="9">
+        <v>110321</v>
+      </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
     </row>
@@ -17450,7 +17463,9 @@
       <c r="Z29" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA29" s="9"/>
+      <c r="AA29" s="9">
+        <v>110331</v>
+      </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
     </row>
@@ -17533,7 +17548,9 @@
       <c r="Z30" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA30" s="9"/>
+      <c r="AA30" s="9">
+        <v>110341</v>
+      </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
     </row>
@@ -17616,7 +17633,9 @@
       <c r="Z31" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA31" s="9"/>
+      <c r="AA31" s="9">
+        <v>110351</v>
+      </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
     </row>
@@ -17699,7 +17718,9 @@
       <c r="Z32" s="9">
         <v>2.64</v>
       </c>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="9">
+        <v>110361</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
     </row>
@@ -17782,7 +17803,9 @@
       <c r="Z33" s="9">
         <v>2.64</v>
       </c>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="9">
+        <v>110371</v>
+      </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
     </row>
@@ -17865,8 +17888,12 @@
       <c r="Z34" s="9">
         <v>2.64</v>
       </c>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
+      <c r="AA34" s="9">
+        <v>110381</v>
+      </c>
+      <c r="AB34" s="9">
+        <v>110382</v>
+      </c>
       <c r="AC34" s="9"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -18033,8 +18060,12 @@
       <c r="Z36" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
+      <c r="AA36" s="9">
+        <v>110581</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>110402</v>
+      </c>
       <c r="AC36" s="9"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
@@ -22614,7 +22645,9 @@
       <c r="Z90" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA90" s="9"/>
+      <c r="AA90" s="22">
+        <v>111311</v>
+      </c>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
     </row>
@@ -22697,7 +22730,9 @@
       <c r="Z91" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA91" s="9"/>
+      <c r="AA91" s="22">
+        <v>111321</v>
+      </c>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
     </row>
@@ -22780,7 +22815,9 @@
       <c r="Z92" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA92" s="9"/>
+      <c r="AA92" s="22">
+        <v>111331</v>
+      </c>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
     </row>
@@ -22863,7 +22900,9 @@
       <c r="Z93" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA93" s="9"/>
+      <c r="AA93" s="9">
+        <v>111351</v>
+      </c>
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
     </row>
@@ -22946,7 +22985,9 @@
       <c r="Z94" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA94" s="9"/>
+      <c r="AA94" s="9">
+        <v>111351</v>
+      </c>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
     </row>
@@ -23199,7 +23240,9 @@
       <c r="Z97" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA97" s="9"/>
+      <c r="AA97" s="9">
+        <v>111411</v>
+      </c>
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
     </row>
@@ -23282,7 +23325,9 @@
       <c r="Z98" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA98" s="9"/>
+      <c r="AA98" s="9">
+        <v>110581</v>
+      </c>
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
     </row>
@@ -23365,7 +23410,9 @@
       <c r="Z99" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA99" s="9"/>
+      <c r="AA99" s="9">
+        <v>111431</v>
+      </c>
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
     </row>
@@ -27742,7 +27789,9 @@
       <c r="Z151" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA151" s="9"/>
+      <c r="AA151" s="9">
+        <v>114311</v>
+      </c>
       <c r="AB151" s="9"/>
       <c r="AC151" s="9"/>
     </row>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1773B047-36A6-4C37-9AD7-27BB1F28FC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D1BA0A-3A44-49CC-AC8E-F86856D5AECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="3420" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="装备数据-深海" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$168</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$183</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$551</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
   </definedNames>
@@ -7621,10 +7621,10 @@
   <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomRight" activeCell="AA101" sqref="AA101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7776,7 +7776,7 @@
         <v>4</v>
       </c>
       <c r="R2" s="14">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R47" si="0">SUM($S2:$V2)</f>
         <v>76</v>
       </c>
       <c r="S2" s="14">
@@ -7857,7 +7857,7 @@
         <v>4</v>
       </c>
       <c r="R3" s="14">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S3" s="14">
@@ -7938,7 +7938,7 @@
         <v>4</v>
       </c>
       <c r="R4" s="14">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S4" s="14">
@@ -8019,7 +8019,7 @@
         <v>4</v>
       </c>
       <c r="R5" s="14">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S5" s="14">
@@ -8100,7 +8100,7 @@
         <v>4</v>
       </c>
       <c r="R6" s="14">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S6" s="14">
@@ -8181,7 +8181,7 @@
         <v>4</v>
       </c>
       <c r="R7" s="14">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S7" s="9">
@@ -8267,7 +8267,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="14">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S8" s="9">
@@ -8353,7 +8353,7 @@
         <v>4</v>
       </c>
       <c r="R9" s="14">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S9" s="9">
@@ -8439,7 +8439,7 @@
         <v>4</v>
       </c>
       <c r="R10" s="14">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="S10" s="14">
@@ -8523,7 +8523,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="14">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S11" s="14">
@@ -8604,7 +8604,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="14">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="S12" s="14">
@@ -8688,7 +8688,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="14">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S13" s="14">
@@ -8769,7 +8769,7 @@
         <v>4</v>
       </c>
       <c r="R14" s="14">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S14" s="14">
@@ -8853,7 +8853,7 @@
         <v>4</v>
       </c>
       <c r="R15" s="14">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S15" s="9">
@@ -8939,7 +8939,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="14">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S16" s="9">
@@ -9025,7 +9025,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="14">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S17" s="9">
@@ -9111,7 +9111,7 @@
         <v>4</v>
       </c>
       <c r="R18" s="14">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S18" s="9">
@@ -9197,7 +9197,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="14">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S19" s="9">
@@ -9283,7 +9283,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="14">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S20" s="9">
@@ -9369,7 +9369,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="14">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S21" s="9">
@@ -9455,7 +9455,7 @@
         <v>4</v>
       </c>
       <c r="R22" s="14">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S22" s="9">
@@ -9541,7 +9541,7 @@
         <v>4</v>
       </c>
       <c r="R23" s="14">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S23" s="9">
@@ -9627,7 +9627,7 @@
         <v>4</v>
       </c>
       <c r="R24" s="14">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S24" s="14">
@@ -9708,7 +9708,7 @@
         <v>4</v>
       </c>
       <c r="R25" s="14">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S25" s="14">
@@ -9789,7 +9789,7 @@
         <v>4</v>
       </c>
       <c r="R26" s="14">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S26" s="14">
@@ -9870,7 +9870,7 @@
         <v>4</v>
       </c>
       <c r="R27" s="14">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S27" s="14">
@@ -9951,7 +9951,7 @@
         <v>4</v>
       </c>
       <c r="R28" s="14">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="S28" s="14">
@@ -10035,7 +10035,7 @@
         <v>4</v>
       </c>
       <c r="R29" s="14">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="S29" s="14">
@@ -10119,7 +10119,7 @@
         <v>4</v>
       </c>
       <c r="R30" s="14">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="S30" s="14">
@@ -10200,7 +10200,7 @@
         <v>4</v>
       </c>
       <c r="R31" s="14">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S31" s="14">
@@ -10287,7 +10287,7 @@
         <v>4</v>
       </c>
       <c r="R32" s="14">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="S32" s="14">
@@ -10368,7 +10368,7 @@
         <v>3</v>
       </c>
       <c r="R33" s="14">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S33" s="9">
@@ -10454,7 +10454,7 @@
         <v>3</v>
       </c>
       <c r="R34" s="14">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="S34" s="9">
@@ -10540,7 +10540,7 @@
         <v>4</v>
       </c>
       <c r="R35" s="14">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S35" s="9">
@@ -10626,7 +10626,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="14">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S36" s="9">
@@ -10712,7 +10712,7 @@
         <v>4</v>
       </c>
       <c r="R37" s="14">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="S37" s="14">
@@ -10796,7 +10796,7 @@
         <v>4</v>
       </c>
       <c r="R38" s="14">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S38" s="14">
@@ -10883,7 +10883,7 @@
         <v>4</v>
       </c>
       <c r="R39" s="14">
-        <f>SUM($S39:$V39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S39" s="9">
@@ -10967,7 +10967,7 @@
         <v>4</v>
       </c>
       <c r="R40" s="14">
-        <f>SUM($S40:$V40)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="S40" s="14">
@@ -11051,7 +11051,7 @@
         <v>4</v>
       </c>
       <c r="R41" s="14">
-        <f>SUM($S41:$V41)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S41" s="14">
@@ -11135,7 +11135,7 @@
         <v>3</v>
       </c>
       <c r="R42" s="14">
-        <f>SUM($S42:$V42)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S42" s="14">
@@ -11216,7 +11216,7 @@
         <v>4</v>
       </c>
       <c r="R43" s="14">
-        <f>SUM($S43:$V43)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S43" s="9">
@@ -11302,7 +11302,7 @@
         <v>3</v>
       </c>
       <c r="R44" s="14">
-        <f>SUM($S44:$V44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S44" s="9">
@@ -11386,7 +11386,7 @@
         <v>4</v>
       </c>
       <c r="R45" s="14">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S45" s="9">
@@ -11470,7 +11470,7 @@
         <v>3</v>
       </c>
       <c r="R46" s="14">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S46" s="9">
@@ -11554,7 +11554,7 @@
         <v>3</v>
       </c>
       <c r="R47" s="14">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S47" s="14">
@@ -11718,7 +11718,7 @@
         <v>4</v>
       </c>
       <c r="R49" s="14">
-        <f>SUM($S49:$V49)</f>
+        <f t="shared" ref="R49:R77" si="1">SUM($S49:$V49)</f>
         <v>16</v>
       </c>
       <c r="S49" s="9">
@@ -11804,7 +11804,7 @@
         <v>4</v>
       </c>
       <c r="R50" s="14">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="S50" s="14">
@@ -11888,7 +11888,7 @@
         <v>4</v>
       </c>
       <c r="R51" s="14">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="S51" s="14">
@@ -11975,7 +11975,7 @@
         <v>4</v>
       </c>
       <c r="R52" s="14">
-        <f>SUM($S52:$V52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S52" s="9">
@@ -12061,7 +12061,7 @@
         <v>4</v>
       </c>
       <c r="R53" s="14">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S53" s="16">
@@ -12147,7 +12147,7 @@
         <v>3</v>
       </c>
       <c r="R54" s="14">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S54" s="9">
@@ -12231,7 +12231,7 @@
         <v>2</v>
       </c>
       <c r="R55" s="14">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S55" s="14">
@@ -12312,7 +12312,7 @@
         <v>4</v>
       </c>
       <c r="R56" s="14">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S56" s="16">
@@ -12396,7 +12396,7 @@
         <v>3</v>
       </c>
       <c r="R57" s="14">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S57" s="14">
@@ -12477,7 +12477,7 @@
         <v>3</v>
       </c>
       <c r="R58" s="14">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S58" s="14">
@@ -12558,7 +12558,7 @@
         <v>4</v>
       </c>
       <c r="R59" s="14">
-        <f>SUM($S59:$V59)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="S59" s="14">
@@ -12642,7 +12642,7 @@
         <v>2</v>
       </c>
       <c r="R60" s="14">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S60" s="14">
@@ -12723,7 +12723,7 @@
         <v>4</v>
       </c>
       <c r="R61" s="14">
-        <f>SUM($S61:$V61)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S61" s="16">
@@ -12809,7 +12809,7 @@
         <v>3</v>
       </c>
       <c r="R62" s="14">
-        <f>SUM($S62:$V62)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S62" s="9">
@@ -12895,7 +12895,7 @@
         <v>4</v>
       </c>
       <c r="R63" s="14">
-        <f>SUM($S63:$V63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S63" s="16">
@@ -12981,7 +12981,7 @@
         <v>3</v>
       </c>
       <c r="R64" s="14">
-        <f>SUM($S64:$V64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S64" s="9">
@@ -13065,7 +13065,7 @@
         <v>3</v>
       </c>
       <c r="R65" s="14">
-        <f>SUM($S65:$V65)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S65" s="9">
@@ -13151,7 +13151,7 @@
         <v>4</v>
       </c>
       <c r="R66" s="14">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="S66" s="14">
@@ -13235,7 +13235,7 @@
         <v>4</v>
       </c>
       <c r="R67" s="14">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S67" s="14">
@@ -13322,7 +13322,7 @@
         <v>4</v>
       </c>
       <c r="R68" s="14">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S68" s="16">
@@ -13406,7 +13406,7 @@
         <v>4</v>
       </c>
       <c r="R69" s="14">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S69" s="16">
@@ -13490,7 +13490,7 @@
         <v>3</v>
       </c>
       <c r="R70" s="14">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S70" s="9">
@@ -13574,7 +13574,7 @@
         <v>4</v>
       </c>
       <c r="R71" s="14">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S71" s="16">
@@ -13660,7 +13660,7 @@
         <v>4</v>
       </c>
       <c r="R72" s="14">
-        <f>SUM($S72:$V72)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S72" s="16">
@@ -13744,7 +13744,7 @@
         <v>4</v>
       </c>
       <c r="R73" s="14">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S73" s="16">
@@ -13830,7 +13830,7 @@
         <v>4</v>
       </c>
       <c r="R74" s="14">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S74" s="16">
@@ -13916,7 +13916,7 @@
         <v>3</v>
       </c>
       <c r="R75" s="14">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S75" s="9">
@@ -14000,7 +14000,7 @@
         <v>4</v>
       </c>
       <c r="R76" s="14">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S76" s="16">
@@ -14086,7 +14086,7 @@
         <v>4</v>
       </c>
       <c r="R77" s="14">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="S77" s="14">
@@ -14253,7 +14253,7 @@
         <v>4</v>
       </c>
       <c r="R79" s="14">
-        <f>SUM($S79:$V79)</f>
+        <f t="shared" ref="R79:R97" si="2">SUM($S79:$V79)</f>
         <v>12</v>
       </c>
       <c r="S79" s="16">
@@ -14339,7 +14339,7 @@
         <v>4</v>
       </c>
       <c r="R80" s="14">
-        <f>SUM($S80:$V80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S80" s="16">
@@ -14423,7 +14423,7 @@
         <v>4</v>
       </c>
       <c r="R81" s="14">
-        <f>SUM($S81:$V81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S81" s="16">
@@ -14509,7 +14509,7 @@
         <v>3</v>
       </c>
       <c r="R82" s="14">
-        <f>SUM($S82:$V82)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S82" s="14">
@@ -14535,6 +14535,9 @@
       </c>
       <c r="Z82" s="14">
         <v>1.2</v>
+      </c>
+      <c r="AA82">
+        <v>104671</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
@@ -14590,7 +14593,7 @@
         <v>4</v>
       </c>
       <c r="R83" s="14">
-        <f>SUM($S83:$V83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S83" s="16">
@@ -14676,7 +14679,7 @@
         <v>4</v>
       </c>
       <c r="R84" s="14">
-        <f>SUM($S84:$V84)</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="S84" s="14">
@@ -14763,7 +14766,7 @@
         <v>4</v>
       </c>
       <c r="R85" s="14">
-        <f>SUM($S85:$V85)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="S85" s="14">
@@ -14847,7 +14850,7 @@
         <v>4</v>
       </c>
       <c r="R86" s="14">
-        <f>SUM($S86:$V86)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="S86" s="14">
@@ -14928,7 +14931,7 @@
         <v>4</v>
       </c>
       <c r="R87" s="14">
-        <f>SUM($S87:$V87)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="S87" s="14">
@@ -15012,7 +15015,7 @@
         <v>3</v>
       </c>
       <c r="R88" s="14">
-        <f>SUM($S88:$V88)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="S88" s="9">
@@ -15096,7 +15099,7 @@
         <v>4</v>
       </c>
       <c r="R89" s="14">
-        <f>SUM($S89:$V89)</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="S89" s="14">
@@ -15180,7 +15183,7 @@
         <v>4</v>
       </c>
       <c r="R90" s="14">
-        <f>SUM($S90:$V90)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S90" s="9">
@@ -15264,7 +15267,7 @@
         <v>4</v>
       </c>
       <c r="R91" s="14">
-        <f>SUM($S91:$V91)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="S91" s="14">
@@ -15348,7 +15351,7 @@
         <v>4</v>
       </c>
       <c r="R92" s="14">
-        <f>SUM($S92:$V92)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S92" s="9">
@@ -15432,7 +15435,7 @@
         <v>4</v>
       </c>
       <c r="R93" s="14">
-        <f>SUM($S93:$V93)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="S93" s="14">
@@ -15516,7 +15519,7 @@
         <v>4</v>
       </c>
       <c r="R94" s="14">
-        <f>SUM($S94:$V94)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S94" s="14">
@@ -15603,7 +15606,7 @@
         <v>4</v>
       </c>
       <c r="R95" s="14">
-        <f>SUM($S95:$V95)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S95" s="9">
@@ -15689,7 +15692,7 @@
         <v>4</v>
       </c>
       <c r="R96" s="14">
-        <f>SUM($S96:$V96)</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="S96" s="14">
@@ -15773,7 +15776,7 @@
         <v>4</v>
       </c>
       <c r="R97" s="14">
-        <f>SUM($S97:$V97)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S97" s="9">
@@ -15809,7 +15812,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC88" xr:uid="{FC04AE67-517B-4CCF-9FE9-D4A79EB519A2}">
+  <autoFilter ref="A1:AC97" xr:uid="{FC04AE67-517B-4CCF-9FE9-D4A79EB519A2}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC97">
       <sortCondition ref="A1:A88"/>
     </sortState>
@@ -15865,10 +15868,10 @@
   <dimension ref="A1:AC168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17425,6 +17428,9 @@
       <c r="Z18" s="14">
         <v>5.6</v>
       </c>
+      <c r="AA18" s="27">
+        <v>110201</v>
+      </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -17505,6 +17511,9 @@
       </c>
       <c r="Z19" s="14">
         <v>5.6</v>
+      </c>
+      <c r="AA19" s="27">
+        <v>110211</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -21758,6 +21767,9 @@
       <c r="Z69" s="14">
         <v>0.9</v>
       </c>
+      <c r="AA69" s="27">
+        <v>110941</v>
+      </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
@@ -21839,6 +21851,9 @@
       <c r="Z70" s="14">
         <v>1.5</v>
       </c>
+      <c r="AA70" s="27">
+        <v>110971</v>
+      </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
@@ -26804,6 +26819,9 @@
       <c r="AA128" s="14">
         <v>102091</v>
       </c>
+      <c r="AB128" s="27">
+        <v>112092</v>
+      </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
@@ -28853,6 +28871,9 @@
       <c r="AA152" s="14">
         <v>102991</v>
       </c>
+      <c r="AB152" s="27">
+        <v>112992</v>
+      </c>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
@@ -30046,6 +30067,9 @@
       <c r="Z166" s="14">
         <v>2.4500000000000002</v>
       </c>
+      <c r="AA166" s="27">
+        <v>114131</v>
+      </c>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
@@ -30220,9 +30244,9 @@
       <c r="AC168" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC152" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:AC168" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC168">
-      <sortCondition ref="A1:A152"/>
+      <sortCondition ref="A1:A168"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7630C9E-1B2E-4F74-A466-0C4588297B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786B55C4-16FF-40B3-89FF-01E41585E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="3765" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="装备数据-深海" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$168</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$97</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$551</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$565</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14362" uniqueCount="2083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14456" uniqueCount="2119">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6568,13 +6568,140 @@
   </si>
   <si>
     <t>大井</t>
+  </si>
+  <si>
+    <t>01021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallenstein</t>
+  </si>
+  <si>
+    <t>01023</t>
+  </si>
+  <si>
+    <t>Prinz Eitel Friedric</t>
+  </si>
+  <si>
+    <t>01024</t>
+  </si>
+  <si>
+    <t>S113</t>
+  </si>
+  <si>
+    <t>z-ship</t>
+  </si>
+  <si>
+    <t>28厘米三联主炮（sp）</t>
+  </si>
+  <si>
+    <t>10541</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九四式主炮（22）</t>
+  </si>
+  <si>
+    <t>10551</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK13发射系统(鱼叉备弹)</t>
+  </si>
+  <si>
+    <t>10552</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G国四联406毫米炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10555</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>533毫米联装主炮（试）</t>
+  </si>
+  <si>
+    <t>10562</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10563</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马舒卡防空导弹（早期型）</t>
+  </si>
+  <si>
+    <t>10567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G国试制533毫米炮（36）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10577</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅导弹发射箱</t>
+  </si>
+  <si>
+    <t>10579</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让巴尔导弹系统（马舒卡/天狮星）</t>
+  </si>
+  <si>
+    <t>导弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10583</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹发射系统（让巴尔）</t>
+  </si>
+  <si>
+    <t>10584</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>343火控雷达</t>
+  </si>
+  <si>
+    <t>10590</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK7三联16英寸主炮（M）</t>
+  </si>
+  <si>
+    <t>10594</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Оса-М防空系统（68У）</t>
+  </si>
+  <si>
+    <t>10595</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6638,6 +6765,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6660,7 +6795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6719,6 +6854,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7635,10 +7774,10 @@
   <dimension ref="A1:AC98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7790,7 +7929,7 @@
         <v>4</v>
       </c>
       <c r="R2" s="14">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R47" si="0">SUM($S2:$V2)</f>
         <v>76</v>
       </c>
       <c r="S2" s="14">
@@ -7871,7 +8010,7 @@
         <v>4</v>
       </c>
       <c r="R3" s="14">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S3" s="14">
@@ -7952,7 +8091,7 @@
         <v>4</v>
       </c>
       <c r="R4" s="14">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S4" s="14">
@@ -8033,7 +8172,7 @@
         <v>4</v>
       </c>
       <c r="R5" s="14">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S5" s="14">
@@ -8114,7 +8253,7 @@
         <v>4</v>
       </c>
       <c r="R6" s="14">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S6" s="14">
@@ -8195,7 +8334,7 @@
         <v>4</v>
       </c>
       <c r="R7" s="14">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S7" s="9">
@@ -8281,7 +8420,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="14">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S8" s="9">
@@ -8367,7 +8506,7 @@
         <v>4</v>
       </c>
       <c r="R9" s="14">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S9" s="9">
@@ -8453,7 +8592,7 @@
         <v>4</v>
       </c>
       <c r="R10" s="14">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="S10" s="14">
@@ -8537,7 +8676,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="14">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S11" s="14">
@@ -8618,7 +8757,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="14">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="S12" s="14">
@@ -8702,7 +8841,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="14">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S13" s="14">
@@ -8783,7 +8922,7 @@
         <v>4</v>
       </c>
       <c r="R14" s="14">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S14" s="14">
@@ -8867,7 +9006,7 @@
         <v>4</v>
       </c>
       <c r="R15" s="14">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S15" s="9">
@@ -8953,7 +9092,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="14">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S16" s="9">
@@ -9039,7 +9178,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="14">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S17" s="9">
@@ -9125,7 +9264,7 @@
         <v>4</v>
       </c>
       <c r="R18" s="14">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S18" s="9">
@@ -9211,7 +9350,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="14">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S19" s="9">
@@ -9297,7 +9436,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="14">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S20" s="9">
@@ -9383,7 +9522,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="14">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S21" s="9">
@@ -9469,7 +9608,7 @@
         <v>4</v>
       </c>
       <c r="R22" s="14">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S22" s="9">
@@ -9555,7 +9694,7 @@
         <v>4</v>
       </c>
       <c r="R23" s="14">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S23" s="9">
@@ -9641,7 +9780,7 @@
         <v>4</v>
       </c>
       <c r="R24" s="14">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S24" s="14">
@@ -9722,7 +9861,7 @@
         <v>4</v>
       </c>
       <c r="R25" s="14">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S25" s="14">
@@ -9803,7 +9942,7 @@
         <v>4</v>
       </c>
       <c r="R26" s="14">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S26" s="14">
@@ -9884,7 +10023,7 @@
         <v>4</v>
       </c>
       <c r="R27" s="14">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S27" s="14">
@@ -9965,7 +10104,7 @@
         <v>4</v>
       </c>
       <c r="R28" s="14">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="S28" s="14">
@@ -10049,7 +10188,7 @@
         <v>4</v>
       </c>
       <c r="R29" s="14">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="S29" s="14">
@@ -10133,7 +10272,7 @@
         <v>4</v>
       </c>
       <c r="R30" s="14">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="S30" s="14">
@@ -10214,7 +10353,7 @@
         <v>4</v>
       </c>
       <c r="R31" s="14">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S31" s="14">
@@ -10301,7 +10440,7 @@
         <v>4</v>
       </c>
       <c r="R32" s="14">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="S32" s="14">
@@ -10382,7 +10521,7 @@
         <v>3</v>
       </c>
       <c r="R33" s="14">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S33" s="9">
@@ -10468,7 +10607,7 @@
         <v>3</v>
       </c>
       <c r="R34" s="14">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="S34" s="9">
@@ -10554,7 +10693,7 @@
         <v>4</v>
       </c>
       <c r="R35" s="14">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S35" s="9">
@@ -10640,7 +10779,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="14">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S36" s="9">
@@ -10726,7 +10865,7 @@
         <v>4</v>
       </c>
       <c r="R37" s="14">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="S37" s="14">
@@ -10810,7 +10949,7 @@
         <v>4</v>
       </c>
       <c r="R38" s="14">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S38" s="14">
@@ -10897,7 +11036,7 @@
         <v>4</v>
       </c>
       <c r="R39" s="14">
-        <f>SUM($S39:$V39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S39" s="9">
@@ -10981,7 +11120,7 @@
         <v>4</v>
       </c>
       <c r="R40" s="14">
-        <f>SUM($S40:$V40)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="S40" s="14">
@@ -11065,7 +11204,7 @@
         <v>4</v>
       </c>
       <c r="R41" s="14">
-        <f>SUM($S41:$V41)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S41" s="14">
@@ -11149,7 +11288,7 @@
         <v>3</v>
       </c>
       <c r="R42" s="14">
-        <f>SUM($S42:$V42)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S42" s="14">
@@ -11230,7 +11369,7 @@
         <v>4</v>
       </c>
       <c r="R43" s="14">
-        <f>SUM($S43:$V43)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S43" s="9">
@@ -11316,7 +11455,7 @@
         <v>3</v>
       </c>
       <c r="R44" s="14">
-        <f>SUM($S44:$V44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S44" s="9">
@@ -11400,7 +11539,7 @@
         <v>4</v>
       </c>
       <c r="R45" s="14">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S45" s="9">
@@ -11484,7 +11623,7 @@
         <v>3</v>
       </c>
       <c r="R46" s="14">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S46" s="9">
@@ -11568,7 +11707,7 @@
         <v>3</v>
       </c>
       <c r="R47" s="14">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S47" s="14">
@@ -11732,7 +11871,7 @@
         <v>4</v>
       </c>
       <c r="R49" s="14">
-        <f>SUM($S49:$V49)</f>
+        <f t="shared" ref="R49:R78" si="1">SUM($S49:$V49)</f>
         <v>16</v>
       </c>
       <c r="S49" s="9">
@@ -11818,7 +11957,7 @@
         <v>4</v>
       </c>
       <c r="R50" s="14">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="S50" s="14">
@@ -11902,7 +12041,7 @@
         <v>4</v>
       </c>
       <c r="R51" s="14">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="S51" s="14">
@@ -11989,7 +12128,7 @@
         <v>3</v>
       </c>
       <c r="R52" s="27">
-        <f>SUM($S52:$V52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S52">
@@ -12073,7 +12212,7 @@
         <v>4</v>
       </c>
       <c r="R53" s="14">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S53" s="9">
@@ -12159,7 +12298,7 @@
         <v>4</v>
       </c>
       <c r="R54" s="14">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S54" s="16">
@@ -12245,7 +12384,7 @@
         <v>3</v>
       </c>
       <c r="R55" s="14">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S55" s="9">
@@ -12329,7 +12468,7 @@
         <v>2</v>
       </c>
       <c r="R56" s="14">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S56" s="14">
@@ -12410,7 +12549,7 @@
         <v>4</v>
       </c>
       <c r="R57" s="14">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S57" s="16">
@@ -12494,7 +12633,7 @@
         <v>3</v>
       </c>
       <c r="R58" s="14">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S58" s="14">
@@ -12575,7 +12714,7 @@
         <v>3</v>
       </c>
       <c r="R59" s="14">
-        <f>SUM($S59:$V59)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S59" s="14">
@@ -12656,7 +12795,7 @@
         <v>4</v>
       </c>
       <c r="R60" s="14">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="S60" s="14">
@@ -12740,7 +12879,7 @@
         <v>2</v>
       </c>
       <c r="R61" s="14">
-        <f>SUM($S61:$V61)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S61" s="14">
@@ -12821,7 +12960,7 @@
         <v>4</v>
       </c>
       <c r="R62" s="14">
-        <f>SUM($S62:$V62)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S62" s="16">
@@ -12907,7 +13046,7 @@
         <v>3</v>
       </c>
       <c r="R63" s="14">
-        <f>SUM($S63:$V63)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S63" s="9">
@@ -12993,7 +13132,7 @@
         <v>4</v>
       </c>
       <c r="R64" s="14">
-        <f>SUM($S64:$V64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S64" s="16">
@@ -13079,7 +13218,7 @@
         <v>3</v>
       </c>
       <c r="R65" s="14">
-        <f>SUM($S65:$V65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S65" s="9">
@@ -13163,7 +13302,7 @@
         <v>3</v>
       </c>
       <c r="R66" s="14">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S66" s="9">
@@ -13249,7 +13388,7 @@
         <v>4</v>
       </c>
       <c r="R67" s="14">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="S67" s="14">
@@ -13333,7 +13472,7 @@
         <v>4</v>
       </c>
       <c r="R68" s="14">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S68" s="14">
@@ -13420,7 +13559,7 @@
         <v>4</v>
       </c>
       <c r="R69" s="14">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S69" s="16">
@@ -13504,7 +13643,7 @@
         <v>4</v>
       </c>
       <c r="R70" s="14">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S70" s="16">
@@ -13588,7 +13727,7 @@
         <v>3</v>
       </c>
       <c r="R71" s="14">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S71" s="9">
@@ -13672,7 +13811,7 @@
         <v>4</v>
       </c>
       <c r="R72" s="14">
-        <f>SUM($S72:$V72)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S72" s="16">
@@ -13758,7 +13897,7 @@
         <v>4</v>
       </c>
       <c r="R73" s="14">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S73" s="16">
@@ -13842,7 +13981,7 @@
         <v>4</v>
       </c>
       <c r="R74" s="14">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S74" s="16">
@@ -13928,7 +14067,7 @@
         <v>4</v>
       </c>
       <c r="R75" s="14">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S75" s="16">
@@ -14014,7 +14153,7 @@
         <v>3</v>
       </c>
       <c r="R76" s="14">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S76" s="9">
@@ -14098,7 +14237,7 @@
         <v>4</v>
       </c>
       <c r="R77" s="14">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S77" s="16">
@@ -14184,7 +14323,7 @@
         <v>4</v>
       </c>
       <c r="R78" s="14">
-        <f>SUM($S78:$V78)</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="S78" s="14">
@@ -14351,7 +14490,7 @@
         <v>4</v>
       </c>
       <c r="R80" s="14">
-        <f>SUM($S80:$V80)</f>
+        <f t="shared" ref="R80:R98" si="2">SUM($S80:$V80)</f>
         <v>12</v>
       </c>
       <c r="S80" s="16">
@@ -14437,7 +14576,7 @@
         <v>4</v>
       </c>
       <c r="R81" s="14">
-        <f>SUM($S81:$V81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S81" s="16">
@@ -14521,7 +14660,7 @@
         <v>4</v>
       </c>
       <c r="R82" s="14">
-        <f>SUM($S82:$V82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S82" s="16">
@@ -14607,7 +14746,7 @@
         <v>3</v>
       </c>
       <c r="R83" s="14">
-        <f>SUM($S83:$V83)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S83" s="14">
@@ -14691,7 +14830,7 @@
         <v>4</v>
       </c>
       <c r="R84" s="14">
-        <f>SUM($S84:$V84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S84" s="16">
@@ -14777,7 +14916,7 @@
         <v>4</v>
       </c>
       <c r="R85" s="14">
-        <f>SUM($S85:$V85)</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="S85" s="14">
@@ -14864,7 +15003,7 @@
         <v>4</v>
       </c>
       <c r="R86" s="14">
-        <f>SUM($S86:$V86)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="S86" s="14">
@@ -14948,7 +15087,7 @@
         <v>4</v>
       </c>
       <c r="R87" s="14">
-        <f>SUM($S87:$V87)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="S87" s="14">
@@ -15029,7 +15168,7 @@
         <v>4</v>
       </c>
       <c r="R88" s="14">
-        <f>SUM($S88:$V88)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="S88" s="14">
@@ -15113,7 +15252,7 @@
         <v>3</v>
       </c>
       <c r="R89" s="14">
-        <f>SUM($S89:$V89)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="S89" s="9">
@@ -15197,7 +15336,7 @@
         <v>4</v>
       </c>
       <c r="R90" s="14">
-        <f>SUM($S90:$V90)</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="S90" s="14">
@@ -15281,7 +15420,7 @@
         <v>4</v>
       </c>
       <c r="R91" s="14">
-        <f>SUM($S91:$V91)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S91" s="9">
@@ -15365,7 +15504,7 @@
         <v>4</v>
       </c>
       <c r="R92" s="14">
-        <f>SUM($S92:$V92)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="S92" s="14">
@@ -15449,7 +15588,7 @@
         <v>4</v>
       </c>
       <c r="R93" s="14">
-        <f>SUM($S93:$V93)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S93" s="9">
@@ -15533,7 +15672,7 @@
         <v>4</v>
       </c>
       <c r="R94" s="14">
-        <f>SUM($S94:$V94)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="S94" s="14">
@@ -15617,7 +15756,7 @@
         <v>4</v>
       </c>
       <c r="R95" s="14">
-        <f>SUM($S95:$V95)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S95" s="14">
@@ -15704,7 +15843,7 @@
         <v>4</v>
       </c>
       <c r="R96" s="14">
-        <f>SUM($S96:$V96)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S96" s="9">
@@ -15790,7 +15929,7 @@
         <v>4</v>
       </c>
       <c r="R97" s="14">
-        <f>SUM($S97:$V97)</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="S97" s="14">
@@ -15874,7 +16013,7 @@
         <v>4</v>
       </c>
       <c r="R98" s="14">
-        <f>SUM($S98:$V98)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S98" s="9">
@@ -15965,11 +16104,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="AB86" sqref="AB86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16122,7 +16261,7 @@
         <v>4</v>
       </c>
       <c r="R2" s="14">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R33" si="0">SUM($S2:$V2)</f>
         <v>12</v>
       </c>
       <c r="S2" s="9">
@@ -16209,7 +16348,7 @@
         <v>4</v>
       </c>
       <c r="R3" s="14">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="S3" s="14">
@@ -16293,7 +16432,7 @@
         <v>4</v>
       </c>
       <c r="R4" s="14">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S4" s="16">
@@ -16379,7 +16518,7 @@
         <v>4</v>
       </c>
       <c r="R5" s="14">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S5" s="14">
@@ -16463,7 +16602,7 @@
         <v>4</v>
       </c>
       <c r="R6" s="14">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S6" s="14">
@@ -16547,7 +16686,7 @@
         <v>4</v>
       </c>
       <c r="R7" s="14">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S7" s="16">
@@ -16635,7 +16774,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="14">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S8" s="16">
@@ -16721,7 +16860,7 @@
         <v>4</v>
       </c>
       <c r="R9" s="14">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S9" s="16">
@@ -16807,7 +16946,7 @@
         <v>4</v>
       </c>
       <c r="R10" s="14">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S10" s="16">
@@ -16895,7 +17034,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="14">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S11" s="16">
@@ -16983,7 +17122,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="14">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S12" s="16">
@@ -17069,7 +17208,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="14">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S13" s="16">
@@ -17155,7 +17294,7 @@
         <v>4</v>
       </c>
       <c r="R14" s="14">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S14" s="16">
@@ -17241,7 +17380,7 @@
         <v>4</v>
       </c>
       <c r="R15" s="14">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S15" s="16">
@@ -17327,7 +17466,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="14">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S16" s="9">
@@ -17414,7 +17553,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="14">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S17" s="9">
@@ -17499,7 +17638,7 @@
         <v>4</v>
       </c>
       <c r="R18" s="14">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S18" s="14">
@@ -17583,7 +17722,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="14">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S19" s="14">
@@ -17667,7 +17806,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="14">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="S20" s="14">
@@ -17754,7 +17893,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="14">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="S21" s="14">
@@ -17841,7 +17980,7 @@
         <v>3</v>
       </c>
       <c r="R22" s="14">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="S22" s="14">
@@ -17925,7 +18064,7 @@
         <v>3</v>
       </c>
       <c r="R23" s="14">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="S23" s="14">
@@ -18009,7 +18148,7 @@
         <v>3</v>
       </c>
       <c r="R24" s="14">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="S24" s="14">
@@ -18090,7 +18229,7 @@
         <v>3</v>
       </c>
       <c r="R25" s="14">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="S25" s="14">
@@ -18171,7 +18310,7 @@
         <v>4</v>
       </c>
       <c r="R26" s="14">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="S26" s="14">
@@ -18255,7 +18394,7 @@
         <v>4</v>
       </c>
       <c r="R27" s="14">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="S27" s="14">
@@ -18339,7 +18478,7 @@
         <v>4</v>
       </c>
       <c r="R28" s="14">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="S28" s="14">
@@ -18426,7 +18565,7 @@
         <v>4</v>
       </c>
       <c r="R29" s="14">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="S29" s="14">
@@ -18510,7 +18649,7 @@
         <v>4</v>
       </c>
       <c r="R30" s="14">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S30" s="9">
@@ -18596,7 +18735,7 @@
         <v>4</v>
       </c>
       <c r="R31" s="14">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S31" s="9">
@@ -18682,7 +18821,7 @@
         <v>4</v>
       </c>
       <c r="R32" s="14">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S32" s="9">
@@ -18768,7 +18907,7 @@
         <v>4</v>
       </c>
       <c r="R33" s="14">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S33" s="9">
@@ -18854,7 +18993,7 @@
         <v>4</v>
       </c>
       <c r="R34" s="14">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" ref="R34:R65" si="1">SUM($S34:$V34)</f>
         <v>12</v>
       </c>
       <c r="S34" s="9">
@@ -18940,7 +19079,7 @@
         <v>4</v>
       </c>
       <c r="R35" s="14">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S35" s="9">
@@ -19026,7 +19165,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="14">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S36" s="9">
@@ -19114,7 +19253,7 @@
         <v>4</v>
       </c>
       <c r="R37" s="14">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S37" s="9">
@@ -19200,7 +19339,7 @@
         <v>4</v>
       </c>
       <c r="R38" s="14">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S38" s="9">
@@ -19288,7 +19427,7 @@
         <v>3</v>
       </c>
       <c r="R39" s="27">
-        <f>SUM($S39:$V39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S39">
@@ -19375,7 +19514,7 @@
         <v>3</v>
       </c>
       <c r="R40" s="27">
-        <f>SUM($S40:$V40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
@@ -19462,7 +19601,7 @@
         <v>3</v>
       </c>
       <c r="R41" s="14">
-        <f>SUM($S41:$V41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S41" s="9">
@@ -19548,7 +19687,7 @@
         <v>3</v>
       </c>
       <c r="R42" s="14">
-        <f>SUM($S42:$V42)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S42" s="9">
@@ -19634,7 +19773,7 @@
         <v>3</v>
       </c>
       <c r="R43" s="14">
-        <f>SUM($S43:$V43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S43" s="9">
@@ -19720,7 +19859,7 @@
         <v>3</v>
       </c>
       <c r="R44" s="14">
-        <f>SUM($S44:$V44)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S44" s="9">
@@ -19808,7 +19947,7 @@
         <v>3</v>
       </c>
       <c r="R45" s="14">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S45" s="9">
@@ -19894,7 +20033,7 @@
         <v>3</v>
       </c>
       <c r="R46" s="14">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S46" s="9">
@@ -19980,7 +20119,7 @@
         <v>3</v>
       </c>
       <c r="R47" s="14">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S47" s="9">
@@ -20066,7 +20205,7 @@
         <v>3</v>
       </c>
       <c r="R48" s="14">
-        <f>SUM($S48:$V48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S48" s="9">
@@ -20152,7 +20291,7 @@
         <v>3</v>
       </c>
       <c r="R49" s="14">
-        <f>SUM($S49:$V49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S49" s="9">
@@ -20238,7 +20377,7 @@
         <v>3</v>
       </c>
       <c r="R50" s="14">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S50" s="9">
@@ -20324,7 +20463,7 @@
         <v>3</v>
       </c>
       <c r="R51" s="14">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S51" s="9">
@@ -20410,7 +20549,7 @@
         <v>3</v>
       </c>
       <c r="R52" s="14">
-        <f>SUM($S52:$V52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S52" s="9">
@@ -20496,7 +20635,7 @@
         <v>3</v>
       </c>
       <c r="R53" s="14">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S53" s="9">
@@ -20582,7 +20721,7 @@
         <v>3</v>
       </c>
       <c r="R54" s="14">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S54" s="9">
@@ -20668,7 +20807,7 @@
         <v>3</v>
       </c>
       <c r="R55" s="14">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S55" s="9">
@@ -20697,7 +20836,9 @@
       </c>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
+      <c r="AC55" s="9" t="s">
+        <v>2090</v>
+      </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
@@ -20752,7 +20893,7 @@
         <v>3</v>
       </c>
       <c r="R56" s="14">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S56" s="9">
@@ -20781,7 +20922,9 @@
       </c>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
+      <c r="AC56" s="9" t="s">
+        <v>2090</v>
+      </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
@@ -20836,7 +20979,7 @@
         <v>3</v>
       </c>
       <c r="R57" s="14">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S57" s="9">
@@ -20865,7 +21008,9 @@
       </c>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
-      <c r="AC57" s="9"/>
+      <c r="AC57" s="9" t="s">
+        <v>2090</v>
+      </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
@@ -20920,7 +21065,7 @@
         <v>3</v>
       </c>
       <c r="R58" s="14">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S58" s="9">
@@ -20949,7 +21094,9 @@
       </c>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
-      <c r="AC58" s="9"/>
+      <c r="AC58" s="9" t="s">
+        <v>2090</v>
+      </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
@@ -21004,7 +21151,7 @@
         <v>3</v>
       </c>
       <c r="R59" s="14">
-        <f>SUM($S59:$V59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S59" s="9">
@@ -21033,7 +21180,9 @@
       </c>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
+      <c r="AC59" s="9" t="s">
+        <v>2090</v>
+      </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
@@ -21088,7 +21237,7 @@
         <v>3</v>
       </c>
       <c r="R60" s="14">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S60" s="9">
@@ -21172,7 +21321,7 @@
         <v>3</v>
       </c>
       <c r="R61" s="14">
-        <f>SUM($S61:$V61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S61" s="9">
@@ -21256,7 +21405,7 @@
         <v>3</v>
       </c>
       <c r="R62" s="14">
-        <f>SUM($S62:$V62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S62" s="9">
@@ -21340,7 +21489,7 @@
         <v>3</v>
       </c>
       <c r="R63" s="14">
-        <f>SUM($S63:$V63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S63" s="9">
@@ -21424,7 +21573,7 @@
         <v>3</v>
       </c>
       <c r="R64" s="14">
-        <f>SUM($S64:$V64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S64" s="9">
@@ -21508,7 +21657,7 @@
         <v>3</v>
       </c>
       <c r="R65" s="14">
-        <f>SUM($S65:$V65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S65" s="9">
@@ -21592,7 +21741,7 @@
         <v>3</v>
       </c>
       <c r="R66" s="14">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" ref="R66:R97" si="2">SUM($S66:$V66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="9">
@@ -21676,7 +21825,7 @@
         <v>3</v>
       </c>
       <c r="R67" s="14">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S67" s="9">
@@ -21760,7 +21909,7 @@
         <v>3</v>
       </c>
       <c r="R68" s="14">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S68" s="9">
@@ -21844,7 +21993,7 @@
         <v>3</v>
       </c>
       <c r="R69" s="14">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S69" s="9">
@@ -21928,7 +22077,7 @@
         <v>3</v>
       </c>
       <c r="R70" s="14">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S70" s="9">
@@ -22012,7 +22161,7 @@
         <v>3</v>
       </c>
       <c r="R71" s="14">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="S71" s="14">
@@ -22096,7 +22245,7 @@
         <v>3</v>
       </c>
       <c r="R72" s="14">
-        <f>SUM($S72:$V72)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S72" s="14">
@@ -22180,7 +22329,7 @@
         <v>3</v>
       </c>
       <c r="R73" s="14">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S73" s="9">
@@ -22264,7 +22413,7 @@
         <v>3</v>
       </c>
       <c r="R74" s="14">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S74" s="9">
@@ -22348,7 +22497,7 @@
         <v>4</v>
       </c>
       <c r="R75" s="14">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S75" s="16">
@@ -22436,7 +22585,7 @@
         <v>4</v>
       </c>
       <c r="R76" s="14">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S76" s="16">
@@ -22524,7 +22673,7 @@
         <v>4</v>
       </c>
       <c r="R77" s="14">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S77" s="16">
@@ -22612,7 +22761,7 @@
         <v>4</v>
       </c>
       <c r="R78" s="14">
-        <f>SUM($S78:$V78)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S78" s="16">
@@ -22700,7 +22849,7 @@
         <v>4</v>
       </c>
       <c r="R79" s="14">
-        <f>SUM($S79:$V79)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S79" s="16">
@@ -22786,7 +22935,7 @@
         <v>4</v>
       </c>
       <c r="R80" s="14">
-        <f>SUM($S80:$V80)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S80" s="16">
@@ -22872,7 +23021,7 @@
         <v>4</v>
       </c>
       <c r="R81" s="14">
-        <f>SUM($S81:$V81)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S81" s="16">
@@ -22958,7 +23107,7 @@
         <v>4</v>
       </c>
       <c r="R82" s="14">
-        <f>SUM($S82:$V82)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S82" s="16">
@@ -23046,7 +23195,7 @@
         <v>4</v>
       </c>
       <c r="R83" s="14">
-        <f>SUM($S83:$V83)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S83" s="16">
@@ -23134,7 +23283,7 @@
         <v>4</v>
       </c>
       <c r="R84" s="14">
-        <f>SUM($S84:$V84)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S84" s="16">
@@ -23222,7 +23371,7 @@
         <v>4</v>
       </c>
       <c r="R85" s="14">
-        <f>SUM($S85:$V85)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S85" s="16">
@@ -23308,7 +23457,7 @@
         <v>4</v>
       </c>
       <c r="R86" s="14">
-        <f>SUM($S86:$V86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S86" s="16">
@@ -23396,7 +23545,7 @@
         <v>4</v>
       </c>
       <c r="R87" s="14">
-        <f>SUM($S87:$V87)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="S87" s="14">
@@ -23483,7 +23632,7 @@
         <v>4</v>
       </c>
       <c r="R88" s="14">
-        <f>SUM($S88:$V88)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="S88" s="14">
@@ -23567,7 +23716,7 @@
         <v>4</v>
       </c>
       <c r="R89" s="14">
-        <f>SUM($S89:$V89)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="S89" s="14">
@@ -23651,7 +23800,7 @@
         <v>4</v>
       </c>
       <c r="R90" s="14">
-        <f>SUM($S90:$V90)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S90" s="14">
@@ -23738,7 +23887,7 @@
         <v>3</v>
       </c>
       <c r="R91" s="14">
-        <f>SUM($S91:$V91)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S91" s="14">
@@ -23822,7 +23971,7 @@
         <v>3</v>
       </c>
       <c r="R92" s="14">
-        <f>SUM($S92:$V92)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S92" s="14">
@@ -23906,7 +24055,7 @@
         <v>3</v>
       </c>
       <c r="R93" s="14">
-        <f>SUM($S93:$V93)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="S93" s="14">
@@ -23990,7 +24139,7 @@
         <v>3</v>
       </c>
       <c r="R94" s="14">
-        <f>SUM($S94:$V94)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="S94" s="14">
@@ -24074,7 +24223,7 @@
         <v>4</v>
       </c>
       <c r="R95" s="14">
-        <f>SUM($S95:$V95)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S95" s="9">
@@ -24161,7 +24310,7 @@
         <v>4</v>
       </c>
       <c r="R96" s="14">
-        <f>SUM($S96:$V96)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S96" s="9">
@@ -24247,7 +24396,7 @@
         <v>4</v>
       </c>
       <c r="R97" s="14">
-        <f>SUM($S97:$V97)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="S97" s="9">
@@ -24333,7 +24482,7 @@
         <v>4</v>
       </c>
       <c r="R98" s="14">
-        <f>SUM($S98:$V98)</f>
+        <f t="shared" ref="R98:R129" si="3">SUM($S98:$V98)</f>
         <v>6</v>
       </c>
       <c r="S98" s="9">
@@ -24419,7 +24568,7 @@
         <v>4</v>
       </c>
       <c r="R99" s="14">
-        <f>SUM($S99:$V99)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S99" s="9">
@@ -24505,7 +24654,7 @@
         <v>4</v>
       </c>
       <c r="R100" s="14">
-        <f>SUM($S100:$V100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S100" s="9">
@@ -24591,7 +24740,7 @@
         <v>4</v>
       </c>
       <c r="R101" s="14">
-        <f>SUM($S101:$V101)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S101" s="9">
@@ -24677,7 +24826,7 @@
         <v>4</v>
       </c>
       <c r="R102" s="14">
-        <f>SUM($S102:$V102)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="S102" s="9">
@@ -24763,7 +24912,7 @@
         <v>4</v>
       </c>
       <c r="R103" s="14">
-        <f>SUM($S103:$V103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S103" s="9">
@@ -24849,7 +24998,7 @@
         <v>4</v>
       </c>
       <c r="R104" s="14">
-        <f>SUM($S104:$V104)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S104" s="9">
@@ -24935,7 +25084,7 @@
         <v>4</v>
       </c>
       <c r="R105" s="14">
-        <f>SUM($S105:$V105)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S105" s="9">
@@ -25021,7 +25170,7 @@
         <v>3</v>
       </c>
       <c r="R106" s="14">
-        <f>SUM($S106:$V106)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="S106" s="9">
@@ -25107,7 +25256,7 @@
         <v>3</v>
       </c>
       <c r="R107" s="14">
-        <f>SUM($S107:$V107)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S107" s="9">
@@ -25193,7 +25342,7 @@
         <v>3</v>
       </c>
       <c r="R108" s="14">
-        <f>SUM($S108:$V108)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S108" s="9">
@@ -25277,7 +25426,7 @@
         <v>3</v>
       </c>
       <c r="R109" s="14">
-        <f>SUM($S109:$V109)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S109" s="9">
@@ -25361,7 +25510,7 @@
         <v>3</v>
       </c>
       <c r="R110" s="14">
-        <f>SUM($S110:$V110)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S110" s="9">
@@ -25445,7 +25594,7 @@
         <v>3</v>
       </c>
       <c r="R111" s="14">
-        <f>SUM($S111:$V111)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S111" s="9">
@@ -25529,7 +25678,7 @@
         <v>3</v>
       </c>
       <c r="R112" s="14">
-        <f>SUM($S112:$V112)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S112" s="9">
@@ -25613,7 +25762,7 @@
         <v>3</v>
       </c>
       <c r="R113" s="14">
-        <f>SUM($S113:$V113)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S113" s="9">
@@ -25697,7 +25846,7 @@
         <v>3</v>
       </c>
       <c r="R114" s="14">
-        <f>SUM($S114:$V114)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S114" s="9">
@@ -25726,7 +25875,9 @@
       </c>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
-      <c r="AC114" s="9"/>
+      <c r="AC114" s="9" t="s">
+        <v>2090</v>
+      </c>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
@@ -25781,7 +25932,7 @@
         <v>3</v>
       </c>
       <c r="R115" s="14">
-        <f>SUM($S115:$V115)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S115" s="9">
@@ -25865,7 +26016,7 @@
         <v>3</v>
       </c>
       <c r="R116" s="14">
-        <f>SUM($S116:$V116)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S116" s="9">
@@ -25949,7 +26100,7 @@
         <v>3</v>
       </c>
       <c r="R117" s="14">
-        <f>SUM($S117:$V117)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S117" s="9">
@@ -26033,7 +26184,7 @@
         <v>3</v>
       </c>
       <c r="R118" s="14">
-        <f>SUM($S118:$V118)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S118" s="9">
@@ -26117,7 +26268,7 @@
         <v>3</v>
       </c>
       <c r="R119" s="14">
-        <f>SUM($S119:$V119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S119" s="9">
@@ -26201,7 +26352,7 @@
         <v>3</v>
       </c>
       <c r="R120" s="14">
-        <f>SUM($S120:$V120)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S120" s="9">
@@ -26285,7 +26436,7 @@
         <v>3</v>
       </c>
       <c r="R121" s="14">
-        <f>SUM($S121:$V121)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S121" s="9">
@@ -26369,7 +26520,7 @@
         <v>3</v>
       </c>
       <c r="R122" s="14">
-        <f>SUM($S122:$V122)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S122" s="9">
@@ -26453,7 +26604,7 @@
         <v>3</v>
       </c>
       <c r="R123" s="14">
-        <f>SUM($S123:$V123)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S123" s="9">
@@ -26537,7 +26688,7 @@
         <v>3</v>
       </c>
       <c r="R124" s="14">
-        <f>SUM($S124:$V124)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S124" s="27">
@@ -26623,7 +26774,7 @@
         <v>3</v>
       </c>
       <c r="R125" s="14">
-        <f>SUM($S125:$V125)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S125" s="27">
@@ -26709,7 +26860,7 @@
         <v>3</v>
       </c>
       <c r="R126" s="14">
-        <f>SUM($S126:$V126)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S126" s="27">
@@ -26799,7 +26950,7 @@
         <v>3</v>
       </c>
       <c r="R127" s="14">
-        <f>SUM($S127:$V127)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S127">
@@ -26885,7 +27036,7 @@
         <v>4</v>
       </c>
       <c r="R128" s="14">
-        <f>SUM($S128:$V128)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S128" s="16">
@@ -26973,7 +27124,7 @@
         <v>4</v>
       </c>
       <c r="R129" s="14">
-        <f>SUM($S129:$V129)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S129" s="16">
@@ -27061,7 +27212,7 @@
         <v>4</v>
       </c>
       <c r="R130" s="14">
-        <f>SUM($S130:$V130)</f>
+        <f t="shared" ref="R130:R161" si="4">SUM($S130:$V130)</f>
         <v>32</v>
       </c>
       <c r="S130" s="14">
@@ -27148,7 +27299,7 @@
         <v>4</v>
       </c>
       <c r="R131" s="14">
-        <f>SUM($S131:$V131)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S131" s="16">
@@ -27234,7 +27385,7 @@
         <v>4</v>
       </c>
       <c r="R132" s="14">
-        <f>SUM($S132:$V132)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="S132" s="14">
@@ -27318,7 +27469,7 @@
         <v>4</v>
       </c>
       <c r="R133" s="14">
-        <f>SUM($S133:$V133)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="S133" s="14">
@@ -27402,7 +27553,7 @@
         <v>4</v>
       </c>
       <c r="R134" s="14">
-        <f>SUM($S134:$V134)</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="S134" s="14">
@@ -27489,7 +27640,7 @@
         <v>4</v>
       </c>
       <c r="R135" s="14">
-        <f>SUM($S135:$V135)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="S135" s="14">
@@ -27573,7 +27724,7 @@
         <v>4</v>
       </c>
       <c r="R136" s="14">
-        <f>SUM($S136:$V136)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="S136" s="14">
@@ -27660,7 +27811,7 @@
         <v>4</v>
       </c>
       <c r="R137" s="14">
-        <f>SUM($S137:$V137)</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="S137" s="14">
@@ -27747,7 +27898,7 @@
         <v>4</v>
       </c>
       <c r="R138" s="14">
-        <f>SUM($S138:$V138)</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="S138" s="14">
@@ -27831,7 +27982,7 @@
         <v>3</v>
       </c>
       <c r="R139" s="14">
-        <f>SUM($S139:$V139)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="S139" s="14">
@@ -27915,7 +28066,7 @@
         <v>3</v>
       </c>
       <c r="R140" s="14">
-        <f>SUM($S140:$V140)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="S140" s="14">
@@ -27999,7 +28150,7 @@
         <v>4</v>
       </c>
       <c r="R141" s="14">
-        <f>SUM($S141:$V141)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S141" s="9">
@@ -28085,7 +28236,7 @@
         <v>4</v>
       </c>
       <c r="R142" s="14">
-        <f>SUM($S142:$V142)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S142" s="9">
@@ -28171,7 +28322,7 @@
         <v>4</v>
       </c>
       <c r="R143" s="14">
-        <f>SUM($S143:$V143)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S143" s="9">
@@ -28259,7 +28410,7 @@
         <v>4</v>
       </c>
       <c r="R144" s="14">
-        <f>SUM($S144:$V144)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="S144" s="9">
@@ -28345,7 +28496,7 @@
         <v>3</v>
       </c>
       <c r="R145" s="14">
-        <f>SUM($S145:$V145)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S145" s="9">
@@ -28429,7 +28580,7 @@
         <v>3</v>
       </c>
       <c r="R146" s="14">
-        <f>SUM($S146:$V146)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S146" s="9">
@@ -28458,7 +28609,9 @@
       </c>
       <c r="AA146" s="9"/>
       <c r="AB146" s="9"/>
-      <c r="AC146" s="9"/>
+      <c r="AC146" s="9" t="s">
+        <v>2090</v>
+      </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
@@ -28513,7 +28666,7 @@
         <v>3</v>
       </c>
       <c r="R147" s="14">
-        <f>SUM($S147:$V147)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S147" s="9">
@@ -28542,7 +28695,9 @@
       </c>
       <c r="AA147" s="9"/>
       <c r="AB147" s="9"/>
-      <c r="AC147" s="9"/>
+      <c r="AC147" s="9" t="s">
+        <v>2090</v>
+      </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
@@ -28597,7 +28752,7 @@
         <v>3</v>
       </c>
       <c r="R148" s="14">
-        <f>SUM($S148:$V148)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S148" s="9">
@@ -28681,7 +28836,7 @@
         <v>3</v>
       </c>
       <c r="R149" s="14">
-        <f>SUM($S149:$V149)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S149" s="9">
@@ -28765,7 +28920,7 @@
         <v>3</v>
       </c>
       <c r="R150" s="14">
-        <f>SUM($S150:$V150)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S150" s="9">
@@ -28849,7 +29004,7 @@
         <v>3</v>
       </c>
       <c r="R151" s="14">
-        <f>SUM($S151:$V151)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S151" s="27">
@@ -28937,7 +29092,7 @@
         <v>3</v>
       </c>
       <c r="R152" s="14">
-        <f>SUM($S152:$V152)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S152" s="27">
@@ -29025,7 +29180,7 @@
         <v>3</v>
       </c>
       <c r="R153" s="14">
-        <f>SUM($S153:$V153)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S153" s="27">
@@ -29113,7 +29268,7 @@
         <v>4</v>
       </c>
       <c r="R154" s="14">
-        <f>SUM($S154:$V154)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="S154" s="14">
@@ -29200,7 +29355,7 @@
         <v>3</v>
       </c>
       <c r="R155" s="14">
-        <f>SUM($S155:$V155)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S155" s="9">
@@ -29284,7 +29439,7 @@
         <v>3</v>
       </c>
       <c r="R156" s="14">
-        <f>SUM($S156:$V156)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S156" s="9">
@@ -29368,7 +29523,7 @@
         <v>3</v>
       </c>
       <c r="R157" s="14">
-        <f>SUM($S157:$V157)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S157" s="9">
@@ -29454,7 +29609,7 @@
         <v>3</v>
       </c>
       <c r="R158" s="14">
-        <f>SUM($S158:$V158)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S158" s="9">
@@ -29538,7 +29693,7 @@
         <v>3</v>
       </c>
       <c r="R159" s="14">
-        <f>SUM($S159:$V159)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S159" s="9">
@@ -29624,7 +29779,7 @@
         <v>4</v>
       </c>
       <c r="R160" s="14">
-        <f>SUM($S160:$V160)</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="S160" s="14">
@@ -29711,7 +29866,7 @@
         <v>3</v>
       </c>
       <c r="R161" s="14">
-        <f>SUM($S161:$V161)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S161" s="9">
@@ -29795,7 +29950,7 @@
         <v>3</v>
       </c>
       <c r="R162" s="14">
-        <f>SUM($S162:$V162)</f>
+        <f t="shared" ref="R162:R170" si="5">SUM($S162:$V162)</f>
         <v>0</v>
       </c>
       <c r="S162" s="9">
@@ -29879,7 +30034,7 @@
         <v>3</v>
       </c>
       <c r="R163" s="14">
-        <f>SUM($S163:$V163)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S163" s="27">
@@ -29967,7 +30122,7 @@
         <v>4</v>
       </c>
       <c r="R164" s="14">
-        <f>SUM($S164:$V164)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S164" s="9">
@@ -30054,7 +30209,7 @@
         <v>3</v>
       </c>
       <c r="R165" s="14">
-        <f>SUM($S165:$V165)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S165" s="9">
@@ -30138,7 +30293,7 @@
         <v>4</v>
       </c>
       <c r="R166" s="14">
-        <f>SUM($S166:$V166)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S166" s="16">
@@ -30226,7 +30381,7 @@
         <v>3</v>
       </c>
       <c r="R167" s="14">
-        <f>SUM($S167:$V167)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S167" s="27">
@@ -30312,7 +30467,7 @@
         <v>4</v>
       </c>
       <c r="R168" s="14">
-        <f>SUM($S168:$V168)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="S168" s="14">
@@ -30396,7 +30551,7 @@
         <v>4</v>
       </c>
       <c r="R169" s="14">
-        <f>SUM($S169:$V169)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S169" s="9">
@@ -30482,7 +30637,7 @@
         <v>4</v>
       </c>
       <c r="R170" s="14">
-        <f>SUM($S170:$V170)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S170" s="9">
@@ -30516,7 +30671,7 @@
       <c r="AC170" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC168" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:AC170" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC170">
       <sortCondition ref="A1:A168"/>
     </sortState>
@@ -30909,13 +31064,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA551"/>
+  <dimension ref="A1:AA565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -73389,8 +73544,393 @@
         <v>284</v>
       </c>
     </row>
+    <row r="552" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A552" s="5" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C552" s="6" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D552" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F552" s="6">
+        <v>12</v>
+      </c>
+      <c r="K552" s="6">
+        <v>3</v>
+      </c>
+      <c r="L552" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q552" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A553" s="5" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C553" s="6" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D553" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F553" s="8">
+        <v>30</v>
+      </c>
+      <c r="K553" s="6">
+        <v>3</v>
+      </c>
+      <c r="L553" s="8">
+        <v>4</v>
+      </c>
+      <c r="P553" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q553" s="8">
+        <v>1</v>
+      </c>
+      <c r="R553" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="554" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A554" s="5" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C554" s="6" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D554" s="7" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F554" s="8">
+        <v>10</v>
+      </c>
+      <c r="K554" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q554" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A555" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C555" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D555" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F555" s="8">
+        <v>28</v>
+      </c>
+      <c r="K555" s="8">
+        <v>4</v>
+      </c>
+      <c r="L555" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q555" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A556" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B556" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C556" s="6" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D556" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F556" s="8">
+        <v>32</v>
+      </c>
+      <c r="L556" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q556" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A557" s="5" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B557" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C557" s="8" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D557" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="O557" s="8">
+        <v>4</v>
+      </c>
+      <c r="P557" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q557" s="8">
+        <v>1</v>
+      </c>
+      <c r="V557" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A558" s="5" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C558" s="6" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D558" s="7" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F558" s="8">
+        <v>19</v>
+      </c>
+      <c r="P558" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q558" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="R558" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="T558" s="8">
+        <v>21</v>
+      </c>
+      <c r="V558" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="559" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A559" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B559" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C559" s="6" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D559" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F559" s="8">
+        <v>32</v>
+      </c>
+      <c r="K559" s="6">
+        <v>1</v>
+      </c>
+      <c r="L559" s="6">
+        <v>4</v>
+      </c>
+      <c r="M559" s="6">
+        <v>-3</v>
+      </c>
+      <c r="Q559" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A560" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C560" s="6" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D560" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F560" s="8">
+        <v>1</v>
+      </c>
+      <c r="K560" s="6">
+        <v>2</v>
+      </c>
+      <c r="M560" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q560" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A561" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B561" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C561" s="6" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D561" s="30" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F561" s="8">
+        <v>23</v>
+      </c>
+      <c r="P561" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q561" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="R561" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="S561" s="8">
+        <v>26</v>
+      </c>
+      <c r="V561" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A562" s="5" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B562" s="6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C562" s="6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D562" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F562" s="8">
+        <v>6</v>
+      </c>
+      <c r="P562" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q562" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A563" s="5" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B563" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C563" s="6" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D563" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E563" s="6">
+        <v>1</v>
+      </c>
+      <c r="J563" s="6">
+        <v>6</v>
+      </c>
+      <c r="K563" s="6">
+        <v>9</v>
+      </c>
+      <c r="L563" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q563" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A564" s="5" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C564" s="6" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D564" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F564" s="8">
+        <v>27</v>
+      </c>
+      <c r="K564" s="8">
+        <v>1</v>
+      </c>
+      <c r="L564" s="6">
+        <v>4</v>
+      </c>
+      <c r="P564" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q564" s="8">
+        <v>1</v>
+      </c>
+      <c r="R564" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A565" s="5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B565" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C565" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D565" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F565" s="8">
+        <v>3</v>
+      </c>
+      <c r="P565" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q565" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="R565" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AA551" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:AA565" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -73399,13 +73939,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC183"/>
+  <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -81036,7 +81576,7 @@
         <v>235</v>
       </c>
       <c r="V98">
-        <f t="shared" ref="V98:V135" si="3">SUM(W98:Z98)</f>
+        <f t="shared" ref="V98:V139" si="3">SUM(W98:Z98)</f>
         <v>8</v>
       </c>
       <c r="W98">
@@ -82556,7 +83096,7 @@
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="29" t="s">
         <v>2011</v>
       </c>
       <c r="B118" t="s">
@@ -82637,7 +83177,7 @@
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="29" t="s">
         <v>2012</v>
       </c>
       <c r="B119" t="s">
@@ -82718,7 +83258,7 @@
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="29" t="s">
         <v>2013</v>
       </c>
       <c r="B120" t="s">
@@ -82799,7 +83339,7 @@
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="29" t="s">
         <v>2014</v>
       </c>
       <c r="B121" t="s">
@@ -82880,7 +83420,7 @@
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="29" t="s">
         <v>2015</v>
       </c>
       <c r="B122" t="s">
@@ -82961,7 +83501,7 @@
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="29" t="s">
         <v>2016</v>
       </c>
       <c r="B123" t="s">
@@ -83042,278 +83582,308 @@
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>1607</v>
+      <c r="A124" s="10" t="s">
+        <v>2083</v>
       </c>
       <c r="B124" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C124" t="s">
-        <v>1606</v>
+        <v>2020</v>
       </c>
       <c r="D124" t="s">
         <v>92</v>
       </c>
-      <c r="E124" s="12">
-        <v>5</v>
+      <c r="E124">
+        <v>100</v>
       </c>
       <c r="F124">
-        <v>20</v>
+        <v>2333</v>
       </c>
       <c r="G124">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="H124">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="J124">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="K124">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L124" s="1">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
         <v>17</v>
       </c>
-      <c r="N124">
-        <v>3</v>
-      </c>
       <c r="O124">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q124">
         <v>0</v>
       </c>
       <c r="R124" t="s">
-        <v>221</v>
+        <v>719</v>
+      </c>
+      <c r="S124" t="s">
+        <v>719</v>
+      </c>
+      <c r="T124" t="s">
+        <v>594</v>
+      </c>
+      <c r="U124" t="s">
+        <v>592</v>
       </c>
       <c r="V124">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM($W124:$Z124)</f>
+        <v>16</v>
       </c>
       <c r="W124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>1608</v>
+      <c r="A125" s="11" t="s">
+        <v>2084</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C125" t="s">
-        <v>1565</v>
+        <v>2085</v>
       </c>
       <c r="D125" t="s">
         <v>92</v>
       </c>
-      <c r="E125" s="12">
-        <v>5</v>
+      <c r="E125">
+        <v>69</v>
       </c>
       <c r="F125">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G125">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="H125">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="J125">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1">
+        <v>75</v>
+      </c>
+      <c r="M125">
+        <v>54</v>
+      </c>
+      <c r="N125">
+        <v>33</v>
+      </c>
+      <c r="O125">
         <v>22</v>
       </c>
-      <c r="L125" s="1">
-        <v>32</v>
-      </c>
-      <c r="M125">
-        <v>17</v>
-      </c>
-      <c r="N125">
+      <c r="P125">
         <v>3</v>
       </c>
-      <c r="O125">
-        <v>35</v>
-      </c>
-      <c r="P125">
-        <v>1</v>
-      </c>
       <c r="Q125">
         <v>0</v>
       </c>
       <c r="R125" t="s">
-        <v>221</v>
+        <v>229</v>
+      </c>
+      <c r="S125" t="s">
+        <v>229</v>
+      </c>
+      <c r="T125" t="s">
+        <v>246</v>
+      </c>
+      <c r="U125" t="s">
+        <v>249</v>
       </c>
       <c r="V125">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM($W125:$Z125)</f>
+        <v>12</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>1609</v>
+      <c r="A126" s="11" t="s">
+        <v>2086</v>
       </c>
       <c r="B126" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C126" t="s">
-        <v>1566</v>
+        <v>2087</v>
       </c>
       <c r="D126" t="s">
         <v>92</v>
       </c>
-      <c r="E126" s="12">
-        <v>5</v>
+      <c r="E126">
+        <v>69</v>
       </c>
       <c r="F126">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G126">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="H126">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="J126">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126" s="1">
+        <v>75</v>
+      </c>
+      <c r="M126">
+        <v>54</v>
+      </c>
+      <c r="N126">
+        <v>33</v>
+      </c>
+      <c r="O126">
         <v>22</v>
       </c>
-      <c r="L126" s="1">
-        <v>32</v>
-      </c>
-      <c r="M126">
-        <v>17</v>
-      </c>
-      <c r="N126">
+      <c r="P126">
         <v>3</v>
       </c>
-      <c r="O126">
-        <v>35</v>
-      </c>
-      <c r="P126">
-        <v>1</v>
-      </c>
       <c r="Q126">
         <v>0</v>
       </c>
       <c r="R126" t="s">
-        <v>221</v>
+        <v>229</v>
+      </c>
+      <c r="S126" t="s">
+        <v>229</v>
+      </c>
+      <c r="T126" t="s">
+        <v>246</v>
+      </c>
+      <c r="U126" t="s">
+        <v>249</v>
       </c>
       <c r="V126">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="V126:V127" si="4">SUM($W126:$Z126)</f>
+        <v>12</v>
       </c>
       <c r="W126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>1610</v>
+      <c r="A127" s="11" t="s">
+        <v>2088</v>
       </c>
       <c r="B127" t="s">
         <v>204</v>
       </c>
       <c r="C127" t="s">
-        <v>1567</v>
+        <v>2089</v>
       </c>
       <c r="D127" t="s">
         <v>92</v>
       </c>
-      <c r="E127" s="12">
-        <v>5</v>
+      <c r="E127">
+        <v>63</v>
       </c>
       <c r="F127">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G127">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H127">
+        <v>78</v>
+      </c>
+      <c r="I127">
+        <v>35</v>
+      </c>
+      <c r="J127">
+        <v>37</v>
+      </c>
+      <c r="K127">
+        <v>71</v>
+      </c>
+      <c r="L127" s="1">
+        <v>62</v>
+      </c>
+      <c r="M127">
+        <v>99</v>
+      </c>
+      <c r="N127">
         <v>24</v>
       </c>
-      <c r="I127">
-        <v>8</v>
-      </c>
-      <c r="J127">
-        <v>11</v>
-      </c>
-      <c r="K127">
-        <v>22</v>
-      </c>
-      <c r="L127" s="1">
-        <v>32</v>
-      </c>
-      <c r="M127">
-        <v>17</v>
-      </c>
-      <c r="N127">
-        <v>3</v>
-      </c>
       <c r="O127">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q127">
         <v>0</v>
       </c>
       <c r="R127" t="s">
-        <v>221</v>
+        <v>226</v>
+      </c>
+      <c r="S127" t="s">
+        <v>235</v>
       </c>
       <c r="V127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W127">
@@ -83331,13 +83901,13 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="B128" t="s">
         <v>204</v>
       </c>
       <c r="C128" t="s">
-        <v>1568</v>
+        <v>1606</v>
       </c>
       <c r="D128" t="s">
         <v>92</v>
@@ -83349,13 +83919,13 @@
         <v>20</v>
       </c>
       <c r="G128">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H128">
         <v>24</v>
       </c>
       <c r="I128">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J128">
         <v>11</v>
@@ -83403,49 +83973,49 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C129" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="D129" t="s">
         <v>92</v>
       </c>
       <c r="E129" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F129">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H129">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I129">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L129" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M129">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N129">
         <v>3</v>
       </c>
       <c r="O129">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="P129">
         <v>1</v>
@@ -83454,7 +84024,7 @@
         <v>0</v>
       </c>
       <c r="R129" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="V129">
         <f t="shared" si="3"/>
@@ -83475,64 +84045,58 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="B130" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C130" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="D130" t="s">
         <v>92</v>
       </c>
       <c r="E130" s="12">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F130">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G130">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I130">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J130">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L130" s="1">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="M130">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N130">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O130">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="P130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q130">
         <v>0</v>
       </c>
       <c r="R130" t="s">
-        <v>229</v>
-      </c>
-      <c r="S130" t="s">
-        <v>228</v>
-      </c>
-      <c r="T130" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="V130">
         <f t="shared" si="3"/>
@@ -83553,49 +84117,49 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="B131" t="s">
         <v>204</v>
       </c>
       <c r="C131" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="D131" t="s">
         <v>92</v>
       </c>
       <c r="E131" s="12">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F131">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G131">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H131">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I131">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J131">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K131">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L131" s="1">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M131">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N131">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O131">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P131">
         <v>1</v>
@@ -83606,9 +84170,6 @@
       <c r="R131" t="s">
         <v>221</v>
       </c>
-      <c r="S131" t="s">
-        <v>234</v>
-      </c>
       <c r="V131">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -83628,49 +84189,49 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="B132" t="s">
         <v>204</v>
       </c>
       <c r="C132" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="D132" t="s">
         <v>92</v>
       </c>
       <c r="E132" s="12">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F132">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G132">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H132">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I132">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J132">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K132">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L132" s="1">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M132">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N132">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P132">
         <v>1</v>
@@ -83681,9 +84242,6 @@
       <c r="R132" t="s">
         <v>221</v>
       </c>
-      <c r="S132" t="s">
-        <v>234</v>
-      </c>
       <c r="V132">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -83703,49 +84261,49 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C133" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="D133" t="s">
         <v>92</v>
       </c>
       <c r="E133" s="12">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F133">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G133">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I133">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J133">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L133" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M133">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="P133">
         <v>1</v>
@@ -83754,10 +84312,7 @@
         <v>0</v>
       </c>
       <c r="R133" t="s">
-        <v>221</v>
-      </c>
-      <c r="S133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V133">
         <f t="shared" si="3"/>
@@ -83778,61 +84333,64 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C134" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="D134" t="s">
         <v>92</v>
       </c>
       <c r="E134" s="12">
+        <v>50</v>
+      </c>
+      <c r="F134">
+        <v>80</v>
+      </c>
+      <c r="G134">
+        <v>130</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>85</v>
+      </c>
+      <c r="J134">
+        <v>60</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134" s="1">
+        <v>65</v>
+      </c>
+      <c r="M134">
+        <v>32</v>
+      </c>
+      <c r="N134">
         <v>30</v>
       </c>
-      <c r="F134">
-        <v>25</v>
-      </c>
-      <c r="G134">
-        <v>41</v>
-      </c>
-      <c r="H134">
-        <v>53</v>
-      </c>
-      <c r="I134">
-        <v>25</v>
-      </c>
-      <c r="J134">
-        <v>23</v>
-      </c>
-      <c r="K134">
-        <v>35</v>
-      </c>
-      <c r="L134" s="1">
-        <v>45</v>
-      </c>
-      <c r="M134">
-        <v>48</v>
-      </c>
-      <c r="N134">
-        <v>8</v>
-      </c>
       <c r="O134">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q134">
         <v>0</v>
       </c>
       <c r="R134" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="S134" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="T134" t="s">
+        <v>232</v>
       </c>
       <c r="V134">
         <f t="shared" si="3"/>
@@ -83853,46 +84411,46 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="B135" t="s">
         <v>204</v>
       </c>
       <c r="C135" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="D135" t="s">
         <v>92</v>
       </c>
       <c r="E135" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F135">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G135">
+        <v>41</v>
+      </c>
+      <c r="H135">
+        <v>53</v>
+      </c>
+      <c r="I135">
+        <v>25</v>
+      </c>
+      <c r="J135">
+        <v>25</v>
+      </c>
+      <c r="K135">
         <v>36</v>
       </c>
-      <c r="H135">
-        <v>49</v>
-      </c>
-      <c r="I135">
-        <v>23</v>
-      </c>
-      <c r="J135">
-        <v>21</v>
-      </c>
-      <c r="K135">
-        <v>33</v>
-      </c>
       <c r="L135" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M135">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O135">
         <v>40</v>
@@ -83928,67 +84486,64 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C136" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D136" t="s">
         <v>92</v>
       </c>
       <c r="E136" s="12">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F136">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G136">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I136">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="J136">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L136" s="1">
+        <v>45</v>
+      </c>
+      <c r="M136">
         <v>48</v>
       </c>
-      <c r="M136">
-        <v>19</v>
-      </c>
       <c r="N136">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O136">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="P136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q136">
         <v>0</v>
       </c>
       <c r="R136" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="S136" t="s">
-        <v>228</v>
-      </c>
-      <c r="T136" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V136">
-        <f t="shared" ref="V136:V167" si="4">SUM(W136:Z136)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W136">
@@ -84006,67 +84561,64 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="B137" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="D137" t="s">
         <v>92</v>
       </c>
       <c r="E137" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F137">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G137">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I137">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="J137">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L137" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M137">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N137">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O137">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="P137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q137">
         <v>0</v>
       </c>
       <c r="R137" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="S137" t="s">
-        <v>228</v>
-      </c>
-      <c r="T137" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W137">
@@ -84084,67 +84636,64 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="B138" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C138" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D138" t="s">
         <v>92</v>
       </c>
       <c r="E138" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F138">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G138">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I138">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="J138">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L138" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M138">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N138">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O138">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="P138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q138">
         <v>0</v>
       </c>
       <c r="R138" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="S138" t="s">
-        <v>228</v>
-      </c>
-      <c r="T138" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W138">
@@ -84162,64 +84711,64 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="B139" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C139" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D139" t="s">
         <v>92</v>
       </c>
       <c r="E139" s="12">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F139">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G139">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I139">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J139">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K139">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L139" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M139">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N139">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O139">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S139" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W139">
@@ -84237,64 +84786,67 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="B140" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C140" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="D140" t="s">
         <v>92</v>
       </c>
       <c r="E140" s="12">
+        <v>17</v>
+      </c>
+      <c r="F140">
+        <v>74</v>
+      </c>
+      <c r="G140">
+        <v>126</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>72</v>
+      </c>
+      <c r="J140">
+        <v>72</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>48</v>
+      </c>
+      <c r="M140">
+        <v>19</v>
+      </c>
+      <c r="N140">
+        <v>15</v>
+      </c>
+      <c r="O140">
+        <v>18</v>
+      </c>
+      <c r="P140">
         <v>3</v>
       </c>
-      <c r="F140">
-        <v>24</v>
-      </c>
-      <c r="G140">
-        <v>20</v>
-      </c>
-      <c r="H140">
-        <v>42</v>
-      </c>
-      <c r="I140">
-        <v>14</v>
-      </c>
-      <c r="J140">
-        <v>28</v>
-      </c>
-      <c r="K140">
-        <v>28</v>
-      </c>
-      <c r="L140" s="1">
-        <v>36</v>
-      </c>
-      <c r="M140">
-        <v>30</v>
-      </c>
-      <c r="N140">
-        <v>9</v>
-      </c>
-      <c r="O140">
-        <v>30</v>
-      </c>
-      <c r="P140">
-        <v>2</v>
-      </c>
       <c r="Q140">
         <v>0</v>
       </c>
       <c r="R140" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="S140" t="s">
-        <v>233</v>
+        <v>228</v>
+      </c>
+      <c r="T140" t="s">
+        <v>232</v>
       </c>
       <c r="V140">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="V140:V171" si="5">SUM(W140:Z140)</f>
         <v>0</v>
       </c>
       <c r="W140">
@@ -84312,64 +84864,67 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C141" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="D141" t="s">
         <v>92</v>
       </c>
       <c r="E141" s="12">
+        <v>15</v>
+      </c>
+      <c r="F141">
+        <v>72</v>
+      </c>
+      <c r="G141">
+        <v>124</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>70</v>
+      </c>
+      <c r="J141">
+        <v>66</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141" s="1">
+        <v>47</v>
+      </c>
+      <c r="M141">
+        <v>19</v>
+      </c>
+      <c r="N141">
+        <v>12</v>
+      </c>
+      <c r="O141">
+        <v>18</v>
+      </c>
+      <c r="P141">
         <v>3</v>
       </c>
-      <c r="F141">
-        <v>24</v>
-      </c>
-      <c r="G141">
-        <v>20</v>
-      </c>
-      <c r="H141">
-        <v>42</v>
-      </c>
-      <c r="I141">
-        <v>14</v>
-      </c>
-      <c r="J141">
-        <v>28</v>
-      </c>
-      <c r="K141">
-        <v>28</v>
-      </c>
-      <c r="L141" s="1">
-        <v>36</v>
-      </c>
-      <c r="M141">
-        <v>30</v>
-      </c>
-      <c r="N141">
-        <v>9</v>
-      </c>
-      <c r="O141">
-        <v>30</v>
-      </c>
-      <c r="P141">
-        <v>2</v>
-      </c>
       <c r="Q141">
         <v>0</v>
       </c>
       <c r="R141" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="S141" t="s">
-        <v>233</v>
+        <v>228</v>
+      </c>
+      <c r="T141" t="s">
+        <v>232</v>
       </c>
       <c r="V141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W141">
@@ -84387,145 +84942,142 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="C142" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D142" t="s">
         <v>92</v>
       </c>
       <c r="E142" s="12">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F142">
         <v>72</v>
       </c>
       <c r="G142">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="H142">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J142">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K142">
         <v>0</v>
       </c>
       <c r="L142" s="1">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="M142">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N142">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="O142">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="P142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q142">
         <v>0</v>
       </c>
       <c r="R142" t="s">
-        <v>1672</v>
+        <v>229</v>
       </c>
       <c r="S142" t="s">
-        <v>1671</v>
+        <v>228</v>
       </c>
       <c r="T142" t="s">
-        <v>1670</v>
+        <v>232</v>
       </c>
       <c r="V142">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="W142">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X142">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y142">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z142">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="B143" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C143" t="s">
-        <v>1570</v>
+        <v>1578</v>
       </c>
       <c r="D143" t="s">
         <v>92</v>
       </c>
       <c r="E143" s="12">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="F143">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="G143">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I143">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="J143">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L143" s="1">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="M143">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N143">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O143">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q143">
         <v>0</v>
       </c>
       <c r="R143" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S143" t="s">
-        <v>228</v>
-      </c>
-      <c r="T143" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W143">
@@ -84543,67 +85095,64 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="B144" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C144" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="D144" t="s">
         <v>92</v>
       </c>
       <c r="E144" s="12">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F144">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="G144">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I144">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="J144">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L144" s="1">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M144">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N144">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="O144">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q144">
         <v>0</v>
       </c>
       <c r="R144" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S144" t="s">
-        <v>228</v>
-      </c>
-      <c r="T144" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W144">
@@ -84621,67 +85170,64 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="B145" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C145" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="D145" t="s">
         <v>92</v>
       </c>
       <c r="E145" s="12">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F145">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="G145">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I145">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="J145">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L145" s="1">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M145">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N145">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="O145">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q145">
         <v>0</v>
       </c>
       <c r="R145" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S145" t="s">
-        <v>228</v>
-      </c>
-      <c r="T145" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W145">
@@ -84699,49 +85245,49 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="B146" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D146" t="s">
         <v>92</v>
       </c>
       <c r="E146" s="12">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F146">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G146">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="I146">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J146">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="K146">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L146" s="1">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M146">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N146">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="O146">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P146">
         <v>1</v>
@@ -84750,88 +85296,94 @@
         <v>0</v>
       </c>
       <c r="R146" t="s">
-        <v>222</v>
+        <v>1672</v>
       </c>
       <c r="S146" t="s">
-        <v>235</v>
+        <v>1671</v>
+      </c>
+      <c r="T146" t="s">
+        <v>1670</v>
       </c>
       <c r="V146">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X146">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y146">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C147" t="s">
-        <v>1583</v>
+        <v>1570</v>
       </c>
       <c r="D147" t="s">
         <v>92</v>
       </c>
       <c r="E147" s="12">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F147">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G147">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="H147">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="J147">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="K147">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L147" s="1">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M147">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N147">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O147">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q147">
         <v>0</v>
       </c>
       <c r="R147" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="S147" t="s">
-        <v>235</v>
+        <v>228</v>
+      </c>
+      <c r="T147" t="s">
+        <v>232</v>
       </c>
       <c r="V147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W147">
@@ -84849,25 +85401,25 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="B148" t="s">
         <v>207</v>
       </c>
       <c r="C148" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="D148" t="s">
         <v>92</v>
       </c>
       <c r="E148" s="12">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F148">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G148">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -84876,22 +85428,22 @@
         <v>80</v>
       </c>
       <c r="J148">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="K148">
         <v>0</v>
       </c>
       <c r="L148" s="1">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M148">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N148">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O148">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P148">
         <v>3</v>
@@ -84900,7 +85452,7 @@
         <v>0</v>
       </c>
       <c r="R148" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S148" t="s">
         <v>228</v>
@@ -84909,7 +85461,7 @@
         <v>232</v>
       </c>
       <c r="V148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W148">
@@ -84927,67 +85479,67 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="D149" t="s">
         <v>92</v>
       </c>
       <c r="E149" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F149">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G149">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="H149">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="J149">
+        <v>74</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149" s="1">
+        <v>63</v>
+      </c>
+      <c r="M149">
+        <v>29</v>
+      </c>
+      <c r="N149">
         <v>22</v>
       </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149" s="1">
-        <v>44</v>
-      </c>
-      <c r="M149">
-        <v>30</v>
-      </c>
-      <c r="N149">
-        <v>14</v>
-      </c>
       <c r="O149">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="P149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q149">
         <v>0</v>
       </c>
       <c r="R149" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="S149" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="T149" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W149">
@@ -85005,49 +85557,49 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="B150" t="s">
         <v>204</v>
       </c>
       <c r="C150" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D150" t="s">
         <v>92</v>
       </c>
       <c r="E150" s="12">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F150">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G150">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H150">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I150">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J150">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K150">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L150" s="1">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M150">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N150">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O150">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P150">
         <v>1</v>
@@ -85056,13 +85608,13 @@
         <v>0</v>
       </c>
       <c r="R150" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S150" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="V150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W150">
@@ -85080,49 +85632,49 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="B151" t="s">
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="D151" t="s">
         <v>92</v>
       </c>
       <c r="E151" s="12">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F151">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G151">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I151">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J151">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K151">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L151" s="1">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M151">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N151">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O151">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P151">
         <v>1</v>
@@ -85131,13 +85683,13 @@
         <v>0</v>
       </c>
       <c r="R151" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S151" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="V151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W151">
@@ -85155,64 +85707,67 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="B152" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C152" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D152" t="s">
         <v>92</v>
       </c>
       <c r="E152" s="12">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F152">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G152">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="H152">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J152">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K152">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L152" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M152">
+        <v>26</v>
+      </c>
+      <c r="N152">
+        <v>16</v>
+      </c>
+      <c r="O152">
         <v>30</v>
       </c>
-      <c r="N152">
-        <v>4</v>
-      </c>
-      <c r="O152">
-        <v>35</v>
-      </c>
       <c r="P152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q152">
         <v>0</v>
       </c>
       <c r="R152" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="S152" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="T152" t="s">
+        <v>232</v>
       </c>
       <c r="V152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W152">
@@ -85230,64 +85785,67 @@
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="B153" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C153" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D153" t="s">
         <v>92</v>
       </c>
       <c r="E153" s="12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F153">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G153">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H153">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I153">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J153">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K153">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L153" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M153">
         <v>30</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O153">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q153">
         <v>0</v>
       </c>
       <c r="R153" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S153" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="T153" t="s">
+        <v>233</v>
       </c>
       <c r="V153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W153">
@@ -85305,148 +85863,139 @@
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="B154" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C154" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D154" t="s">
         <v>92</v>
       </c>
       <c r="E154" s="12">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="F154">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="G154">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I154">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J154">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L154" s="1">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M154">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N154">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="O154">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="S154" t="s">
-        <v>229</v>
-      </c>
-      <c r="T154" t="s">
-        <v>245</v>
-      </c>
-      <c r="U154" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="V154">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="W154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z154">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="B155" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C155" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D155" t="s">
         <v>92</v>
       </c>
       <c r="E155" s="12">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F155">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G155">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H155">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I155">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="J155">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L155" s="1">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="M155">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N155">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="O155">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q155">
         <v>0</v>
       </c>
       <c r="R155" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S155" t="s">
         <v>234</v>
       </c>
-      <c r="T155" t="s">
-        <v>234</v>
-      </c>
       <c r="V155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W155">
@@ -85464,7 +86013,7 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="B156" t="s">
         <v>204</v>
@@ -85476,38 +86025,38 @@
         <v>92</v>
       </c>
       <c r="E156" s="12">
+        <v>5</v>
+      </c>
+      <c r="F156">
+        <v>28</v>
+      </c>
+      <c r="G156">
+        <v>9</v>
+      </c>
+      <c r="H156">
+        <v>29</v>
+      </c>
+      <c r="I156">
+        <v>8</v>
+      </c>
+      <c r="J156">
+        <v>12</v>
+      </c>
+      <c r="K156">
+        <v>21</v>
+      </c>
+      <c r="L156" s="1">
+        <v>32</v>
+      </c>
+      <c r="M156">
+        <v>30</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156">
         <v>35</v>
       </c>
-      <c r="F156">
-        <v>27</v>
-      </c>
-      <c r="G156">
-        <v>34</v>
-      </c>
-      <c r="H156">
-        <v>74</v>
-      </c>
-      <c r="I156">
-        <v>21</v>
-      </c>
-      <c r="J156">
-        <v>33</v>
-      </c>
-      <c r="K156">
-        <v>36</v>
-      </c>
-      <c r="L156" s="1">
-        <v>47</v>
-      </c>
-      <c r="M156">
-        <v>60</v>
-      </c>
-      <c r="N156">
-        <v>12</v>
-      </c>
-      <c r="O156">
-        <v>40</v>
-      </c>
       <c r="P156">
         <v>1</v>
       </c>
@@ -85515,13 +86064,13 @@
         <v>0</v>
       </c>
       <c r="R156" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="S156" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="V156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W156">
@@ -85539,7 +86088,7 @@
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="B157" t="s">
         <v>204</v>
@@ -85551,38 +86100,38 @@
         <v>92</v>
       </c>
       <c r="E157" s="12">
+        <v>5</v>
+      </c>
+      <c r="F157">
+        <v>28</v>
+      </c>
+      <c r="G157">
+        <v>9</v>
+      </c>
+      <c r="H157">
+        <v>29</v>
+      </c>
+      <c r="I157">
+        <v>8</v>
+      </c>
+      <c r="J157">
+        <v>12</v>
+      </c>
+      <c r="K157">
+        <v>21</v>
+      </c>
+      <c r="L157" s="1">
+        <v>32</v>
+      </c>
+      <c r="M157">
+        <v>30</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157">
         <v>35</v>
       </c>
-      <c r="F157">
-        <v>27</v>
-      </c>
-      <c r="G157">
-        <v>34</v>
-      </c>
-      <c r="H157">
-        <v>74</v>
-      </c>
-      <c r="I157">
-        <v>21</v>
-      </c>
-      <c r="J157">
-        <v>33</v>
-      </c>
-      <c r="K157">
-        <v>36</v>
-      </c>
-      <c r="L157" s="1">
-        <v>47</v>
-      </c>
-      <c r="M157">
-        <v>60</v>
-      </c>
-      <c r="N157">
-        <v>12</v>
-      </c>
-      <c r="O157">
-        <v>40</v>
-      </c>
       <c r="P157">
         <v>1</v>
       </c>
@@ -85590,13 +86139,13 @@
         <v>0</v>
       </c>
       <c r="R157" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="S157" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="V157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W157">
@@ -85614,133 +86163,148 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="B158" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C158" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D158" t="s">
         <v>92</v>
       </c>
       <c r="E158" s="12">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F158">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="H158">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K158">
         <v>0</v>
       </c>
       <c r="L158" s="1">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M158">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="N158">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="O158">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158" t="s">
-        <v>235</v>
+        <v>229</v>
+      </c>
+      <c r="S158" t="s">
+        <v>229</v>
+      </c>
+      <c r="T158" t="s">
+        <v>245</v>
+      </c>
+      <c r="U158" t="s">
+        <v>249</v>
       </c>
       <c r="V158">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="W158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="B159" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C159" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D159" t="s">
         <v>92</v>
       </c>
       <c r="E159" s="12">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F159">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="H159">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="I159">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K159">
         <v>0</v>
       </c>
       <c r="L159" s="1">
+        <v>59</v>
+      </c>
+      <c r="M159">
         <v>48</v>
       </c>
-      <c r="M159">
-        <v>5</v>
-      </c>
       <c r="N159">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="O159">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="P159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159" t="s">
-        <v>235</v>
+        <v>226</v>
+      </c>
+      <c r="S159" t="s">
+        <v>234</v>
+      </c>
+      <c r="T159" t="s">
+        <v>234</v>
       </c>
       <c r="V159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W159">
@@ -85758,49 +86322,49 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="B160" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="C160" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D160" t="s">
         <v>92</v>
       </c>
       <c r="E160" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F160">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="I160">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J160">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L160" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M160">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N160">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="O160">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P160">
         <v>1</v>
@@ -85809,26 +86373,23 @@
         <v>0</v>
       </c>
       <c r="R160" t="s">
-        <v>1667</v>
+        <v>235</v>
       </c>
       <c r="S160" t="s">
-        <v>1668</v>
-      </c>
-      <c r="T160" t="s">
-        <v>1669</v>
+        <v>222</v>
       </c>
       <c r="V160">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="W160">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X160">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y160">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z160">
         <v>0</v>
@@ -85836,64 +86397,64 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="B161" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C161" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="D161" t="s">
         <v>92</v>
       </c>
       <c r="E161" s="12">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F161">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G161">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H161">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I161">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J161">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L161" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M161">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N161">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O161">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q161">
         <v>0</v>
       </c>
       <c r="R161" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="S161" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="V161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W161">
@@ -85911,64 +86472,61 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="B162" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C162" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D162" t="s">
         <v>92</v>
       </c>
       <c r="E162" s="12">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F162">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G162">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I162">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J162">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M162">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="N162">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O162">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q162">
         <v>0</v>
       </c>
       <c r="R162" t="s">
-        <v>225</v>
-      </c>
-      <c r="S162" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W162">
@@ -85986,64 +86544,61 @@
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="B163" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C163" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="D163" t="s">
         <v>92</v>
       </c>
       <c r="E163" s="12">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F163">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G163">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I163">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J163">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="L163" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M163">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="N163">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O163">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q163">
         <v>0</v>
       </c>
       <c r="R163" t="s">
-        <v>225</v>
-      </c>
-      <c r="S163" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W163">
@@ -86061,34 +86616,34 @@
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="B164" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="C164" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="D164" t="s">
         <v>92</v>
       </c>
       <c r="E164" s="12">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F164">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G164">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H164">
+        <v>4</v>
+      </c>
+      <c r="I164">
+        <v>19</v>
+      </c>
+      <c r="J164">
         <v>14</v>
-      </c>
-      <c r="I164">
-        <v>36</v>
-      </c>
-      <c r="J164">
-        <v>16</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -86097,38 +86652,41 @@
         <v>43</v>
       </c>
       <c r="M164">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N164">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="O164">
         <v>25</v>
       </c>
       <c r="P164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q164">
         <v>0</v>
       </c>
       <c r="R164" t="s">
-        <v>225</v>
+        <v>1667</v>
       </c>
       <c r="S164" t="s">
-        <v>233</v>
+        <v>1668</v>
+      </c>
+      <c r="T164" t="s">
+        <v>1669</v>
       </c>
       <c r="V164">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X164">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y164">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z164">
         <v>0</v>
@@ -86136,61 +86694,64 @@
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="B165" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C165" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="D165" t="s">
         <v>92</v>
       </c>
       <c r="E165" s="12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F165">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G165">
+        <v>38</v>
+      </c>
+      <c r="H165">
+        <v>14</v>
+      </c>
+      <c r="I165">
+        <v>26</v>
+      </c>
+      <c r="J165">
+        <v>16</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165" s="1">
+        <v>43</v>
+      </c>
+      <c r="M165">
+        <v>33</v>
+      </c>
+      <c r="N165">
         <v>11</v>
       </c>
-      <c r="H165">
-        <v>27</v>
-      </c>
-      <c r="I165">
-        <v>5</v>
-      </c>
-      <c r="J165">
-        <v>12</v>
-      </c>
-      <c r="K165">
-        <v>20</v>
-      </c>
-      <c r="L165" s="1">
-        <v>32</v>
-      </c>
-      <c r="M165">
-        <v>41</v>
-      </c>
-      <c r="N165">
-        <v>5</v>
-      </c>
       <c r="O165">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q165">
         <v>0</v>
       </c>
       <c r="R165" t="s">
-        <v>221</v>
+        <v>225</v>
+      </c>
+      <c r="S165" t="s">
+        <v>233</v>
       </c>
       <c r="V165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W165">
@@ -86208,49 +86769,49 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="C166" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D166" t="s">
         <v>92</v>
       </c>
       <c r="E166" s="12">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F166">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G166">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I166">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J166">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166" s="1">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M166">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N166">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="O166">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P166">
         <v>2</v>
@@ -86259,76 +86820,73 @@
         <v>0</v>
       </c>
       <c r="R166" t="s">
-        <v>1672</v>
+        <v>225</v>
       </c>
       <c r="S166" t="s">
-        <v>1671</v>
-      </c>
-      <c r="T166" t="s">
-        <v>1670</v>
+        <v>233</v>
       </c>
       <c r="V166">
-        <f t="shared" si="4"/>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="W166">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X166">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y166">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z166">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="B167" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="C167" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="D167" t="s">
         <v>92</v>
       </c>
       <c r="E167" s="12">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F167">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G167">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H167">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I167">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J167">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="K167">
         <v>0</v>
       </c>
       <c r="L167" s="1">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M167">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N167">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="O167">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P167">
         <v>2</v>
@@ -86337,76 +86895,73 @@
         <v>0</v>
       </c>
       <c r="R167" t="s">
-        <v>1672</v>
+        <v>225</v>
       </c>
       <c r="S167" t="s">
-        <v>1671</v>
-      </c>
-      <c r="T167" t="s">
-        <v>1670</v>
+        <v>233</v>
       </c>
       <c r="V167">
-        <f t="shared" si="4"/>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="W167">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X167">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y167">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z167">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="B168" t="s">
         <v>206</v>
       </c>
       <c r="C168" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="D168" t="s">
         <v>92</v>
       </c>
       <c r="E168" s="12">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F168">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G168">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H168">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I168">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J168">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K168">
         <v>0</v>
       </c>
       <c r="L168" s="1">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M168">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N168">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O168">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P168">
         <v>2</v>
@@ -86418,157 +86973,142 @@
         <v>225</v>
       </c>
       <c r="S168" t="s">
-        <v>226</v>
-      </c>
-      <c r="T168" t="s">
-        <v>235</v>
-      </c>
-      <c r="U168" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="V168">
-        <f t="shared" ref="V168:V183" si="5">SUM(W168:Z168)</f>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="W168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z168">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="B169" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C169" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="D169" t="s">
         <v>92</v>
       </c>
       <c r="E169" s="12">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F169">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G169">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="H169">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I169">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="J169">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L169" s="1">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="M169">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N169">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="O169">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q169">
         <v>0</v>
       </c>
       <c r="R169" t="s">
-        <v>225</v>
-      </c>
-      <c r="S169" t="s">
-        <v>226</v>
-      </c>
-      <c r="T169" t="s">
-        <v>235</v>
-      </c>
-      <c r="U169" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="V169">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z169">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="B170" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="C170" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="D170" t="s">
         <v>92</v>
       </c>
       <c r="E170" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F170">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="G170">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H170">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="I170">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J170">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="K170">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L170" s="1">
+        <v>54</v>
+      </c>
+      <c r="M170">
         <v>47</v>
       </c>
-      <c r="M170">
-        <v>60</v>
-      </c>
       <c r="N170">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="O170">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P170">
         <v>2</v>
@@ -86577,73 +87117,76 @@
         <v>0</v>
       </c>
       <c r="R170" t="s">
-        <v>221</v>
+        <v>1672</v>
       </c>
       <c r="S170" t="s">
-        <v>234</v>
+        <v>1671</v>
+      </c>
+      <c r="T170" t="s">
+        <v>1670</v>
       </c>
       <c r="V170">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="W170">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X170">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="B171" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="C171" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D171" t="s">
         <v>92</v>
       </c>
       <c r="E171" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F171">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="G171">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H171">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="I171">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J171">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="K171">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L171" s="1">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M171">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="N171">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="O171">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P171">
         <v>2</v>
@@ -86652,73 +87195,76 @@
         <v>0</v>
       </c>
       <c r="R171" t="s">
-        <v>221</v>
+        <v>1672</v>
       </c>
       <c r="S171" t="s">
-        <v>234</v>
+        <v>1671</v>
+      </c>
+      <c r="T171" t="s">
+        <v>1670</v>
       </c>
       <c r="V171">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="W171">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X171">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y171">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="B172" t="s">
         <v>206</v>
       </c>
       <c r="C172" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="D172" t="s">
         <v>92</v>
       </c>
       <c r="E172" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F172">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G172">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H172">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I172">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J172">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="K172">
         <v>0</v>
       </c>
       <c r="L172" s="1">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M172">
+        <v>45</v>
+      </c>
+      <c r="N172">
         <v>33</v>
       </c>
-      <c r="N172">
-        <v>12</v>
-      </c>
       <c r="O172">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P172">
         <v>2</v>
@@ -86730,10 +87276,16 @@
         <v>225</v>
       </c>
       <c r="S172" t="s">
-        <v>233</v>
+        <v>226</v>
+      </c>
+      <c r="T172" t="s">
+        <v>235</v>
+      </c>
+      <c r="U172" t="s">
+        <v>245</v>
       </c>
       <c r="V172">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="V172:V187" si="6">SUM(W172:Z172)</f>
         <v>12</v>
       </c>
       <c r="W172">
@@ -86751,49 +87303,49 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="B173" t="s">
         <v>206</v>
       </c>
       <c r="C173" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="D173" t="s">
         <v>92</v>
       </c>
       <c r="E173" s="12">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F173">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G173">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H173">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I173">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J173">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
       <c r="L173" s="1">
+        <v>59</v>
+      </c>
+      <c r="M173">
         <v>45</v>
       </c>
-      <c r="M173">
+      <c r="N173">
         <v>33</v>
       </c>
-      <c r="N173">
-        <v>11</v>
-      </c>
       <c r="O173">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P173">
         <v>2</v>
@@ -86805,10 +87357,16 @@
         <v>225</v>
       </c>
       <c r="S173" t="s">
-        <v>233</v>
+        <v>226</v>
+      </c>
+      <c r="T173" t="s">
+        <v>235</v>
+      </c>
+      <c r="U173" t="s">
+        <v>245</v>
       </c>
       <c r="V173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="W173">
@@ -86826,49 +87384,49 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="B174" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C174" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="D174" t="s">
         <v>92</v>
       </c>
       <c r="E174" s="12">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F174">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G174">
+        <v>35</v>
+      </c>
+      <c r="H174">
+        <v>74</v>
+      </c>
+      <c r="I174">
+        <v>19</v>
+      </c>
+      <c r="J174">
+        <v>39</v>
+      </c>
+      <c r="K174">
+        <v>35</v>
+      </c>
+      <c r="L174" s="1">
         <v>47</v>
       </c>
-      <c r="H174">
-        <v>22</v>
-      </c>
-      <c r="I174">
-        <v>32</v>
-      </c>
-      <c r="J174">
-        <v>16</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-      <c r="L174" s="1">
-        <v>45</v>
-      </c>
       <c r="M174">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N174">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O174">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P174">
         <v>2</v>
@@ -86877,76 +87435,76 @@
         <v>0</v>
       </c>
       <c r="R174" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S174" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V174">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="W174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z174">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="B175" t="s">
         <v>204</v>
       </c>
       <c r="C175" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="D175" t="s">
         <v>92</v>
       </c>
       <c r="E175" s="12">
+        <v>35</v>
+      </c>
+      <c r="F175">
         <v>15</v>
       </c>
-      <c r="F175">
-        <v>25</v>
-      </c>
       <c r="G175">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H175">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I175">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J175">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K175">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L175" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M175">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N175">
         <v>12</v>
       </c>
       <c r="O175">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -86957,11 +87515,8 @@
       <c r="S175" t="s">
         <v>234</v>
       </c>
-      <c r="T175" t="s">
-        <v>263</v>
-      </c>
       <c r="V175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W175">
@@ -86979,34 +87534,34 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="B176" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C176" t="s">
-        <v>1581</v>
+        <v>1600</v>
       </c>
       <c r="D176" t="s">
         <v>92</v>
       </c>
       <c r="E176" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F176">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G176">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I176">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="J176">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -87015,169 +87570,163 @@
         <v>47</v>
       </c>
       <c r="M176">
+        <v>33</v>
+      </c>
+      <c r="N176">
+        <v>12</v>
+      </c>
+      <c r="O176">
         <v>25</v>
       </c>
-      <c r="N176">
-        <v>14</v>
-      </c>
-      <c r="O176">
-        <v>30</v>
-      </c>
       <c r="P176">
+        <v>2</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176" t="s">
+        <v>225</v>
+      </c>
+      <c r="S176" t="s">
+        <v>233</v>
+      </c>
+      <c r="V176">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="W176">
         <v>3</v>
       </c>
-      <c r="Q176">
-        <v>0</v>
-      </c>
-      <c r="R176" t="s">
-        <v>228</v>
-      </c>
-      <c r="S176" t="s">
-        <v>228</v>
-      </c>
-      <c r="T176" t="s">
-        <v>232</v>
-      </c>
-      <c r="V176">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
       <c r="X176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="B177" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C177" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="D177" t="s">
         <v>92</v>
       </c>
       <c r="E177" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F177">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="G177">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H177">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I177">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J177">
+        <v>16</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177" s="1">
+        <v>45</v>
+      </c>
+      <c r="M177">
+        <v>33</v>
+      </c>
+      <c r="N177">
+        <v>11</v>
+      </c>
+      <c r="O177">
+        <v>25</v>
+      </c>
+      <c r="P177">
+        <v>2</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177" t="s">
+        <v>225</v>
+      </c>
+      <c r="S177" t="s">
+        <v>233</v>
+      </c>
+      <c r="V177">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="K177">
-        <v>40</v>
-      </c>
-      <c r="L177" s="1">
-        <v>37</v>
-      </c>
-      <c r="M177">
-        <v>40</v>
-      </c>
-      <c r="N177">
-        <v>12</v>
-      </c>
-      <c r="O177">
-        <v>35</v>
-      </c>
-      <c r="P177">
-        <v>1</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177" t="s">
-        <v>221</v>
-      </c>
-      <c r="S177" t="s">
-        <v>234</v>
-      </c>
-      <c r="T177" t="s">
-        <v>263</v>
-      </c>
-      <c r="V177">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="W177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="B178" t="s">
         <v>206</v>
       </c>
       <c r="C178" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="D178" t="s">
         <v>92</v>
       </c>
       <c r="E178" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F178">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G178">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H178">
         <v>22</v>
       </c>
       <c r="I178">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J178">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="K178">
         <v>0</v>
       </c>
       <c r="L178" s="1">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M178">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="N178">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O178">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P178">
         <v>2</v>
@@ -87189,16 +87738,10 @@
         <v>225</v>
       </c>
       <c r="S178" t="s">
-        <v>226</v>
-      </c>
-      <c r="T178" t="s">
-        <v>235</v>
-      </c>
-      <c r="U178" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="V178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="W178">
@@ -87216,211 +87759,205 @@
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C179" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="D179" t="s">
         <v>92</v>
       </c>
       <c r="E179" s="12">
+        <v>15</v>
+      </c>
+      <c r="F179">
+        <v>25</v>
+      </c>
+      <c r="G179">
+        <v>11</v>
+      </c>
+      <c r="H179">
+        <v>37</v>
+      </c>
+      <c r="I179">
+        <v>8</v>
+      </c>
+      <c r="J179">
+        <v>12</v>
+      </c>
+      <c r="K179">
+        <v>38</v>
+      </c>
+      <c r="L179" s="1">
+        <v>37</v>
+      </c>
+      <c r="M179">
         <v>40</v>
       </c>
-      <c r="F179">
-        <v>32</v>
-      </c>
-      <c r="G179">
-        <v>41</v>
-      </c>
-      <c r="H179">
-        <v>22</v>
-      </c>
-      <c r="I179">
-        <v>15</v>
-      </c>
-      <c r="J179">
-        <v>54</v>
-      </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
-      <c r="L179" s="1">
-        <v>57</v>
-      </c>
-      <c r="M179">
-        <v>53</v>
-      </c>
       <c r="N179">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="O179">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q179">
         <v>0</v>
       </c>
       <c r="R179" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S179" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="T179" t="s">
-        <v>235</v>
-      </c>
-      <c r="U179" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="V179">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="W179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z179">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="B180" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C180" t="s">
-        <v>1602</v>
+        <v>1581</v>
       </c>
       <c r="D180" t="s">
         <v>92</v>
       </c>
       <c r="E180" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F180">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="G180">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="H180">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="J180">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="K180">
         <v>0</v>
       </c>
       <c r="L180" s="1">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M180">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N180">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O180">
         <v>30</v>
       </c>
       <c r="P180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q180">
         <v>0</v>
       </c>
       <c r="R180" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S180" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T180" t="s">
-        <v>235</v>
-      </c>
-      <c r="U180" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="V180">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="W180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z180">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="B181" t="s">
         <v>204</v>
       </c>
       <c r="C181" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="D181" t="s">
         <v>92</v>
       </c>
       <c r="E181" s="12">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F181">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G181">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H181">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I181">
+        <v>8</v>
+      </c>
+      <c r="J181">
         <v>12</v>
       </c>
-      <c r="J181">
-        <v>32</v>
-      </c>
       <c r="K181">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L181" s="1">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M181">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N181">
         <v>12</v>
       </c>
       <c r="O181">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P181">
         <v>1</v>
@@ -87429,16 +87966,16 @@
         <v>0</v>
       </c>
       <c r="R181" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S181" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T181" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W181">
@@ -87456,124 +87993,127 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="B182" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C182" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="D182" t="s">
         <v>92</v>
       </c>
       <c r="E182" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F182">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G182">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H182">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I182">
+        <v>15</v>
+      </c>
+      <c r="J182">
+        <v>54</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182" s="1">
+        <v>57</v>
+      </c>
+      <c r="M182">
+        <v>58</v>
+      </c>
+      <c r="N182">
+        <v>33</v>
+      </c>
+      <c r="O182">
+        <v>30</v>
+      </c>
+      <c r="P182">
+        <v>2</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182" t="s">
+        <v>225</v>
+      </c>
+      <c r="S182" t="s">
+        <v>226</v>
+      </c>
+      <c r="T182" t="s">
+        <v>235</v>
+      </c>
+      <c r="U182" t="s">
+        <v>245</v>
+      </c>
+      <c r="V182">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="J182">
-        <v>32</v>
-      </c>
-      <c r="K182">
-        <v>15</v>
-      </c>
-      <c r="L182" s="1">
-        <v>47</v>
-      </c>
-      <c r="M182">
-        <v>60</v>
-      </c>
-      <c r="N182">
-        <v>12</v>
-      </c>
-      <c r="O182">
-        <v>40</v>
-      </c>
-      <c r="P182">
-        <v>1</v>
-      </c>
-      <c r="Q182">
-        <v>0</v>
-      </c>
-      <c r="R182" t="s">
-        <v>222</v>
-      </c>
-      <c r="S182" t="s">
-        <v>235</v>
-      </c>
-      <c r="T182" t="s">
-        <v>262</v>
-      </c>
-      <c r="V182">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="W182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="B183" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C183" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="D183" t="s">
         <v>92</v>
       </c>
       <c r="E183" s="12">
+        <v>40</v>
+      </c>
+      <c r="F183">
         <v>32</v>
       </c>
-      <c r="F183">
-        <v>50</v>
-      </c>
       <c r="G183">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I183">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J183">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="K183">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L183" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M183">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N183">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="O183">
         <v>30</v>
@@ -87585,35 +88125,353 @@
         <v>0</v>
       </c>
       <c r="R183" t="s">
+        <v>225</v>
+      </c>
+      <c r="S183" t="s">
         <v>226</v>
       </c>
-      <c r="S183" t="s">
+      <c r="T183" t="s">
+        <v>235</v>
+      </c>
+      <c r="U183" t="s">
+        <v>245</v>
+      </c>
+      <c r="V183">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="W183">
+        <v>3</v>
+      </c>
+      <c r="X183">
+        <v>3</v>
+      </c>
+      <c r="Y183">
+        <v>3</v>
+      </c>
+      <c r="Z183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B184" t="s">
+        <v>206</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D184" t="s">
+        <v>92</v>
+      </c>
+      <c r="E184" s="12">
+        <v>40</v>
+      </c>
+      <c r="F184">
+        <v>32</v>
+      </c>
+      <c r="G184">
+        <v>41</v>
+      </c>
+      <c r="H184">
+        <v>22</v>
+      </c>
+      <c r="I184">
+        <v>15</v>
+      </c>
+      <c r="J184">
+        <v>54</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184" s="1">
+        <v>57</v>
+      </c>
+      <c r="M184">
+        <v>53</v>
+      </c>
+      <c r="N184">
+        <v>33</v>
+      </c>
+      <c r="O184">
+        <v>30</v>
+      </c>
+      <c r="P184">
+        <v>2</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184" t="s">
+        <v>225</v>
+      </c>
+      <c r="S184" t="s">
+        <v>226</v>
+      </c>
+      <c r="T184" t="s">
+        <v>235</v>
+      </c>
+      <c r="U184" t="s">
+        <v>245</v>
+      </c>
+      <c r="V184">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="W184">
+        <v>3</v>
+      </c>
+      <c r="X184">
+        <v>3</v>
+      </c>
+      <c r="Y184">
+        <v>3</v>
+      </c>
+      <c r="Z184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B185" t="s">
+        <v>204</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D185" t="s">
+        <v>92</v>
+      </c>
+      <c r="E185" s="12">
+        <v>35</v>
+      </c>
+      <c r="F185">
+        <v>35</v>
+      </c>
+      <c r="G185">
+        <v>24</v>
+      </c>
+      <c r="H185">
+        <v>74</v>
+      </c>
+      <c r="I185">
+        <v>12</v>
+      </c>
+      <c r="J185">
+        <v>32</v>
+      </c>
+      <c r="K185">
+        <v>15</v>
+      </c>
+      <c r="L185" s="1">
+        <v>47</v>
+      </c>
+      <c r="M185">
+        <v>60</v>
+      </c>
+      <c r="N185">
+        <v>12</v>
+      </c>
+      <c r="O185">
+        <v>40</v>
+      </c>
+      <c r="P185">
+        <v>1</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185" t="s">
+        <v>222</v>
+      </c>
+      <c r="S185" t="s">
+        <v>235</v>
+      </c>
+      <c r="T185" t="s">
+        <v>262</v>
+      </c>
+      <c r="V185">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B186" t="s">
+        <v>204</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D186" t="s">
+        <v>92</v>
+      </c>
+      <c r="E186" s="12">
+        <v>35</v>
+      </c>
+      <c r="F186">
+        <v>35</v>
+      </c>
+      <c r="G186">
+        <v>24</v>
+      </c>
+      <c r="H186">
+        <v>74</v>
+      </c>
+      <c r="I186">
+        <v>12</v>
+      </c>
+      <c r="J186">
+        <v>32</v>
+      </c>
+      <c r="K186">
+        <v>15</v>
+      </c>
+      <c r="L186" s="1">
+        <v>47</v>
+      </c>
+      <c r="M186">
+        <v>60</v>
+      </c>
+      <c r="N186">
+        <v>12</v>
+      </c>
+      <c r="O186">
+        <v>40</v>
+      </c>
+      <c r="P186">
+        <v>1</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186" t="s">
+        <v>222</v>
+      </c>
+      <c r="S186" t="s">
+        <v>235</v>
+      </c>
+      <c r="T186" t="s">
+        <v>262</v>
+      </c>
+      <c r="V186">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B187" t="s">
+        <v>205</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D187" t="s">
+        <v>92</v>
+      </c>
+      <c r="E187" s="12">
+        <v>32</v>
+      </c>
+      <c r="F187">
+        <v>50</v>
+      </c>
+      <c r="G187">
+        <v>43</v>
+      </c>
+      <c r="H187">
+        <v>71</v>
+      </c>
+      <c r="I187">
+        <v>28</v>
+      </c>
+      <c r="J187">
+        <v>28</v>
+      </c>
+      <c r="K187">
+        <v>16</v>
+      </c>
+      <c r="L187" s="1">
+        <v>51</v>
+      </c>
+      <c r="M187">
+        <v>48</v>
+      </c>
+      <c r="N187">
+        <v>20</v>
+      </c>
+      <c r="O187">
+        <v>30</v>
+      </c>
+      <c r="P187">
+        <v>2</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187" t="s">
+        <v>226</v>
+      </c>
+      <c r="S187" t="s">
         <v>234</v>
       </c>
-      <c r="T183" t="s">
+      <c r="T187" t="s">
         <v>262</v>
       </c>
-      <c r="V183">
-        <f t="shared" si="5"/>
+      <c r="V187">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="W183">
+      <c r="W187">
         <v>2</v>
       </c>
-      <c r="X183">
+      <c r="X187">
         <v>2</v>
       </c>
-      <c r="Y183">
+      <c r="Y187">
         <v>2</v>
       </c>
-      <c r="Z183">
+      <c r="Z187">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC183" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC183">
-      <sortCondition ref="A1:A183"/>
+  <autoFilter ref="A1:AC187" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC187">
+      <sortCondition ref="A1:A187"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -87627,10 +88485,10 @@
   <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786B55C4-16FF-40B3-89FF-01E41585E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960A7F2B-E79C-4C69-8EDE-AE9093047DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="2520" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$170</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$97</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$565</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14456" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14476" uniqueCount="2129">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6695,6 +6695,41 @@
   <si>
     <t>10595</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10560</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七联鱼雷发射器</t>
+  </si>
+  <si>
+    <t>MK71型203毫米炮</t>
+  </si>
+  <si>
+    <t>10543</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A22火箭炮</t>
+  </si>
+  <si>
+    <t>10564</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联381毫米压缩空气炮（维苏威）</t>
+  </si>
+  <si>
+    <t>10585</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10540</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSUM-N-2</t>
   </si>
 </sst>
 </file>
@@ -7774,10 +7809,10 @@
   <dimension ref="A1:AC98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16105,10 +16140,10 @@
   <dimension ref="A1:AC170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB86" sqref="AB86"/>
+      <selection pane="bottomRight" activeCell="AB64" sqref="AB64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21349,7 +21384,9 @@
         <v>0.9</v>
       </c>
       <c r="AA61" s="9"/>
-      <c r="AB61" s="9"/>
+      <c r="AB61" s="9">
+        <v>110822</v>
+      </c>
       <c r="AC61" s="9"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -31064,13 +31101,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA565"/>
+  <dimension ref="A1:AA570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="P459" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C141" sqref="C141"/>
+      <selection pane="bottomRight" activeCell="Q552" sqref="Q552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -73546,25 +73583,25 @@
     </row>
     <row r="552" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A552" s="5" t="s">
-        <v>2092</v>
-      </c>
-      <c r="B552" s="6" t="s">
-        <v>1673</v>
+        <v>2127</v>
+      </c>
+      <c r="B552" t="s">
+        <v>488</v>
       </c>
       <c r="C552" s="6" t="s">
-        <v>2091</v>
+        <v>2128</v>
       </c>
       <c r="D552" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F552" s="6">
-        <v>12</v>
+        <v>270</v>
+      </c>
+      <c r="G552" s="6">
+        <v>13</v>
+      </c>
+      <c r="I552" s="6">
+        <v>5</v>
       </c>
       <c r="K552" s="6">
-        <v>3</v>
-      </c>
-      <c r="L552" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q552" s="8">
         <v>1</v>
@@ -73572,53 +73609,50 @@
     </row>
     <row r="553" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A553" s="5" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="B553" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C553" s="6" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="D553" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F553" s="8">
-        <v>30</v>
+      <c r="F553" s="6">
+        <v>12</v>
       </c>
       <c r="K553" s="6">
         <v>3</v>
       </c>
-      <c r="L553" s="8">
-        <v>4</v>
-      </c>
-      <c r="P553" s="6">
-        <v>6</v>
+      <c r="L553" s="6">
+        <v>3</v>
       </c>
       <c r="Q553" s="8">
         <v>1</v>
-      </c>
-      <c r="R553" s="6">
-        <v>0.25</v>
       </c>
     </row>
     <row r="554" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A554" s="5" t="s">
-        <v>2096</v>
+        <v>2122</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>1687</v>
+        <v>1673</v>
       </c>
       <c r="C554" s="6" t="s">
-        <v>2095</v>
+        <v>2121</v>
       </c>
       <c r="D554" s="7" t="s">
-        <v>1562</v>
+        <v>283</v>
       </c>
       <c r="F554" s="8">
-        <v>10</v>
-      </c>
-      <c r="K554" s="8">
+        <v>8</v>
+      </c>
+      <c r="K554" s="6">
+        <v>2</v>
+      </c>
+      <c r="L554" s="6">
         <v>2</v>
       </c>
       <c r="Q554" s="8">
@@ -73627,48 +73661,54 @@
     </row>
     <row r="555" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A555" s="5" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="B555" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C555" s="6" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="D555" s="7" t="s">
         <v>283</v>
       </c>
       <c r="F555" s="8">
-        <v>28</v>
-      </c>
-      <c r="K555" s="8">
+        <v>30</v>
+      </c>
+      <c r="K555" s="6">
+        <v>3</v>
+      </c>
+      <c r="L555" s="8">
         <v>4</v>
       </c>
-      <c r="L555" s="8">
-        <v>3</v>
+      <c r="P555" s="6">
+        <v>6</v>
       </c>
       <c r="Q555" s="8">
         <v>1</v>
+      </c>
+      <c r="R555" s="6">
+        <v>0.25</v>
       </c>
     </row>
     <row r="556" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A556" s="5" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>1673</v>
+        <v>1687</v>
       </c>
       <c r="C556" s="6" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="D556" s="7" t="s">
-        <v>283</v>
+        <v>1562</v>
       </c>
       <c r="F556" s="8">
-        <v>32</v>
-      </c>
-      <c r="L556" s="8">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="K556" s="8">
+        <v>2</v>
       </c>
       <c r="Q556" s="8">
         <v>1</v>
@@ -73676,71 +73716,62 @@
     </row>
     <row r="557" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C557" s="8" t="s">
-        <v>1837</v>
+        <v>1673</v>
+      </c>
+      <c r="C557" s="6" t="s">
+        <v>2097</v>
       </c>
       <c r="D557" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="O557" s="8">
+        <v>283</v>
+      </c>
+      <c r="F557" s="8">
+        <v>28</v>
+      </c>
+      <c r="K557" s="8">
         <v>4</v>
       </c>
-      <c r="P557" s="6">
-        <v>16</v>
+      <c r="L557" s="8">
+        <v>3</v>
       </c>
       <c r="Q557" s="8">
         <v>1</v>
-      </c>
-      <c r="V557" s="8">
-        <v>9</v>
       </c>
     </row>
     <row r="558" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A558" s="5" t="s">
-        <v>2103</v>
+        <v>2119</v>
       </c>
       <c r="B558" t="s">
-        <v>1675</v>
+        <v>488</v>
       </c>
       <c r="C558" s="6" t="s">
-        <v>2102</v>
+        <v>2120</v>
       </c>
       <c r="D558" s="7" t="s">
-        <v>1563</v>
-      </c>
-      <c r="F558" s="8">
+        <v>270</v>
+      </c>
+      <c r="F558" s="8"/>
+      <c r="G558" s="6">
         <v>19</v>
       </c>
-      <c r="P558" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q558" s="8">
-        <v>3.7</v>
-      </c>
-      <c r="R558" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="T558" s="8">
-        <v>21</v>
-      </c>
-      <c r="V558" s="8">
-        <v>9</v>
-      </c>
+      <c r="K558" s="8">
+        <v>1</v>
+      </c>
+      <c r="L558" s="8"/>
+      <c r="Q558" s="8"/>
     </row>
     <row r="559" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A559" s="5" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="B559" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C559" s="6" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="D559" s="7" t="s">
         <v>283</v>
@@ -73748,14 +73779,8 @@
       <c r="F559" s="8">
         <v>32</v>
       </c>
-      <c r="K559" s="6">
-        <v>1</v>
-      </c>
-      <c r="L559" s="6">
+      <c r="L559" s="8">
         <v>4</v>
-      </c>
-      <c r="M559" s="6">
-        <v>-3</v>
       </c>
       <c r="Q559" s="8">
         <v>1</v>
@@ -73763,109 +73788,112 @@
     </row>
     <row r="560" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A560" s="5" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="B560" s="6" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C560" s="6" t="s">
-        <v>2106</v>
+        <v>219</v>
+      </c>
+      <c r="C560" s="8" t="s">
+        <v>1837</v>
       </c>
       <c r="D560" s="7" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F560" s="8">
-        <v>1</v>
-      </c>
-      <c r="K560" s="6">
-        <v>2</v>
-      </c>
-      <c r="M560" s="6">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="O560" s="8">
+        <v>4</v>
+      </c>
+      <c r="P560" s="6">
+        <v>16</v>
       </c>
       <c r="Q560" s="8">
         <v>1</v>
+      </c>
+      <c r="V560" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A561" s="5" t="s">
-        <v>2110</v>
-      </c>
-      <c r="B561" t="s">
-        <v>2077</v>
+        <v>2124</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>1673</v>
       </c>
       <c r="C561" s="6" t="s">
-        <v>2108</v>
-      </c>
-      <c r="D561" s="30" t="s">
-        <v>2109</v>
+        <v>2123</v>
+      </c>
+      <c r="D561" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="F561" s="8">
-        <v>23</v>
-      </c>
-      <c r="P561" s="6">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="K561" s="8">
+        <v>-3</v>
+      </c>
+      <c r="L561" s="8">
+        <v>1</v>
       </c>
       <c r="Q561" s="8">
-        <v>3.7</v>
-      </c>
-      <c r="R561" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="S561" s="8">
-        <v>26</v>
-      </c>
-      <c r="V561" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A562" s="5" t="s">
-        <v>2112</v>
-      </c>
-      <c r="B562" s="6" t="s">
-        <v>1687</v>
+        <v>2103</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1675</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>2111</v>
+        <v>2102</v>
       </c>
       <c r="D562" s="7" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="F562" s="8">
-        <v>6</v>
-      </c>
-      <c r="P562" s="8">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="P562" s="6">
+        <v>17</v>
       </c>
       <c r="Q562" s="8">
-        <v>1</v>
+        <v>3.7</v>
+      </c>
+      <c r="R562" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="T562" s="8">
+        <v>21</v>
+      </c>
+      <c r="V562" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="563" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A563" s="5" t="s">
-        <v>2114</v>
-      </c>
-      <c r="B563" s="8" t="s">
-        <v>297</v>
+        <v>2105</v>
+      </c>
+      <c r="B563" s="6" t="s">
+        <v>1673</v>
       </c>
       <c r="C563" s="6" t="s">
-        <v>2113</v>
+        <v>2104</v>
       </c>
       <c r="D563" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E563" s="6">
-        <v>1</v>
-      </c>
-      <c r="J563" s="6">
-        <v>6</v>
+        <v>283</v>
+      </c>
+      <c r="F563" s="8">
+        <v>32</v>
       </c>
       <c r="K563" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L563" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="M563" s="6">
+        <v>-3</v>
       </c>
       <c r="Q563" s="8">
         <v>1</v>
@@ -73873,64 +73901,204 @@
     </row>
     <row r="564" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A564" s="5" t="s">
-        <v>2116</v>
+        <v>2107</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>1673</v>
+        <v>1687</v>
       </c>
       <c r="C564" s="6" t="s">
-        <v>2115</v>
+        <v>2106</v>
       </c>
       <c r="D564" s="7" t="s">
-        <v>283</v>
+        <v>1560</v>
       </c>
       <c r="F564" s="8">
-        <v>27</v>
-      </c>
-      <c r="K564" s="8">
-        <v>1</v>
-      </c>
-      <c r="L564" s="6">
-        <v>4</v>
-      </c>
-      <c r="P564" s="6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K564" s="6">
+        <v>2</v>
+      </c>
+      <c r="M564" s="6">
+        <v>6</v>
       </c>
       <c r="Q564" s="8">
         <v>1</v>
-      </c>
-      <c r="R564" s="6">
-        <v>0.25</v>
       </c>
     </row>
     <row r="565" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A565" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B565" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C565" s="6" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D565" s="30" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F565" s="8">
+        <v>23</v>
+      </c>
+      <c r="P565" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q565" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="R565" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="S565" s="8">
+        <v>26</v>
+      </c>
+      <c r="V565" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A566" s="5" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B566" s="6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C566" s="6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D566" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F566" s="8">
+        <v>6</v>
+      </c>
+      <c r="P566" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q566" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A567" s="5" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B567" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C567" s="6" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D567" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F567" s="8">
+        <v>14</v>
+      </c>
+      <c r="K567" s="8">
+        <v>-3</v>
+      </c>
+      <c r="L567" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q567" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A568" s="5" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B568" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C568" s="6" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D568" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E568" s="6">
+        <v>1</v>
+      </c>
+      <c r="J568" s="6">
+        <v>6</v>
+      </c>
+      <c r="K568" s="6">
+        <v>9</v>
+      </c>
+      <c r="L568" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q568" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A569" s="5" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C569" s="6" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D569" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F569" s="8">
+        <v>27</v>
+      </c>
+      <c r="K569" s="8">
+        <v>1</v>
+      </c>
+      <c r="L569" s="6">
+        <v>4</v>
+      </c>
+      <c r="P569" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q569" s="8">
+        <v>1</v>
+      </c>
+      <c r="R569" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A570" s="5" t="s">
         <v>2118</v>
       </c>
-      <c r="B565" s="6" t="s">
+      <c r="B570" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C565" s="6" t="s">
+      <c r="C570" s="6" t="s">
         <v>2117</v>
       </c>
-      <c r="D565" s="7" t="s">
+      <c r="D570" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F565" s="8">
+      <c r="F570" s="8">
         <v>3</v>
       </c>
-      <c r="P565" s="8">
+      <c r="P570" s="8">
         <v>14</v>
       </c>
-      <c r="Q565" s="8">
+      <c r="Q570" s="8">
         <v>3.5</v>
       </c>
-      <c r="R565" s="6">
+      <c r="R570" s="6">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA565" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:AA570" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA570">
+      <sortCondition ref="A1:A570"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -73942,7 +74110,7 @@
   <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H126" sqref="H126"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960A7F2B-E79C-4C69-8EDE-AE9093047DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1820CDA0-318B-4CEE-A0CA-AD3C5C5C607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="2520" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="装备数据-常规" sheetId="4" r:id="rId3"/>
     <sheet name="舰船数据-深海" sheetId="2" r:id="rId4"/>
     <sheet name="装备数据-深海" sheetId="5" r:id="rId5"/>
+    <sheet name="海图" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$170</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14476" uniqueCount="2129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14513" uniqueCount="2144">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6730,6 +6731,66 @@
   </si>
   <si>
     <t>XSUM-N-2</t>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalBattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirBattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NightBattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6817,10 +6878,37 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -6830,7 +6918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6894,12 +6982,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="129">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF808080"/>
@@ -16091,42 +16214,42 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C28">
-    <cfRule type="expression" dxfId="125" priority="7">
+    <cfRule type="expression" dxfId="128" priority="7">
       <formula>F2=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="8">
+    <cfRule type="expression" dxfId="127" priority="8">
       <formula>F2=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="9">
+    <cfRule type="expression" dxfId="126" priority="9">
       <formula>F2=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="10">
+    <cfRule type="expression" dxfId="125" priority="10">
       <formula>F2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="11">
+    <cfRule type="expression" dxfId="124" priority="11">
       <formula>F2=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="12">
+    <cfRule type="expression" dxfId="123" priority="12">
       <formula>F2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C39">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="122" priority="1">
       <formula>F29=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="2">
+    <cfRule type="expression" dxfId="121" priority="2">
       <formula>F29=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="3">
+    <cfRule type="expression" dxfId="120" priority="3">
       <formula>F29=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="4">
+    <cfRule type="expression" dxfId="119" priority="4">
       <formula>F29=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="5">
+    <cfRule type="expression" dxfId="118" priority="5">
       <formula>F29=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="6">
+    <cfRule type="expression" dxfId="117" priority="6">
       <formula>F29=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30715,382 +30838,382 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="expression" dxfId="113" priority="109">
+    <cfRule type="expression" dxfId="116" priority="109">
       <formula>F2=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="110">
+    <cfRule type="expression" dxfId="115" priority="110">
       <formula>F2=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="111">
+    <cfRule type="expression" dxfId="114" priority="111">
       <formula>F2=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="112">
+    <cfRule type="expression" dxfId="113" priority="112">
       <formula>F2=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="113">
+    <cfRule type="expression" dxfId="112" priority="113">
       <formula>F2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="114">
+    <cfRule type="expression" dxfId="111" priority="114">
       <formula>F2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C18">
-    <cfRule type="expression" dxfId="107" priority="103">
+    <cfRule type="expression" dxfId="110" priority="103">
       <formula>F5=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="104">
+    <cfRule type="expression" dxfId="109" priority="104">
       <formula>F5=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="105">
+    <cfRule type="expression" dxfId="108" priority="105">
       <formula>F5=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="106">
+    <cfRule type="expression" dxfId="107" priority="106">
       <formula>F5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="107">
+    <cfRule type="expression" dxfId="106" priority="107">
       <formula>F5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="108">
+    <cfRule type="expression" dxfId="105" priority="108">
       <formula>F5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C29">
-    <cfRule type="expression" dxfId="101" priority="97">
+    <cfRule type="expression" dxfId="104" priority="97">
       <formula>F19=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="98">
+    <cfRule type="expression" dxfId="103" priority="98">
       <formula>F19=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="99">
+    <cfRule type="expression" dxfId="102" priority="99">
       <formula>F19=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="100">
+    <cfRule type="expression" dxfId="101" priority="100">
       <formula>F19=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="101">
+    <cfRule type="expression" dxfId="100" priority="101">
       <formula>F19=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="102">
+    <cfRule type="expression" dxfId="99" priority="102">
       <formula>F19=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C32">
-    <cfRule type="expression" dxfId="95" priority="91">
+    <cfRule type="expression" dxfId="98" priority="91">
       <formula>F30=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="92">
+    <cfRule type="expression" dxfId="97" priority="92">
       <formula>F30=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="93">
+    <cfRule type="expression" dxfId="96" priority="93">
       <formula>F30=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="94">
+    <cfRule type="expression" dxfId="95" priority="94">
       <formula>F30=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="95">
+    <cfRule type="expression" dxfId="94" priority="95">
       <formula>F30=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="96">
+    <cfRule type="expression" dxfId="93" priority="96">
       <formula>F30=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="89" priority="85">
+    <cfRule type="expression" dxfId="92" priority="85">
       <formula>F33=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="86">
+    <cfRule type="expression" dxfId="91" priority="86">
       <formula>F33=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="87">
+    <cfRule type="expression" dxfId="90" priority="87">
       <formula>F33=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="88">
+    <cfRule type="expression" dxfId="89" priority="88">
       <formula>F33=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="89">
+    <cfRule type="expression" dxfId="88" priority="89">
       <formula>F33=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="90">
+    <cfRule type="expression" dxfId="87" priority="90">
       <formula>F33=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C42">
-    <cfRule type="expression" dxfId="83" priority="79">
+    <cfRule type="expression" dxfId="86" priority="79">
       <formula>F34=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="80">
+    <cfRule type="expression" dxfId="85" priority="80">
       <formula>F34=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="81">
+    <cfRule type="expression" dxfId="84" priority="81">
       <formula>F34=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="82">
+    <cfRule type="expression" dxfId="83" priority="82">
       <formula>F34=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="83">
+    <cfRule type="expression" dxfId="82" priority="83">
       <formula>F34=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="84">
+    <cfRule type="expression" dxfId="81" priority="84">
       <formula>F34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C54">
-    <cfRule type="expression" dxfId="77" priority="73">
+    <cfRule type="expression" dxfId="80" priority="73">
       <formula>E46=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="74">
+    <cfRule type="expression" dxfId="79" priority="74">
       <formula>E46=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="75">
+    <cfRule type="expression" dxfId="78" priority="75">
       <formula>E46=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="76">
+    <cfRule type="expression" dxfId="77" priority="76">
       <formula>E46=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="77">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>E46=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="78">
+    <cfRule type="expression" dxfId="75" priority="78">
       <formula>E46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
-    <cfRule type="expression" dxfId="71" priority="67">
+    <cfRule type="expression" dxfId="74" priority="67">
       <formula>F43=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="68">
+    <cfRule type="expression" dxfId="73" priority="68">
       <formula>F43=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="69">
+    <cfRule type="expression" dxfId="72" priority="69">
       <formula>F43=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="70">
+    <cfRule type="expression" dxfId="71" priority="70">
       <formula>F43=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="71">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>F43=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="72">
+    <cfRule type="expression" dxfId="69" priority="72">
       <formula>F43=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C67">
-    <cfRule type="expression" dxfId="65" priority="61">
+    <cfRule type="expression" dxfId="68" priority="61">
       <formula>F62=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="62">
+    <cfRule type="expression" dxfId="67" priority="62">
       <formula>F62=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="63">
+    <cfRule type="expression" dxfId="66" priority="63">
       <formula>F62=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
+    <cfRule type="expression" dxfId="65" priority="64">
       <formula>F62=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="65">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>F62=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="66">
+    <cfRule type="expression" dxfId="63" priority="66">
       <formula>F62=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C61">
-    <cfRule type="expression" dxfId="59" priority="55">
+    <cfRule type="expression" dxfId="62" priority="55">
       <formula>F59=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="56">
+    <cfRule type="expression" dxfId="61" priority="56">
       <formula>F59=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="57">
+    <cfRule type="expression" dxfId="60" priority="57">
       <formula>F59=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58">
+    <cfRule type="expression" dxfId="59" priority="58">
       <formula>F59=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="59">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>F59=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="60">
+    <cfRule type="expression" dxfId="57" priority="60">
       <formula>F59=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82 C84">
-    <cfRule type="expression" dxfId="53" priority="43">
+    <cfRule type="expression" dxfId="56" priority="43">
       <formula>F81=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="44">
+    <cfRule type="expression" dxfId="55" priority="44">
       <formula>F81=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>F81=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46">
+    <cfRule type="expression" dxfId="53" priority="46">
       <formula>F81=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="52" priority="47">
       <formula>F81=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="51" priority="48">
       <formula>F81=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="50" priority="49">
       <formula>F84=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>F84=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>F84=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="52">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>F84=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="53">
+    <cfRule type="expression" dxfId="46" priority="53">
       <formula>F84=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="54">
+    <cfRule type="expression" dxfId="45" priority="54">
       <formula>F84=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C102">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="44" priority="37">
       <formula>F90=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="43" priority="38">
       <formula>F90=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>F90=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="41" priority="40">
       <formula>F90=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="41">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>F90=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="42">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>F90=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103:C107">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="38" priority="31">
       <formula>F103=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="37" priority="32">
       <formula>F103=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>F103=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>F103=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>F103=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>F103=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108:C111">
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>F108=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>F108=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>F108=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>F108=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>F108=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>F108=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:C115">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>F112=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>F112=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>F112=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>F112=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>F112=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>F112=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C117">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>E116=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>E116=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>E116=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>E116=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>E116=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>E116=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>F148=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>F148=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>F148=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>F148=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>F148=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>F148=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:C150">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>F149=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>F149=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>F149=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>F149=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>F149=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>F149=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31103,7 +31226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA570"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="P459" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -74110,10 +74233,10 @@
   <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H126" sqref="H126"/>
+      <selection pane="bottomRight" activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -91834,4 +91957,454 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C7826B-70CE-4822-BD2F-88D6BC761614}">
+  <dimension ref="A1:AR4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AC12" sqref="AC12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="9" style="35"/>
+    <col min="6" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="11.25" style="36" customWidth="1"/>
+    <col min="13" max="16" width="11.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="37" customWidth="1"/>
+    <col min="18" max="18" width="9" style="38"/>
+    <col min="19" max="24" width="9" style="2"/>
+    <col min="25" max="25" width="11.25" style="36" customWidth="1"/>
+    <col min="26" max="29" width="11.25" style="2" customWidth="1"/>
+    <col min="30" max="30" width="11.25" style="37" customWidth="1"/>
+    <col min="31" max="31" width="9" style="38"/>
+    <col min="32" max="37" width="9" style="2"/>
+    <col min="38" max="38" width="11.25" style="36" customWidth="1"/>
+    <col min="39" max="42" width="11.25" style="2" customWidth="1"/>
+    <col min="43" max="43" width="11.25" style="5" customWidth="1"/>
+    <col min="44" max="44" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
+        <v>2134</v>
+      </c>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="31" t="s">
+        <v>2135</v>
+      </c>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="33" t="s">
+        <v>2136</v>
+      </c>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="31" t="s">
+        <v>2137</v>
+      </c>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="33" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="34"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="35">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L2" s="39" t="str">
+        <f>IFERROR(VLOOKUP(F2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Georg Thiele</v>
+      </c>
+      <c r="M2" s="40" t="str">
+        <f>IFERROR(VLOOKUP(G2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Wolfgang Zenker</v>
+      </c>
+      <c r="N2" s="40" t="str">
+        <f>IFERROR(VLOOKUP(H2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Bernd von Arnim</v>
+      </c>
+      <c r="O2" s="40" t="str">
+        <f>IFERROR(VLOOKUP(I2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Erich Giese</v>
+      </c>
+      <c r="P2" s="40" t="str">
+        <f>IFERROR(VLOOKUP(J2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Erich Koellner</v>
+      </c>
+      <c r="Q2" s="40" t="str">
+        <f>IFERROR(VLOOKUP(K2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>U-64</v>
+      </c>
+      <c r="Y2" s="39">
+        <f>IFERROR(VLOOKUP(S2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="40">
+        <f>IFERROR(VLOOKUP(T2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="40">
+        <f>IFERROR(VLOOKUP(U2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="40">
+        <f>IFERROR(VLOOKUP(V2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="40">
+        <f>IFERROR(VLOOKUP(W2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="40">
+        <f>IFERROR(VLOOKUP(X2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="39">
+        <f>IFERROR(VLOOKUP(AF2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AM2" s="40">
+        <f>IFERROR(VLOOKUP(AG2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AN2" s="40">
+        <f>IFERROR(VLOOKUP(AH2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2" s="40">
+        <f>IFERROR(VLOOKUP(AI2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AP2" s="40">
+        <f>IFERROR(VLOOKUP(AJ2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="40">
+        <f>IFERROR(VLOOKUP(AK2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="35">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L3" s="39" t="str">
+        <f>IFERROR(VLOOKUP(F3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Warspite</v>
+      </c>
+      <c r="M3" s="40" t="str">
+        <f>IFERROR(VLOOKUP(G3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Bedouin</v>
+      </c>
+      <c r="N3" s="40" t="str">
+        <f>IFERROR(VLOOKUP(H3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Cossack</v>
+      </c>
+      <c r="O3" s="40" t="str">
+        <f>IFERROR(VLOOKUP(I3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Punjabi</v>
+      </c>
+      <c r="P3" s="40" t="str">
+        <f>IFERROR(VLOOKUP(J3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Eskimo</v>
+      </c>
+      <c r="Q3" s="40" t="str">
+        <f>IFERROR(VLOOKUP(K3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Hero</v>
+      </c>
+      <c r="Y3" s="39">
+        <f>IFERROR(VLOOKUP(S3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="40">
+        <f>IFERROR(VLOOKUP(T3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="40">
+        <f>IFERROR(VLOOKUP(U3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="40">
+        <f>IFERROR(VLOOKUP(V3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="40">
+        <f>IFERROR(VLOOKUP(W3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="40">
+        <f>IFERROR(VLOOKUP(X3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="39">
+        <f>IFERROR(VLOOKUP(AF3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="40">
+        <f>IFERROR(VLOOKUP(AG3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="40">
+        <f>IFERROR(VLOOKUP(AH3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="40">
+        <f>IFERROR(VLOOKUP(AI3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="40">
+        <f>IFERROR(VLOOKUP(AJ3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="40">
+        <f>IFERROR(VLOOKUP(AK3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="35">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L4" s="39" t="str">
+        <f>IFERROR(VLOOKUP(F4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Warspite</v>
+      </c>
+      <c r="M4" s="40" t="str">
+        <f>IFERROR(VLOOKUP(G4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Barham</v>
+      </c>
+      <c r="N4" s="40" t="str">
+        <f>IFERROR(VLOOKUP(H4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Valiant</v>
+      </c>
+      <c r="O4" s="40" t="str">
+        <f>IFERROR(VLOOKUP(I4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Ajax</v>
+      </c>
+      <c r="P4" s="40" t="str">
+        <f>IFERROR(VLOOKUP(J4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Gloucester</v>
+      </c>
+      <c r="Q4" s="40" t="str">
+        <f>IFERROR(VLOOKUP(K4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Orion</v>
+      </c>
+      <c r="Y4" s="39">
+        <f>IFERROR(VLOOKUP(S4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="40">
+        <f>IFERROR(VLOOKUP(T4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="40">
+        <f>IFERROR(VLOOKUP(U4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="40">
+        <f>IFERROR(VLOOKUP(V4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="40">
+        <f>IFERROR(VLOOKUP(W4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="40">
+        <f>IFERROR(VLOOKUP(X4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="39">
+        <f>IFERROR(VLOOKUP(AF4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="40">
+        <f>IFERROR(VLOOKUP(AG4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="40">
+        <f>IFERROR(VLOOKUP(AH4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="40">
+        <f>IFERROR(VLOOKUP(AI4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="40">
+        <f>IFERROR(VLOOKUP(AJ4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="40">
+        <f>IFERROR(VLOOKUP(AK4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="AL1:AQ1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="L2:Q4">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:AD4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL2:AQ4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1820CDA0-318B-4CEE-A0CA-AD3C5C5C607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23337A2-E1F9-4380-9ADB-0A4F5C933535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14513" uniqueCount="2144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14514" uniqueCount="2145">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6790,6 +6790,10 @@
   </si>
   <si>
     <t>NightBattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>round</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6983,6 +6987,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6994,14 +7006,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -91961,39 +91965,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C7826B-70CE-4822-BD2F-88D6BC761614}">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AS4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC12" sqref="AC12"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="9" style="35"/>
-    <col min="6" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="11.25" style="36" customWidth="1"/>
-    <col min="13" max="16" width="11.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="37" customWidth="1"/>
-    <col min="18" max="18" width="9" style="38"/>
-    <col min="19" max="24" width="9" style="2"/>
-    <col min="25" max="25" width="11.25" style="36" customWidth="1"/>
-    <col min="26" max="29" width="11.25" style="2" customWidth="1"/>
-    <col min="30" max="30" width="11.25" style="37" customWidth="1"/>
-    <col min="31" max="31" width="9" style="38"/>
-    <col min="32" max="37" width="9" style="2"/>
-    <col min="38" max="38" width="11.25" style="36" customWidth="1"/>
-    <col min="39" max="42" width="11.25" style="2" customWidth="1"/>
-    <col min="43" max="43" width="11.25" style="5" customWidth="1"/>
-    <col min="44" max="44" width="9" style="38"/>
+    <col min="4" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="9" style="31"/>
+    <col min="7" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="11.25" style="32" customWidth="1"/>
+    <col min="14" max="17" width="11.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.25" style="33" customWidth="1"/>
+    <col min="19" max="19" width="9" style="34"/>
+    <col min="20" max="25" width="9" style="2"/>
+    <col min="26" max="26" width="11.25" style="32" customWidth="1"/>
+    <col min="27" max="30" width="11.25" style="2" customWidth="1"/>
+    <col min="31" max="31" width="11.25" style="33" customWidth="1"/>
+    <col min="32" max="32" width="9" style="34"/>
+    <col min="33" max="38" width="9" style="2"/>
+    <col min="39" max="39" width="11.25" style="32" customWidth="1"/>
+    <col min="40" max="43" width="11.25" style="2" customWidth="1"/>
+    <col min="44" max="44" width="11.25" style="5" customWidth="1"/>
+    <col min="45" max="45" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2129</v>
       </c>
@@ -92006,59 +92010,62 @@
       <c r="D1" s="3" t="s">
         <v>2132</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>2133</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39" t="s">
         <v>2134</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="31" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="37" t="s">
         <v>2135</v>
       </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="33" t="s">
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39" t="s">
         <v>2136</v>
       </c>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="31" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="37" t="s">
         <v>2137</v>
       </c>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="39" t="s">
         <v>2138</v>
       </c>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="34"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="40"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>317</v>
       </c>
@@ -92071,101 +92078,104 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="31">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>1609</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="L2" s="39" t="str">
-        <f>IFERROR(VLOOKUP(F2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="M2" s="35" t="str">
+        <f>IFERROR(VLOOKUP(G2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Georg Thiele</v>
       </c>
-      <c r="M2" s="40" t="str">
-        <f>IFERROR(VLOOKUP(G2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="N2" s="36" t="str">
+        <f>IFERROR(VLOOKUP(H2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Wolfgang Zenker</v>
       </c>
-      <c r="N2" s="40" t="str">
-        <f>IFERROR(VLOOKUP(H2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="O2" s="36" t="str">
+        <f>IFERROR(VLOOKUP(I2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Bernd von Arnim</v>
       </c>
-      <c r="O2" s="40" t="str">
-        <f>IFERROR(VLOOKUP(I2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="P2" s="36" t="str">
+        <f>IFERROR(VLOOKUP(J2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Erich Giese</v>
       </c>
-      <c r="P2" s="40" t="str">
-        <f>IFERROR(VLOOKUP(J2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="Q2" s="36" t="str">
+        <f>IFERROR(VLOOKUP(K2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Erich Koellner</v>
       </c>
-      <c r="Q2" s="40" t="str">
-        <f>IFERROR(VLOOKUP(K2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="R2" s="36" t="str">
+        <f>IFERROR(VLOOKUP(L2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>U-64</v>
       </c>
-      <c r="Y2" s="39">
-        <f>IFERROR(VLOOKUP(S2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="40">
+      <c r="Z2" s="35">
         <f>IFERROR(VLOOKUP(T2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="40">
+      <c r="AA2" s="36">
         <f>IFERROR(VLOOKUP(U2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="40">
+      <c r="AB2" s="36">
         <f>IFERROR(VLOOKUP(V2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="36">
         <f>IFERROR(VLOOKUP(W2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AD2" s="40">
+      <c r="AD2" s="36">
         <f>IFERROR(VLOOKUP(X2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AL2" s="39">
-        <f>IFERROR(VLOOKUP(AF2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2" s="40">
+      <c r="AE2" s="36">
+        <f>IFERROR(VLOOKUP(Y2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AM2" s="35">
         <f>IFERROR(VLOOKUP(AG2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AN2" s="40">
+      <c r="AN2" s="36">
         <f>IFERROR(VLOOKUP(AH2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="40">
+      <c r="AO2" s="36">
         <f>IFERROR(VLOOKUP(AI2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AP2" s="40">
+      <c r="AP2" s="36">
         <f>IFERROR(VLOOKUP(AJ2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AQ2" s="40">
+      <c r="AQ2" s="36">
         <f>IFERROR(VLOOKUP(AK2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR2" s="36">
+        <f>IFERROR(VLOOKUP(AL2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>318</v>
       </c>
@@ -92178,101 +92188,104 @@
       <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="31">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>1613</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>1615</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="L3" s="39" t="str">
-        <f>IFERROR(VLOOKUP(F3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="M3" s="35" t="str">
+        <f>IFERROR(VLOOKUP(G3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Warspite</v>
       </c>
-      <c r="M3" s="40" t="str">
-        <f>IFERROR(VLOOKUP(G3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="N3" s="36" t="str">
+        <f>IFERROR(VLOOKUP(H3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Bedouin</v>
       </c>
-      <c r="N3" s="40" t="str">
-        <f>IFERROR(VLOOKUP(H3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="O3" s="36" t="str">
+        <f>IFERROR(VLOOKUP(I3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Cossack</v>
       </c>
-      <c r="O3" s="40" t="str">
-        <f>IFERROR(VLOOKUP(I3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="P3" s="36" t="str">
+        <f>IFERROR(VLOOKUP(J3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Punjabi</v>
       </c>
-      <c r="P3" s="40" t="str">
-        <f>IFERROR(VLOOKUP(J3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="Q3" s="36" t="str">
+        <f>IFERROR(VLOOKUP(K3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Eskimo</v>
       </c>
-      <c r="Q3" s="40" t="str">
-        <f>IFERROR(VLOOKUP(K3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="R3" s="36" t="str">
+        <f>IFERROR(VLOOKUP(L3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Hero</v>
       </c>
-      <c r="Y3" s="39">
-        <f>IFERROR(VLOOKUP(S3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="40">
+      <c r="Z3" s="35">
         <f>IFERROR(VLOOKUP(T3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="40">
+      <c r="AA3" s="36">
         <f>IFERROR(VLOOKUP(U3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="40">
+      <c r="AB3" s="36">
         <f>IFERROR(VLOOKUP(V3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="40">
+      <c r="AC3" s="36">
         <f>IFERROR(VLOOKUP(W3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="40">
+      <c r="AD3" s="36">
         <f>IFERROR(VLOOKUP(X3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="39">
-        <f>IFERROR(VLOOKUP(AF3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="40">
+      <c r="AE3" s="36">
+        <f>IFERROR(VLOOKUP(Y3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="35">
         <f>IFERROR(VLOOKUP(AG3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="40">
+      <c r="AN3" s="36">
         <f>IFERROR(VLOOKUP(AH3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AO3" s="40">
+      <c r="AO3" s="36">
         <f>IFERROR(VLOOKUP(AI3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="40">
+      <c r="AP3" s="36">
         <f>IFERROR(VLOOKUP(AJ3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="40">
+      <c r="AQ3" s="36">
         <f>IFERROR(VLOOKUP(AK3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR3" s="36">
+        <f>IFERROR(VLOOKUP(AL3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>319</v>
       </c>
@@ -92285,121 +92298,124 @@
       <c r="D4" s="3">
         <v>5</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>1621</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="L4" s="39" t="str">
-        <f>IFERROR(VLOOKUP(F4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="M4" s="35" t="str">
+        <f>IFERROR(VLOOKUP(G4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Warspite</v>
       </c>
-      <c r="M4" s="40" t="str">
-        <f>IFERROR(VLOOKUP(G4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="N4" s="36" t="str">
+        <f>IFERROR(VLOOKUP(H4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Barham</v>
       </c>
-      <c r="N4" s="40" t="str">
-        <f>IFERROR(VLOOKUP(H4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="O4" s="36" t="str">
+        <f>IFERROR(VLOOKUP(I4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Valiant</v>
       </c>
-      <c r="O4" s="40" t="str">
-        <f>IFERROR(VLOOKUP(I4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="P4" s="36" t="str">
+        <f>IFERROR(VLOOKUP(J4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Ajax</v>
       </c>
-      <c r="P4" s="40" t="str">
-        <f>IFERROR(VLOOKUP(J4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="Q4" s="36" t="str">
+        <f>IFERROR(VLOOKUP(K4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Gloucester</v>
       </c>
-      <c r="Q4" s="40" t="str">
-        <f>IFERROR(VLOOKUP(K4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+      <c r="R4" s="36" t="str">
+        <f>IFERROR(VLOOKUP(L4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>HMS Orion</v>
       </c>
-      <c r="Y4" s="39">
-        <f>IFERROR(VLOOKUP(S4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="40">
+      <c r="Z4" s="35">
         <f>IFERROR(VLOOKUP(T4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="40">
+      <c r="AA4" s="36">
         <f>IFERROR(VLOOKUP(U4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="40">
+      <c r="AB4" s="36">
         <f>IFERROR(VLOOKUP(V4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="40">
+      <c r="AC4" s="36">
         <f>IFERROR(VLOOKUP(W4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="40">
+      <c r="AD4" s="36">
         <f>IFERROR(VLOOKUP(X4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AL4" s="39">
-        <f>IFERROR(VLOOKUP(AF4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="40">
+      <c r="AE4" s="36">
+        <f>IFERROR(VLOOKUP(Y4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="35">
         <f>IFERROR(VLOOKUP(AG4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AN4" s="40">
+      <c r="AN4" s="36">
         <f>IFERROR(VLOOKUP(AH4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AO4" s="40">
+      <c r="AO4" s="36">
         <f>IFERROR(VLOOKUP(AI4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="40">
+      <c r="AP4" s="36">
         <f>IFERROR(VLOOKUP(AJ4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AQ4" s="40">
+      <c r="AQ4" s="36">
         <f>IFERROR(VLOOKUP(AK4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="36">
+        <f>IFERROR(VLOOKUP(AL4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="AE1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AF1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="L2:Q4">
+  <conditionalFormatting sqref="M2:R4">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:AD4">
+  <conditionalFormatting sqref="Z2:AE4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AQ4">
+  <conditionalFormatting sqref="AM2:AR4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23337A2-E1F9-4380-9ADB-0A4F5C933535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB03CE2-966D-4EE0-A519-E741E56514E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14514" uniqueCount="2145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14517" uniqueCount="2145">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6737,18 +6737,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阵容1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6793,7 +6781,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>round</t>
+    <t>点位等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迂回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entrance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6922,7 +6922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6994,16 +6994,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -74237,7 +74249,7 @@
   <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A140" sqref="A140"/>
@@ -91965,13 +91977,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C7826B-70CE-4822-BD2F-88D6BC761614}">
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -92002,191 +92014,137 @@
         <v>2129</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F1" s="43" t="s">
         <v>2130</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="40" t="s">
         <v>2131</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43" t="s">
         <v>2132</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2144</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="40" t="s">
         <v>2133</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39" t="s">
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43" t="s">
         <v>2134</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="37" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="40" t="s">
         <v>2135</v>
       </c>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="39" t="s">
-        <v>2136</v>
-      </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="37" t="s">
-        <v>2137</v>
-      </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="39" t="s">
-        <v>2138</v>
-      </c>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="40"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="42"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>317</v>
+        <v>1839</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="31">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1607</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1609</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="M2" s="35" t="str">
-        <f>IFERROR(VLOOKUP(G2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Georg Thiele</v>
-      </c>
-      <c r="N2" s="36" t="str">
-        <f>IFERROR(VLOOKUP(H2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Wolfgang Zenker</v>
-      </c>
-      <c r="O2" s="36" t="str">
-        <f>IFERROR(VLOOKUP(I2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Bernd von Arnim</v>
-      </c>
-      <c r="P2" s="36" t="str">
-        <f>IFERROR(VLOOKUP(J2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Erich Giese</v>
-      </c>
-      <c r="Q2" s="36" t="str">
-        <f>IFERROR(VLOOKUP(K2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>Erich Koellner</v>
-      </c>
-      <c r="R2" s="36" t="str">
-        <f>IFERROR(VLOOKUP(L2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>U-64</v>
-      </c>
-      <c r="Z2" s="35">
-        <f>IFERROR(VLOOKUP(T2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="36">
-        <f>IFERROR(VLOOKUP(U2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="36">
-        <f>IFERROR(VLOOKUP(V2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="36">
-        <f>IFERROR(VLOOKUP(W2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="36">
-        <f>IFERROR(VLOOKUP(X2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="36">
-        <f>IFERROR(VLOOKUP(Y2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2" s="35">
-        <f>IFERROR(VLOOKUP(AG2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AN2" s="36">
-        <f>IFERROR(VLOOKUP(AH2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AO2" s="36">
-        <f>IFERROR(VLOOKUP(AI2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2" s="36">
-        <f>IFERROR(VLOOKUP(AJ2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="36">
-        <f>IFERROR(VLOOKUP(AK2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
-      <c r="AR2" s="36">
-        <f>IFERROR(VLOOKUP(AL2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>0</v>
-      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="44"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -92195,46 +92153,46 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="M3" s="35" t="str">
         <f>IFERROR(VLOOKUP(G3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>HMS Warspite</v>
+        <v>Georg Thiele</v>
       </c>
       <c r="N3" s="36" t="str">
         <f>IFERROR(VLOOKUP(H3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>HMS Bedouin</v>
+        <v>Wolfgang Zenker</v>
       </c>
       <c r="O3" s="36" t="str">
         <f>IFERROR(VLOOKUP(I3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>HMS Cossack</v>
+        <v>Bernd von Arnim</v>
       </c>
       <c r="P3" s="36" t="str">
         <f>IFERROR(VLOOKUP(J3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>HMS Punjabi</v>
+        <v>Erich Giese</v>
       </c>
       <c r="Q3" s="36" t="str">
         <f>IFERROR(VLOOKUP(K3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>HMS Eskimo</v>
+        <v>Erich Koellner</v>
       </c>
       <c r="R3" s="36" t="str">
         <f>IFERROR(VLOOKUP(L3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>HMS Hero</v>
+        <v>U-64</v>
       </c>
       <c r="Z3" s="35">
         <f>IFERROR(VLOOKUP(T3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -92287,16 +92245,16 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1944</v>
+        <v>2138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -92305,22 +92263,22 @@
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="M4" s="35" t="str">
         <f>IFERROR(VLOOKUP(G4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -92328,23 +92286,23 @@
       </c>
       <c r="N4" s="36" t="str">
         <f>IFERROR(VLOOKUP(H4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>HMS Barham</v>
+        <v>HMS Bedouin</v>
       </c>
       <c r="O4" s="36" t="str">
         <f>IFERROR(VLOOKUP(I4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>HMS Valiant</v>
+        <v>HMS Cossack</v>
       </c>
       <c r="P4" s="36" t="str">
         <f>IFERROR(VLOOKUP(J4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>HMS Ajax</v>
+        <v>HMS Punjabi</v>
       </c>
       <c r="Q4" s="36" t="str">
         <f>IFERROR(VLOOKUP(K4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>HMS Gloucester</v>
+        <v>HMS Eskimo</v>
       </c>
       <c r="R4" s="36" t="str">
         <f>IFERROR(VLOOKUP(L4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
-        <v>HMS Orion</v>
+        <v>HMS Hero</v>
       </c>
       <c r="Z4" s="35">
         <f>IFERROR(VLOOKUP(T4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
@@ -92392,6 +92350,116 @@
       </c>
       <c r="AR4" s="36">
         <f>IFERROR(VLOOKUP(AL4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="M5" s="35" t="str">
+        <f>IFERROR(VLOOKUP(G5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Warspite</v>
+      </c>
+      <c r="N5" s="36" t="str">
+        <f>IFERROR(VLOOKUP(H5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Barham</v>
+      </c>
+      <c r="O5" s="36" t="str">
+        <f>IFERROR(VLOOKUP(I5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Valiant</v>
+      </c>
+      <c r="P5" s="36" t="str">
+        <f>IFERROR(VLOOKUP(J5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Ajax</v>
+      </c>
+      <c r="Q5" s="36" t="str">
+        <f>IFERROR(VLOOKUP(K5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Gloucester</v>
+      </c>
+      <c r="R5" s="36" t="str">
+        <f>IFERROR(VLOOKUP(L5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>HMS Orion</v>
+      </c>
+      <c r="Z5" s="35">
+        <f>IFERROR(VLOOKUP(T5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="36">
+        <f>IFERROR(VLOOKUP(U5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="36">
+        <f>IFERROR(VLOOKUP(V5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="36">
+        <f>IFERROR(VLOOKUP(W5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="36">
+        <f>IFERROR(VLOOKUP(X5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="36">
+        <f>IFERROR(VLOOKUP(Y5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="35">
+        <f>IFERROR(VLOOKUP(AG5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="36">
+        <f>IFERROR(VLOOKUP(AH5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="36">
+        <f>IFERROR(VLOOKUP(AI5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="36">
+        <f>IFERROR(VLOOKUP(AJ5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="36">
+        <f>IFERROR(VLOOKUP(AK5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="36">
+        <f>IFERROR(VLOOKUP(AL5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
     </row>
@@ -92405,17 +92473,17 @@
     <mergeCell ref="AF1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="M2:R4">
+  <conditionalFormatting sqref="M3:R5">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:AE4">
+  <conditionalFormatting sqref="Z3:AE5">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AR4">
+  <conditionalFormatting sqref="AM3:AR5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB003389-8A49-4280-8544-8F94D93BD35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C0CED6-1C91-47C1-B3C4-4DDC3462B27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="3495" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14572" uniqueCount="2159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14599" uniqueCount="2162">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6840,6 +6840,18 @@
   </si>
   <si>
     <t>SouthDakota</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -16316,11 +16328,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="O137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A146" sqref="A146"/>
+      <selection pane="bottomRight" activeCell="AB148" sqref="AB148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74189,11 +74201,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L112" sqref="L112"/>
+      <selection pane="bottomRight" activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -75539,7 +75551,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M18">
         <v>3</v>
@@ -75617,7 +75629,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M19">
         <v>12</v>
@@ -75695,7 +75707,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M20">
         <v>45</v>
@@ -75773,7 +75785,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="M21">
         <v>50</v>
@@ -82499,7 +82511,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="M107">
         <v>20</v>
@@ -82580,7 +82592,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="1">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M108">
         <v>50</v>
@@ -82661,7 +82673,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M109">
         <v>57</v>
@@ -92401,13 +92413,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C7826B-70CE-4822-BD2F-88D6BC761614}">
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AS10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -93048,6 +93060,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="M7" s="34" t="str">
+        <f>IFERROR(VLOOKUP(G7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>航母Ο级Ⅲ型</v>
+      </c>
+      <c r="N7" s="35" t="str">
+        <f>IFERROR(VLOOKUP(H7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>航母Ο级Ⅲ型</v>
+      </c>
+      <c r="O7" s="35" t="str">
+        <f>IFERROR(VLOOKUP(I7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅱ型</v>
+      </c>
+      <c r="P7" s="35" t="str">
+        <f>IFERROR(VLOOKUP(J7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅱ型</v>
+      </c>
+      <c r="Q7" s="35" t="str">
+        <f>IFERROR(VLOOKUP(K7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+      <c r="R7" s="35" t="str">
+        <f>IFERROR(VLOOKUP(L7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅱ型</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="M8" s="34" t="str">
+        <f>IFERROR(VLOOKUP(G8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅲ型</v>
+      </c>
+      <c r="N8" s="35" t="str">
+        <f>IFERROR(VLOOKUP(H8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅲ型</v>
+      </c>
+      <c r="O8" s="35" t="str">
+        <f>IFERROR(VLOOKUP(I8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="P8" s="35" t="str">
+        <f>IFERROR(VLOOKUP(J8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅲ型</v>
+      </c>
+      <c r="Q8" s="35" t="str">
+        <f>IFERROR(VLOOKUP(K8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅱ型</v>
+      </c>
+      <c r="R8" s="35" t="str">
+        <f>IFERROR(VLOOKUP(L8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅱ型</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M9" s="34" t="str">
+        <f>IFERROR(VLOOKUP(G9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战巡Κ级Ⅳ型</v>
+      </c>
+      <c r="N9" s="35" t="str">
+        <f>IFERROR(VLOOKUP(H9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战巡Κ级Ⅳ型</v>
+      </c>
+      <c r="O9" s="35" t="str">
+        <f>IFERROR(VLOOKUP(I9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>航母Ο级Ⅳ型</v>
+      </c>
+      <c r="P9" s="35" t="str">
+        <f>IFERROR(VLOOKUP(J9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>航母Ο级Ⅳ型</v>
+      </c>
+      <c r="Q9" s="35" t="str">
+        <f>IFERROR(VLOOKUP(K9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>潜艇Φ级Ⅲ型</v>
+      </c>
+      <c r="R9" s="35" t="str">
+        <f>IFERROR(VLOOKUP(L9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>潜艇Φ级Ⅲ型</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="M10" s="34">
+        <f>IFERROR(VLOOKUP(G10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="35">
+        <f>IFERROR(VLOOKUP(H10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="35">
+        <f>IFERROR(VLOOKUP(I10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="35">
+        <f>IFERROR(VLOOKUP(J10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="35">
+        <f>IFERROR(VLOOKUP(K10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="35">
+        <f>IFERROR(VLOOKUP(L10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AM1:AR1"/>
@@ -93058,7 +93282,7 @@
     <mergeCell ref="AF1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="M2:R6">
+  <conditionalFormatting sqref="M2:R10">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$170</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$97</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$570</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$578</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14607" uniqueCount="2169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14701" uniqueCount="2227">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6879,6 +6879,203 @@
   <si>
     <t>005</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10537</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水下防护系统</t>
+  </si>
+  <si>
+    <t>10580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Me-163（BT）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10581</t>
+  </si>
+  <si>
+    <t>10582</t>
+  </si>
+  <si>
+    <t>海鹰反舰导弹</t>
+  </si>
+  <si>
+    <t>海鹰导弹发射器</t>
+  </si>
+  <si>
+    <t>581</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>582</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加10%护甲穿透(同类弹药效果只生效一个)，济南装备时提高10%伤害</t>
+  </si>
+  <si>
+    <t>济南装备时提高10%回避率</t>
+  </si>
+  <si>
+    <t>10586</t>
+  </si>
+  <si>
+    <t>潜载火箭炮（U）</t>
+  </si>
+  <si>
+    <t>586</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先制鱼雷和鱼雷战阶段提高10%伤害和10%命中率</t>
+  </si>
+  <si>
+    <t>10587</t>
+  </si>
+  <si>
+    <t>10592</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程对空警戒雷达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空战阶段增加10%回避率，炮击战阶段增加5%回避率</t>
+  </si>
+  <si>
+    <t>10593</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖珍舰载艇</t>
+  </si>
+  <si>
+    <t>593</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIIA装备时提高15%伤害和5%命中率</t>
+  </si>
+  <si>
+    <t>10597</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105毫米甲板炮（潜艇）</t>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10596</t>
+  </si>
+  <si>
+    <t>掠夺者攻击机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>596</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利和皇家方舟(R09)装备时增加25制空值</t>
+  </si>
+  <si>
+    <t>胜利和皇家方舟(R09)装备时提高5%伤害</t>
+  </si>
+  <si>
+    <t>增加25%暴击率</t>
+  </si>
+  <si>
+    <t>10598</t>
+  </si>
+  <si>
+    <t>三坐标搜索雷达</t>
+  </si>
+  <si>
+    <t>018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空战阶段增加10%回避率</t>
+  </si>
+  <si>
+    <t>0.1,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>480毫米双联主炮（42）</t>
+  </si>
+  <si>
+    <t>10601</t>
+  </si>
+  <si>
+    <t>海雌狐FAW.2战斗机</t>
+  </si>
+  <si>
+    <t>601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10602</t>
+  </si>
+  <si>
+    <t>试制41厘米四联主炮（S）</t>
+  </si>
+  <si>
+    <t>10603</t>
+  </si>
+  <si>
+    <t>10604</t>
+  </si>
+  <si>
+    <t>F6F地狱猫战斗机（麦坎贝尔）</t>
+  </si>
+  <si>
+    <t>603</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃塞克斯装备时航空战阶段增加15%攻击威力和增加20制空值</t>
+  </si>
+  <si>
+    <t>法国四联420毫米主炮</t>
+  </si>
+  <si>
+    <t>10605</t>
+  </si>
+  <si>
+    <t>605</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重炮装备时增加10%护甲穿透和10%回避率</t>
+  </si>
+  <si>
+    <t>英国双联15英寸主炮（BM）</t>
   </si>
 </sst>
 </file>
@@ -7006,7 +7203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7094,6 +7291,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -31220,13 +31426,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA570"/>
+  <dimension ref="A1:AA587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E555" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
+      <selection pane="bottomRight" activeCell="H591" sqref="H591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -31238,7 +31444,10 @@
     <col min="5" max="22" width="9" style="6"/>
     <col min="23" max="23" width="9" style="5"/>
     <col min="24" max="24" width="9" style="6" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="6"/>
+    <col min="25" max="25" width="9" style="44"/>
+    <col min="26" max="26" width="9" style="6"/>
+    <col min="27" max="27" width="20.125" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -31314,7 +31523,7 @@
       <c r="X1" s="8" t="s">
         <v>1834</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="43" t="s">
         <v>1690</v>
       </c>
       <c r="Z1" s="8" t="s">
@@ -31575,7 +31784,7 @@
       <c r="W7" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="44">
         <v>0.2</v>
       </c>
     </row>
@@ -31809,7 +32018,7 @@
       <c r="W13" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="44">
         <v>0.1</v>
       </c>
     </row>
@@ -31838,7 +32047,7 @@
       <c r="W14" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="44">
         <v>0.25</v>
       </c>
     </row>
@@ -42096,7 +42305,7 @@
       <c r="X145" s="6">
         <v>4</v>
       </c>
-      <c r="Y145" s="6">
+      <c r="Y145" s="44">
         <v>0.25</v>
       </c>
       <c r="Z145" s="6" t="s">
@@ -42176,7 +42385,7 @@
       <c r="X146" s="6">
         <v>3</v>
       </c>
-      <c r="Y146" s="6">
+      <c r="Y146" s="44">
         <v>0.2</v>
       </c>
       <c r="Z146" s="6" t="s">
@@ -47851,7 +48060,7 @@
       <c r="X219" s="6">
         <v>5</v>
       </c>
-      <c r="Y219" s="6">
+      <c r="Y219" s="44">
         <v>0.25</v>
       </c>
       <c r="Z219" s="6" t="s">
@@ -50191,7 +50400,7 @@
       <c r="X249" s="6">
         <v>3</v>
       </c>
-      <c r="Y249" s="6">
+      <c r="Y249" s="44">
         <v>0.2</v>
       </c>
       <c r="Z249" s="6" t="s">
@@ -50819,7 +51028,7 @@
       <c r="X257" s="6">
         <v>5</v>
       </c>
-      <c r="Y257" s="8">
+      <c r="Y257" s="43">
         <v>0.1</v>
       </c>
       <c r="Z257" s="6" t="s">
@@ -51669,7 +51878,7 @@
       <c r="X268" s="6">
         <v>3</v>
       </c>
-      <c r="Y268" s="6">
+      <c r="Y268" s="44">
         <v>0.1</v>
       </c>
       <c r="Z268" s="6" t="s">
@@ -52596,7 +52805,7 @@
       <c r="X280" s="6">
         <v>3</v>
       </c>
-      <c r="Y280" s="8">
+      <c r="Y280" s="43">
         <v>0.15</v>
       </c>
       <c r="Z280" s="6" t="s">
@@ -52753,7 +52962,7 @@
       <c r="X282" s="6">
         <v>3</v>
       </c>
-      <c r="Y282" s="8">
+      <c r="Y282" s="43">
         <v>0.05</v>
       </c>
       <c r="Z282" s="6" t="s">
@@ -58680,7 +58889,7 @@
       <c r="X358" s="6">
         <v>12</v>
       </c>
-      <c r="Y358" s="8">
+      <c r="Y358" s="43">
         <v>-0.1</v>
       </c>
       <c r="Z358" s="6" t="s">
@@ -60380,7 +60589,7 @@
       <c r="X380" s="6">
         <v>3</v>
       </c>
-      <c r="Y380" s="8">
+      <c r="Y380" s="43">
         <v>0.25</v>
       </c>
       <c r="Z380" s="6" t="s">
@@ -60845,7 +61054,7 @@
       <c r="X386" s="6">
         <v>3</v>
       </c>
-      <c r="Y386" s="8">
+      <c r="Y386" s="43">
         <v>0.1</v>
       </c>
       <c r="Z386" s="6" t="s">
@@ -61005,7 +61214,7 @@
       <c r="X388" s="6">
         <v>12</v>
       </c>
-      <c r="Y388" s="8">
+      <c r="Y388" s="43">
         <v>-0.05</v>
       </c>
       <c r="Z388" s="6" t="s">
@@ -62954,7 +63163,7 @@
       <c r="X413" s="6">
         <v>5</v>
       </c>
-      <c r="Y413" s="8">
+      <c r="Y413" s="43">
         <v>0.2</v>
       </c>
       <c r="Z413" s="6" t="s">
@@ -63422,7 +63631,7 @@
       <c r="X419" s="6">
         <v>3</v>
       </c>
-      <c r="Y419" s="8">
+      <c r="Y419" s="43">
         <v>0.15</v>
       </c>
       <c r="Z419" s="6" t="s">
@@ -64050,7 +64259,7 @@
       <c r="X427" s="6">
         <v>4</v>
       </c>
-      <c r="Y427" s="8">
+      <c r="Y427" s="43">
         <v>0.1</v>
       </c>
       <c r="Z427" s="6" t="s">
@@ -64210,7 +64419,7 @@
       <c r="X429" s="6">
         <v>3</v>
       </c>
-      <c r="Y429" s="8">
+      <c r="Y429" s="43">
         <v>0.1</v>
       </c>
       <c r="Z429" s="6" t="s">
@@ -66230,7 +66439,7 @@
       <c r="X455" s="6">
         <v>12</v>
       </c>
-      <c r="Y455" s="8">
+      <c r="Y455" s="43">
         <v>-0.15</v>
       </c>
       <c r="Z455" s="6" t="s">
@@ -69429,7 +69638,7 @@
       <c r="X496" s="6">
         <v>12</v>
       </c>
-      <c r="Y496" s="8">
+      <c r="Y496" s="43">
         <v>-0.05</v>
       </c>
       <c r="Z496" s="6" t="s">
@@ -71316,7 +71525,7 @@
       <c r="X520" s="6">
         <v>12</v>
       </c>
-      <c r="Y520" s="8">
+      <c r="Y520" s="43">
         <v>-0.15</v>
       </c>
       <c r="Z520" s="6" t="s">
@@ -71710,7 +71919,7 @@
       <c r="X525" s="6">
         <v>3</v>
       </c>
-      <c r="Y525" s="8">
+      <c r="Y525" s="43">
         <v>0.25</v>
       </c>
       <c r="Z525" s="6" t="s">
@@ -72489,7 +72698,7 @@
       <c r="X535" s="6">
         <v>4</v>
       </c>
-      <c r="Y535" s="8">
+      <c r="Y535" s="43">
         <v>0.25</v>
       </c>
       <c r="Z535" s="6" t="s">
@@ -73751,24 +73960,24 @@
     </row>
     <row r="552" spans="1:27">
       <c r="A552" s="5" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B552" t="s">
-        <v>488</v>
+        <v>2169</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>493</v>
       </c>
       <c r="C552" s="6" t="s">
-        <v>2128</v>
+        <v>2170</v>
       </c>
       <c r="D552" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G552" s="6">
-        <v>13</v>
-      </c>
-      <c r="I552" s="6">
-        <v>5</v>
-      </c>
-      <c r="K552" s="6">
+        <v>291</v>
+      </c>
+      <c r="H552" s="6">
+        <v>6</v>
+      </c>
+      <c r="M552" s="8">
+        <v>2</v>
+      </c>
+      <c r="N552" s="6">
         <v>2</v>
       </c>
       <c r="Q552" s="8">
@@ -73777,25 +73986,25 @@
     </row>
     <row r="553" spans="1:27">
       <c r="A553" s="5" t="s">
-        <v>2092</v>
-      </c>
-      <c r="B553" s="6" t="s">
-        <v>1673</v>
+        <v>2127</v>
+      </c>
+      <c r="B553" t="s">
+        <v>488</v>
       </c>
       <c r="C553" s="6" t="s">
-        <v>2091</v>
+        <v>2128</v>
       </c>
       <c r="D553" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F553" s="6">
-        <v>12</v>
+        <v>270</v>
+      </c>
+      <c r="G553" s="6">
+        <v>13</v>
+      </c>
+      <c r="I553" s="6">
+        <v>5</v>
       </c>
       <c r="K553" s="6">
-        <v>3</v>
-      </c>
-      <c r="L553" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q553" s="8">
         <v>1</v>
@@ -73803,25 +74012,25 @@
     </row>
     <row r="554" spans="1:27">
       <c r="A554" s="5" t="s">
-        <v>2122</v>
+        <v>2092</v>
       </c>
       <c r="B554" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C554" s="6" t="s">
-        <v>2121</v>
+        <v>2091</v>
       </c>
       <c r="D554" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F554" s="8">
-        <v>8</v>
+      <c r="F554" s="6">
+        <v>12</v>
       </c>
       <c r="K554" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L554" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q554" s="8">
         <v>1</v>
@@ -73829,80 +74038,80 @@
     </row>
     <row r="555" spans="1:27">
       <c r="A555" s="5" t="s">
-        <v>2094</v>
+        <v>2122</v>
       </c>
       <c r="B555" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C555" s="6" t="s">
-        <v>2093</v>
+        <v>2121</v>
       </c>
       <c r="D555" s="7" t="s">
         <v>283</v>
       </c>
       <c r="F555" s="8">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="K555" s="6">
-        <v>3</v>
-      </c>
-      <c r="L555" s="8">
-        <v>4</v>
-      </c>
-      <c r="P555" s="6">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="L555" s="6">
+        <v>2</v>
       </c>
       <c r="Q555" s="8">
         <v>1</v>
-      </c>
-      <c r="R555" s="6">
-        <v>0.25</v>
       </c>
     </row>
     <row r="556" spans="1:27">
       <c r="A556" s="5" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>1687</v>
+        <v>1673</v>
       </c>
       <c r="C556" s="6" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D556" s="7" t="s">
-        <v>1562</v>
+        <v>283</v>
       </c>
       <c r="F556" s="8">
-        <v>10</v>
-      </c>
-      <c r="K556" s="8">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="K556" s="6">
+        <v>3</v>
+      </c>
+      <c r="L556" s="8">
+        <v>4</v>
+      </c>
+      <c r="P556" s="6">
+        <v>6</v>
       </c>
       <c r="Q556" s="8">
         <v>1</v>
+      </c>
+      <c r="R556" s="6">
+        <v>0.25</v>
       </c>
     </row>
     <row r="557" spans="1:27">
       <c r="A557" s="5" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>1673</v>
+        <v>1687</v>
       </c>
       <c r="C557" s="6" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D557" s="7" t="s">
-        <v>283</v>
+        <v>1562</v>
       </c>
       <c r="F557" s="8">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K557" s="8">
-        <v>4</v>
-      </c>
-      <c r="L557" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q557" s="8">
         <v>1</v>
@@ -73910,359 +74119,894 @@
     </row>
     <row r="558" spans="1:27">
       <c r="A558" s="5" t="s">
-        <v>2119</v>
-      </c>
-      <c r="B558" t="s">
-        <v>488</v>
+        <v>2098</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>1673</v>
       </c>
       <c r="C558" s="6" t="s">
-        <v>2120</v>
+        <v>2097</v>
       </c>
       <c r="D558" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F558" s="8"/>
-      <c r="G558" s="6">
-        <v>19</v>
+        <v>283</v>
+      </c>
+      <c r="F558" s="8">
+        <v>28</v>
       </c>
       <c r="K558" s="8">
-        <v>1</v>
-      </c>
-      <c r="L558" s="8"/>
-      <c r="Q558" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="L558" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q558" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="559" spans="1:27">
       <c r="A559" s="5" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B559" s="6" t="s">
-        <v>1673</v>
+        <v>2119</v>
+      </c>
+      <c r="B559" t="s">
+        <v>488</v>
       </c>
       <c r="C559" s="6" t="s">
-        <v>2099</v>
+        <v>2120</v>
       </c>
       <c r="D559" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F559" s="8">
-        <v>32</v>
-      </c>
-      <c r="L559" s="8">
-        <v>4</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="F559" s="8"/>
+      <c r="G559" s="6">
+        <v>19</v>
+      </c>
+      <c r="K559" s="8">
+        <v>1</v>
+      </c>
+      <c r="L559" s="8"/>
       <c r="Q559" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:27">
       <c r="A560" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C560" s="6" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D560" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F560" s="8">
+        <v>32</v>
+      </c>
+      <c r="L560" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q560" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:27">
+      <c r="A561" s="5" t="s">
         <v>2101</v>
       </c>
-      <c r="B560" s="6" t="s">
+      <c r="B561" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C560" s="8" t="s">
+      <c r="C561" s="8" t="s">
         <v>1837</v>
       </c>
-      <c r="D560" s="7" t="s">
+      <c r="D561" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="O560" s="8">
+      <c r="O561" s="8">
         <v>4</v>
       </c>
-      <c r="P560" s="6">
+      <c r="P561" s="6">
         <v>16</v>
       </c>
-      <c r="Q560" s="8">
-        <v>1</v>
-      </c>
-      <c r="V560" s="8">
+      <c r="Q561" s="8">
+        <v>1</v>
+      </c>
+      <c r="V561" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="561" spans="1:22">
-      <c r="A561" s="5" t="s">
+    <row r="562" spans="1:27">
+      <c r="A562" s="5" t="s">
         <v>2124</v>
       </c>
-      <c r="B561" s="6" t="s">
+      <c r="B562" s="6" t="s">
         <v>1673</v>
       </c>
-      <c r="C561" s="6" t="s">
+      <c r="C562" s="6" t="s">
         <v>2123</v>
       </c>
-      <c r="D561" s="7" t="s">
+      <c r="D562" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F561" s="8">
+      <c r="F562" s="8">
         <v>13</v>
       </c>
-      <c r="K561" s="8">
+      <c r="K562" s="8">
         <v>-3</v>
       </c>
-      <c r="L561" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q561" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:22">
-      <c r="A562" s="5" t="s">
+      <c r="L562" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q562" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:27">
+      <c r="A563" s="5" t="s">
         <v>2103</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B563" t="s">
         <v>1675</v>
       </c>
-      <c r="C562" s="6" t="s">
+      <c r="C563" s="6" t="s">
         <v>2102</v>
       </c>
-      <c r="D562" s="7" t="s">
+      <c r="D563" s="7" t="s">
         <v>1563</v>
       </c>
-      <c r="F562" s="8">
+      <c r="F563" s="8">
         <v>19</v>
       </c>
-      <c r="P562" s="6">
+      <c r="P563" s="6">
         <v>17</v>
       </c>
-      <c r="Q562" s="8">
+      <c r="Q563" s="8">
         <v>3.7</v>
       </c>
-      <c r="R562" s="6">
+      <c r="R563" s="6">
         <v>0.8</v>
       </c>
-      <c r="T562" s="8">
+      <c r="T563" s="8">
         <v>21</v>
       </c>
-      <c r="V562" s="8">
+      <c r="V563" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="563" spans="1:22">
-      <c r="A563" s="5" t="s">
+    <row r="564" spans="1:27">
+      <c r="A564" s="5" t="s">
         <v>2105</v>
       </c>
-      <c r="B563" s="6" t="s">
+      <c r="B564" s="6" t="s">
         <v>1673</v>
       </c>
-      <c r="C563" s="6" t="s">
+      <c r="C564" s="6" t="s">
         <v>2104</v>
       </c>
-      <c r="D563" s="7" t="s">
+      <c r="D564" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F563" s="8">
+      <c r="F564" s="8">
         <v>32</v>
       </c>
-      <c r="K563" s="6">
-        <v>1</v>
-      </c>
-      <c r="L563" s="6">
+      <c r="K564" s="6">
+        <v>1</v>
+      </c>
+      <c r="L564" s="6">
         <v>4</v>
       </c>
-      <c r="M563" s="6">
+      <c r="M564" s="6">
         <v>-3</v>
       </c>
-      <c r="Q563" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:22">
-      <c r="A564" s="5" t="s">
+      <c r="Q564" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:27">
+      <c r="A565" s="5" t="s">
         <v>2107</v>
       </c>
-      <c r="B564" s="6" t="s">
+      <c r="B565" s="6" t="s">
         <v>1687</v>
       </c>
-      <c r="C564" s="6" t="s">
+      <c r="C565" s="6" t="s">
         <v>2106</v>
       </c>
-      <c r="D564" s="7" t="s">
+      <c r="D565" s="7" t="s">
         <v>1560</v>
       </c>
-      <c r="F564" s="8">
-        <v>1</v>
-      </c>
-      <c r="K564" s="6">
+      <c r="F565" s="8">
+        <v>1</v>
+      </c>
+      <c r="K565" s="6">
         <v>2</v>
       </c>
-      <c r="M564" s="6">
+      <c r="M565" s="6">
         <v>6</v>
       </c>
-      <c r="Q564" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:22">
-      <c r="A565" s="5" t="s">
+      <c r="Q565" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:27">
+      <c r="A566" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B566" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C566" s="6" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D566" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F566" s="8"/>
+      <c r="O566" s="6">
+        <v>10</v>
+      </c>
+      <c r="P566" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q566" s="8">
+        <v>1</v>
+      </c>
+      <c r="V566" s="6">
+        <v>6</v>
+      </c>
+      <c r="W566" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="Y566" s="44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:27">
+      <c r="A567" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B567" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C567" s="6" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D567" s="29" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F567" s="8">
+        <v>22</v>
+      </c>
+      <c r="Q567" s="8">
+        <v>1</v>
+      </c>
+      <c r="V567" s="6">
+        <v>10</v>
+      </c>
+      <c r="W567" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="AA567" s="6" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="568" spans="1:27">
+      <c r="A568" s="5" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C568" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D568" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F568" s="8">
+        <v>3</v>
+      </c>
+      <c r="K568" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q568" s="8">
+        <v>1</v>
+      </c>
+      <c r="W568" s="5" t="s">
+        <v>2179</v>
+      </c>
+      <c r="AA568" s="6" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="569" spans="1:27">
+      <c r="A569" s="5" t="s">
         <v>2110</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B569" t="s">
         <v>2077</v>
       </c>
-      <c r="C565" s="6" t="s">
+      <c r="C569" s="6" t="s">
         <v>2108</v>
       </c>
-      <c r="D565" s="29" t="s">
+      <c r="D569" s="29" t="s">
         <v>2109</v>
       </c>
-      <c r="F565" s="8">
+      <c r="F569" s="8">
         <v>23</v>
       </c>
-      <c r="P565" s="6">
+      <c r="P569" s="6">
         <v>15</v>
       </c>
-      <c r="Q565" s="8">
+      <c r="Q569" s="8">
         <v>3.7</v>
       </c>
-      <c r="R565" s="6">
+      <c r="R569" s="6">
         <v>0.75</v>
       </c>
-      <c r="S565" s="8">
+      <c r="S569" s="8">
         <v>26</v>
       </c>
-      <c r="V565" s="8">
+      <c r="V569" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="1:22">
-      <c r="A566" s="5" t="s">
+    <row r="570" spans="1:27">
+      <c r="A570" s="5" t="s">
         <v>2112</v>
       </c>
-      <c r="B566" s="6" t="s">
+      <c r="B570" s="6" t="s">
         <v>1687</v>
       </c>
-      <c r="C566" s="6" t="s">
+      <c r="C570" s="6" t="s">
         <v>2111</v>
       </c>
-      <c r="D566" s="7" t="s">
+      <c r="D570" s="7" t="s">
         <v>1560</v>
       </c>
-      <c r="F566" s="8">
+      <c r="F570" s="8">
         <v>6</v>
       </c>
-      <c r="P566" s="8">
+      <c r="P570" s="8">
         <v>6</v>
       </c>
-      <c r="Q566" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:22">
-      <c r="A567" s="5" t="s">
+      <c r="Q570" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:27">
+      <c r="A571" s="5" t="s">
         <v>2126</v>
       </c>
-      <c r="B567" s="6" t="s">
+      <c r="B571" s="6" t="s">
         <v>1673</v>
       </c>
-      <c r="C567" s="6" t="s">
+      <c r="C571" s="6" t="s">
         <v>2125</v>
       </c>
-      <c r="D567" s="7" t="s">
+      <c r="D571" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F567" s="8">
+      <c r="F571" s="8">
         <v>14</v>
       </c>
-      <c r="K567" s="8">
+      <c r="K571" s="8">
         <v>-3</v>
       </c>
-      <c r="L567" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q567" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:22">
-      <c r="A568" s="5" t="s">
+      <c r="L571" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q571" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:27">
+      <c r="A572" s="5" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B572" t="s">
+        <v>488</v>
+      </c>
+      <c r="C572" s="6" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D572" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F572" s="8"/>
+      <c r="G572" s="6">
+        <v>12</v>
+      </c>
+      <c r="K572" s="8"/>
+      <c r="L572" s="8"/>
+      <c r="Q572" s="8">
+        <v>1</v>
+      </c>
+      <c r="W572" s="5" t="s">
+        <v>2184</v>
+      </c>
+      <c r="AA572" s="42" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="573" spans="1:27">
+      <c r="A573" s="5" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B573" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C573" s="8" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D573" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="O573" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q573" s="8">
+        <v>1</v>
+      </c>
+      <c r="V573" s="8">
+        <v>5</v>
+      </c>
+      <c r="W573" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="Y573" s="44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="574" spans="1:27">
+      <c r="A574" s="5" t="s">
         <v>2114</v>
       </c>
-      <c r="B568" s="8" t="s">
+      <c r="B574" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C568" s="6" t="s">
+      <c r="C574" s="6" t="s">
         <v>2113</v>
       </c>
-      <c r="D568" s="7" t="s">
+      <c r="D574" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E568" s="6">
-        <v>1</v>
-      </c>
-      <c r="J568" s="6">
+      <c r="E574" s="6">
+        <v>1</v>
+      </c>
+      <c r="J574" s="6">
         <v>6</v>
       </c>
-      <c r="K568" s="6">
+      <c r="K574" s="6">
         <v>9</v>
       </c>
-      <c r="L568" s="6">
+      <c r="L574" s="6">
         <v>3</v>
       </c>
-      <c r="Q568" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:22">
-      <c r="A569" s="5" t="s">
+      <c r="Q574" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:27">
+      <c r="A575" s="5" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B575" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C575" s="6" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D575" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J575" s="6">
+        <v>5</v>
+      </c>
+      <c r="K575" s="6">
+        <v>1</v>
+      </c>
+      <c r="M575" s="6">
+        <v>3</v>
+      </c>
+      <c r="P575" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q575" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="R575" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="W575" s="5" t="s">
+        <v>2189</v>
+      </c>
+      <c r="Y575" s="44" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AA575" s="42" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="576" spans="1:27">
+      <c r="A576" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B576" t="s">
+        <v>488</v>
+      </c>
+      <c r="C576" s="6" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D576" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G576" s="6">
+        <v>6</v>
+      </c>
+      <c r="M576" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q576" s="8">
+        <v>1</v>
+      </c>
+      <c r="R576" s="8"/>
+      <c r="W576" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="AA576" s="42" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="577" spans="1:27">
+      <c r="A577" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="B569" s="6" t="s">
+      <c r="B577" s="6" t="s">
         <v>1673</v>
       </c>
-      <c r="C569" s="6" t="s">
+      <c r="C577" s="6" t="s">
         <v>2115</v>
       </c>
-      <c r="D569" s="7" t="s">
+      <c r="D577" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F569" s="8">
+      <c r="F577" s="8">
         <v>27</v>
       </c>
-      <c r="K569" s="8">
-        <v>1</v>
-      </c>
-      <c r="L569" s="6">
+      <c r="K577" s="8">
+        <v>1</v>
+      </c>
+      <c r="L577" s="6">
         <v>4</v>
       </c>
-      <c r="P569" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q569" s="8">
-        <v>1</v>
-      </c>
-      <c r="R569" s="6">
+      <c r="P577" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q577" s="8">
+        <v>1</v>
+      </c>
+      <c r="R577" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="570" spans="1:22">
-      <c r="A570" s="5" t="s">
+    <row r="578" spans="1:27">
+      <c r="A578" s="5" t="s">
         <v>2118</v>
       </c>
-      <c r="B570" s="6" t="s">
+      <c r="B578" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C570" s="6" t="s">
+      <c r="C578" s="6" t="s">
         <v>2117</v>
       </c>
-      <c r="D570" s="7" t="s">
+      <c r="D578" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F570" s="8">
+      <c r="F578" s="8">
         <v>3</v>
       </c>
-      <c r="P570" s="8">
+      <c r="P578" s="8">
         <v>14</v>
       </c>
-      <c r="Q570" s="8">
+      <c r="Q578" s="8">
         <v>3.5</v>
       </c>
-      <c r="R570" s="6">
+      <c r="R578" s="6">
         <v>0.5</v>
       </c>
     </row>
+    <row r="579" spans="1:27">
+      <c r="A579" s="5" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B579" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C579" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D579" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F579" s="8"/>
+      <c r="O579" s="6">
+        <v>20</v>
+      </c>
+      <c r="P579" s="8"/>
+      <c r="Q579" s="8">
+        <v>1</v>
+      </c>
+      <c r="V579" s="6">
+        <v>14</v>
+      </c>
+      <c r="W579" s="5" t="s">
+        <v>2201</v>
+      </c>
+      <c r="AA579" s="42" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="580" spans="1:27">
+      <c r="A580" s="5" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B580" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C580" s="6" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D580" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G580" s="6">
+        <v>2</v>
+      </c>
+      <c r="K580" s="8">
+        <v>3</v>
+      </c>
+      <c r="M580" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q580" s="8">
+        <v>1</v>
+      </c>
+      <c r="W580" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="Y580" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="AA580" s="42" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="581" spans="1:27">
+      <c r="A581" s="5" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B581" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C581" s="6" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D581" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J581" s="6">
+        <v>4</v>
+      </c>
+      <c r="K581" s="6">
+        <v>4</v>
+      </c>
+      <c r="P581" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q581" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="R581" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="W581" s="5" t="s">
+        <v>2207</v>
+      </c>
+      <c r="Y581" s="44" t="s">
+        <v>2209</v>
+      </c>
+      <c r="AA581" s="42" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="582" spans="1:27">
+      <c r="A582" s="5" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B582" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C582" s="6" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D582" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F582" s="6">
+        <v>27</v>
+      </c>
+      <c r="K582" s="8">
+        <v>2</v>
+      </c>
+      <c r="L582" s="6">
+        <v>3</v>
+      </c>
+      <c r="P582" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q582" s="8">
+        <v>1</v>
+      </c>
+      <c r="R582" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="583" spans="1:27">
+      <c r="A583" s="5" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B583" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C583" s="8" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D583" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M583" s="6">
+        <v>4</v>
+      </c>
+      <c r="P583" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q583" s="8">
+        <v>1</v>
+      </c>
+      <c r="V583" s="6">
+        <v>8</v>
+      </c>
+      <c r="W583" s="5" t="s">
+        <v>2214</v>
+      </c>
+      <c r="AA583" s="6" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="584" spans="1:27">
+      <c r="A584" s="5" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B584" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C584" s="6" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D584" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F584" s="6">
+        <v>29</v>
+      </c>
+      <c r="L584" s="6">
+        <v>3</v>
+      </c>
+      <c r="P584" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q584" s="8">
+        <v>1</v>
+      </c>
+      <c r="R584" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="585" spans="1:27">
+      <c r="A585" s="5" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B585" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C585" s="8" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D585" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M585" s="6">
+        <v>1</v>
+      </c>
+      <c r="P585" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q585" s="8">
+        <v>1</v>
+      </c>
+      <c r="V585" s="6">
+        <v>5</v>
+      </c>
+      <c r="W585" s="5" t="s">
+        <v>2220</v>
+      </c>
+      <c r="AA585" s="42" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="586" spans="1:27">
+      <c r="A586" s="5" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B586" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C586" s="6" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D586" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F586" s="6">
+        <v>30</v>
+      </c>
+      <c r="K586" s="6">
+        <v>2</v>
+      </c>
+      <c r="L586" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q586" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:27">
+      <c r="A587" s="5" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B587" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C587" s="6" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D587" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F587" s="8">
+        <v>20</v>
+      </c>
+      <c r="K587" s="6">
+        <v>4</v>
+      </c>
+      <c r="L587" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q587" s="8">
+        <v>1</v>
+      </c>
+      <c r="W587" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="AA587" s="42" t="s">
+        <v>2225</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AA570">
+  <autoFilter ref="A1:AA578">
     <sortState ref="A2:AA570">
       <sortCondition ref="A1:A570"/>
     </sortState>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14701" uniqueCount="2227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14704" uniqueCount="2227">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7280,6 +7280,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7291,15 +7300,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8231,10 +8231,10 @@
   <dimension ref="A1:AC98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="S71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="Y29" sqref="Y29:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16559,13 +16559,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC170"/>
+  <dimension ref="A1:AC171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O137" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB148" sqref="AB148"/>
+      <selection pane="bottomRight" activeCell="V136" sqref="V136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -30318,7 +30318,7 @@
         <v>3</v>
       </c>
       <c r="R162" s="13">
-        <f t="shared" ref="R162:R170" si="5">SUM($S162:$V162)</f>
+        <f t="shared" ref="R162:R171" si="5">SUM($S162:$V162)</f>
         <v>0</v>
       </c>
       <c r="S162" s="9">
@@ -31031,6 +31031,94 @@
         <v>114561</v>
       </c>
       <c r="AB170" s="9"/>
+    </row>
+    <row r="171" spans="1:29">
+      <c r="A171" s="3">
+        <v>11483</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="13">
+        <v>80</v>
+      </c>
+      <c r="F171" s="13">
+        <v>45</v>
+      </c>
+      <c r="G171" s="13">
+        <v>0</v>
+      </c>
+      <c r="H171" s="13">
+        <v>96</v>
+      </c>
+      <c r="I171" s="13">
+        <v>101</v>
+      </c>
+      <c r="J171" s="13">
+        <v>0</v>
+      </c>
+      <c r="K171" s="16">
+        <v>97</v>
+      </c>
+      <c r="L171" s="13">
+        <v>66</v>
+      </c>
+      <c r="M171" s="13">
+        <v>78</v>
+      </c>
+      <c r="N171" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="O171" s="13">
+        <v>1</v>
+      </c>
+      <c r="P171" s="13">
+        <v>25</v>
+      </c>
+      <c r="Q171" s="13">
+        <v>4</v>
+      </c>
+      <c r="R171" s="13">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="S171" s="13">
+        <v>20</v>
+      </c>
+      <c r="T171" s="13">
+        <v>21</v>
+      </c>
+      <c r="U171" s="13">
+        <v>15</v>
+      </c>
+      <c r="V171" s="13">
+        <v>11</v>
+      </c>
+      <c r="W171" s="9">
+        <v>75</v>
+      </c>
+      <c r="X171" s="9">
+        <v>90</v>
+      </c>
+      <c r="Y171" s="9">
+        <v>2.88</v>
+      </c>
+      <c r="Z171" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="AA171" s="13">
+        <v>104831</v>
+      </c>
+      <c r="AB171" s="9">
+        <v>114832</v>
+      </c>
+      <c r="AC171" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AC170">
@@ -31428,7 +31516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA587"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E555" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -31444,7 +31532,7 @@
     <col min="5" max="22" width="9" style="6"/>
     <col min="23" max="23" width="9" style="5"/>
     <col min="24" max="24" width="9" style="6" customWidth="1"/>
-    <col min="25" max="25" width="9" style="44"/>
+    <col min="25" max="25" width="9" style="40"/>
     <col min="26" max="26" width="9" style="6"/>
     <col min="27" max="27" width="20.125" style="6" customWidth="1"/>
     <col min="28" max="16384" width="9" style="6"/>
@@ -31523,7 +31611,7 @@
       <c r="X1" s="8" t="s">
         <v>1834</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="39" t="s">
         <v>1690</v>
       </c>
       <c r="Z1" s="8" t="s">
@@ -31784,7 +31872,7 @@
       <c r="W7" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Y7" s="44">
+      <c r="Y7" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -32018,7 +32106,7 @@
       <c r="W13" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Y13" s="44">
+      <c r="Y13" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -32047,7 +32135,7 @@
       <c r="W14" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Y14" s="44">
+      <c r="Y14" s="40">
         <v>0.25</v>
       </c>
     </row>
@@ -42305,7 +42393,7 @@
       <c r="X145" s="6">
         <v>4</v>
       </c>
-      <c r="Y145" s="44">
+      <c r="Y145" s="40">
         <v>0.25</v>
       </c>
       <c r="Z145" s="6" t="s">
@@ -42385,7 +42473,7 @@
       <c r="X146" s="6">
         <v>3</v>
       </c>
-      <c r="Y146" s="44">
+      <c r="Y146" s="40">
         <v>0.2</v>
       </c>
       <c r="Z146" s="6" t="s">
@@ -48060,7 +48148,7 @@
       <c r="X219" s="6">
         <v>5</v>
       </c>
-      <c r="Y219" s="44">
+      <c r="Y219" s="40">
         <v>0.25</v>
       </c>
       <c r="Z219" s="6" t="s">
@@ -50400,7 +50488,7 @@
       <c r="X249" s="6">
         <v>3</v>
       </c>
-      <c r="Y249" s="44">
+      <c r="Y249" s="40">
         <v>0.2</v>
       </c>
       <c r="Z249" s="6" t="s">
@@ -51028,7 +51116,7 @@
       <c r="X257" s="6">
         <v>5</v>
       </c>
-      <c r="Y257" s="43">
+      <c r="Y257" s="39">
         <v>0.1</v>
       </c>
       <c r="Z257" s="6" t="s">
@@ -51878,7 +51966,7 @@
       <c r="X268" s="6">
         <v>3</v>
       </c>
-      <c r="Y268" s="44">
+      <c r="Y268" s="40">
         <v>0.1</v>
       </c>
       <c r="Z268" s="6" t="s">
@@ -52805,7 +52893,7 @@
       <c r="X280" s="6">
         <v>3</v>
       </c>
-      <c r="Y280" s="43">
+      <c r="Y280" s="39">
         <v>0.15</v>
       </c>
       <c r="Z280" s="6" t="s">
@@ -52962,7 +53050,7 @@
       <c r="X282" s="6">
         <v>3</v>
       </c>
-      <c r="Y282" s="43">
+      <c r="Y282" s="39">
         <v>0.05</v>
       </c>
       <c r="Z282" s="6" t="s">
@@ -58889,7 +58977,7 @@
       <c r="X358" s="6">
         <v>12</v>
       </c>
-      <c r="Y358" s="43">
+      <c r="Y358" s="39">
         <v>-0.1</v>
       </c>
       <c r="Z358" s="6" t="s">
@@ -60589,7 +60677,7 @@
       <c r="X380" s="6">
         <v>3</v>
       </c>
-      <c r="Y380" s="43">
+      <c r="Y380" s="39">
         <v>0.25</v>
       </c>
       <c r="Z380" s="6" t="s">
@@ -61054,7 +61142,7 @@
       <c r="X386" s="6">
         <v>3</v>
       </c>
-      <c r="Y386" s="43">
+      <c r="Y386" s="39">
         <v>0.1</v>
       </c>
       <c r="Z386" s="6" t="s">
@@ -61214,7 +61302,7 @@
       <c r="X388" s="6">
         <v>12</v>
       </c>
-      <c r="Y388" s="43">
+      <c r="Y388" s="39">
         <v>-0.05</v>
       </c>
       <c r="Z388" s="6" t="s">
@@ -63163,7 +63251,7 @@
       <c r="X413" s="6">
         <v>5</v>
       </c>
-      <c r="Y413" s="43">
+      <c r="Y413" s="39">
         <v>0.2</v>
       </c>
       <c r="Z413" s="6" t="s">
@@ -63631,7 +63719,7 @@
       <c r="X419" s="6">
         <v>3</v>
       </c>
-      <c r="Y419" s="43">
+      <c r="Y419" s="39">
         <v>0.15</v>
       </c>
       <c r="Z419" s="6" t="s">
@@ -64259,7 +64347,7 @@
       <c r="X427" s="6">
         <v>4</v>
       </c>
-      <c r="Y427" s="43">
+      <c r="Y427" s="39">
         <v>0.1</v>
       </c>
       <c r="Z427" s="6" t="s">
@@ -64419,7 +64507,7 @@
       <c r="X429" s="6">
         <v>3</v>
       </c>
-      <c r="Y429" s="43">
+      <c r="Y429" s="39">
         <v>0.1</v>
       </c>
       <c r="Z429" s="6" t="s">
@@ -66439,7 +66527,7 @@
       <c r="X455" s="6">
         <v>12</v>
       </c>
-      <c r="Y455" s="43">
+      <c r="Y455" s="39">
         <v>-0.15</v>
       </c>
       <c r="Z455" s="6" t="s">
@@ -69638,7 +69726,7 @@
       <c r="X496" s="6">
         <v>12</v>
       </c>
-      <c r="Y496" s="43">
+      <c r="Y496" s="39">
         <v>-0.05</v>
       </c>
       <c r="Z496" s="6" t="s">
@@ -71525,7 +71613,7 @@
       <c r="X520" s="6">
         <v>12</v>
       </c>
-      <c r="Y520" s="43">
+      <c r="Y520" s="39">
         <v>-0.15</v>
       </c>
       <c r="Z520" s="6" t="s">
@@ -71919,7 +72007,7 @@
       <c r="X525" s="6">
         <v>3</v>
       </c>
-      <c r="Y525" s="43">
+      <c r="Y525" s="39">
         <v>0.25</v>
       </c>
       <c r="Z525" s="6" t="s">
@@ -72698,7 +72786,7 @@
       <c r="X535" s="6">
         <v>4</v>
       </c>
-      <c r="Y535" s="43">
+      <c r="Y535" s="39">
         <v>0.25</v>
       </c>
       <c r="Z535" s="6" t="s">
@@ -74359,7 +74447,7 @@
       <c r="W566" s="5" t="s">
         <v>2173</v>
       </c>
-      <c r="Y566" s="44">
+      <c r="Y566" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -74527,7 +74615,7 @@
       <c r="W572" s="5" t="s">
         <v>2184</v>
       </c>
-      <c r="AA572" s="42" t="s">
+      <c r="AA572" s="38" t="s">
         <v>2185</v>
       </c>
     </row>
@@ -74556,7 +74644,7 @@
       <c r="W573" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Y573" s="44">
+      <c r="Y573" s="40">
         <v>0.25</v>
       </c>
     </row>
@@ -74623,10 +74711,10 @@
       <c r="W575" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="Y575" s="44" t="s">
+      <c r="Y575" s="40" t="s">
         <v>2190</v>
       </c>
-      <c r="AA575" s="42" t="s">
+      <c r="AA575" s="38" t="s">
         <v>2191</v>
       </c>
     </row>
@@ -74656,7 +74744,7 @@
       <c r="W576" s="5" t="s">
         <v>2194</v>
       </c>
-      <c r="AA576" s="42" t="s">
+      <c r="AA576" s="38" t="s">
         <v>2195</v>
       </c>
     </row>
@@ -74745,7 +74833,7 @@
       <c r="W579" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="AA579" s="42" t="s">
+      <c r="AA579" s="38" t="s">
         <v>2203</v>
       </c>
     </row>
@@ -74777,10 +74865,10 @@
       <c r="W580" s="5" t="s">
         <v>2198</v>
       </c>
-      <c r="Y580" s="44">
+      <c r="Y580" s="40">
         <v>0.25</v>
       </c>
-      <c r="AA580" s="42" t="s">
+      <c r="AA580" s="38" t="s">
         <v>2204</v>
       </c>
     </row>
@@ -74815,10 +74903,10 @@
       <c r="W581" s="5" t="s">
         <v>2207</v>
       </c>
-      <c r="Y581" s="44" t="s">
+      <c r="Y581" s="40" t="s">
         <v>2209</v>
       </c>
-      <c r="AA581" s="42" t="s">
+      <c r="AA581" s="38" t="s">
         <v>2208</v>
       </c>
     </row>
@@ -74943,7 +75031,7 @@
       <c r="W585" s="5" t="s">
         <v>2220</v>
       </c>
-      <c r="AA585" s="42" t="s">
+      <c r="AA585" s="38" t="s">
         <v>2221</v>
       </c>
     </row>
@@ -75001,7 +75089,7 @@
       <c r="W587" s="5" t="s">
         <v>2224</v>
       </c>
-      <c r="AA587" s="42" t="s">
+      <c r="AA587" s="38" t="s">
         <v>2225</v>
       </c>
     </row>
@@ -93281,57 +93369,57 @@
       <c r="E1" s="3" t="s">
         <v>2139</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="44" t="s">
         <v>2130</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="38" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="41" t="s">
         <v>2131</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="41" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44" t="s">
         <v>2132</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="38" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="41" t="s">
         <v>2133</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44" t="s">
         <v>2134</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="38" t="s">
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="41" t="s">
         <v>2135</v>
       </c>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="40"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="43"/>
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="2" t="s">

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="海图" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$171</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$193</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$578</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14704" uniqueCount="2227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14729" uniqueCount="2243">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5991,10 +5991,6 @@
   </si>
   <si>
     <t>大淀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大淀</t>
   </si>
   <si>
     <t>山城</t>
@@ -7076,6 +7072,67 @@
   </si>
   <si>
     <t>英国双联15英寸主炮（BM）</t>
+  </si>
+  <si>
+    <t>大淀（苍青）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_seven</t>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙大拿</t>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近江</t>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏威夷</t>
+  </si>
+  <si>
+    <t>但丁</t>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺福克</t>
   </si>
 </sst>
 </file>
@@ -7241,9 +7298,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7300,6 +7354,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8228,20 +8285,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC98"/>
+  <dimension ref="A1:AC103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y29" sqref="Y29:Z29"/>
+      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="13"/>
     <col min="3" max="3" width="18.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="13"/>
+    <col min="4" max="28" width="9" style="13"/>
+    <col min="29" max="29" width="9" style="9"/>
+    <col min="30" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -8386,7 +8445,7 @@
         <v>4</v>
       </c>
       <c r="R2" s="13">
-        <f t="shared" ref="R2:R47" si="0">SUM($S2:$V2)</f>
+        <f>SUM($S2:$V2)</f>
         <v>76</v>
       </c>
       <c r="S2" s="13">
@@ -8467,7 +8526,7 @@
         <v>4</v>
       </c>
       <c r="R3" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S3:$V3)</f>
         <v>90</v>
       </c>
       <c r="S3" s="13">
@@ -8548,7 +8607,7 @@
         <v>4</v>
       </c>
       <c r="R4" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S4:$V4)</f>
         <v>80</v>
       </c>
       <c r="S4" s="13">
@@ -8629,7 +8688,7 @@
         <v>4</v>
       </c>
       <c r="R5" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S5:$V5)</f>
         <v>80</v>
       </c>
       <c r="S5" s="13">
@@ -8710,7 +8769,7 @@
         <v>4</v>
       </c>
       <c r="R6" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S6:$V6)</f>
         <v>75</v>
       </c>
       <c r="S6" s="13">
@@ -8791,7 +8850,7 @@
         <v>4</v>
       </c>
       <c r="R7" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S7:$V7)</f>
         <v>8</v>
       </c>
       <c r="S7" s="9">
@@ -8822,7 +8881,6 @@
         <v>111001</v>
       </c>
       <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="3">
@@ -8877,7 +8935,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S8:$V8)</f>
         <v>0</v>
       </c>
       <c r="S8" s="9">
@@ -8908,7 +8966,6 @@
         <v>111051</v>
       </c>
       <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="3">
@@ -8963,7 +9020,7 @@
         <v>4</v>
       </c>
       <c r="R9" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S9:$V9)</f>
         <v>12</v>
       </c>
       <c r="S9" s="9">
@@ -8994,7 +9051,6 @@
         <v>111131</v>
       </c>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="3">
@@ -9049,7 +9105,7 @@
         <v>4</v>
       </c>
       <c r="R10" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S10:$V10)</f>
         <v>60</v>
       </c>
       <c r="S10" s="13">
@@ -9133,7 +9189,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S11:$V11)</f>
         <v>48</v>
       </c>
       <c r="S11" s="13">
@@ -9214,7 +9270,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S12:$V12)</f>
         <v>72</v>
       </c>
       <c r="S12" s="13">
@@ -9298,7 +9354,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S13:$V13)</f>
         <v>75</v>
       </c>
       <c r="S13" s="13">
@@ -9379,7 +9435,7 @@
         <v>4</v>
       </c>
       <c r="R14" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S14:$V14)</f>
         <v>75</v>
       </c>
       <c r="S14" s="13">
@@ -9463,7 +9519,7 @@
         <v>4</v>
       </c>
       <c r="R15" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S15:$V15)</f>
         <v>16</v>
       </c>
       <c r="S15" s="9">
@@ -9494,7 +9550,6 @@
         <v>102001</v>
       </c>
       <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="3">
@@ -9549,7 +9604,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S16:$V16)</f>
         <v>16</v>
       </c>
       <c r="S16" s="9">
@@ -9580,7 +9635,6 @@
         <v>102051</v>
       </c>
       <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="3">
@@ -9635,7 +9689,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S17:$V17)</f>
         <v>12</v>
       </c>
       <c r="S17" s="9">
@@ -9666,7 +9720,6 @@
         <v>112061</v>
       </c>
       <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="3">
@@ -9721,7 +9774,7 @@
         <v>4</v>
       </c>
       <c r="R18" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S18:$V18)</f>
         <v>12</v>
       </c>
       <c r="S18" s="9">
@@ -9752,7 +9805,6 @@
         <v>112071</v>
       </c>
       <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="3">
@@ -9807,7 +9859,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S19:$V19)</f>
         <v>12</v>
       </c>
       <c r="S19" s="9">
@@ -9838,7 +9890,6 @@
         <v>102081</v>
       </c>
       <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="3">
@@ -9893,7 +9944,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S20:$V20)</f>
         <v>12</v>
       </c>
       <c r="S20" s="9">
@@ -9924,7 +9975,6 @@
         <v>102091</v>
       </c>
       <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="3">
@@ -9979,7 +10029,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S21:$V21)</f>
         <v>12</v>
       </c>
       <c r="S21" s="9">
@@ -10010,7 +10060,6 @@
         <v>102101</v>
       </c>
       <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="3">
@@ -10065,7 +10114,7 @@
         <v>4</v>
       </c>
       <c r="R22" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S22:$V22)</f>
         <v>12</v>
       </c>
       <c r="S22" s="9">
@@ -10096,7 +10145,6 @@
         <v>102131</v>
       </c>
       <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="3">
@@ -10151,7 +10199,7 @@
         <v>4</v>
       </c>
       <c r="R23" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S23:$V23)</f>
         <v>16</v>
       </c>
       <c r="S23" s="9">
@@ -10182,7 +10230,6 @@
         <v>102141</v>
       </c>
       <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="3">
@@ -10237,7 +10284,7 @@
         <v>4</v>
       </c>
       <c r="R24" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S24:$V24)</f>
         <v>78</v>
       </c>
       <c r="S24" s="13">
@@ -10318,7 +10365,7 @@
         <v>4</v>
       </c>
       <c r="R25" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S25:$V25)</f>
         <v>78</v>
       </c>
       <c r="S25" s="13">
@@ -10399,7 +10446,7 @@
         <v>4</v>
       </c>
       <c r="R26" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S26:$V26)</f>
         <v>63</v>
       </c>
       <c r="S26" s="13">
@@ -10480,7 +10527,7 @@
         <v>4</v>
       </c>
       <c r="R27" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S27:$V27)</f>
         <v>63</v>
       </c>
       <c r="S27" s="13">
@@ -10561,7 +10608,7 @@
         <v>4</v>
       </c>
       <c r="R28" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S28:$V28)</f>
         <v>59</v>
       </c>
       <c r="S28" s="13">
@@ -10645,7 +10692,7 @@
         <v>4</v>
       </c>
       <c r="R29" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S29:$V29)</f>
         <v>57</v>
       </c>
       <c r="S29" s="13">
@@ -10729,7 +10776,7 @@
         <v>4</v>
       </c>
       <c r="R30" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S30:$V30)</f>
         <v>70</v>
       </c>
       <c r="S30" s="13">
@@ -10810,7 +10857,7 @@
         <v>4</v>
       </c>
       <c r="R31" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S31:$V31)</f>
         <v>90</v>
       </c>
       <c r="S31" s="13">
@@ -10840,7 +10887,7 @@
       <c r="AA31" s="13">
         <v>102261</v>
       </c>
-      <c r="AC31" s="13" t="s">
+      <c r="AC31" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10897,7 +10944,7 @@
         <v>4</v>
       </c>
       <c r="R32" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S32:$V32)</f>
         <v>40</v>
       </c>
       <c r="S32" s="13">
@@ -10978,7 +11025,7 @@
         <v>3</v>
       </c>
       <c r="R33" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S33:$V33)</f>
         <v>6</v>
       </c>
       <c r="S33" s="9">
@@ -11009,7 +11056,6 @@
         <v>112411</v>
       </c>
       <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="3">
@@ -11064,7 +11110,7 @@
         <v>3</v>
       </c>
       <c r="R34" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S34:$V34)</f>
         <v>9</v>
       </c>
       <c r="S34" s="9">
@@ -11095,7 +11141,6 @@
         <v>102431</v>
       </c>
       <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
     </row>
     <row r="35" spans="1:29">
       <c r="A35" s="3">
@@ -11150,7 +11195,7 @@
         <v>4</v>
       </c>
       <c r="R35" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S35:$V35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="9">
@@ -11181,7 +11226,6 @@
         <v>102991</v>
       </c>
       <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="3">
@@ -11236,7 +11280,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S36:$V36)</f>
         <v>16</v>
       </c>
       <c r="S36" s="9">
@@ -11267,7 +11311,6 @@
         <v>103051</v>
       </c>
       <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="3">
@@ -11322,7 +11365,7 @@
         <v>4</v>
       </c>
       <c r="R37" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S37:$V37)</f>
         <v>66</v>
       </c>
       <c r="S37" s="13">
@@ -11406,7 +11449,7 @@
         <v>4</v>
       </c>
       <c r="R38" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S38:$V38)</f>
         <v>90</v>
       </c>
       <c r="S38" s="13">
@@ -11436,7 +11479,7 @@
       <c r="AA38" s="13">
         <v>103251</v>
       </c>
-      <c r="AC38" s="13" t="s">
+      <c r="AC38" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11448,7 +11491,7 @@
         <v>211</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>69</v>
@@ -11493,7 +11536,7 @@
         <v>4</v>
       </c>
       <c r="R39" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S39:$V39)</f>
         <v>0</v>
       </c>
       <c r="S39" s="9">
@@ -11577,7 +11620,7 @@
         <v>4</v>
       </c>
       <c r="R40" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S40:$V40)</f>
         <v>66</v>
       </c>
       <c r="S40" s="13">
@@ -11661,7 +11704,7 @@
         <v>4</v>
       </c>
       <c r="R41" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S41:$V41)</f>
         <v>75</v>
       </c>
       <c r="S41" s="13">
@@ -11697,13 +11740,13 @@
         <v>10343</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>2051</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>2052</v>
       </c>
       <c r="E42" s="13">
         <v>16</v>
@@ -11745,7 +11788,7 @@
         <v>3</v>
       </c>
       <c r="R42" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S42:$V42)</f>
         <v>24</v>
       </c>
       <c r="S42" s="13">
@@ -11826,7 +11869,7 @@
         <v>4</v>
       </c>
       <c r="R43" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S43:$V43)</f>
         <v>12</v>
       </c>
       <c r="S43" s="9">
@@ -11857,7 +11900,6 @@
         <v>103451</v>
       </c>
       <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="3">
@@ -11912,7 +11954,7 @@
         <v>3</v>
       </c>
       <c r="R44" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S44:$V44)</f>
         <v>0</v>
       </c>
       <c r="S44" s="9">
@@ -11939,9 +11981,10 @@
       <c r="Z44" s="9">
         <v>3.8</v>
       </c>
-      <c r="AA44" s="9"/>
+      <c r="AA44" s="9">
+        <v>103521</v>
+      </c>
       <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="3">
@@ -11951,7 +11994,7 @@
         <v>211</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>67</v>
@@ -11996,7 +12039,7 @@
         <v>4</v>
       </c>
       <c r="R45" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S45:$V45)</f>
         <v>6</v>
       </c>
       <c r="S45" s="9">
@@ -12080,7 +12123,7 @@
         <v>3</v>
       </c>
       <c r="R46" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S46:$V46)</f>
         <v>6</v>
       </c>
       <c r="S46" s="9">
@@ -12107,22 +12150,23 @@
       <c r="Z46" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA46" s="9"/>
+      <c r="AA46" s="9">
+        <v>103571</v>
+      </c>
       <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="3">
         <v>10363</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>2053</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>2054</v>
       </c>
       <c r="E47" s="13">
         <v>26</v>
@@ -12164,7 +12208,7 @@
         <v>3</v>
       </c>
       <c r="R47" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S47:$V47)</f>
         <v>24</v>
       </c>
       <c r="S47" s="13">
@@ -12197,13 +12241,13 @@
         <v>10366</v>
       </c>
       <c r="B48" s="13" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>2073</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>2074</v>
-      </c>
       <c r="D48" s="13" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E48" s="13">
         <v>24</v>
@@ -12328,7 +12372,7 @@
         <v>4</v>
       </c>
       <c r="R49" s="13">
-        <f t="shared" ref="R49:R78" si="1">SUM($S49:$V49)</f>
+        <f>SUM($S49:$V49)</f>
         <v>16</v>
       </c>
       <c r="S49" s="9">
@@ -12359,7 +12403,6 @@
         <v>103671</v>
       </c>
       <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="3">
@@ -12414,7 +12457,7 @@
         <v>4</v>
       </c>
       <c r="R50" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S50:$V50)</f>
         <v>57</v>
       </c>
       <c r="S50" s="13">
@@ -12498,7 +12541,7 @@
         <v>4</v>
       </c>
       <c r="R51" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S51:$V51)</f>
         <v>92</v>
       </c>
       <c r="S51" s="13">
@@ -12528,7 +12571,7 @@
       <c r="AA51" s="13">
         <v>103741</v>
       </c>
-      <c r="AC51" s="13" t="s">
+      <c r="AC51" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -12537,13 +12580,13 @@
         <v>10377</v>
       </c>
       <c r="B52" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C52" t="s">
         <v>2078</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>2079</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2080</v>
       </c>
       <c r="E52">
         <v>24</v>
@@ -12584,8 +12627,8 @@
       <c r="Q52">
         <v>3</v>
       </c>
-      <c r="R52" s="26">
-        <f t="shared" si="1"/>
+      <c r="R52" s="25">
+        <f>SUM($S52:$V52)</f>
         <v>0</v>
       </c>
       <c r="S52">
@@ -12669,7 +12712,7 @@
         <v>4</v>
       </c>
       <c r="R53" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S53:$V53)</f>
         <v>0</v>
       </c>
       <c r="S53" s="9">
@@ -12700,7 +12743,6 @@
         <v>113801</v>
       </c>
       <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
     </row>
     <row r="54" spans="1:29">
       <c r="A54" s="20">
@@ -12755,7 +12797,7 @@
         <v>4</v>
       </c>
       <c r="R54" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S54:$V54)</f>
         <v>12</v>
       </c>
       <c r="S54" s="15">
@@ -12786,7 +12828,6 @@
         <v>102811</v>
       </c>
       <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="3">
@@ -12841,7 +12882,7 @@
         <v>3</v>
       </c>
       <c r="R55" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S55:$V55)</f>
         <v>9</v>
       </c>
       <c r="S55" s="9">
@@ -12868,22 +12909,23 @@
       <c r="Z55" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA55" s="9"/>
+      <c r="AA55" s="9">
+        <v>103881</v>
+      </c>
       <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="3">
         <v>10391</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E56" s="13">
         <v>24</v>
@@ -12925,7 +12967,7 @@
         <v>2</v>
       </c>
       <c r="R56" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S56:$V56)</f>
         <v>40</v>
       </c>
       <c r="S56" s="13">
@@ -12961,7 +13003,7 @@
         <v>211</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>81</v>
@@ -13006,7 +13048,7 @@
         <v>4</v>
       </c>
       <c r="R57" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S57:$V57)</f>
         <v>0</v>
       </c>
       <c r="S57" s="15">
@@ -13042,13 +13084,13 @@
         <v>10401</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="E58" s="13">
         <v>28</v>
@@ -13090,7 +13132,7 @@
         <v>3</v>
       </c>
       <c r="R58" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S58:$V58)</f>
         <v>24</v>
       </c>
       <c r="S58" s="13">
@@ -13123,13 +13165,13 @@
         <v>10403</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C59" s="13" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>2057</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>2058</v>
       </c>
       <c r="E59" s="13">
         <v>28</v>
@@ -13171,7 +13213,7 @@
         <v>3</v>
       </c>
       <c r="R59" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S59:$V59)</f>
         <v>24</v>
       </c>
       <c r="S59" s="13">
@@ -13252,7 +13294,7 @@
         <v>4</v>
       </c>
       <c r="R60" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S60:$V60)</f>
         <v>81</v>
       </c>
       <c r="S60" s="13">
@@ -13288,13 +13330,13 @@
         <v>10407</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C61" s="13" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>2059</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>2060</v>
       </c>
       <c r="E61" s="13">
         <v>24</v>
@@ -13336,7 +13378,7 @@
         <v>2</v>
       </c>
       <c r="R61" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S61:$V61)</f>
         <v>40</v>
       </c>
       <c r="S61" s="13">
@@ -13417,7 +13459,7 @@
         <v>4</v>
       </c>
       <c r="R62" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S62:$V62)</f>
         <v>12</v>
       </c>
       <c r="S62" s="15">
@@ -13448,7 +13490,6 @@
         <v>104091</v>
       </c>
       <c r="AB62" s="9"/>
-      <c r="AC62" s="9"/>
     </row>
     <row r="63" spans="1:29">
       <c r="A63" s="3">
@@ -13503,7 +13544,7 @@
         <v>3</v>
       </c>
       <c r="R63" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S63:$V63)</f>
         <v>9</v>
       </c>
       <c r="S63" s="9">
@@ -13534,7 +13575,6 @@
         <v>104101</v>
       </c>
       <c r="AB63" s="9"/>
-      <c r="AC63" s="9"/>
     </row>
     <row r="64" spans="1:29">
       <c r="A64" s="20">
@@ -13589,7 +13629,7 @@
         <v>4</v>
       </c>
       <c r="R64" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S64:$V64)</f>
         <v>0</v>
       </c>
       <c r="S64" s="15">
@@ -13620,7 +13660,6 @@
         <v>104181</v>
       </c>
       <c r="AB64" s="9"/>
-      <c r="AC64" s="9"/>
     </row>
     <row r="65" spans="1:29">
       <c r="A65" s="3">
@@ -13675,7 +13714,7 @@
         <v>3</v>
       </c>
       <c r="R65" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S65:$V65)</f>
         <v>0</v>
       </c>
       <c r="S65" s="9">
@@ -13702,9 +13741,10 @@
       <c r="Z65" s="9">
         <v>1.8</v>
       </c>
-      <c r="AA65" s="9"/>
+      <c r="AA65" s="9">
+        <v>104201</v>
+      </c>
       <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
     </row>
     <row r="66" spans="1:29">
       <c r="A66" s="3">
@@ -13759,7 +13799,7 @@
         <v>3</v>
       </c>
       <c r="R66" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S66:$V66)</f>
         <v>9</v>
       </c>
       <c r="S66" s="9">
@@ -13790,7 +13830,6 @@
         <v>104221</v>
       </c>
       <c r="AB66" s="9"/>
-      <c r="AC66" s="9"/>
     </row>
     <row r="67" spans="1:29">
       <c r="A67" s="3">
@@ -13845,7 +13884,7 @@
         <v>4</v>
       </c>
       <c r="R67" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S67:$V67)</f>
         <v>62</v>
       </c>
       <c r="S67" s="13">
@@ -13929,7 +13968,7 @@
         <v>4</v>
       </c>
       <c r="R68" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S68:$V68)</f>
         <v>90</v>
       </c>
       <c r="S68" s="13">
@@ -13959,7 +13998,7 @@
       <c r="AA68" s="13">
         <v>104331</v>
       </c>
-      <c r="AC68" s="13" t="s">
+      <c r="AC68" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -13971,7 +14010,7 @@
         <v>211</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>3</v>
@@ -14016,7 +14055,7 @@
         <v>4</v>
       </c>
       <c r="R69" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S69:$V69)</f>
         <v>12</v>
       </c>
       <c r="S69" s="15">
@@ -14055,7 +14094,7 @@
         <v>211</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>3</v>
@@ -14100,7 +14139,7 @@
         <v>4</v>
       </c>
       <c r="R70" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S70:$V70)</f>
         <v>12</v>
       </c>
       <c r="S70" s="15">
@@ -14184,7 +14223,7 @@
         <v>3</v>
       </c>
       <c r="R71" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S71:$V71)</f>
         <v>9</v>
       </c>
       <c r="S71" s="9">
@@ -14211,9 +14250,10 @@
       <c r="Z71" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA71" s="9"/>
+      <c r="AA71" s="9">
+        <v>104381</v>
+      </c>
       <c r="AB71" s="9"/>
-      <c r="AC71" s="9"/>
     </row>
     <row r="72" spans="1:29">
       <c r="A72" s="20">
@@ -14268,7 +14308,7 @@
         <v>4</v>
       </c>
       <c r="R72" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S72:$V72)</f>
         <v>0</v>
       </c>
       <c r="S72" s="15">
@@ -14299,7 +14339,6 @@
         <v>104421</v>
       </c>
       <c r="AB72" s="9"/>
-      <c r="AC72" s="9"/>
     </row>
     <row r="73" spans="1:29">
       <c r="A73" s="20">
@@ -14309,7 +14348,7 @@
         <v>211</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>69</v>
@@ -14354,7 +14393,7 @@
         <v>4</v>
       </c>
       <c r="R73" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S73:$V73)</f>
         <v>0</v>
       </c>
       <c r="S73" s="15">
@@ -14438,7 +14477,7 @@
         <v>4</v>
       </c>
       <c r="R74" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S74:$V74)</f>
         <v>9</v>
       </c>
       <c r="S74" s="15">
@@ -14469,7 +14508,6 @@
         <v>104481</v>
       </c>
       <c r="AB74" s="9"/>
-      <c r="AC74" s="9"/>
     </row>
     <row r="75" spans="1:29">
       <c r="A75" s="20">
@@ -14524,7 +14562,7 @@
         <v>4</v>
       </c>
       <c r="R75" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S75:$V75)</f>
         <v>0</v>
       </c>
       <c r="S75" s="15">
@@ -14555,7 +14593,6 @@
         <v>104501</v>
       </c>
       <c r="AB75" s="9"/>
-      <c r="AC75" s="9"/>
     </row>
     <row r="76" spans="1:29">
       <c r="A76" s="3">
@@ -14610,7 +14647,7 @@
         <v>3</v>
       </c>
       <c r="R76" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S76:$V76)</f>
         <v>9</v>
       </c>
       <c r="S76" s="9">
@@ -14637,9 +14674,10 @@
       <c r="Z76" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA76" s="9"/>
+      <c r="AA76" s="9">
+        <v>104511</v>
+      </c>
       <c r="AB76" s="9"/>
-      <c r="AC76" s="9"/>
     </row>
     <row r="77" spans="1:29">
       <c r="A77" s="20">
@@ -14694,7 +14732,7 @@
         <v>4</v>
       </c>
       <c r="R77" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S77:$V77)</f>
         <v>0</v>
       </c>
       <c r="S77" s="15">
@@ -14725,7 +14763,6 @@
         <v>104541</v>
       </c>
       <c r="AB77" s="9"/>
-      <c r="AC77" s="9"/>
     </row>
     <row r="78" spans="1:29">
       <c r="A78" s="3">
@@ -14780,7 +14817,7 @@
         <v>4</v>
       </c>
       <c r="R78" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S78:$V78)</f>
         <v>83</v>
       </c>
       <c r="S78" s="13">
@@ -14816,13 +14853,13 @@
         <v>10458</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C79" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>2075</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>2076</v>
       </c>
       <c r="E79" s="13">
         <v>8</v>
@@ -14947,7 +14984,7 @@
         <v>4</v>
       </c>
       <c r="R80" s="13">
-        <f t="shared" ref="R80:R98" si="2">SUM($S80:$V80)</f>
+        <f>SUM($S80:$V80)</f>
         <v>12</v>
       </c>
       <c r="S80" s="15">
@@ -14978,7 +15015,6 @@
         <v>104601</v>
       </c>
       <c r="AB80" s="9"/>
-      <c r="AC80" s="9"/>
     </row>
     <row r="81" spans="1:29">
       <c r="A81" s="20">
@@ -14988,7 +15024,7 @@
         <v>211</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>69</v>
@@ -15033,7 +15069,7 @@
         <v>4</v>
       </c>
       <c r="R81" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S81:$V81)</f>
         <v>0</v>
       </c>
       <c r="S81" s="15">
@@ -15117,7 +15153,7 @@
         <v>4</v>
       </c>
       <c r="R82" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S82:$V82)</f>
         <v>0</v>
       </c>
       <c r="S82" s="15">
@@ -15148,20 +15184,19 @@
         <v>104641</v>
       </c>
       <c r="AB82" s="9"/>
-      <c r="AC82" s="9"/>
     </row>
     <row r="83" spans="1:29">
       <c r="A83" s="3">
         <v>10467</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>2045</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>2061</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>2046</v>
       </c>
       <c r="E83" s="13">
         <v>20</v>
@@ -15203,7 +15238,7 @@
         <v>3</v>
       </c>
       <c r="R83" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S83:$V83)</f>
         <v>24</v>
       </c>
       <c r="S83" s="13">
@@ -15287,7 +15322,7 @@
         <v>4</v>
       </c>
       <c r="R84" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S84:$V84)</f>
         <v>0</v>
       </c>
       <c r="S84" s="15">
@@ -15318,7 +15353,6 @@
         <v>104681</v>
       </c>
       <c r="AB84" s="9"/>
-      <c r="AC84" s="9"/>
     </row>
     <row r="85" spans="1:29">
       <c r="A85" s="3">
@@ -15373,7 +15407,7 @@
         <v>4</v>
       </c>
       <c r="R85" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S85:$V85)</f>
         <v>91</v>
       </c>
       <c r="S85" s="13">
@@ -15403,7 +15437,7 @@
       <c r="AA85" s="13">
         <v>104691</v>
       </c>
-      <c r="AC85" s="13" t="s">
+      <c r="AC85" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -15460,7 +15494,7 @@
         <v>4</v>
       </c>
       <c r="R86" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S86:$V86)</f>
         <v>51</v>
       </c>
       <c r="S86" s="13">
@@ -15544,7 +15578,7 @@
         <v>4</v>
       </c>
       <c r="R87" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S87:$V87)</f>
         <v>48</v>
       </c>
       <c r="S87" s="13">
@@ -15625,7 +15659,7 @@
         <v>4</v>
       </c>
       <c r="R88" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S88:$V88)</f>
         <v>72</v>
       </c>
       <c r="S88" s="13">
@@ -15664,7 +15698,7 @@
         <v>205</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>1898</v>
+        <v>2226</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
@@ -15709,7 +15743,7 @@
         <v>3</v>
       </c>
       <c r="R89" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S89:$V89)</f>
         <v>18</v>
       </c>
       <c r="S89" s="9">
@@ -15736,9 +15770,10 @@
       <c r="Z89" s="9">
         <v>1.5</v>
       </c>
-      <c r="AA89" s="9"/>
+      <c r="AA89" s="9">
+        <v>104821</v>
+      </c>
       <c r="AB89" s="9"/>
-      <c r="AC89" s="9"/>
     </row>
     <row r="90" spans="1:29">
       <c r="A90" s="3">
@@ -15793,7 +15828,7 @@
         <v>4</v>
       </c>
       <c r="R90" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S90:$V90)</f>
         <v>59</v>
       </c>
       <c r="S90" s="13">
@@ -15832,7 +15867,7 @@
         <v>211</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>69</v>
@@ -15877,7 +15912,7 @@
         <v>4</v>
       </c>
       <c r="R91" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S91:$V91)</f>
         <v>0</v>
       </c>
       <c r="S91" s="9">
@@ -15961,7 +15996,7 @@
         <v>4</v>
       </c>
       <c r="R92" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S92:$V92)</f>
         <v>75</v>
       </c>
       <c r="S92" s="13">
@@ -16000,7 +16035,7 @@
         <v>211</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>68</v>
@@ -16045,7 +16080,7 @@
         <v>4</v>
       </c>
       <c r="R93" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S93:$V93)</f>
         <v>12</v>
       </c>
       <c r="S93" s="9">
@@ -16129,7 +16164,7 @@
         <v>4</v>
       </c>
       <c r="R94" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S94:$V94)</f>
         <v>78</v>
       </c>
       <c r="S94" s="13">
@@ -16213,7 +16248,7 @@
         <v>4</v>
       </c>
       <c r="R95" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S95:$V95)</f>
         <v>90</v>
       </c>
       <c r="S95" s="13">
@@ -16243,7 +16278,7 @@
       <c r="AA95" s="13">
         <v>104981</v>
       </c>
-      <c r="AC95" s="13" t="s">
+      <c r="AC95" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -16300,7 +16335,7 @@
         <v>4</v>
       </c>
       <c r="R96" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S96:$V96)</f>
         <v>12</v>
       </c>
       <c r="S96" s="9">
@@ -16331,184 +16366,605 @@
         <v>104991</v>
       </c>
       <c r="AB96" s="9"/>
-      <c r="AC96" s="9"/>
     </row>
     <row r="97" spans="1:29">
-      <c r="A97" s="3">
-        <v>10510</v>
+      <c r="A97" s="44">
+        <v>10502</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>84</v>
+        <v>2234</v>
+      </c>
+      <c r="C97" s="44" t="s">
+        <v>2235</v>
       </c>
       <c r="D97" s="13" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E97">
+        <v>28</v>
+      </c>
+      <c r="F97">
+        <v>40</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>25</v>
+      </c>
+      <c r="I97">
+        <v>75</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>101</v>
+      </c>
+      <c r="L97">
+        <v>82</v>
+      </c>
+      <c r="M97">
+        <v>47</v>
+      </c>
+      <c r="N97">
+        <v>36</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>19</v>
+      </c>
+      <c r="Q97">
         <v>3</v>
       </c>
-      <c r="E97" s="13">
-        <v>84</v>
-      </c>
-      <c r="F97" s="13">
-        <v>45</v>
-      </c>
-      <c r="G97" s="13">
-        <v>0</v>
-      </c>
-      <c r="H97" s="13">
-        <v>90</v>
-      </c>
-      <c r="I97" s="13">
-        <v>85</v>
-      </c>
-      <c r="J97" s="13">
-        <v>0</v>
-      </c>
-      <c r="K97" s="16">
-        <v>85</v>
-      </c>
-      <c r="L97" s="13">
-        <v>54</v>
-      </c>
-      <c r="M97" s="13">
-        <v>67</v>
-      </c>
-      <c r="N97" s="13">
-        <v>33</v>
-      </c>
-      <c r="O97" s="13">
-        <v>1</v>
-      </c>
-      <c r="P97" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q97" s="13">
-        <v>4</v>
-      </c>
-      <c r="R97" s="13">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="S97" s="13">
+      <c r="R97" s="25">
+        <f>SUM($S97:$V97)</f>
+        <v>24</v>
+      </c>
+      <c r="S97">
+        <v>8</v>
+      </c>
+      <c r="T97">
+        <v>8</v>
+      </c>
+      <c r="U97">
+        <v>8</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
         <v>25</v>
       </c>
-      <c r="T97" s="13">
-        <v>23</v>
-      </c>
-      <c r="U97" s="13">
-        <v>18</v>
-      </c>
-      <c r="V97" s="13">
-        <v>18</v>
-      </c>
-      <c r="W97" s="9">
-        <v>100</v>
-      </c>
-      <c r="X97" s="9">
-        <v>110</v>
-      </c>
-      <c r="Y97" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="Z97" s="9">
-        <v>5.9</v>
-      </c>
-      <c r="AA97" s="13">
-        <v>105101</v>
-      </c>
+      <c r="X97">
+        <v>60</v>
+      </c>
+      <c r="Y97">
+        <v>0.5</v>
+      </c>
+      <c r="Z97">
+        <v>1.3</v>
+      </c>
+      <c r="AA97">
+        <v>105021</v>
+      </c>
+      <c r="AB97"/>
+      <c r="AC97"/>
     </row>
     <row r="98" spans="1:29">
       <c r="A98" s="3">
+        <v>10510</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="13">
+        <v>84</v>
+      </c>
+      <c r="F98" s="13">
+        <v>45</v>
+      </c>
+      <c r="G98" s="13">
+        <v>0</v>
+      </c>
+      <c r="H98" s="13">
+        <v>90</v>
+      </c>
+      <c r="I98" s="13">
+        <v>85</v>
+      </c>
+      <c r="J98" s="13">
+        <v>0</v>
+      </c>
+      <c r="K98" s="16">
+        <v>85</v>
+      </c>
+      <c r="L98" s="13">
+        <v>54</v>
+      </c>
+      <c r="M98" s="13">
+        <v>67</v>
+      </c>
+      <c r="N98" s="13">
+        <v>33</v>
+      </c>
+      <c r="O98" s="13">
+        <v>1</v>
+      </c>
+      <c r="P98" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q98" s="13">
+        <v>4</v>
+      </c>
+      <c r="R98" s="13">
+        <f>SUM($S98:$V98)</f>
+        <v>84</v>
+      </c>
+      <c r="S98" s="13">
+        <v>25</v>
+      </c>
+      <c r="T98" s="13">
+        <v>23</v>
+      </c>
+      <c r="U98" s="13">
+        <v>18</v>
+      </c>
+      <c r="V98" s="13">
+        <v>18</v>
+      </c>
+      <c r="W98" s="9">
+        <v>100</v>
+      </c>
+      <c r="X98" s="9">
+        <v>110</v>
+      </c>
+      <c r="Y98" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="Z98" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="AA98" s="13">
+        <v>105101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" customFormat="1">
+      <c r="A99" s="3">
         <v>10513</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B99" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="C99" s="14" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E99" s="9">
         <v>60</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F99" s="9">
         <v>40</v>
       </c>
-      <c r="G98" s="9">
-        <v>0</v>
-      </c>
-      <c r="H98" s="9">
+      <c r="G99" s="9">
+        <v>0</v>
+      </c>
+      <c r="H99" s="9">
         <v>60</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I99" s="9">
         <v>97</v>
       </c>
-      <c r="J98" s="9">
-        <v>0</v>
-      </c>
-      <c r="K98" s="17">
+      <c r="J99" s="9">
+        <v>0</v>
+      </c>
+      <c r="K99" s="17">
         <v>96</v>
       </c>
-      <c r="L98" s="9">
+      <c r="L99" s="9">
         <v>51</v>
       </c>
-      <c r="M98" s="9">
+      <c r="M99" s="9">
         <v>77</v>
       </c>
-      <c r="N98" s="9">
+      <c r="N99" s="9">
         <v>33</v>
       </c>
-      <c r="O98" s="9">
-        <v>1</v>
-      </c>
-      <c r="P98" s="9">
+      <c r="O99" s="9">
+        <v>1</v>
+      </c>
+      <c r="P99" s="9">
         <v>20</v>
       </c>
-      <c r="Q98" s="9">
+      <c r="Q99" s="9">
         <v>4</v>
       </c>
-      <c r="R98" s="13">
-        <f t="shared" si="2"/>
+      <c r="R99" s="13">
+        <f>SUM($S99:$V99)</f>
         <v>90</v>
       </c>
-      <c r="S98" s="9">
+      <c r="S99" s="9">
         <v>21</v>
       </c>
-      <c r="T98" s="9">
+      <c r="T99" s="9">
         <v>21</v>
       </c>
-      <c r="U98" s="9">
+      <c r="U99" s="9">
         <v>29</v>
       </c>
-      <c r="V98" s="9">
+      <c r="V99" s="9">
         <v>19</v>
       </c>
-      <c r="W98" s="9">
+      <c r="W99" s="9">
         <v>60</v>
       </c>
-      <c r="X98" s="9">
+      <c r="X99" s="9">
         <v>60</v>
       </c>
-      <c r="Y98" s="19">
+      <c r="Y99" s="19">
         <v>2.4</v>
       </c>
-      <c r="Z98" s="19">
+      <c r="Z99" s="19">
         <v>4.5</v>
       </c>
-      <c r="AA98" s="9">
+      <c r="AA99" s="9">
         <v>105131</v>
       </c>
-      <c r="AB98" s="9"/>
-      <c r="AC98" s="13" t="s">
+      <c r="AB99" s="9"/>
+      <c r="AC99" s="9" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="100" spans="1:29" customFormat="1">
+      <c r="A100" s="44">
+        <v>10514</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E100">
+        <v>80</v>
+      </c>
+      <c r="F100">
+        <v>127</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>96</v>
+      </c>
+      <c r="I100">
+        <v>51</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>96</v>
+      </c>
+      <c r="L100">
+        <v>59</v>
+      </c>
+      <c r="M100">
+        <v>42</v>
+      </c>
+      <c r="N100">
+        <v>30</v>
+      </c>
+      <c r="O100">
+        <v>3</v>
+      </c>
+      <c r="P100">
+        <v>5</v>
+      </c>
+      <c r="Q100">
+        <v>4</v>
+      </c>
+      <c r="R100" s="25">
+        <f>SUM($S100:$V100)</f>
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>100</v>
+      </c>
+      <c r="X100">
+        <v>185</v>
+      </c>
+      <c r="Y100">
+        <v>3.3</v>
+      </c>
+      <c r="Z100">
+        <v>6</v>
+      </c>
+      <c r="AA100">
+        <v>105141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" customFormat="1">
+      <c r="A101" s="44">
+        <v>10520</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C101" s="44" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E101">
+        <v>104</v>
+      </c>
+      <c r="F101">
+        <v>131</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>121</v>
+      </c>
+      <c r="I101">
+        <v>109</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>103</v>
+      </c>
+      <c r="L101">
+        <v>43</v>
+      </c>
+      <c r="M101">
+        <v>48</v>
+      </c>
+      <c r="N101">
+        <v>28</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>5</v>
+      </c>
+      <c r="Q101">
+        <v>4</v>
+      </c>
+      <c r="R101" s="25">
+        <f>SUM($S101:$V101)</f>
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>165</v>
+      </c>
+      <c r="X101">
+        <v>200</v>
+      </c>
+      <c r="Y101">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z101">
+        <v>9.1</v>
+      </c>
+      <c r="AA101">
+        <v>105201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" customFormat="1">
+      <c r="A102" s="44">
+        <v>10524</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C102" s="44" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E102">
+        <v>58</v>
+      </c>
+      <c r="F102">
+        <v>85</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>69</v>
+      </c>
+      <c r="I102">
+        <v>109</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>96</v>
+      </c>
+      <c r="L102">
+        <v>64</v>
+      </c>
+      <c r="M102">
+        <v>47</v>
+      </c>
+      <c r="N102">
+        <v>33</v>
+      </c>
+      <c r="O102">
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>6</v>
+      </c>
+      <c r="Q102">
+        <v>4</v>
+      </c>
+      <c r="R102" s="25">
+        <f>SUM($S102:$V102)</f>
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>80</v>
+      </c>
+      <c r="X102">
+        <v>120</v>
+      </c>
+      <c r="Y102">
+        <v>2.88</v>
+      </c>
+      <c r="Z102">
+        <v>5.4</v>
+      </c>
+      <c r="AA102">
+        <v>105241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" customFormat="1">
+      <c r="A103" s="44">
+        <v>10532</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C103" s="44" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E103">
+        <v>52</v>
+      </c>
+      <c r="F103">
+        <v>78</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>79</v>
+      </c>
+      <c r="I103">
+        <v>48</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" s="1">
+        <v>94</v>
+      </c>
+      <c r="L103">
+        <v>44</v>
+      </c>
+      <c r="M103">
+        <v>37</v>
+      </c>
+      <c r="N103">
+        <v>22</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>16</v>
+      </c>
+      <c r="Q103">
+        <v>4</v>
+      </c>
+      <c r="R103" s="25">
+        <f>SUM($S103:$V103)</f>
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>70</v>
+      </c>
+      <c r="X103">
+        <v>105</v>
+      </c>
+      <c r="Y103">
+        <v>2.25</v>
+      </c>
+      <c r="Z103">
+        <v>4.55</v>
+      </c>
+      <c r="AA103">
+        <v>105321</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC97">
-    <sortState ref="A2:AC98">
-      <sortCondition ref="A1:A97"/>
+  <autoFilter ref="A1:AC98">
+    <sortState ref="A2:AC103">
+      <sortCondition ref="A1:A98"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -16559,13 +17015,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC171"/>
+  <dimension ref="A1:AC172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V136" sqref="V136"/>
+      <selection pane="bottomRight" activeCell="AA182" sqref="AA182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16675,7 +17131,7 @@
         <v>211</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>69</v>
@@ -16720,7 +17176,7 @@
         <v>4</v>
       </c>
       <c r="R2" s="13">
-        <f t="shared" ref="R2:R33" si="0">SUM($S2:$V2)</f>
+        <f>SUM($S2:$V2)</f>
         <v>12</v>
       </c>
       <c r="S2" s="9">
@@ -16807,7 +17263,7 @@
         <v>4</v>
       </c>
       <c r="R3" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S3:$V3)</f>
         <v>30</v>
       </c>
       <c r="S3" s="13">
@@ -16846,7 +17302,7 @@
         <v>207</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -16891,7 +17347,7 @@
         <v>4</v>
       </c>
       <c r="R4" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S4:$V4)</f>
         <v>8</v>
       </c>
       <c r="S4" s="15">
@@ -16976,7 +17432,7 @@
         <v>4</v>
       </c>
       <c r="R5" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S5:$V5)</f>
         <v>24</v>
       </c>
       <c r="S5" s="13">
@@ -17060,7 +17516,7 @@
         <v>4</v>
       </c>
       <c r="R6" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S6:$V6)</f>
         <v>24</v>
       </c>
       <c r="S6" s="13">
@@ -17099,7 +17555,7 @@
         <v>207</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>68</v>
@@ -17144,7 +17600,7 @@
         <v>4</v>
       </c>
       <c r="R7" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S7:$V7)</f>
         <v>16</v>
       </c>
       <c r="S7" s="15">
@@ -17186,7 +17642,7 @@
         <v>207</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>68</v>
@@ -17231,7 +17687,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S8:$V8)</f>
         <v>16</v>
       </c>
       <c r="S8" s="15">
@@ -17271,7 +17727,7 @@
         <v>207</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>69</v>
@@ -17316,7 +17772,7 @@
         <v>4</v>
       </c>
       <c r="R9" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S9:$V9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="15">
@@ -17347,6 +17803,9 @@
         <v>110081</v>
       </c>
       <c r="AB9" s="9"/>
+      <c r="AC9" s="9" t="s">
+        <v>2227</v>
+      </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="3">
@@ -17356,7 +17815,7 @@
         <v>207</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>69</v>
@@ -17401,7 +17860,7 @@
         <v>4</v>
       </c>
       <c r="R10" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S10:$V10)</f>
         <v>8</v>
       </c>
       <c r="S10" s="15">
@@ -17433,6 +17892,9 @@
       </c>
       <c r="AB10" s="9">
         <v>110092</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>2227</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -17443,7 +17905,7 @@
         <v>207</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>69</v>
@@ -17488,7 +17950,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S11:$V11)</f>
         <v>16</v>
       </c>
       <c r="S11" s="15">
@@ -17530,7 +17992,7 @@
         <v>207</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>67</v>
@@ -17575,7 +18037,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S12:$V12)</f>
         <v>12</v>
       </c>
       <c r="S12" s="15">
@@ -17615,7 +18077,7 @@
         <v>207</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>67</v>
@@ -17660,7 +18122,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S13:$V13)</f>
         <v>12</v>
       </c>
       <c r="S13" s="15">
@@ -17700,7 +18162,7 @@
         <v>207</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>71</v>
@@ -17745,7 +18207,7 @@
         <v>4</v>
       </c>
       <c r="R14" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S14:$V14)</f>
         <v>12</v>
       </c>
       <c r="S14" s="15">
@@ -17785,7 +18247,7 @@
         <v>207</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
@@ -17830,7 +18292,7 @@
         <v>4</v>
       </c>
       <c r="R15" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S15:$V15)</f>
         <v>12</v>
       </c>
       <c r="S15" s="15">
@@ -17870,7 +18332,7 @@
         <v>211</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>69</v>
@@ -17915,7 +18377,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S16:$V16)</f>
         <v>16</v>
       </c>
       <c r="S16" s="9">
@@ -17957,7 +18419,7 @@
         <v>211</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>69</v>
@@ -18002,7 +18464,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S17:$V17)</f>
         <v>16</v>
       </c>
       <c r="S17" s="9">
@@ -18039,13 +18501,13 @@
         <v>11020</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>2041</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>2037</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>2042</v>
       </c>
       <c r="E18" s="13">
         <v>63</v>
@@ -18087,7 +18549,7 @@
         <v>4</v>
       </c>
       <c r="R18" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S18:$V18)</f>
         <v>48</v>
       </c>
       <c r="S18" s="13">
@@ -18114,7 +18576,7 @@
       <c r="Z18" s="13">
         <v>5.6</v>
       </c>
-      <c r="AA18" s="26">
+      <c r="AA18" s="25">
         <v>110201</v>
       </c>
     </row>
@@ -18123,13 +18585,13 @@
         <v>11021</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>2041</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>2038</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>2042</v>
       </c>
       <c r="E19" s="13">
         <v>63</v>
@@ -18171,7 +18633,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S19:$V19)</f>
         <v>48</v>
       </c>
       <c r="S19" s="13">
@@ -18198,7 +18660,7 @@
       <c r="Z19" s="13">
         <v>5.6</v>
       </c>
-      <c r="AA19" s="26">
+      <c r="AA19" s="25">
         <v>110211</v>
       </c>
     </row>
@@ -18255,7 +18717,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S20:$V20)</f>
         <v>86</v>
       </c>
       <c r="S20" s="13">
@@ -18342,7 +18804,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S21:$V21)</f>
         <v>95</v>
       </c>
       <c r="S21" s="13">
@@ -18429,7 +18891,7 @@
         <v>3</v>
       </c>
       <c r="R22" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S22:$V22)</f>
         <v>39</v>
       </c>
       <c r="S22" s="13">
@@ -18513,7 +18975,7 @@
         <v>3</v>
       </c>
       <c r="R23" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S23:$V23)</f>
         <v>37</v>
       </c>
       <c r="S23" s="13">
@@ -18597,7 +19059,7 @@
         <v>3</v>
       </c>
       <c r="R24" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S24:$V24)</f>
         <v>28</v>
       </c>
       <c r="S24" s="13">
@@ -18678,7 +19140,7 @@
         <v>3</v>
       </c>
       <c r="R25" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S25:$V25)</f>
         <v>35</v>
       </c>
       <c r="S25" s="13">
@@ -18759,7 +19221,7 @@
         <v>4</v>
       </c>
       <c r="R26" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S26:$V26)</f>
         <v>65</v>
       </c>
       <c r="S26" s="13">
@@ -18843,7 +19305,7 @@
         <v>4</v>
       </c>
       <c r="R27" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S27:$V27)</f>
         <v>85</v>
       </c>
       <c r="S27" s="13">
@@ -18927,7 +19389,7 @@
         <v>4</v>
       </c>
       <c r="R28" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S28:$V28)</f>
         <v>85</v>
       </c>
       <c r="S28" s="13">
@@ -19014,7 +19476,7 @@
         <v>4</v>
       </c>
       <c r="R29" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S29:$V29)</f>
         <v>87</v>
       </c>
       <c r="S29" s="13">
@@ -19053,7 +19515,7 @@
         <v>206</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>3</v>
@@ -19098,7 +19560,7 @@
         <v>4</v>
       </c>
       <c r="R30" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S30:$V30)</f>
         <v>6</v>
       </c>
       <c r="S30" s="9">
@@ -19138,7 +19600,7 @@
         <v>206</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>3</v>
@@ -19183,7 +19645,7 @@
         <v>4</v>
       </c>
       <c r="R31" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S31:$V31)</f>
         <v>6</v>
       </c>
       <c r="S31" s="9">
@@ -19223,7 +19685,7 @@
         <v>206</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
@@ -19268,7 +19730,7 @@
         <v>4</v>
       </c>
       <c r="R32" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S32:$V32)</f>
         <v>6</v>
       </c>
       <c r="S32" s="9">
@@ -19308,7 +19770,7 @@
         <v>206</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>3</v>
@@ -19353,7 +19815,7 @@
         <v>4</v>
       </c>
       <c r="R33" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM($S33:$V33)</f>
         <v>6</v>
       </c>
       <c r="S33" s="9">
@@ -19393,7 +19855,7 @@
         <v>206</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>68</v>
@@ -19438,7 +19900,7 @@
         <v>4</v>
       </c>
       <c r="R34" s="13">
-        <f t="shared" ref="R34:R65" si="1">SUM($S34:$V34)</f>
+        <f>SUM($S34:$V34)</f>
         <v>12</v>
       </c>
       <c r="S34" s="9">
@@ -19478,7 +19940,7 @@
         <v>206</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>68</v>
@@ -19523,7 +19985,7 @@
         <v>4</v>
       </c>
       <c r="R35" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S35:$V35)</f>
         <v>12</v>
       </c>
       <c r="S35" s="9">
@@ -19563,7 +20025,7 @@
         <v>206</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>68</v>
@@ -19608,7 +20070,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S36:$V36)</f>
         <v>12</v>
       </c>
       <c r="S36" s="9">
@@ -19650,7 +20112,7 @@
         <v>206</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>67</v>
@@ -19695,7 +20157,7 @@
         <v>4</v>
       </c>
       <c r="R37" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S37:$V37)</f>
         <v>6</v>
       </c>
       <c r="S37" s="9">
@@ -19735,7 +20197,7 @@
         <v>206</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>67</v>
@@ -19780,7 +20242,7 @@
         <v>4</v>
       </c>
       <c r="R38" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S38:$V38)</f>
         <v>8</v>
       </c>
       <c r="S38" s="9">
@@ -19808,7 +20270,7 @@
         <v>2.4</v>
       </c>
       <c r="AA38" s="9">
-        <v>110581</v>
+        <v>110401</v>
       </c>
       <c r="AB38" s="9">
         <v>110402</v>
@@ -19819,13 +20281,13 @@
         <v>11043</v>
       </c>
       <c r="B39" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C39" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D39" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E39">
         <v>35</v>
@@ -19866,8 +20328,8 @@
       <c r="Q39">
         <v>3</v>
       </c>
-      <c r="R39" s="26">
-        <f t="shared" si="1"/>
+      <c r="R39" s="25">
+        <f>SUM($S39:$V39)</f>
         <v>0</v>
       </c>
       <c r="S39">
@@ -19906,13 +20368,13 @@
         <v>11044</v>
       </c>
       <c r="B40" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C40" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D40" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E40">
         <v>35</v>
@@ -19953,8 +20415,8 @@
       <c r="Q40">
         <v>3</v>
       </c>
-      <c r="R40" s="26">
-        <f t="shared" si="1"/>
+      <c r="R40" s="25">
+        <f>SUM($S40:$V40)</f>
         <v>0</v>
       </c>
       <c r="S40">
@@ -19996,7 +20458,7 @@
         <v>205</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>69</v>
@@ -20041,7 +20503,7 @@
         <v>3</v>
       </c>
       <c r="R41" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S41:$V41)</f>
         <v>0</v>
       </c>
       <c r="S41" s="9">
@@ -20081,10 +20543,10 @@
         <v>205</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>1943</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>1944</v>
       </c>
       <c r="E42" s="9">
         <v>39</v>
@@ -20126,7 +20588,7 @@
         <v>3</v>
       </c>
       <c r="R42" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S42:$V42)</f>
         <v>6</v>
       </c>
       <c r="S42" s="9">
@@ -20166,7 +20628,7 @@
         <v>205</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>67</v>
@@ -20211,7 +20673,7 @@
         <v>3</v>
       </c>
       <c r="R43" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S43:$V43)</f>
         <v>0</v>
       </c>
       <c r="S43" s="9">
@@ -20251,7 +20713,7 @@
         <v>205</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>67</v>
@@ -20296,7 +20758,7 @@
         <v>3</v>
       </c>
       <c r="R44" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S44:$V44)</f>
         <v>12</v>
       </c>
       <c r="S44" s="9">
@@ -20338,7 +20800,7 @@
         <v>204</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>3</v>
@@ -20383,7 +20845,7 @@
         <v>3</v>
       </c>
       <c r="R45" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S45:$V45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="9">
@@ -20410,10 +20872,14 @@
       <c r="Z45" s="9">
         <v>1.5</v>
       </c>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
+      <c r="AA45" s="9">
+        <v>110641</v>
+      </c>
+      <c r="AB45" s="9">
+        <v>110642</v>
+      </c>
       <c r="AC45" s="9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -20424,7 +20890,7 @@
         <v>204</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>3</v>
@@ -20469,7 +20935,7 @@
         <v>3</v>
       </c>
       <c r="R46" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S46:$V46)</f>
         <v>0</v>
       </c>
       <c r="S46" s="9">
@@ -20496,10 +20962,12 @@
       <c r="Z46" s="9">
         <v>1.65</v>
       </c>
-      <c r="AA46" s="9"/>
+      <c r="AA46" s="9">
+        <v>110651</v>
+      </c>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -20510,7 +20978,7 @@
         <v>204</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
@@ -20555,7 +21023,7 @@
         <v>3</v>
       </c>
       <c r="R47" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S47:$V47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="9">
@@ -20582,10 +21050,12 @@
       <c r="Z47" s="9">
         <v>1.65</v>
       </c>
-      <c r="AA47" s="9"/>
+      <c r="AA47" s="9">
+        <v>110661</v>
+      </c>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -20596,7 +21066,7 @@
         <v>204</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>3</v>
@@ -20641,7 +21111,7 @@
         <v>3</v>
       </c>
       <c r="R48" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S48:$V48)</f>
         <v>0</v>
       </c>
       <c r="S48" s="9">
@@ -20668,10 +21138,12 @@
       <c r="Z48" s="9">
         <v>1.65</v>
       </c>
-      <c r="AA48" s="9"/>
+      <c r="AA48" s="9">
+        <v>110671</v>
+      </c>
       <c r="AB48" s="9"/>
       <c r="AC48" s="9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -20682,7 +21154,7 @@
         <v>204</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
@@ -20727,7 +21199,7 @@
         <v>3</v>
       </c>
       <c r="R49" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S49:$V49)</f>
         <v>0</v>
       </c>
       <c r="S49" s="9">
@@ -20754,10 +21226,12 @@
       <c r="Z49" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA49" s="9"/>
+      <c r="AA49" s="9">
+        <v>110681</v>
+      </c>
       <c r="AB49" s="9"/>
       <c r="AC49" s="9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -20768,7 +21242,7 @@
         <v>204</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>81</v>
@@ -20813,7 +21287,7 @@
         <v>3</v>
       </c>
       <c r="R50" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S50:$V50)</f>
         <v>0</v>
       </c>
       <c r="S50" s="9">
@@ -20840,10 +21314,12 @@
       <c r="Z50" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA50" s="9"/>
+      <c r="AA50" s="9">
+        <v>110691</v>
+      </c>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -20854,7 +21330,7 @@
         <v>204</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>3</v>
@@ -20899,7 +21375,7 @@
         <v>3</v>
       </c>
       <c r="R51" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S51:$V51)</f>
         <v>0</v>
       </c>
       <c r="S51" s="9">
@@ -20926,10 +21402,12 @@
       <c r="Z51" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA51" s="9"/>
+      <c r="AA51" s="9">
+        <v>110701</v>
+      </c>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -20940,7 +21418,7 @@
         <v>204</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
@@ -20985,7 +21463,7 @@
         <v>3</v>
       </c>
       <c r="R52" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S52:$V52)</f>
         <v>0</v>
       </c>
       <c r="S52" s="9">
@@ -21012,10 +21490,12 @@
       <c r="Z52" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA52" s="9"/>
+      <c r="AA52" s="9">
+        <v>110711</v>
+      </c>
       <c r="AB52" s="9"/>
       <c r="AC52" s="9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -21026,7 +21506,7 @@
         <v>204</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>3</v>
@@ -21071,7 +21551,7 @@
         <v>3</v>
       </c>
       <c r="R53" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S53:$V53)</f>
         <v>0</v>
       </c>
       <c r="S53" s="9">
@@ -21098,10 +21578,12 @@
       <c r="Z53" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA53" s="9"/>
+      <c r="AA53" s="9">
+        <v>110721</v>
+      </c>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -21112,7 +21594,7 @@
         <v>204</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>3</v>
@@ -21157,7 +21639,7 @@
         <v>3</v>
       </c>
       <c r="R54" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S54:$V54)</f>
         <v>0</v>
       </c>
       <c r="S54" s="9">
@@ -21184,10 +21666,12 @@
       <c r="Z54" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA54" s="9"/>
+      <c r="AA54" s="9">
+        <v>110701</v>
+      </c>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -21198,7 +21682,7 @@
         <v>204</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>68</v>
@@ -21243,7 +21727,7 @@
         <v>3</v>
       </c>
       <c r="R55" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S55:$V55)</f>
         <v>0</v>
       </c>
       <c r="S55" s="9">
@@ -21270,10 +21754,12 @@
       <c r="Z55" s="9">
         <v>0.99</v>
       </c>
-      <c r="AA55" s="9"/>
+      <c r="AA55" s="9">
+        <v>110741</v>
+      </c>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -21284,7 +21770,7 @@
         <v>204</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>68</v>
@@ -21329,7 +21815,7 @@
         <v>3</v>
       </c>
       <c r="R56" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S56:$V56)</f>
         <v>0</v>
       </c>
       <c r="S56" s="9">
@@ -21356,10 +21842,14 @@
       <c r="Z56" s="9">
         <v>0.99</v>
       </c>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
+      <c r="AA56" s="9">
+        <v>110751</v>
+      </c>
+      <c r="AB56" s="9">
+        <v>110752</v>
+      </c>
       <c r="AC56" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -21370,7 +21860,7 @@
         <v>204</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>68</v>
@@ -21415,7 +21905,7 @@
         <v>3</v>
       </c>
       <c r="R57" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S57:$V57)</f>
         <v>0</v>
       </c>
       <c r="S57" s="9">
@@ -21442,10 +21932,12 @@
       <c r="Z57" s="9">
         <v>0.99</v>
       </c>
-      <c r="AA57" s="9"/>
+      <c r="AA57" s="9">
+        <v>110761</v>
+      </c>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -21456,7 +21948,7 @@
         <v>204</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>68</v>
@@ -21501,7 +21993,7 @@
         <v>3</v>
       </c>
       <c r="R58" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S58:$V58)</f>
         <v>0</v>
       </c>
       <c r="S58" s="9">
@@ -21528,10 +22020,12 @@
       <c r="Z58" s="9">
         <v>0.99</v>
       </c>
-      <c r="AA58" s="9"/>
+      <c r="AA58" s="9">
+        <v>110771</v>
+      </c>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -21542,7 +22036,7 @@
         <v>204</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>68</v>
@@ -21587,7 +22081,7 @@
         <v>3</v>
       </c>
       <c r="R59" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S59:$V59)</f>
         <v>0</v>
       </c>
       <c r="S59" s="9">
@@ -21614,10 +22108,12 @@
       <c r="Z59" s="9">
         <v>0.99</v>
       </c>
-      <c r="AA59" s="9"/>
+      <c r="AA59" s="9">
+        <v>110801</v>
+      </c>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -21628,7 +22124,7 @@
         <v>204</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>69</v>
@@ -21673,7 +22169,7 @@
         <v>3</v>
       </c>
       <c r="R60" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S60:$V60)</f>
         <v>0</v>
       </c>
       <c r="S60" s="9">
@@ -21700,7 +22196,9 @@
       <c r="Z60" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA60" s="9"/>
+      <c r="AA60" s="9">
+        <v>110811</v>
+      </c>
       <c r="AB60" s="9"/>
     </row>
     <row r="61" spans="1:29">
@@ -21756,7 +22254,7 @@
         <v>3</v>
       </c>
       <c r="R61" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S61:$V61)</f>
         <v>0</v>
       </c>
       <c r="S61" s="9">
@@ -21783,7 +22281,9 @@
       <c r="Z61" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA61" s="9"/>
+      <c r="AA61" s="9">
+        <v>110821</v>
+      </c>
       <c r="AB61" s="9">
         <v>110822</v>
       </c>
@@ -21796,7 +22296,7 @@
         <v>204</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>69</v>
@@ -21841,7 +22341,7 @@
         <v>3</v>
       </c>
       <c r="R62" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S62:$V62)</f>
         <v>0</v>
       </c>
       <c r="S62" s="9">
@@ -21868,7 +22368,9 @@
       <c r="Z62" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA62" s="9"/>
+      <c r="AA62" s="9">
+        <v>110831</v>
+      </c>
       <c r="AB62" s="9"/>
     </row>
     <row r="63" spans="1:29">
@@ -21879,7 +22381,7 @@
         <v>204</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>69</v>
@@ -21924,7 +22426,7 @@
         <v>3</v>
       </c>
       <c r="R63" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S63:$V63)</f>
         <v>0</v>
       </c>
       <c r="S63" s="9">
@@ -21951,7 +22453,9 @@
       <c r="Z63" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA63" s="9"/>
+      <c r="AA63" s="9">
+        <v>110841</v>
+      </c>
       <c r="AB63" s="9"/>
     </row>
     <row r="64" spans="1:29">
@@ -21962,7 +22466,7 @@
         <v>204</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>69</v>
@@ -22007,7 +22511,7 @@
         <v>3</v>
       </c>
       <c r="R64" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S64:$V64)</f>
         <v>0</v>
       </c>
       <c r="S64" s="9">
@@ -22034,10 +22538,12 @@
       <c r="Z64" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA64" s="9"/>
+      <c r="AA64" s="9">
+        <v>110851</v>
+      </c>
       <c r="AB64" s="9"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:29">
       <c r="A65" s="3">
         <v>11086</v>
       </c>
@@ -22045,7 +22551,7 @@
         <v>204</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>69</v>
@@ -22090,7 +22596,7 @@
         <v>3</v>
       </c>
       <c r="R65" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM($S65:$V65)</f>
         <v>0</v>
       </c>
       <c r="S65" s="9">
@@ -22117,10 +22623,12 @@
       <c r="Z65" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA65" s="9"/>
+      <c r="AA65" s="9">
+        <v>110861</v>
+      </c>
       <c r="AB65" s="9"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:29">
       <c r="A66" s="3">
         <v>11087</v>
       </c>
@@ -22128,7 +22636,7 @@
         <v>204</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>69</v>
@@ -22173,7 +22681,7 @@
         <v>3</v>
       </c>
       <c r="R66" s="13">
-        <f t="shared" ref="R66:R97" si="2">SUM($S66:$V66)</f>
+        <f>SUM($S66:$V66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="9">
@@ -22200,10 +22708,12 @@
       <c r="Z66" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA66" s="9"/>
+      <c r="AA66" s="9">
+        <v>110871</v>
+      </c>
       <c r="AB66" s="9"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:29">
       <c r="A67" s="3">
         <v>11088</v>
       </c>
@@ -22211,7 +22721,7 @@
         <v>204</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>69</v>
@@ -22256,7 +22766,7 @@
         <v>3</v>
       </c>
       <c r="R67" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S67:$V67)</f>
         <v>0</v>
       </c>
       <c r="S67" s="9">
@@ -22283,10 +22793,12 @@
       <c r="Z67" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA67" s="9"/>
+      <c r="AA67" s="9">
+        <v>110881</v>
+      </c>
       <c r="AB67" s="9"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:29">
       <c r="A68" s="3">
         <v>11089</v>
       </c>
@@ -22294,7 +22806,7 @@
         <v>204</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>67</v>
@@ -22339,7 +22851,7 @@
         <v>3</v>
       </c>
       <c r="R68" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S68:$V68)</f>
         <v>0</v>
       </c>
       <c r="S68" s="9">
@@ -22366,10 +22878,12 @@
       <c r="Z68" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA68" s="9"/>
+      <c r="AA68" s="9">
+        <v>110891</v>
+      </c>
       <c r="AB68" s="9"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:29">
       <c r="A69" s="3">
         <v>11092</v>
       </c>
@@ -22377,7 +22891,7 @@
         <v>204</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>67</v>
@@ -22422,7 +22936,7 @@
         <v>3</v>
       </c>
       <c r="R69" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S69:$V69)</f>
         <v>0</v>
       </c>
       <c r="S69" s="9">
@@ -22449,10 +22963,12 @@
       <c r="Z69" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA69" s="9"/>
+      <c r="AA69" s="9">
+        <v>110921</v>
+      </c>
       <c r="AB69" s="9"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:29">
       <c r="A70" s="3">
         <v>11093</v>
       </c>
@@ -22460,7 +22976,7 @@
         <v>204</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>67</v>
@@ -22505,7 +23021,7 @@
         <v>3</v>
       </c>
       <c r="R70" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S70:$V70)</f>
         <v>0</v>
       </c>
       <c r="S70" s="9">
@@ -22532,21 +23048,25 @@
       <c r="Z70" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA70" s="9"/>
-      <c r="AB70" s="9"/>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AA70" s="9">
+        <v>110921</v>
+      </c>
+      <c r="AB70" s="9">
+        <v>110932</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
       <c r="A71" s="3">
         <v>11094</v>
       </c>
       <c r="B71" s="13" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>2043</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>2044</v>
-      </c>
       <c r="D71" s="13" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E71" s="13">
         <v>35</v>
@@ -22588,7 +23108,7 @@
         <v>3</v>
       </c>
       <c r="R71" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S71:$V71)</f>
         <v>36</v>
       </c>
       <c r="S71" s="13">
@@ -22615,22 +23135,23 @@
       <c r="Z71" s="13">
         <v>0.9</v>
       </c>
-      <c r="AA71" s="26">
+      <c r="AA71" s="9">
         <v>110941</v>
       </c>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AB71" s="9"/>
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72" s="3">
         <v>11097</v>
       </c>
       <c r="B72" s="13" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>2045</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>2039</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>2046</v>
       </c>
       <c r="E72" s="13">
         <v>33</v>
@@ -22672,7 +23193,7 @@
         <v>3</v>
       </c>
       <c r="R72" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S72:$V72)</f>
         <v>24</v>
       </c>
       <c r="S72" s="13">
@@ -22699,11 +23220,12 @@
       <c r="Z72" s="13">
         <v>1.5</v>
       </c>
-      <c r="AA72" s="26">
+      <c r="AA72" s="9">
         <v>110971</v>
       </c>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AB72" s="9"/>
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73" s="3">
         <v>11098</v>
       </c>
@@ -22711,7 +23233,7 @@
         <v>204</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>70</v>
@@ -22756,7 +23278,7 @@
         <v>3</v>
       </c>
       <c r="R73" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S73:$V73)</f>
         <v>0</v>
       </c>
       <c r="S73" s="9">
@@ -22783,10 +23305,12 @@
       <c r="Z73" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA73" s="9"/>
+      <c r="AA73" s="9">
+        <v>110981</v>
+      </c>
       <c r="AB73" s="9"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:29">
       <c r="A74" s="3">
         <v>11099</v>
       </c>
@@ -22794,7 +23318,7 @@
         <v>204</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>70</v>
@@ -22839,7 +23363,7 @@
         <v>3</v>
       </c>
       <c r="R74" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S74:$V74)</f>
         <v>0</v>
       </c>
       <c r="S74" s="9">
@@ -22866,10 +23390,12 @@
       <c r="Z74" s="9">
         <v>1.2</v>
       </c>
-      <c r="AA74" s="9"/>
+      <c r="AA74" s="9">
+        <v>110991</v>
+      </c>
       <c r="AB74" s="9"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:29">
       <c r="A75" s="3">
         <v>11100</v>
       </c>
@@ -22922,7 +23448,7 @@
         <v>4</v>
       </c>
       <c r="R75" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S75:$V75)</f>
         <v>0</v>
       </c>
       <c r="S75" s="15">
@@ -22956,7 +23482,7 @@
         <v>111002</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:29">
       <c r="A76" s="3">
         <v>11101</v>
       </c>
@@ -22964,7 +23490,7 @@
         <v>207</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>3</v>
@@ -23009,7 +23535,7 @@
         <v>4</v>
       </c>
       <c r="R76" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S76:$V76)</f>
         <v>12</v>
       </c>
       <c r="S76" s="15">
@@ -23042,8 +23568,11 @@
       <c r="AB76" s="9">
         <v>110021</v>
       </c>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="AC76" s="9" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77" s="3">
         <v>11102</v>
       </c>
@@ -23051,7 +23580,7 @@
         <v>207</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>3</v>
@@ -23096,7 +23625,7 @@
         <v>4</v>
       </c>
       <c r="R77" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S77:$V77)</f>
         <v>12</v>
       </c>
       <c r="S77" s="15">
@@ -23129,8 +23658,11 @@
       <c r="AB77" s="9">
         <v>111022</v>
       </c>
-    </row>
-    <row r="78" spans="1:28">
+      <c r="AC77" s="9" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78" s="3">
         <v>11105</v>
       </c>
@@ -23183,7 +23715,7 @@
         <v>4</v>
       </c>
       <c r="R78" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S78:$V78)</f>
         <v>12</v>
       </c>
       <c r="S78" s="15">
@@ -23217,7 +23749,7 @@
         <v>111052</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:29">
       <c r="A79" s="3">
         <v>11106</v>
       </c>
@@ -23225,7 +23757,7 @@
         <v>207</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>67</v>
@@ -23270,7 +23802,7 @@
         <v>4</v>
       </c>
       <c r="R79" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S79:$V79)</f>
         <v>16</v>
       </c>
       <c r="S79" s="15">
@@ -23302,7 +23834,7 @@
       </c>
       <c r="AB79" s="9"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:29">
       <c r="A80" s="3">
         <v>11107</v>
       </c>
@@ -23310,7 +23842,7 @@
         <v>207</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>67</v>
@@ -23355,7 +23887,7 @@
         <v>4</v>
       </c>
       <c r="R80" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S80:$V80)</f>
         <v>16</v>
       </c>
       <c r="S80" s="15">
@@ -23387,7 +23919,7 @@
       </c>
       <c r="AB80" s="9"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:29">
       <c r="A81" s="3">
         <v>11108</v>
       </c>
@@ -23395,7 +23927,7 @@
         <v>207</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>67</v>
@@ -23440,7 +23972,7 @@
         <v>4</v>
       </c>
       <c r="R81" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S81:$V81)</f>
         <v>16</v>
       </c>
       <c r="S81" s="15">
@@ -23471,8 +24003,11 @@
         <v>111081</v>
       </c>
       <c r="AB81" s="9"/>
-    </row>
-    <row r="82" spans="1:28">
+      <c r="AC81" s="9" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82" s="3">
         <v>11109</v>
       </c>
@@ -23480,7 +24015,7 @@
         <v>207</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>67</v>
@@ -23525,7 +24060,7 @@
         <v>4</v>
       </c>
       <c r="R82" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S82:$V82)</f>
         <v>16</v>
       </c>
       <c r="S82" s="15">
@@ -23558,8 +24093,11 @@
       <c r="AB82" s="9">
         <v>110081</v>
       </c>
-    </row>
-    <row r="83" spans="1:28">
+      <c r="AC82" s="9" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83" s="3">
         <v>11110</v>
       </c>
@@ -23567,7 +24105,7 @@
         <v>207</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>67</v>
@@ -23612,7 +24150,7 @@
         <v>4</v>
       </c>
       <c r="R83" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S83:$V83)</f>
         <v>12</v>
       </c>
       <c r="S83" s="15">
@@ -23645,8 +24183,11 @@
       <c r="AB83" s="9">
         <v>111102</v>
       </c>
-    </row>
-    <row r="84" spans="1:28">
+      <c r="AC83" s="9" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" s="3">
         <v>11111</v>
       </c>
@@ -23654,7 +24195,7 @@
         <v>207</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>67</v>
@@ -23699,7 +24240,7 @@
         <v>4</v>
       </c>
       <c r="R84" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S84:$V84)</f>
         <v>12</v>
       </c>
       <c r="S84" s="15">
@@ -23733,7 +24274,7 @@
         <v>111112</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:29">
       <c r="A85" s="3">
         <v>11112</v>
       </c>
@@ -23741,7 +24282,7 @@
         <v>207</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>71</v>
@@ -23786,7 +24327,7 @@
         <v>4</v>
       </c>
       <c r="R85" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S85:$V85)</f>
         <v>12</v>
       </c>
       <c r="S85" s="15">
@@ -23818,7 +24359,7 @@
       </c>
       <c r="AB85" s="9"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:29">
       <c r="A86" s="3">
         <v>11113</v>
       </c>
@@ -23826,7 +24367,7 @@
         <v>207</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>70</v>
@@ -23871,7 +24412,7 @@
         <v>4</v>
       </c>
       <c r="R86" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S86:$V86)</f>
         <v>0</v>
       </c>
       <c r="S86" s="15">
@@ -23905,7 +24446,7 @@
         <v>111132</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:29">
       <c r="A87" s="3">
         <v>11117</v>
       </c>
@@ -23958,7 +24499,7 @@
         <v>4</v>
       </c>
       <c r="R87" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S87:$V87)</f>
         <v>72</v>
       </c>
       <c r="S87" s="13">
@@ -23985,14 +24526,14 @@
       <c r="Z87" s="9">
         <v>5.4</v>
       </c>
-      <c r="AA87" s="13">
+      <c r="AA87" s="9">
         <v>111171</v>
       </c>
-      <c r="AB87" s="13">
+      <c r="AB87" s="9">
         <v>111172</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:29">
       <c r="A88" s="3">
         <v>11118</v>
       </c>
@@ -24045,7 +24586,7 @@
         <v>4</v>
       </c>
       <c r="R88" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S88:$V88)</f>
         <v>68</v>
       </c>
       <c r="S88" s="13">
@@ -24072,11 +24613,12 @@
       <c r="Z88" s="9">
         <v>5.2</v>
       </c>
-      <c r="AA88" s="13">
+      <c r="AA88" s="9">
         <v>111171</v>
       </c>
-    </row>
-    <row r="89" spans="1:28">
+      <c r="AB88" s="9"/>
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89" s="3">
         <v>11120</v>
       </c>
@@ -24129,7 +24671,7 @@
         <v>4</v>
       </c>
       <c r="R89" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S89:$V89)</f>
         <v>83</v>
       </c>
       <c r="S89" s="13">
@@ -24156,11 +24698,12 @@
       <c r="Z89" s="9">
         <v>4</v>
       </c>
-      <c r="AA89" s="13">
+      <c r="AA89" s="9">
         <v>111201</v>
       </c>
-    </row>
-    <row r="90" spans="1:28">
+      <c r="AB89" s="9"/>
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90" s="3">
         <v>11121</v>
       </c>
@@ -24213,7 +24756,7 @@
         <v>4</v>
       </c>
       <c r="R90" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S90:$V90)</f>
         <v>90</v>
       </c>
       <c r="S90" s="13">
@@ -24240,14 +24783,14 @@
       <c r="Z90" s="9">
         <v>4</v>
       </c>
-      <c r="AA90" s="13">
+      <c r="AA90" s="9">
         <v>111211</v>
       </c>
-      <c r="AB90" s="13">
+      <c r="AB90" s="9">
         <v>111212</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:29">
       <c r="A91" s="3">
         <v>11123</v>
       </c>
@@ -24300,7 +24843,7 @@
         <v>3</v>
       </c>
       <c r="R91" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S91:$V91)</f>
         <v>32</v>
       </c>
       <c r="S91" s="13">
@@ -24327,11 +24870,12 @@
       <c r="Z91" s="9">
         <v>2.1</v>
       </c>
-      <c r="AA91" s="13">
+      <c r="AA91" s="9">
         <v>111231</v>
       </c>
-    </row>
-    <row r="92" spans="1:28">
+      <c r="AB91" s="9"/>
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92" s="3">
         <v>11124</v>
       </c>
@@ -24384,7 +24928,7 @@
         <v>3</v>
       </c>
       <c r="R92" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S92:$V92)</f>
         <v>32</v>
       </c>
       <c r="S92" s="13">
@@ -24411,11 +24955,12 @@
       <c r="Z92" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA92" s="13">
+      <c r="AA92" s="9">
         <v>111231</v>
       </c>
-    </row>
-    <row r="93" spans="1:28">
+      <c r="AB92" s="9"/>
+    </row>
+    <row r="93" spans="1:29">
       <c r="A93" s="3">
         <v>11125</v>
       </c>
@@ -24468,7 +25013,7 @@
         <v>3</v>
       </c>
       <c r="R93" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S93:$V93)</f>
         <v>46</v>
       </c>
       <c r="S93" s="13">
@@ -24495,11 +25040,12 @@
       <c r="Z93" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AA93" s="13">
+      <c r="AA93" s="9">
         <v>111251</v>
       </c>
-    </row>
-    <row r="94" spans="1:28">
+      <c r="AB93" s="9"/>
+    </row>
+    <row r="94" spans="1:29">
       <c r="A94" s="3">
         <v>11126</v>
       </c>
@@ -24552,7 +25098,7 @@
         <v>3</v>
       </c>
       <c r="R94" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S94:$V94)</f>
         <v>39</v>
       </c>
       <c r="S94" s="13">
@@ -24579,11 +25125,12 @@
       <c r="Z94" s="9">
         <v>2.1</v>
       </c>
-      <c r="AA94" s="13">
+      <c r="AA94" s="9">
         <v>111261</v>
       </c>
-    </row>
-    <row r="95" spans="1:28">
+      <c r="AB94" s="9"/>
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95" s="3">
         <v>11130</v>
       </c>
@@ -24591,7 +25138,7 @@
         <v>211</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>68</v>
@@ -24636,7 +25183,7 @@
         <v>4</v>
       </c>
       <c r="R95" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S95:$V95)</f>
         <v>6</v>
       </c>
       <c r="S95" s="9">
@@ -24670,7 +25217,7 @@
         <v>111302</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:29">
       <c r="A96" s="3">
         <v>11131</v>
       </c>
@@ -24678,7 +25225,7 @@
         <v>206</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>3</v>
@@ -24723,7 +25270,7 @@
         <v>4</v>
       </c>
       <c r="R96" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S96:$V96)</f>
         <v>6</v>
       </c>
       <c r="S96" s="9">
@@ -24750,7 +25297,7 @@
       <c r="Z96" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA96" s="21">
+      <c r="AA96" s="9">
         <v>111311</v>
       </c>
       <c r="AB96" s="9"/>
@@ -24763,7 +25310,7 @@
         <v>206</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>3</v>
@@ -24808,7 +25355,7 @@
         <v>4</v>
       </c>
       <c r="R97" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM($S97:$V97)</f>
         <v>8</v>
       </c>
       <c r="S97" s="9">
@@ -24835,7 +25382,7 @@
       <c r="Z97" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA97" s="21">
+      <c r="AA97" s="9">
         <v>111321</v>
       </c>
       <c r="AB97" s="9"/>
@@ -24848,7 +25395,7 @@
         <v>206</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>3</v>
@@ -24893,7 +25440,7 @@
         <v>4</v>
       </c>
       <c r="R98" s="13">
-        <f t="shared" ref="R98:R129" si="3">SUM($S98:$V98)</f>
+        <f>SUM($S98:$V98)</f>
         <v>6</v>
       </c>
       <c r="S98" s="9">
@@ -24920,7 +25467,7 @@
       <c r="Z98" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA98" s="21">
+      <c r="AA98" s="9">
         <v>111331</v>
       </c>
       <c r="AB98" s="9"/>
@@ -24933,7 +25480,7 @@
         <v>206</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>69</v>
@@ -24978,7 +25525,7 @@
         <v>4</v>
       </c>
       <c r="R99" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S99:$V99)</f>
         <v>0</v>
       </c>
       <c r="S99" s="9">
@@ -25018,7 +25565,7 @@
         <v>206</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>69</v>
@@ -25063,7 +25610,7 @@
         <v>4</v>
       </c>
       <c r="R100" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S100:$V100)</f>
         <v>0</v>
       </c>
       <c r="S100" s="9">
@@ -25103,7 +25650,7 @@
         <v>206</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>67</v>
@@ -25148,7 +25695,7 @@
         <v>4</v>
       </c>
       <c r="R101" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S101:$V101)</f>
         <v>0</v>
       </c>
       <c r="S101" s="9">
@@ -25188,7 +25735,7 @@
         <v>206</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>67</v>
@@ -25233,7 +25780,7 @@
         <v>4</v>
       </c>
       <c r="R102" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S102:$V102)</f>
         <v>8</v>
       </c>
       <c r="S102" s="9">
@@ -25273,7 +25820,7 @@
         <v>206</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>67</v>
@@ -25318,7 +25865,7 @@
         <v>4</v>
       </c>
       <c r="R103" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S103:$V103)</f>
         <v>0</v>
       </c>
       <c r="S103" s="9">
@@ -25358,7 +25905,7 @@
         <v>206</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>67</v>
@@ -25403,7 +25950,7 @@
         <v>4</v>
       </c>
       <c r="R104" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S104:$V104)</f>
         <v>0</v>
       </c>
       <c r="S104" s="9">
@@ -25443,7 +25990,7 @@
         <v>206</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>67</v>
@@ -25488,7 +26035,7 @@
         <v>4</v>
       </c>
       <c r="R105" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S105:$V105)</f>
         <v>0</v>
       </c>
       <c r="S105" s="9">
@@ -25528,7 +26075,7 @@
         <v>205</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>81</v>
@@ -25573,7 +26120,7 @@
         <v>3</v>
       </c>
       <c r="R106" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S106:$V106)</f>
         <v>6</v>
       </c>
       <c r="S106" s="9">
@@ -25613,10 +26160,10 @@
         <v>205</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E107" s="9">
         <v>33</v>
@@ -25658,7 +26205,7 @@
         <v>3</v>
       </c>
       <c r="R107" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S107:$V107)</f>
         <v>0</v>
       </c>
       <c r="S107" s="9">
@@ -25698,7 +26245,7 @@
         <v>204</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>3</v>
@@ -25743,7 +26290,7 @@
         <v>3</v>
       </c>
       <c r="R108" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S108:$V108)</f>
         <v>0</v>
       </c>
       <c r="S108" s="9">
@@ -25770,7 +26317,9 @@
       <c r="Z108" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA108" s="9"/>
+      <c r="AA108" s="9">
+        <v>111641</v>
+      </c>
       <c r="AB108" s="9"/>
     </row>
     <row r="109" spans="1:28">
@@ -25781,7 +26330,7 @@
         <v>204</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>3</v>
@@ -25826,7 +26375,7 @@
         <v>3</v>
       </c>
       <c r="R109" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S109:$V109)</f>
         <v>0</v>
       </c>
       <c r="S109" s="9">
@@ -25853,7 +26402,9 @@
       <c r="Z109" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA109" s="9"/>
+      <c r="AA109" s="9">
+        <v>111641</v>
+      </c>
       <c r="AB109" s="9"/>
     </row>
     <row r="110" spans="1:28">
@@ -25864,7 +26415,7 @@
         <v>204</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>3</v>
@@ -25909,7 +26460,7 @@
         <v>3</v>
       </c>
       <c r="R110" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S110:$V110)</f>
         <v>0</v>
       </c>
       <c r="S110" s="9">
@@ -25936,7 +26487,9 @@
       <c r="Z110" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA110" s="9"/>
+      <c r="AA110" s="9">
+        <v>111661</v>
+      </c>
       <c r="AB110" s="9"/>
     </row>
     <row r="111" spans="1:28">
@@ -25947,7 +26500,7 @@
         <v>204</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>3</v>
@@ -25992,7 +26545,7 @@
         <v>3</v>
       </c>
       <c r="R111" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S111:$V111)</f>
         <v>0</v>
       </c>
       <c r="S111" s="9">
@@ -26019,7 +26572,9 @@
       <c r="Z111" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA111" s="9"/>
+      <c r="AA111" s="9">
+        <v>111671</v>
+      </c>
       <c r="AB111" s="9"/>
     </row>
     <row r="112" spans="1:28">
@@ -26030,7 +26585,7 @@
         <v>204</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>3</v>
@@ -26075,7 +26630,7 @@
         <v>3</v>
       </c>
       <c r="R112" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S112:$V112)</f>
         <v>0</v>
       </c>
       <c r="S112" s="9">
@@ -26102,7 +26657,9 @@
       <c r="Z112" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA112" s="9"/>
+      <c r="AA112" s="9">
+        <v>111681</v>
+      </c>
       <c r="AB112" s="9"/>
     </row>
     <row r="113" spans="1:29">
@@ -26113,10 +26670,10 @@
         <v>204</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E113" s="9">
         <v>32</v>
@@ -26158,7 +26715,7 @@
         <v>3</v>
       </c>
       <c r="R113" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S113:$V113)</f>
         <v>0</v>
       </c>
       <c r="S113" s="9">
@@ -26185,8 +26742,12 @@
       <c r="Z113" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA113" s="9"/>
-      <c r="AB113" s="9"/>
+      <c r="AA113" s="9">
+        <v>111691</v>
+      </c>
+      <c r="AB113" s="9">
+        <v>111692</v>
+      </c>
     </row>
     <row r="114" spans="1:29">
       <c r="A114" s="3">
@@ -26196,7 +26757,7 @@
         <v>204</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>68</v>
@@ -26241,7 +26802,7 @@
         <v>3</v>
       </c>
       <c r="R114" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S114:$V114)</f>
         <v>0</v>
       </c>
       <c r="S114" s="9">
@@ -26268,10 +26829,12 @@
       <c r="Z114" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA114" s="9"/>
+      <c r="AA114" s="9">
+        <v>111711</v>
+      </c>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -26282,7 +26845,7 @@
         <v>204</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>69</v>
@@ -26327,7 +26890,7 @@
         <v>3</v>
       </c>
       <c r="R115" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S115:$V115)</f>
         <v>0</v>
       </c>
       <c r="S115" s="9">
@@ -26354,7 +26917,9 @@
       <c r="Z115" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA115" s="9"/>
+      <c r="AA115" s="9">
+        <v>111751</v>
+      </c>
       <c r="AB115" s="9"/>
     </row>
     <row r="116" spans="1:29">
@@ -26365,7 +26930,7 @@
         <v>204</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>67</v>
@@ -26410,7 +26975,7 @@
         <v>3</v>
       </c>
       <c r="R116" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S116:$V116)</f>
         <v>0</v>
       </c>
       <c r="S116" s="9">
@@ -26437,7 +27002,9 @@
       <c r="Z116" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA116" s="9"/>
+      <c r="AA116" s="9">
+        <v>111781</v>
+      </c>
       <c r="AB116" s="9"/>
     </row>
     <row r="117" spans="1:29">
@@ -26448,7 +27015,7 @@
         <v>204</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>67</v>
@@ -26493,7 +27060,7 @@
         <v>3</v>
       </c>
       <c r="R117" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S117:$V117)</f>
         <v>0</v>
       </c>
       <c r="S117" s="9">
@@ -26520,8 +27087,12 @@
       <c r="Z117" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA117" s="9"/>
-      <c r="AB117" s="9"/>
+      <c r="AA117" s="9">
+        <v>111811</v>
+      </c>
+      <c r="AB117" s="9">
+        <v>111812</v>
+      </c>
     </row>
     <row r="118" spans="1:29">
       <c r="A118" s="3">
@@ -26531,7 +27102,7 @@
         <v>204</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>67</v>
@@ -26576,7 +27147,7 @@
         <v>3</v>
       </c>
       <c r="R118" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S118:$V118)</f>
         <v>0</v>
       </c>
       <c r="S118" s="9">
@@ -26603,7 +27174,9 @@
       <c r="Z118" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA118" s="9"/>
+      <c r="AA118" s="9">
+        <v>111821</v>
+      </c>
       <c r="AB118" s="9"/>
     </row>
     <row r="119" spans="1:29">
@@ -26614,7 +27187,7 @@
         <v>204</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>67</v>
@@ -26659,7 +27232,7 @@
         <v>3</v>
       </c>
       <c r="R119" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S119:$V119)</f>
         <v>0</v>
       </c>
       <c r="S119" s="9">
@@ -26686,7 +27259,9 @@
       <c r="Z119" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA119" s="9"/>
+      <c r="AA119" s="9">
+        <v>111831</v>
+      </c>
       <c r="AB119" s="9"/>
     </row>
     <row r="120" spans="1:29">
@@ -26697,7 +27272,7 @@
         <v>204</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>81</v>
@@ -26742,7 +27317,7 @@
         <v>3</v>
       </c>
       <c r="R120" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S120:$V120)</f>
         <v>0</v>
       </c>
       <c r="S120" s="9">
@@ -26769,7 +27344,9 @@
       <c r="Z120" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA120" s="9"/>
+      <c r="AA120" s="9">
+        <v>111851</v>
+      </c>
       <c r="AB120" s="9"/>
     </row>
     <row r="121" spans="1:29">
@@ -26780,7 +27357,7 @@
         <v>204</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>71</v>
@@ -26825,7 +27402,7 @@
         <v>3</v>
       </c>
       <c r="R121" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S121:$V121)</f>
         <v>0</v>
       </c>
       <c r="S121" s="9">
@@ -26852,7 +27429,9 @@
       <c r="Z121" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA121" s="9"/>
+      <c r="AA121" s="9">
+        <v>111871</v>
+      </c>
       <c r="AB121" s="9"/>
     </row>
     <row r="122" spans="1:29">
@@ -26863,7 +27442,7 @@
         <v>204</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>71</v>
@@ -26908,7 +27487,7 @@
         <v>3</v>
       </c>
       <c r="R122" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S122:$V122)</f>
         <v>0</v>
       </c>
       <c r="S122" s="9">
@@ -26935,7 +27514,9 @@
       <c r="Z122" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA122" s="9"/>
+      <c r="AA122" s="9">
+        <v>111881</v>
+      </c>
       <c r="AB122" s="9"/>
     </row>
     <row r="123" spans="1:29">
@@ -26946,7 +27527,7 @@
         <v>204</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>81</v>
@@ -26991,7 +27572,7 @@
         <v>3</v>
       </c>
       <c r="R123" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S123:$V123)</f>
         <v>0</v>
       </c>
       <c r="S123" s="9">
@@ -27018,267 +27599,269 @@
       <c r="Z123" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA123" s="9"/>
+      <c r="AA123" s="9">
+        <v>111921</v>
+      </c>
       <c r="AB123" s="9"/>
     </row>
     <row r="124" spans="1:29">
-      <c r="A124" s="22">
+      <c r="A124" s="21">
         <v>11194</v>
       </c>
       <c r="B124" t="s">
         <v>209</v>
       </c>
-      <c r="C124" s="23" t="s">
-        <v>2062</v>
-      </c>
-      <c r="D124" s="24" t="s">
+      <c r="C124" s="22" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D124" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E124" s="25">
+      <c r="E124" s="24">
         <v>17</v>
       </c>
-      <c r="F124" s="25">
+      <c r="F124" s="24">
         <v>26</v>
       </c>
-      <c r="G124" s="25">
+      <c r="G124" s="24">
         <v>89</v>
       </c>
-      <c r="H124" s="25">
+      <c r="H124" s="24">
         <v>32</v>
       </c>
-      <c r="I124" s="25">
-        <v>0</v>
-      </c>
-      <c r="J124" s="26">
-        <v>0</v>
-      </c>
-      <c r="K124" s="26">
+      <c r="I124" s="24">
+        <v>0</v>
+      </c>
+      <c r="J124" s="25">
+        <v>0</v>
+      </c>
+      <c r="K124" s="25">
         <v>108</v>
       </c>
-      <c r="L124" s="26">
+      <c r="L124" s="25">
         <v>47</v>
       </c>
-      <c r="M124" s="26">
+      <c r="M124" s="25">
         <v>49</v>
       </c>
-      <c r="N124" s="25">
+      <c r="N124" s="24">
         <v>21</v>
       </c>
-      <c r="O124" s="26">
-        <v>1</v>
-      </c>
-      <c r="P124" s="25">
+      <c r="O124" s="25">
+        <v>1</v>
+      </c>
+      <c r="P124" s="24">
         <v>25</v>
       </c>
-      <c r="Q124" s="26">
+      <c r="Q124" s="25">
         <v>3</v>
       </c>
       <c r="R124" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S124" s="26">
-        <v>0</v>
-      </c>
-      <c r="T124" s="26">
-        <v>0</v>
-      </c>
-      <c r="U124" s="26">
-        <v>0</v>
-      </c>
-      <c r="V124" s="26">
-        <v>0</v>
-      </c>
-      <c r="W124" s="26">
+        <f>SUM($S124:$V124)</f>
+        <v>0</v>
+      </c>
+      <c r="S124" s="25">
+        <v>0</v>
+      </c>
+      <c r="T124" s="25">
+        <v>0</v>
+      </c>
+      <c r="U124" s="25">
+        <v>0</v>
+      </c>
+      <c r="V124" s="25">
+        <v>0</v>
+      </c>
+      <c r="W124" s="25">
         <v>20</v>
       </c>
-      <c r="X124" s="26">
+      <c r="X124" s="25">
         <v>25</v>
       </c>
-      <c r="Y124" s="26">
+      <c r="Y124" s="25">
         <v>0.64</v>
       </c>
-      <c r="Z124" s="26">
+      <c r="Z124" s="25">
         <v>0.75</v>
       </c>
-      <c r="AA124">
+      <c r="AA124" s="9">
         <v>111941</v>
       </c>
-      <c r="AB124"/>
+      <c r="AB124" s="9"/>
     </row>
     <row r="125" spans="1:29">
-      <c r="A125" s="22">
+      <c r="A125" s="21">
         <v>11195</v>
       </c>
       <c r="B125" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="23" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D125" s="24" t="s">
+      <c r="C125" s="22" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D125" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E125" s="25">
+      <c r="E125" s="24">
         <v>17</v>
       </c>
-      <c r="F125" s="25">
+      <c r="F125" s="24">
         <v>26</v>
       </c>
-      <c r="G125" s="25">
+      <c r="G125" s="24">
         <v>89</v>
       </c>
-      <c r="H125" s="25">
+      <c r="H125" s="24">
         <v>32</v>
       </c>
-      <c r="I125" s="25">
-        <v>0</v>
-      </c>
-      <c r="J125" s="26">
-        <v>0</v>
-      </c>
-      <c r="K125" s="26">
+      <c r="I125" s="24">
+        <v>0</v>
+      </c>
+      <c r="J125" s="25">
+        <v>0</v>
+      </c>
+      <c r="K125" s="25">
         <v>108</v>
       </c>
-      <c r="L125" s="26">
+      <c r="L125" s="25">
         <v>47</v>
       </c>
-      <c r="M125" s="26">
+      <c r="M125" s="25">
         <v>49</v>
       </c>
-      <c r="N125" s="25">
+      <c r="N125" s="24">
         <v>21</v>
       </c>
-      <c r="O125" s="26">
-        <v>1</v>
-      </c>
-      <c r="P125" s="25">
+      <c r="O125" s="25">
+        <v>1</v>
+      </c>
+      <c r="P125" s="24">
         <v>30</v>
       </c>
-      <c r="Q125" s="26">
+      <c r="Q125" s="25">
         <v>3</v>
       </c>
       <c r="R125" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S125" s="26">
-        <v>0</v>
-      </c>
-      <c r="T125" s="26">
-        <v>0</v>
-      </c>
-      <c r="U125" s="26">
-        <v>0</v>
-      </c>
-      <c r="V125" s="26">
-        <v>0</v>
-      </c>
-      <c r="W125" s="26">
+        <f>SUM($S125:$V125)</f>
+        <v>0</v>
+      </c>
+      <c r="S125" s="25">
+        <v>0</v>
+      </c>
+      <c r="T125" s="25">
+        <v>0</v>
+      </c>
+      <c r="U125" s="25">
+        <v>0</v>
+      </c>
+      <c r="V125" s="25">
+        <v>0</v>
+      </c>
+      <c r="W125" s="25">
         <v>20</v>
       </c>
-      <c r="X125" s="26">
+      <c r="X125" s="25">
         <v>25</v>
       </c>
-      <c r="Y125" s="26">
+      <c r="Y125" s="25">
         <v>0.64</v>
       </c>
-      <c r="Z125" s="26">
+      <c r="Z125" s="25">
         <v>0.75</v>
       </c>
-      <c r="AA125">
+      <c r="AA125" s="9">
         <v>111951</v>
       </c>
-      <c r="AB125"/>
+      <c r="AB125" s="9"/>
     </row>
     <row r="126" spans="1:29">
-      <c r="A126" s="22">
+      <c r="A126" s="21">
         <v>11197</v>
       </c>
       <c r="B126" t="s">
         <v>209</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="22" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E126" s="24">
+        <v>15</v>
+      </c>
+      <c r="F126" s="24">
+        <v>25</v>
+      </c>
+      <c r="G126" s="24">
+        <v>80</v>
+      </c>
+      <c r="H126" s="24">
+        <v>30</v>
+      </c>
+      <c r="I126" s="24">
+        <v>0</v>
+      </c>
+      <c r="J126" s="25">
+        <v>0</v>
+      </c>
+      <c r="K126" s="25">
+        <v>102</v>
+      </c>
+      <c r="L126" s="25">
+        <v>45</v>
+      </c>
+      <c r="M126" s="25">
+        <v>48</v>
+      </c>
+      <c r="N126" s="24">
+        <v>18</v>
+      </c>
+      <c r="O126" s="25">
+        <v>1</v>
+      </c>
+      <c r="P126" s="24">
+        <v>20</v>
+      </c>
+      <c r="Q126" s="25">
+        <v>3</v>
+      </c>
+      <c r="R126" s="13">
+        <f>SUM($S126:$V126)</f>
+        <v>0</v>
+      </c>
+      <c r="S126" s="25">
+        <v>0</v>
+      </c>
+      <c r="T126" s="25">
+        <v>0</v>
+      </c>
+      <c r="U126" s="25">
+        <v>0</v>
+      </c>
+      <c r="V126" s="25">
+        <v>0</v>
+      </c>
+      <c r="W126" s="25">
+        <v>15</v>
+      </c>
+      <c r="X126" s="25">
+        <v>20</v>
+      </c>
+      <c r="Y126" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="Z126" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AA126" s="9">
+        <v>111971</v>
+      </c>
+      <c r="AB126" s="9">
+        <v>111972</v>
+      </c>
+      <c r="AC126" s="9" t="s">
         <v>2064</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E126" s="25">
-        <v>15</v>
-      </c>
-      <c r="F126" s="25">
-        <v>25</v>
-      </c>
-      <c r="G126" s="25">
-        <v>80</v>
-      </c>
-      <c r="H126" s="25">
-        <v>30</v>
-      </c>
-      <c r="I126" s="25">
-        <v>0</v>
-      </c>
-      <c r="J126" s="26">
-        <v>0</v>
-      </c>
-      <c r="K126" s="26">
-        <v>102</v>
-      </c>
-      <c r="L126" s="26">
-        <v>45</v>
-      </c>
-      <c r="M126" s="26">
-        <v>48</v>
-      </c>
-      <c r="N126" s="25">
-        <v>18</v>
-      </c>
-      <c r="O126" s="26">
-        <v>1</v>
-      </c>
-      <c r="P126" s="25">
-        <v>20</v>
-      </c>
-      <c r="Q126" s="26">
-        <v>3</v>
-      </c>
-      <c r="R126" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S126" s="26">
-        <v>0</v>
-      </c>
-      <c r="T126" s="26">
-        <v>0</v>
-      </c>
-      <c r="U126" s="26">
-        <v>0</v>
-      </c>
-      <c r="V126" s="26">
-        <v>0</v>
-      </c>
-      <c r="W126" s="26">
-        <v>15</v>
-      </c>
-      <c r="X126" s="26">
-        <v>20</v>
-      </c>
-      <c r="Y126" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="Z126" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="AA126">
-        <v>111971</v>
-      </c>
-      <c r="AB126">
-        <v>111972</v>
-      </c>
-      <c r="AC126" s="9" t="s">
-        <v>2065</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -27286,13 +27869,13 @@
         <v>11199</v>
       </c>
       <c r="B127" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C127" t="s">
         <v>2071</v>
       </c>
-      <c r="C127" t="s">
-        <v>2072</v>
-      </c>
       <c r="D127" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="E127">
         <v>25</v>
@@ -27334,7 +27917,7 @@
         <v>3</v>
       </c>
       <c r="R127" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S127:$V127)</f>
         <v>0</v>
       </c>
       <c r="S127">
@@ -27361,10 +27944,10 @@
       <c r="Z127">
         <v>1</v>
       </c>
-      <c r="AA127">
+      <c r="AA127" s="9">
         <v>111991</v>
       </c>
-      <c r="AB127"/>
+      <c r="AB127" s="9"/>
     </row>
     <row r="128" spans="1:29">
       <c r="A128" s="3">
@@ -27419,7 +28002,7 @@
         <v>4</v>
       </c>
       <c r="R128" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S128:$V128)</f>
         <v>0</v>
       </c>
       <c r="S128" s="15">
@@ -27506,7 +28089,7 @@
         <v>4</v>
       </c>
       <c r="R129" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM($S129:$V129)</f>
         <v>12</v>
       </c>
       <c r="S129" s="15">
@@ -27545,13 +28128,13 @@
         <v>11209</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>1870</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E130" s="13">
         <v>92</v>
@@ -27593,7 +28176,7 @@
         <v>4</v>
       </c>
       <c r="R130" s="13">
-        <f t="shared" ref="R130:R161" si="4">SUM($S130:$V130)</f>
+        <f>SUM($S130:$V130)</f>
         <v>32</v>
       </c>
       <c r="S130" s="13">
@@ -27620,10 +28203,10 @@
       <c r="Z130" s="13">
         <v>9</v>
       </c>
-      <c r="AA130" s="13">
+      <c r="AA130" s="9">
         <v>102091</v>
       </c>
-      <c r="AB130" s="26">
+      <c r="AB130" s="9">
         <v>112092</v>
       </c>
     </row>
@@ -27635,7 +28218,7 @@
         <v>207</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>71</v>
@@ -27680,7 +28263,7 @@
         <v>4</v>
       </c>
       <c r="R131" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S131:$V131)</f>
         <v>12</v>
       </c>
       <c r="S131" s="15">
@@ -27765,7 +28348,7 @@
         <v>4</v>
       </c>
       <c r="R132" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S132:$V132)</f>
         <v>87</v>
       </c>
       <c r="S132" s="13">
@@ -27792,9 +28375,10 @@
       <c r="Z132" s="9">
         <v>4.5</v>
       </c>
-      <c r="AA132" s="13">
+      <c r="AA132" s="9">
         <v>112191</v>
       </c>
+      <c r="AB132" s="9"/>
     </row>
     <row r="133" spans="1:28">
       <c r="A133" s="3">
@@ -27849,7 +28433,7 @@
         <v>4</v>
       </c>
       <c r="R133" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S133:$V133)</f>
         <v>87</v>
       </c>
       <c r="S133" s="13">
@@ -27876,9 +28460,10 @@
       <c r="Z133" s="9">
         <v>4.5</v>
       </c>
-      <c r="AA133" s="13">
+      <c r="AA133" s="9">
         <v>112201</v>
       </c>
+      <c r="AB133" s="9"/>
     </row>
     <row r="134" spans="1:28">
       <c r="A134" s="3">
@@ -27933,7 +28518,7 @@
         <v>4</v>
       </c>
       <c r="R134" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S134:$V134)</f>
         <v>73</v>
       </c>
       <c r="S134" s="13">
@@ -27960,10 +28545,10 @@
       <c r="Z134" s="9">
         <v>4.3</v>
       </c>
-      <c r="AA134" s="13">
+      <c r="AA134" s="9">
         <v>112211</v>
       </c>
-      <c r="AB134" s="13">
+      <c r="AB134" s="9">
         <v>112212</v>
       </c>
     </row>
@@ -28020,7 +28605,7 @@
         <v>4</v>
       </c>
       <c r="R135" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S135:$V135)</f>
         <v>70</v>
       </c>
       <c r="S135" s="13">
@@ -28047,9 +28632,10 @@
       <c r="Z135" s="9">
         <v>4.2</v>
       </c>
-      <c r="AA135" s="13">
+      <c r="AA135" s="9">
         <v>112221</v>
       </c>
+      <c r="AB135" s="9"/>
     </row>
     <row r="136" spans="1:28">
       <c r="A136" s="3">
@@ -28104,7 +28690,7 @@
         <v>4</v>
       </c>
       <c r="R136" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S136:$V136)</f>
         <v>72</v>
       </c>
       <c r="S136" s="13">
@@ -28131,10 +28717,10 @@
       <c r="Z136" s="9">
         <v>7</v>
       </c>
-      <c r="AA136" s="13">
+      <c r="AA136" s="9">
         <v>112231</v>
       </c>
-      <c r="AB136" s="13">
+      <c r="AB136" s="9">
         <v>112232</v>
       </c>
     </row>
@@ -28191,7 +28777,7 @@
         <v>4</v>
       </c>
       <c r="R137" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S137:$V137)</f>
         <v>69</v>
       </c>
       <c r="S137" s="13">
@@ -28218,10 +28804,10 @@
       <c r="Z137" s="9">
         <v>5.6</v>
       </c>
-      <c r="AA137" s="13">
+      <c r="AA137" s="9">
         <v>102241</v>
       </c>
-      <c r="AB137" s="13">
+      <c r="AB137" s="9">
         <v>112242</v>
       </c>
     </row>
@@ -28278,7 +28864,7 @@
         <v>4</v>
       </c>
       <c r="R138" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S138:$V138)</f>
         <v>82</v>
       </c>
       <c r="S138" s="13">
@@ -28305,9 +28891,10 @@
       <c r="Z138" s="9">
         <v>3.9</v>
       </c>
-      <c r="AA138" s="13">
+      <c r="AA138" s="9">
         <v>112251</v>
       </c>
+      <c r="AB138" s="9"/>
     </row>
     <row r="139" spans="1:28">
       <c r="A139" s="3">
@@ -28362,7 +28949,7 @@
         <v>3</v>
       </c>
       <c r="R139" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S139:$V139)</f>
         <v>55</v>
       </c>
       <c r="S139" s="13">
@@ -28389,9 +28976,10 @@
       <c r="Z139" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA139" s="13">
+      <c r="AA139" s="9">
         <v>112271</v>
       </c>
+      <c r="AB139" s="9"/>
     </row>
     <row r="140" spans="1:28">
       <c r="A140" s="3">
@@ -28446,7 +29034,7 @@
         <v>3</v>
       </c>
       <c r="R140" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S140:$V140)</f>
         <v>55</v>
       </c>
       <c r="S140" s="13">
@@ -28473,19 +29061,20 @@
       <c r="Z140" s="9">
         <v>2.4</v>
       </c>
-      <c r="AA140" s="13">
+      <c r="AA140" s="9">
         <v>112281</v>
       </c>
+      <c r="AB140" s="9"/>
     </row>
     <row r="141" spans="1:28">
       <c r="A141" s="3">
         <v>11233</v>
       </c>
       <c r="B141" s="13" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C141" s="14" t="s">
         <v>1949</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>1950</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>3</v>
@@ -28530,7 +29119,7 @@
         <v>4</v>
       </c>
       <c r="R141" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S141:$V141)</f>
         <v>12</v>
       </c>
       <c r="S141" s="9">
@@ -28570,7 +29159,7 @@
         <v>206</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>67</v>
@@ -28615,7 +29204,7 @@
         <v>4</v>
       </c>
       <c r="R142" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S142:$V142)</f>
         <v>8</v>
       </c>
       <c r="S142" s="9">
@@ -28700,7 +29289,7 @@
         <v>4</v>
       </c>
       <c r="R143" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S143:$V143)</f>
         <v>8</v>
       </c>
       <c r="S143" s="9">
@@ -28739,10 +29328,10 @@
         <v>11248</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>3</v>
@@ -28787,7 +29376,7 @@
         <v>4</v>
       </c>
       <c r="R144" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S144:$V144)</f>
         <v>18</v>
       </c>
       <c r="S144" s="9">
@@ -28827,7 +29416,7 @@
         <v>204</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>3</v>
@@ -28872,7 +29461,7 @@
         <v>3</v>
       </c>
       <c r="R145" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S145:$V145)</f>
         <v>0</v>
       </c>
       <c r="S145" s="9">
@@ -28899,7 +29488,9 @@
       <c r="Z145" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA145" s="9"/>
+      <c r="AA145" s="9">
+        <v>112651</v>
+      </c>
       <c r="AB145" s="9"/>
     </row>
     <row r="146" spans="1:29">
@@ -28910,7 +29501,7 @@
         <v>204</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>68</v>
@@ -28955,7 +29546,7 @@
         <v>3</v>
       </c>
       <c r="R146" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S146:$V146)</f>
         <v>0</v>
       </c>
       <c r="S146" s="9">
@@ -28987,7 +29578,7 @@
       </c>
       <c r="AB146" s="9"/>
       <c r="AC146" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -28998,7 +29589,7 @@
         <v>204</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>68</v>
@@ -29043,7 +29634,7 @@
         <v>3</v>
       </c>
       <c r="R147" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S147:$V147)</f>
         <v>0</v>
       </c>
       <c r="S147" s="9">
@@ -29070,10 +29661,12 @@
       <c r="Z147" s="9">
         <v>0.99</v>
       </c>
-      <c r="AA147" s="9"/>
+      <c r="AA147" s="9">
+        <v>112701</v>
+      </c>
       <c r="AB147" s="9"/>
       <c r="AC147" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -29084,7 +29677,7 @@
         <v>204</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>67</v>
@@ -29129,7 +29722,7 @@
         <v>3</v>
       </c>
       <c r="R148" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S148:$V148)</f>
         <v>0</v>
       </c>
       <c r="S148" s="9">
@@ -29156,8 +29749,12 @@
       <c r="Z148" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA148" s="9"/>
-      <c r="AB148" s="9"/>
+      <c r="AA148" s="9">
+        <v>112781</v>
+      </c>
+      <c r="AB148" s="9">
+        <v>112782</v>
+      </c>
     </row>
     <row r="149" spans="1:29">
       <c r="A149" s="3">
@@ -29167,7 +29764,7 @@
         <v>204</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>67</v>
@@ -29212,7 +29809,7 @@
         <v>3</v>
       </c>
       <c r="R149" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S149:$V149)</f>
         <v>0</v>
       </c>
       <c r="S149" s="9">
@@ -29239,8 +29836,12 @@
       <c r="Z149" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA149" s="9"/>
-      <c r="AB149" s="9"/>
+      <c r="AA149" s="9">
+        <v>112791</v>
+      </c>
+      <c r="AB149" s="9">
+        <v>112782</v>
+      </c>
     </row>
     <row r="150" spans="1:29">
       <c r="A150" s="3">
@@ -29250,7 +29851,7 @@
         <v>204</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>67</v>
@@ -29295,7 +29896,7 @@
         <v>3</v>
       </c>
       <c r="R150" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S150:$V150)</f>
         <v>0</v>
       </c>
       <c r="S150" s="9">
@@ -29322,87 +29923,91 @@
       <c r="Z150" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA150" s="9"/>
-      <c r="AB150" s="9"/>
+      <c r="AA150" s="9">
+        <v>112801</v>
+      </c>
+      <c r="AB150" s="9">
+        <v>112782</v>
+      </c>
     </row>
     <row r="151" spans="1:29">
-      <c r="A151" s="22">
+      <c r="A151" s="21">
         <v>11289</v>
       </c>
       <c r="B151" t="s">
         <v>209</v>
       </c>
-      <c r="C151" s="23" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D151" s="24" t="s">
+      <c r="C151" s="22" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D151" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E151" s="25">
+      <c r="E151" s="24">
         <v>15</v>
       </c>
-      <c r="F151" s="25">
+      <c r="F151" s="24">
         <v>25</v>
       </c>
-      <c r="G151" s="25">
+      <c r="G151" s="24">
         <v>78</v>
       </c>
-      <c r="H151" s="25">
+      <c r="H151" s="24">
         <v>30</v>
       </c>
-      <c r="I151" s="25">
-        <v>0</v>
-      </c>
-      <c r="J151" s="26">
-        <v>0</v>
-      </c>
-      <c r="K151" s="26">
+      <c r="I151" s="24">
+        <v>0</v>
+      </c>
+      <c r="J151" s="25">
+        <v>0</v>
+      </c>
+      <c r="K151" s="25">
         <v>102</v>
       </c>
-      <c r="L151" s="26">
+      <c r="L151" s="25">
         <v>45</v>
       </c>
-      <c r="M151" s="26">
+      <c r="M151" s="25">
         <v>49</v>
       </c>
-      <c r="N151" s="25">
+      <c r="N151" s="24">
         <v>18</v>
       </c>
-      <c r="O151" s="26">
-        <v>1</v>
-      </c>
-      <c r="P151" s="25">
+      <c r="O151" s="25">
+        <v>1</v>
+      </c>
+      <c r="P151" s="24">
         <v>18</v>
       </c>
-      <c r="Q151" s="26">
+      <c r="Q151" s="25">
         <v>3</v>
       </c>
       <c r="R151" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S151" s="26">
-        <v>0</v>
-      </c>
-      <c r="T151" s="26">
-        <v>0</v>
-      </c>
-      <c r="U151" s="26">
-        <v>0</v>
-      </c>
-      <c r="V151" s="26">
-        <v>0</v>
-      </c>
-      <c r="W151" s="26">
+        <f>SUM($S151:$V151)</f>
+        <v>0</v>
+      </c>
+      <c r="S151" s="25">
+        <v>0</v>
+      </c>
+      <c r="T151" s="25">
+        <v>0</v>
+      </c>
+      <c r="U151" s="25">
+        <v>0</v>
+      </c>
+      <c r="V151" s="25">
+        <v>0</v>
+      </c>
+      <c r="W151" s="25">
         <v>15</v>
       </c>
-      <c r="X151" s="26">
+      <c r="X151" s="25">
         <v>20</v>
       </c>
-      <c r="Y151" s="26">
+      <c r="Y151" s="25">
         <v>0.6</v>
       </c>
-      <c r="Z151" s="26">
+      <c r="Z151" s="25">
         <v>0.5</v>
       </c>
       <c r="AA151">
@@ -29410,7 +30015,7 @@
       </c>
       <c r="AB151"/>
       <c r="AC151" s="9" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -29420,77 +30025,77 @@
       <c r="B152" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="23" t="s">
-        <v>2067</v>
-      </c>
-      <c r="D152" s="24" t="s">
+      <c r="C152" s="22" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D152" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E152" s="26">
+      <c r="E152" s="25">
         <v>15</v>
       </c>
-      <c r="F152" s="26">
+      <c r="F152" s="25">
         <v>23</v>
       </c>
-      <c r="G152" s="26">
+      <c r="G152" s="25">
         <v>80</v>
       </c>
-      <c r="H152" s="26">
+      <c r="H152" s="25">
         <v>30</v>
       </c>
-      <c r="I152" s="26">
-        <v>0</v>
-      </c>
-      <c r="J152" s="26">
-        <v>0</v>
-      </c>
-      <c r="K152" s="27">
+      <c r="I152" s="25">
+        <v>0</v>
+      </c>
+      <c r="J152" s="25">
+        <v>0</v>
+      </c>
+      <c r="K152" s="26">
         <v>102</v>
       </c>
-      <c r="L152" s="26">
+      <c r="L152" s="25">
         <v>47</v>
       </c>
-      <c r="M152" s="26">
+      <c r="M152" s="25">
         <v>48</v>
       </c>
-      <c r="N152" s="26">
+      <c r="N152" s="25">
         <v>18</v>
       </c>
-      <c r="O152" s="26">
-        <v>1</v>
-      </c>
-      <c r="P152" s="26">
+      <c r="O152" s="25">
+        <v>1</v>
+      </c>
+      <c r="P152" s="25">
         <v>19</v>
       </c>
-      <c r="Q152" s="26">
+      <c r="Q152" s="25">
         <v>3</v>
       </c>
       <c r="R152" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S152" s="26">
-        <v>0</v>
-      </c>
-      <c r="T152" s="26">
-        <v>0</v>
-      </c>
-      <c r="U152" s="26">
-        <v>0</v>
-      </c>
-      <c r="V152" s="26">
-        <v>0</v>
-      </c>
-      <c r="W152" s="26">
+        <f>SUM($S152:$V152)</f>
+        <v>0</v>
+      </c>
+      <c r="S152" s="25">
+        <v>0</v>
+      </c>
+      <c r="T152" s="25">
+        <v>0</v>
+      </c>
+      <c r="U152" s="25">
+        <v>0</v>
+      </c>
+      <c r="V152" s="25">
+        <v>0</v>
+      </c>
+      <c r="W152" s="25">
         <v>15</v>
       </c>
-      <c r="X152" s="26">
+      <c r="X152" s="25">
         <v>25</v>
       </c>
-      <c r="Y152" s="26">
+      <c r="Y152" s="25">
         <v>0.6</v>
       </c>
-      <c r="Z152" s="26">
+      <c r="Z152" s="25">
         <v>0.5</v>
       </c>
       <c r="AA152">
@@ -29498,7 +30103,7 @@
       </c>
       <c r="AB152"/>
       <c r="AC152" s="9" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -29508,77 +30113,77 @@
       <c r="B153" t="s">
         <v>209</v>
       </c>
-      <c r="C153" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D153" s="24" t="s">
+      <c r="C153" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D153" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E153" s="26">
+      <c r="E153" s="25">
         <v>15</v>
       </c>
-      <c r="F153" s="26">
+      <c r="F153" s="25">
         <v>25</v>
       </c>
-      <c r="G153" s="26">
+      <c r="G153" s="25">
         <v>77</v>
       </c>
-      <c r="H153" s="26">
+      <c r="H153" s="25">
         <v>30</v>
       </c>
-      <c r="I153" s="26">
-        <v>0</v>
-      </c>
-      <c r="J153" s="26">
-        <v>0</v>
-      </c>
-      <c r="K153" s="27">
+      <c r="I153" s="25">
+        <v>0</v>
+      </c>
+      <c r="J153" s="25">
+        <v>0</v>
+      </c>
+      <c r="K153" s="26">
         <v>101</v>
       </c>
-      <c r="L153" s="26">
+      <c r="L153" s="25">
         <v>45</v>
       </c>
-      <c r="M153" s="26">
+      <c r="M153" s="25">
         <v>49</v>
       </c>
-      <c r="N153" s="26">
+      <c r="N153" s="25">
         <v>18</v>
       </c>
-      <c r="O153" s="26">
-        <v>1</v>
-      </c>
-      <c r="P153" s="26">
+      <c r="O153" s="25">
+        <v>1</v>
+      </c>
+      <c r="P153" s="25">
         <v>8</v>
       </c>
-      <c r="Q153" s="26">
+      <c r="Q153" s="25">
         <v>3</v>
       </c>
       <c r="R153" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S153" s="26">
-        <v>0</v>
-      </c>
-      <c r="T153" s="26">
-        <v>0</v>
-      </c>
-      <c r="U153" s="26">
-        <v>0</v>
-      </c>
-      <c r="V153" s="26">
-        <v>0</v>
-      </c>
-      <c r="W153" s="26">
+        <f>SUM($S153:$V153)</f>
+        <v>0</v>
+      </c>
+      <c r="S153" s="25">
+        <v>0</v>
+      </c>
+      <c r="T153" s="25">
+        <v>0</v>
+      </c>
+      <c r="U153" s="25">
+        <v>0</v>
+      </c>
+      <c r="V153" s="25">
+        <v>0</v>
+      </c>
+      <c r="W153" s="25">
         <v>15</v>
       </c>
-      <c r="X153" s="26">
+      <c r="X153" s="25">
         <v>25</v>
       </c>
-      <c r="Y153" s="26">
+      <c r="Y153" s="25">
         <v>0.6</v>
       </c>
-      <c r="Z153" s="26">
+      <c r="Z153" s="25">
         <v>0.5</v>
       </c>
       <c r="AA153">
@@ -29586,7 +30191,7 @@
       </c>
       <c r="AB153"/>
       <c r="AC153" s="9" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -29594,13 +30199,13 @@
         <v>11299</v>
       </c>
       <c r="B154" s="13" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>2047</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="D154" s="13" t="s">
         <v>2048</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>2049</v>
       </c>
       <c r="E154" s="13">
         <v>88</v>
@@ -29642,7 +30247,7 @@
         <v>4</v>
       </c>
       <c r="R154" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S154:$V154)</f>
         <v>32</v>
       </c>
       <c r="S154" s="13">
@@ -29672,7 +30277,7 @@
       <c r="AA154" s="13">
         <v>102991</v>
       </c>
-      <c r="AB154" s="26">
+      <c r="AB154" s="25">
         <v>112992</v>
       </c>
     </row>
@@ -29684,7 +30289,7 @@
         <v>204</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>67</v>
@@ -29729,7 +30334,7 @@
         <v>3</v>
       </c>
       <c r="R155" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S155:$V155)</f>
         <v>0</v>
       </c>
       <c r="S155" s="9">
@@ -29756,7 +30361,9 @@
       <c r="Z155" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA155" s="9"/>
+      <c r="AA155" s="9">
+        <v>113011</v>
+      </c>
       <c r="AB155" s="9"/>
     </row>
     <row r="156" spans="1:29">
@@ -29767,7 +30374,7 @@
         <v>204</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>69</v>
@@ -29812,7 +30419,7 @@
         <v>3</v>
       </c>
       <c r="R156" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S156:$V156)</f>
         <v>0</v>
       </c>
       <c r="S156" s="9">
@@ -29839,7 +30446,9 @@
       <c r="Z156" s="9">
         <v>0.95</v>
       </c>
-      <c r="AA156" s="9"/>
+      <c r="AA156" s="9">
+        <v>113061</v>
+      </c>
       <c r="AB156" s="9"/>
     </row>
     <row r="157" spans="1:29">
@@ -29850,7 +30459,7 @@
         <v>204</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>81</v>
@@ -29895,7 +30504,7 @@
         <v>3</v>
       </c>
       <c r="R157" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S157:$V157)</f>
         <v>0</v>
       </c>
       <c r="S157" s="9">
@@ -29935,7 +30544,7 @@
         <v>204</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>81</v>
@@ -29980,7 +30589,7 @@
         <v>3</v>
       </c>
       <c r="R158" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S158:$V158)</f>
         <v>0</v>
       </c>
       <c r="S158" s="9">
@@ -30007,7 +30616,9 @@
       <c r="Z158" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA158" s="9"/>
+      <c r="AA158" s="9">
+        <v>113231</v>
+      </c>
       <c r="AB158" s="9"/>
     </row>
     <row r="159" spans="1:29">
@@ -30018,7 +30629,7 @@
         <v>204</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>70</v>
@@ -30063,7 +30674,7 @@
         <v>3</v>
       </c>
       <c r="R159" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S159:$V159)</f>
         <v>0</v>
       </c>
       <c r="S159" s="9">
@@ -30148,7 +30759,7 @@
         <v>4</v>
       </c>
       <c r="R160" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S160:$V160)</f>
         <v>82</v>
       </c>
       <c r="S160" s="13">
@@ -30190,7 +30801,7 @@
         <v>204</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>67</v>
@@ -30235,7 +30846,7 @@
         <v>3</v>
       </c>
       <c r="R161" s="13">
-        <f t="shared" si="4"/>
+        <f>SUM($S161:$V161)</f>
         <v>0</v>
       </c>
       <c r="S161" s="9">
@@ -30262,7 +30873,9 @@
       <c r="Z161" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA161" s="9"/>
+      <c r="AA161" s="9">
+        <v>113421</v>
+      </c>
       <c r="AB161" s="9"/>
     </row>
     <row r="162" spans="1:29">
@@ -30273,7 +30886,7 @@
         <v>204</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>67</v>
@@ -30318,7 +30931,7 @@
         <v>3</v>
       </c>
       <c r="R162" s="13">
-        <f t="shared" ref="R162:R171" si="5">SUM($S162:$V162)</f>
+        <f>SUM($S162:$V162)</f>
         <v>0</v>
       </c>
       <c r="S162" s="9">
@@ -30345,95 +30958,97 @@
       <c r="Z162" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA162" s="9"/>
+      <c r="AA162" s="9">
+        <v>113441</v>
+      </c>
       <c r="AB162" s="9"/>
     </row>
     <row r="163" spans="1:29">
-      <c r="A163" s="22">
+      <c r="A163" s="21">
         <v>11351</v>
       </c>
       <c r="B163" t="s">
         <v>209</v>
       </c>
-      <c r="C163" s="23" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D163" s="24" t="s">
+      <c r="C163" s="22" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D163" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E163" s="25">
+      <c r="E163" s="24">
         <v>12</v>
       </c>
-      <c r="F163" s="25">
+      <c r="F163" s="24">
         <v>22</v>
       </c>
-      <c r="G163" s="25">
+      <c r="G163" s="24">
         <v>67</v>
       </c>
-      <c r="H163" s="25">
+      <c r="H163" s="24">
         <v>25</v>
       </c>
-      <c r="I163" s="25">
-        <v>0</v>
-      </c>
-      <c r="J163" s="26">
-        <v>0</v>
-      </c>
-      <c r="K163" s="26">
+      <c r="I163" s="24">
+        <v>0</v>
+      </c>
+      <c r="J163" s="25">
+        <v>0</v>
+      </c>
+      <c r="K163" s="25">
         <v>102</v>
       </c>
-      <c r="L163" s="26">
+      <c r="L163" s="25">
         <v>68</v>
       </c>
-      <c r="M163" s="26">
+      <c r="M163" s="25">
         <v>28</v>
       </c>
-      <c r="N163" s="25">
+      <c r="N163" s="24">
         <v>25</v>
       </c>
-      <c r="O163" s="26">
-        <v>1</v>
-      </c>
-      <c r="P163" s="25">
+      <c r="O163" s="25">
+        <v>1</v>
+      </c>
+      <c r="P163" s="24">
         <v>10</v>
       </c>
-      <c r="Q163" s="26">
+      <c r="Q163" s="25">
         <v>3</v>
       </c>
       <c r="R163" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S163" s="26">
-        <v>0</v>
-      </c>
-      <c r="T163" s="26">
-        <v>0</v>
-      </c>
-      <c r="U163" s="26">
-        <v>0</v>
-      </c>
-      <c r="V163" s="26">
-        <v>0</v>
-      </c>
-      <c r="W163" s="26">
+        <f>SUM($S163:$V163)</f>
+        <v>0</v>
+      </c>
+      <c r="S163" s="25">
+        <v>0</v>
+      </c>
+      <c r="T163" s="25">
+        <v>0</v>
+      </c>
+      <c r="U163" s="25">
+        <v>0</v>
+      </c>
+      <c r="V163" s="25">
+        <v>0</v>
+      </c>
+      <c r="W163" s="25">
         <v>10</v>
       </c>
-      <c r="X163" s="26">
+      <c r="X163" s="25">
         <v>15</v>
       </c>
-      <c r="Y163" s="26">
+      <c r="Y163" s="25">
         <v>0.5</v>
       </c>
-      <c r="Z163" s="26">
+      <c r="Z163" s="25">
         <v>0.5</v>
       </c>
-      <c r="AA163">
+      <c r="AA163" s="9">
         <v>113511</v>
       </c>
       <c r="AB163"/>
       <c r="AC163" s="9" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -30444,7 +31059,7 @@
         <v>211</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>67</v>
@@ -30489,7 +31104,7 @@
         <v>4</v>
       </c>
       <c r="R164" s="13">
-        <f t="shared" si="5"/>
+        <f>SUM($S164:$V164)</f>
         <v>12</v>
       </c>
       <c r="S164" s="9">
@@ -30531,7 +31146,7 @@
         <v>204</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>3</v>
@@ -30576,7 +31191,7 @@
         <v>3</v>
       </c>
       <c r="R165" s="13">
-        <f t="shared" si="5"/>
+        <f>SUM($S165:$V165)</f>
         <v>0</v>
       </c>
       <c r="S165" s="9">
@@ -30603,7 +31218,9 @@
       <c r="Z165" s="9">
         <v>0.9</v>
       </c>
-      <c r="AA165" s="9"/>
+      <c r="AA165" s="9">
+        <v>113721</v>
+      </c>
       <c r="AB165" s="9"/>
     </row>
     <row r="166" spans="1:29">
@@ -30659,7 +31276,7 @@
         <v>4</v>
       </c>
       <c r="R166" s="13">
-        <f t="shared" si="5"/>
+        <f>SUM($S166:$V166)</f>
         <v>0</v>
       </c>
       <c r="S166" s="15">
@@ -30700,77 +31317,77 @@
       <c r="B167" t="s">
         <v>209</v>
       </c>
-      <c r="C167" s="23" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D167" s="24" t="s">
+      <c r="C167" s="22" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D167" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E167" s="26">
+      <c r="E167" s="25">
         <v>17</v>
       </c>
-      <c r="F167" s="26">
+      <c r="F167" s="25">
         <v>26</v>
       </c>
-      <c r="G167" s="26">
+      <c r="G167" s="25">
         <v>89</v>
       </c>
-      <c r="H167" s="26">
+      <c r="H167" s="25">
         <v>32</v>
       </c>
-      <c r="I167" s="26">
-        <v>0</v>
-      </c>
-      <c r="J167" s="26">
-        <v>0</v>
-      </c>
-      <c r="K167" s="27">
+      <c r="I167" s="25">
+        <v>0</v>
+      </c>
+      <c r="J167" s="25">
+        <v>0</v>
+      </c>
+      <c r="K167" s="26">
         <v>100</v>
       </c>
-      <c r="L167" s="26">
+      <c r="L167" s="25">
         <v>47</v>
       </c>
-      <c r="M167" s="26">
+      <c r="M167" s="25">
         <v>47</v>
       </c>
-      <c r="N167" s="26">
+      <c r="N167" s="25">
         <v>21</v>
       </c>
-      <c r="O167" s="26">
-        <v>1</v>
-      </c>
-      <c r="P167" s="26">
+      <c r="O167" s="25">
+        <v>1</v>
+      </c>
+      <c r="P167" s="25">
         <v>20</v>
       </c>
-      <c r="Q167" s="26">
+      <c r="Q167" s="25">
         <v>3</v>
       </c>
       <c r="R167" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S167" s="26">
-        <v>0</v>
-      </c>
-      <c r="T167" s="26">
-        <v>0</v>
-      </c>
-      <c r="U167" s="26">
-        <v>0</v>
-      </c>
-      <c r="V167" s="26">
-        <v>0</v>
-      </c>
-      <c r="W167" s="26">
+        <f>SUM($S167:$V167)</f>
+        <v>0</v>
+      </c>
+      <c r="S167" s="25">
+        <v>0</v>
+      </c>
+      <c r="T167" s="25">
+        <v>0</v>
+      </c>
+      <c r="U167" s="25">
+        <v>0</v>
+      </c>
+      <c r="V167" s="25">
+        <v>0</v>
+      </c>
+      <c r="W167" s="25">
         <v>20</v>
       </c>
-      <c r="X167" s="26">
+      <c r="X167" s="25">
         <v>25</v>
       </c>
-      <c r="Y167" s="26">
+      <c r="Y167" s="25">
         <v>0.64</v>
       </c>
-      <c r="Z167" s="26">
+      <c r="Z167" s="25">
         <v>0.75</v>
       </c>
       <c r="AA167">
@@ -30783,13 +31400,13 @@
         <v>11413</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E168" s="13">
         <v>52</v>
@@ -30831,7 +31448,7 @@
         <v>4</v>
       </c>
       <c r="R168" s="13">
-        <f t="shared" si="5"/>
+        <f>SUM($S168:$V168)</f>
         <v>40</v>
       </c>
       <c r="S168" s="13">
@@ -30858,7 +31475,7 @@
       <c r="Z168" s="13">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AA168" s="26">
+      <c r="AA168" s="25">
         <v>114131</v>
       </c>
     </row>
@@ -30870,7 +31487,7 @@
         <v>206</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>69</v>
@@ -30915,7 +31532,7 @@
         <v>4</v>
       </c>
       <c r="R169" s="13">
-        <f t="shared" si="5"/>
+        <f>SUM($S169:$V169)</f>
         <v>0</v>
       </c>
       <c r="S169" s="9">
@@ -30955,7 +31572,7 @@
         <v>205</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>81</v>
@@ -31000,7 +31617,7 @@
         <v>4</v>
       </c>
       <c r="R170" s="13">
-        <f t="shared" si="5"/>
+        <f>SUM($S170:$V170)</f>
         <v>0</v>
       </c>
       <c r="S170" s="9">
@@ -31085,7 +31702,7 @@
         <v>4</v>
       </c>
       <c r="R171" s="13">
-        <f t="shared" si="5"/>
+        <f>SUM($S171:$V171)</f>
         <v>67</v>
       </c>
       <c r="S171" s="13">
@@ -31120,10 +31737,94 @@
       </c>
       <c r="AC171" s="13"/>
     </row>
+    <row r="172" spans="1:29" customFormat="1">
+      <c r="A172" s="44">
+        <v>11496</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C172" s="44" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E172">
+        <v>43</v>
+      </c>
+      <c r="F172">
+        <v>46</v>
+      </c>
+      <c r="G172">
+        <v>83</v>
+      </c>
+      <c r="H172">
+        <v>42</v>
+      </c>
+      <c r="I172">
+        <v>95</v>
+      </c>
+      <c r="J172">
+        <v>136</v>
+      </c>
+      <c r="K172" s="1">
+        <v>92</v>
+      </c>
+      <c r="L172">
+        <v>91</v>
+      </c>
+      <c r="M172">
+        <v>51</v>
+      </c>
+      <c r="N172">
+        <v>32</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="P172">
+        <v>10</v>
+      </c>
+      <c r="Q172">
+        <v>3</v>
+      </c>
+      <c r="R172" s="25">
+        <f>SUM($S172:$V172)</f>
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>25</v>
+      </c>
+      <c r="X172">
+        <v>35</v>
+      </c>
+      <c r="Y172">
+        <v>0.7</v>
+      </c>
+      <c r="Z172">
+        <v>1.2</v>
+      </c>
+      <c r="AA172">
+        <v>114961</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC170">
-    <sortState ref="A2:AC170">
-      <sortCondition ref="A1:A168"/>
+  <autoFilter ref="A1:AC171">
+    <sortState ref="A2:AC172">
+      <sortCondition ref="A1:A171"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -31532,7 +32233,7 @@
     <col min="5" max="22" width="9" style="6"/>
     <col min="23" max="23" width="9" style="5"/>
     <col min="24" max="24" width="9" style="6" customWidth="1"/>
-    <col min="25" max="25" width="9" style="40"/>
+    <col min="25" max="25" width="9" style="39"/>
     <col min="26" max="26" width="9" style="6"/>
     <col min="27" max="27" width="20.125" style="6" customWidth="1"/>
     <col min="28" max="16384" width="9" style="6"/>
@@ -31611,7 +32312,7 @@
       <c r="X1" s="8" t="s">
         <v>1834</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="38" t="s">
         <v>1690</v>
       </c>
       <c r="Z1" s="8" t="s">
@@ -31872,7 +32573,7 @@
       <c r="W7" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Y7" s="39">
         <v>0.2</v>
       </c>
     </row>
@@ -32106,7 +32807,7 @@
       <c r="W13" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Y13" s="40">
+      <c r="Y13" s="39">
         <v>0.1</v>
       </c>
     </row>
@@ -32118,7 +32819,7 @@
         <v>295</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1685</v>
@@ -32135,7 +32836,7 @@
       <c r="W14" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Y14" s="40">
+      <c r="Y14" s="39">
         <v>0.25</v>
       </c>
     </row>
@@ -32167,7 +32868,7 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="5" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>219</v>
@@ -42393,7 +43094,7 @@
       <c r="X145" s="6">
         <v>4</v>
       </c>
-      <c r="Y145" s="40">
+      <c r="Y145" s="39">
         <v>0.25</v>
       </c>
       <c r="Z145" s="6" t="s">
@@ -42473,7 +43174,7 @@
       <c r="X146" s="6">
         <v>3</v>
       </c>
-      <c r="Y146" s="40">
+      <c r="Y146" s="39">
         <v>0.2</v>
       </c>
       <c r="Z146" s="6" t="s">
@@ -48143,12 +48844,12 @@
         <v>284</v>
       </c>
       <c r="W219" s="5" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="X219" s="6">
         <v>5</v>
       </c>
-      <c r="Y219" s="40">
+      <c r="Y219" s="39">
         <v>0.25</v>
       </c>
       <c r="Z219" s="6" t="s">
@@ -50488,7 +51189,7 @@
       <c r="X249" s="6">
         <v>3</v>
       </c>
-      <c r="Y249" s="40">
+      <c r="Y249" s="39">
         <v>0.2</v>
       </c>
       <c r="Z249" s="6" t="s">
@@ -51111,12 +51812,12 @@
         <v>284</v>
       </c>
       <c r="W257" s="5" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="X257" s="6">
         <v>5</v>
       </c>
-      <c r="Y257" s="39">
+      <c r="Y257" s="38">
         <v>0.1</v>
       </c>
       <c r="Z257" s="6" t="s">
@@ -51901,7 +52602,7 @@
         <v>1275</v>
       </c>
       <c r="B268" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>312</v>
@@ -51966,7 +52667,7 @@
       <c r="X268" s="6">
         <v>3</v>
       </c>
-      <c r="Y268" s="40">
+      <c r="Y268" s="39">
         <v>0.1</v>
       </c>
       <c r="Z268" s="6" t="s">
@@ -52828,7 +53529,7 @@
         <v>1287</v>
       </c>
       <c r="B280" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>756</v>
@@ -52893,7 +53594,7 @@
       <c r="X280" s="6">
         <v>3</v>
       </c>
-      <c r="Y280" s="39">
+      <c r="Y280" s="38">
         <v>0.15</v>
       </c>
       <c r="Z280" s="6" t="s">
@@ -52985,7 +53686,7 @@
         <v>1289</v>
       </c>
       <c r="B282" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>758</v>
@@ -53050,7 +53751,7 @@
       <c r="X282" s="6">
         <v>3</v>
       </c>
-      <c r="Y282" s="39">
+      <c r="Y282" s="38">
         <v>0.05</v>
       </c>
       <c r="Z282" s="6" t="s">
@@ -57141,7 +57842,7 @@
         <v>1342</v>
       </c>
       <c r="B335" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>811</v>
@@ -57905,7 +58606,7 @@
         <v>1352</v>
       </c>
       <c r="B345" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>315</v>
@@ -58972,12 +59673,12 @@
         <v>6</v>
       </c>
       <c r="W358" s="5" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="X358" s="6">
         <v>12</v>
       </c>
-      <c r="Y358" s="39">
+      <c r="Y358" s="38">
         <v>-0.1</v>
       </c>
       <c r="Z358" s="6" t="s">
@@ -60677,7 +61378,7 @@
       <c r="X380" s="6">
         <v>3</v>
       </c>
-      <c r="Y380" s="39">
+      <c r="Y380" s="38">
         <v>0.25</v>
       </c>
       <c r="Z380" s="6" t="s">
@@ -61077,7 +61778,7 @@
         <v>1393</v>
       </c>
       <c r="B386" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>860</v>
@@ -61142,7 +61843,7 @@
       <c r="X386" s="6">
         <v>3</v>
       </c>
-      <c r="Y386" s="39">
+      <c r="Y386" s="38">
         <v>0.1</v>
       </c>
       <c r="Z386" s="6" t="s">
@@ -61297,12 +61998,12 @@
         <v>5</v>
       </c>
       <c r="W388" s="5" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="X388" s="6">
         <v>12</v>
       </c>
-      <c r="Y388" s="39">
+      <c r="Y388" s="38">
         <v>-0.05</v>
       </c>
       <c r="Z388" s="6" t="s">
@@ -63246,12 +63947,12 @@
         <v>284</v>
       </c>
       <c r="W413" s="5" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="X413" s="6">
         <v>5</v>
       </c>
-      <c r="Y413" s="39">
+      <c r="Y413" s="38">
         <v>0.2</v>
       </c>
       <c r="Z413" s="6" t="s">
@@ -63719,7 +64420,7 @@
       <c r="X419" s="6">
         <v>3</v>
       </c>
-      <c r="Y419" s="39">
+      <c r="Y419" s="38">
         <v>0.15</v>
       </c>
       <c r="Z419" s="6" t="s">
@@ -64347,7 +65048,7 @@
       <c r="X427" s="6">
         <v>4</v>
       </c>
-      <c r="Y427" s="39">
+      <c r="Y427" s="38">
         <v>0.1</v>
       </c>
       <c r="Z427" s="6" t="s">
@@ -64442,7 +65143,7 @@
         <v>1436</v>
       </c>
       <c r="B429" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>901</v>
@@ -64507,7 +65208,7 @@
       <c r="X429" s="6">
         <v>3</v>
       </c>
-      <c r="Y429" s="39">
+      <c r="Y429" s="38">
         <v>0.1</v>
       </c>
       <c r="Z429" s="6" t="s">
@@ -66522,12 +67223,12 @@
         <v>8</v>
       </c>
       <c r="W455" s="5" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="X455" s="6">
         <v>12</v>
       </c>
-      <c r="Y455" s="39">
+      <c r="Y455" s="38">
         <v>-0.15</v>
       </c>
       <c r="Z455" s="6" t="s">
@@ -69721,12 +70422,12 @@
         <v>284</v>
       </c>
       <c r="W496" s="5" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="X496" s="6">
         <v>12</v>
       </c>
-      <c r="Y496" s="39">
+      <c r="Y496" s="38">
         <v>-0.05</v>
       </c>
       <c r="Z496" s="6" t="s">
@@ -71160,7 +71861,7 @@
         <v>1522</v>
       </c>
       <c r="B515" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C515" s="6" t="s">
         <v>986</v>
@@ -71608,12 +72309,12 @@
         <v>6</v>
       </c>
       <c r="W520" s="5" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="X520" s="6">
         <v>12</v>
       </c>
-      <c r="Y520" s="39">
+      <c r="Y520" s="38">
         <v>-0.15</v>
       </c>
       <c r="Z520" s="6" t="s">
@@ -72007,7 +72708,7 @@
       <c r="X525" s="6">
         <v>3</v>
       </c>
-      <c r="Y525" s="39">
+      <c r="Y525" s="38">
         <v>0.25</v>
       </c>
       <c r="Z525" s="6" t="s">
@@ -72786,7 +73487,7 @@
       <c r="X535" s="6">
         <v>4</v>
       </c>
-      <c r="Y535" s="39">
+      <c r="Y535" s="38">
         <v>0.25</v>
       </c>
       <c r="Z535" s="6" t="s">
@@ -74048,13 +74749,13 @@
     </row>
     <row r="552" spans="1:27">
       <c r="A552" s="5" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B552" s="6" t="s">
         <v>493</v>
       </c>
       <c r="C552" s="6" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D552" s="7" t="s">
         <v>291</v>
@@ -74074,13 +74775,13 @@
     </row>
     <row r="553" spans="1:27">
       <c r="A553" s="5" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B553" t="s">
         <v>488</v>
       </c>
       <c r="C553" s="6" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="D553" s="7" t="s">
         <v>270</v>
@@ -74100,13 +74801,13 @@
     </row>
     <row r="554" spans="1:27">
       <c r="A554" s="5" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B554" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C554" s="6" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D554" s="7" t="s">
         <v>283</v>
@@ -74126,13 +74827,13 @@
     </row>
     <row r="555" spans="1:27">
       <c r="A555" s="5" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B555" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C555" s="6" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D555" s="7" t="s">
         <v>283</v>
@@ -74152,13 +74853,13 @@
     </row>
     <row r="556" spans="1:27">
       <c r="A556" s="5" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B556" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C556" s="6" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D556" s="7" t="s">
         <v>283</v>
@@ -74184,13 +74885,13 @@
     </row>
     <row r="557" spans="1:27">
       <c r="A557" s="5" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B557" s="6" t="s">
         <v>1687</v>
       </c>
       <c r="C557" s="6" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D557" s="7" t="s">
         <v>1562</v>
@@ -74207,13 +74908,13 @@
     </row>
     <row r="558" spans="1:27">
       <c r="A558" s="5" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B558" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C558" s="6" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D558" s="7" t="s">
         <v>283</v>
@@ -74233,13 +74934,13 @@
     </row>
     <row r="559" spans="1:27">
       <c r="A559" s="5" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B559" t="s">
         <v>488</v>
       </c>
       <c r="C559" s="6" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D559" s="7" t="s">
         <v>270</v>
@@ -74258,13 +74959,13 @@
     </row>
     <row r="560" spans="1:27">
       <c r="A560" s="5" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B560" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C560" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D560" s="7" t="s">
         <v>283</v>
@@ -74281,7 +74982,7 @@
     </row>
     <row r="561" spans="1:27">
       <c r="A561" s="5" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B561" s="6" t="s">
         <v>219</v>
@@ -74307,13 +75008,13 @@
     </row>
     <row r="562" spans="1:27">
       <c r="A562" s="5" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B562" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D562" s="7" t="s">
         <v>283</v>
@@ -74333,13 +75034,13 @@
     </row>
     <row r="563" spans="1:27">
       <c r="A563" s="5" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B563" t="s">
         <v>1675</v>
       </c>
       <c r="C563" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D563" s="7" t="s">
         <v>1563</v>
@@ -74365,13 +75066,13 @@
     </row>
     <row r="564" spans="1:27">
       <c r="A564" s="5" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B564" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C564" s="6" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D564" s="7" t="s">
         <v>283</v>
@@ -74394,13 +75095,13 @@
     </row>
     <row r="565" spans="1:27">
       <c r="A565" s="5" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B565" s="6" t="s">
         <v>1687</v>
       </c>
       <c r="C565" s="6" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D565" s="7" t="s">
         <v>1560</v>
@@ -74420,13 +75121,13 @@
     </row>
     <row r="566" spans="1:27">
       <c r="A566" s="5" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B566" s="6" t="s">
         <v>295</v>
       </c>
       <c r="C566" s="6" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D566" s="7" t="s">
         <v>288</v>
@@ -74445,24 +75146,24 @@
         <v>6</v>
       </c>
       <c r="W566" s="5" t="s">
-        <v>2173</v>
-      </c>
-      <c r="Y566" s="40">
+        <v>2172</v>
+      </c>
+      <c r="Y566" s="39">
         <v>0.1</v>
       </c>
     </row>
     <row r="567" spans="1:27">
       <c r="A567" s="5" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B567" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C567" s="6" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D567" s="29" t="s">
-        <v>2109</v>
+        <v>2175</v>
+      </c>
+      <c r="D567" s="28" t="s">
+        <v>2108</v>
       </c>
       <c r="F567" s="8">
         <v>22</v>
@@ -74474,21 +75175,21 @@
         <v>10</v>
       </c>
       <c r="W567" s="5" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="AA567" s="6" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="568" spans="1:27">
       <c r="A568" s="5" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B568" s="6" t="s">
         <v>1687</v>
       </c>
       <c r="C568" s="6" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D568" s="7" t="s">
         <v>1560</v>
@@ -74503,24 +75204,24 @@
         <v>1</v>
       </c>
       <c r="W568" s="5" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="AA568" s="6" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="569" spans="1:27">
       <c r="A569" s="5" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B569" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C569" s="6" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D569" s="28" t="s">
         <v>2108</v>
-      </c>
-      <c r="D569" s="29" t="s">
-        <v>2109</v>
       </c>
       <c r="F569" s="8">
         <v>23</v>
@@ -74543,13 +75244,13 @@
     </row>
     <row r="570" spans="1:27">
       <c r="A570" s="5" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B570" s="6" t="s">
         <v>1687</v>
       </c>
       <c r="C570" s="6" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D570" s="7" t="s">
         <v>1560</v>
@@ -74566,13 +75267,13 @@
     </row>
     <row r="571" spans="1:27">
       <c r="A571" s="5" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B571" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C571" s="6" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D571" s="7" t="s">
         <v>283</v>
@@ -74592,13 +75293,13 @@
     </row>
     <row r="572" spans="1:27">
       <c r="A572" s="5" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B572" t="s">
         <v>488</v>
       </c>
       <c r="C572" s="6" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D572" s="7" t="s">
         <v>270</v>
@@ -74613,21 +75314,21 @@
         <v>1</v>
       </c>
       <c r="W572" s="5" t="s">
+        <v>2183</v>
+      </c>
+      <c r="AA572" s="37" t="s">
         <v>2184</v>
-      </c>
-      <c r="AA572" s="38" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="573" spans="1:27">
       <c r="A573" s="5" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B573" s="6" t="s">
         <v>295</v>
       </c>
       <c r="C573" s="8" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D573" s="7" t="s">
         <v>288</v>
@@ -74644,19 +75345,19 @@
       <c r="W573" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Y573" s="40">
+      <c r="Y573" s="39">
         <v>0.25</v>
       </c>
     </row>
     <row r="574" spans="1:27">
       <c r="A574" s="5" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B574" s="8" t="s">
         <v>297</v>
       </c>
       <c r="C574" s="6" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D574" s="7" t="s">
         <v>290</v>
@@ -74679,13 +75380,13 @@
     </row>
     <row r="575" spans="1:27">
       <c r="A575" s="5" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B575" s="8" t="s">
         <v>297</v>
       </c>
       <c r="C575" s="6" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D575" s="7" t="s">
         <v>290</v>
@@ -74709,24 +75410,24 @@
         <v>0.75</v>
       </c>
       <c r="W575" s="5" t="s">
+        <v>2188</v>
+      </c>
+      <c r="Y575" s="39" t="s">
         <v>2189</v>
       </c>
-      <c r="Y575" s="40" t="s">
+      <c r="AA575" s="37" t="s">
         <v>2190</v>
-      </c>
-      <c r="AA575" s="38" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="576" spans="1:27">
       <c r="A576" s="5" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B576" t="s">
         <v>488</v>
       </c>
       <c r="C576" s="6" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D576" s="7" t="s">
         <v>270</v>
@@ -74742,21 +75443,21 @@
       </c>
       <c r="R576" s="8"/>
       <c r="W576" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AA576" s="37" t="s">
         <v>2194</v>
-      </c>
-      <c r="AA576" s="38" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="577" spans="1:27">
       <c r="A577" s="5" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B577" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C577" s="6" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D577" s="7" t="s">
         <v>283</v>
@@ -74782,13 +75483,13 @@
     </row>
     <row r="578" spans="1:27">
       <c r="A578" s="5" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B578" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C578" s="6" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D578" s="7" t="s">
         <v>293</v>
@@ -74808,13 +75509,13 @@
     </row>
     <row r="579" spans="1:27">
       <c r="A579" s="5" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B579" s="6" t="s">
         <v>295</v>
       </c>
       <c r="C579" s="8" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D579" s="7" t="s">
         <v>288</v>
@@ -74831,21 +75532,21 @@
         <v>14</v>
       </c>
       <c r="W579" s="5" t="s">
-        <v>2201</v>
-      </c>
-      <c r="AA579" s="38" t="s">
-        <v>2203</v>
+        <v>2200</v>
+      </c>
+      <c r="AA579" s="37" t="s">
+        <v>2202</v>
       </c>
     </row>
     <row r="580" spans="1:27">
       <c r="A580" s="5" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B580" s="6" t="s">
         <v>493</v>
       </c>
       <c r="C580" s="6" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D580" s="7" t="s">
         <v>291</v>
@@ -74863,24 +75564,24 @@
         <v>1</v>
       </c>
       <c r="W580" s="5" t="s">
-        <v>2198</v>
-      </c>
-      <c r="Y580" s="40">
+        <v>2197</v>
+      </c>
+      <c r="Y580" s="39">
         <v>0.25</v>
       </c>
-      <c r="AA580" s="38" t="s">
-        <v>2204</v>
+      <c r="AA580" s="37" t="s">
+        <v>2203</v>
       </c>
     </row>
     <row r="581" spans="1:27">
       <c r="A581" s="5" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B581" s="8" t="s">
         <v>297</v>
       </c>
       <c r="C581" s="6" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D581" s="7" t="s">
         <v>290</v>
@@ -74901,24 +75602,24 @@
         <v>0.7</v>
       </c>
       <c r="W581" s="5" t="s">
+        <v>2206</v>
+      </c>
+      <c r="Y581" s="39" t="s">
+        <v>2208</v>
+      </c>
+      <c r="AA581" s="37" t="s">
         <v>2207</v>
-      </c>
-      <c r="Y581" s="40" t="s">
-        <v>2209</v>
-      </c>
-      <c r="AA581" s="38" t="s">
-        <v>2208</v>
       </c>
     </row>
     <row r="582" spans="1:27">
       <c r="A582" s="5" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B582" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C582" s="6" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D582" s="7" t="s">
         <v>283</v>
@@ -74944,13 +75645,13 @@
     </row>
     <row r="583" spans="1:27">
       <c r="A583" s="5" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B583" s="6" t="s">
         <v>219</v>
       </c>
       <c r="C583" s="8" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D583" s="7" t="s">
         <v>287</v>
@@ -74968,21 +75669,21 @@
         <v>8</v>
       </c>
       <c r="W583" s="5" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="AA583" s="6" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="584" spans="1:27">
       <c r="A584" s="5" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B584" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D584" s="7" t="s">
         <v>283</v>
@@ -75005,13 +75706,13 @@
     </row>
     <row r="585" spans="1:27">
       <c r="A585" s="5" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B585" s="6" t="s">
         <v>219</v>
       </c>
       <c r="C585" s="8" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D585" s="7" t="s">
         <v>287</v>
@@ -75029,21 +75730,21 @@
         <v>5</v>
       </c>
       <c r="W585" s="5" t="s">
+        <v>2219</v>
+      </c>
+      <c r="AA585" s="37" t="s">
         <v>2220</v>
-      </c>
-      <c r="AA585" s="38" t="s">
-        <v>2221</v>
       </c>
     </row>
     <row r="586" spans="1:27">
       <c r="A586" s="5" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B586" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C586" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D586" s="7" t="s">
         <v>283</v>
@@ -75063,13 +75764,13 @@
     </row>
     <row r="587" spans="1:27">
       <c r="A587" s="5" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B587" s="6" t="s">
         <v>1673</v>
       </c>
       <c r="C587" s="6" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D587" s="7" t="s">
         <v>283</v>
@@ -75087,10 +75788,10 @@
         <v>1</v>
       </c>
       <c r="W587" s="5" t="s">
+        <v>2223</v>
+      </c>
+      <c r="AA587" s="37" t="s">
         <v>2224</v>
-      </c>
-      <c r="AA587" s="38" t="s">
-        <v>2225</v>
       </c>
     </row>
   </sheetData>
@@ -84264,14 +84965,14 @@
       </c>
     </row>
     <row r="118" spans="1:26">
-      <c r="A118" s="28" t="s">
-        <v>2011</v>
+      <c r="A118" s="27" t="s">
+        <v>2010</v>
       </c>
       <c r="B118" t="s">
         <v>207</v>
       </c>
       <c r="C118" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D118" t="s">
         <v>92</v>
@@ -84345,8 +85046,8 @@
       </c>
     </row>
     <row r="119" spans="1:26">
-      <c r="A119" s="28" t="s">
-        <v>2012</v>
+      <c r="A119" s="27" t="s">
+        <v>2011</v>
       </c>
       <c r="B119" t="s">
         <v>207</v>
@@ -84426,14 +85127,14 @@
       </c>
     </row>
     <row r="120" spans="1:26">
-      <c r="A120" s="28" t="s">
-        <v>2013</v>
+      <c r="A120" s="27" t="s">
+        <v>2012</v>
       </c>
       <c r="B120" t="s">
         <v>1680</v>
       </c>
       <c r="C120" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D120" t="s">
         <v>92</v>
@@ -84507,14 +85208,14 @@
       </c>
     </row>
     <row r="121" spans="1:26">
-      <c r="A121" s="28" t="s">
-        <v>2014</v>
+      <c r="A121" s="27" t="s">
+        <v>2013</v>
       </c>
       <c r="B121" t="s">
         <v>207</v>
       </c>
       <c r="C121" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D121" t="s">
         <v>92</v>
@@ -84588,14 +85289,14 @@
       </c>
     </row>
     <row r="122" spans="1:26">
-      <c r="A122" s="28" t="s">
-        <v>2015</v>
+      <c r="A122" s="27" t="s">
+        <v>2014</v>
       </c>
       <c r="B122" t="s">
         <v>211</v>
       </c>
       <c r="C122" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D122" t="s">
         <v>92</v>
@@ -84669,14 +85370,14 @@
       </c>
     </row>
     <row r="123" spans="1:26">
-      <c r="A123" s="28" t="s">
-        <v>2016</v>
+      <c r="A123" s="27" t="s">
+        <v>2015</v>
       </c>
       <c r="B123" t="s">
         <v>211</v>
       </c>
       <c r="C123" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D123" t="s">
         <v>92</v>
@@ -84751,13 +85452,13 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="12" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B124" t="s">
         <v>211</v>
       </c>
       <c r="C124" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D124" t="s">
         <v>92</v>
@@ -84832,13 +85533,13 @@
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="12" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B125" t="s">
         <v>211</v>
       </c>
       <c r="C125" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D125" t="s">
         <v>92</v>
@@ -84913,13 +85614,13 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="12" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B126" t="s">
         <v>211</v>
       </c>
       <c r="C126" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D126" t="s">
         <v>92</v>
@@ -84994,13 +85695,13 @@
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="12" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B127" t="s">
         <v>204</v>
       </c>
       <c r="C127" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D127" t="s">
         <v>92</v>
@@ -85069,13 +85770,13 @@
     </row>
     <row r="128" spans="1:26">
       <c r="A128" s="10" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B128" t="s">
         <v>76</v>
       </c>
       <c r="C128" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D128" t="s">
         <v>92</v>
@@ -85120,16 +85821,16 @@
         <v>0</v>
       </c>
       <c r="R128" t="s">
+        <v>2149</v>
+      </c>
+      <c r="S128" t="s">
+        <v>2149</v>
+      </c>
+      <c r="T128" t="s">
+        <v>2149</v>
+      </c>
+      <c r="U128" t="s">
         <v>2150</v>
-      </c>
-      <c r="S128" t="s">
-        <v>2150</v>
-      </c>
-      <c r="T128" t="s">
-        <v>2150</v>
-      </c>
-      <c r="U128" t="s">
-        <v>2151</v>
       </c>
       <c r="V128">
         <f t="shared" si="4"/>
@@ -85150,13 +85851,13 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="10" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B129" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C129" t="s">
         <v>2152</v>
-      </c>
-      <c r="C129" t="s">
-        <v>2153</v>
       </c>
       <c r="D129" t="s">
         <v>92</v>
@@ -85207,10 +85908,10 @@
         <v>1670</v>
       </c>
       <c r="T129" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="U129" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="V129">
         <f t="shared" si="4"/>
@@ -85231,13 +85932,13 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" s="10" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B130" t="s">
         <v>207</v>
       </c>
       <c r="C130" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D130" t="s">
         <v>92</v>
@@ -85312,13 +86013,13 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" s="10" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B131" t="s">
         <v>207</v>
       </c>
       <c r="C131" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D131" t="s">
         <v>92</v>
@@ -85393,13 +86094,13 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" s="10" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B132" t="s">
         <v>213</v>
       </c>
       <c r="C132" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D132" t="s">
         <v>92</v>
@@ -85447,10 +86148,10 @@
         <v>308</v>
       </c>
       <c r="S132" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="T132" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="V132">
         <f t="shared" si="4"/>
@@ -85471,13 +86172,13 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" s="10" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B133" t="s">
         <v>207</v>
       </c>
       <c r="C133" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D133" t="s">
         <v>92</v>
@@ -93212,7 +93913,7 @@
         <v>367</v>
       </c>
       <c r="B52" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C52" t="s">
         <v>312</v>
@@ -93293,7 +93994,7 @@
         <v>370</v>
       </c>
       <c r="B55" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C55" t="s">
         <v>315</v>
@@ -93335,27 +94036,27 @@
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="9" style="30"/>
+    <col min="6" max="6" width="9" style="29"/>
     <col min="7" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="11.25" style="31" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="30" customWidth="1"/>
     <col min="14" max="17" width="11.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.25" style="32" customWidth="1"/>
-    <col min="19" max="19" width="9" style="33"/>
+    <col min="18" max="18" width="11.25" style="31" customWidth="1"/>
+    <col min="19" max="19" width="9" style="32"/>
     <col min="20" max="25" width="9" style="2"/>
-    <col min="26" max="26" width="11.25" style="31" customWidth="1"/>
+    <col min="26" max="26" width="11.25" style="30" customWidth="1"/>
     <col min="27" max="30" width="11.25" style="2" customWidth="1"/>
-    <col min="31" max="31" width="11.25" style="32" customWidth="1"/>
-    <col min="32" max="32" width="9" style="33"/>
+    <col min="31" max="31" width="11.25" style="31" customWidth="1"/>
+    <col min="32" max="32" width="9" style="32"/>
     <col min="33" max="38" width="9" style="2"/>
-    <col min="39" max="39" width="11.25" style="31" customWidth="1"/>
+    <col min="39" max="39" width="11.25" style="30" customWidth="1"/>
     <col min="40" max="43" width="11.25" style="2" customWidth="1"/>
     <col min="44" max="44" width="11.25" style="5" customWidth="1"/>
-    <col min="45" max="45" width="9" style="33"/>
+    <col min="45" max="45" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" s="2" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -93364,169 +94065,169 @@
         <v>218</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2138</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2139</v>
-      </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="40" t="s">
         <v>2130</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43" t="s">
         <v>2131</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="44" t="s">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="40" t="s">
         <v>2132</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="41" t="s">
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43" t="s">
         <v>2133</v>
       </c>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="44" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="40" t="s">
         <v>2134</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="41" t="s">
-        <v>2135</v>
-      </c>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="43"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="42"/>
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="2" t="s">
         <v>1839</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2140</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2141</v>
-      </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="34">
+      <c r="F2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="33">
         <f>IFERROR(VLOOKUP(G2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="35">
+      <c r="N2" s="34">
         <f>IFERROR(VLOOKUP(H2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="35">
+      <c r="O2" s="34">
         <f>IFERROR(VLOOKUP(I2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="35">
+      <c r="P2" s="34">
         <f>IFERROR(VLOOKUP(J2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="35">
+      <c r="Q2" s="34">
         <f>IFERROR(VLOOKUP(K2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="35">
+      <c r="R2" s="34">
         <f>IFERROR(VLOOKUP(L2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="34">
+      <c r="S2" s="36"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="33">
         <f>IFERROR(VLOOKUP(T2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="35">
+      <c r="AA2" s="34">
         <f>IFERROR(VLOOKUP(U2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="35">
+      <c r="AB2" s="34">
         <f>IFERROR(VLOOKUP(V2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="34">
         <f>IFERROR(VLOOKUP(W2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AD2" s="35">
+      <c r="AD2" s="34">
         <f>IFERROR(VLOOKUP(X2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="35">
+      <c r="AE2" s="34">
         <f>IFERROR(VLOOKUP(Y2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="34">
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="33">
         <f>IFERROR(VLOOKUP(AG2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AN2" s="35">
+      <c r="AN2" s="34">
         <f>IFERROR(VLOOKUP(AH2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="35">
+      <c r="AO2" s="34">
         <f>IFERROR(VLOOKUP(AI2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AP2" s="35">
+      <c r="AP2" s="34">
         <f>IFERROR(VLOOKUP(AJ2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AQ2" s="35">
+      <c r="AQ2" s="34">
         <f>IFERROR(VLOOKUP(AK2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AR2" s="35">
+      <c r="AR2" s="34">
         <f>IFERROR(VLOOKUP(AL2,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
@@ -93536,10 +94237,10 @@
         <v>317</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -93547,7 +94248,7 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -93568,75 +94269,75 @@
       <c r="L3" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="M3" s="34" t="str">
+      <c r="M3" s="33" t="str">
         <f>IFERROR(VLOOKUP(G3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>战巡Κ级Ⅲ型</v>
       </c>
-      <c r="N3" s="35" t="str">
+      <c r="N3" s="34" t="str">
         <f>IFERROR(VLOOKUP(H3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>战巡Κ级Ⅲ型</v>
       </c>
-      <c r="O3" s="35" t="str">
+      <c r="O3" s="34" t="str">
         <f>IFERROR(VLOOKUP(I3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>重巡Ω级Ⅱ型</v>
       </c>
-      <c r="P3" s="35" t="str">
+      <c r="P3" s="34" t="str">
         <f>IFERROR(VLOOKUP(J3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>重巡Ω级Ⅱ型</v>
       </c>
-      <c r="Q3" s="35" t="str">
+      <c r="Q3" s="34" t="str">
         <f>IFERROR(VLOOKUP(K3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>轻巡ei级Ⅰ型</v>
       </c>
-      <c r="R3" s="35" t="str">
+      <c r="R3" s="34" t="str">
         <f>IFERROR(VLOOKUP(L3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>轻巡ei级Ⅰ型</v>
       </c>
-      <c r="Z3" s="34">
+      <c r="Z3" s="33">
         <f>IFERROR(VLOOKUP(T3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="35">
+      <c r="AA3" s="34">
         <f>IFERROR(VLOOKUP(U3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="35">
+      <c r="AB3" s="34">
         <f>IFERROR(VLOOKUP(V3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="35">
+      <c r="AC3" s="34">
         <f>IFERROR(VLOOKUP(W3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="35">
+      <c r="AD3" s="34">
         <f>IFERROR(VLOOKUP(X3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="35">
+      <c r="AE3" s="34">
         <f>IFERROR(VLOOKUP(Y3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="34">
+      <c r="AM3" s="33">
         <f>IFERROR(VLOOKUP(AG3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="35">
+      <c r="AN3" s="34">
         <f>IFERROR(VLOOKUP(AH3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AO3" s="35">
+      <c r="AO3" s="34">
         <f>IFERROR(VLOOKUP(AI3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="35">
+      <c r="AP3" s="34">
         <f>IFERROR(VLOOKUP(AJ3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="35">
+      <c r="AQ3" s="34">
         <f>IFERROR(VLOOKUP(AK3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AR3" s="35">
+      <c r="AR3" s="34">
         <f>IFERROR(VLOOKUP(AL3,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
@@ -93649,7 +94350,7 @@
         <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -93657,7 +94358,7 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -93678,75 +94379,75 @@
       <c r="L4" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="M4" s="34" t="str">
+      <c r="M4" s="33" t="str">
         <f>IFERROR(VLOOKUP(G4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>大巡ce级Ⅳ型</v>
       </c>
-      <c r="N4" s="35" t="str">
+      <c r="N4" s="34" t="str">
         <f>IFERROR(VLOOKUP(H4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>战列Ψ级Ⅲ型</v>
       </c>
-      <c r="O4" s="35" t="str">
+      <c r="O4" s="34" t="str">
         <f>IFERROR(VLOOKUP(I4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>航母Ο级Ⅳ型</v>
       </c>
-      <c r="P4" s="35" t="str">
+      <c r="P4" s="34" t="str">
         <f>IFERROR(VLOOKUP(J4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>轻母Ξ级Ⅲ型</v>
       </c>
-      <c r="Q4" s="35" t="str">
+      <c r="Q4" s="34" t="str">
         <f>IFERROR(VLOOKUP(K4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>轻巡ei级Ⅲ型</v>
       </c>
-      <c r="R4" s="35" t="str">
+      <c r="R4" s="34" t="str">
         <f>IFERROR(VLOOKUP(L4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>轻巡ei级Ⅱ型</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4" s="33">
         <f>IFERROR(VLOOKUP(T4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="35">
+      <c r="AA4" s="34">
         <f>IFERROR(VLOOKUP(U4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="35">
+      <c r="AB4" s="34">
         <f>IFERROR(VLOOKUP(V4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4" s="34">
         <f>IFERROR(VLOOKUP(W4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="35">
+      <c r="AD4" s="34">
         <f>IFERROR(VLOOKUP(X4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="35">
+      <c r="AE4" s="34">
         <f>IFERROR(VLOOKUP(Y4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="34">
+      <c r="AM4" s="33">
         <f>IFERROR(VLOOKUP(AG4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AN4" s="35">
+      <c r="AN4" s="34">
         <f>IFERROR(VLOOKUP(AH4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AO4" s="35">
+      <c r="AO4" s="34">
         <f>IFERROR(VLOOKUP(AI4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="35">
+      <c r="AP4" s="34">
         <f>IFERROR(VLOOKUP(AJ4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AQ4" s="35">
+      <c r="AQ4" s="34">
         <f>IFERROR(VLOOKUP(AK4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AR4" s="35">
+      <c r="AR4" s="34">
         <f>IFERROR(VLOOKUP(AL4,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
@@ -93759,7 +94460,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
@@ -93767,7 +94468,7 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -93785,75 +94486,75 @@
       <c r="K5" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="M5" s="34" t="str">
+      <c r="M5" s="33" t="str">
         <f>IFERROR(VLOOKUP(G5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>战列Ψ级Ⅳ型</v>
       </c>
-      <c r="N5" s="35" t="str">
+      <c r="N5" s="34" t="str">
         <f>IFERROR(VLOOKUP(H5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>战列Ψ级Ⅳ型</v>
       </c>
-      <c r="O5" s="35" t="str">
+      <c r="O5" s="34" t="str">
         <f>IFERROR(VLOOKUP(I5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>航母Ο级Ⅳ型</v>
       </c>
-      <c r="P5" s="35" t="str">
+      <c r="P5" s="34" t="str">
         <f>IFERROR(VLOOKUP(J5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>航母Ο级Ⅳ型</v>
       </c>
-      <c r="Q5" s="35" t="str">
+      <c r="Q5" s="34" t="str">
         <f>IFERROR(VLOOKUP(K5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>驱逐Τ级Ⅲ型</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="34">
         <f>IFERROR(VLOOKUP(L5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="34">
+      <c r="Z5" s="33">
         <f>IFERROR(VLOOKUP(T5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="35">
+      <c r="AA5" s="34">
         <f>IFERROR(VLOOKUP(U5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="35">
+      <c r="AB5" s="34">
         <f>IFERROR(VLOOKUP(V5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AC5" s="34">
         <f>IFERROR(VLOOKUP(W5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="35">
+      <c r="AD5" s="34">
         <f>IFERROR(VLOOKUP(X5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="35">
+      <c r="AE5" s="34">
         <f>IFERROR(VLOOKUP(Y5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="34">
+      <c r="AM5" s="33">
         <f>IFERROR(VLOOKUP(AG5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="35">
+      <c r="AN5" s="34">
         <f>IFERROR(VLOOKUP(AH5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="35">
+      <c r="AO5" s="34">
         <f>IFERROR(VLOOKUP(AI5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="35">
+      <c r="AP5" s="34">
         <f>IFERROR(VLOOKUP(AJ5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="35">
+      <c r="AQ5" s="34">
         <f>IFERROR(VLOOKUP(AK5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AR5" s="35">
+      <c r="AR5" s="34">
         <f>IFERROR(VLOOKUP(AL5,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
@@ -93863,10 +94564,10 @@
         <v>320</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -93874,96 +94575,96 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>2142</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>2143</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>2144</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>2145</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>2146</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>2147</v>
-      </c>
-      <c r="M6" s="34" t="str">
+      <c r="M6" s="33" t="str">
         <f>IFERROR(VLOOKUP(G6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Taiho</v>
       </c>
-      <c r="N6" s="35" t="str">
+      <c r="N6" s="34" t="str">
         <f>IFERROR(VLOOKUP(H6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>X. Fliegerkorps</v>
       </c>
-      <c r="O6" s="35" t="str">
+      <c r="O6" s="34" t="str">
         <f>IFERROR(VLOOKUP(I6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Cyou-yamato</v>
       </c>
-      <c r="P6" s="35" t="str">
+      <c r="P6" s="34" t="str">
         <f>IFERROR(VLOOKUP(J6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Musashi</v>
       </c>
-      <c r="Q6" s="35" t="str">
+      <c r="Q6" s="34" t="str">
         <f>IFERROR(VLOOKUP(K6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Zumwalt</v>
       </c>
-      <c r="R6" s="35" t="str">
+      <c r="R6" s="34" t="str">
         <f>IFERROR(VLOOKUP(L6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>SouthDakota</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6" s="33">
         <f>IFERROR(VLOOKUP(T6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="35">
+      <c r="AA6" s="34">
         <f>IFERROR(VLOOKUP(U6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="35">
+      <c r="AB6" s="34">
         <f>IFERROR(VLOOKUP(V6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="35">
+      <c r="AC6" s="34">
         <f>IFERROR(VLOOKUP(W6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="35">
+      <c r="AD6" s="34">
         <f>IFERROR(VLOOKUP(X6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="35">
+      <c r="AE6" s="34">
         <f>IFERROR(VLOOKUP(Y6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="34">
+      <c r="AM6" s="33">
         <f>IFERROR(VLOOKUP(AG6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="35">
+      <c r="AN6" s="34">
         <f>IFERROR(VLOOKUP(AH6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="35">
+      <c r="AO6" s="34">
         <f>IFERROR(VLOOKUP(AI6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AP6" s="35">
+      <c r="AP6" s="34">
         <f>IFERROR(VLOOKUP(AJ6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="35">
+      <c r="AQ6" s="34">
         <f>IFERROR(VLOOKUP(AK6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="AR6" s="35">
+      <c r="AR6" s="34">
         <f>IFERROR(VLOOKUP(AL6,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
@@ -93973,10 +94674,10 @@
         <v>377</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -93984,7 +94685,7 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -94005,27 +94706,27 @@
       <c r="L7" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="M7" s="34" t="str">
+      <c r="M7" s="33" t="str">
         <f>IFERROR(VLOOKUP(G7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>航母Ο级Ⅲ型</v>
       </c>
-      <c r="N7" s="35" t="str">
+      <c r="N7" s="34" t="str">
         <f>IFERROR(VLOOKUP(H7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>航母Ο级Ⅲ型</v>
       </c>
-      <c r="O7" s="35" t="str">
+      <c r="O7" s="34" t="str">
         <f>IFERROR(VLOOKUP(I7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>重巡Ω级Ⅱ型</v>
       </c>
-      <c r="P7" s="35" t="str">
+      <c r="P7" s="34" t="str">
         <f>IFERROR(VLOOKUP(J7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>重巡Ω级Ⅱ型</v>
       </c>
-      <c r="Q7" s="35" t="str">
+      <c r="Q7" s="34" t="str">
         <f>IFERROR(VLOOKUP(K7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>驱逐Τ级Ⅱ型</v>
       </c>
-      <c r="R7" s="35" t="str">
+      <c r="R7" s="34" t="str">
         <f>IFERROR(VLOOKUP(L7,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>驱逐Τ级Ⅱ型</v>
       </c>
@@ -94035,10 +94736,10 @@
         <v>378</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
@@ -94046,7 +94747,7 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -94067,27 +94768,27 @@
       <c r="L8" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="M8" s="34" t="str">
+      <c r="M8" s="33" t="str">
         <f>IFERROR(VLOOKUP(G8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>战列Ψ级Ⅲ型</v>
       </c>
-      <c r="N8" s="35" t="str">
+      <c r="N8" s="34" t="str">
         <f>IFERROR(VLOOKUP(H8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>战列Ψ级Ⅲ型</v>
       </c>
-      <c r="O8" s="35" t="str">
+      <c r="O8" s="34" t="str">
         <f>IFERROR(VLOOKUP(I8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>重巡Ω级Ⅲ型</v>
       </c>
-      <c r="P8" s="35" t="str">
+      <c r="P8" s="34" t="str">
         <f>IFERROR(VLOOKUP(J8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>重巡Ω级Ⅲ型</v>
       </c>
-      <c r="Q8" s="35" t="str">
+      <c r="Q8" s="34" t="str">
         <f>IFERROR(VLOOKUP(K8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>重巡Ω级Ⅱ型</v>
       </c>
-      <c r="R8" s="35" t="str">
+      <c r="R8" s="34" t="str">
         <f>IFERROR(VLOOKUP(L8,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>重巡Ω级Ⅱ型</v>
       </c>
@@ -94097,10 +94798,10 @@
         <v>379</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
@@ -94108,7 +94809,7 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -94129,53 +94830,53 @@
       <c r="L9" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="M9" s="34" t="str">
+      <c r="M9" s="33" t="str">
         <f>IFERROR(VLOOKUP(G9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>战巡Κ级Ⅳ型</v>
       </c>
-      <c r="N9" s="35" t="str">
+      <c r="N9" s="34" t="str">
         <f>IFERROR(VLOOKUP(H9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>战巡Κ级Ⅳ型</v>
       </c>
-      <c r="O9" s="35" t="str">
+      <c r="O9" s="34" t="str">
         <f>IFERROR(VLOOKUP(I9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>航母Ο级Ⅳ型</v>
       </c>
-      <c r="P9" s="35" t="str">
+      <c r="P9" s="34" t="str">
         <f>IFERROR(VLOOKUP(J9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>航母Ο级Ⅳ型</v>
       </c>
-      <c r="Q9" s="35" t="str">
+      <c r="Q9" s="34" t="str">
         <f>IFERROR(VLOOKUP(K9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>潜艇Φ级Ⅲ型</v>
       </c>
-      <c r="R9" s="35" t="str">
+      <c r="R9" s="34" t="str">
         <f>IFERROR(VLOOKUP(L9,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>潜艇Φ级Ⅲ型</v>
       </c>
     </row>
     <row r="10" spans="1:44">
-      <c r="M10" s="34">
+      <c r="M10" s="33">
         <f>IFERROR(VLOOKUP(G10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="34">
         <f>IFERROR(VLOOKUP(H10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O10" s="34">
         <f>IFERROR(VLOOKUP(I10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="35">
+      <c r="P10" s="34">
         <f>IFERROR(VLOOKUP(J10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10" s="34">
         <f>IFERROR(VLOOKUP(K10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10" s="34">
         <f>IFERROR(VLOOKUP(L10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>0</v>
       </c>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$171</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$578</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$587</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14729" uniqueCount="2243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14729" uniqueCount="2245">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7133,6 +7133,13 @@
   </si>
   <si>
     <t>诺福克</t>
+  </si>
+  <si>
+    <t>ScoutPlane</t>
+  </si>
+  <si>
+    <t>ScoutPlane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7343,6 +7350,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7354,9 +7364,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8291,7 +8298,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomRight" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8445,7 +8452,7 @@
         <v>4</v>
       </c>
       <c r="R2" s="13">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R47" si="0">SUM($S2:$V2)</f>
         <v>76</v>
       </c>
       <c r="S2" s="13">
@@ -8526,7 +8533,7 @@
         <v>4</v>
       </c>
       <c r="R3" s="13">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S3" s="13">
@@ -8607,7 +8614,7 @@
         <v>4</v>
       </c>
       <c r="R4" s="13">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S4" s="13">
@@ -8688,7 +8695,7 @@
         <v>4</v>
       </c>
       <c r="R5" s="13">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S5" s="13">
@@ -8769,7 +8776,7 @@
         <v>4</v>
       </c>
       <c r="R6" s="13">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S6" s="13">
@@ -8850,7 +8857,7 @@
         <v>4</v>
       </c>
       <c r="R7" s="13">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S7" s="9">
@@ -8935,7 +8942,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="13">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S8" s="9">
@@ -9020,7 +9027,7 @@
         <v>4</v>
       </c>
       <c r="R9" s="13">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S9" s="9">
@@ -9105,7 +9112,7 @@
         <v>4</v>
       </c>
       <c r="R10" s="13">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="S10" s="13">
@@ -9189,7 +9196,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="13">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S11" s="13">
@@ -9270,7 +9277,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="13">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="S12" s="13">
@@ -9354,7 +9361,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="13">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S13" s="13">
@@ -9435,7 +9442,7 @@
         <v>4</v>
       </c>
       <c r="R14" s="13">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S14" s="13">
@@ -9519,7 +9526,7 @@
         <v>4</v>
       </c>
       <c r="R15" s="13">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S15" s="9">
@@ -9604,7 +9611,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="13">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S16" s="9">
@@ -9689,7 +9696,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="13">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S17" s="9">
@@ -9774,7 +9781,7 @@
         <v>4</v>
       </c>
       <c r="R18" s="13">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S18" s="9">
@@ -9859,7 +9866,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="13">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S19" s="9">
@@ -9944,7 +9951,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="13">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S20" s="9">
@@ -10029,7 +10036,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="13">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S21" s="9">
@@ -10114,7 +10121,7 @@
         <v>4</v>
       </c>
       <c r="R22" s="13">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S22" s="9">
@@ -10199,7 +10206,7 @@
         <v>4</v>
       </c>
       <c r="R23" s="13">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S23" s="9">
@@ -10284,7 +10291,7 @@
         <v>4</v>
       </c>
       <c r="R24" s="13">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S24" s="13">
@@ -10365,7 +10372,7 @@
         <v>4</v>
       </c>
       <c r="R25" s="13">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S25" s="13">
@@ -10446,7 +10453,7 @@
         <v>4</v>
       </c>
       <c r="R26" s="13">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S26" s="13">
@@ -10527,7 +10534,7 @@
         <v>4</v>
       </c>
       <c r="R27" s="13">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S27" s="13">
@@ -10608,7 +10615,7 @@
         <v>4</v>
       </c>
       <c r="R28" s="13">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="S28" s="13">
@@ -10692,7 +10699,7 @@
         <v>4</v>
       </c>
       <c r="R29" s="13">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="S29" s="13">
@@ -10776,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="R30" s="13">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="S30" s="13">
@@ -10857,7 +10864,7 @@
         <v>4</v>
       </c>
       <c r="R31" s="13">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S31" s="13">
@@ -10944,7 +10951,7 @@
         <v>4</v>
       </c>
       <c r="R32" s="13">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="S32" s="13">
@@ -11025,7 +11032,7 @@
         <v>3</v>
       </c>
       <c r="R33" s="13">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S33" s="9">
@@ -11110,7 +11117,7 @@
         <v>3</v>
       </c>
       <c r="R34" s="13">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="S34" s="9">
@@ -11195,7 +11202,7 @@
         <v>4</v>
       </c>
       <c r="R35" s="13">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S35" s="9">
@@ -11280,7 +11287,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="13">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S36" s="9">
@@ -11365,7 +11372,7 @@
         <v>4</v>
       </c>
       <c r="R37" s="13">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="S37" s="13">
@@ -11449,7 +11456,7 @@
         <v>4</v>
       </c>
       <c r="R38" s="13">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S38" s="13">
@@ -11536,7 +11543,7 @@
         <v>4</v>
       </c>
       <c r="R39" s="13">
-        <f>SUM($S39:$V39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S39" s="9">
@@ -11620,7 +11627,7 @@
         <v>4</v>
       </c>
       <c r="R40" s="13">
-        <f>SUM($S40:$V40)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="S40" s="13">
@@ -11704,7 +11711,7 @@
         <v>4</v>
       </c>
       <c r="R41" s="13">
-        <f>SUM($S41:$V41)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S41" s="13">
@@ -11788,7 +11795,7 @@
         <v>3</v>
       </c>
       <c r="R42" s="13">
-        <f>SUM($S42:$V42)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S42" s="13">
@@ -11869,7 +11876,7 @@
         <v>4</v>
       </c>
       <c r="R43" s="13">
-        <f>SUM($S43:$V43)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S43" s="9">
@@ -11954,7 +11961,7 @@
         <v>3</v>
       </c>
       <c r="R44" s="13">
-        <f>SUM($S44:$V44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S44" s="9">
@@ -12039,7 +12046,7 @@
         <v>4</v>
       </c>
       <c r="R45" s="13">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S45" s="9">
@@ -12123,7 +12130,7 @@
         <v>3</v>
       </c>
       <c r="R46" s="13">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S46" s="9">
@@ -12208,7 +12215,7 @@
         <v>3</v>
       </c>
       <c r="R47" s="13">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S47" s="13">
@@ -12372,7 +12379,7 @@
         <v>4</v>
       </c>
       <c r="R49" s="13">
-        <f>SUM($S49:$V49)</f>
+        <f t="shared" ref="R49:R78" si="1">SUM($S49:$V49)</f>
         <v>16</v>
       </c>
       <c r="S49" s="9">
@@ -12457,7 +12464,7 @@
         <v>4</v>
       </c>
       <c r="R50" s="13">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="S50" s="13">
@@ -12541,7 +12548,7 @@
         <v>4</v>
       </c>
       <c r="R51" s="13">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="S51" s="13">
@@ -12628,7 +12635,7 @@
         <v>3</v>
       </c>
       <c r="R52" s="25">
-        <f>SUM($S52:$V52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S52">
@@ -12712,7 +12719,7 @@
         <v>4</v>
       </c>
       <c r="R53" s="13">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S53" s="9">
@@ -12797,7 +12804,7 @@
         <v>4</v>
       </c>
       <c r="R54" s="13">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S54" s="15">
@@ -12882,7 +12889,7 @@
         <v>3</v>
       </c>
       <c r="R55" s="13">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S55" s="9">
@@ -12967,7 +12974,7 @@
         <v>2</v>
       </c>
       <c r="R56" s="13">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S56" s="13">
@@ -13048,7 +13055,7 @@
         <v>4</v>
       </c>
       <c r="R57" s="13">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S57" s="15">
@@ -13132,7 +13139,7 @@
         <v>3</v>
       </c>
       <c r="R58" s="13">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S58" s="13">
@@ -13213,7 +13220,7 @@
         <v>3</v>
       </c>
       <c r="R59" s="13">
-        <f>SUM($S59:$V59)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S59" s="13">
@@ -13294,7 +13301,7 @@
         <v>4</v>
       </c>
       <c r="R60" s="13">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="S60" s="13">
@@ -13378,7 +13385,7 @@
         <v>2</v>
       </c>
       <c r="R61" s="13">
-        <f>SUM($S61:$V61)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S61" s="13">
@@ -13459,7 +13466,7 @@
         <v>4</v>
       </c>
       <c r="R62" s="13">
-        <f>SUM($S62:$V62)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S62" s="15">
@@ -13544,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="R63" s="13">
-        <f>SUM($S63:$V63)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S63" s="9">
@@ -13629,7 +13636,7 @@
         <v>4</v>
       </c>
       <c r="R64" s="13">
-        <f>SUM($S64:$V64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S64" s="15">
@@ -13714,7 +13721,7 @@
         <v>3</v>
       </c>
       <c r="R65" s="13">
-        <f>SUM($S65:$V65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S65" s="9">
@@ -13799,7 +13806,7 @@
         <v>3</v>
       </c>
       <c r="R66" s="13">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S66" s="9">
@@ -13884,7 +13891,7 @@
         <v>4</v>
       </c>
       <c r="R67" s="13">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="S67" s="13">
@@ -13968,7 +13975,7 @@
         <v>4</v>
       </c>
       <c r="R68" s="13">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S68" s="13">
@@ -14055,7 +14062,7 @@
         <v>4</v>
       </c>
       <c r="R69" s="13">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S69" s="15">
@@ -14139,7 +14146,7 @@
         <v>4</v>
       </c>
       <c r="R70" s="13">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S70" s="15">
@@ -14223,7 +14230,7 @@
         <v>3</v>
       </c>
       <c r="R71" s="13">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S71" s="9">
@@ -14308,7 +14315,7 @@
         <v>4</v>
       </c>
       <c r="R72" s="13">
-        <f>SUM($S72:$V72)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S72" s="15">
@@ -14393,7 +14400,7 @@
         <v>4</v>
       </c>
       <c r="R73" s="13">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S73" s="15">
@@ -14477,7 +14484,7 @@
         <v>4</v>
       </c>
       <c r="R74" s="13">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S74" s="15">
@@ -14562,7 +14569,7 @@
         <v>4</v>
       </c>
       <c r="R75" s="13">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S75" s="15">
@@ -14647,7 +14654,7 @@
         <v>3</v>
       </c>
       <c r="R76" s="13">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S76" s="9">
@@ -14732,7 +14739,7 @@
         <v>4</v>
       </c>
       <c r="R77" s="13">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S77" s="15">
@@ -14817,7 +14824,7 @@
         <v>4</v>
       </c>
       <c r="R78" s="13">
-        <f>SUM($S78:$V78)</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="S78" s="13">
@@ -14984,7 +14991,7 @@
         <v>4</v>
       </c>
       <c r="R80" s="13">
-        <f>SUM($S80:$V80)</f>
+        <f t="shared" ref="R80:R103" si="2">SUM($S80:$V80)</f>
         <v>12</v>
       </c>
       <c r="S80" s="15">
@@ -15069,7 +15076,7 @@
         <v>4</v>
       </c>
       <c r="R81" s="13">
-        <f>SUM($S81:$V81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S81" s="15">
@@ -15153,7 +15160,7 @@
         <v>4</v>
       </c>
       <c r="R82" s="13">
-        <f>SUM($S82:$V82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S82" s="15">
@@ -15238,7 +15245,7 @@
         <v>3</v>
       </c>
       <c r="R83" s="13">
-        <f>SUM($S83:$V83)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S83" s="13">
@@ -15322,7 +15329,7 @@
         <v>4</v>
       </c>
       <c r="R84" s="13">
-        <f>SUM($S84:$V84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S84" s="15">
@@ -15407,7 +15414,7 @@
         <v>4</v>
       </c>
       <c r="R85" s="13">
-        <f>SUM($S85:$V85)</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="S85" s="13">
@@ -15494,7 +15501,7 @@
         <v>4</v>
       </c>
       <c r="R86" s="13">
-        <f>SUM($S86:$V86)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="S86" s="13">
@@ -15578,7 +15585,7 @@
         <v>4</v>
       </c>
       <c r="R87" s="13">
-        <f>SUM($S87:$V87)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="S87" s="13">
@@ -15659,7 +15666,7 @@
         <v>4</v>
       </c>
       <c r="R88" s="13">
-        <f>SUM($S88:$V88)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="S88" s="13">
@@ -15743,7 +15750,7 @@
         <v>3</v>
       </c>
       <c r="R89" s="13">
-        <f>SUM($S89:$V89)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="S89" s="9">
@@ -15828,7 +15835,7 @@
         <v>4</v>
       </c>
       <c r="R90" s="13">
-        <f>SUM($S90:$V90)</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="S90" s="13">
@@ -15912,7 +15919,7 @@
         <v>4</v>
       </c>
       <c r="R91" s="13">
-        <f>SUM($S91:$V91)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S91" s="9">
@@ -15996,7 +16003,7 @@
         <v>4</v>
       </c>
       <c r="R92" s="13">
-        <f>SUM($S92:$V92)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="S92" s="13">
@@ -16080,7 +16087,7 @@
         <v>4</v>
       </c>
       <c r="R93" s="13">
-        <f>SUM($S93:$V93)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S93" s="9">
@@ -16164,7 +16171,7 @@
         <v>4</v>
       </c>
       <c r="R94" s="13">
-        <f>SUM($S94:$V94)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="S94" s="13">
@@ -16248,7 +16255,7 @@
         <v>4</v>
       </c>
       <c r="R95" s="13">
-        <f>SUM($S95:$V95)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S95" s="13">
@@ -16335,7 +16342,7 @@
         <v>4</v>
       </c>
       <c r="R96" s="13">
-        <f>SUM($S96:$V96)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S96" s="9">
@@ -16368,13 +16375,13 @@
       <c r="AB96" s="9"/>
     </row>
     <row r="97" spans="1:29">
-      <c r="A97" s="44">
+      <c r="A97" s="40">
         <v>10502</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="C97" s="44" t="s">
+      <c r="C97" s="40" t="s">
         <v>2235</v>
       </c>
       <c r="D97" s="13" t="s">
@@ -16420,7 +16427,7 @@
         <v>3</v>
       </c>
       <c r="R97" s="25">
-        <f>SUM($S97:$V97)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S97">
@@ -16506,7 +16513,7 @@
         <v>4</v>
       </c>
       <c r="R98" s="13">
-        <f>SUM($S98:$V98)</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="S98" s="13">
@@ -16590,7 +16597,7 @@
         <v>4</v>
       </c>
       <c r="R99" s="13">
-        <f>SUM($S99:$V99)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S99" s="9">
@@ -16626,13 +16633,13 @@
       </c>
     </row>
     <row r="100" spans="1:29" customFormat="1">
-      <c r="A100" s="44">
+      <c r="A100" s="40">
         <v>10514</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>2231</v>
       </c>
-      <c r="C100" s="44" t="s">
+      <c r="C100" s="40" t="s">
         <v>2232</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -16678,7 +16685,7 @@
         <v>4</v>
       </c>
       <c r="R100" s="25">
-        <f>SUM($S100:$V100)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S100">
@@ -16710,13 +16717,13 @@
       </c>
     </row>
     <row r="101" spans="1:29" customFormat="1">
-      <c r="A101" s="44">
+      <c r="A101" s="40">
         <v>10520</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>2228</v>
       </c>
-      <c r="C101" s="44" t="s">
+      <c r="C101" s="40" t="s">
         <v>2229</v>
       </c>
       <c r="D101" s="13" t="s">
@@ -16762,7 +16769,7 @@
         <v>4</v>
       </c>
       <c r="R101" s="25">
-        <f>SUM($S101:$V101)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S101">
@@ -16794,13 +16801,13 @@
       </c>
     </row>
     <row r="102" spans="1:29" customFormat="1">
-      <c r="A102" s="44">
+      <c r="A102" s="40">
         <v>10524</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>2237</v>
       </c>
-      <c r="C102" s="44" t="s">
+      <c r="C102" s="40" t="s">
         <v>2238</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -16846,7 +16853,7 @@
         <v>4</v>
       </c>
       <c r="R102" s="25">
-        <f>SUM($S102:$V102)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S102">
@@ -16878,13 +16885,13 @@
       </c>
     </row>
     <row r="103" spans="1:29" customFormat="1">
-      <c r="A103" s="44">
+      <c r="A103" s="40">
         <v>10532</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>2231</v>
       </c>
-      <c r="C103" s="44" t="s">
+      <c r="C103" s="40" t="s">
         <v>2239</v>
       </c>
       <c r="D103" s="13" t="s">
@@ -16930,7 +16937,7 @@
         <v>4</v>
       </c>
       <c r="R103" s="25">
-        <f>SUM($S103:$V103)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S103">
@@ -17018,10 +17025,10 @@
   <dimension ref="A1:AC172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA182" sqref="AA182"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17176,7 +17183,7 @@
         <v>4</v>
       </c>
       <c r="R2" s="13">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R33" si="0">SUM($S2:$V2)</f>
         <v>12</v>
       </c>
       <c r="S2" s="9">
@@ -17263,7 +17270,7 @@
         <v>4</v>
       </c>
       <c r="R3" s="13">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="S3" s="13">
@@ -17347,7 +17354,7 @@
         <v>4</v>
       </c>
       <c r="R4" s="13">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S4" s="15">
@@ -17432,7 +17439,7 @@
         <v>4</v>
       </c>
       <c r="R5" s="13">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S5" s="13">
@@ -17516,7 +17523,7 @@
         <v>4</v>
       </c>
       <c r="R6" s="13">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S6" s="13">
@@ -17600,7 +17607,7 @@
         <v>4</v>
       </c>
       <c r="R7" s="13">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S7" s="15">
@@ -17687,7 +17694,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="13">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S8" s="15">
@@ -17772,7 +17779,7 @@
         <v>4</v>
       </c>
       <c r="R9" s="13">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S9" s="15">
@@ -17860,7 +17867,7 @@
         <v>4</v>
       </c>
       <c r="R10" s="13">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S10" s="15">
@@ -17950,7 +17957,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="13">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S11" s="15">
@@ -18037,7 +18044,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="13">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S12" s="15">
@@ -18122,7 +18129,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="13">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S13" s="15">
@@ -18207,7 +18214,7 @@
         <v>4</v>
       </c>
       <c r="R14" s="13">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S14" s="15">
@@ -18292,7 +18299,7 @@
         <v>4</v>
       </c>
       <c r="R15" s="13">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S15" s="15">
@@ -18377,7 +18384,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="13">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S16" s="9">
@@ -18464,7 +18471,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="13">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S17" s="9">
@@ -18549,7 +18556,7 @@
         <v>4</v>
       </c>
       <c r="R18" s="13">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S18" s="13">
@@ -18633,7 +18640,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="13">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S19" s="13">
@@ -18717,7 +18724,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="13">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="S20" s="13">
@@ -18804,7 +18811,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="13">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="S21" s="13">
@@ -18891,7 +18898,7 @@
         <v>3</v>
       </c>
       <c r="R22" s="13">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="S22" s="13">
@@ -18975,7 +18982,7 @@
         <v>3</v>
       </c>
       <c r="R23" s="13">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="S23" s="13">
@@ -19059,7 +19066,7 @@
         <v>3</v>
       </c>
       <c r="R24" s="13">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="S24" s="13">
@@ -19140,7 +19147,7 @@
         <v>3</v>
       </c>
       <c r="R25" s="13">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="S25" s="13">
@@ -19221,7 +19228,7 @@
         <v>4</v>
       </c>
       <c r="R26" s="13">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="S26" s="13">
@@ -19305,7 +19312,7 @@
         <v>4</v>
       </c>
       <c r="R27" s="13">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="S27" s="13">
@@ -19389,7 +19396,7 @@
         <v>4</v>
       </c>
       <c r="R28" s="13">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="S28" s="13">
@@ -19476,7 +19483,7 @@
         <v>4</v>
       </c>
       <c r="R29" s="13">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="S29" s="13">
@@ -19560,7 +19567,7 @@
         <v>4</v>
       </c>
       <c r="R30" s="13">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S30" s="9">
@@ -19645,7 +19652,7 @@
         <v>4</v>
       </c>
       <c r="R31" s="13">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S31" s="9">
@@ -19730,7 +19737,7 @@
         <v>4</v>
       </c>
       <c r="R32" s="13">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S32" s="9">
@@ -19815,7 +19822,7 @@
         <v>4</v>
       </c>
       <c r="R33" s="13">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S33" s="9">
@@ -19900,7 +19907,7 @@
         <v>4</v>
       </c>
       <c r="R34" s="13">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" ref="R34:R65" si="1">SUM($S34:$V34)</f>
         <v>12</v>
       </c>
       <c r="S34" s="9">
@@ -19985,7 +19992,7 @@
         <v>4</v>
       </c>
       <c r="R35" s="13">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S35" s="9">
@@ -20070,7 +20077,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="13">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S36" s="9">
@@ -20157,7 +20164,7 @@
         <v>4</v>
       </c>
       <c r="R37" s="13">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S37" s="9">
@@ -20242,7 +20249,7 @@
         <v>4</v>
       </c>
       <c r="R38" s="13">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S38" s="9">
@@ -20329,7 +20336,7 @@
         <v>3</v>
       </c>
       <c r="R39" s="25">
-        <f>SUM($S39:$V39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S39">
@@ -20416,7 +20423,7 @@
         <v>3</v>
       </c>
       <c r="R40" s="25">
-        <f>SUM($S40:$V40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
@@ -20503,7 +20510,7 @@
         <v>3</v>
       </c>
       <c r="R41" s="13">
-        <f>SUM($S41:$V41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S41" s="9">
@@ -20588,7 +20595,7 @@
         <v>3</v>
       </c>
       <c r="R42" s="13">
-        <f>SUM($S42:$V42)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S42" s="9">
@@ -20673,7 +20680,7 @@
         <v>3</v>
       </c>
       <c r="R43" s="13">
-        <f>SUM($S43:$V43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S43" s="9">
@@ -20758,7 +20765,7 @@
         <v>3</v>
       </c>
       <c r="R44" s="13">
-        <f>SUM($S44:$V44)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S44" s="9">
@@ -20845,7 +20852,7 @@
         <v>3</v>
       </c>
       <c r="R45" s="13">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S45" s="9">
@@ -20935,7 +20942,7 @@
         <v>3</v>
       </c>
       <c r="R46" s="13">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S46" s="9">
@@ -21023,7 +21030,7 @@
         <v>3</v>
       </c>
       <c r="R47" s="13">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S47" s="9">
@@ -21111,7 +21118,7 @@
         <v>3</v>
       </c>
       <c r="R48" s="13">
-        <f>SUM($S48:$V48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S48" s="9">
@@ -21199,7 +21206,7 @@
         <v>3</v>
       </c>
       <c r="R49" s="13">
-        <f>SUM($S49:$V49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S49" s="9">
@@ -21287,7 +21294,7 @@
         <v>3</v>
       </c>
       <c r="R50" s="13">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S50" s="9">
@@ -21375,7 +21382,7 @@
         <v>3</v>
       </c>
       <c r="R51" s="13">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S51" s="9">
@@ -21463,7 +21470,7 @@
         <v>3</v>
       </c>
       <c r="R52" s="13">
-        <f>SUM($S52:$V52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S52" s="9">
@@ -21551,7 +21558,7 @@
         <v>3</v>
       </c>
       <c r="R53" s="13">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S53" s="9">
@@ -21639,7 +21646,7 @@
         <v>3</v>
       </c>
       <c r="R54" s="13">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S54" s="9">
@@ -21727,7 +21734,7 @@
         <v>3</v>
       </c>
       <c r="R55" s="13">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S55" s="9">
@@ -21815,7 +21822,7 @@
         <v>3</v>
       </c>
       <c r="R56" s="13">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S56" s="9">
@@ -21905,7 +21912,7 @@
         <v>3</v>
       </c>
       <c r="R57" s="13">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S57" s="9">
@@ -21993,7 +22000,7 @@
         <v>3</v>
       </c>
       <c r="R58" s="13">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S58" s="9">
@@ -22081,7 +22088,7 @@
         <v>3</v>
       </c>
       <c r="R59" s="13">
-        <f>SUM($S59:$V59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S59" s="9">
@@ -22169,7 +22176,7 @@
         <v>3</v>
       </c>
       <c r="R60" s="13">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S60" s="9">
@@ -22254,7 +22261,7 @@
         <v>3</v>
       </c>
       <c r="R61" s="13">
-        <f>SUM($S61:$V61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S61" s="9">
@@ -22341,7 +22348,7 @@
         <v>3</v>
       </c>
       <c r="R62" s="13">
-        <f>SUM($S62:$V62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S62" s="9">
@@ -22426,7 +22433,7 @@
         <v>3</v>
       </c>
       <c r="R63" s="13">
-        <f>SUM($S63:$V63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S63" s="9">
@@ -22511,7 +22518,7 @@
         <v>3</v>
       </c>
       <c r="R64" s="13">
-        <f>SUM($S64:$V64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S64" s="9">
@@ -22596,7 +22603,7 @@
         <v>3</v>
       </c>
       <c r="R65" s="13">
-        <f>SUM($S65:$V65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S65" s="9">
@@ -22681,7 +22688,7 @@
         <v>3</v>
       </c>
       <c r="R66" s="13">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" ref="R66:R97" si="2">SUM($S66:$V66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="9">
@@ -22766,7 +22773,7 @@
         <v>3</v>
       </c>
       <c r="R67" s="13">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S67" s="9">
@@ -22851,7 +22858,7 @@
         <v>3</v>
       </c>
       <c r="R68" s="13">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S68" s="9">
@@ -22936,7 +22943,7 @@
         <v>3</v>
       </c>
       <c r="R69" s="13">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S69" s="9">
@@ -23021,7 +23028,7 @@
         <v>3</v>
       </c>
       <c r="R70" s="13">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S70" s="9">
@@ -23108,7 +23115,7 @@
         <v>3</v>
       </c>
       <c r="R71" s="13">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="S71" s="13">
@@ -23193,7 +23200,7 @@
         <v>3</v>
       </c>
       <c r="R72" s="13">
-        <f>SUM($S72:$V72)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S72" s="13">
@@ -23278,7 +23285,7 @@
         <v>3</v>
       </c>
       <c r="R73" s="13">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S73" s="9">
@@ -23363,7 +23370,7 @@
         <v>3</v>
       </c>
       <c r="R74" s="13">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S74" s="9">
@@ -23448,7 +23455,7 @@
         <v>4</v>
       </c>
       <c r="R75" s="13">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S75" s="15">
@@ -23535,7 +23542,7 @@
         <v>4</v>
       </c>
       <c r="R76" s="13">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S76" s="15">
@@ -23625,7 +23632,7 @@
         <v>4</v>
       </c>
       <c r="R77" s="13">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S77" s="15">
@@ -23715,7 +23722,7 @@
         <v>4</v>
       </c>
       <c r="R78" s="13">
-        <f>SUM($S78:$V78)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S78" s="15">
@@ -23802,7 +23809,7 @@
         <v>4</v>
       </c>
       <c r="R79" s="13">
-        <f>SUM($S79:$V79)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S79" s="15">
@@ -23887,7 +23894,7 @@
         <v>4</v>
       </c>
       <c r="R80" s="13">
-        <f>SUM($S80:$V80)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S80" s="15">
@@ -23972,7 +23979,7 @@
         <v>4</v>
       </c>
       <c r="R81" s="13">
-        <f>SUM($S81:$V81)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S81" s="15">
@@ -24060,7 +24067,7 @@
         <v>4</v>
       </c>
       <c r="R82" s="13">
-        <f>SUM($S82:$V82)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S82" s="15">
@@ -24150,7 +24157,7 @@
         <v>4</v>
       </c>
       <c r="R83" s="13">
-        <f>SUM($S83:$V83)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S83" s="15">
@@ -24240,7 +24247,7 @@
         <v>4</v>
       </c>
       <c r="R84" s="13">
-        <f>SUM($S84:$V84)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S84" s="15">
@@ -24327,7 +24334,7 @@
         <v>4</v>
       </c>
       <c r="R85" s="13">
-        <f>SUM($S85:$V85)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S85" s="15">
@@ -24412,7 +24419,7 @@
         <v>4</v>
       </c>
       <c r="R86" s="13">
-        <f>SUM($S86:$V86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S86" s="15">
@@ -24499,7 +24506,7 @@
         <v>4</v>
       </c>
       <c r="R87" s="13">
-        <f>SUM($S87:$V87)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="S87" s="13">
@@ -24586,7 +24593,7 @@
         <v>4</v>
       </c>
       <c r="R88" s="13">
-        <f>SUM($S88:$V88)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="S88" s="13">
@@ -24671,7 +24678,7 @@
         <v>4</v>
       </c>
       <c r="R89" s="13">
-        <f>SUM($S89:$V89)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="S89" s="13">
@@ -24756,7 +24763,7 @@
         <v>4</v>
       </c>
       <c r="R90" s="13">
-        <f>SUM($S90:$V90)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S90" s="13">
@@ -24843,7 +24850,7 @@
         <v>3</v>
       </c>
       <c r="R91" s="13">
-        <f>SUM($S91:$V91)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S91" s="13">
@@ -24928,7 +24935,7 @@
         <v>3</v>
       </c>
       <c r="R92" s="13">
-        <f>SUM($S92:$V92)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S92" s="13">
@@ -25013,7 +25020,7 @@
         <v>3</v>
       </c>
       <c r="R93" s="13">
-        <f>SUM($S93:$V93)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="S93" s="13">
@@ -25098,7 +25105,7 @@
         <v>3</v>
       </c>
       <c r="R94" s="13">
-        <f>SUM($S94:$V94)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="S94" s="13">
@@ -25183,7 +25190,7 @@
         <v>4</v>
       </c>
       <c r="R95" s="13">
-        <f>SUM($S95:$V95)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S95" s="9">
@@ -25270,7 +25277,7 @@
         <v>4</v>
       </c>
       <c r="R96" s="13">
-        <f>SUM($S96:$V96)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S96" s="9">
@@ -25355,7 +25362,7 @@
         <v>4</v>
       </c>
       <c r="R97" s="13">
-        <f>SUM($S97:$V97)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="S97" s="9">
@@ -25440,7 +25447,7 @@
         <v>4</v>
       </c>
       <c r="R98" s="13">
-        <f>SUM($S98:$V98)</f>
+        <f t="shared" ref="R98:R129" si="3">SUM($S98:$V98)</f>
         <v>6</v>
       </c>
       <c r="S98" s="9">
@@ -25525,7 +25532,7 @@
         <v>4</v>
       </c>
       <c r="R99" s="13">
-        <f>SUM($S99:$V99)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S99" s="9">
@@ -25610,7 +25617,7 @@
         <v>4</v>
       </c>
       <c r="R100" s="13">
-        <f>SUM($S100:$V100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S100" s="9">
@@ -25695,7 +25702,7 @@
         <v>4</v>
       </c>
       <c r="R101" s="13">
-        <f>SUM($S101:$V101)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S101" s="9">
@@ -25780,7 +25787,7 @@
         <v>4</v>
       </c>
       <c r="R102" s="13">
-        <f>SUM($S102:$V102)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="S102" s="9">
@@ -25865,7 +25872,7 @@
         <v>4</v>
       </c>
       <c r="R103" s="13">
-        <f>SUM($S103:$V103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S103" s="9">
@@ -25950,7 +25957,7 @@
         <v>4</v>
       </c>
       <c r="R104" s="13">
-        <f>SUM($S104:$V104)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S104" s="9">
@@ -26035,7 +26042,7 @@
         <v>4</v>
       </c>
       <c r="R105" s="13">
-        <f>SUM($S105:$V105)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S105" s="9">
@@ -26120,7 +26127,7 @@
         <v>3</v>
       </c>
       <c r="R106" s="13">
-        <f>SUM($S106:$V106)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="S106" s="9">
@@ -26205,7 +26212,7 @@
         <v>3</v>
       </c>
       <c r="R107" s="13">
-        <f>SUM($S107:$V107)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S107" s="9">
@@ -26290,7 +26297,7 @@
         <v>3</v>
       </c>
       <c r="R108" s="13">
-        <f>SUM($S108:$V108)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S108" s="9">
@@ -26375,7 +26382,7 @@
         <v>3</v>
       </c>
       <c r="R109" s="13">
-        <f>SUM($S109:$V109)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S109" s="9">
@@ -26460,7 +26467,7 @@
         <v>3</v>
       </c>
       <c r="R110" s="13">
-        <f>SUM($S110:$V110)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S110" s="9">
@@ -26545,7 +26552,7 @@
         <v>3</v>
       </c>
       <c r="R111" s="13">
-        <f>SUM($S111:$V111)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S111" s="9">
@@ -26630,7 +26637,7 @@
         <v>3</v>
       </c>
       <c r="R112" s="13">
-        <f>SUM($S112:$V112)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S112" s="9">
@@ -26715,7 +26722,7 @@
         <v>3</v>
       </c>
       <c r="R113" s="13">
-        <f>SUM($S113:$V113)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S113" s="9">
@@ -26802,7 +26809,7 @@
         <v>3</v>
       </c>
       <c r="R114" s="13">
-        <f>SUM($S114:$V114)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S114" s="9">
@@ -26890,7 +26897,7 @@
         <v>3</v>
       </c>
       <c r="R115" s="13">
-        <f>SUM($S115:$V115)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S115" s="9">
@@ -26975,7 +26982,7 @@
         <v>3</v>
       </c>
       <c r="R116" s="13">
-        <f>SUM($S116:$V116)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S116" s="9">
@@ -27060,7 +27067,7 @@
         <v>3</v>
       </c>
       <c r="R117" s="13">
-        <f>SUM($S117:$V117)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S117" s="9">
@@ -27147,7 +27154,7 @@
         <v>3</v>
       </c>
       <c r="R118" s="13">
-        <f>SUM($S118:$V118)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S118" s="9">
@@ -27232,7 +27239,7 @@
         <v>3</v>
       </c>
       <c r="R119" s="13">
-        <f>SUM($S119:$V119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S119" s="9">
@@ -27317,7 +27324,7 @@
         <v>3</v>
       </c>
       <c r="R120" s="13">
-        <f>SUM($S120:$V120)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S120" s="9">
@@ -27402,7 +27409,7 @@
         <v>3</v>
       </c>
       <c r="R121" s="13">
-        <f>SUM($S121:$V121)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S121" s="9">
@@ -27487,7 +27494,7 @@
         <v>3</v>
       </c>
       <c r="R122" s="13">
-        <f>SUM($S122:$V122)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S122" s="9">
@@ -27572,7 +27579,7 @@
         <v>3</v>
       </c>
       <c r="R123" s="13">
-        <f>SUM($S123:$V123)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S123" s="9">
@@ -27657,7 +27664,7 @@
         <v>3</v>
       </c>
       <c r="R124" s="13">
-        <f>SUM($S124:$V124)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S124" s="25">
@@ -27742,7 +27749,7 @@
         <v>3</v>
       </c>
       <c r="R125" s="13">
-        <f>SUM($S125:$V125)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S125" s="25">
@@ -27827,7 +27834,7 @@
         <v>3</v>
       </c>
       <c r="R126" s="13">
-        <f>SUM($S126:$V126)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S126" s="25">
@@ -27917,7 +27924,7 @@
         <v>3</v>
       </c>
       <c r="R127" s="13">
-        <f>SUM($S127:$V127)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S127">
@@ -28002,7 +28009,7 @@
         <v>4</v>
       </c>
       <c r="R128" s="13">
-        <f>SUM($S128:$V128)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S128" s="15">
@@ -28089,7 +28096,7 @@
         <v>4</v>
       </c>
       <c r="R129" s="13">
-        <f>SUM($S129:$V129)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S129" s="15">
@@ -28176,7 +28183,7 @@
         <v>4</v>
       </c>
       <c r="R130" s="13">
-        <f>SUM($S130:$V130)</f>
+        <f t="shared" ref="R130:R161" si="4">SUM($S130:$V130)</f>
         <v>32</v>
       </c>
       <c r="S130" s="13">
@@ -28263,7 +28270,7 @@
         <v>4</v>
       </c>
       <c r="R131" s="13">
-        <f>SUM($S131:$V131)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S131" s="15">
@@ -28348,7 +28355,7 @@
         <v>4</v>
       </c>
       <c r="R132" s="13">
-        <f>SUM($S132:$V132)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="S132" s="13">
@@ -28433,7 +28440,7 @@
         <v>4</v>
       </c>
       <c r="R133" s="13">
-        <f>SUM($S133:$V133)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="S133" s="13">
@@ -28518,7 +28525,7 @@
         <v>4</v>
       </c>
       <c r="R134" s="13">
-        <f>SUM($S134:$V134)</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="S134" s="13">
@@ -28605,7 +28612,7 @@
         <v>4</v>
       </c>
       <c r="R135" s="13">
-        <f>SUM($S135:$V135)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="S135" s="13">
@@ -28690,7 +28697,7 @@
         <v>4</v>
       </c>
       <c r="R136" s="13">
-        <f>SUM($S136:$V136)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="S136" s="13">
@@ -28777,7 +28784,7 @@
         <v>4</v>
       </c>
       <c r="R137" s="13">
-        <f>SUM($S137:$V137)</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="S137" s="13">
@@ -28864,7 +28871,7 @@
         <v>4</v>
       </c>
       <c r="R138" s="13">
-        <f>SUM($S138:$V138)</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="S138" s="13">
@@ -28949,7 +28956,7 @@
         <v>3</v>
       </c>
       <c r="R139" s="13">
-        <f>SUM($S139:$V139)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="S139" s="13">
@@ -29034,7 +29041,7 @@
         <v>3</v>
       </c>
       <c r="R140" s="13">
-        <f>SUM($S140:$V140)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="S140" s="13">
@@ -29119,7 +29126,7 @@
         <v>4</v>
       </c>
       <c r="R141" s="13">
-        <f>SUM($S141:$V141)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S141" s="9">
@@ -29204,7 +29211,7 @@
         <v>4</v>
       </c>
       <c r="R142" s="13">
-        <f>SUM($S142:$V142)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S142" s="9">
@@ -29289,7 +29296,7 @@
         <v>4</v>
       </c>
       <c r="R143" s="13">
-        <f>SUM($S143:$V143)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S143" s="9">
@@ -29376,7 +29383,7 @@
         <v>4</v>
       </c>
       <c r="R144" s="13">
-        <f>SUM($S144:$V144)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="S144" s="9">
@@ -29461,7 +29468,7 @@
         <v>3</v>
       </c>
       <c r="R145" s="13">
-        <f>SUM($S145:$V145)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S145" s="9">
@@ -29546,7 +29553,7 @@
         <v>3</v>
       </c>
       <c r="R146" s="13">
-        <f>SUM($S146:$V146)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S146" s="9">
@@ -29634,7 +29641,7 @@
         <v>3</v>
       </c>
       <c r="R147" s="13">
-        <f>SUM($S147:$V147)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S147" s="9">
@@ -29722,7 +29729,7 @@
         <v>3</v>
       </c>
       <c r="R148" s="13">
-        <f>SUM($S148:$V148)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S148" s="9">
@@ -29809,7 +29816,7 @@
         <v>3</v>
       </c>
       <c r="R149" s="13">
-        <f>SUM($S149:$V149)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S149" s="9">
@@ -29896,7 +29903,7 @@
         <v>3</v>
       </c>
       <c r="R150" s="13">
-        <f>SUM($S150:$V150)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S150" s="9">
@@ -29983,7 +29990,7 @@
         <v>3</v>
       </c>
       <c r="R151" s="13">
-        <f>SUM($S151:$V151)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S151" s="25">
@@ -30071,7 +30078,7 @@
         <v>3</v>
       </c>
       <c r="R152" s="13">
-        <f>SUM($S152:$V152)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S152" s="25">
@@ -30159,7 +30166,7 @@
         <v>3</v>
       </c>
       <c r="R153" s="13">
-        <f>SUM($S153:$V153)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S153" s="25">
@@ -30247,7 +30254,7 @@
         <v>4</v>
       </c>
       <c r="R154" s="13">
-        <f>SUM($S154:$V154)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="S154" s="13">
@@ -30334,7 +30341,7 @@
         <v>3</v>
       </c>
       <c r="R155" s="13">
-        <f>SUM($S155:$V155)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S155" s="9">
@@ -30419,7 +30426,7 @@
         <v>3</v>
       </c>
       <c r="R156" s="13">
-        <f>SUM($S156:$V156)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S156" s="9">
@@ -30504,7 +30511,7 @@
         <v>3</v>
       </c>
       <c r="R157" s="13">
-        <f>SUM($S157:$V157)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S157" s="9">
@@ -30589,7 +30596,7 @@
         <v>3</v>
       </c>
       <c r="R158" s="13">
-        <f>SUM($S158:$V158)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S158" s="9">
@@ -30674,7 +30681,7 @@
         <v>3</v>
       </c>
       <c r="R159" s="13">
-        <f>SUM($S159:$V159)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S159" s="9">
@@ -30759,7 +30766,7 @@
         <v>4</v>
       </c>
       <c r="R160" s="13">
-        <f>SUM($S160:$V160)</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="S160" s="13">
@@ -30846,7 +30853,7 @@
         <v>3</v>
       </c>
       <c r="R161" s="13">
-        <f>SUM($S161:$V161)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S161" s="9">
@@ -30931,7 +30938,7 @@
         <v>3</v>
       </c>
       <c r="R162" s="13">
-        <f>SUM($S162:$V162)</f>
+        <f t="shared" ref="R162:R172" si="5">SUM($S162:$V162)</f>
         <v>0</v>
       </c>
       <c r="S162" s="9">
@@ -31016,7 +31023,7 @@
         <v>3</v>
       </c>
       <c r="R163" s="13">
-        <f>SUM($S163:$V163)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S163" s="25">
@@ -31104,7 +31111,7 @@
         <v>4</v>
       </c>
       <c r="R164" s="13">
-        <f>SUM($S164:$V164)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S164" s="9">
@@ -31191,7 +31198,7 @@
         <v>3</v>
       </c>
       <c r="R165" s="13">
-        <f>SUM($S165:$V165)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S165" s="9">
@@ -31276,7 +31283,7 @@
         <v>4</v>
       </c>
       <c r="R166" s="13">
-        <f>SUM($S166:$V166)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S166" s="15">
@@ -31363,7 +31370,7 @@
         <v>3</v>
       </c>
       <c r="R167" s="13">
-        <f>SUM($S167:$V167)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S167" s="25">
@@ -31448,7 +31455,7 @@
         <v>4</v>
       </c>
       <c r="R168" s="13">
-        <f>SUM($S168:$V168)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="S168" s="13">
@@ -31532,7 +31539,7 @@
         <v>4</v>
       </c>
       <c r="R169" s="13">
-        <f>SUM($S169:$V169)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S169" s="9">
@@ -31617,7 +31624,7 @@
         <v>4</v>
       </c>
       <c r="R170" s="13">
-        <f>SUM($S170:$V170)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S170" s="9">
@@ -31702,7 +31709,7 @@
         <v>4</v>
       </c>
       <c r="R171" s="13">
-        <f>SUM($S171:$V171)</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="S171" s="13">
@@ -31738,13 +31745,13 @@
       <c r="AC171" s="13"/>
     </row>
     <row r="172" spans="1:29" customFormat="1">
-      <c r="A172" s="44">
+      <c r="A172" s="40">
         <v>11496</v>
       </c>
       <c r="B172" t="s">
         <v>2241</v>
       </c>
-      <c r="C172" s="44" t="s">
+      <c r="C172" s="40" t="s">
         <v>2242</v>
       </c>
       <c r="D172" t="s">
@@ -31790,7 +31797,7 @@
         <v>3</v>
       </c>
       <c r="R172" s="25">
-        <f>SUM($S172:$V172)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S172">
@@ -32218,10 +32225,10 @@
   <dimension ref="A1:AA587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E555" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H591" sqref="H591"/>
+      <selection pane="bottomRight" activeCell="C594" sqref="C594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -38796,7 +38803,7 @@
         <v>1098</v>
       </c>
       <c r="B91" t="s">
-        <v>306</v>
+        <v>2244</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>573</v>
@@ -38873,7 +38880,7 @@
         <v>1099</v>
       </c>
       <c r="B92" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>574</v>
@@ -38950,7 +38957,7 @@
         <v>1100</v>
       </c>
       <c r="B93" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>575</v>
@@ -39027,7 +39034,7 @@
         <v>1101</v>
       </c>
       <c r="B94" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>576</v>
@@ -40665,7 +40672,7 @@
         <v>1122</v>
       </c>
       <c r="B115" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>597</v>
@@ -43959,7 +43966,7 @@
         <v>1164</v>
       </c>
       <c r="B157" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>639</v>
@@ -44036,7 +44043,7 @@
         <v>1165</v>
       </c>
       <c r="B158" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>640</v>
@@ -44190,7 +44197,7 @@
         <v>1167</v>
       </c>
       <c r="B160" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>642</v>
@@ -45354,7 +45361,7 @@
         <v>1182</v>
       </c>
       <c r="B175" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>657</v>
@@ -47001,7 +47008,7 @@
         <v>1203</v>
       </c>
       <c r="B196" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>678</v>
@@ -48322,7 +48329,7 @@
         <v>1220</v>
       </c>
       <c r="B213" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>695</v>
@@ -48399,7 +48406,7 @@
         <v>1221</v>
       </c>
       <c r="B214" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>696</v>
@@ -49261,7 +49268,7 @@
         <v>1232</v>
       </c>
       <c r="B225" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>707</v>
@@ -56032,7 +56039,7 @@
         <v>1319</v>
       </c>
       <c r="B312" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>788</v>
@@ -61079,7 +61086,7 @@
         <v>1384</v>
       </c>
       <c r="B377" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>851</v>
@@ -62483,7 +62490,7 @@
         <v>1402</v>
       </c>
       <c r="B395" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>869</v>
@@ -65377,7 +65384,7 @@
         <v>1439</v>
       </c>
       <c r="B432" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>904</v>
@@ -68019,7 +68026,7 @@
         <v>1473</v>
       </c>
       <c r="B466" t="s">
-        <v>306</v>
+        <v>2243</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>937</v>
@@ -75795,7 +75802,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA578">
+  <autoFilter ref="A1:AA587">
     <sortState ref="A2:AA570">
       <sortCondition ref="A1:A570"/>
     </sortState>
@@ -75811,7 +75818,7 @@
   <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L107" sqref="L107"/>
@@ -94070,57 +94077,57 @@
       <c r="E1" s="3" t="s">
         <v>2138</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>2129</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="41" t="s">
         <v>2130</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44" t="s">
         <v>2131</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="40" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="41" t="s">
         <v>2132</v>
       </c>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44" t="s">
         <v>2133</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="40" t="s">
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="41" t="s">
         <v>2134</v>
       </c>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="43"/>
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="2" t="s">

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338191D0-D4B9-4835-B28B-B68AEC77DECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585727C3-8025-4C9B-859B-F13AA39C85AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14793" uniqueCount="2256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14846" uniqueCount="2284">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7179,6 +7179,106 @@
   </si>
   <si>
     <t>CLT0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃克赛特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝加哥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格罗兹尼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1913战巡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10606</t>
+  </si>
+  <si>
+    <t>10608</t>
+  </si>
+  <si>
+    <t>10610</t>
+  </si>
+  <si>
+    <t>10611</t>
+  </si>
+  <si>
+    <t>10612</t>
+  </si>
+  <si>
+    <t>10613</t>
+  </si>
+  <si>
+    <t>10614</t>
+  </si>
+  <si>
+    <t>10615</t>
+  </si>
+  <si>
+    <t>图-91（火箭鱼雷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>АК-630</t>
+  </si>
+  <si>
+    <t>四联48厘米炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联406毫米主炮（S）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>П-35反舰导弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>СМ-70旋转发射器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>613</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>612</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加10%护甲穿透(同类弹药效果只生效一个)，格罗兹尼装备时提高5%护甲穿透</t>
+  </si>
+  <si>
+    <t>格罗兹尼装备时提高10%回避率</t>
+  </si>
+  <si>
+    <t>F3H战斗机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45厘米三联主炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10616</t>
+  </si>
+  <si>
+    <t>51厘米三联主炮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8335,13 +8435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC104"/>
+  <dimension ref="A1:AC106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A94" sqref="A94"/>
+      <selection pane="bottomRight" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15034,7 +15134,7 @@
         <v>4</v>
       </c>
       <c r="R80" s="13">
-        <f t="shared" ref="R80:R104" si="2">SUM($S80:$V80)</f>
+        <f t="shared" ref="R80:R106" si="2">SUM($S80:$V80)</f>
         <v>12</v>
       </c>
       <c r="S80" s="15">
@@ -16930,23 +17030,23 @@
       </c>
     </row>
     <row r="103" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="40">
-        <v>10524</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>2235</v>
+      <c r="A103" s="3">
+        <v>10521</v>
+      </c>
+      <c r="B103" t="s">
+        <v>210</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>2236</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>2228</v>
+        <v>2261</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1941</v>
       </c>
       <c r="E103">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F103">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -16955,28 +17055,28 @@
         <v>69</v>
       </c>
       <c r="I103">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L103">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M103">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N103">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O103">
         <v>3</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -16998,69 +17098,71 @@
         <v>0</v>
       </c>
       <c r="W103">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="X103">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Y103">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="Z103">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AA103">
-        <v>105241</v>
-      </c>
+        <v>105211</v>
+      </c>
+      <c r="AB103" s="13"/>
+      <c r="AC103" s="9"/>
     </row>
     <row r="104" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="40">
-        <v>10532</v>
+        <v>10524</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>2229</v>
+        <v>2235</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>2238</v>
+        <v>2236</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>2228</v>
       </c>
       <c r="E104">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F104">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I104">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L104">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M104">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N104">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="O104">
         <v>3</v>
       </c>
       <c r="P104">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -17082,24 +17184,194 @@
         <v>0</v>
       </c>
       <c r="W104">
+        <v>80</v>
+      </c>
+      <c r="X104">
+        <v>120</v>
+      </c>
+      <c r="Y104">
+        <v>2.88</v>
+      </c>
+      <c r="Z104">
+        <v>5.4</v>
+      </c>
+      <c r="AA104">
+        <v>105241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A105" s="40">
+        <v>10532</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E105">
+        <v>52</v>
+      </c>
+      <c r="F105">
+        <v>78</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>79</v>
+      </c>
+      <c r="I105">
+        <v>48</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>94</v>
+      </c>
+      <c r="L105">
+        <v>44</v>
+      </c>
+      <c r="M105">
+        <v>37</v>
+      </c>
+      <c r="N105">
+        <v>22</v>
+      </c>
+      <c r="O105">
+        <v>3</v>
+      </c>
+      <c r="P105">
+        <v>16</v>
+      </c>
+      <c r="Q105">
+        <v>4</v>
+      </c>
+      <c r="R105" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
         <v>70</v>
       </c>
-      <c r="X104">
+      <c r="X105">
         <v>105</v>
       </c>
-      <c r="Y104">
+      <c r="Y105">
         <v>2.25</v>
       </c>
-      <c r="Z104">
+      <c r="Z105">
         <v>4.55</v>
       </c>
-      <c r="AA104">
+      <c r="AA105">
         <v>105321</v>
+      </c>
+      <c r="AB105"/>
+      <c r="AC105"/>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>10533</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D106" t="s">
+        <v>81</v>
+      </c>
+      <c r="E106">
+        <v>40</v>
+      </c>
+      <c r="F106">
+        <v>62</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>40</v>
+      </c>
+      <c r="I106">
+        <v>100</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>95</v>
+      </c>
+      <c r="L106">
+        <v>74</v>
+      </c>
+      <c r="M106">
+        <v>62</v>
+      </c>
+      <c r="N106">
+        <v>34.5</v>
+      </c>
+      <c r="O106">
+        <v>2</v>
+      </c>
+      <c r="P106">
+        <v>19</v>
+      </c>
+      <c r="Q106">
+        <v>3</v>
+      </c>
+      <c r="R106" s="25">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="S106">
+        <v>10</v>
+      </c>
+      <c r="T106">
+        <v>10</v>
+      </c>
+      <c r="U106">
+        <v>10</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>40</v>
+      </c>
+      <c r="X106">
+        <v>120</v>
+      </c>
+      <c r="Y106">
+        <v>1.28</v>
+      </c>
+      <c r="Z106">
+        <v>2.1</v>
+      </c>
+      <c r="AA106">
+        <v>105331</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AC99" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC104">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC106">
       <sortCondition ref="A1:A99"/>
     </sortState>
   </autoFilter>
@@ -17151,13 +17423,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC172"/>
+  <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A164" sqref="A164"/>
+      <selection pane="bottomRight" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29289,122 +29561,121 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>11240</v>
-      </c>
-      <c r="B142" s="13" t="s">
+        <v>11239</v>
+      </c>
+      <c r="B142" t="s">
         <v>206</v>
       </c>
-      <c r="C142" s="13" t="s">
-        <v>1937</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E142" s="9">
+      <c r="C142" s="40" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142">
+        <v>48</v>
+      </c>
+      <c r="F142">
+        <v>63</v>
+      </c>
+      <c r="G142">
         <v>58</v>
       </c>
-      <c r="F142" s="9">
+      <c r="H142">
+        <v>48</v>
+      </c>
+      <c r="I142">
         <v>73</v>
       </c>
-      <c r="G142" s="9">
-        <v>0</v>
-      </c>
-      <c r="H142" s="9">
-        <v>56</v>
-      </c>
-      <c r="I142" s="9">
-        <v>83</v>
-      </c>
-      <c r="J142" s="9">
-        <v>0</v>
-      </c>
-      <c r="K142" s="9">
-        <v>98</v>
-      </c>
-      <c r="L142" s="9">
-        <v>83</v>
-      </c>
-      <c r="M142" s="9">
-        <v>58</v>
-      </c>
-      <c r="N142" s="9">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="O142" s="9">
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>97</v>
+      </c>
+      <c r="L142">
+        <v>82</v>
+      </c>
+      <c r="M142">
+        <v>62</v>
+      </c>
+      <c r="N142">
+        <v>32</v>
+      </c>
+      <c r="O142">
         <v>2</v>
       </c>
-      <c r="P142" s="9">
-        <v>20</v>
-      </c>
-      <c r="Q142" s="9">
+      <c r="P142">
+        <v>10</v>
+      </c>
+      <c r="Q142">
         <v>4</v>
       </c>
-      <c r="R142" s="13">
+      <c r="R142" s="25">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="S142" s="9">
+      <c r="S142">
         <v>2</v>
       </c>
-      <c r="T142" s="9">
+      <c r="T142">
         <v>2</v>
       </c>
-      <c r="U142" s="9">
+      <c r="U142">
         <v>2</v>
       </c>
-      <c r="V142" s="9">
+      <c r="V142">
         <v>2</v>
       </c>
-      <c r="W142" s="9">
-        <v>40</v>
-      </c>
-      <c r="X142" s="9">
+      <c r="W142">
+        <v>35</v>
+      </c>
+      <c r="X142">
         <v>70</v>
       </c>
-      <c r="Y142" s="9">
+      <c r="Y142">
         <v>1.28</v>
       </c>
-      <c r="Z142" s="9">
+      <c r="Z142">
         <v>2.4</v>
       </c>
-      <c r="AA142" s="9">
-        <v>112401</v>
-      </c>
-      <c r="AB142" s="9"/>
+      <c r="AA142">
+        <v>112391</v>
+      </c>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>11241</v>
+        <v>11240</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>1886</v>
+        <v>1937</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E143" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F143" s="9">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G143" s="9">
         <v>0</v>
       </c>
       <c r="H143" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I143" s="9">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="J143" s="9">
         <v>0</v>
       </c>
       <c r="K143" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L143" s="9">
         <v>83</v>
@@ -29413,13 +29684,13 @@
         <v>58</v>
       </c>
       <c r="N143" s="9">
-        <v>33</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="O143" s="9">
         <v>2</v>
       </c>
       <c r="P143" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q143" s="9">
         <v>4</v>
@@ -29441,10 +29712,10 @@
         <v>2</v>
       </c>
       <c r="W143" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X143" s="9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y143" s="9">
         <v>1.28</v>
@@ -29453,152 +29724,152 @@
         <v>2.4</v>
       </c>
       <c r="AA143" s="9">
-        <v>112411</v>
-      </c>
-      <c r="AB143" s="9">
-        <v>112412</v>
-      </c>
+        <v>112401</v>
+      </c>
+      <c r="AB143" s="9"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>11248</v>
+        <v>11241</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>1896</v>
+        <v>206</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>1886</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E144" s="9">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F144" s="9">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G144" s="9">
         <v>0</v>
       </c>
       <c r="H144" s="9">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I144" s="9">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="J144" s="9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K144" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L144" s="9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M144" s="9">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N144" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O144" s="9">
         <v>2</v>
       </c>
       <c r="P144" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q144" s="9">
         <v>4</v>
       </c>
       <c r="R144" s="13">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S144" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T144" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U144" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V144" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W144" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X144" s="9">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y144" s="9">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Z144" s="9">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="AA144" s="9">
-        <v>112481</v>
-      </c>
-      <c r="AB144" s="9"/>
+        <v>112411</v>
+      </c>
+      <c r="AB144" s="9">
+        <v>112412</v>
+      </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>11265</v>
+        <v>11248</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>1991</v>
+        <v>1946</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>1896</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F145" s="9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G145" s="9">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="H145" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I145" s="9">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="J145" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K145" s="9">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L145" s="9">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="M145" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N145" s="9">
         <v>34</v>
       </c>
       <c r="O145" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P145" s="9">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q145" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R145" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S145" s="9">
         <v>0</v>
@@ -29607,70 +29878,70 @@
         <v>0</v>
       </c>
       <c r="U145" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V145" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W145" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="X145" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="Y145" s="9">
-        <v>0.48</v>
+        <v>1.3</v>
       </c>
       <c r="Z145" s="9">
-        <v>0.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AA145" s="9">
-        <v>112651</v>
+        <v>112481</v>
       </c>
       <c r="AB145" s="9"/>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>11269</v>
+        <v>11265</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E146" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F146" s="9">
         <v>38</v>
       </c>
       <c r="G146" s="9">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H146" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I146" s="9">
         <v>48</v>
       </c>
       <c r="J146" s="9">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K146" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L146" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M146" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N146" s="9">
-        <v>38.5</v>
+        <v>34</v>
       </c>
       <c r="O146" s="9">
         <v>1</v>
@@ -29698,7 +29969,7 @@
         <v>0</v>
       </c>
       <c r="W146" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X146" s="9">
         <v>20</v>
@@ -29707,25 +29978,22 @@
         <v>0.48</v>
       </c>
       <c r="Z146" s="9">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="AA146" s="9">
-        <v>112691</v>
+        <v>112651</v>
       </c>
       <c r="AB146" s="9"/>
-      <c r="AC146" s="9" t="s">
-        <v>2087</v>
-      </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>11270</v>
+        <v>11269</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>68</v>
@@ -29755,7 +30023,7 @@
         <v>92</v>
       </c>
       <c r="M147" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N147" s="9">
         <v>38.5</v>
@@ -29798,7 +30066,7 @@
         <v>0.99</v>
       </c>
       <c r="AA147" s="9">
-        <v>112701</v>
+        <v>112691</v>
       </c>
       <c r="AB147" s="9"/>
       <c r="AC147" s="9" t="s">
@@ -29807,52 +30075,52 @@
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>11278</v>
+        <v>11270</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E148" s="9">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F148" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G148" s="9">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H148" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I148" s="9">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J148" s="9">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K148" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L148" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M148" s="9">
         <v>37</v>
       </c>
       <c r="N148" s="9">
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="O148" s="9">
         <v>1</v>
       </c>
       <c r="P148" s="9">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q148" s="9">
         <v>3</v>
@@ -29874,51 +30142,52 @@
         <v>0</v>
       </c>
       <c r="W148" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X148" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y148" s="9">
         <v>0.48</v>
       </c>
       <c r="Z148" s="9">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AA148" s="9">
-        <v>112781</v>
-      </c>
-      <c r="AB148" s="9">
-        <v>112782</v>
+        <v>112701</v>
+      </c>
+      <c r="AB148" s="9"/>
+      <c r="AC148" s="9" t="s">
+        <v>2087</v>
       </c>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>11279</v>
+        <v>11278</v>
       </c>
       <c r="B149" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E149" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F149" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G149" s="9">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H149" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I149" s="9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J149" s="9">
         <v>84</v>
@@ -29927,13 +30196,13 @@
         <v>94</v>
       </c>
       <c r="L149" s="9">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M149" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N149" s="9">
-        <v>28.7</v>
+        <v>37</v>
       </c>
       <c r="O149" s="9">
         <v>1</v>
@@ -29967,13 +30236,13 @@
         <v>25</v>
       </c>
       <c r="Y149" s="9">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="Z149" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AA149" s="9">
-        <v>112791</v>
+        <v>112781</v>
       </c>
       <c r="AB149" s="9">
         <v>112782</v>
@@ -29981,31 +30250,31 @@
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>11280</v>
+        <v>11279</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E150" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F150" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G150" s="9">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H150" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I150" s="9">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J150" s="9">
         <v>84</v>
@@ -30014,13 +30283,13 @@
         <v>94</v>
       </c>
       <c r="L150" s="9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M150" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N150" s="9">
-        <v>37</v>
+        <v>28.7</v>
       </c>
       <c r="O150" s="9">
         <v>1</v>
@@ -30054,154 +30323,153 @@
         <v>25</v>
       </c>
       <c r="Y150" s="9">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="Z150" s="9">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AA150" s="9">
-        <v>112801</v>
+        <v>112791</v>
       </c>
       <c r="AB150" s="9">
         <v>112782</v>
       </c>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A151" s="21">
-        <v>11289</v>
-      </c>
-      <c r="B151" t="s">
-        <v>209</v>
-      </c>
-      <c r="C151" s="22" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E151" s="24">
-        <v>15</v>
-      </c>
-      <c r="F151" s="24">
-        <v>25</v>
-      </c>
-      <c r="G151" s="24">
-        <v>78</v>
-      </c>
-      <c r="H151" s="24">
-        <v>30</v>
-      </c>
-      <c r="I151" s="24">
-        <v>0</v>
-      </c>
-      <c r="J151" s="25">
-        <v>0</v>
-      </c>
-      <c r="K151" s="25">
-        <v>102</v>
-      </c>
-      <c r="L151" s="25">
+      <c r="A151" s="3">
+        <v>11280</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E151" s="9">
+        <v>32</v>
+      </c>
+      <c r="F151" s="9">
         <v>45</v>
       </c>
-      <c r="M151" s="25">
-        <v>49</v>
-      </c>
-      <c r="N151" s="24">
+      <c r="G151" s="9">
+        <v>90</v>
+      </c>
+      <c r="H151" s="9">
+        <v>41</v>
+      </c>
+      <c r="I151" s="9">
+        <v>72</v>
+      </c>
+      <c r="J151" s="9">
+        <v>84</v>
+      </c>
+      <c r="K151" s="9">
+        <v>94</v>
+      </c>
+      <c r="L151" s="9">
+        <v>91</v>
+      </c>
+      <c r="M151" s="9">
+        <v>37</v>
+      </c>
+      <c r="N151" s="9">
+        <v>37</v>
+      </c>
+      <c r="O151" s="9">
+        <v>1</v>
+      </c>
+      <c r="P151" s="9">
         <v>18</v>
       </c>
-      <c r="O151" s="25">
-        <v>1</v>
-      </c>
-      <c r="P151" s="24">
-        <v>18</v>
-      </c>
-      <c r="Q151" s="25">
+      <c r="Q151" s="9">
         <v>3</v>
       </c>
       <c r="R151" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S151" s="25">
-        <v>0</v>
-      </c>
-      <c r="T151" s="25">
-        <v>0</v>
-      </c>
-      <c r="U151" s="25">
-        <v>0</v>
-      </c>
-      <c r="V151" s="25">
-        <v>0</v>
-      </c>
-      <c r="W151" s="25">
+      <c r="S151" s="9">
+        <v>0</v>
+      </c>
+      <c r="T151" s="9">
+        <v>0</v>
+      </c>
+      <c r="U151" s="9">
+        <v>0</v>
+      </c>
+      <c r="V151" s="9">
+        <v>0</v>
+      </c>
+      <c r="W151" s="9">
         <v>15</v>
       </c>
-      <c r="X151" s="25">
-        <v>20</v>
-      </c>
-      <c r="Y151" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="Z151" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="AA151">
-        <v>112891</v>
-      </c>
-      <c r="AB151"/>
-      <c r="AC151" s="9" t="s">
-        <v>2062</v>
+      <c r="X151" s="9">
+        <v>25</v>
+      </c>
+      <c r="Y151" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="Z151" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="AA151" s="9">
+        <v>112801</v>
+      </c>
+      <c r="AB151" s="9">
+        <v>112782</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
-        <v>11290</v>
+      <c r="A152" s="21">
+        <v>11289</v>
       </c>
       <c r="B152" t="s">
         <v>209</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D152" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E152" s="25">
+      <c r="E152" s="24">
         <v>15</v>
       </c>
-      <c r="F152" s="25">
-        <v>23</v>
-      </c>
-      <c r="G152" s="25">
-        <v>80</v>
-      </c>
-      <c r="H152" s="25">
+      <c r="F152" s="24">
+        <v>25</v>
+      </c>
+      <c r="G152" s="24">
+        <v>78</v>
+      </c>
+      <c r="H152" s="24">
         <v>30</v>
       </c>
-      <c r="I152" s="25">
+      <c r="I152" s="24">
         <v>0</v>
       </c>
       <c r="J152" s="25">
         <v>0</v>
       </c>
-      <c r="K152" s="26">
+      <c r="K152" s="25">
         <v>102</v>
       </c>
       <c r="L152" s="25">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M152" s="25">
-        <v>48</v>
-      </c>
-      <c r="N152" s="25">
+        <v>49</v>
+      </c>
+      <c r="N152" s="24">
         <v>18</v>
       </c>
       <c r="O152" s="25">
         <v>1</v>
       </c>
-      <c r="P152" s="25">
-        <v>19</v>
+      <c r="P152" s="24">
+        <v>18</v>
       </c>
       <c r="Q152" s="25">
         <v>3</v>
@@ -30226,7 +30494,7 @@
         <v>15</v>
       </c>
       <c r="X152" s="25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y152" s="25">
         <v>0.6</v>
@@ -30235,7 +30503,7 @@
         <v>0.5</v>
       </c>
       <c r="AA152">
-        <v>112901</v>
+        <v>112891</v>
       </c>
       <c r="AB152"/>
       <c r="AC152" s="9" t="s">
@@ -30244,13 +30512,13 @@
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>11293</v>
+        <v>11290</v>
       </c>
       <c r="B153" t="s">
         <v>209</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D153" s="23" t="s">
         <v>68</v>
@@ -30259,10 +30527,10 @@
         <v>15</v>
       </c>
       <c r="F153" s="25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G153" s="25">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H153" s="25">
         <v>30</v>
@@ -30274,13 +30542,13 @@
         <v>0</v>
       </c>
       <c r="K153" s="26">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L153" s="25">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M153" s="25">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N153" s="25">
         <v>18</v>
@@ -30289,7 +30557,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="25">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q153" s="25">
         <v>3</v>
@@ -30323,7 +30591,7 @@
         <v>0.5</v>
       </c>
       <c r="AA153">
-        <v>112931</v>
+        <v>112901</v>
       </c>
       <c r="AB153"/>
       <c r="AC153" s="9" t="s">
@@ -30332,206 +30600,209 @@
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>11299</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>2045</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>2046</v>
-      </c>
-      <c r="E154" s="13">
-        <v>88</v>
-      </c>
-      <c r="F154" s="13">
-        <v>108</v>
-      </c>
-      <c r="G154" s="13">
-        <v>0</v>
-      </c>
-      <c r="H154" s="13">
-        <v>110</v>
-      </c>
-      <c r="I154" s="13">
-        <v>115</v>
-      </c>
-      <c r="J154" s="13">
-        <v>0</v>
-      </c>
-      <c r="K154" s="16">
-        <v>97</v>
-      </c>
-      <c r="L154" s="13">
-        <v>56</v>
-      </c>
-      <c r="M154" s="13">
-        <v>47</v>
-      </c>
-      <c r="N154" s="13">
-        <v>32</v>
-      </c>
-      <c r="O154" s="13">
+        <v>11293</v>
+      </c>
+      <c r="B154" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E154" s="25">
+        <v>15</v>
+      </c>
+      <c r="F154" s="25">
+        <v>25</v>
+      </c>
+      <c r="G154" s="25">
+        <v>77</v>
+      </c>
+      <c r="H154" s="25">
+        <v>30</v>
+      </c>
+      <c r="I154" s="25">
+        <v>0</v>
+      </c>
+      <c r="J154" s="25">
+        <v>0</v>
+      </c>
+      <c r="K154" s="26">
+        <v>101</v>
+      </c>
+      <c r="L154" s="25">
+        <v>45</v>
+      </c>
+      <c r="M154" s="25">
+        <v>49</v>
+      </c>
+      <c r="N154" s="25">
+        <v>18</v>
+      </c>
+      <c r="O154" s="25">
+        <v>1</v>
+      </c>
+      <c r="P154" s="25">
+        <v>8</v>
+      </c>
+      <c r="Q154" s="25">
         <v>3</v>
-      </c>
-      <c r="P154" s="13">
-        <v>20</v>
-      </c>
-      <c r="Q154" s="13">
-        <v>4</v>
       </c>
       <c r="R154" s="13">
         <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="S154" s="13">
-        <v>8</v>
-      </c>
-      <c r="T154" s="13">
-        <v>8</v>
-      </c>
-      <c r="U154" s="13">
-        <v>8</v>
-      </c>
-      <c r="V154" s="13">
-        <v>8</v>
-      </c>
-      <c r="W154" s="13">
-        <v>110</v>
-      </c>
-      <c r="X154" s="13">
-        <v>190</v>
-      </c>
-      <c r="Y154" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="Z154" s="13">
-        <v>8.5</v>
-      </c>
-      <c r="AA154" s="13">
-        <v>102991</v>
-      </c>
-      <c r="AB154" s="25">
-        <v>112992</v>
+        <v>0</v>
+      </c>
+      <c r="S154" s="25">
+        <v>0</v>
+      </c>
+      <c r="T154" s="25">
+        <v>0</v>
+      </c>
+      <c r="U154" s="25">
+        <v>0</v>
+      </c>
+      <c r="V154" s="25">
+        <v>0</v>
+      </c>
+      <c r="W154" s="25">
+        <v>15</v>
+      </c>
+      <c r="X154" s="25">
+        <v>25</v>
+      </c>
+      <c r="Y154" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="Z154" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AA154">
+        <v>112931</v>
+      </c>
+      <c r="AB154"/>
+      <c r="AC154" s="9" t="s">
+        <v>2062</v>
       </c>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>11301</v>
+        <v>11299</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>204</v>
+        <v>2044</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E155" s="9">
+        <v>2045</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E155" s="13">
+        <v>88</v>
+      </c>
+      <c r="F155" s="13">
+        <v>108</v>
+      </c>
+      <c r="G155" s="13">
+        <v>0</v>
+      </c>
+      <c r="H155" s="13">
+        <v>110</v>
+      </c>
+      <c r="I155" s="13">
+        <v>115</v>
+      </c>
+      <c r="J155" s="13">
+        <v>0</v>
+      </c>
+      <c r="K155" s="16">
+        <v>97</v>
+      </c>
+      <c r="L155" s="13">
+        <v>56</v>
+      </c>
+      <c r="M155" s="13">
+        <v>47</v>
+      </c>
+      <c r="N155" s="13">
         <v>32</v>
       </c>
-      <c r="F155" s="9">
-        <v>40</v>
-      </c>
-      <c r="G155" s="9">
-        <v>87</v>
-      </c>
-      <c r="H155" s="9">
-        <v>39</v>
-      </c>
-      <c r="I155" s="9">
-        <v>62</v>
-      </c>
-      <c r="J155" s="9">
-        <v>79</v>
-      </c>
-      <c r="K155" s="9">
-        <v>94</v>
-      </c>
-      <c r="L155" s="9">
-        <v>90</v>
-      </c>
-      <c r="M155" s="9">
-        <v>32</v>
-      </c>
-      <c r="N155" s="9">
-        <v>37</v>
-      </c>
-      <c r="O155" s="9">
-        <v>1</v>
-      </c>
-      <c r="P155" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q155" s="9">
+      <c r="O155" s="13">
         <v>3</v>
+      </c>
+      <c r="P155" s="13">
+        <v>20</v>
+      </c>
+      <c r="Q155" s="13">
+        <v>4</v>
       </c>
       <c r="R155" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S155" s="9">
-        <v>0</v>
-      </c>
-      <c r="T155" s="9">
-        <v>0</v>
-      </c>
-      <c r="U155" s="9">
-        <v>0</v>
-      </c>
-      <c r="V155" s="9">
-        <v>0</v>
-      </c>
-      <c r="W155" s="9">
-        <v>15</v>
-      </c>
-      <c r="X155" s="9">
-        <v>25</v>
-      </c>
-      <c r="Y155" s="9">
-        <v>0.48</v>
-      </c>
-      <c r="Z155" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="AA155" s="9">
-        <v>113011</v>
-      </c>
-      <c r="AB155" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="S155" s="13">
+        <v>8</v>
+      </c>
+      <c r="T155" s="13">
+        <v>8</v>
+      </c>
+      <c r="U155" s="13">
+        <v>8</v>
+      </c>
+      <c r="V155" s="13">
+        <v>8</v>
+      </c>
+      <c r="W155" s="13">
+        <v>110</v>
+      </c>
+      <c r="X155" s="13">
+        <v>190</v>
+      </c>
+      <c r="Y155" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="Z155" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AA155" s="13">
+        <v>102991</v>
+      </c>
+      <c r="AB155" s="25">
+        <v>112992</v>
+      </c>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>11306</v>
+        <v>11301</v>
       </c>
       <c r="B156" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E156" s="9">
         <v>32</v>
       </c>
       <c r="F156" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G156" s="9">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H156" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I156" s="9">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J156" s="9">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K156" s="9">
         <v>94</v>
@@ -30540,16 +30811,16 @@
         <v>90</v>
       </c>
       <c r="M156" s="9">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N156" s="9">
-        <v>35.799999999999997</v>
+        <v>37</v>
       </c>
       <c r="O156" s="9">
         <v>1</v>
       </c>
       <c r="P156" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q156" s="9">
         <v>3</v>
@@ -30577,64 +30848,64 @@
         <v>25</v>
       </c>
       <c r="Y156" s="9">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="Z156" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AA156" s="9">
-        <v>113061</v>
+        <v>113011</v>
       </c>
       <c r="AB156" s="9"/>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>11316</v>
+        <v>11306</v>
       </c>
       <c r="B157" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E157" s="9">
         <v>32</v>
       </c>
       <c r="F157" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G157" s="9">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H157" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I157" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J157" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K157" s="9">
         <v>94</v>
       </c>
       <c r="L157" s="9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M157" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N157" s="9">
-        <v>41.7</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="O157" s="9">
         <v>1</v>
       </c>
       <c r="P157" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q157" s="9">
         <v>3</v>
@@ -30659,67 +30930,67 @@
         <v>15</v>
       </c>
       <c r="X157" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y157" s="9">
         <v>0.5</v>
       </c>
       <c r="Z157" s="9">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AA157" s="9">
-        <v>113161</v>
+        <v>113061</v>
       </c>
       <c r="AB157" s="9"/>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>11323</v>
+        <v>11316</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E158" s="9">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F158" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G158" s="9">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H158" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I158" s="9">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J158" s="9">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K158" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L158" s="9">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M158" s="9">
         <v>26</v>
       </c>
       <c r="N158" s="9">
-        <v>42.5</v>
+        <v>41.7</v>
       </c>
       <c r="O158" s="9">
         <v>1</v>
       </c>
       <c r="P158" s="9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Q158" s="9">
         <v>3</v>
@@ -30741,10 +31012,10 @@
         <v>0</v>
       </c>
       <c r="W158" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X158" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y158" s="9">
         <v>0.5</v>
@@ -30753,58 +31024,58 @@
         <v>0.9</v>
       </c>
       <c r="AA158" s="9">
-        <v>113231</v>
+        <v>113161</v>
       </c>
       <c r="AB158" s="9"/>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>11335</v>
+        <v>11323</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E159" s="9">
         <v>39</v>
       </c>
       <c r="F159" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G159" s="9">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H159" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I159" s="9">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="J159" s="9">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K159" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L159" s="9">
         <v>102</v>
       </c>
       <c r="M159" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N159" s="9">
-        <v>41.6</v>
+        <v>42.5</v>
       </c>
       <c r="O159" s="9">
         <v>1</v>
       </c>
       <c r="P159" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q159" s="9">
         <v>3</v>
@@ -30832,242 +31103,242 @@
         <v>25</v>
       </c>
       <c r="Y159" s="9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Z159" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AA159" s="9">
-        <v>113351</v>
+        <v>113231</v>
       </c>
       <c r="AB159" s="9"/>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>11339</v>
+        <v>11335</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E160" s="13">
-        <v>80</v>
-      </c>
-      <c r="F160" s="13">
+        <v>204</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E160" s="9">
+        <v>39</v>
+      </c>
+      <c r="F160" s="9">
+        <v>50</v>
+      </c>
+      <c r="G160" s="9">
+        <v>93</v>
+      </c>
+      <c r="H160" s="9">
         <v>40</v>
       </c>
-      <c r="G160" s="13">
-        <v>0</v>
-      </c>
-      <c r="H160" s="13">
-        <v>84</v>
-      </c>
-      <c r="I160" s="13">
-        <v>73</v>
-      </c>
-      <c r="J160" s="13">
-        <v>0</v>
-      </c>
-      <c r="K160" s="13">
+      <c r="I160" s="9">
+        <v>55</v>
+      </c>
+      <c r="J160" s="9">
+        <v>74</v>
+      </c>
+      <c r="K160" s="9">
+        <v>94</v>
+      </c>
+      <c r="L160" s="9">
         <v>102</v>
       </c>
-      <c r="L160" s="13">
-        <v>58</v>
-      </c>
-      <c r="M160" s="13">
-        <v>72</v>
-      </c>
-      <c r="N160" s="13">
-        <v>30</v>
-      </c>
-      <c r="O160" s="13">
-        <v>1</v>
-      </c>
-      <c r="P160" s="13">
-        <v>9</v>
-      </c>
-      <c r="Q160" s="13">
-        <v>4</v>
+      <c r="M160" s="9">
+        <v>42</v>
+      </c>
+      <c r="N160" s="9">
+        <v>41.6</v>
+      </c>
+      <c r="O160" s="9">
+        <v>1</v>
+      </c>
+      <c r="P160" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q160" s="9">
+        <v>3</v>
       </c>
       <c r="R160" s="13">
         <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="S160" s="13">
-        <v>16</v>
-      </c>
-      <c r="T160" s="13">
+        <v>0</v>
+      </c>
+      <c r="S160" s="9">
+        <v>0</v>
+      </c>
+      <c r="T160" s="9">
+        <v>0</v>
+      </c>
+      <c r="U160" s="9">
+        <v>0</v>
+      </c>
+      <c r="V160" s="9">
+        <v>0</v>
+      </c>
+      <c r="W160" s="9">
         <v>20</v>
       </c>
-      <c r="U160" s="13">
-        <v>30</v>
-      </c>
-      <c r="V160" s="13">
-        <v>16</v>
-      </c>
-      <c r="W160" s="9">
-        <v>70</v>
-      </c>
       <c r="X160" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="Y160" s="9">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="Z160" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AA160" s="13">
-        <v>113391</v>
-      </c>
-      <c r="AB160" s="13">
-        <v>113392</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AA160" s="9">
+        <v>113351</v>
+      </c>
+      <c r="AB160" s="9"/>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>11342</v>
+        <v>11339</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>2002</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E161" s="9">
-        <v>35</v>
-      </c>
-      <c r="F161" s="9">
-        <v>45</v>
-      </c>
-      <c r="G161" s="9">
-        <v>78</v>
-      </c>
-      <c r="H161" s="9">
+        <v>21</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E161" s="13">
+        <v>80</v>
+      </c>
+      <c r="F161" s="13">
         <v>40</v>
       </c>
-      <c r="I161" s="9">
-        <v>86</v>
-      </c>
-      <c r="J161" s="9">
-        <v>125</v>
-      </c>
-      <c r="K161" s="9">
-        <v>94</v>
-      </c>
-      <c r="L161" s="9">
-        <v>86</v>
-      </c>
-      <c r="M161" s="9">
-        <v>43</v>
-      </c>
-      <c r="N161" s="9">
-        <v>35</v>
-      </c>
-      <c r="O161" s="9">
-        <v>1</v>
-      </c>
-      <c r="P161" s="9">
-        <v>22</v>
-      </c>
-      <c r="Q161" s="9">
-        <v>3</v>
+      <c r="G161" s="13">
+        <v>0</v>
+      </c>
+      <c r="H161" s="13">
+        <v>84</v>
+      </c>
+      <c r="I161" s="13">
+        <v>73</v>
+      </c>
+      <c r="J161" s="13">
+        <v>0</v>
+      </c>
+      <c r="K161" s="13">
+        <v>102</v>
+      </c>
+      <c r="L161" s="13">
+        <v>58</v>
+      </c>
+      <c r="M161" s="13">
+        <v>72</v>
+      </c>
+      <c r="N161" s="13">
+        <v>30</v>
+      </c>
+      <c r="O161" s="13">
+        <v>1</v>
+      </c>
+      <c r="P161" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q161" s="13">
+        <v>4</v>
       </c>
       <c r="R161" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S161" s="9">
-        <v>0</v>
-      </c>
-      <c r="T161" s="9">
-        <v>0</v>
-      </c>
-      <c r="U161" s="9">
-        <v>0</v>
-      </c>
-      <c r="V161" s="9">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="S161" s="13">
+        <v>16</v>
+      </c>
+      <c r="T161" s="13">
+        <v>20</v>
+      </c>
+      <c r="U161" s="13">
+        <v>30</v>
+      </c>
+      <c r="V161" s="13">
+        <v>16</v>
       </c>
       <c r="W161" s="9">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="X161" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="Y161" s="9">
-        <v>0.48</v>
+        <v>2.6</v>
       </c>
       <c r="Z161" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="AA161" s="9">
-        <v>113421</v>
-      </c>
-      <c r="AB161" s="9"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA161" s="13">
+        <v>113391</v>
+      </c>
+      <c r="AB161" s="13">
+        <v>113392</v>
+      </c>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>11344</v>
+        <v>11342</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E162" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F162" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G162" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H162" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I162" s="9">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J162" s="9">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K162" s="9">
         <v>94</v>
       </c>
       <c r="L162" s="9">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M162" s="9">
         <v>43</v>
       </c>
       <c r="N162" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O162" s="9">
         <v>1</v>
       </c>
       <c r="P162" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q162" s="9">
         <v>3</v>
       </c>
       <c r="R162" s="13">
-        <f t="shared" ref="R162:R172" si="5">SUM($S162:$V162)</f>
+        <f t="shared" ref="R162:R174" si="5">SUM($S162:$V162)</f>
         <v>0</v>
       </c>
       <c r="S162" s="9">
@@ -31095,659 +31366,659 @@
         <v>0.9</v>
       </c>
       <c r="AA162" s="9">
-        <v>113441</v>
+        <v>113421</v>
       </c>
       <c r="AB162" s="9"/>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A163" s="21">
-        <v>11351</v>
-      </c>
-      <c r="B163" t="s">
-        <v>209</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D163" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E163" s="24">
-        <v>12</v>
-      </c>
-      <c r="F163" s="24">
-        <v>22</v>
-      </c>
-      <c r="G163" s="24">
+      <c r="A163" s="3">
+        <v>11344</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H163" s="24">
-        <v>25</v>
-      </c>
-      <c r="I163" s="24">
-        <v>0</v>
-      </c>
-      <c r="J163" s="25">
-        <v>0</v>
-      </c>
-      <c r="K163" s="25">
-        <v>102</v>
-      </c>
-      <c r="L163" s="25">
-        <v>68</v>
-      </c>
-      <c r="M163" s="25">
-        <v>28</v>
-      </c>
-      <c r="N163" s="24">
-        <v>25</v>
-      </c>
-      <c r="O163" s="25">
-        <v>1</v>
-      </c>
-      <c r="P163" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q163" s="25">
+      <c r="E163" s="9">
+        <v>32</v>
+      </c>
+      <c r="F163" s="9">
+        <v>43</v>
+      </c>
+      <c r="G163" s="9">
+        <v>79</v>
+      </c>
+      <c r="H163" s="9">
+        <v>39</v>
+      </c>
+      <c r="I163" s="9">
+        <v>83</v>
+      </c>
+      <c r="J163" s="9">
+        <v>115</v>
+      </c>
+      <c r="K163" s="9">
+        <v>94</v>
+      </c>
+      <c r="L163" s="9">
+        <v>91</v>
+      </c>
+      <c r="M163" s="9">
+        <v>43</v>
+      </c>
+      <c r="N163" s="9">
+        <v>37</v>
+      </c>
+      <c r="O163" s="9">
+        <v>1</v>
+      </c>
+      <c r="P163" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q163" s="9">
         <v>3</v>
       </c>
       <c r="R163" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S163" s="25">
-        <v>0</v>
-      </c>
-      <c r="T163" s="25">
-        <v>0</v>
-      </c>
-      <c r="U163" s="25">
-        <v>0</v>
-      </c>
-      <c r="V163" s="25">
-        <v>0</v>
-      </c>
-      <c r="W163" s="25">
+      <c r="S163" s="9">
+        <v>0</v>
+      </c>
+      <c r="T163" s="9">
+        <v>0</v>
+      </c>
+      <c r="U163" s="9">
+        <v>0</v>
+      </c>
+      <c r="V163" s="9">
+        <v>0</v>
+      </c>
+      <c r="W163" s="9">
+        <v>15</v>
+      </c>
+      <c r="X163" s="9">
+        <v>25</v>
+      </c>
+      <c r="Y163" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="Z163" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="AA163" s="9">
+        <v>113441</v>
+      </c>
+      <c r="AB163" s="9"/>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A164" s="21">
+        <v>11351</v>
+      </c>
+      <c r="B164" t="s">
+        <v>209</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E164" s="24">
+        <v>12</v>
+      </c>
+      <c r="F164" s="24">
+        <v>22</v>
+      </c>
+      <c r="G164" s="24">
+        <v>67</v>
+      </c>
+      <c r="H164" s="24">
+        <v>25</v>
+      </c>
+      <c r="I164" s="24">
+        <v>0</v>
+      </c>
+      <c r="J164" s="25">
+        <v>0</v>
+      </c>
+      <c r="K164" s="25">
+        <v>102</v>
+      </c>
+      <c r="L164" s="25">
+        <v>68</v>
+      </c>
+      <c r="M164" s="25">
+        <v>28</v>
+      </c>
+      <c r="N164" s="24">
+        <v>25</v>
+      </c>
+      <c r="O164" s="25">
+        <v>1</v>
+      </c>
+      <c r="P164" s="24">
         <v>10</v>
       </c>
-      <c r="X163" s="25">
-        <v>15</v>
-      </c>
-      <c r="Y163" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="Z163" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="AA163" s="9">
-        <v>113511</v>
-      </c>
-      <c r="AB163"/>
-      <c r="AC163" s="9" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A164" s="3">
-        <v>11362</v>
-      </c>
-      <c r="B164" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E164" s="9">
-        <v>84</v>
-      </c>
-      <c r="F164" s="9">
-        <v>115</v>
-      </c>
-      <c r="G164" s="9">
-        <v>0</v>
-      </c>
-      <c r="H164" s="9">
-        <v>90</v>
-      </c>
-      <c r="I164" s="9">
-        <v>95</v>
-      </c>
-      <c r="J164" s="9">
-        <v>0</v>
-      </c>
-      <c r="K164" s="9">
-        <v>101</v>
-      </c>
-      <c r="L164" s="9">
-        <v>69</v>
-      </c>
-      <c r="M164" s="9">
-        <v>45</v>
-      </c>
-      <c r="N164" s="9">
-        <v>33</v>
-      </c>
-      <c r="O164" s="9">
+      <c r="Q164" s="25">
         <v>3</v>
-      </c>
-      <c r="P164" s="9">
-        <v>8</v>
-      </c>
-      <c r="Q164" s="9">
-        <v>4</v>
       </c>
       <c r="R164" s="13">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="S164" s="9">
-        <v>3</v>
-      </c>
-      <c r="T164" s="9">
-        <v>3</v>
-      </c>
-      <c r="U164" s="9">
-        <v>3</v>
-      </c>
-      <c r="V164" s="9">
-        <v>3</v>
-      </c>
-      <c r="W164" s="9">
-        <v>90</v>
-      </c>
-      <c r="X164" s="9">
-        <v>130</v>
-      </c>
-      <c r="Y164" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="Z164" s="9">
-        <v>5.6</v>
+        <v>0</v>
+      </c>
+      <c r="S164" s="25">
+        <v>0</v>
+      </c>
+      <c r="T164" s="25">
+        <v>0</v>
+      </c>
+      <c r="U164" s="25">
+        <v>0</v>
+      </c>
+      <c r="V164" s="25">
+        <v>0</v>
+      </c>
+      <c r="W164" s="25">
+        <v>10</v>
+      </c>
+      <c r="X164" s="25">
+        <v>15</v>
+      </c>
+      <c r="Y164" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Z164" s="25">
+        <v>0.5</v>
       </c>
       <c r="AA164" s="9">
-        <v>113621</v>
-      </c>
-      <c r="AB164" s="9">
-        <v>113622</v>
+        <v>113511</v>
+      </c>
+      <c r="AB164"/>
+      <c r="AC164" s="9" t="s">
+        <v>2062</v>
       </c>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>11372</v>
+        <v>11362</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>2004</v>
+        <v>210</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>2022</v>
       </c>
       <c r="D165" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E165" s="9">
+        <v>84</v>
+      </c>
+      <c r="F165" s="9">
+        <v>115</v>
+      </c>
+      <c r="G165" s="9">
+        <v>0</v>
+      </c>
+      <c r="H165" s="9">
+        <v>90</v>
+      </c>
+      <c r="I165" s="9">
+        <v>95</v>
+      </c>
+      <c r="J165" s="9">
+        <v>0</v>
+      </c>
+      <c r="K165" s="9">
+        <v>101</v>
+      </c>
+      <c r="L165" s="9">
+        <v>69</v>
+      </c>
+      <c r="M165" s="9">
+        <v>45</v>
+      </c>
+      <c r="N165" s="9">
+        <v>33</v>
+      </c>
+      <c r="O165" s="9">
         <v>3</v>
       </c>
-      <c r="E165" s="9">
-        <v>36</v>
-      </c>
-      <c r="F165" s="9">
-        <v>40</v>
-      </c>
-      <c r="G165" s="9">
-        <v>93</v>
-      </c>
-      <c r="H165" s="9">
-        <v>38</v>
-      </c>
-      <c r="I165" s="9">
-        <v>75</v>
-      </c>
-      <c r="J165" s="9">
-        <v>84</v>
-      </c>
-      <c r="K165" s="9">
-        <v>94</v>
-      </c>
-      <c r="L165" s="9">
-        <v>90</v>
-      </c>
-      <c r="M165" s="9">
-        <v>21</v>
-      </c>
-      <c r="N165" s="9">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="O165" s="9">
-        <v>1</v>
-      </c>
       <c r="P165" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q165" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R165" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S165" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T165" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U165" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V165" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W165" s="9">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="X165" s="9">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="Y165" s="9">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z165" s="9">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="AA165" s="9">
-        <v>113721</v>
-      </c>
-      <c r="AB165" s="9"/>
+        <v>113621</v>
+      </c>
+      <c r="AB165" s="9">
+        <v>113622</v>
+      </c>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>11380</v>
+        <v>11372</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>1876</v>
+        <v>204</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>2004</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E166" s="15">
-        <v>92</v>
-      </c>
-      <c r="F166" s="15">
-        <v>128</v>
-      </c>
-      <c r="G166" s="15">
-        <v>0</v>
-      </c>
-      <c r="H166" s="15">
-        <v>115</v>
-      </c>
-      <c r="I166" s="15">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="E166" s="9">
+        <v>36</v>
+      </c>
+      <c r="F166" s="9">
+        <v>40</v>
+      </c>
+      <c r="G166" s="9">
+        <v>93</v>
+      </c>
+      <c r="H166" s="9">
+        <v>38</v>
+      </c>
+      <c r="I166" s="9">
+        <v>75</v>
       </c>
       <c r="J166" s="9">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K166" s="9">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L166" s="9">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="M166" s="9">
-        <v>45</v>
-      </c>
-      <c r="N166" s="15">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="N166" s="9">
+        <v>36.700000000000003</v>
       </c>
       <c r="O166" s="9">
+        <v>1</v>
+      </c>
+      <c r="P166" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q166" s="9">
         <v>3</v>
-      </c>
-      <c r="P166" s="15">
-        <v>9</v>
-      </c>
-      <c r="Q166" s="9">
-        <v>4</v>
       </c>
       <c r="R166" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S166" s="15">
-        <v>0</v>
-      </c>
-      <c r="T166" s="15">
-        <v>0</v>
-      </c>
-      <c r="U166" s="15">
-        <v>0</v>
-      </c>
-      <c r="V166" s="15">
+      <c r="S166" s="9">
+        <v>0</v>
+      </c>
+      <c r="T166" s="9">
+        <v>0</v>
+      </c>
+      <c r="U166" s="9">
+        <v>0</v>
+      </c>
+      <c r="V166" s="9">
         <v>0</v>
       </c>
       <c r="W166" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="X166" s="9">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="Y166" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="Z166" s="9">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="AA166" s="9">
-        <v>113801</v>
-      </c>
-      <c r="AB166" s="9">
-        <v>113802</v>
-      </c>
+        <v>113721</v>
+      </c>
+      <c r="AB166" s="9"/>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>11408</v>
-      </c>
-      <c r="B167" t="s">
-        <v>209</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="D167" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E167" s="25">
-        <v>17</v>
-      </c>
-      <c r="F167" s="25">
-        <v>26</v>
-      </c>
-      <c r="G167" s="25">
-        <v>89</v>
-      </c>
-      <c r="H167" s="25">
-        <v>32</v>
-      </c>
-      <c r="I167" s="25">
-        <v>0</v>
-      </c>
-      <c r="J167" s="25">
-        <v>0</v>
-      </c>
-      <c r="K167" s="26">
-        <v>100</v>
-      </c>
-      <c r="L167" s="25">
-        <v>47</v>
-      </c>
-      <c r="M167" s="25">
-        <v>47</v>
-      </c>
-      <c r="N167" s="25">
-        <v>21</v>
-      </c>
-      <c r="O167" s="25">
-        <v>1</v>
-      </c>
-      <c r="P167" s="25">
-        <v>20</v>
-      </c>
-      <c r="Q167" s="25">
+        <v>11380</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="15">
+        <v>92</v>
+      </c>
+      <c r="F167" s="15">
+        <v>128</v>
+      </c>
+      <c r="G167" s="15">
+        <v>0</v>
+      </c>
+      <c r="H167" s="15">
+        <v>115</v>
+      </c>
+      <c r="I167" s="15">
+        <v>80</v>
+      </c>
+      <c r="J167" s="9">
+        <v>0</v>
+      </c>
+      <c r="K167" s="9">
+        <v>102</v>
+      </c>
+      <c r="L167" s="9">
+        <v>48</v>
+      </c>
+      <c r="M167" s="9">
+        <v>45</v>
+      </c>
+      <c r="N167" s="15">
+        <v>23</v>
+      </c>
+      <c r="O167" s="9">
         <v>3</v>
+      </c>
+      <c r="P167" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q167" s="9">
+        <v>4</v>
       </c>
       <c r="R167" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S167" s="25">
-        <v>0</v>
-      </c>
-      <c r="T167" s="25">
-        <v>0</v>
-      </c>
-      <c r="U167" s="25">
-        <v>0</v>
-      </c>
-      <c r="V167" s="25">
-        <v>0</v>
-      </c>
-      <c r="W167" s="25">
-        <v>20</v>
-      </c>
-      <c r="X167" s="25">
-        <v>25</v>
-      </c>
-      <c r="Y167" s="25">
-        <v>0.64</v>
-      </c>
-      <c r="Z167" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="AA167">
-        <v>114081</v>
-      </c>
-      <c r="AB167"/>
+      <c r="S167" s="15">
+        <v>0</v>
+      </c>
+      <c r="T167" s="15">
+        <v>0</v>
+      </c>
+      <c r="U167" s="15">
+        <v>0</v>
+      </c>
+      <c r="V167" s="15">
+        <v>0</v>
+      </c>
+      <c r="W167" s="9">
+        <v>130</v>
+      </c>
+      <c r="X167" s="9">
+        <v>185</v>
+      </c>
+      <c r="Y167" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z167" s="9">
+        <v>9</v>
+      </c>
+      <c r="AA167" s="9">
+        <v>113801</v>
+      </c>
+      <c r="AB167" s="9">
+        <v>113802</v>
+      </c>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>11413</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>2038</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>2037</v>
-      </c>
-      <c r="D168" s="13" t="s">
-        <v>2047</v>
-      </c>
-      <c r="E168" s="13">
-        <v>52</v>
-      </c>
-      <c r="F168" s="13">
-        <v>56</v>
-      </c>
-      <c r="G168" s="13">
-        <v>0</v>
-      </c>
-      <c r="H168" s="13">
-        <v>66</v>
-      </c>
-      <c r="I168" s="13">
+        <v>11408</v>
+      </c>
+      <c r="B168" t="s">
+        <v>209</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E168" s="25">
+        <v>17</v>
+      </c>
+      <c r="F168" s="25">
+        <v>26</v>
+      </c>
+      <c r="G168" s="25">
+        <v>89</v>
+      </c>
+      <c r="H168" s="25">
+        <v>32</v>
+      </c>
+      <c r="I168" s="25">
+        <v>0</v>
+      </c>
+      <c r="J168" s="25">
+        <v>0</v>
+      </c>
+      <c r="K168" s="26">
         <v>100</v>
       </c>
-      <c r="J168" s="13">
-        <v>0</v>
-      </c>
-      <c r="K168" s="13">
-        <v>97</v>
-      </c>
-      <c r="L168" s="13">
-        <v>77</v>
-      </c>
-      <c r="M168" s="13">
+      <c r="L168" s="25">
         <v>47</v>
       </c>
-      <c r="N168" s="13">
-        <v>29</v>
-      </c>
-      <c r="O168" s="13">
-        <v>2</v>
-      </c>
-      <c r="P168" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q168" s="13">
-        <v>4</v>
+      <c r="M168" s="25">
+        <v>47</v>
+      </c>
+      <c r="N168" s="25">
+        <v>21</v>
+      </c>
+      <c r="O168" s="25">
+        <v>1</v>
+      </c>
+      <c r="P168" s="25">
+        <v>20</v>
+      </c>
+      <c r="Q168" s="25">
+        <v>3</v>
       </c>
       <c r="R168" s="13">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="S168" s="13">
-        <v>10</v>
-      </c>
-      <c r="T168" s="13">
-        <v>10</v>
-      </c>
-      <c r="U168" s="13">
-        <v>10</v>
-      </c>
-      <c r="V168" s="13">
-        <v>10</v>
-      </c>
-      <c r="W168" s="13">
-        <v>45</v>
-      </c>
-      <c r="X168" s="13">
-        <v>75</v>
-      </c>
-      <c r="Y168" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="Z168" s="13">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="AA168" s="25">
-        <v>114131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S168" s="25">
+        <v>0</v>
+      </c>
+      <c r="T168" s="25">
+        <v>0</v>
+      </c>
+      <c r="U168" s="25">
+        <v>0</v>
+      </c>
+      <c r="V168" s="25">
+        <v>0</v>
+      </c>
+      <c r="W168" s="25">
+        <v>20</v>
+      </c>
+      <c r="X168" s="25">
+        <v>25</v>
+      </c>
+      <c r="Y168" s="25">
+        <v>0.64</v>
+      </c>
+      <c r="Z168" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="AA168">
+        <v>114081</v>
+      </c>
+      <c r="AB168"/>
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>11431</v>
+        <v>11413</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>206</v>
+        <v>2256</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E169" s="9">
-        <v>60</v>
-      </c>
-      <c r="F169" s="9">
-        <v>65</v>
-      </c>
-      <c r="G169" s="9">
-        <v>60</v>
-      </c>
-      <c r="H169" s="9">
+        <v>2037</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E169" s="13">
+        <v>52</v>
+      </c>
+      <c r="F169" s="13">
+        <v>56</v>
+      </c>
+      <c r="G169" s="13">
+        <v>0</v>
+      </c>
+      <c r="H169" s="13">
+        <v>66</v>
+      </c>
+      <c r="I169" s="13">
+        <v>100</v>
+      </c>
+      <c r="J169" s="13">
+        <v>0</v>
+      </c>
+      <c r="K169" s="13">
+        <v>97</v>
+      </c>
+      <c r="L169" s="13">
+        <v>77</v>
+      </c>
+      <c r="M169" s="13">
         <v>47</v>
       </c>
-      <c r="I169" s="9">
-        <v>81</v>
-      </c>
-      <c r="J169" s="9">
-        <v>0</v>
-      </c>
-      <c r="K169" s="17">
-        <v>97</v>
-      </c>
-      <c r="L169" s="9">
-        <v>84</v>
-      </c>
-      <c r="M169" s="9">
-        <v>62</v>
-      </c>
-      <c r="N169" s="9">
-        <v>31.5</v>
-      </c>
-      <c r="O169" s="9">
+      <c r="N169" s="13">
+        <v>29</v>
+      </c>
+      <c r="O169" s="13">
         <v>2</v>
       </c>
-      <c r="P169" s="9">
-        <v>20</v>
-      </c>
-      <c r="Q169" s="9">
+      <c r="P169" s="13">
+        <v>25</v>
+      </c>
+      <c r="Q169" s="13">
         <v>4</v>
       </c>
       <c r="R169" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S169" s="9">
-        <v>0</v>
-      </c>
-      <c r="T169" s="9">
-        <v>0</v>
-      </c>
-      <c r="U169" s="9">
-        <v>0</v>
-      </c>
-      <c r="V169" s="9">
-        <v>0</v>
-      </c>
-      <c r="W169" s="9">
-        <v>35</v>
-      </c>
-      <c r="X169" s="9">
-        <v>70</v>
-      </c>
-      <c r="Y169" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="Z169" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="AA169" s="9">
-        <v>114311</v>
-      </c>
-      <c r="AB169" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="S169" s="13">
+        <v>10</v>
+      </c>
+      <c r="T169" s="13">
+        <v>10</v>
+      </c>
+      <c r="U169" s="13">
+        <v>10</v>
+      </c>
+      <c r="V169" s="13">
+        <v>10</v>
+      </c>
+      <c r="W169" s="13">
+        <v>45</v>
+      </c>
+      <c r="X169" s="13">
+        <v>75</v>
+      </c>
+      <c r="Y169" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="Z169" s="13">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AA169" s="25">
+        <v>114131</v>
+      </c>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>11456</v>
+        <v>11431</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="D170" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="9">
+        <v>60</v>
+      </c>
+      <c r="F170" s="9">
+        <v>65</v>
+      </c>
+      <c r="G170" s="9">
+        <v>60</v>
+      </c>
+      <c r="H170" s="9">
+        <v>47</v>
+      </c>
+      <c r="I170" s="9">
         <v>81</v>
       </c>
-      <c r="E170" s="9">
-        <v>64</v>
-      </c>
-      <c r="F170" s="9">
-        <v>76</v>
-      </c>
-      <c r="G170" s="9">
-        <v>0</v>
-      </c>
-      <c r="H170" s="9">
-        <v>67</v>
-      </c>
-      <c r="I170" s="9">
-        <v>100</v>
-      </c>
       <c r="J170" s="9">
-        <v>79</v>
-      </c>
-      <c r="K170" s="9">
+        <v>0</v>
+      </c>
+      <c r="K170" s="17">
         <v>97</v>
       </c>
       <c r="L170" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M170" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N170" s="9">
-        <v>32.6</v>
+        <v>31.5</v>
       </c>
       <c r="O170" s="9">
         <v>2</v>
       </c>
       <c r="P170" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q170" s="9">
         <v>4</v>
@@ -31769,197 +32040,368 @@
         <v>0</v>
       </c>
       <c r="W170" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X170" s="9">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Y170" s="9">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="Z170" s="9">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AA170" s="9">
-        <v>114561</v>
+        <v>114311</v>
       </c>
       <c r="AB170" s="9"/>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>11483</v>
+        <v>11456</v>
       </c>
       <c r="B171" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E171" s="9">
+        <v>64</v>
+      </c>
+      <c r="F171" s="9">
         <v>76</v>
       </c>
-      <c r="C171" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D171" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E171" s="13">
-        <v>80</v>
-      </c>
-      <c r="F171" s="13">
-        <v>45</v>
-      </c>
-      <c r="G171" s="13">
-        <v>0</v>
-      </c>
-      <c r="H171" s="13">
-        <v>96</v>
-      </c>
-      <c r="I171" s="13">
-        <v>101</v>
-      </c>
-      <c r="J171" s="13">
-        <v>0</v>
-      </c>
-      <c r="K171" s="16">
+      <c r="G171" s="9">
+        <v>0</v>
+      </c>
+      <c r="H171" s="9">
+        <v>67</v>
+      </c>
+      <c r="I171" s="9">
+        <v>100</v>
+      </c>
+      <c r="J171" s="9">
+        <v>79</v>
+      </c>
+      <c r="K171" s="9">
         <v>97</v>
       </c>
-      <c r="L171" s="13">
-        <v>66</v>
-      </c>
-      <c r="M171" s="13">
-        <v>78</v>
-      </c>
-      <c r="N171" s="13">
-        <v>30.5</v>
-      </c>
-      <c r="O171" s="13">
-        <v>1</v>
-      </c>
-      <c r="P171" s="13">
-        <v>25</v>
-      </c>
-      <c r="Q171" s="13">
+      <c r="L171" s="9">
+        <v>83</v>
+      </c>
+      <c r="M171" s="9">
+        <v>59</v>
+      </c>
+      <c r="N171" s="9">
+        <v>32.6</v>
+      </c>
+      <c r="O171" s="9">
+        <v>2</v>
+      </c>
+      <c r="P171" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q171" s="9">
         <v>4</v>
       </c>
       <c r="R171" s="13">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S171" s="9">
+        <v>0</v>
+      </c>
+      <c r="T171" s="9">
+        <v>0</v>
+      </c>
+      <c r="U171" s="9">
+        <v>0</v>
+      </c>
+      <c r="V171" s="9">
+        <v>0</v>
+      </c>
+      <c r="W171" s="9">
+        <v>45</v>
+      </c>
+      <c r="X171" s="9">
+        <v>80</v>
+      </c>
+      <c r="Y171" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="Z171" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="AA171" s="9">
+        <v>114561</v>
+      </c>
+      <c r="AB171" s="9"/>
+    </row>
+    <row r="172" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>11483</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="13">
+        <v>80</v>
+      </c>
+      <c r="F172" s="13">
+        <v>45</v>
+      </c>
+      <c r="G172" s="13">
+        <v>0</v>
+      </c>
+      <c r="H172" s="13">
+        <v>96</v>
+      </c>
+      <c r="I172" s="13">
+        <v>101</v>
+      </c>
+      <c r="J172" s="13">
+        <v>0</v>
+      </c>
+      <c r="K172" s="16">
+        <v>97</v>
+      </c>
+      <c r="L172" s="13">
+        <v>66</v>
+      </c>
+      <c r="M172" s="13">
+        <v>78</v>
+      </c>
+      <c r="N172" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="O172" s="13">
+        <v>1</v>
+      </c>
+      <c r="P172" s="13">
+        <v>25</v>
+      </c>
+      <c r="Q172" s="13">
+        <v>4</v>
+      </c>
+      <c r="R172" s="13">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="S171" s="13">
+      <c r="S172" s="13">
         <v>20</v>
       </c>
-      <c r="T171" s="13">
+      <c r="T172" s="13">
         <v>21</v>
       </c>
-      <c r="U171" s="13">
+      <c r="U172" s="13">
         <v>15</v>
       </c>
-      <c r="V171" s="13">
+      <c r="V172" s="13">
         <v>11</v>
       </c>
-      <c r="W171" s="9">
+      <c r="W172" s="9">
         <v>75</v>
       </c>
-      <c r="X171" s="9">
+      <c r="X172" s="9">
         <v>90</v>
       </c>
-      <c r="Y171" s="9">
+      <c r="Y172" s="9">
         <v>2.88</v>
       </c>
-      <c r="Z171" s="9">
+      <c r="Z172" s="9">
         <v>5.5</v>
       </c>
-      <c r="AA171" s="13">
+      <c r="AA172" s="13">
         <v>104831</v>
       </c>
-      <c r="AB171" s="9">
+      <c r="AB172" s="9">
         <v>114832</v>
       </c>
-      <c r="AC171" s="13"/>
-    </row>
-    <row r="172" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="40">
+      <c r="AC172" s="13"/>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A173" s="40">
         <v>11496</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>2239</v>
       </c>
-      <c r="C172" s="40" t="s">
+      <c r="C173" s="40" t="s">
         <v>2240</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D173" t="s">
         <v>2228</v>
       </c>
-      <c r="E172">
+      <c r="E173">
         <v>43</v>
       </c>
-      <c r="F172">
+      <c r="F173">
         <v>46</v>
       </c>
-      <c r="G172">
+      <c r="G173">
         <v>83</v>
       </c>
-      <c r="H172">
+      <c r="H173">
         <v>42</v>
       </c>
-      <c r="I172">
+      <c r="I173">
         <v>95</v>
       </c>
-      <c r="J172">
+      <c r="J173">
         <v>136</v>
       </c>
-      <c r="K172" s="1">
+      <c r="K173" s="1">
         <v>92</v>
       </c>
-      <c r="L172">
+      <c r="L173">
         <v>91</v>
       </c>
-      <c r="M172">
+      <c r="M173">
         <v>51</v>
       </c>
-      <c r="N172">
+      <c r="N173">
         <v>32</v>
       </c>
-      <c r="O172">
-        <v>1</v>
-      </c>
-      <c r="P172">
+      <c r="O173">
+        <v>1</v>
+      </c>
+      <c r="P173">
         <v>10</v>
       </c>
-      <c r="Q172">
+      <c r="Q173">
         <v>3</v>
       </c>
-      <c r="R172" s="25">
+      <c r="R173" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S172">
-        <v>0</v>
-      </c>
-      <c r="T172">
-        <v>0</v>
-      </c>
-      <c r="U172">
-        <v>0</v>
-      </c>
-      <c r="V172">
-        <v>0</v>
-      </c>
-      <c r="W172">
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
         <v>25</v>
       </c>
-      <c r="X172">
+      <c r="X173">
         <v>35</v>
       </c>
-      <c r="Y172">
+      <c r="Y173">
         <v>0.7</v>
       </c>
-      <c r="Z172">
+      <c r="Z173">
         <v>1.2</v>
       </c>
-      <c r="AA172">
+      <c r="AA173">
         <v>114961</v>
+      </c>
+      <c r="AB173"/>
+      <c r="AC173"/>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>11528</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C174" s="40" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D174" t="s">
+        <v>67</v>
+      </c>
+      <c r="E174">
+        <v>60</v>
+      </c>
+      <c r="F174">
+        <v>61</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>68</v>
+      </c>
+      <c r="I174">
+        <v>112</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174" s="1">
+        <v>97</v>
+      </c>
+      <c r="L174">
+        <v>85</v>
+      </c>
+      <c r="M174">
+        <v>54</v>
+      </c>
+      <c r="N174">
+        <v>33</v>
+      </c>
+      <c r="O174">
+        <v>2</v>
+      </c>
+      <c r="P174">
+        <v>18</v>
+      </c>
+      <c r="Q174">
+        <v>4</v>
+      </c>
+      <c r="R174" s="25">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="S174">
+        <v>12</v>
+      </c>
+      <c r="T174">
+        <v>12</v>
+      </c>
+      <c r="U174">
+        <v>12</v>
+      </c>
+      <c r="V174">
+        <v>12</v>
+      </c>
+      <c r="W174">
+        <v>40</v>
+      </c>
+      <c r="X174">
+        <v>70</v>
+      </c>
+      <c r="Y174">
+        <v>1.28</v>
+      </c>
+      <c r="Z174">
+        <v>2.4</v>
+      </c>
+      <c r="AA174">
+        <v>115281</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AC171" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC172">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC174">
       <sortCondition ref="A1:A171"/>
     </sortState>
   </autoFilter>
@@ -32351,13 +32793,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA587"/>
+  <dimension ref="A1:AA596"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E566" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B511" sqref="B511"/>
+      <selection pane="bottomRight" activeCell="I600" sqref="I600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -75930,6 +76372,252 @@
         <v>2222</v>
       </c>
     </row>
+    <row r="588" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A588" s="5" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B588" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C588" s="6" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D588" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G588" s="6">
+        <v>18</v>
+      </c>
+      <c r="I588" s="6">
+        <v>5</v>
+      </c>
+      <c r="K588" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q588" s="8">
+        <v>1</v>
+      </c>
+      <c r="V588" s="6">
+        <v>8</v>
+      </c>
+      <c r="W588" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="Y588" s="39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="589" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A589" s="5" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C589" s="6" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D589" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K589" s="8">
+        <v>1</v>
+      </c>
+      <c r="P589" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q589" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="R589" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="590" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A590" s="5" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B590" s="6" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C590" s="6" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D590" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F590" s="6">
+        <v>31</v>
+      </c>
+      <c r="L590" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q590" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A591" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B591" s="6" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C591" s="6" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D591" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F591" s="8">
+        <v>24</v>
+      </c>
+      <c r="H591" s="6">
+        <v>4</v>
+      </c>
+      <c r="K591" s="8">
+        <v>2</v>
+      </c>
+      <c r="L591" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q591" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A592" s="5" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B592" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C592" s="6" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D592" s="28" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F592" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q592" s="8">
+        <v>1</v>
+      </c>
+      <c r="S592" s="6">
+        <v>22</v>
+      </c>
+      <c r="V592" s="6">
+        <v>12</v>
+      </c>
+      <c r="W592" s="5" t="s">
+        <v>2277</v>
+      </c>
+      <c r="AA592" s="6" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="593" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A593" s="5" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C593" s="6" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D593" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F593" s="8">
+        <v>4</v>
+      </c>
+      <c r="K593" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q593" s="8">
+        <v>1</v>
+      </c>
+      <c r="W593" s="5" t="s">
+        <v>2276</v>
+      </c>
+      <c r="AA593" s="6" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="594" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A594" s="5" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B594" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C594" s="8" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D594" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="O594" s="6">
+        <v>6</v>
+      </c>
+      <c r="P594" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q594" s="8">
+        <v>1</v>
+      </c>
+      <c r="V594" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A595" s="5" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C595" s="6" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D595" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F595" s="8">
+        <v>28</v>
+      </c>
+      <c r="L595" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q595" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A596" s="5" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B596" s="6" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C596" s="6" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D596" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F596" s="8">
+        <v>33</v>
+      </c>
+      <c r="L596" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q596" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA587" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA570">
@@ -75946,11 +76634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D164" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B206" sqref="B206"/>
+      <selection pane="bottomRight" activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9C6F2A-4A53-461D-BB7F-521094B94009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A77D245-4009-46A4-A3E8-FC28E9A12E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14859" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14879" uniqueCount="2297">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7300,6 +7300,27 @@
   <si>
     <t>south_dakota</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊兹梅尔</t>
+  </si>
+  <si>
+    <t>法戈</t>
+  </si>
+  <si>
+    <t>亚拉巴马</t>
+  </si>
+  <si>
+    <t>勃艮第</t>
+  </si>
+  <si>
+    <t>康弗斯</t>
+  </si>
+  <si>
+    <t>little_beavers</t>
+  </si>
+  <si>
+    <t>史密斯</t>
   </si>
 </sst>
 </file>
@@ -8439,13 +8460,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC107"/>
+  <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC60" sqref="AC60"/>
+      <selection pane="bottomRight" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8596,7 +8617,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R48" si="0">SUM($S2:$V2)</f>
+        <f>SUM($S2:$V2)</f>
         <v>76</v>
       </c>
       <c r="S2">
@@ -8677,7 +8698,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
+        <f>SUM($S3:$V3)</f>
         <v>90</v>
       </c>
       <c r="S3">
@@ -8758,7 +8779,7 @@
         <v>4</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
+        <f>SUM($S4:$V4)</f>
         <v>80</v>
       </c>
       <c r="S4">
@@ -8839,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f>SUM($S5:$V5)</f>
         <v>80</v>
       </c>
       <c r="S5">
@@ -8920,7 +8941,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f>SUM($S6:$V6)</f>
         <v>75</v>
       </c>
       <c r="S6">
@@ -9001,7 +9022,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f>SUM($S7:$V7)</f>
         <v>8</v>
       </c>
       <c r="S7" s="6">
@@ -9086,7 +9107,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f>SUM($S8:$V8)</f>
         <v>0</v>
       </c>
       <c r="S8" s="6">
@@ -9171,7 +9192,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f>SUM($S9:$V9)</f>
         <v>12</v>
       </c>
       <c r="S9" s="6">
@@ -9256,7 +9277,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f>SUM($S10:$V10)</f>
         <v>60</v>
       </c>
       <c r="S10">
@@ -9340,7 +9361,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f>SUM($S11:$V11)</f>
         <v>48</v>
       </c>
       <c r="S11">
@@ -9421,7 +9442,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f>SUM($S12:$V12)</f>
         <v>72</v>
       </c>
       <c r="S12">
@@ -9505,7 +9526,7 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f>SUM($S13:$V13)</f>
         <v>75</v>
       </c>
       <c r="S13">
@@ -9586,7 +9607,7 @@
         <v>4</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f>SUM($S14:$V14)</f>
         <v>75</v>
       </c>
       <c r="S14">
@@ -9670,7 +9691,7 @@
         <v>4</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f>SUM($S15:$V15)</f>
         <v>16</v>
       </c>
       <c r="S15" s="6">
@@ -9755,7 +9776,7 @@
         <v>4</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f>SUM($S16:$V16)</f>
         <v>16</v>
       </c>
       <c r="S16" s="6">
@@ -9840,7 +9861,7 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f>SUM($S17:$V17)</f>
         <v>12</v>
       </c>
       <c r="S17" s="6">
@@ -9925,7 +9946,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f>SUM($S18:$V18)</f>
         <v>12</v>
       </c>
       <c r="S18" s="6">
@@ -10013,7 +10034,7 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f>SUM($S19:$V19)</f>
         <v>12</v>
       </c>
       <c r="S19" s="6">
@@ -10101,7 +10122,7 @@
         <v>4</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
+        <f>SUM($S20:$V20)</f>
         <v>12</v>
       </c>
       <c r="S20" s="6">
@@ -10186,7 +10207,7 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f t="shared" si="0"/>
+        <f>SUM($S21:$V21)</f>
         <v>12</v>
       </c>
       <c r="S21" s="6">
@@ -10271,7 +10292,7 @@
         <v>4</v>
       </c>
       <c r="R22">
-        <f t="shared" si="0"/>
+        <f>SUM($S22:$V22)</f>
         <v>12</v>
       </c>
       <c r="S22" s="6">
@@ -10356,7 +10377,7 @@
         <v>4</v>
       </c>
       <c r="R23">
-        <f t="shared" si="0"/>
+        <f>SUM($S23:$V23)</f>
         <v>16</v>
       </c>
       <c r="S23" s="6">
@@ -10441,7 +10462,7 @@
         <v>4</v>
       </c>
       <c r="R24">
-        <f t="shared" si="0"/>
+        <f>SUM($S24:$V24)</f>
         <v>78</v>
       </c>
       <c r="S24">
@@ -10522,7 +10543,7 @@
         <v>4</v>
       </c>
       <c r="R25">
-        <f t="shared" si="0"/>
+        <f>SUM($S25:$V25)</f>
         <v>78</v>
       </c>
       <c r="S25">
@@ -10603,7 +10624,7 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f t="shared" si="0"/>
+        <f>SUM($S26:$V26)</f>
         <v>63</v>
       </c>
       <c r="S26">
@@ -10684,7 +10705,7 @@
         <v>4</v>
       </c>
       <c r="R27">
-        <f t="shared" si="0"/>
+        <f>SUM($S27:$V27)</f>
         <v>63</v>
       </c>
       <c r="S27">
@@ -10765,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <f t="shared" si="0"/>
+        <f>SUM($S28:$V28)</f>
         <v>59</v>
       </c>
       <c r="S28">
@@ -10849,7 +10870,7 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f t="shared" si="0"/>
+        <f>SUM($S29:$V29)</f>
         <v>57</v>
       </c>
       <c r="S29">
@@ -10933,7 +10954,7 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f t="shared" si="0"/>
+        <f>SUM($S30:$V30)</f>
         <v>70</v>
       </c>
       <c r="S30">
@@ -11014,7 +11035,7 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <f t="shared" si="0"/>
+        <f>SUM($S31:$V31)</f>
         <v>90</v>
       </c>
       <c r="S31">
@@ -11101,7 +11122,7 @@
         <v>4</v>
       </c>
       <c r="R32">
-        <f t="shared" si="0"/>
+        <f>SUM($S32:$V32)</f>
         <v>40</v>
       </c>
       <c r="S32">
@@ -11182,7 +11203,7 @@
         <v>3</v>
       </c>
       <c r="R33">
-        <f t="shared" si="0"/>
+        <f>SUM($S33:$V33)</f>
         <v>6</v>
       </c>
       <c r="S33" s="6">
@@ -11267,7 +11288,7 @@
         <v>3</v>
       </c>
       <c r="R34">
-        <f t="shared" si="0"/>
+        <f>SUM($S34:$V34)</f>
         <v>9</v>
       </c>
       <c r="S34" s="6">
@@ -11352,7 +11373,7 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <f t="shared" si="0"/>
+        <f>SUM($S35:$V35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="6">
@@ -11437,7 +11458,7 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <f t="shared" si="0"/>
+        <f>SUM($S36:$V36)</f>
         <v>16</v>
       </c>
       <c r="S36" s="6">
@@ -11522,7 +11543,7 @@
         <v>3</v>
       </c>
       <c r="R37" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM($S37:$V37)</f>
         <v>0</v>
       </c>
       <c r="S37">
@@ -11606,7 +11627,7 @@
         <v>4</v>
       </c>
       <c r="R38">
-        <f t="shared" si="0"/>
+        <f>SUM($S38:$V38)</f>
         <v>66</v>
       </c>
       <c r="S38">
@@ -11690,7 +11711,7 @@
         <v>4</v>
       </c>
       <c r="R39">
-        <f t="shared" si="0"/>
+        <f>SUM($S39:$V39)</f>
         <v>90</v>
       </c>
       <c r="S39">
@@ -11777,7 +11798,7 @@
         <v>4</v>
       </c>
       <c r="R40">
-        <f t="shared" si="0"/>
+        <f>SUM($S40:$V40)</f>
         <v>0</v>
       </c>
       <c r="S40" s="6">
@@ -11861,7 +11882,7 @@
         <v>4</v>
       </c>
       <c r="R41">
-        <f t="shared" si="0"/>
+        <f>SUM($S41:$V41)</f>
         <v>66</v>
       </c>
       <c r="S41">
@@ -11945,7 +11966,7 @@
         <v>4</v>
       </c>
       <c r="R42">
-        <f t="shared" si="0"/>
+        <f>SUM($S42:$V42)</f>
         <v>75</v>
       </c>
       <c r="S42">
@@ -12029,7 +12050,7 @@
         <v>3</v>
       </c>
       <c r="R43">
-        <f t="shared" si="0"/>
+        <f>SUM($S43:$V43)</f>
         <v>24</v>
       </c>
       <c r="S43">
@@ -12110,7 +12131,7 @@
         <v>4</v>
       </c>
       <c r="R44">
-        <f t="shared" si="0"/>
+        <f>SUM($S44:$V44)</f>
         <v>12</v>
       </c>
       <c r="S44" s="6">
@@ -12195,7 +12216,7 @@
         <v>3</v>
       </c>
       <c r="R45">
-        <f t="shared" si="0"/>
+        <f>SUM($S45:$V45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="6">
@@ -12280,7 +12301,7 @@
         <v>4</v>
       </c>
       <c r="R46">
-        <f t="shared" si="0"/>
+        <f>SUM($S46:$V46)</f>
         <v>6</v>
       </c>
       <c r="S46" s="6">
@@ -12364,7 +12385,7 @@
         <v>3</v>
       </c>
       <c r="R47">
-        <f t="shared" si="0"/>
+        <f>SUM($S47:$V47)</f>
         <v>6</v>
       </c>
       <c r="S47" s="6">
@@ -12449,7 +12470,7 @@
         <v>3</v>
       </c>
       <c r="R48">
-        <f t="shared" si="0"/>
+        <f>SUM($S48:$V48)</f>
         <v>24</v>
       </c>
       <c r="S48">
@@ -12613,7 +12634,7 @@
         <v>4</v>
       </c>
       <c r="R50">
-        <f t="shared" ref="R50:R79" si="1">SUM($S50:$V50)</f>
+        <f>SUM($S50:$V50)</f>
         <v>16</v>
       </c>
       <c r="S50" s="6">
@@ -12698,7 +12719,7 @@
         <v>4</v>
       </c>
       <c r="R51">
-        <f t="shared" si="1"/>
+        <f>SUM($S51:$V51)</f>
         <v>57</v>
       </c>
       <c r="S51">
@@ -12782,7 +12803,7 @@
         <v>4</v>
       </c>
       <c r="R52">
-        <f t="shared" si="1"/>
+        <f>SUM($S52:$V52)</f>
         <v>92</v>
       </c>
       <c r="S52">
@@ -12869,7 +12890,7 @@
         <v>3</v>
       </c>
       <c r="R53" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM($S53:$V53)</f>
         <v>0</v>
       </c>
       <c r="S53">
@@ -12953,7 +12974,7 @@
         <v>4</v>
       </c>
       <c r="R54">
-        <f t="shared" si="1"/>
+        <f>SUM($S54:$V54)</f>
         <v>0</v>
       </c>
       <c r="S54" s="6">
@@ -13038,7 +13059,7 @@
         <v>4</v>
       </c>
       <c r="R55">
-        <f t="shared" si="1"/>
+        <f>SUM($S55:$V55)</f>
         <v>12</v>
       </c>
       <c r="S55" s="10">
@@ -13126,7 +13147,7 @@
         <v>3</v>
       </c>
       <c r="R56">
-        <f t="shared" si="1"/>
+        <f>SUM($S56:$V56)</f>
         <v>9</v>
       </c>
       <c r="S56" s="6">
@@ -13211,7 +13232,7 @@
         <v>2</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
+        <f>SUM($S57:$V57)</f>
         <v>40</v>
       </c>
       <c r="S57">
@@ -13292,7 +13313,7 @@
         <v>4</v>
       </c>
       <c r="R58">
-        <f t="shared" si="1"/>
+        <f>SUM($S58:$V58)</f>
         <v>0</v>
       </c>
       <c r="S58" s="10">
@@ -13376,7 +13397,7 @@
         <v>3</v>
       </c>
       <c r="R59">
-        <f t="shared" si="1"/>
+        <f>SUM($S59:$V59)</f>
         <v>24</v>
       </c>
       <c r="S59">
@@ -13457,7 +13478,7 @@
         <v>3</v>
       </c>
       <c r="R60">
-        <f t="shared" si="1"/>
+        <f>SUM($S60:$V60)</f>
         <v>24</v>
       </c>
       <c r="S60">
@@ -13538,7 +13559,7 @@
         <v>4</v>
       </c>
       <c r="R61">
-        <f t="shared" si="1"/>
+        <f>SUM($S61:$V61)</f>
         <v>81</v>
       </c>
       <c r="S61">
@@ -13622,7 +13643,7 @@
         <v>2</v>
       </c>
       <c r="R62">
-        <f t="shared" si="1"/>
+        <f>SUM($S62:$V62)</f>
         <v>40</v>
       </c>
       <c r="S62">
@@ -13703,7 +13724,7 @@
         <v>4</v>
       </c>
       <c r="R63">
-        <f t="shared" si="1"/>
+        <f>SUM($S63:$V63)</f>
         <v>12</v>
       </c>
       <c r="S63" s="10">
@@ -13788,7 +13809,7 @@
         <v>3</v>
       </c>
       <c r="R64">
-        <f t="shared" si="1"/>
+        <f>SUM($S64:$V64)</f>
         <v>9</v>
       </c>
       <c r="S64" s="6">
@@ -13873,7 +13894,7 @@
         <v>4</v>
       </c>
       <c r="R65">
-        <f t="shared" si="1"/>
+        <f>SUM($S65:$V65)</f>
         <v>0</v>
       </c>
       <c r="S65" s="10">
@@ -13958,7 +13979,7 @@
         <v>3</v>
       </c>
       <c r="R66">
-        <f t="shared" si="1"/>
+        <f>SUM($S66:$V66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="6">
@@ -14043,7 +14064,7 @@
         <v>3</v>
       </c>
       <c r="R67">
-        <f t="shared" si="1"/>
+        <f>SUM($S67:$V67)</f>
         <v>9</v>
       </c>
       <c r="S67" s="6">
@@ -14128,7 +14149,7 @@
         <v>4</v>
       </c>
       <c r="R68">
-        <f t="shared" si="1"/>
+        <f>SUM($S68:$V68)</f>
         <v>62</v>
       </c>
       <c r="S68">
@@ -14212,7 +14233,7 @@
         <v>4</v>
       </c>
       <c r="R69">
-        <f t="shared" si="1"/>
+        <f>SUM($S69:$V69)</f>
         <v>90</v>
       </c>
       <c r="S69">
@@ -14299,7 +14320,7 @@
         <v>4</v>
       </c>
       <c r="R70">
-        <f t="shared" si="1"/>
+        <f>SUM($S70:$V70)</f>
         <v>12</v>
       </c>
       <c r="S70" s="10">
@@ -14383,7 +14404,7 @@
         <v>4</v>
       </c>
       <c r="R71">
-        <f t="shared" si="1"/>
+        <f>SUM($S71:$V71)</f>
         <v>12</v>
       </c>
       <c r="S71" s="10">
@@ -14467,7 +14488,7 @@
         <v>3</v>
       </c>
       <c r="R72">
-        <f t="shared" si="1"/>
+        <f>SUM($S72:$V72)</f>
         <v>9</v>
       </c>
       <c r="S72" s="6">
@@ -14552,7 +14573,7 @@
         <v>4</v>
       </c>
       <c r="R73">
-        <f t="shared" si="1"/>
+        <f>SUM($S73:$V73)</f>
         <v>0</v>
       </c>
       <c r="S73" s="10">
@@ -14637,7 +14658,7 @@
         <v>4</v>
       </c>
       <c r="R74">
-        <f t="shared" si="1"/>
+        <f>SUM($S74:$V74)</f>
         <v>0</v>
       </c>
       <c r="S74" s="10">
@@ -14721,7 +14742,7 @@
         <v>4</v>
       </c>
       <c r="R75">
-        <f t="shared" si="1"/>
+        <f>SUM($S75:$V75)</f>
         <v>9</v>
       </c>
       <c r="S75" s="10">
@@ -14806,7 +14827,7 @@
         <v>4</v>
       </c>
       <c r="R76">
-        <f t="shared" si="1"/>
+        <f>SUM($S76:$V76)</f>
         <v>0</v>
       </c>
       <c r="S76" s="10">
@@ -14891,7 +14912,7 @@
         <v>3</v>
       </c>
       <c r="R77">
-        <f t="shared" si="1"/>
+        <f>SUM($S77:$V77)</f>
         <v>9</v>
       </c>
       <c r="S77" s="6">
@@ -14976,7 +14997,7 @@
         <v>4</v>
       </c>
       <c r="R78">
-        <f t="shared" si="1"/>
+        <f>SUM($S78:$V78)</f>
         <v>0</v>
       </c>
       <c r="S78" s="10">
@@ -15061,7 +15082,7 @@
         <v>4</v>
       </c>
       <c r="R79">
-        <f t="shared" si="1"/>
+        <f>SUM($S79:$V79)</f>
         <v>83</v>
       </c>
       <c r="S79">
@@ -15228,7 +15249,7 @@
         <v>4</v>
       </c>
       <c r="R81">
-        <f t="shared" ref="R81:R107" si="2">SUM($S81:$V81)</f>
+        <f>SUM($S81:$V81)</f>
         <v>12</v>
       </c>
       <c r="S81" s="10">
@@ -15313,7 +15334,7 @@
         <v>4</v>
       </c>
       <c r="R82">
-        <f t="shared" si="2"/>
+        <f>SUM($S82:$V82)</f>
         <v>0</v>
       </c>
       <c r="S82" s="10">
@@ -15397,7 +15418,7 @@
         <v>4</v>
       </c>
       <c r="R83">
-        <f t="shared" si="2"/>
+        <f>SUM($S83:$V83)</f>
         <v>0</v>
       </c>
       <c r="S83" s="10">
@@ -15482,7 +15503,7 @@
         <v>3</v>
       </c>
       <c r="R84">
-        <f t="shared" si="2"/>
+        <f>SUM($S84:$V84)</f>
         <v>24</v>
       </c>
       <c r="S84">
@@ -15566,7 +15587,7 @@
         <v>4</v>
       </c>
       <c r="R85">
-        <f t="shared" si="2"/>
+        <f>SUM($S85:$V85)</f>
         <v>0</v>
       </c>
       <c r="S85" s="10">
@@ -15651,7 +15672,7 @@
         <v>4</v>
       </c>
       <c r="R86">
-        <f t="shared" si="2"/>
+        <f>SUM($S86:$V86)</f>
         <v>91</v>
       </c>
       <c r="S86">
@@ -15738,7 +15759,7 @@
         <v>4</v>
       </c>
       <c r="R87">
-        <f t="shared" si="2"/>
+        <f>SUM($S87:$V87)</f>
         <v>51</v>
       </c>
       <c r="S87">
@@ -15822,7 +15843,7 @@
         <v>4</v>
       </c>
       <c r="R88">
-        <f t="shared" si="2"/>
+        <f>SUM($S88:$V88)</f>
         <v>48</v>
       </c>
       <c r="S88">
@@ -15903,7 +15924,7 @@
         <v>4</v>
       </c>
       <c r="R89">
-        <f t="shared" si="2"/>
+        <f>SUM($S89:$V89)</f>
         <v>72</v>
       </c>
       <c r="S89">
@@ -15987,7 +16008,7 @@
         <v>3</v>
       </c>
       <c r="R90">
-        <f t="shared" si="2"/>
+        <f>SUM($S90:$V90)</f>
         <v>18</v>
       </c>
       <c r="S90" s="6">
@@ -16072,7 +16093,7 @@
         <v>4</v>
       </c>
       <c r="R91">
-        <f t="shared" si="2"/>
+        <f>SUM($S91:$V91)</f>
         <v>59</v>
       </c>
       <c r="S91">
@@ -16156,7 +16177,7 @@
         <v>4</v>
       </c>
       <c r="R92">
-        <f t="shared" si="2"/>
+        <f>SUM($S92:$V92)</f>
         <v>0</v>
       </c>
       <c r="S92" s="6">
@@ -16240,7 +16261,7 @@
         <v>4</v>
       </c>
       <c r="R93">
-        <f t="shared" si="2"/>
+        <f>SUM($S93:$V93)</f>
         <v>75</v>
       </c>
       <c r="S93">
@@ -16324,7 +16345,7 @@
         <v>4</v>
       </c>
       <c r="R94">
-        <f t="shared" si="2"/>
+        <f>SUM($S94:$V94)</f>
         <v>12</v>
       </c>
       <c r="S94" s="6">
@@ -16408,7 +16429,7 @@
         <v>4</v>
       </c>
       <c r="R95">
-        <f t="shared" si="2"/>
+        <f>SUM($S95:$V95)</f>
         <v>78</v>
       </c>
       <c r="S95">
@@ -16492,7 +16513,7 @@
         <v>4</v>
       </c>
       <c r="R96">
-        <f t="shared" si="2"/>
+        <f>SUM($S96:$V96)</f>
         <v>90</v>
       </c>
       <c r="S96">
@@ -16579,7 +16600,7 @@
         <v>4</v>
       </c>
       <c r="R97">
-        <f t="shared" si="2"/>
+        <f>SUM($S97:$V97)</f>
         <v>12</v>
       </c>
       <c r="S97" s="6">
@@ -16664,7 +16685,7 @@
         <v>3</v>
       </c>
       <c r="R98" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S98:$V98)</f>
         <v>24</v>
       </c>
       <c r="S98">
@@ -16748,7 +16769,7 @@
         <v>4</v>
       </c>
       <c r="R99" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S99:$V99)</f>
         <v>12</v>
       </c>
       <c r="S99">
@@ -16832,7 +16853,7 @@
         <v>4</v>
       </c>
       <c r="R100">
-        <f t="shared" si="2"/>
+        <f>SUM($S100:$V100)</f>
         <v>84</v>
       </c>
       <c r="S100">
@@ -16916,7 +16937,7 @@
         <v>4</v>
       </c>
       <c r="R101">
-        <f t="shared" si="2"/>
+        <f>SUM($S101:$V101)</f>
         <v>90</v>
       </c>
       <c r="S101" s="6">
@@ -17004,7 +17025,7 @@
         <v>4</v>
       </c>
       <c r="R102" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S102:$V102)</f>
         <v>0</v>
       </c>
       <c r="S102">
@@ -17088,7 +17109,7 @@
         <v>4</v>
       </c>
       <c r="R103" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S103:$V103)</f>
         <v>0</v>
       </c>
       <c r="S103">
@@ -17172,7 +17193,7 @@
         <v>4</v>
       </c>
       <c r="R104" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S104:$V104)</f>
         <v>0</v>
       </c>
       <c r="S104">
@@ -17204,116 +17225,116 @@
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A105" s="29">
-        <v>10524</v>
+      <c r="A105" s="3">
+        <v>10522</v>
       </c>
       <c r="B105" t="s">
-        <v>2235</v>
-      </c>
-      <c r="C105" s="29" t="s">
-        <v>2236</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>2228</v>
+        <v>205</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D105" t="s">
+        <v>67</v>
       </c>
       <c r="E105">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F105">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I105">
         <v>109</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="K105" s="1">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L105">
         <v>64</v>
       </c>
       <c r="M105">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="N105">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="O105">
+        <v>2</v>
+      </c>
+      <c r="P105">
+        <v>10</v>
+      </c>
+      <c r="Q105">
         <v>3</v>
       </c>
-      <c r="P105">
-        <v>6</v>
-      </c>
-      <c r="Q105">
-        <v>4</v>
-      </c>
       <c r="R105" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM($S105:$V105)</f>
+        <v>9</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V105">
         <v>0</v>
       </c>
       <c r="W105">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="X105">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="Y105">
-        <v>2.88</v>
+        <v>0.8</v>
       </c>
       <c r="Z105">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA105">
-        <v>105241</v>
+        <v>105221</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A106" s="29">
-        <v>10532</v>
+      <c r="A106" s="3">
+        <v>10523</v>
       </c>
       <c r="B106" t="s">
-        <v>2229</v>
-      </c>
-      <c r="C106" s="29" t="s">
-        <v>2237</v>
+        <v>207</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2292</v>
       </c>
       <c r="D106" t="s">
-        <v>2238</v>
+        <v>67</v>
       </c>
       <c r="E106">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F106">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="I106">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -17322,13 +17343,13 @@
         <v>94</v>
       </c>
       <c r="L106">
+        <v>46</v>
+      </c>
+      <c r="M106">
         <v>44</v>
       </c>
-      <c r="M106">
-        <v>37</v>
-      </c>
       <c r="N106">
-        <v>22</v>
+        <v>27.5</v>
       </c>
       <c r="O106">
         <v>3</v>
@@ -17340,124 +17361,463 @@
         <v>4</v>
       </c>
       <c r="R106" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM($S106:$V106)</f>
+        <v>12</v>
       </c>
       <c r="S106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W106">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="X106">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="Y106">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Z106">
-        <v>4.55</v>
+        <v>8</v>
       </c>
       <c r="AA106">
-        <v>105321</v>
+        <v>105231</v>
+      </c>
+      <c r="AC106" s="3" t="s">
+        <v>2288</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>10533</v>
+      <c r="A107" s="29">
+        <v>10524</v>
       </c>
       <c r="B107" t="s">
-        <v>2259</v>
+        <v>2235</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>2260</v>
-      </c>
-      <c r="D107" t="s">
-        <v>81</v>
+        <v>2236</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>2228</v>
       </c>
       <c r="E107">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F107">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="I107">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L107">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="M107">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="N107">
-        <v>34.5</v>
+        <v>33</v>
       </c>
       <c r="O107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Q107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R107" s="18">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>SUM($S107:$V107)</f>
+        <v>0</v>
       </c>
       <c r="S107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V107">
         <v>0</v>
       </c>
       <c r="W107">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="X107">
         <v>120</v>
       </c>
       <c r="Y107">
+        <v>2.88</v>
+      </c>
+      <c r="Z107">
+        <v>5.4</v>
+      </c>
+      <c r="AA107">
+        <v>105241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A108" s="29">
+        <v>10532</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E108">
+        <v>52</v>
+      </c>
+      <c r="F108">
+        <v>78</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>79</v>
+      </c>
+      <c r="I108">
+        <v>48</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>94</v>
+      </c>
+      <c r="L108">
+        <v>44</v>
+      </c>
+      <c r="M108">
+        <v>37</v>
+      </c>
+      <c r="N108">
+        <v>22</v>
+      </c>
+      <c r="O108">
+        <v>3</v>
+      </c>
+      <c r="P108">
+        <v>16</v>
+      </c>
+      <c r="Q108">
+        <v>4</v>
+      </c>
+      <c r="R108" s="18">
+        <f>SUM($S108:$V108)</f>
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>70</v>
+      </c>
+      <c r="X108">
+        <v>105</v>
+      </c>
+      <c r="Y108">
+        <v>2.25</v>
+      </c>
+      <c r="Z108">
+        <v>4.55</v>
+      </c>
+      <c r="AA108">
+        <v>105321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>10533</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D109" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109">
+        <v>40</v>
+      </c>
+      <c r="F109">
+        <v>62</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>40</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>95</v>
+      </c>
+      <c r="L109">
+        <v>74</v>
+      </c>
+      <c r="M109">
+        <v>62</v>
+      </c>
+      <c r="N109">
+        <v>34.5</v>
+      </c>
+      <c r="O109">
+        <v>2</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>3</v>
+      </c>
+      <c r="R109" s="18">
+        <f>SUM($S109:$V109)</f>
+        <v>30</v>
+      </c>
+      <c r="S109">
+        <v>10</v>
+      </c>
+      <c r="T109">
+        <v>10</v>
+      </c>
+      <c r="U109">
+        <v>10</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>40</v>
+      </c>
+      <c r="X109">
+        <v>120</v>
+      </c>
+      <c r="Y109">
         <v>1.28</v>
       </c>
-      <c r="Z107">
+      <c r="Z109">
         <v>2.1</v>
       </c>
-      <c r="AA107">
+      <c r="AA109">
         <v>105331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>10540</v>
+      </c>
+      <c r="B110" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D110" t="s">
+        <v>81</v>
+      </c>
+      <c r="E110">
+        <v>72</v>
+      </c>
+      <c r="F110">
+        <v>107</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>83</v>
+      </c>
+      <c r="I110">
+        <v>50</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>94</v>
+      </c>
+      <c r="L110">
+        <v>64</v>
+      </c>
+      <c r="M110">
+        <v>40</v>
+      </c>
+      <c r="N110">
+        <v>28.5</v>
+      </c>
+      <c r="O110">
+        <v>3</v>
+      </c>
+      <c r="P110">
+        <v>8</v>
+      </c>
+      <c r="Q110">
+        <v>4</v>
+      </c>
+      <c r="R110" s="18">
+        <f>SUM($S110:$V110)</f>
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>75</v>
+      </c>
+      <c r="X110">
+        <v>115</v>
+      </c>
+      <c r="Y110">
+        <v>2.6</v>
+      </c>
+      <c r="Z110">
+        <v>4.8</v>
+      </c>
+      <c r="AA110">
+        <v>105401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>10547</v>
+      </c>
+      <c r="B111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D111" t="s">
+        <v>70</v>
+      </c>
+      <c r="E111">
+        <v>84</v>
+      </c>
+      <c r="F111">
+        <v>115</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>104</v>
+      </c>
+      <c r="I111">
+        <v>80</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>96</v>
+      </c>
+      <c r="L111">
+        <v>51</v>
+      </c>
+      <c r="M111">
+        <v>40</v>
+      </c>
+      <c r="N111">
+        <v>31</v>
+      </c>
+      <c r="O111">
+        <v>3</v>
+      </c>
+      <c r="P111">
+        <v>5</v>
+      </c>
+      <c r="Q111">
+        <v>4</v>
+      </c>
+      <c r="R111" s="18">
+        <f>SUM($S111:$V111)</f>
+        <v>9</v>
+      </c>
+      <c r="S111">
+        <v>3</v>
+      </c>
+      <c r="T111">
+        <v>3</v>
+      </c>
+      <c r="U111">
+        <v>3</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>95</v>
+      </c>
+      <c r="X111">
+        <v>140</v>
+      </c>
+      <c r="Y111">
+        <v>4.2</v>
+      </c>
+      <c r="Z111">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AA111">
+        <v>105471</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AC99" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC107">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC111">
       <sortCondition ref="A1:A99"/>
     </sortState>
   </autoFilter>
@@ -17509,13 +17869,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC176"/>
+  <dimension ref="A1:AC178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC136" sqref="AC136"/>
+      <selection pane="bottomRight" activeCell="N183" sqref="N183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17667,7 +18027,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R33" si="0">SUM($S2:$V2)</f>
+        <f>SUM($S2:$V2)</f>
         <v>12</v>
       </c>
       <c r="S2" s="6">
@@ -17754,7 +18114,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
+        <f>SUM($S3:$V3)</f>
         <v>30</v>
       </c>
       <c r="S3">
@@ -17838,7 +18198,7 @@
         <v>4</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
+        <f>SUM($S4:$V4)</f>
         <v>8</v>
       </c>
       <c r="S4" s="10">
@@ -17923,7 +18283,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f>SUM($S5:$V5)</f>
         <v>24</v>
       </c>
       <c r="S5">
@@ -18007,7 +18367,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f>SUM($S6:$V6)</f>
         <v>24</v>
       </c>
       <c r="S6">
@@ -18091,7 +18451,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f>SUM($S7:$V7)</f>
         <v>16</v>
       </c>
       <c r="S7" s="10">
@@ -18178,7 +18538,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f>SUM($S8:$V8)</f>
         <v>16</v>
       </c>
       <c r="S8" s="10">
@@ -18263,7 +18623,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f>SUM($S9:$V9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="10">
@@ -18351,7 +18711,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f>SUM($S10:$V10)</f>
         <v>8</v>
       </c>
       <c r="S10" s="10">
@@ -18441,7 +18801,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f>SUM($S11:$V11)</f>
         <v>16</v>
       </c>
       <c r="S11" s="10">
@@ -18528,7 +18888,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f>SUM($S12:$V12)</f>
         <v>12</v>
       </c>
       <c r="S12" s="10">
@@ -18613,7 +18973,7 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f>SUM($S13:$V13)</f>
         <v>12</v>
       </c>
       <c r="S13" s="10">
@@ -18698,7 +19058,7 @@
         <v>4</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f>SUM($S14:$V14)</f>
         <v>12</v>
       </c>
       <c r="S14" s="10">
@@ -18783,7 +19143,7 @@
         <v>4</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f>SUM($S15:$V15)</f>
         <v>12</v>
       </c>
       <c r="S15" s="10">
@@ -18868,7 +19228,7 @@
         <v>4</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f>SUM($S16:$V16)</f>
         <v>16</v>
       </c>
       <c r="S16" s="6">
@@ -18955,7 +19315,7 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f>SUM($S17:$V17)</f>
         <v>16</v>
       </c>
       <c r="S17" s="6">
@@ -19040,7 +19400,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f>SUM($S18:$V18)</f>
         <v>48</v>
       </c>
       <c r="S18">
@@ -19124,7 +19484,7 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f>SUM($S19:$V19)</f>
         <v>48</v>
       </c>
       <c r="S19">
@@ -19208,7 +19568,7 @@
         <v>4</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
+        <f>SUM($S20:$V20)</f>
         <v>86</v>
       </c>
       <c r="S20">
@@ -19295,7 +19655,7 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f t="shared" si="0"/>
+        <f>SUM($S21:$V21)</f>
         <v>95</v>
       </c>
       <c r="S21">
@@ -19382,7 +19742,7 @@
         <v>3</v>
       </c>
       <c r="R22">
-        <f t="shared" si="0"/>
+        <f>SUM($S22:$V22)</f>
         <v>39</v>
       </c>
       <c r="S22">
@@ -19466,7 +19826,7 @@
         <v>3</v>
       </c>
       <c r="R23">
-        <f t="shared" si="0"/>
+        <f>SUM($S23:$V23)</f>
         <v>37</v>
       </c>
       <c r="S23">
@@ -19550,7 +19910,7 @@
         <v>3</v>
       </c>
       <c r="R24">
-        <f t="shared" si="0"/>
+        <f>SUM($S24:$V24)</f>
         <v>28</v>
       </c>
       <c r="S24">
@@ -19631,7 +19991,7 @@
         <v>3</v>
       </c>
       <c r="R25">
-        <f t="shared" si="0"/>
+        <f>SUM($S25:$V25)</f>
         <v>35</v>
       </c>
       <c r="S25">
@@ -19712,7 +20072,7 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f t="shared" si="0"/>
+        <f>SUM($S26:$V26)</f>
         <v>65</v>
       </c>
       <c r="S26">
@@ -19796,7 +20156,7 @@
         <v>4</v>
       </c>
       <c r="R27">
-        <f t="shared" si="0"/>
+        <f>SUM($S27:$V27)</f>
         <v>85</v>
       </c>
       <c r="S27">
@@ -19880,7 +20240,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <f t="shared" si="0"/>
+        <f>SUM($S28:$V28)</f>
         <v>85</v>
       </c>
       <c r="S28">
@@ -19967,7 +20327,7 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f t="shared" si="0"/>
+        <f>SUM($S29:$V29)</f>
         <v>87</v>
       </c>
       <c r="S29">
@@ -20051,7 +20411,7 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f t="shared" si="0"/>
+        <f>SUM($S30:$V30)</f>
         <v>6</v>
       </c>
       <c r="S30" s="6">
@@ -20136,7 +20496,7 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <f t="shared" si="0"/>
+        <f>SUM($S31:$V31)</f>
         <v>6</v>
       </c>
       <c r="S31" s="6">
@@ -20221,7 +20581,7 @@
         <v>4</v>
       </c>
       <c r="R32">
-        <f t="shared" si="0"/>
+        <f>SUM($S32:$V32)</f>
         <v>6</v>
       </c>
       <c r="S32" s="6">
@@ -20306,7 +20666,7 @@
         <v>4</v>
       </c>
       <c r="R33">
-        <f t="shared" si="0"/>
+        <f>SUM($S33:$V33)</f>
         <v>6</v>
       </c>
       <c r="S33" s="6">
@@ -20391,7 +20751,7 @@
         <v>4</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34:R65" si="1">SUM($S34:$V34)</f>
+        <f>SUM($S34:$V34)</f>
         <v>12</v>
       </c>
       <c r="S34" s="6">
@@ -20476,7 +20836,7 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
+        <f>SUM($S35:$V35)</f>
         <v>12</v>
       </c>
       <c r="S35" s="6">
@@ -20561,7 +20921,7 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
+        <f>SUM($S36:$V36)</f>
         <v>12</v>
       </c>
       <c r="S36" s="6">
@@ -20648,7 +21008,7 @@
         <v>4</v>
       </c>
       <c r="R37">
-        <f t="shared" si="1"/>
+        <f>SUM($S37:$V37)</f>
         <v>6</v>
       </c>
       <c r="S37" s="6">
@@ -20733,7 +21093,7 @@
         <v>4</v>
       </c>
       <c r="R38">
-        <f t="shared" si="1"/>
+        <f>SUM($S38:$V38)</f>
         <v>8</v>
       </c>
       <c r="S38" s="6">
@@ -20820,7 +21180,7 @@
         <v>3</v>
       </c>
       <c r="R39" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM($S39:$V39)</f>
         <v>0</v>
       </c>
       <c r="S39">
@@ -20907,7 +21267,7 @@
         <v>3</v>
       </c>
       <c r="R40" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM($S40:$V40)</f>
         <v>0</v>
       </c>
       <c r="S40">
@@ -20994,7 +21354,7 @@
         <v>3</v>
       </c>
       <c r="R41" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM($S41:$V41)</f>
         <v>3</v>
       </c>
       <c r="S41">
@@ -21078,7 +21438,7 @@
         <v>4</v>
       </c>
       <c r="R42" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM($S42:$V42)</f>
         <v>0</v>
       </c>
       <c r="S42">
@@ -21162,7 +21522,7 @@
         <v>3</v>
       </c>
       <c r="R43">
-        <f t="shared" si="1"/>
+        <f>SUM($S43:$V43)</f>
         <v>0</v>
       </c>
       <c r="S43" s="6">
@@ -21247,7 +21607,7 @@
         <v>3</v>
       </c>
       <c r="R44">
-        <f t="shared" si="1"/>
+        <f>SUM($S44:$V44)</f>
         <v>6</v>
       </c>
       <c r="S44" s="6">
@@ -21332,7 +21692,7 @@
         <v>3</v>
       </c>
       <c r="R45">
-        <f t="shared" si="1"/>
+        <f>SUM($S45:$V45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="6">
@@ -21417,7 +21777,7 @@
         <v>3</v>
       </c>
       <c r="R46">
-        <f t="shared" si="1"/>
+        <f>SUM($S46:$V46)</f>
         <v>12</v>
       </c>
       <c r="S46" s="6">
@@ -21504,7 +21864,7 @@
         <v>3</v>
       </c>
       <c r="R47">
-        <f t="shared" si="1"/>
+        <f>SUM($S47:$V47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="6">
@@ -21594,7 +21954,7 @@
         <v>3</v>
       </c>
       <c r="R48">
-        <f t="shared" si="1"/>
+        <f>SUM($S48:$V48)</f>
         <v>0</v>
       </c>
       <c r="S48" s="6">
@@ -21682,7 +22042,7 @@
         <v>3</v>
       </c>
       <c r="R49">
-        <f t="shared" si="1"/>
+        <f>SUM($S49:$V49)</f>
         <v>0</v>
       </c>
       <c r="S49" s="6">
@@ -21770,7 +22130,7 @@
         <v>3</v>
       </c>
       <c r="R50">
-        <f t="shared" si="1"/>
+        <f>SUM($S50:$V50)</f>
         <v>0</v>
       </c>
       <c r="S50" s="6">
@@ -21858,7 +22218,7 @@
         <v>3</v>
       </c>
       <c r="R51">
-        <f t="shared" si="1"/>
+        <f>SUM($S51:$V51)</f>
         <v>0</v>
       </c>
       <c r="S51" s="6">
@@ -21946,7 +22306,7 @@
         <v>3</v>
       </c>
       <c r="R52">
-        <f t="shared" si="1"/>
+        <f>SUM($S52:$V52)</f>
         <v>0</v>
       </c>
       <c r="S52" s="6">
@@ -22034,7 +22394,7 @@
         <v>3</v>
       </c>
       <c r="R53">
-        <f t="shared" si="1"/>
+        <f>SUM($S53:$V53)</f>
         <v>0</v>
       </c>
       <c r="S53" s="6">
@@ -22122,7 +22482,7 @@
         <v>3</v>
       </c>
       <c r="R54">
-        <f t="shared" si="1"/>
+        <f>SUM($S54:$V54)</f>
         <v>0</v>
       </c>
       <c r="S54" s="6">
@@ -22210,7 +22570,7 @@
         <v>3</v>
       </c>
       <c r="R55">
-        <f t="shared" si="1"/>
+        <f>SUM($S55:$V55)</f>
         <v>0</v>
       </c>
       <c r="S55" s="6">
@@ -22298,7 +22658,7 @@
         <v>3</v>
       </c>
       <c r="R56">
-        <f t="shared" si="1"/>
+        <f>SUM($S56:$V56)</f>
         <v>0</v>
       </c>
       <c r="S56" s="6">
@@ -22386,7 +22746,7 @@
         <v>3</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
+        <f>SUM($S57:$V57)</f>
         <v>0</v>
       </c>
       <c r="S57" s="6">
@@ -22474,7 +22834,7 @@
         <v>3</v>
       </c>
       <c r="R58">
-        <f t="shared" si="1"/>
+        <f>SUM($S58:$V58)</f>
         <v>0</v>
       </c>
       <c r="S58" s="6">
@@ -22564,7 +22924,7 @@
         <v>3</v>
       </c>
       <c r="R59">
-        <f t="shared" si="1"/>
+        <f>SUM($S59:$V59)</f>
         <v>0</v>
       </c>
       <c r="S59" s="6">
@@ -22652,7 +23012,7 @@
         <v>3</v>
       </c>
       <c r="R60">
-        <f t="shared" si="1"/>
+        <f>SUM($S60:$V60)</f>
         <v>0</v>
       </c>
       <c r="S60" s="6">
@@ -22740,7 +23100,7 @@
         <v>3</v>
       </c>
       <c r="R61">
-        <f t="shared" si="1"/>
+        <f>SUM($S61:$V61)</f>
         <v>0</v>
       </c>
       <c r="S61" s="6">
@@ -22828,7 +23188,7 @@
         <v>3</v>
       </c>
       <c r="R62">
-        <f t="shared" si="1"/>
+        <f>SUM($S62:$V62)</f>
         <v>0</v>
       </c>
       <c r="S62" s="6">
@@ -22913,7 +23273,7 @@
         <v>3</v>
       </c>
       <c r="R63">
-        <f t="shared" si="1"/>
+        <f>SUM($S63:$V63)</f>
         <v>0</v>
       </c>
       <c r="S63" s="6">
@@ -23000,7 +23360,7 @@
         <v>3</v>
       </c>
       <c r="R64">
-        <f t="shared" si="1"/>
+        <f>SUM($S64:$V64)</f>
         <v>0</v>
       </c>
       <c r="S64" s="6">
@@ -23085,7 +23445,7 @@
         <v>3</v>
       </c>
       <c r="R65">
-        <f t="shared" si="1"/>
+        <f>SUM($S65:$V65)</f>
         <v>0</v>
       </c>
       <c r="S65" s="6">
@@ -23170,7 +23530,7 @@
         <v>3</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R97" si="2">SUM($S66:$V66)</f>
+        <f>SUM($S66:$V66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="6">
@@ -23255,7 +23615,7 @@
         <v>3</v>
       </c>
       <c r="R67">
-        <f t="shared" si="2"/>
+        <f>SUM($S67:$V67)</f>
         <v>0</v>
       </c>
       <c r="S67" s="6">
@@ -23340,7 +23700,7 @@
         <v>3</v>
       </c>
       <c r="R68">
-        <f t="shared" si="2"/>
+        <f>SUM($S68:$V68)</f>
         <v>0</v>
       </c>
       <c r="S68" s="6">
@@ -23425,7 +23785,7 @@
         <v>3</v>
       </c>
       <c r="R69">
-        <f t="shared" si="2"/>
+        <f>SUM($S69:$V69)</f>
         <v>0</v>
       </c>
       <c r="S69" s="6">
@@ -23510,7 +23870,7 @@
         <v>3</v>
       </c>
       <c r="R70">
-        <f t="shared" si="2"/>
+        <f>SUM($S70:$V70)</f>
         <v>0</v>
       </c>
       <c r="S70" s="6">
@@ -23595,7 +23955,7 @@
         <v>3</v>
       </c>
       <c r="R71">
-        <f t="shared" si="2"/>
+        <f>SUM($S71:$V71)</f>
         <v>0</v>
       </c>
       <c r="S71" s="6">
@@ -23680,7 +24040,7 @@
         <v>3</v>
       </c>
       <c r="R72">
-        <f t="shared" si="2"/>
+        <f>SUM($S72:$V72)</f>
         <v>0</v>
       </c>
       <c r="S72" s="6">
@@ -23767,7 +24127,7 @@
         <v>3</v>
       </c>
       <c r="R73">
-        <f t="shared" si="2"/>
+        <f>SUM($S73:$V73)</f>
         <v>36</v>
       </c>
       <c r="S73">
@@ -23852,7 +24212,7 @@
         <v>3</v>
       </c>
       <c r="R74">
-        <f t="shared" si="2"/>
+        <f>SUM($S74:$V74)</f>
         <v>24</v>
       </c>
       <c r="S74">
@@ -23937,7 +24297,7 @@
         <v>3</v>
       </c>
       <c r="R75">
-        <f t="shared" si="2"/>
+        <f>SUM($S75:$V75)</f>
         <v>0</v>
       </c>
       <c r="S75" s="6">
@@ -24022,7 +24382,7 @@
         <v>3</v>
       </c>
       <c r="R76">
-        <f t="shared" si="2"/>
+        <f>SUM($S76:$V76)</f>
         <v>0</v>
       </c>
       <c r="S76" s="6">
@@ -24107,7 +24467,7 @@
         <v>4</v>
       </c>
       <c r="R77">
-        <f t="shared" si="2"/>
+        <f>SUM($S77:$V77)</f>
         <v>0</v>
       </c>
       <c r="S77" s="10">
@@ -24194,7 +24554,7 @@
         <v>4</v>
       </c>
       <c r="R78">
-        <f t="shared" si="2"/>
+        <f>SUM($S78:$V78)</f>
         <v>12</v>
       </c>
       <c r="S78" s="10">
@@ -24284,7 +24644,7 @@
         <v>4</v>
       </c>
       <c r="R79">
-        <f t="shared" si="2"/>
+        <f>SUM($S79:$V79)</f>
         <v>12</v>
       </c>
       <c r="S79" s="10">
@@ -24374,7 +24734,7 @@
         <v>4</v>
       </c>
       <c r="R80">
-        <f t="shared" si="2"/>
+        <f>SUM($S80:$V80)</f>
         <v>12</v>
       </c>
       <c r="S80" s="10">
@@ -24461,7 +24821,7 @@
         <v>4</v>
       </c>
       <c r="R81">
-        <f t="shared" si="2"/>
+        <f>SUM($S81:$V81)</f>
         <v>16</v>
       </c>
       <c r="S81" s="10">
@@ -24546,7 +24906,7 @@
         <v>4</v>
       </c>
       <c r="R82">
-        <f t="shared" si="2"/>
+        <f>SUM($S82:$V82)</f>
         <v>16</v>
       </c>
       <c r="S82" s="10">
@@ -24631,7 +24991,7 @@
         <v>4</v>
       </c>
       <c r="R83">
-        <f t="shared" si="2"/>
+        <f>SUM($S83:$V83)</f>
         <v>16</v>
       </c>
       <c r="S83" s="10">
@@ -24719,7 +25079,7 @@
         <v>4</v>
       </c>
       <c r="R84">
-        <f t="shared" si="2"/>
+        <f>SUM($S84:$V84)</f>
         <v>16</v>
       </c>
       <c r="S84" s="10">
@@ -24809,7 +25169,7 @@
         <v>4</v>
       </c>
       <c r="R85">
-        <f t="shared" si="2"/>
+        <f>SUM($S85:$V85)</f>
         <v>12</v>
       </c>
       <c r="S85" s="10">
@@ -24899,7 +25259,7 @@
         <v>4</v>
       </c>
       <c r="R86">
-        <f t="shared" si="2"/>
+        <f>SUM($S86:$V86)</f>
         <v>12</v>
       </c>
       <c r="S86" s="10">
@@ -24986,7 +25346,7 @@
         <v>4</v>
       </c>
       <c r="R87">
-        <f t="shared" si="2"/>
+        <f>SUM($S87:$V87)</f>
         <v>12</v>
       </c>
       <c r="S87" s="10">
@@ -25071,7 +25431,7 @@
         <v>4</v>
       </c>
       <c r="R88">
-        <f t="shared" si="2"/>
+        <f>SUM($S88:$V88)</f>
         <v>0</v>
       </c>
       <c r="S88" s="10">
@@ -25158,7 +25518,7 @@
         <v>4</v>
       </c>
       <c r="R89">
-        <f t="shared" si="2"/>
+        <f>SUM($S89:$V89)</f>
         <v>72</v>
       </c>
       <c r="S89">
@@ -25245,7 +25605,7 @@
         <v>4</v>
       </c>
       <c r="R90">
-        <f t="shared" si="2"/>
+        <f>SUM($S90:$V90)</f>
         <v>68</v>
       </c>
       <c r="S90">
@@ -25330,7 +25690,7 @@
         <v>4</v>
       </c>
       <c r="R91">
-        <f t="shared" si="2"/>
+        <f>SUM($S91:$V91)</f>
         <v>83</v>
       </c>
       <c r="S91">
@@ -25415,7 +25775,7 @@
         <v>4</v>
       </c>
       <c r="R92">
-        <f t="shared" si="2"/>
+        <f>SUM($S92:$V92)</f>
         <v>90</v>
       </c>
       <c r="S92">
@@ -25502,7 +25862,7 @@
         <v>3</v>
       </c>
       <c r="R93">
-        <f t="shared" si="2"/>
+        <f>SUM($S93:$V93)</f>
         <v>32</v>
       </c>
       <c r="S93">
@@ -25587,7 +25947,7 @@
         <v>3</v>
       </c>
       <c r="R94">
-        <f t="shared" si="2"/>
+        <f>SUM($S94:$V94)</f>
         <v>32</v>
       </c>
       <c r="S94">
@@ -25672,7 +26032,7 @@
         <v>3</v>
       </c>
       <c r="R95">
-        <f t="shared" si="2"/>
+        <f>SUM($S95:$V95)</f>
         <v>46</v>
       </c>
       <c r="S95">
@@ -25757,7 +26117,7 @@
         <v>3</v>
       </c>
       <c r="R96">
-        <f t="shared" si="2"/>
+        <f>SUM($S96:$V96)</f>
         <v>39</v>
       </c>
       <c r="S96">
@@ -25842,7 +26202,7 @@
         <v>4</v>
       </c>
       <c r="R97">
-        <f t="shared" si="2"/>
+        <f>SUM($S97:$V97)</f>
         <v>6</v>
       </c>
       <c r="S97" s="6">
@@ -25929,7 +26289,7 @@
         <v>4</v>
       </c>
       <c r="R98">
-        <f t="shared" ref="R98:R129" si="3">SUM($S98:$V98)</f>
+        <f>SUM($S98:$V98)</f>
         <v>6</v>
       </c>
       <c r="S98" s="6">
@@ -26014,7 +26374,7 @@
         <v>4</v>
       </c>
       <c r="R99">
-        <f t="shared" si="3"/>
+        <f>SUM($S99:$V99)</f>
         <v>8</v>
       </c>
       <c r="S99" s="6">
@@ -26099,7 +26459,7 @@
         <v>4</v>
       </c>
       <c r="R100">
-        <f t="shared" si="3"/>
+        <f>SUM($S100:$V100)</f>
         <v>6</v>
       </c>
       <c r="S100" s="6">
@@ -26184,7 +26544,7 @@
         <v>4</v>
       </c>
       <c r="R101">
-        <f t="shared" si="3"/>
+        <f>SUM($S101:$V101)</f>
         <v>0</v>
       </c>
       <c r="S101" s="6">
@@ -26269,7 +26629,7 @@
         <v>4</v>
       </c>
       <c r="R102">
-        <f t="shared" si="3"/>
+        <f>SUM($S102:$V102)</f>
         <v>0</v>
       </c>
       <c r="S102" s="6">
@@ -26354,7 +26714,7 @@
         <v>4</v>
       </c>
       <c r="R103">
-        <f t="shared" si="3"/>
+        <f>SUM($S103:$V103)</f>
         <v>0</v>
       </c>
       <c r="S103" s="6">
@@ -26439,7 +26799,7 @@
         <v>4</v>
       </c>
       <c r="R104">
-        <f t="shared" si="3"/>
+        <f>SUM($S104:$V104)</f>
         <v>8</v>
       </c>
       <c r="S104" s="6">
@@ -26524,7 +26884,7 @@
         <v>4</v>
       </c>
       <c r="R105">
-        <f t="shared" si="3"/>
+        <f>SUM($S105:$V105)</f>
         <v>0</v>
       </c>
       <c r="S105" s="6">
@@ -26609,7 +26969,7 @@
         <v>4</v>
       </c>
       <c r="R106">
-        <f t="shared" si="3"/>
+        <f>SUM($S106:$V106)</f>
         <v>0</v>
       </c>
       <c r="S106" s="6">
@@ -26694,7 +27054,7 @@
         <v>4</v>
       </c>
       <c r="R107">
-        <f t="shared" si="3"/>
+        <f>SUM($S107:$V107)</f>
         <v>0</v>
       </c>
       <c r="S107" s="6">
@@ -26779,7 +27139,7 @@
         <v>3</v>
       </c>
       <c r="R108">
-        <f t="shared" si="3"/>
+        <f>SUM($S108:$V108)</f>
         <v>6</v>
       </c>
       <c r="S108" s="6">
@@ -26864,7 +27224,7 @@
         <v>3</v>
       </c>
       <c r="R109">
-        <f t="shared" si="3"/>
+        <f>SUM($S109:$V109)</f>
         <v>0</v>
       </c>
       <c r="S109" s="6">
@@ -26949,7 +27309,7 @@
         <v>3</v>
       </c>
       <c r="R110">
-        <f t="shared" si="3"/>
+        <f>SUM($S110:$V110)</f>
         <v>0</v>
       </c>
       <c r="S110" s="6">
@@ -27034,7 +27394,7 @@
         <v>3</v>
       </c>
       <c r="R111">
-        <f t="shared" si="3"/>
+        <f>SUM($S111:$V111)</f>
         <v>0</v>
       </c>
       <c r="S111" s="6">
@@ -27119,7 +27479,7 @@
         <v>3</v>
       </c>
       <c r="R112">
-        <f t="shared" si="3"/>
+        <f>SUM($S112:$V112)</f>
         <v>0</v>
       </c>
       <c r="S112" s="6">
@@ -27204,7 +27564,7 @@
         <v>3</v>
       </c>
       <c r="R113">
-        <f t="shared" si="3"/>
+        <f>SUM($S113:$V113)</f>
         <v>0</v>
       </c>
       <c r="S113" s="6">
@@ -27289,7 +27649,7 @@
         <v>3</v>
       </c>
       <c r="R114">
-        <f t="shared" si="3"/>
+        <f>SUM($S114:$V114)</f>
         <v>0</v>
       </c>
       <c r="S114" s="6">
@@ -27374,7 +27734,7 @@
         <v>3</v>
       </c>
       <c r="R115">
-        <f t="shared" si="3"/>
+        <f>SUM($S115:$V115)</f>
         <v>0</v>
       </c>
       <c r="S115" s="6">
@@ -27461,7 +27821,7 @@
         <v>3</v>
       </c>
       <c r="R116">
-        <f t="shared" si="3"/>
+        <f>SUM($S116:$V116)</f>
         <v>0</v>
       </c>
       <c r="S116" s="6">
@@ -27549,7 +27909,7 @@
         <v>3</v>
       </c>
       <c r="R117">
-        <f t="shared" si="3"/>
+        <f>SUM($S117:$V117)</f>
         <v>0</v>
       </c>
       <c r="S117" s="6">
@@ -27634,7 +27994,7 @@
         <v>3</v>
       </c>
       <c r="R118">
-        <f t="shared" si="3"/>
+        <f>SUM($S118:$V118)</f>
         <v>0</v>
       </c>
       <c r="S118" s="6">
@@ -27719,7 +28079,7 @@
         <v>3</v>
       </c>
       <c r="R119">
-        <f t="shared" si="3"/>
+        <f>SUM($S119:$V119)</f>
         <v>0</v>
       </c>
       <c r="S119" s="6">
@@ -27806,7 +28166,7 @@
         <v>3</v>
       </c>
       <c r="R120">
-        <f t="shared" si="3"/>
+        <f>SUM($S120:$V120)</f>
         <v>0</v>
       </c>
       <c r="S120" s="6">
@@ -27891,7 +28251,7 @@
         <v>3</v>
       </c>
       <c r="R121">
-        <f t="shared" si="3"/>
+        <f>SUM($S121:$V121)</f>
         <v>0</v>
       </c>
       <c r="S121" s="6">
@@ -27976,7 +28336,7 @@
         <v>3</v>
       </c>
       <c r="R122">
-        <f t="shared" si="3"/>
+        <f>SUM($S122:$V122)</f>
         <v>0</v>
       </c>
       <c r="S122" s="6">
@@ -28061,7 +28421,7 @@
         <v>3</v>
       </c>
       <c r="R123">
-        <f t="shared" si="3"/>
+        <f>SUM($S123:$V123)</f>
         <v>0</v>
       </c>
       <c r="S123" s="6">
@@ -28146,7 +28506,7 @@
         <v>3</v>
       </c>
       <c r="R124">
-        <f t="shared" si="3"/>
+        <f>SUM($S124:$V124)</f>
         <v>0</v>
       </c>
       <c r="S124" s="6">
@@ -28231,7 +28591,7 @@
         <v>3</v>
       </c>
       <c r="R125">
-        <f t="shared" si="3"/>
+        <f>SUM($S125:$V125)</f>
         <v>0</v>
       </c>
       <c r="S125" s="6">
@@ -28316,7 +28676,7 @@
         <v>3</v>
       </c>
       <c r="R126">
-        <f t="shared" si="3"/>
+        <f>SUM($S126:$V126)</f>
         <v>0</v>
       </c>
       <c r="S126" s="18">
@@ -28401,7 +28761,7 @@
         <v>3</v>
       </c>
       <c r="R127">
-        <f t="shared" si="3"/>
+        <f>SUM($S127:$V127)</f>
         <v>0</v>
       </c>
       <c r="S127" s="18">
@@ -28486,7 +28846,7 @@
         <v>3</v>
       </c>
       <c r="R128">
-        <f t="shared" si="3"/>
+        <f>SUM($S128:$V128)</f>
         <v>0</v>
       </c>
       <c r="S128" s="18">
@@ -28576,7 +28936,7 @@
         <v>3</v>
       </c>
       <c r="R129">
-        <f t="shared" si="3"/>
+        <f>SUM($S129:$V129)</f>
         <v>0</v>
       </c>
       <c r="S129">
@@ -28661,7 +29021,7 @@
         <v>4</v>
       </c>
       <c r="R130">
-        <f t="shared" ref="R130:R161" si="4">SUM($S130:$V130)</f>
+        <f>SUM($S130:$V130)</f>
         <v>0</v>
       </c>
       <c r="S130" s="10">
@@ -28748,7 +29108,7 @@
         <v>4</v>
       </c>
       <c r="R131">
-        <f t="shared" si="4"/>
+        <f>SUM($S131:$V131)</f>
         <v>12</v>
       </c>
       <c r="S131" s="10">
@@ -28838,7 +29198,7 @@
         <v>4</v>
       </c>
       <c r="R132">
-        <f t="shared" si="4"/>
+        <f>SUM($S132:$V132)</f>
         <v>32</v>
       </c>
       <c r="S132">
@@ -28925,7 +29285,7 @@
         <v>4</v>
       </c>
       <c r="R133">
-        <f t="shared" si="4"/>
+        <f>SUM($S133:$V133)</f>
         <v>12</v>
       </c>
       <c r="S133" s="10">
@@ -29010,7 +29370,7 @@
         <v>4</v>
       </c>
       <c r="R134">
-        <f t="shared" si="4"/>
+        <f>SUM($S134:$V134)</f>
         <v>87</v>
       </c>
       <c r="S134">
@@ -29095,7 +29455,7 @@
         <v>4</v>
       </c>
       <c r="R135">
-        <f t="shared" si="4"/>
+        <f>SUM($S135:$V135)</f>
         <v>87</v>
       </c>
       <c r="S135">
@@ -29180,7 +29540,7 @@
         <v>4</v>
       </c>
       <c r="R136">
-        <f t="shared" si="4"/>
+        <f>SUM($S136:$V136)</f>
         <v>73</v>
       </c>
       <c r="S136">
@@ -29267,7 +29627,7 @@
         <v>4</v>
       </c>
       <c r="R137">
-        <f t="shared" si="4"/>
+        <f>SUM($S137:$V137)</f>
         <v>70</v>
       </c>
       <c r="S137">
@@ -29352,7 +29712,7 @@
         <v>4</v>
       </c>
       <c r="R138">
-        <f t="shared" si="4"/>
+        <f>SUM($S138:$V138)</f>
         <v>72</v>
       </c>
       <c r="S138">
@@ -29439,7 +29799,7 @@
         <v>4</v>
       </c>
       <c r="R139">
-        <f t="shared" si="4"/>
+        <f>SUM($S139:$V139)</f>
         <v>69</v>
       </c>
       <c r="S139">
@@ -29526,7 +29886,7 @@
         <v>4</v>
       </c>
       <c r="R140">
-        <f t="shared" si="4"/>
+        <f>SUM($S140:$V140)</f>
         <v>82</v>
       </c>
       <c r="S140">
@@ -29611,7 +29971,7 @@
         <v>3</v>
       </c>
       <c r="R141">
-        <f t="shared" si="4"/>
+        <f>SUM($S141:$V141)</f>
         <v>55</v>
       </c>
       <c r="S141">
@@ -29696,7 +30056,7 @@
         <v>3</v>
       </c>
       <c r="R142">
-        <f t="shared" si="4"/>
+        <f>SUM($S142:$V142)</f>
         <v>55</v>
       </c>
       <c r="S142">
@@ -29781,7 +30141,7 @@
         <v>4</v>
       </c>
       <c r="R143">
-        <f t="shared" si="4"/>
+        <f>SUM($S143:$V143)</f>
         <v>12</v>
       </c>
       <c r="S143" s="6">
@@ -29866,7 +30226,7 @@
         <v>4</v>
       </c>
       <c r="R144" s="18">
-        <f t="shared" si="4"/>
+        <f>SUM($S144:$V144)</f>
         <v>8</v>
       </c>
       <c r="S144">
@@ -29950,7 +30310,7 @@
         <v>4</v>
       </c>
       <c r="R145">
-        <f t="shared" si="4"/>
+        <f>SUM($S145:$V145)</f>
         <v>8</v>
       </c>
       <c r="S145" s="6">
@@ -30035,7 +30395,7 @@
         <v>4</v>
       </c>
       <c r="R146">
-        <f t="shared" si="4"/>
+        <f>SUM($S146:$V146)</f>
         <v>8</v>
       </c>
       <c r="S146" s="6">
@@ -30122,7 +30482,7 @@
         <v>4</v>
       </c>
       <c r="R147">
-        <f t="shared" si="4"/>
+        <f>SUM($S147:$V147)</f>
         <v>18</v>
       </c>
       <c r="S147" s="6">
@@ -30207,7 +30567,7 @@
         <v>3</v>
       </c>
       <c r="R148">
-        <f t="shared" si="4"/>
+        <f>SUM($S148:$V148)</f>
         <v>0</v>
       </c>
       <c r="S148" s="6">
@@ -30292,7 +30652,7 @@
         <v>3</v>
       </c>
       <c r="R149">
-        <f t="shared" si="4"/>
+        <f>SUM($S149:$V149)</f>
         <v>0</v>
       </c>
       <c r="S149" s="6">
@@ -30380,7 +30740,7 @@
         <v>3</v>
       </c>
       <c r="R150">
-        <f t="shared" si="4"/>
+        <f>SUM($S150:$V150)</f>
         <v>0</v>
       </c>
       <c r="S150" s="6">
@@ -30417,118 +30777,118 @@
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>11278</v>
+        <v>11275</v>
       </c>
       <c r="B151" t="s">
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>1994</v>
-      </c>
-      <c r="D151" s="3" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D151" t="s">
         <v>67</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151">
         <v>32</v>
       </c>
-      <c r="F151" s="6">
-        <v>43</v>
-      </c>
-      <c r="G151" s="6">
-        <v>87</v>
-      </c>
-      <c r="H151" s="6">
+      <c r="F151">
+        <v>41</v>
+      </c>
+      <c r="G151">
+        <v>83</v>
+      </c>
+      <c r="H151">
         <v>39</v>
       </c>
-      <c r="I151" s="6">
-        <v>70</v>
-      </c>
-      <c r="J151" s="6">
+      <c r="I151">
+        <v>79</v>
+      </c>
+      <c r="J151">
         <v>84</v>
       </c>
-      <c r="K151" s="6">
+      <c r="K151" s="1">
         <v>94</v>
       </c>
-      <c r="L151" s="6">
+      <c r="L151">
         <v>91</v>
       </c>
-      <c r="M151" s="6">
+      <c r="M151">
         <v>37</v>
       </c>
-      <c r="N151" s="6">
+      <c r="N151">
         <v>37</v>
       </c>
-      <c r="O151" s="6">
-        <v>1</v>
-      </c>
-      <c r="P151" s="6">
-        <v>18</v>
-      </c>
-      <c r="Q151" s="6">
+      <c r="O151">
+        <v>1</v>
+      </c>
+      <c r="P151">
+        <v>20</v>
+      </c>
+      <c r="Q151">
         <v>3</v>
       </c>
-      <c r="R151">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S151" s="6">
-        <v>0</v>
-      </c>
-      <c r="T151" s="6">
-        <v>0</v>
-      </c>
-      <c r="U151" s="6">
-        <v>0</v>
-      </c>
-      <c r="V151" s="6">
-        <v>0</v>
-      </c>
-      <c r="W151" s="6">
+      <c r="R151" s="18">
+        <f>SUM($S151:$V151)</f>
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
         <v>15</v>
       </c>
-      <c r="X151" s="6">
+      <c r="X151">
         <v>25</v>
       </c>
-      <c r="Y151" s="6">
+      <c r="Y151">
         <v>0.48</v>
       </c>
-      <c r="Z151" s="6">
+      <c r="Z151">
         <v>0.9</v>
       </c>
-      <c r="AA151" s="6">
-        <v>112781</v>
-      </c>
-      <c r="AB151" s="6">
-        <v>112782</v>
+      <c r="AA151">
+        <v>112751</v>
+      </c>
+      <c r="AC151" s="3" t="s">
+        <v>2295</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>11279</v>
+        <v>11278</v>
       </c>
       <c r="B152" t="s">
         <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E152" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F152" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G152" s="6">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H152" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I152" s="6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J152" s="6">
         <v>84</v>
@@ -30537,13 +30897,13 @@
         <v>94</v>
       </c>
       <c r="L152" s="6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M152" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N152" s="6">
-        <v>28.7</v>
+        <v>37</v>
       </c>
       <c r="O152" s="6">
         <v>1</v>
@@ -30555,7 +30915,7 @@
         <v>3</v>
       </c>
       <c r="R152">
-        <f t="shared" si="4"/>
+        <f>SUM($S152:$V152)</f>
         <v>0</v>
       </c>
       <c r="S152" s="6">
@@ -30577,13 +30937,13 @@
         <v>25</v>
       </c>
       <c r="Y152" s="6">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="Z152" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AA152" s="6">
-        <v>112791</v>
+        <v>112781</v>
       </c>
       <c r="AB152" s="6">
         <v>112782</v>
@@ -30591,31 +30951,31 @@
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>11280</v>
+        <v>11279</v>
       </c>
       <c r="B153" t="s">
         <v>204</v>
       </c>
       <c r="C153" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E153" s="6">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F153" s="6">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G153" s="6">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H153" s="6">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I153" s="6">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J153" s="6">
         <v>84</v>
@@ -30624,13 +30984,13 @@
         <v>94</v>
       </c>
       <c r="L153" s="6">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M153" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N153" s="6">
-        <v>37</v>
+        <v>28.7</v>
       </c>
       <c r="O153" s="6">
         <v>1</v>
@@ -30642,7 +31002,7 @@
         <v>3</v>
       </c>
       <c r="R153">
-        <f t="shared" si="4"/>
+        <f>SUM($S153:$V153)</f>
         <v>0</v>
       </c>
       <c r="S153" s="6">
@@ -30664,159 +31024,159 @@
         <v>25</v>
       </c>
       <c r="Y153" s="6">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="Z153" s="6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AA153" s="6">
-        <v>112801</v>
+        <v>112791</v>
       </c>
       <c r="AB153" s="6">
         <v>112782</v>
       </c>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A154" s="15">
+      <c r="A154" s="3">
+        <v>11280</v>
+      </c>
+      <c r="B154" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E154" s="6">
+        <v>32</v>
+      </c>
+      <c r="F154" s="6">
+        <v>45</v>
+      </c>
+      <c r="G154" s="6">
+        <v>90</v>
+      </c>
+      <c r="H154" s="6">
+        <v>41</v>
+      </c>
+      <c r="I154" s="6">
+        <v>72</v>
+      </c>
+      <c r="J154" s="6">
+        <v>84</v>
+      </c>
+      <c r="K154" s="6">
+        <v>94</v>
+      </c>
+      <c r="L154" s="6">
+        <v>91</v>
+      </c>
+      <c r="M154" s="6">
+        <v>37</v>
+      </c>
+      <c r="N154" s="6">
+        <v>37</v>
+      </c>
+      <c r="O154" s="6">
+        <v>1</v>
+      </c>
+      <c r="P154" s="6">
+        <v>18</v>
+      </c>
+      <c r="Q154" s="6">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <f>SUM($S154:$V154)</f>
+        <v>0</v>
+      </c>
+      <c r="S154" s="6">
+        <v>0</v>
+      </c>
+      <c r="T154" s="6">
+        <v>0</v>
+      </c>
+      <c r="U154" s="6">
+        <v>0</v>
+      </c>
+      <c r="V154" s="6">
+        <v>0</v>
+      </c>
+      <c r="W154" s="6">
+        <v>15</v>
+      </c>
+      <c r="X154" s="6">
+        <v>25</v>
+      </c>
+      <c r="Y154" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="Z154" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AA154" s="6">
+        <v>112801</v>
+      </c>
+      <c r="AB154" s="6">
+        <v>112782</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A155" s="15">
         <v>11289</v>
-      </c>
-      <c r="B154" t="s">
-        <v>209</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E154" s="17">
-        <v>15</v>
-      </c>
-      <c r="F154" s="17">
-        <v>25</v>
-      </c>
-      <c r="G154" s="17">
-        <v>78</v>
-      </c>
-      <c r="H154" s="17">
-        <v>30</v>
-      </c>
-      <c r="I154" s="17">
-        <v>0</v>
-      </c>
-      <c r="J154" s="18">
-        <v>0</v>
-      </c>
-      <c r="K154" s="18">
-        <v>102</v>
-      </c>
-      <c r="L154" s="18">
-        <v>45</v>
-      </c>
-      <c r="M154" s="18">
-        <v>49</v>
-      </c>
-      <c r="N154" s="17">
-        <v>18</v>
-      </c>
-      <c r="O154" s="18">
-        <v>1</v>
-      </c>
-      <c r="P154" s="17">
-        <v>18</v>
-      </c>
-      <c r="Q154" s="18">
-        <v>3</v>
-      </c>
-      <c r="R154">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S154" s="18">
-        <v>0</v>
-      </c>
-      <c r="T154" s="18">
-        <v>0</v>
-      </c>
-      <c r="U154" s="18">
-        <v>0</v>
-      </c>
-      <c r="V154" s="18">
-        <v>0</v>
-      </c>
-      <c r="W154" s="18">
-        <v>15</v>
-      </c>
-      <c r="X154" s="18">
-        <v>20</v>
-      </c>
-      <c r="Y154" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="Z154" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="AA154">
-        <v>112891</v>
-      </c>
-      <c r="AC154" s="3" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
-        <v>11290</v>
       </c>
       <c r="B155" t="s">
         <v>209</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E155" s="18">
+      <c r="E155" s="17">
         <v>15</v>
       </c>
-      <c r="F155" s="18">
-        <v>23</v>
-      </c>
-      <c r="G155" s="18">
-        <v>80</v>
-      </c>
-      <c r="H155" s="18">
+      <c r="F155" s="17">
+        <v>25</v>
+      </c>
+      <c r="G155" s="17">
+        <v>78</v>
+      </c>
+      <c r="H155" s="17">
         <v>30</v>
       </c>
-      <c r="I155" s="18">
+      <c r="I155" s="17">
         <v>0</v>
       </c>
       <c r="J155" s="18">
         <v>0</v>
       </c>
-      <c r="K155" s="19">
+      <c r="K155" s="18">
         <v>102</v>
       </c>
       <c r="L155" s="18">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M155" s="18">
-        <v>48</v>
-      </c>
-      <c r="N155" s="18">
+        <v>49</v>
+      </c>
+      <c r="N155" s="17">
         <v>18</v>
       </c>
       <c r="O155" s="18">
         <v>1</v>
       </c>
-      <c r="P155" s="18">
-        <v>19</v>
+      <c r="P155" s="17">
+        <v>18</v>
       </c>
       <c r="Q155" s="18">
         <v>3</v>
       </c>
       <c r="R155">
-        <f t="shared" si="4"/>
+        <f>SUM($S155:$V155)</f>
         <v>0</v>
       </c>
       <c r="S155" s="18">
@@ -30835,7 +31195,7 @@
         <v>15</v>
       </c>
       <c r="X155" s="18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y155" s="18">
         <v>0.6</v>
@@ -30844,7 +31204,7 @@
         <v>0.5</v>
       </c>
       <c r="AA155">
-        <v>112901</v>
+        <v>112891</v>
       </c>
       <c r="AC155" s="3" t="s">
         <v>2062</v>
@@ -30852,13 +31212,13 @@
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>11293</v>
+        <v>11290</v>
       </c>
       <c r="B156" t="s">
         <v>209</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>68</v>
@@ -30867,10 +31227,10 @@
         <v>15</v>
       </c>
       <c r="F156" s="18">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G156" s="18">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H156" s="18">
         <v>30</v>
@@ -30882,13 +31242,13 @@
         <v>0</v>
       </c>
       <c r="K156" s="19">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L156" s="18">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M156" s="18">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N156" s="18">
         <v>18</v>
@@ -30897,13 +31257,13 @@
         <v>1</v>
       </c>
       <c r="P156" s="18">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q156" s="18">
         <v>3</v>
       </c>
       <c r="R156">
-        <f t="shared" si="4"/>
+        <f>SUM($S156:$V156)</f>
         <v>0</v>
       </c>
       <c r="S156" s="18">
@@ -30931,7 +31291,7 @@
         <v>0.5</v>
       </c>
       <c r="AA156">
-        <v>112931</v>
+        <v>112901</v>
       </c>
       <c r="AC156" s="3" t="s">
         <v>2062</v>
@@ -30939,206 +31299,208 @@
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>11299</v>
+        <v>11293</v>
       </c>
       <c r="B157" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C157" t="s">
-        <v>2045</v>
-      </c>
-      <c r="D157" t="s">
-        <v>2046</v>
-      </c>
-      <c r="E157">
-        <v>88</v>
-      </c>
-      <c r="F157">
-        <v>108</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>110</v>
-      </c>
-      <c r="I157">
-        <v>115</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157" s="1">
-        <v>97</v>
-      </c>
-      <c r="L157">
-        <v>56</v>
-      </c>
-      <c r="M157">
-        <v>47</v>
-      </c>
-      <c r="N157">
-        <v>32</v>
-      </c>
-      <c r="O157">
+        <v>209</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E157" s="18">
+        <v>15</v>
+      </c>
+      <c r="F157" s="18">
+        <v>25</v>
+      </c>
+      <c r="G157" s="18">
+        <v>77</v>
+      </c>
+      <c r="H157" s="18">
+        <v>30</v>
+      </c>
+      <c r="I157" s="18">
+        <v>0</v>
+      </c>
+      <c r="J157" s="18">
+        <v>0</v>
+      </c>
+      <c r="K157" s="19">
+        <v>101</v>
+      </c>
+      <c r="L157" s="18">
+        <v>45</v>
+      </c>
+      <c r="M157" s="18">
+        <v>49</v>
+      </c>
+      <c r="N157" s="18">
+        <v>18</v>
+      </c>
+      <c r="O157" s="18">
+        <v>1</v>
+      </c>
+      <c r="P157" s="18">
+        <v>8</v>
+      </c>
+      <c r="Q157" s="18">
         <v>3</v>
       </c>
-      <c r="P157">
-        <v>20</v>
-      </c>
-      <c r="Q157">
-        <v>4</v>
-      </c>
       <c r="R157">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="S157">
-        <v>8</v>
-      </c>
-      <c r="T157">
-        <v>8</v>
-      </c>
-      <c r="U157">
-        <v>8</v>
-      </c>
-      <c r="V157">
-        <v>8</v>
-      </c>
-      <c r="W157">
-        <v>110</v>
-      </c>
-      <c r="X157">
-        <v>190</v>
-      </c>
-      <c r="Y157">
-        <v>4.5</v>
-      </c>
-      <c r="Z157">
-        <v>8.5</v>
+        <f>SUM($S157:$V157)</f>
+        <v>0</v>
+      </c>
+      <c r="S157" s="18">
+        <v>0</v>
+      </c>
+      <c r="T157" s="18">
+        <v>0</v>
+      </c>
+      <c r="U157" s="18">
+        <v>0</v>
+      </c>
+      <c r="V157" s="18">
+        <v>0</v>
+      </c>
+      <c r="W157" s="18">
+        <v>15</v>
+      </c>
+      <c r="X157" s="18">
+        <v>25</v>
+      </c>
+      <c r="Y157" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="Z157" s="18">
+        <v>0.5</v>
       </c>
       <c r="AA157">
-        <v>102991</v>
-      </c>
-      <c r="AB157" s="18">
-        <v>112992</v>
+        <v>112931</v>
+      </c>
+      <c r="AC157" s="3" t="s">
+        <v>2062</v>
       </c>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>11301</v>
+        <v>11299</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>2044</v>
       </c>
       <c r="C158" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E158" s="6">
+        <v>2045</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E158">
+        <v>88</v>
+      </c>
+      <c r="F158">
+        <v>108</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>110</v>
+      </c>
+      <c r="I158">
+        <v>115</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158" s="1">
+        <v>97</v>
+      </c>
+      <c r="L158">
+        <v>56</v>
+      </c>
+      <c r="M158">
+        <v>47</v>
+      </c>
+      <c r="N158">
         <v>32</v>
       </c>
-      <c r="F158" s="6">
-        <v>40</v>
-      </c>
-      <c r="G158" s="6">
-        <v>87</v>
-      </c>
-      <c r="H158" s="6">
-        <v>39</v>
-      </c>
-      <c r="I158" s="6">
-        <v>62</v>
-      </c>
-      <c r="J158" s="6">
-        <v>79</v>
-      </c>
-      <c r="K158" s="6">
-        <v>94</v>
-      </c>
-      <c r="L158" s="6">
-        <v>90</v>
-      </c>
-      <c r="M158" s="6">
+      <c r="O158">
+        <v>3</v>
+      </c>
+      <c r="P158">
+        <v>20</v>
+      </c>
+      <c r="Q158">
+        <v>4</v>
+      </c>
+      <c r="R158">
+        <f>SUM($S158:$V158)</f>
         <v>32</v>
       </c>
-      <c r="N158" s="6">
-        <v>37</v>
-      </c>
-      <c r="O158" s="6">
-        <v>1</v>
-      </c>
-      <c r="P158" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q158" s="6">
-        <v>3</v>
-      </c>
-      <c r="R158">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S158" s="6">
-        <v>0</v>
-      </c>
-      <c r="T158" s="6">
-        <v>0</v>
-      </c>
-      <c r="U158" s="6">
-        <v>0</v>
-      </c>
-      <c r="V158" s="6">
-        <v>0</v>
-      </c>
-      <c r="W158" s="6">
-        <v>15</v>
-      </c>
-      <c r="X158" s="6">
-        <v>25</v>
-      </c>
-      <c r="Y158" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="Z158" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="AA158" s="6">
-        <v>113011</v>
-      </c>
-      <c r="AB158" s="6"/>
+      <c r="S158">
+        <v>8</v>
+      </c>
+      <c r="T158">
+        <v>8</v>
+      </c>
+      <c r="U158">
+        <v>8</v>
+      </c>
+      <c r="V158">
+        <v>8</v>
+      </c>
+      <c r="W158">
+        <v>110</v>
+      </c>
+      <c r="X158">
+        <v>190</v>
+      </c>
+      <c r="Y158">
+        <v>4.5</v>
+      </c>
+      <c r="Z158">
+        <v>8.5</v>
+      </c>
+      <c r="AA158">
+        <v>102991</v>
+      </c>
+      <c r="AB158" s="18">
+        <v>112992</v>
+      </c>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>11306</v>
+        <v>11301</v>
       </c>
       <c r="B159" t="s">
         <v>204</v>
       </c>
       <c r="C159" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E159" s="6">
         <v>32</v>
       </c>
       <c r="F159" s="6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G159" s="6">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H159" s="6">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I159" s="6">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J159" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K159" s="6">
         <v>94</v>
@@ -31147,22 +31509,22 @@
         <v>90</v>
       </c>
       <c r="M159" s="6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N159" s="6">
-        <v>35.799999999999997</v>
+        <v>37</v>
       </c>
       <c r="O159" s="6">
         <v>1</v>
       </c>
       <c r="P159" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q159" s="6">
         <v>3</v>
       </c>
       <c r="R159">
-        <f t="shared" si="4"/>
+        <f>SUM($S159:$V159)</f>
         <v>0</v>
       </c>
       <c r="S159" s="6">
@@ -31184,70 +31546,70 @@
         <v>25</v>
       </c>
       <c r="Y159" s="6">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="Z159" s="6">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AA159" s="6">
-        <v>113061</v>
+        <v>113011</v>
       </c>
       <c r="AB159" s="6"/>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>11316</v>
+        <v>11306</v>
       </c>
       <c r="B160" t="s">
         <v>204</v>
       </c>
       <c r="C160" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E160" s="6">
         <v>32</v>
       </c>
       <c r="F160" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G160" s="6">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H160" s="6">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I160" s="6">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J160" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K160" s="6">
         <v>94</v>
       </c>
       <c r="L160" s="6">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M160" s="6">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N160" s="6">
-        <v>41.7</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="O160" s="6">
         <v>1</v>
       </c>
       <c r="P160" s="6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q160" s="6">
         <v>3</v>
       </c>
       <c r="R160">
-        <f t="shared" si="4"/>
+        <f>SUM($S160:$V160)</f>
         <v>0</v>
       </c>
       <c r="S160" s="6">
@@ -31266,73 +31628,73 @@
         <v>15</v>
       </c>
       <c r="X160" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y160" s="6">
         <v>0.5</v>
       </c>
       <c r="Z160" s="6">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AA160" s="6">
-        <v>113161</v>
+        <v>113061</v>
       </c>
       <c r="AB160" s="6"/>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>11323</v>
+        <v>11316</v>
       </c>
       <c r="B161" t="s">
         <v>204</v>
       </c>
       <c r="C161" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E161" s="6">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F161" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G161" s="6">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H161" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I161" s="6">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J161" s="6">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K161" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L161" s="6">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M161" s="6">
         <v>26</v>
       </c>
       <c r="N161" s="6">
-        <v>42.5</v>
+        <v>41.7</v>
       </c>
       <c r="O161" s="6">
         <v>1</v>
       </c>
       <c r="P161" s="6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Q161" s="6">
         <v>3</v>
       </c>
       <c r="R161">
-        <f t="shared" si="4"/>
+        <f>SUM($S161:$V161)</f>
         <v>0</v>
       </c>
       <c r="S161" s="6">
@@ -31348,10 +31710,10 @@
         <v>0</v>
       </c>
       <c r="W161" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X161" s="6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y161" s="6">
         <v>0.5</v>
@@ -31360,64 +31722,64 @@
         <v>0.9</v>
       </c>
       <c r="AA161" s="6">
-        <v>113231</v>
+        <v>113161</v>
       </c>
       <c r="AB161" s="6"/>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>11335</v>
+        <v>11323</v>
       </c>
       <c r="B162" t="s">
         <v>204</v>
       </c>
       <c r="C162" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E162" s="6">
         <v>39</v>
       </c>
       <c r="F162" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G162" s="6">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H162" s="6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I162" s="6">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="J162" s="6">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K162" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L162" s="6">
         <v>102</v>
       </c>
       <c r="M162" s="6">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N162" s="6">
-        <v>41.6</v>
+        <v>42.5</v>
       </c>
       <c r="O162" s="6">
         <v>1</v>
       </c>
       <c r="P162" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q162" s="6">
         <v>3</v>
       </c>
       <c r="R162">
-        <f t="shared" ref="R162:R176" si="5">SUM($S162:$V162)</f>
+        <f>SUM($S162:$V162)</f>
         <v>0</v>
       </c>
       <c r="S162" s="6">
@@ -31439,242 +31801,242 @@
         <v>25</v>
       </c>
       <c r="Y162" s="6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Z162" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AA162" s="6">
-        <v>113351</v>
+        <v>113231</v>
       </c>
       <c r="AB162" s="6"/>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>11339</v>
+        <v>11335</v>
       </c>
       <c r="B163" t="s">
-        <v>21</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D163" t="s">
-        <v>71</v>
-      </c>
-      <c r="E163">
-        <v>80</v>
-      </c>
-      <c r="F163">
+        <v>204</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E163" s="6">
+        <v>39</v>
+      </c>
+      <c r="F163" s="6">
+        <v>50</v>
+      </c>
+      <c r="G163" s="6">
+        <v>93</v>
+      </c>
+      <c r="H163" s="6">
         <v>40</v>
       </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>84</v>
-      </c>
-      <c r="I163">
-        <v>73</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
+      <c r="I163" s="6">
+        <v>55</v>
+      </c>
+      <c r="J163" s="6">
+        <v>74</v>
+      </c>
+      <c r="K163" s="6">
+        <v>94</v>
+      </c>
+      <c r="L163" s="6">
         <v>102</v>
       </c>
-      <c r="L163">
-        <v>58</v>
-      </c>
-      <c r="M163">
-        <v>72</v>
-      </c>
-      <c r="N163">
-        <v>30</v>
-      </c>
-      <c r="O163">
-        <v>1</v>
-      </c>
-      <c r="P163">
-        <v>9</v>
-      </c>
-      <c r="Q163">
-        <v>4</v>
+      <c r="M163" s="6">
+        <v>42</v>
+      </c>
+      <c r="N163" s="6">
+        <v>41.6</v>
+      </c>
+      <c r="O163" s="6">
+        <v>1</v>
+      </c>
+      <c r="P163" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q163" s="6">
+        <v>3</v>
       </c>
       <c r="R163">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="S163">
-        <v>16</v>
-      </c>
-      <c r="T163">
+        <f>SUM($S163:$V163)</f>
+        <v>0</v>
+      </c>
+      <c r="S163" s="6">
+        <v>0</v>
+      </c>
+      <c r="T163" s="6">
+        <v>0</v>
+      </c>
+      <c r="U163" s="6">
+        <v>0</v>
+      </c>
+      <c r="V163" s="6">
+        <v>0</v>
+      </c>
+      <c r="W163" s="6">
         <v>20</v>
       </c>
-      <c r="U163">
-        <v>30</v>
-      </c>
-      <c r="V163">
-        <v>16</v>
-      </c>
-      <c r="W163" s="6">
-        <v>70</v>
-      </c>
       <c r="X163" s="6">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="Y163" s="6">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="Z163" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AA163">
-        <v>113391</v>
-      </c>
-      <c r="AB163">
-        <v>113392</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AA163" s="6">
+        <v>113351</v>
+      </c>
+      <c r="AB163" s="6"/>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>11342</v>
+        <v>11339</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
-      </c>
-      <c r="C164" t="s">
-        <v>2002</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E164" s="6">
-        <v>35</v>
-      </c>
-      <c r="F164" s="6">
-        <v>45</v>
-      </c>
-      <c r="G164" s="6">
-        <v>78</v>
-      </c>
-      <c r="H164" s="6">
+        <v>21</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D164" t="s">
+        <v>71</v>
+      </c>
+      <c r="E164">
+        <v>80</v>
+      </c>
+      <c r="F164">
         <v>40</v>
       </c>
-      <c r="I164" s="6">
-        <v>86</v>
-      </c>
-      <c r="J164" s="6">
-        <v>125</v>
-      </c>
-      <c r="K164" s="6">
-        <v>94</v>
-      </c>
-      <c r="L164" s="6">
-        <v>86</v>
-      </c>
-      <c r="M164" s="6">
-        <v>43</v>
-      </c>
-      <c r="N164" s="6">
-        <v>35</v>
-      </c>
-      <c r="O164" s="6">
-        <v>1</v>
-      </c>
-      <c r="P164" s="6">
-        <v>22</v>
-      </c>
-      <c r="Q164" s="6">
-        <v>3</v>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>84</v>
+      </c>
+      <c r="I164">
+        <v>73</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>102</v>
+      </c>
+      <c r="L164">
+        <v>58</v>
+      </c>
+      <c r="M164">
+        <v>72</v>
+      </c>
+      <c r="N164">
+        <v>30</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164">
+        <v>9</v>
+      </c>
+      <c r="Q164">
+        <v>4</v>
       </c>
       <c r="R164">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S164" s="6">
-        <v>0</v>
-      </c>
-      <c r="T164" s="6">
-        <v>0</v>
-      </c>
-      <c r="U164" s="6">
-        <v>0</v>
-      </c>
-      <c r="V164" s="6">
-        <v>0</v>
+        <f>SUM($S164:$V164)</f>
+        <v>82</v>
+      </c>
+      <c r="S164">
+        <v>16</v>
+      </c>
+      <c r="T164">
+        <v>20</v>
+      </c>
+      <c r="U164">
+        <v>30</v>
+      </c>
+      <c r="V164">
+        <v>16</v>
       </c>
       <c r="W164" s="6">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="X164" s="6">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="Y164" s="6">
-        <v>0.48</v>
+        <v>2.6</v>
       </c>
       <c r="Z164" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="AA164" s="6">
-        <v>113421</v>
-      </c>
-      <c r="AB164" s="6"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA164">
+        <v>113391</v>
+      </c>
+      <c r="AB164">
+        <v>113392</v>
+      </c>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>11344</v>
+        <v>11342</v>
       </c>
       <c r="B165" t="s">
         <v>204</v>
       </c>
       <c r="C165" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E165" s="6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F165" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G165" s="6">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H165" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I165" s="6">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J165" s="6">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K165" s="6">
         <v>94</v>
       </c>
       <c r="L165" s="6">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M165" s="6">
         <v>43</v>
       </c>
       <c r="N165" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O165" s="6">
         <v>1</v>
       </c>
       <c r="P165" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q165" s="6">
         <v>3</v>
       </c>
       <c r="R165">
-        <f t="shared" si="5"/>
+        <f>SUM($S165:$V165)</f>
         <v>0</v>
       </c>
       <c r="S165" s="6">
@@ -31702,892 +32064,890 @@
         <v>0.9</v>
       </c>
       <c r="AA165" s="6">
+        <v>113421</v>
+      </c>
+      <c r="AB165" s="6"/>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>11344</v>
+      </c>
+      <c r="B166" t="s">
+        <v>204</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E166" s="6">
+        <v>32</v>
+      </c>
+      <c r="F166" s="6">
+        <v>43</v>
+      </c>
+      <c r="G166" s="6">
+        <v>79</v>
+      </c>
+      <c r="H166" s="6">
+        <v>39</v>
+      </c>
+      <c r="I166" s="6">
+        <v>83</v>
+      </c>
+      <c r="J166" s="6">
+        <v>115</v>
+      </c>
+      <c r="K166" s="6">
+        <v>94</v>
+      </c>
+      <c r="L166" s="6">
+        <v>91</v>
+      </c>
+      <c r="M166" s="6">
+        <v>43</v>
+      </c>
+      <c r="N166" s="6">
+        <v>37</v>
+      </c>
+      <c r="O166" s="6">
+        <v>1</v>
+      </c>
+      <c r="P166" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q166" s="6">
+        <v>3</v>
+      </c>
+      <c r="R166">
+        <f>SUM($S166:$V166)</f>
+        <v>0</v>
+      </c>
+      <c r="S166" s="6">
+        <v>0</v>
+      </c>
+      <c r="T166" s="6">
+        <v>0</v>
+      </c>
+      <c r="U166" s="6">
+        <v>0</v>
+      </c>
+      <c r="V166" s="6">
+        <v>0</v>
+      </c>
+      <c r="W166" s="6">
+        <v>15</v>
+      </c>
+      <c r="X166" s="6">
+        <v>25</v>
+      </c>
+      <c r="Y166" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="Z166" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AA166" s="6">
         <v>113441</v>
       </c>
-      <c r="AB165" s="6"/>
-    </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A166" s="15">
+      <c r="AB166" s="6"/>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A167" s="15">
         <v>11351</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>209</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="C167" s="16" t="s">
         <v>2066</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D167" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E166" s="17">
+      <c r="E167" s="17">
         <v>12</v>
       </c>
-      <c r="F166" s="17">
+      <c r="F167" s="17">
         <v>22</v>
       </c>
-      <c r="G166" s="17">
+      <c r="G167" s="17">
         <v>67</v>
       </c>
-      <c r="H166" s="17">
+      <c r="H167" s="17">
         <v>25</v>
       </c>
-      <c r="I166" s="17">
-        <v>0</v>
-      </c>
-      <c r="J166" s="18">
-        <v>0</v>
-      </c>
-      <c r="K166" s="18">
+      <c r="I167" s="17">
+        <v>0</v>
+      </c>
+      <c r="J167" s="18">
+        <v>0</v>
+      </c>
+      <c r="K167" s="18">
         <v>102</v>
       </c>
-      <c r="L166" s="18">
+      <c r="L167" s="18">
         <v>68</v>
       </c>
-      <c r="M166" s="18">
+      <c r="M167" s="18">
         <v>28</v>
       </c>
-      <c r="N166" s="17">
+      <c r="N167" s="17">
         <v>25</v>
       </c>
-      <c r="O166" s="18">
-        <v>1</v>
-      </c>
-      <c r="P166" s="17">
+      <c r="O167" s="18">
+        <v>1</v>
+      </c>
+      <c r="P167" s="17">
         <v>10</v>
       </c>
-      <c r="Q166" s="18">
+      <c r="Q167" s="18">
         <v>3</v>
       </c>
-      <c r="R166">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S166" s="18">
-        <v>0</v>
-      </c>
-      <c r="T166" s="18">
-        <v>0</v>
-      </c>
-      <c r="U166" s="18">
-        <v>0</v>
-      </c>
-      <c r="V166" s="18">
-        <v>0</v>
-      </c>
-      <c r="W166" s="18">
+      <c r="R167">
+        <f>SUM($S167:$V167)</f>
+        <v>0</v>
+      </c>
+      <c r="S167" s="18">
+        <v>0</v>
+      </c>
+      <c r="T167" s="18">
+        <v>0</v>
+      </c>
+      <c r="U167" s="18">
+        <v>0</v>
+      </c>
+      <c r="V167" s="18">
+        <v>0</v>
+      </c>
+      <c r="W167" s="18">
         <v>10</v>
       </c>
-      <c r="X166" s="18">
+      <c r="X167" s="18">
         <v>15</v>
       </c>
-      <c r="Y166" s="18">
+      <c r="Y167" s="18">
         <v>0.5</v>
       </c>
-      <c r="Z166" s="18">
+      <c r="Z167" s="18">
         <v>0.5</v>
       </c>
-      <c r="AA166" s="6">
+      <c r="AA167" s="6">
         <v>113511</v>
       </c>
-      <c r="AC166" s="3" t="s">
+      <c r="AC167" s="3" t="s">
         <v>2062</v>
-      </c>
-    </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
-        <v>11362</v>
-      </c>
-      <c r="B167" t="s">
-        <v>210</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E167" s="6">
-        <v>84</v>
-      </c>
-      <c r="F167" s="6">
-        <v>115</v>
-      </c>
-      <c r="G167" s="6">
-        <v>0</v>
-      </c>
-      <c r="H167" s="6">
-        <v>90</v>
-      </c>
-      <c r="I167" s="6">
-        <v>95</v>
-      </c>
-      <c r="J167" s="6">
-        <v>0</v>
-      </c>
-      <c r="K167" s="6">
-        <v>101</v>
-      </c>
-      <c r="L167" s="6">
-        <v>69</v>
-      </c>
-      <c r="M167" s="6">
-        <v>45</v>
-      </c>
-      <c r="N167" s="6">
-        <v>33</v>
-      </c>
-      <c r="O167" s="6">
-        <v>3</v>
-      </c>
-      <c r="P167" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q167" s="6">
-        <v>4</v>
-      </c>
-      <c r="R167">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="S167" s="6">
-        <v>3</v>
-      </c>
-      <c r="T167" s="6">
-        <v>3</v>
-      </c>
-      <c r="U167" s="6">
-        <v>3</v>
-      </c>
-      <c r="V167" s="6">
-        <v>3</v>
-      </c>
-      <c r="W167" s="6">
-        <v>90</v>
-      </c>
-      <c r="X167" s="6">
-        <v>130</v>
-      </c>
-      <c r="Y167" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="Z167" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="AA167" s="6">
-        <v>113621</v>
-      </c>
-      <c r="AB167" s="6">
-        <v>113622</v>
       </c>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>11372</v>
+        <v>11362</v>
       </c>
       <c r="B168" t="s">
-        <v>204</v>
-      </c>
-      <c r="C168" t="s">
-        <v>2004</v>
+        <v>210</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>2022</v>
       </c>
       <c r="D168" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E168" s="6">
+        <v>84</v>
+      </c>
+      <c r="F168" s="6">
+        <v>115</v>
+      </c>
+      <c r="G168" s="6">
+        <v>0</v>
+      </c>
+      <c r="H168" s="6">
+        <v>90</v>
+      </c>
+      <c r="I168" s="6">
+        <v>95</v>
+      </c>
+      <c r="J168" s="6">
+        <v>0</v>
+      </c>
+      <c r="K168" s="6">
+        <v>101</v>
+      </c>
+      <c r="L168" s="6">
+        <v>69</v>
+      </c>
+      <c r="M168" s="6">
+        <v>45</v>
+      </c>
+      <c r="N168" s="6">
+        <v>33</v>
+      </c>
+      <c r="O168" s="6">
         <v>3</v>
       </c>
-      <c r="E168" s="6">
-        <v>36</v>
-      </c>
-      <c r="F168" s="6">
-        <v>40</v>
-      </c>
-      <c r="G168" s="6">
-        <v>93</v>
-      </c>
-      <c r="H168" s="6">
-        <v>38</v>
-      </c>
-      <c r="I168" s="6">
-        <v>75</v>
-      </c>
-      <c r="J168" s="6">
-        <v>84</v>
-      </c>
-      <c r="K168" s="6">
-        <v>94</v>
-      </c>
-      <c r="L168" s="6">
+      <c r="P168" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q168" s="6">
+        <v>4</v>
+      </c>
+      <c r="R168">
+        <f>SUM($S168:$V168)</f>
+        <v>12</v>
+      </c>
+      <c r="S168" s="6">
+        <v>3</v>
+      </c>
+      <c r="T168" s="6">
+        <v>3</v>
+      </c>
+      <c r="U168" s="6">
+        <v>3</v>
+      </c>
+      <c r="V168" s="6">
+        <v>3</v>
+      </c>
+      <c r="W168" s="6">
         <v>90</v>
       </c>
-      <c r="M168" s="6">
-        <v>21</v>
-      </c>
-      <c r="N168" s="6">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="O168" s="6">
-        <v>1</v>
-      </c>
-      <c r="P168" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q168" s="6">
-        <v>3</v>
-      </c>
-      <c r="R168">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S168" s="6">
-        <v>0</v>
-      </c>
-      <c r="T168" s="6">
-        <v>0</v>
-      </c>
-      <c r="U168" s="6">
-        <v>0</v>
-      </c>
-      <c r="V168" s="6">
-        <v>0</v>
-      </c>
-      <c r="W168" s="6">
-        <v>15</v>
-      </c>
       <c r="X168" s="6">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="Y168" s="6">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z168" s="6">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="AA168" s="6">
-        <v>113721</v>
-      </c>
-      <c r="AB168" s="6"/>
+        <v>113621</v>
+      </c>
+      <c r="AB168" s="6">
+        <v>113622</v>
+      </c>
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>11380</v>
+        <v>11372</v>
       </c>
       <c r="B169" t="s">
-        <v>207</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>1876</v>
+        <v>204</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2004</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E169" s="10">
-        <v>92</v>
-      </c>
-      <c r="F169" s="10">
-        <v>128</v>
-      </c>
-      <c r="G169" s="10">
-        <v>0</v>
-      </c>
-      <c r="H169" s="10">
-        <v>115</v>
-      </c>
-      <c r="I169" s="10">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="E169" s="6">
+        <v>36</v>
+      </c>
+      <c r="F169" s="6">
+        <v>40</v>
+      </c>
+      <c r="G169" s="6">
+        <v>93</v>
+      </c>
+      <c r="H169" s="6">
+        <v>38</v>
+      </c>
+      <c r="I169" s="6">
+        <v>75</v>
       </c>
       <c r="J169" s="6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K169" s="6">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L169" s="6">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="M169" s="6">
-        <v>45</v>
-      </c>
-      <c r="N169" s="10">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="N169" s="6">
+        <v>36.700000000000003</v>
       </c>
       <c r="O169" s="6">
+        <v>1</v>
+      </c>
+      <c r="P169" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q169" s="6">
         <v>3</v>
       </c>
-      <c r="P169" s="10">
-        <v>9</v>
-      </c>
-      <c r="Q169" s="6">
-        <v>4</v>
-      </c>
       <c r="R169">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S169" s="10">
-        <v>0</v>
-      </c>
-      <c r="T169" s="10">
-        <v>0</v>
-      </c>
-      <c r="U169" s="10">
-        <v>0</v>
-      </c>
-      <c r="V169" s="10">
+        <f>SUM($S169:$V169)</f>
+        <v>0</v>
+      </c>
+      <c r="S169" s="6">
+        <v>0</v>
+      </c>
+      <c r="T169" s="6">
+        <v>0</v>
+      </c>
+      <c r="U169" s="6">
+        <v>0</v>
+      </c>
+      <c r="V169" s="6">
         <v>0</v>
       </c>
       <c r="W169" s="6">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="X169" s="6">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="Y169" s="6">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="Z169" s="6">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="AA169" s="6">
-        <v>113801</v>
-      </c>
-      <c r="AB169" s="6">
-        <v>113802</v>
-      </c>
+        <v>113721</v>
+      </c>
+      <c r="AB169" s="6"/>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>11408</v>
+        <v>11380</v>
       </c>
       <c r="B170" t="s">
-        <v>209</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>2067</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E170" s="18">
-        <v>17</v>
-      </c>
-      <c r="F170" s="18">
-        <v>26</v>
-      </c>
-      <c r="G170" s="18">
-        <v>89</v>
-      </c>
-      <c r="H170" s="18">
-        <v>32</v>
-      </c>
-      <c r="I170" s="18">
-        <v>0</v>
-      </c>
-      <c r="J170" s="18">
-        <v>0</v>
-      </c>
-      <c r="K170" s="19">
-        <v>100</v>
-      </c>
-      <c r="L170" s="18">
-        <v>47</v>
-      </c>
-      <c r="M170" s="18">
-        <v>47</v>
-      </c>
-      <c r="N170" s="18">
-        <v>21</v>
-      </c>
-      <c r="O170" s="18">
-        <v>1</v>
-      </c>
-      <c r="P170" s="18">
-        <v>20</v>
-      </c>
-      <c r="Q170" s="18">
+        <v>207</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="10">
+        <v>92</v>
+      </c>
+      <c r="F170" s="10">
+        <v>128</v>
+      </c>
+      <c r="G170" s="10">
+        <v>0</v>
+      </c>
+      <c r="H170" s="10">
+        <v>115</v>
+      </c>
+      <c r="I170" s="10">
+        <v>80</v>
+      </c>
+      <c r="J170" s="6">
+        <v>0</v>
+      </c>
+      <c r="K170" s="6">
+        <v>102</v>
+      </c>
+      <c r="L170" s="6">
+        <v>48</v>
+      </c>
+      <c r="M170" s="6">
+        <v>45</v>
+      </c>
+      <c r="N170" s="10">
+        <v>23</v>
+      </c>
+      <c r="O170" s="6">
         <v>3</v>
       </c>
+      <c r="P170" s="10">
+        <v>9</v>
+      </c>
+      <c r="Q170" s="6">
+        <v>4</v>
+      </c>
       <c r="R170">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S170" s="18">
-        <v>0</v>
-      </c>
-      <c r="T170" s="18">
-        <v>0</v>
-      </c>
-      <c r="U170" s="18">
-        <v>0</v>
-      </c>
-      <c r="V170" s="18">
-        <v>0</v>
-      </c>
-      <c r="W170" s="18">
-        <v>20</v>
-      </c>
-      <c r="X170" s="18">
-        <v>25</v>
-      </c>
-      <c r="Y170" s="18">
-        <v>0.64</v>
-      </c>
-      <c r="Z170" s="18">
-        <v>0.75</v>
-      </c>
-      <c r="AA170">
-        <v>114081</v>
+        <f>SUM($S170:$V170)</f>
+        <v>0</v>
+      </c>
+      <c r="S170" s="10">
+        <v>0</v>
+      </c>
+      <c r="T170" s="10">
+        <v>0</v>
+      </c>
+      <c r="U170" s="10">
+        <v>0</v>
+      </c>
+      <c r="V170" s="10">
+        <v>0</v>
+      </c>
+      <c r="W170" s="6">
+        <v>130</v>
+      </c>
+      <c r="X170" s="6">
+        <v>185</v>
+      </c>
+      <c r="Y170" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z170" s="6">
+        <v>9</v>
+      </c>
+      <c r="AA170" s="6">
+        <v>113801</v>
+      </c>
+      <c r="AB170" s="6">
+        <v>113802</v>
       </c>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>11413</v>
+        <v>11408</v>
       </c>
       <c r="B171" t="s">
-        <v>2256</v>
-      </c>
-      <c r="C171" t="s">
-        <v>2037</v>
-      </c>
-      <c r="D171" t="s">
-        <v>2047</v>
-      </c>
-      <c r="E171">
-        <v>52</v>
-      </c>
-      <c r="F171">
-        <v>56</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>66</v>
-      </c>
-      <c r="I171">
+        <v>209</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E171" s="18">
+        <v>17</v>
+      </c>
+      <c r="F171" s="18">
+        <v>26</v>
+      </c>
+      <c r="G171" s="18">
+        <v>89</v>
+      </c>
+      <c r="H171" s="18">
+        <v>32</v>
+      </c>
+      <c r="I171" s="18">
+        <v>0</v>
+      </c>
+      <c r="J171" s="18">
+        <v>0</v>
+      </c>
+      <c r="K171" s="19">
         <v>100</v>
       </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>97</v>
-      </c>
-      <c r="L171">
-        <v>77</v>
-      </c>
-      <c r="M171">
+      <c r="L171" s="18">
         <v>47</v>
       </c>
-      <c r="N171">
-        <v>29</v>
-      </c>
-      <c r="O171">
-        <v>2</v>
-      </c>
-      <c r="P171">
+      <c r="M171" s="18">
+        <v>47</v>
+      </c>
+      <c r="N171" s="18">
+        <v>21</v>
+      </c>
+      <c r="O171" s="18">
+        <v>1</v>
+      </c>
+      <c r="P171" s="18">
+        <v>20</v>
+      </c>
+      <c r="Q171" s="18">
+        <v>3</v>
+      </c>
+      <c r="R171">
+        <f>SUM($S171:$V171)</f>
+        <v>0</v>
+      </c>
+      <c r="S171" s="18">
+        <v>0</v>
+      </c>
+      <c r="T171" s="18">
+        <v>0</v>
+      </c>
+      <c r="U171" s="18">
+        <v>0</v>
+      </c>
+      <c r="V171" s="18">
+        <v>0</v>
+      </c>
+      <c r="W171" s="18">
+        <v>20</v>
+      </c>
+      <c r="X171" s="18">
         <v>25</v>
       </c>
-      <c r="Q171">
-        <v>4</v>
-      </c>
-      <c r="R171">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="S171">
-        <v>10</v>
-      </c>
-      <c r="T171">
-        <v>10</v>
-      </c>
-      <c r="U171">
-        <v>10</v>
-      </c>
-      <c r="V171">
-        <v>10</v>
-      </c>
-      <c r="W171">
-        <v>45</v>
-      </c>
-      <c r="X171">
-        <v>75</v>
-      </c>
-      <c r="Y171">
-        <v>1.3</v>
-      </c>
-      <c r="Z171">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="AA171" s="18">
-        <v>114131</v>
+      <c r="Y171" s="18">
+        <v>0.64</v>
+      </c>
+      <c r="Z171" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="AA171">
+        <v>114081</v>
       </c>
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>11431</v>
+        <v>11413</v>
       </c>
       <c r="B172" t="s">
-        <v>206</v>
+        <v>2256</v>
       </c>
       <c r="C172" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E172" s="6">
-        <v>60</v>
-      </c>
-      <c r="F172" s="6">
-        <v>65</v>
-      </c>
-      <c r="G172" s="6">
-        <v>60</v>
-      </c>
-      <c r="H172" s="6">
+        <v>2037</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E172">
+        <v>52</v>
+      </c>
+      <c r="F172">
+        <v>56</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>66</v>
+      </c>
+      <c r="I172">
+        <v>100</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>97</v>
+      </c>
+      <c r="L172">
+        <v>77</v>
+      </c>
+      <c r="M172">
         <v>47</v>
       </c>
-      <c r="I172" s="6">
-        <v>81</v>
-      </c>
-      <c r="J172" s="6">
-        <v>0</v>
-      </c>
-      <c r="K172" s="11">
-        <v>97</v>
-      </c>
-      <c r="L172" s="6">
-        <v>84</v>
-      </c>
-      <c r="M172" s="6">
-        <v>62</v>
-      </c>
-      <c r="N172" s="6">
-        <v>31.5</v>
-      </c>
-      <c r="O172" s="6">
+      <c r="N172">
+        <v>29</v>
+      </c>
+      <c r="O172">
         <v>2</v>
       </c>
-      <c r="P172" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q172" s="6">
+      <c r="P172">
+        <v>25</v>
+      </c>
+      <c r="Q172">
         <v>4</v>
       </c>
       <c r="R172">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S172" s="6">
-        <v>0</v>
-      </c>
-      <c r="T172" s="6">
-        <v>0</v>
-      </c>
-      <c r="U172" s="6">
-        <v>0</v>
-      </c>
-      <c r="V172" s="6">
-        <v>0</v>
-      </c>
-      <c r="W172" s="6">
-        <v>35</v>
-      </c>
-      <c r="X172" s="6">
-        <v>70</v>
-      </c>
-      <c r="Y172" s="6">
-        <v>1.28</v>
-      </c>
-      <c r="Z172" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="AA172" s="6">
-        <v>114311</v>
-      </c>
-      <c r="AB172" s="6"/>
+        <f>SUM($S172:$V172)</f>
+        <v>40</v>
+      </c>
+      <c r="S172">
+        <v>10</v>
+      </c>
+      <c r="T172">
+        <v>10</v>
+      </c>
+      <c r="U172">
+        <v>10</v>
+      </c>
+      <c r="V172">
+        <v>10</v>
+      </c>
+      <c r="W172">
+        <v>45</v>
+      </c>
+      <c r="X172">
+        <v>75</v>
+      </c>
+      <c r="Y172">
+        <v>1.3</v>
+      </c>
+      <c r="Z172">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AA172" s="18">
+        <v>114131</v>
+      </c>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>11456</v>
+        <v>11425</v>
       </c>
       <c r="B173" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C173" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E173" s="6">
-        <v>64</v>
-      </c>
-      <c r="F173" s="6">
-        <v>76</v>
-      </c>
-      <c r="G173" s="6">
-        <v>0</v>
-      </c>
-      <c r="H173" s="6">
+        <v>2296</v>
+      </c>
+      <c r="D173" t="s">
         <v>67</v>
       </c>
-      <c r="I173" s="6">
-        <v>100</v>
-      </c>
-      <c r="J173" s="6">
+      <c r="E173">
+        <v>32</v>
+      </c>
+      <c r="F173">
+        <v>40</v>
+      </c>
+      <c r="G173">
+        <v>87</v>
+      </c>
+      <c r="H173">
+        <v>39</v>
+      </c>
+      <c r="I173">
+        <v>62</v>
+      </c>
+      <c r="J173">
         <v>79</v>
       </c>
-      <c r="K173" s="6">
-        <v>97</v>
-      </c>
-      <c r="L173" s="6">
-        <v>83</v>
-      </c>
-      <c r="M173" s="6">
-        <v>59</v>
-      </c>
-      <c r="N173" s="6">
-        <v>32.6</v>
-      </c>
-      <c r="O173" s="6">
-        <v>2</v>
-      </c>
-      <c r="P173" s="6">
-        <v>19</v>
-      </c>
-      <c r="Q173" s="6">
-        <v>4</v>
-      </c>
-      <c r="R173">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S173" s="6">
-        <v>0</v>
-      </c>
-      <c r="T173" s="6">
-        <v>0</v>
-      </c>
-      <c r="U173" s="6">
-        <v>0</v>
-      </c>
-      <c r="V173" s="6">
-        <v>0</v>
-      </c>
-      <c r="W173" s="6">
-        <v>45</v>
-      </c>
-      <c r="X173" s="6">
-        <v>80</v>
-      </c>
-      <c r="Y173" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="Z173" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="AA173" s="6">
-        <v>114561</v>
-      </c>
-      <c r="AB173" s="6"/>
+      <c r="K173" s="1">
+        <v>94</v>
+      </c>
+      <c r="L173">
+        <v>90</v>
+      </c>
+      <c r="M173">
+        <v>32</v>
+      </c>
+      <c r="N173">
+        <v>37</v>
+      </c>
+      <c r="O173">
+        <v>1</v>
+      </c>
+      <c r="P173">
+        <v>20</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173" s="18">
+        <f>SUM($S173:$V173)</f>
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>15</v>
+      </c>
+      <c r="X173">
+        <v>25</v>
+      </c>
+      <c r="Y173">
+        <v>0.48</v>
+      </c>
+      <c r="Z173">
+        <v>0.9</v>
+      </c>
+      <c r="AA173">
+        <v>114251</v>
+      </c>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>11483</v>
+        <v>11431</v>
       </c>
       <c r="B174" t="s">
+        <v>206</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="6">
+        <v>60</v>
+      </c>
+      <c r="F174" s="6">
+        <v>65</v>
+      </c>
+      <c r="G174" s="6">
+        <v>60</v>
+      </c>
+      <c r="H174" s="6">
+        <v>47</v>
+      </c>
+      <c r="I174" s="6">
+        <v>81</v>
+      </c>
+      <c r="J174" s="6">
+        <v>0</v>
+      </c>
+      <c r="K174" s="11">
+        <v>97</v>
+      </c>
+      <c r="L174" s="6">
+        <v>84</v>
+      </c>
+      <c r="M174" s="6">
+        <v>62</v>
+      </c>
+      <c r="N174" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="O174" s="6">
+        <v>2</v>
+      </c>
+      <c r="P174" s="6">
+        <v>20</v>
+      </c>
+      <c r="Q174" s="6">
+        <v>4</v>
+      </c>
+      <c r="R174">
+        <f>SUM($S174:$V174)</f>
+        <v>0</v>
+      </c>
+      <c r="S174" s="6">
+        <v>0</v>
+      </c>
+      <c r="T174" s="6">
+        <v>0</v>
+      </c>
+      <c r="U174" s="6">
+        <v>0</v>
+      </c>
+      <c r="V174" s="6">
+        <v>0</v>
+      </c>
+      <c r="W174" s="6">
+        <v>35</v>
+      </c>
+      <c r="X174" s="6">
+        <v>70</v>
+      </c>
+      <c r="Y174" s="6">
+        <v>1.28</v>
+      </c>
+      <c r="Z174" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="AA174" s="6">
+        <v>114311</v>
+      </c>
+      <c r="AB174" s="6"/>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>11456</v>
+      </c>
+      <c r="B175" t="s">
+        <v>205</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E175" s="6">
+        <v>64</v>
+      </c>
+      <c r="F175" s="6">
         <v>76</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D174" t="s">
-        <v>69</v>
-      </c>
-      <c r="E174">
+      <c r="G175" s="6">
+        <v>0</v>
+      </c>
+      <c r="H175" s="6">
+        <v>67</v>
+      </c>
+      <c r="I175" s="6">
+        <v>100</v>
+      </c>
+      <c r="J175" s="6">
+        <v>79</v>
+      </c>
+      <c r="K175" s="6">
+        <v>97</v>
+      </c>
+      <c r="L175" s="6">
+        <v>83</v>
+      </c>
+      <c r="M175" s="6">
+        <v>59</v>
+      </c>
+      <c r="N175" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="O175" s="6">
+        <v>2</v>
+      </c>
+      <c r="P175" s="6">
+        <v>19</v>
+      </c>
+      <c r="Q175" s="6">
+        <v>4</v>
+      </c>
+      <c r="R175">
+        <f>SUM($S175:$V175)</f>
+        <v>0</v>
+      </c>
+      <c r="S175" s="6">
+        <v>0</v>
+      </c>
+      <c r="T175" s="6">
+        <v>0</v>
+      </c>
+      <c r="U175" s="6">
+        <v>0</v>
+      </c>
+      <c r="V175" s="6">
+        <v>0</v>
+      </c>
+      <c r="W175" s="6">
+        <v>45</v>
+      </c>
+      <c r="X175" s="6">
         <v>80</v>
       </c>
-      <c r="F174">
-        <v>45</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>96</v>
-      </c>
-      <c r="I174">
-        <v>101</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174" s="1">
-        <v>97</v>
-      </c>
-      <c r="L174">
-        <v>66</v>
-      </c>
-      <c r="M174">
-        <v>78</v>
-      </c>
-      <c r="N174">
-        <v>30.5</v>
-      </c>
-      <c r="O174">
-        <v>1</v>
-      </c>
-      <c r="P174">
-        <v>25</v>
-      </c>
-      <c r="Q174">
-        <v>4</v>
-      </c>
-      <c r="R174">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="S174">
-        <v>20</v>
-      </c>
-      <c r="T174">
-        <v>21</v>
-      </c>
-      <c r="U174">
-        <v>15</v>
-      </c>
-      <c r="V174">
-        <v>11</v>
-      </c>
-      <c r="W174" s="6">
-        <v>75</v>
-      </c>
-      <c r="X174" s="6">
-        <v>90</v>
-      </c>
-      <c r="Y174" s="6">
-        <v>2.88</v>
-      </c>
-      <c r="Z174" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="AA174">
-        <v>104831</v>
-      </c>
-      <c r="AB174" s="6">
-        <v>114832</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A175" s="29">
-        <v>11496</v>
-      </c>
-      <c r="B175" t="s">
-        <v>2239</v>
-      </c>
-      <c r="C175" s="29" t="s">
-        <v>2240</v>
-      </c>
-      <c r="D175" t="s">
-        <v>2228</v>
-      </c>
-      <c r="E175">
-        <v>43</v>
-      </c>
-      <c r="F175">
-        <v>46</v>
-      </c>
-      <c r="G175">
-        <v>83</v>
-      </c>
-      <c r="H175">
-        <v>42</v>
-      </c>
-      <c r="I175">
-        <v>95</v>
-      </c>
-      <c r="J175">
-        <v>136</v>
-      </c>
-      <c r="K175" s="1">
-        <v>92</v>
-      </c>
-      <c r="L175">
-        <v>91</v>
-      </c>
-      <c r="M175">
-        <v>51</v>
-      </c>
-      <c r="N175">
-        <v>32</v>
-      </c>
-      <c r="O175">
-        <v>1</v>
-      </c>
-      <c r="P175">
-        <v>10</v>
-      </c>
-      <c r="Q175">
-        <v>3</v>
-      </c>
-      <c r="R175" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S175">
-        <v>0</v>
-      </c>
-      <c r="T175">
-        <v>0</v>
-      </c>
-      <c r="U175">
-        <v>0</v>
-      </c>
-      <c r="V175">
-        <v>0</v>
-      </c>
-      <c r="W175">
-        <v>25</v>
-      </c>
-      <c r="X175">
-        <v>35</v>
-      </c>
-      <c r="Y175">
-        <v>0.7</v>
-      </c>
-      <c r="Z175">
-        <v>1.2</v>
-      </c>
-      <c r="AA175">
-        <v>114961</v>
-      </c>
+      <c r="Y175" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="Z175" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="AA175" s="6">
+        <v>114561</v>
+      </c>
+      <c r="AB175" s="6"/>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <v>11528</v>
+        <v>11483</v>
       </c>
       <c r="B176" t="s">
-        <v>2256</v>
-      </c>
-      <c r="C176" s="29" t="s">
-        <v>2258</v>
+        <v>76</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D176" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E176">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F176">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
       <c r="H176">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="I176">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -32596,59 +32956,230 @@
         <v>97</v>
       </c>
       <c r="L176">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M176">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N176">
-        <v>33</v>
+        <v>30.5</v>
       </c>
       <c r="O176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P176">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q176">
         <v>4</v>
       </c>
-      <c r="R176" s="18">
-        <f t="shared" si="5"/>
+      <c r="R176">
+        <f>SUM($S176:$V176)</f>
+        <v>67</v>
+      </c>
+      <c r="S176">
+        <v>20</v>
+      </c>
+      <c r="T176">
+        <v>21</v>
+      </c>
+      <c r="U176">
+        <v>15</v>
+      </c>
+      <c r="V176">
+        <v>11</v>
+      </c>
+      <c r="W176" s="6">
+        <v>75</v>
+      </c>
+      <c r="X176" s="6">
+        <v>90</v>
+      </c>
+      <c r="Y176" s="6">
+        <v>2.88</v>
+      </c>
+      <c r="Z176" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="AA176">
+        <v>104831</v>
+      </c>
+      <c r="AB176" s="6">
+        <v>114832</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A177" s="29">
+        <v>11496</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C177" s="29" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E177">
+        <v>43</v>
+      </c>
+      <c r="F177">
+        <v>46</v>
+      </c>
+      <c r="G177">
+        <v>83</v>
+      </c>
+      <c r="H177">
+        <v>42</v>
+      </c>
+      <c r="I177">
+        <v>95</v>
+      </c>
+      <c r="J177">
+        <v>136</v>
+      </c>
+      <c r="K177" s="1">
+        <v>92</v>
+      </c>
+      <c r="L177">
+        <v>91</v>
+      </c>
+      <c r="M177">
+        <v>51</v>
+      </c>
+      <c r="N177">
+        <v>32</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+      <c r="P177">
+        <v>10</v>
+      </c>
+      <c r="Q177">
+        <v>3</v>
+      </c>
+      <c r="R177" s="18">
+        <f>SUM($S177:$V177)</f>
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>25</v>
+      </c>
+      <c r="X177">
+        <v>35</v>
+      </c>
+      <c r="Y177">
+        <v>0.7</v>
+      </c>
+      <c r="Z177">
+        <v>1.2</v>
+      </c>
+      <c r="AA177">
+        <v>114961</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>11528</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C178" s="29" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D178" t="s">
+        <v>67</v>
+      </c>
+      <c r="E178">
+        <v>60</v>
+      </c>
+      <c r="F178">
+        <v>61</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>68</v>
+      </c>
+      <c r="I178">
+        <v>112</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" s="1">
+        <v>97</v>
+      </c>
+      <c r="L178">
+        <v>85</v>
+      </c>
+      <c r="M178">
+        <v>54</v>
+      </c>
+      <c r="N178">
+        <v>33</v>
+      </c>
+      <c r="O178">
+        <v>2</v>
+      </c>
+      <c r="P178">
+        <v>18</v>
+      </c>
+      <c r="Q178">
+        <v>4</v>
+      </c>
+      <c r="R178" s="18">
+        <f>SUM($S178:$V178)</f>
         <v>48</v>
       </c>
-      <c r="S176">
+      <c r="S178">
         <v>12</v>
       </c>
-      <c r="T176">
+      <c r="T178">
         <v>12</v>
       </c>
-      <c r="U176">
+      <c r="U178">
         <v>12</v>
       </c>
-      <c r="V176">
+      <c r="V178">
         <v>12</v>
       </c>
-      <c r="W176">
+      <c r="W178">
         <v>40</v>
       </c>
-      <c r="X176">
+      <c r="X178">
         <v>70</v>
       </c>
-      <c r="Y176">
+      <c r="Y178">
         <v>1.28</v>
       </c>
-      <c r="Z176">
+      <c r="Z178">
         <v>2.4</v>
       </c>
-      <c r="AA176">
+      <c r="AA178">
         <v>115281</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AC176" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC176">
-      <sortCondition ref="A1:A171"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC178">
+      <sortCondition ref="A1:A176"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DF3C4D-826F-4B52-8FD9-18146B3CF5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23D5656-37B6-417C-85F5-52D95BEB6DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -77476,10 +77476,10 @@
   <dimension ref="A1:AD207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="S131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA145" sqref="AA145"/>
+      <selection pane="bottomRight" activeCell="J140" sqref="J140:J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -88481,13 +88481,13 @@
         <v>180</v>
       </c>
       <c r="J140" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K140">
         <v>0</v>
       </c>
       <c r="L140" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M140" s="1">
         <v>100</v>
@@ -88556,13 +88556,13 @@
         <v>250</v>
       </c>
       <c r="J141" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K141">
         <v>0</v>
       </c>
       <c r="L141" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M141" s="1">
         <v>100</v>
@@ -88629,13 +88629,13 @@
         <v>125</v>
       </c>
       <c r="J142" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K142">
         <v>0</v>
       </c>
       <c r="L142" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="M142" s="1">
         <v>50</v>
@@ -88702,13 +88702,13 @@
         <v>180</v>
       </c>
       <c r="J143" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K143">
         <v>0</v>
       </c>
       <c r="L143" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M143" s="1">
         <v>100</v>
@@ -88775,13 +88775,13 @@
         <v>180</v>
       </c>
       <c r="J144" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K144">
         <v>0</v>
       </c>
       <c r="L144" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M144" s="1">
         <v>100</v>
@@ -88848,13 +88848,13 @@
         <v>80</v>
       </c>
       <c r="J145" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K145">
         <v>0</v>
       </c>
       <c r="L145" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M145" s="1">
         <v>100</v>
@@ -88933,13 +88933,13 @@
         <v>40</v>
       </c>
       <c r="J146" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K146">
         <v>0</v>
       </c>
       <c r="L146" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="M146" s="1">
         <v>50</v>
@@ -89018,13 +89018,13 @@
         <v>180</v>
       </c>
       <c r="J147" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K147">
         <v>0</v>
       </c>
       <c r="L147" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M147" s="1">
         <v>100</v>
@@ -93648,7 +93648,7 @@
   <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D31" sqref="D31"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A9D5E6-957C-4A95-98B1-F37A9E029F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F535ED7D-C299-498F-8909-7DB6EB03F7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$176</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$587</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$596</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14977" uniqueCount="2329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14980" uniqueCount="2330">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7433,6 +7433,10 @@
   </si>
   <si>
     <t>Vestal</t>
+  </si>
+  <si>
+    <t>24型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8571,13 +8575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AC112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G112" sqref="G112"/>
+      <selection pane="bottomRight" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8728,7 +8732,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R48" si="0">SUM($S2:$V2)</f>
+        <f>SUM($S2:$V2)</f>
         <v>76</v>
       </c>
       <c r="S2">
@@ -8809,7 +8813,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
+        <f>SUM($S3:$V3)</f>
         <v>90</v>
       </c>
       <c r="S3">
@@ -8890,7 +8894,7 @@
         <v>4</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
+        <f>SUM($S4:$V4)</f>
         <v>80</v>
       </c>
       <c r="S4">
@@ -8971,7 +8975,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f>SUM($S5:$V5)</f>
         <v>80</v>
       </c>
       <c r="S5">
@@ -9052,7 +9056,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f>SUM($S6:$V6)</f>
         <v>75</v>
       </c>
       <c r="S6">
@@ -9133,7 +9137,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f>SUM($S7:$V7)</f>
         <v>8</v>
       </c>
       <c r="S7" s="6">
@@ -9218,7 +9222,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f>SUM($S8:$V8)</f>
         <v>0</v>
       </c>
       <c r="S8" s="6">
@@ -9303,7 +9307,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f>SUM($S9:$V9)</f>
         <v>12</v>
       </c>
       <c r="S9" s="6">
@@ -9388,7 +9392,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f>SUM($S10:$V10)</f>
         <v>60</v>
       </c>
       <c r="S10">
@@ -9472,7 +9476,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f>SUM($S11:$V11)</f>
         <v>48</v>
       </c>
       <c r="S11">
@@ -9553,7 +9557,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f>SUM($S12:$V12)</f>
         <v>72</v>
       </c>
       <c r="S12">
@@ -9637,7 +9641,7 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f>SUM($S13:$V13)</f>
         <v>75</v>
       </c>
       <c r="S13">
@@ -9718,7 +9722,7 @@
         <v>4</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f>SUM($S14:$V14)</f>
         <v>75</v>
       </c>
       <c r="S14">
@@ -9802,7 +9806,7 @@
         <v>4</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f>SUM($S15:$V15)</f>
         <v>16</v>
       </c>
       <c r="S15" s="6">
@@ -9887,7 +9891,7 @@
         <v>4</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f>SUM($S16:$V16)</f>
         <v>16</v>
       </c>
       <c r="S16" s="6">
@@ -9972,7 +9976,7 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f>SUM($S17:$V17)</f>
         <v>12</v>
       </c>
       <c r="S17" s="6">
@@ -10057,7 +10061,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f>SUM($S18:$V18)</f>
         <v>12</v>
       </c>
       <c r="S18" s="6">
@@ -10145,7 +10149,7 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f>SUM($S19:$V19)</f>
         <v>12</v>
       </c>
       <c r="S19" s="6">
@@ -10233,7 +10237,7 @@
         <v>4</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
+        <f>SUM($S20:$V20)</f>
         <v>12</v>
       </c>
       <c r="S20" s="6">
@@ -10318,7 +10322,7 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f t="shared" si="0"/>
+        <f>SUM($S21:$V21)</f>
         <v>12</v>
       </c>
       <c r="S21" s="6">
@@ -10403,7 +10407,7 @@
         <v>4</v>
       </c>
       <c r="R22">
-        <f t="shared" si="0"/>
+        <f>SUM($S22:$V22)</f>
         <v>12</v>
       </c>
       <c r="S22" s="6">
@@ -10488,7 +10492,7 @@
         <v>4</v>
       </c>
       <c r="R23">
-        <f t="shared" si="0"/>
+        <f>SUM($S23:$V23)</f>
         <v>16</v>
       </c>
       <c r="S23" s="6">
@@ -10573,7 +10577,7 @@
         <v>4</v>
       </c>
       <c r="R24">
-        <f t="shared" si="0"/>
+        <f>SUM($S24:$V24)</f>
         <v>78</v>
       </c>
       <c r="S24">
@@ -10654,7 +10658,7 @@
         <v>4</v>
       </c>
       <c r="R25">
-        <f t="shared" si="0"/>
+        <f>SUM($S25:$V25)</f>
         <v>78</v>
       </c>
       <c r="S25">
@@ -10735,7 +10739,7 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f t="shared" si="0"/>
+        <f>SUM($S26:$V26)</f>
         <v>63</v>
       </c>
       <c r="S26">
@@ -10816,7 +10820,7 @@
         <v>4</v>
       </c>
       <c r="R27">
-        <f t="shared" si="0"/>
+        <f>SUM($S27:$V27)</f>
         <v>63</v>
       </c>
       <c r="S27">
@@ -10897,7 +10901,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <f t="shared" si="0"/>
+        <f>SUM($S28:$V28)</f>
         <v>59</v>
       </c>
       <c r="S28">
@@ -10981,7 +10985,7 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f t="shared" si="0"/>
+        <f>SUM($S29:$V29)</f>
         <v>57</v>
       </c>
       <c r="S29">
@@ -11065,7 +11069,7 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f t="shared" si="0"/>
+        <f>SUM($S30:$V30)</f>
         <v>70</v>
       </c>
       <c r="S30">
@@ -11146,7 +11150,7 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <f t="shared" si="0"/>
+        <f>SUM($S31:$V31)</f>
         <v>90</v>
       </c>
       <c r="S31">
@@ -11233,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="R32">
-        <f t="shared" si="0"/>
+        <f>SUM($S32:$V32)</f>
         <v>40</v>
       </c>
       <c r="S32">
@@ -11314,7 +11318,7 @@
         <v>3</v>
       </c>
       <c r="R33">
-        <f t="shared" si="0"/>
+        <f>SUM($S33:$V33)</f>
         <v>6</v>
       </c>
       <c r="S33" s="6">
@@ -11399,7 +11403,7 @@
         <v>3</v>
       </c>
       <c r="R34">
-        <f t="shared" si="0"/>
+        <f>SUM($S34:$V34)</f>
         <v>9</v>
       </c>
       <c r="S34" s="6">
@@ -11484,7 +11488,7 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <f t="shared" si="0"/>
+        <f>SUM($S35:$V35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="6">
@@ -11569,7 +11573,7 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <f t="shared" si="0"/>
+        <f>SUM($S36:$V36)</f>
         <v>16</v>
       </c>
       <c r="S36" s="6">
@@ -11654,7 +11658,7 @@
         <v>3</v>
       </c>
       <c r="R37" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM($S37:$V37)</f>
         <v>0</v>
       </c>
       <c r="S37">
@@ -11738,7 +11742,7 @@
         <v>4</v>
       </c>
       <c r="R38">
-        <f t="shared" si="0"/>
+        <f>SUM($S38:$V38)</f>
         <v>66</v>
       </c>
       <c r="S38">
@@ -11822,7 +11826,7 @@
         <v>4</v>
       </c>
       <c r="R39">
-        <f t="shared" si="0"/>
+        <f>SUM($S39:$V39)</f>
         <v>90</v>
       </c>
       <c r="S39">
@@ -11909,7 +11913,7 @@
         <v>4</v>
       </c>
       <c r="R40">
-        <f t="shared" si="0"/>
+        <f>SUM($S40:$V40)</f>
         <v>0</v>
       </c>
       <c r="S40" s="6">
@@ -11993,7 +11997,7 @@
         <v>4</v>
       </c>
       <c r="R41">
-        <f t="shared" si="0"/>
+        <f>SUM($S41:$V41)</f>
         <v>66</v>
       </c>
       <c r="S41">
@@ -12077,7 +12081,7 @@
         <v>4</v>
       </c>
       <c r="R42">
-        <f t="shared" si="0"/>
+        <f>SUM($S42:$V42)</f>
         <v>75</v>
       </c>
       <c r="S42">
@@ -12161,7 +12165,7 @@
         <v>3</v>
       </c>
       <c r="R43">
-        <f t="shared" si="0"/>
+        <f>SUM($S43:$V43)</f>
         <v>24</v>
       </c>
       <c r="S43">
@@ -12242,7 +12246,7 @@
         <v>4</v>
       </c>
       <c r="R44">
-        <f t="shared" si="0"/>
+        <f>SUM($S44:$V44)</f>
         <v>12</v>
       </c>
       <c r="S44" s="6">
@@ -12327,7 +12331,7 @@
         <v>3</v>
       </c>
       <c r="R45">
-        <f t="shared" si="0"/>
+        <f>SUM($S45:$V45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="6">
@@ -12412,7 +12416,7 @@
         <v>4</v>
       </c>
       <c r="R46">
-        <f t="shared" si="0"/>
+        <f>SUM($S46:$V46)</f>
         <v>6</v>
       </c>
       <c r="S46" s="6">
@@ -12496,7 +12500,7 @@
         <v>3</v>
       </c>
       <c r="R47">
-        <f t="shared" si="0"/>
+        <f>SUM($S47:$V47)</f>
         <v>6</v>
       </c>
       <c r="S47" s="6">
@@ -12581,7 +12585,7 @@
         <v>3</v>
       </c>
       <c r="R48">
-        <f t="shared" si="0"/>
+        <f>SUM($S48:$V48)</f>
         <v>24</v>
       </c>
       <c r="S48">
@@ -12745,7 +12749,7 @@
         <v>4</v>
       </c>
       <c r="R50">
-        <f t="shared" ref="R50:R79" si="1">SUM($S50:$V50)</f>
+        <f>SUM($S50:$V50)</f>
         <v>16</v>
       </c>
       <c r="S50" s="6">
@@ -12830,7 +12834,7 @@
         <v>4</v>
       </c>
       <c r="R51">
-        <f t="shared" si="1"/>
+        <f>SUM($S51:$V51)</f>
         <v>57</v>
       </c>
       <c r="S51">
@@ -12914,7 +12918,7 @@
         <v>4</v>
       </c>
       <c r="R52">
-        <f t="shared" si="1"/>
+        <f>SUM($S52:$V52)</f>
         <v>92</v>
       </c>
       <c r="S52">
@@ -13001,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="R53" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM($S53:$V53)</f>
         <v>0</v>
       </c>
       <c r="S53">
@@ -13085,7 +13089,7 @@
         <v>4</v>
       </c>
       <c r="R54">
-        <f t="shared" si="1"/>
+        <f>SUM($S54:$V54)</f>
         <v>0</v>
       </c>
       <c r="S54" s="6">
@@ -13170,7 +13174,7 @@
         <v>4</v>
       </c>
       <c r="R55">
-        <f t="shared" si="1"/>
+        <f>SUM($S55:$V55)</f>
         <v>12</v>
       </c>
       <c r="S55" s="10">
@@ -13258,7 +13262,7 @@
         <v>3</v>
       </c>
       <c r="R56">
-        <f t="shared" si="1"/>
+        <f>SUM($S56:$V56)</f>
         <v>9</v>
       </c>
       <c r="S56" s="6">
@@ -13343,7 +13347,7 @@
         <v>2</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
+        <f>SUM($S57:$V57)</f>
         <v>40</v>
       </c>
       <c r="S57">
@@ -13424,7 +13428,7 @@
         <v>4</v>
       </c>
       <c r="R58">
-        <f t="shared" si="1"/>
+        <f>SUM($S58:$V58)</f>
         <v>0</v>
       </c>
       <c r="S58" s="10">
@@ -13508,7 +13512,7 @@
         <v>3</v>
       </c>
       <c r="R59">
-        <f t="shared" si="1"/>
+        <f>SUM($S59:$V59)</f>
         <v>24</v>
       </c>
       <c r="S59">
@@ -13589,7 +13593,7 @@
         <v>3</v>
       </c>
       <c r="R60">
-        <f t="shared" si="1"/>
+        <f>SUM($S60:$V60)</f>
         <v>24</v>
       </c>
       <c r="S60">
@@ -13670,7 +13674,7 @@
         <v>4</v>
       </c>
       <c r="R61">
-        <f t="shared" si="1"/>
+        <f>SUM($S61:$V61)</f>
         <v>81</v>
       </c>
       <c r="S61">
@@ -13754,7 +13758,7 @@
         <v>2</v>
       </c>
       <c r="R62">
-        <f t="shared" si="1"/>
+        <f>SUM($S62:$V62)</f>
         <v>40</v>
       </c>
       <c r="S62">
@@ -13835,7 +13839,7 @@
         <v>4</v>
       </c>
       <c r="R63">
-        <f t="shared" si="1"/>
+        <f>SUM($S63:$V63)</f>
         <v>12</v>
       </c>
       <c r="S63" s="10">
@@ -13920,7 +13924,7 @@
         <v>3</v>
       </c>
       <c r="R64">
-        <f t="shared" si="1"/>
+        <f>SUM($S64:$V64)</f>
         <v>9</v>
       </c>
       <c r="S64" s="6">
@@ -14005,7 +14009,7 @@
         <v>4</v>
       </c>
       <c r="R65">
-        <f t="shared" si="1"/>
+        <f>SUM($S65:$V65)</f>
         <v>0</v>
       </c>
       <c r="S65" s="10">
@@ -14090,7 +14094,7 @@
         <v>3</v>
       </c>
       <c r="R66">
-        <f t="shared" si="1"/>
+        <f>SUM($S66:$V66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="6">
@@ -14175,7 +14179,7 @@
         <v>3</v>
       </c>
       <c r="R67">
-        <f t="shared" si="1"/>
+        <f>SUM($S67:$V67)</f>
         <v>9</v>
       </c>
       <c r="S67" s="6">
@@ -14260,7 +14264,7 @@
         <v>4</v>
       </c>
       <c r="R68">
-        <f t="shared" si="1"/>
+        <f>SUM($S68:$V68)</f>
         <v>62</v>
       </c>
       <c r="S68">
@@ -14344,7 +14348,7 @@
         <v>4</v>
       </c>
       <c r="R69">
-        <f t="shared" si="1"/>
+        <f>SUM($S69:$V69)</f>
         <v>90</v>
       </c>
       <c r="S69">
@@ -14431,7 +14435,7 @@
         <v>4</v>
       </c>
       <c r="R70">
-        <f t="shared" si="1"/>
+        <f>SUM($S70:$V70)</f>
         <v>12</v>
       </c>
       <c r="S70" s="10">
@@ -14515,7 +14519,7 @@
         <v>4</v>
       </c>
       <c r="R71">
-        <f t="shared" si="1"/>
+        <f>SUM($S71:$V71)</f>
         <v>12</v>
       </c>
       <c r="S71" s="10">
@@ -14599,7 +14603,7 @@
         <v>3</v>
       </c>
       <c r="R72">
-        <f t="shared" si="1"/>
+        <f>SUM($S72:$V72)</f>
         <v>9</v>
       </c>
       <c r="S72" s="6">
@@ -14684,7 +14688,7 @@
         <v>4</v>
       </c>
       <c r="R73">
-        <f t="shared" si="1"/>
+        <f>SUM($S73:$V73)</f>
         <v>0</v>
       </c>
       <c r="S73" s="10">
@@ -14769,7 +14773,7 @@
         <v>4</v>
       </c>
       <c r="R74">
-        <f t="shared" si="1"/>
+        <f>SUM($S74:$V74)</f>
         <v>0</v>
       </c>
       <c r="S74" s="10">
@@ -14853,7 +14857,7 @@
         <v>4</v>
       </c>
       <c r="R75">
-        <f t="shared" si="1"/>
+        <f>SUM($S75:$V75)</f>
         <v>9</v>
       </c>
       <c r="S75" s="10">
@@ -14938,7 +14942,7 @@
         <v>4</v>
       </c>
       <c r="R76">
-        <f t="shared" si="1"/>
+        <f>SUM($S76:$V76)</f>
         <v>0</v>
       </c>
       <c r="S76" s="10">
@@ -15023,7 +15027,7 @@
         <v>3</v>
       </c>
       <c r="R77">
-        <f t="shared" si="1"/>
+        <f>SUM($S77:$V77)</f>
         <v>9</v>
       </c>
       <c r="S77" s="6">
@@ -15108,7 +15112,7 @@
         <v>4</v>
       </c>
       <c r="R78">
-        <f t="shared" si="1"/>
+        <f>SUM($S78:$V78)</f>
         <v>0</v>
       </c>
       <c r="S78" s="10">
@@ -15193,7 +15197,7 @@
         <v>4</v>
       </c>
       <c r="R79">
-        <f t="shared" si="1"/>
+        <f>SUM($S79:$V79)</f>
         <v>83</v>
       </c>
       <c r="S79">
@@ -15360,7 +15364,7 @@
         <v>4</v>
       </c>
       <c r="R81">
-        <f t="shared" ref="R81:R111" si="2">SUM($S81:$V81)</f>
+        <f>SUM($S81:$V81)</f>
         <v>12</v>
       </c>
       <c r="S81" s="10">
@@ -15445,7 +15449,7 @@
         <v>4</v>
       </c>
       <c r="R82">
-        <f t="shared" si="2"/>
+        <f>SUM($S82:$V82)</f>
         <v>0</v>
       </c>
       <c r="S82" s="10">
@@ -15529,7 +15533,7 @@
         <v>4</v>
       </c>
       <c r="R83">
-        <f t="shared" si="2"/>
+        <f>SUM($S83:$V83)</f>
         <v>0</v>
       </c>
       <c r="S83" s="10">
@@ -15614,7 +15618,7 @@
         <v>3</v>
       </c>
       <c r="R84">
-        <f t="shared" si="2"/>
+        <f>SUM($S84:$V84)</f>
         <v>24</v>
       </c>
       <c r="S84">
@@ -15698,7 +15702,7 @@
         <v>4</v>
       </c>
       <c r="R85">
-        <f t="shared" si="2"/>
+        <f>SUM($S85:$V85)</f>
         <v>0</v>
       </c>
       <c r="S85" s="10">
@@ -15783,7 +15787,7 @@
         <v>4</v>
       </c>
       <c r="R86">
-        <f t="shared" si="2"/>
+        <f>SUM($S86:$V86)</f>
         <v>91</v>
       </c>
       <c r="S86">
@@ -15870,7 +15874,7 @@
         <v>4</v>
       </c>
       <c r="R87">
-        <f t="shared" si="2"/>
+        <f>SUM($S87:$V87)</f>
         <v>51</v>
       </c>
       <c r="S87">
@@ -15954,7 +15958,7 @@
         <v>4</v>
       </c>
       <c r="R88">
-        <f t="shared" si="2"/>
+        <f>SUM($S88:$V88)</f>
         <v>48</v>
       </c>
       <c r="S88">
@@ -16035,7 +16039,7 @@
         <v>4</v>
       </c>
       <c r="R89">
-        <f t="shared" si="2"/>
+        <f>SUM($S89:$V89)</f>
         <v>72</v>
       </c>
       <c r="S89">
@@ -16119,7 +16123,7 @@
         <v>3</v>
       </c>
       <c r="R90">
-        <f t="shared" si="2"/>
+        <f>SUM($S90:$V90)</f>
         <v>18</v>
       </c>
       <c r="S90" s="6">
@@ -16204,7 +16208,7 @@
         <v>4</v>
       </c>
       <c r="R91">
-        <f t="shared" si="2"/>
+        <f>SUM($S91:$V91)</f>
         <v>59</v>
       </c>
       <c r="S91">
@@ -16288,7 +16292,7 @@
         <v>4</v>
       </c>
       <c r="R92">
-        <f t="shared" si="2"/>
+        <f>SUM($S92:$V92)</f>
         <v>0</v>
       </c>
       <c r="S92" s="6">
@@ -16372,7 +16376,7 @@
         <v>4</v>
       </c>
       <c r="R93">
-        <f t="shared" si="2"/>
+        <f>SUM($S93:$V93)</f>
         <v>75</v>
       </c>
       <c r="S93">
@@ -16456,7 +16460,7 @@
         <v>4</v>
       </c>
       <c r="R94">
-        <f t="shared" si="2"/>
+        <f>SUM($S94:$V94)</f>
         <v>12</v>
       </c>
       <c r="S94" s="6">
@@ -16540,7 +16544,7 @@
         <v>4</v>
       </c>
       <c r="R95">
-        <f t="shared" si="2"/>
+        <f>SUM($S95:$V95)</f>
         <v>78</v>
       </c>
       <c r="S95">
@@ -16624,7 +16628,7 @@
         <v>4</v>
       </c>
       <c r="R96">
-        <f t="shared" si="2"/>
+        <f>SUM($S96:$V96)</f>
         <v>90</v>
       </c>
       <c r="S96">
@@ -16711,7 +16715,7 @@
         <v>4</v>
       </c>
       <c r="R97">
-        <f t="shared" si="2"/>
+        <f>SUM($S97:$V97)</f>
         <v>12</v>
       </c>
       <c r="S97" s="6">
@@ -16796,7 +16800,7 @@
         <v>3</v>
       </c>
       <c r="R98" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S98:$V98)</f>
         <v>24</v>
       </c>
       <c r="S98">
@@ -16880,7 +16884,7 @@
         <v>4</v>
       </c>
       <c r="R99" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S99:$V99)</f>
         <v>12</v>
       </c>
       <c r="S99">
@@ -16964,7 +16968,7 @@
         <v>4</v>
       </c>
       <c r="R100">
-        <f t="shared" si="2"/>
+        <f>SUM($S100:$V100)</f>
         <v>84</v>
       </c>
       <c r="S100">
@@ -17048,7 +17052,7 @@
         <v>4</v>
       </c>
       <c r="R101">
-        <f t="shared" si="2"/>
+        <f>SUM($S101:$V101)</f>
         <v>90</v>
       </c>
       <c r="S101" s="6">
@@ -17136,7 +17140,7 @@
         <v>4</v>
       </c>
       <c r="R102" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S102:$V102)</f>
         <v>0</v>
       </c>
       <c r="S102">
@@ -17220,7 +17224,7 @@
         <v>4</v>
       </c>
       <c r="R103" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S103:$V103)</f>
         <v>0</v>
       </c>
       <c r="S103">
@@ -17304,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="R104" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S104:$V104)</f>
         <v>0</v>
       </c>
       <c r="S104">
@@ -17388,7 +17392,7 @@
         <v>3</v>
       </c>
       <c r="R105" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S105:$V105)</f>
         <v>9</v>
       </c>
       <c r="S105">
@@ -17472,7 +17476,7 @@
         <v>4</v>
       </c>
       <c r="R106" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S106:$V106)</f>
         <v>12</v>
       </c>
       <c r="S106">
@@ -17559,7 +17563,7 @@
         <v>4</v>
       </c>
       <c r="R107" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S107:$V107)</f>
         <v>0</v>
       </c>
       <c r="S107">
@@ -17643,7 +17647,7 @@
         <v>4</v>
       </c>
       <c r="R108" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S108:$V108)</f>
         <v>0</v>
       </c>
       <c r="S108">
@@ -17727,7 +17731,7 @@
         <v>3</v>
       </c>
       <c r="R109" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S109:$V109)</f>
         <v>30</v>
       </c>
       <c r="S109">
@@ -17760,58 +17764,58 @@
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>10540</v>
+        <v>10534</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C110" t="s">
-        <v>2290</v>
+        <v>2329</v>
       </c>
       <c r="D110" t="s">
         <v>81</v>
       </c>
       <c r="E110">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F110">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="I110">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110" s="1">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L110">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="M110">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N110">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="O110">
         <v>3</v>
       </c>
       <c r="P110">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q110">
         <v>4</v>
       </c>
       <c r="R110" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S110:$V110)</f>
         <v>0</v>
       </c>
       <c r="S110">
@@ -17827,108 +17831,192 @@
         <v>0</v>
       </c>
       <c r="W110">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="X110">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="Y110">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Z110">
-        <v>4.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AA110">
-        <v>105401</v>
+        <v>105341</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>10547</v>
+        <v>10540</v>
       </c>
       <c r="B111" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C111" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="D111" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E111">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F111">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="I111">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L111">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="M111">
         <v>40</v>
       </c>
       <c r="N111">
-        <v>31</v>
+        <v>28.5</v>
       </c>
       <c r="O111">
         <v>3</v>
       </c>
       <c r="P111">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q111">
         <v>4</v>
       </c>
       <c r="R111" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM($S111:$V111)</f>
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>75</v>
+      </c>
+      <c r="X111">
+        <v>115</v>
+      </c>
+      <c r="Y111">
+        <v>2.6</v>
+      </c>
+      <c r="Z111">
+        <v>4.8</v>
+      </c>
+      <c r="AA111">
+        <v>105401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>10547</v>
+      </c>
+      <c r="B112" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D112" t="s">
+        <v>70</v>
+      </c>
+      <c r="E112">
+        <v>84</v>
+      </c>
+      <c r="F112">
+        <v>115</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>104</v>
+      </c>
+      <c r="I112">
+        <v>80</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>96</v>
+      </c>
+      <c r="L112">
+        <v>51</v>
+      </c>
+      <c r="M112">
+        <v>40</v>
+      </c>
+      <c r="N112">
+        <v>31</v>
+      </c>
+      <c r="O112">
+        <v>3</v>
+      </c>
+      <c r="P112">
+        <v>5</v>
+      </c>
+      <c r="Q112">
+        <v>4</v>
+      </c>
+      <c r="R112" s="18">
+        <f>SUM($S112:$V112)</f>
         <v>9</v>
       </c>
-      <c r="S111">
+      <c r="S112">
         <v>3</v>
       </c>
-      <c r="T111">
+      <c r="T112">
         <v>3</v>
       </c>
-      <c r="U111">
+      <c r="U112">
         <v>3</v>
       </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
-      <c r="W111">
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
         <v>95</v>
       </c>
-      <c r="X111">
+      <c r="X112">
         <v>140</v>
       </c>
-      <c r="Y111">
+      <c r="Y112">
         <v>4.2</v>
       </c>
-      <c r="Z111">
+      <c r="Z112">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AA111">
+      <c r="AA112">
         <v>105471</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AC99" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC111">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC112">
       <sortCondition ref="A1:A99"/>
     </sortState>
   </autoFilter>
@@ -17983,10 +18071,10 @@
   <dimension ref="A1:AC178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N183" sqref="N183"/>
+      <selection pane="bottomRight" activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -31527,7 +31615,7 @@
         <v>0</v>
       </c>
       <c r="K158" s="1">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L158">
         <v>56</v>
@@ -33684,10 +33772,10 @@
   <dimension ref="A1:AA596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E575" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C601" sqref="C601"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -33797,9 +33885,6 @@
       <c r="D2" t="s">
         <v>1683</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="O2">
         <v>20</v>
       </c>
@@ -77494,7 +77579,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA587" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:AA596" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA570">
       <sortCondition ref="A1:A570"/>
     </sortState>
@@ -77509,11 +77594,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="S131" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X153" sqref="X153"/>
+      <selection pane="bottomRight" activeCell="M144" sqref="M144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -88770,7 +88855,7 @@
         <v>180</v>
       </c>
       <c r="J143" s="1">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -88845,7 +88930,7 @@
         <v>250</v>
       </c>
       <c r="J144" s="1">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -88918,7 +89003,7 @@
         <v>125</v>
       </c>
       <c r="J145" s="1">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -88991,7 +89076,7 @@
         <v>180</v>
       </c>
       <c r="J146" s="1">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -89064,7 +89149,7 @@
         <v>180</v>
       </c>
       <c r="J147" s="1">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -89137,7 +89222,7 @@
         <v>80</v>
       </c>
       <c r="J148" s="1">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -89222,7 +89307,7 @@
         <v>40</v>
       </c>
       <c r="J149" s="1">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -89307,7 +89392,7 @@
         <v>180</v>
       </c>
       <c r="J150" s="1">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K150">
         <v>0</v>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F535ED7D-C299-498F-8909-7DB6EB03F7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A67E12-0397-4B4F-97B7-90C61DB82633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14980" uniqueCount="2330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15007" uniqueCount="2348">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7437,6 +7437,74 @@
   <si>
     <t>24型</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10619</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM-1拳击手（HVAR）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼雷机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>619</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加15%暴击率与5%命中率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1导弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>620</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加10%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10625</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四联十六英寸主炮（T）</t>
+  </si>
+  <si>
+    <t>10626</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>景云改（80番）</t>
+  </si>
+  <si>
+    <t>轰炸机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10630</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2G超级海盗（小提姆）</t>
+  </si>
+  <si>
+    <t>630</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备时提高15%开幕轰炸攻击力</t>
   </si>
 </sst>
 </file>
@@ -8577,7 +8645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8732,7 +8800,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R48" si="0">SUM($S2:$V2)</f>
         <v>76</v>
       </c>
       <c r="S2">
@@ -8813,7 +8881,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S3">
@@ -8894,7 +8962,7 @@
         <v>4</v>
       </c>
       <c r="R4">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S4">
@@ -8975,7 +9043,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S5">
@@ -9056,7 +9124,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S6">
@@ -9137,7 +9205,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S7" s="6">
@@ -9222,7 +9290,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S8" s="6">
@@ -9307,7 +9375,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S9" s="6">
@@ -9392,7 +9460,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="S10">
@@ -9476,7 +9544,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S11">
@@ -9557,7 +9625,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="S12">
@@ -9641,7 +9709,7 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S13">
@@ -9722,7 +9790,7 @@
         <v>4</v>
       </c>
       <c r="R14">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S14">
@@ -9806,7 +9874,7 @@
         <v>4</v>
       </c>
       <c r="R15">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S15" s="6">
@@ -9891,7 +9959,7 @@
         <v>4</v>
       </c>
       <c r="R16">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S16" s="6">
@@ -9976,7 +10044,7 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S17" s="6">
@@ -10061,7 +10129,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S18" s="6">
@@ -10149,7 +10217,7 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S19" s="6">
@@ -10237,7 +10305,7 @@
         <v>4</v>
       </c>
       <c r="R20">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S20" s="6">
@@ -10322,7 +10390,7 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S21" s="6">
@@ -10407,7 +10475,7 @@
         <v>4</v>
       </c>
       <c r="R22">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S22" s="6">
@@ -10492,7 +10560,7 @@
         <v>4</v>
       </c>
       <c r="R23">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S23" s="6">
@@ -10577,7 +10645,7 @@
         <v>4</v>
       </c>
       <c r="R24">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S24">
@@ -10658,7 +10726,7 @@
         <v>4</v>
       </c>
       <c r="R25">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S25">
@@ -10739,7 +10807,7 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S26">
@@ -10820,7 +10888,7 @@
         <v>4</v>
       </c>
       <c r="R27">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S27">
@@ -10901,7 +10969,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="S28">
@@ -10985,7 +11053,7 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="S29">
@@ -11069,7 +11137,7 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="S30">
@@ -11150,7 +11218,7 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S31">
@@ -11237,7 +11305,7 @@
         <v>4</v>
       </c>
       <c r="R32">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="S32">
@@ -11318,7 +11386,7 @@
         <v>3</v>
       </c>
       <c r="R33">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S33" s="6">
@@ -11403,7 +11471,7 @@
         <v>3</v>
       </c>
       <c r="R34">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="S34" s="6">
@@ -11488,7 +11556,7 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S35" s="6">
@@ -11573,7 +11641,7 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S36" s="6">
@@ -11658,7 +11726,7 @@
         <v>3</v>
       </c>
       <c r="R37" s="18">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S37">
@@ -11742,7 +11810,7 @@
         <v>4</v>
       </c>
       <c r="R38">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="S38">
@@ -11826,7 +11894,7 @@
         <v>4</v>
       </c>
       <c r="R39">
-        <f>SUM($S39:$V39)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S39">
@@ -11913,7 +11981,7 @@
         <v>4</v>
       </c>
       <c r="R40">
-        <f>SUM($S40:$V40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40" s="6">
@@ -11997,7 +12065,7 @@
         <v>4</v>
       </c>
       <c r="R41">
-        <f>SUM($S41:$V41)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="S41">
@@ -12081,7 +12149,7 @@
         <v>4</v>
       </c>
       <c r="R42">
-        <f>SUM($S42:$V42)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S42">
@@ -12165,7 +12233,7 @@
         <v>3</v>
       </c>
       <c r="R43">
-        <f>SUM($S43:$V43)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S43">
@@ -12246,7 +12314,7 @@
         <v>4</v>
       </c>
       <c r="R44">
-        <f>SUM($S44:$V44)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S44" s="6">
@@ -12331,7 +12399,7 @@
         <v>3</v>
       </c>
       <c r="R45">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S45" s="6">
@@ -12416,7 +12484,7 @@
         <v>4</v>
       </c>
       <c r="R46">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S46" s="6">
@@ -12500,7 +12568,7 @@
         <v>3</v>
       </c>
       <c r="R47">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S47" s="6">
@@ -12585,7 +12653,7 @@
         <v>3</v>
       </c>
       <c r="R48">
-        <f>SUM($S48:$V48)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S48">
@@ -12749,7 +12817,7 @@
         <v>4</v>
       </c>
       <c r="R50">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" ref="R50:R79" si="1">SUM($S50:$V50)</f>
         <v>16</v>
       </c>
       <c r="S50" s="6">
@@ -12834,7 +12902,7 @@
         <v>4</v>
       </c>
       <c r="R51">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="S51">
@@ -12918,7 +12986,7 @@
         <v>4</v>
       </c>
       <c r="R52">
-        <f>SUM($S52:$V52)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="S52">
@@ -13005,7 +13073,7 @@
         <v>3</v>
       </c>
       <c r="R53" s="18">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S53">
@@ -13089,7 +13157,7 @@
         <v>4</v>
       </c>
       <c r="R54">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S54" s="6">
@@ -13174,7 +13242,7 @@
         <v>4</v>
       </c>
       <c r="R55">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S55" s="10">
@@ -13262,7 +13330,7 @@
         <v>3</v>
       </c>
       <c r="R56">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S56" s="6">
@@ -13347,7 +13415,7 @@
         <v>2</v>
       </c>
       <c r="R57">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S57">
@@ -13428,7 +13496,7 @@
         <v>4</v>
       </c>
       <c r="R58">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S58" s="10">
@@ -13512,7 +13580,7 @@
         <v>3</v>
       </c>
       <c r="R59">
-        <f>SUM($S59:$V59)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S59">
@@ -13593,7 +13661,7 @@
         <v>3</v>
       </c>
       <c r="R60">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S60">
@@ -13674,7 +13742,7 @@
         <v>4</v>
       </c>
       <c r="R61">
-        <f>SUM($S61:$V61)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="S61">
@@ -13758,7 +13826,7 @@
         <v>2</v>
       </c>
       <c r="R62">
-        <f>SUM($S62:$V62)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S62">
@@ -13839,7 +13907,7 @@
         <v>4</v>
       </c>
       <c r="R63">
-        <f>SUM($S63:$V63)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S63" s="10">
@@ -13924,7 +13992,7 @@
         <v>3</v>
       </c>
       <c r="R64">
-        <f>SUM($S64:$V64)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S64" s="6">
@@ -14009,7 +14077,7 @@
         <v>4</v>
       </c>
       <c r="R65">
-        <f>SUM($S65:$V65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S65" s="10">
@@ -14094,7 +14162,7 @@
         <v>3</v>
       </c>
       <c r="R66">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S66" s="6">
@@ -14179,7 +14247,7 @@
         <v>3</v>
       </c>
       <c r="R67">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S67" s="6">
@@ -14264,7 +14332,7 @@
         <v>4</v>
       </c>
       <c r="R68">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="S68">
@@ -14348,7 +14416,7 @@
         <v>4</v>
       </c>
       <c r="R69">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S69">
@@ -14435,7 +14503,7 @@
         <v>4</v>
       </c>
       <c r="R70">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S70" s="10">
@@ -14519,7 +14587,7 @@
         <v>4</v>
       </c>
       <c r="R71">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S71" s="10">
@@ -14603,7 +14671,7 @@
         <v>3</v>
       </c>
       <c r="R72">
-        <f>SUM($S72:$V72)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S72" s="6">
@@ -14688,7 +14756,7 @@
         <v>4</v>
       </c>
       <c r="R73">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S73" s="10">
@@ -14773,7 +14841,7 @@
         <v>4</v>
       </c>
       <c r="R74">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S74" s="10">
@@ -14857,7 +14925,7 @@
         <v>4</v>
       </c>
       <c r="R75">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S75" s="10">
@@ -14942,7 +15010,7 @@
         <v>4</v>
       </c>
       <c r="R76">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S76" s="10">
@@ -15027,7 +15095,7 @@
         <v>3</v>
       </c>
       <c r="R77">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S77" s="6">
@@ -15112,7 +15180,7 @@
         <v>4</v>
       </c>
       <c r="R78">
-        <f>SUM($S78:$V78)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S78" s="10">
@@ -15197,7 +15265,7 @@
         <v>4</v>
       </c>
       <c r="R79">
-        <f>SUM($S79:$V79)</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="S79">
@@ -15364,7 +15432,7 @@
         <v>4</v>
       </c>
       <c r="R81">
-        <f>SUM($S81:$V81)</f>
+        <f t="shared" ref="R81:R112" si="2">SUM($S81:$V81)</f>
         <v>12</v>
       </c>
       <c r="S81" s="10">
@@ -15449,7 +15517,7 @@
         <v>4</v>
       </c>
       <c r="R82">
-        <f>SUM($S82:$V82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S82" s="10">
@@ -15533,7 +15601,7 @@
         <v>4</v>
       </c>
       <c r="R83">
-        <f>SUM($S83:$V83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S83" s="10">
@@ -15618,7 +15686,7 @@
         <v>3</v>
       </c>
       <c r="R84">
-        <f>SUM($S84:$V84)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S84">
@@ -15702,7 +15770,7 @@
         <v>4</v>
       </c>
       <c r="R85">
-        <f>SUM($S85:$V85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S85" s="10">
@@ -15787,7 +15855,7 @@
         <v>4</v>
       </c>
       <c r="R86">
-        <f>SUM($S86:$V86)</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="S86">
@@ -15874,7 +15942,7 @@
         <v>4</v>
       </c>
       <c r="R87">
-        <f>SUM($S87:$V87)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="S87">
@@ -15958,7 +16026,7 @@
         <v>4</v>
       </c>
       <c r="R88">
-        <f>SUM($S88:$V88)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="S88">
@@ -16039,7 +16107,7 @@
         <v>4</v>
       </c>
       <c r="R89">
-        <f>SUM($S89:$V89)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="S89">
@@ -16123,7 +16191,7 @@
         <v>3</v>
       </c>
       <c r="R90">
-        <f>SUM($S90:$V90)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="S90" s="6">
@@ -16208,7 +16276,7 @@
         <v>4</v>
       </c>
       <c r="R91">
-        <f>SUM($S91:$V91)</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="S91">
@@ -16292,7 +16360,7 @@
         <v>4</v>
       </c>
       <c r="R92">
-        <f>SUM($S92:$V92)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S92" s="6">
@@ -16376,7 +16444,7 @@
         <v>4</v>
       </c>
       <c r="R93">
-        <f>SUM($S93:$V93)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="S93">
@@ -16460,7 +16528,7 @@
         <v>4</v>
       </c>
       <c r="R94">
-        <f>SUM($S94:$V94)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S94" s="6">
@@ -16544,7 +16612,7 @@
         <v>4</v>
       </c>
       <c r="R95">
-        <f>SUM($S95:$V95)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="S95">
@@ -16628,7 +16696,7 @@
         <v>4</v>
       </c>
       <c r="R96">
-        <f>SUM($S96:$V96)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S96">
@@ -16715,7 +16783,7 @@
         <v>4</v>
       </c>
       <c r="R97">
-        <f>SUM($S97:$V97)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S97" s="6">
@@ -16800,7 +16868,7 @@
         <v>3</v>
       </c>
       <c r="R98" s="18">
-        <f>SUM($S98:$V98)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S98">
@@ -16884,7 +16952,7 @@
         <v>4</v>
       </c>
       <c r="R99" s="18">
-        <f>SUM($S99:$V99)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S99">
@@ -16968,7 +17036,7 @@
         <v>4</v>
       </c>
       <c r="R100">
-        <f>SUM($S100:$V100)</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="S100">
@@ -17052,7 +17120,7 @@
         <v>4</v>
       </c>
       <c r="R101">
-        <f>SUM($S101:$V101)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S101" s="6">
@@ -17140,7 +17208,7 @@
         <v>4</v>
       </c>
       <c r="R102" s="18">
-        <f>SUM($S102:$V102)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S102">
@@ -17224,7 +17292,7 @@
         <v>4</v>
       </c>
       <c r="R103" s="18">
-        <f>SUM($S103:$V103)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S103">
@@ -17308,7 +17376,7 @@
         <v>4</v>
       </c>
       <c r="R104" s="18">
-        <f>SUM($S104:$V104)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S104">
@@ -17392,7 +17460,7 @@
         <v>3</v>
       </c>
       <c r="R105" s="18">
-        <f>SUM($S105:$V105)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S105">
@@ -17476,7 +17544,7 @@
         <v>4</v>
       </c>
       <c r="R106" s="18">
-        <f>SUM($S106:$V106)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S106">
@@ -17563,7 +17631,7 @@
         <v>4</v>
       </c>
       <c r="R107" s="18">
-        <f>SUM($S107:$V107)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S107">
@@ -17647,7 +17715,7 @@
         <v>4</v>
       </c>
       <c r="R108" s="18">
-        <f>SUM($S108:$V108)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S108">
@@ -17731,7 +17799,7 @@
         <v>3</v>
       </c>
       <c r="R109" s="18">
-        <f>SUM($S109:$V109)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="S109">
@@ -17815,7 +17883,7 @@
         <v>4</v>
       </c>
       <c r="R110" s="18">
-        <f>SUM($S110:$V110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S110">
@@ -17899,7 +17967,7 @@
         <v>4</v>
       </c>
       <c r="R111" s="18">
-        <f>SUM($S111:$V111)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S111">
@@ -17983,7 +18051,7 @@
         <v>4</v>
       </c>
       <c r="R112" s="18">
-        <f>SUM($S112:$V112)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S112">
@@ -33769,13 +33837,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA596"/>
+  <dimension ref="A1:AA601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="O587" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="L599" sqref="L599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -77576,6 +77644,172 @@
       </c>
       <c r="Q596">
         <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B597" t="s">
+        <v>304</v>
+      </c>
+      <c r="C597" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D597" s="5" t="s">
+        <v>2332</v>
+      </c>
+      <c r="G597">
+        <v>15</v>
+      </c>
+      <c r="I597">
+        <v>3</v>
+      </c>
+      <c r="J597">
+        <v>2</v>
+      </c>
+      <c r="K597">
+        <v>1</v>
+      </c>
+      <c r="Q597">
+        <v>1</v>
+      </c>
+      <c r="V597">
+        <v>6</v>
+      </c>
+      <c r="W597" s="2" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AA597" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="598" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C598" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D598" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F598">
+        <v>14</v>
+      </c>
+      <c r="P598">
+        <v>17</v>
+      </c>
+      <c r="Q598">
+        <v>3.8</v>
+      </c>
+      <c r="R598">
+        <v>0.8</v>
+      </c>
+      <c r="T598">
+        <v>21</v>
+      </c>
+      <c r="V598">
+        <v>6</v>
+      </c>
+      <c r="W598" s="2" t="s">
+        <v>2337</v>
+      </c>
+      <c r="AA598" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="599" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C599" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D599" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F599">
+        <v>28</v>
+      </c>
+      <c r="K599">
+        <v>2</v>
+      </c>
+      <c r="L599">
+        <v>3</v>
+      </c>
+      <c r="Q599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B600" t="s">
+        <v>294</v>
+      </c>
+      <c r="C600" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D600" s="5" t="s">
+        <v>2343</v>
+      </c>
+      <c r="K600">
+        <v>2</v>
+      </c>
+      <c r="O600">
+        <v>13</v>
+      </c>
+      <c r="Q600">
+        <v>1</v>
+      </c>
+      <c r="V600">
+        <v>5</v>
+      </c>
+      <c r="W600" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="Y600" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="601" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A601" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B601" t="s">
+        <v>294</v>
+      </c>
+      <c r="C601" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D601" s="5" t="s">
+        <v>2343</v>
+      </c>
+      <c r="O601">
+        <v>12</v>
+      </c>
+      <c r="P601">
+        <v>9</v>
+      </c>
+      <c r="Q601">
+        <v>1</v>
+      </c>
+      <c r="V601">
+        <v>6</v>
+      </c>
+      <c r="W601" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="AA601" t="s">
+        <v>2347</v>
       </c>
     </row>
   </sheetData>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A67E12-0397-4B4F-97B7-90C61DB82633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA18E68-41F6-4AB6-9E89-9C56E9212C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7459,10 +7459,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>16020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>M1导弹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7505,6 +7501,10 @@
   </si>
   <si>
     <t>装备时提高15%开幕轰炸攻击力</t>
+  </si>
+  <si>
+    <t>10620</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -33843,7 +33843,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="O587" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L599" sqref="L599"/>
+      <selection pane="bottomRight" activeCell="U609" sqref="U609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -77686,13 +77686,13 @@
     </row>
     <row r="598" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>2335</v>
+        <v>2347</v>
       </c>
       <c r="B598" t="s">
         <v>1673</v>
       </c>
       <c r="C598" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D598" s="5" t="s">
         <v>1561</v>
@@ -77716,21 +77716,21 @@
         <v>6</v>
       </c>
       <c r="W598" s="2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="AA598" t="s">
         <v>2337</v>
-      </c>
-      <c r="AA598" t="s">
-        <v>2338</v>
       </c>
     </row>
     <row r="599" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B599" t="s">
         <v>1671</v>
       </c>
       <c r="C599" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D599" s="5" t="s">
         <v>282</v>
@@ -77750,16 +77750,16 @@
     </row>
     <row r="600" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B600" t="s">
         <v>294</v>
       </c>
       <c r="C600" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D600" s="5" t="s">
         <v>2342</v>
-      </c>
-      <c r="D600" s="5" t="s">
-        <v>2343</v>
       </c>
       <c r="K600">
         <v>2</v>
@@ -77782,16 +77782,16 @@
     </row>
     <row r="601" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B601" t="s">
         <v>294</v>
       </c>
       <c r="C601" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D601" s="5" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="O601">
         <v>12</v>
@@ -77806,10 +77806,10 @@
         <v>6</v>
       </c>
       <c r="W601" s="2" t="s">
+        <v>2345</v>
+      </c>
+      <c r="AA601" t="s">
         <v>2346</v>
-      </c>
-      <c r="AA601" t="s">
-        <v>2347</v>
       </c>
     </row>
   </sheetData>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A630FC0-54A7-44E9-9F78-BA395878BF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6561E0B2-BDB5-4913-B793-8117D510F9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22710" yWindow="2760" windowWidth="17280" windowHeight="11190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$176</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$202</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$112</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$602</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15026" uniqueCount="2350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15032" uniqueCount="2361">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7490,10 +7490,6 @@
     <t>F2G超级海盗（小提姆）</t>
   </si>
   <si>
-    <t>630</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>装备时提高15%开幕轰炸攻击力</t>
   </si>
   <si>
@@ -7514,6 +7510,50 @@
   </si>
   <si>
     <t>黑寡妇战斗机</t>
+  </si>
+  <si>
+    <t>024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10631</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马舒卡导弹MK2</t>
+  </si>
+  <si>
+    <t>631</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>絮弗伦装备时增加20%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10632</t>
+  </si>
+  <si>
+    <t>10633</t>
+  </si>
+  <si>
+    <t>马舒卡防空系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>632</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>絮弗伦装备时提高10%回避率，降低敌方航空战阶段5%命中率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4U-7（火箭弹）</t>
+  </si>
+  <si>
+    <t>装备时提高10%开幕轰炸攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8655,10 +8695,10 @@
   <dimension ref="A1:AC112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K117" sqref="K117"/>
+      <selection pane="bottomRight" activeCell="V117" sqref="V117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13671,7 +13711,7 @@
       </c>
       <c r="R60">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="S60">
         <v>8</v>
@@ -13683,7 +13723,7 @@
         <v>8</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W60">
         <v>30</v>
@@ -18092,7 +18132,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC99" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:AC112" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC112">
       <sortCondition ref="A1:A99"/>
     </sortState>
@@ -33846,13 +33886,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA602"/>
+  <dimension ref="A1:AA605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="O581" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="V590" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C605" sqref="C605"/>
+      <selection pane="bottomRight" activeCell="C598" sqref="C598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -62168,7 +62208,7 @@
         <v>1777</v>
       </c>
       <c r="AA369" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.25">
@@ -75135,7 +75175,7 @@
         <v>296</v>
       </c>
       <c r="C536" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D536" s="5" t="s">
         <v>289</v>
@@ -77701,7 +77741,7 @@
     </row>
     <row r="598" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B598" t="s">
         <v>1672</v>
@@ -77797,13 +77837,13 @@
     </row>
     <row r="601" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B601" t="s">
         <v>218</v>
       </c>
       <c r="C601" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D601" s="5" t="s">
         <v>286</v>
@@ -77856,10 +77896,118 @@
         <v>6</v>
       </c>
       <c r="W602" s="2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="Y602" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="AA602" t="s">
         <v>2343</v>
       </c>
-      <c r="AA602" t="s">
-        <v>2344</v>
+    </row>
+    <row r="603" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A603" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C603" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D603" s="5" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F603">
+        <v>20</v>
+      </c>
+      <c r="P603">
+        <v>20</v>
+      </c>
+      <c r="Q603">
+        <v>3.7</v>
+      </c>
+      <c r="R603">
+        <v>0.8</v>
+      </c>
+      <c r="T603">
+        <v>22</v>
+      </c>
+      <c r="V603">
+        <v>9</v>
+      </c>
+      <c r="W603" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="AA603" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="604" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A604" s="2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C604" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D604" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J604">
+        <v>10</v>
+      </c>
+      <c r="K604">
+        <v>2</v>
+      </c>
+      <c r="P604">
+        <v>3</v>
+      </c>
+      <c r="Q604">
+        <v>1</v>
+      </c>
+      <c r="W604" s="2" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AA604" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="605" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A605" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B605" t="s">
+        <v>294</v>
+      </c>
+      <c r="C605" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D605" s="5" t="s">
+        <v>2340</v>
+      </c>
+      <c r="O605">
+        <v>13</v>
+      </c>
+      <c r="P605">
+        <v>8</v>
+      </c>
+      <c r="Q605">
+        <v>1</v>
+      </c>
+      <c r="V605">
+        <v>6</v>
+      </c>
+      <c r="W605" s="2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="Y605" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AA605" t="s">
+        <v>2360</v>
       </c>
     </row>
   </sheetData>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6561E0B2-BDB5-4913-B793-8117D510F9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ECB6F0-143E-472D-878E-80C3605E5A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22710" yWindow="2760" windowWidth="17280" windowHeight="11190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24495" yWindow="2700" windowWidth="21600" windowHeight="11325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="海图" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$181</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$202</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$602</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15032" uniqueCount="2361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15044" uniqueCount="2365">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7554,6 +7554,21 @@
   <si>
     <t>装备时提高10%开幕轰炸攻击力</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>絮弗伦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜达卡纳尔</t>
   </si>
 </sst>
 </file>
@@ -8692,13 +8707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC112"/>
+  <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V117" sqref="V117"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13440,7 +13455,7 @@
         <v>87</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="K57">
         <v>99</v>
@@ -13465,7 +13480,7 @@
       </c>
       <c r="R57">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S57">
         <v>20</v>
@@ -13474,7 +13489,7 @@
         <v>20</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -13686,7 +13701,7 @@
         <v>81</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K60">
         <v>99</v>
@@ -13851,7 +13866,7 @@
         <v>95</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="K62">
         <v>99</v>
@@ -13876,7 +13891,7 @@
       </c>
       <c r="R62">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S62">
         <v>20</v>
@@ -13885,7 +13900,7 @@
         <v>20</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -18131,8 +18146,92 @@
         <v>105471</v>
       </c>
     </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>10552</v>
+      </c>
+      <c r="B113" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D113" t="s">
+        <v>70</v>
+      </c>
+      <c r="E113">
+        <v>32</v>
+      </c>
+      <c r="F113">
+        <v>35</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>35</v>
+      </c>
+      <c r="I113">
+        <v>92</v>
+      </c>
+      <c r="J113">
+        <v>84</v>
+      </c>
+      <c r="K113" s="1">
+        <v>99</v>
+      </c>
+      <c r="L113">
+        <v>80</v>
+      </c>
+      <c r="M113">
+        <v>41</v>
+      </c>
+      <c r="N113">
+        <v>34</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>15</v>
+      </c>
+      <c r="Q113">
+        <v>3</v>
+      </c>
+      <c r="R113" s="18">
+        <f t="shared" ref="R113" si="3">SUM($S113:$V113)</f>
+        <v>48</v>
+      </c>
+      <c r="S113">
+        <v>16</v>
+      </c>
+      <c r="T113">
+        <v>16</v>
+      </c>
+      <c r="U113">
+        <v>16</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>25</v>
+      </c>
+      <c r="X113">
+        <v>45</v>
+      </c>
+      <c r="Y113">
+        <v>0.7</v>
+      </c>
+      <c r="Z113">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA113">
+        <v>105521</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC112" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:AC113" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC112">
       <sortCondition ref="A1:A99"/>
     </sortState>
@@ -18185,13 +18284,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC178"/>
+  <dimension ref="A1:AC181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C173" sqref="C173"/>
+      <selection pane="bottomRight" activeCell="K188" sqref="K188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18343,7 +18442,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R33" si="0">SUM($S2:$V2)</f>
+        <f>SUM($S2:$V2)</f>
         <v>12</v>
       </c>
       <c r="S2" s="6">
@@ -18430,7 +18529,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
+        <f>SUM($S3:$V3)</f>
         <v>30</v>
       </c>
       <c r="S3">
@@ -18514,7 +18613,7 @@
         <v>4</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
+        <f>SUM($S4:$V4)</f>
         <v>8</v>
       </c>
       <c r="S4" s="10">
@@ -18599,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f>SUM($S5:$V5)</f>
         <v>24</v>
       </c>
       <c r="S5">
@@ -18683,7 +18782,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f>SUM($S6:$V6)</f>
         <v>24</v>
       </c>
       <c r="S6">
@@ -18767,7 +18866,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f>SUM($S7:$V7)</f>
         <v>16</v>
       </c>
       <c r="S7" s="10">
@@ -18854,7 +18953,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f>SUM($S8:$V8)</f>
         <v>16</v>
       </c>
       <c r="S8" s="10">
@@ -18939,7 +19038,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f>SUM($S9:$V9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="10">
@@ -19027,7 +19126,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f>SUM($S10:$V10)</f>
         <v>8</v>
       </c>
       <c r="S10" s="10">
@@ -19117,7 +19216,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f>SUM($S11:$V11)</f>
         <v>16</v>
       </c>
       <c r="S11" s="10">
@@ -19204,7 +19303,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f>SUM($S12:$V12)</f>
         <v>12</v>
       </c>
       <c r="S12" s="10">
@@ -19289,7 +19388,7 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f>SUM($S13:$V13)</f>
         <v>12</v>
       </c>
       <c r="S13" s="10">
@@ -19374,7 +19473,7 @@
         <v>4</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f>SUM($S14:$V14)</f>
         <v>12</v>
       </c>
       <c r="S14" s="10">
@@ -19459,7 +19558,7 @@
         <v>4</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f>SUM($S15:$V15)</f>
         <v>12</v>
       </c>
       <c r="S15" s="10">
@@ -19544,7 +19643,7 @@
         <v>4</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f>SUM($S16:$V16)</f>
         <v>16</v>
       </c>
       <c r="S16" s="6">
@@ -19631,7 +19730,7 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f>SUM($S17:$V17)</f>
         <v>16</v>
       </c>
       <c r="S17" s="6">
@@ -19716,7 +19815,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f>SUM($S18:$V18)</f>
         <v>48</v>
       </c>
       <c r="S18">
@@ -19800,7 +19899,7 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f>SUM($S19:$V19)</f>
         <v>48</v>
       </c>
       <c r="S19">
@@ -19884,7 +19983,7 @@
         <v>4</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
+        <f>SUM($S20:$V20)</f>
         <v>86</v>
       </c>
       <c r="S20">
@@ -19971,7 +20070,7 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f t="shared" si="0"/>
+        <f>SUM($S21:$V21)</f>
         <v>95</v>
       </c>
       <c r="S21">
@@ -20058,7 +20157,7 @@
         <v>3</v>
       </c>
       <c r="R22">
-        <f t="shared" si="0"/>
+        <f>SUM($S22:$V22)</f>
         <v>39</v>
       </c>
       <c r="S22">
@@ -20142,7 +20241,7 @@
         <v>3</v>
       </c>
       <c r="R23">
-        <f t="shared" si="0"/>
+        <f>SUM($S23:$V23)</f>
         <v>37</v>
       </c>
       <c r="S23">
@@ -20226,7 +20325,7 @@
         <v>3</v>
       </c>
       <c r="R24">
-        <f t="shared" si="0"/>
+        <f>SUM($S24:$V24)</f>
         <v>28</v>
       </c>
       <c r="S24">
@@ -20307,7 +20406,7 @@
         <v>3</v>
       </c>
       <c r="R25">
-        <f t="shared" si="0"/>
+        <f>SUM($S25:$V25)</f>
         <v>35</v>
       </c>
       <c r="S25">
@@ -20388,7 +20487,7 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f t="shared" si="0"/>
+        <f>SUM($S26:$V26)</f>
         <v>65</v>
       </c>
       <c r="S26">
@@ -20472,7 +20571,7 @@
         <v>4</v>
       </c>
       <c r="R27">
-        <f t="shared" si="0"/>
+        <f>SUM($S27:$V27)</f>
         <v>85</v>
       </c>
       <c r="S27">
@@ -20556,7 +20655,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <f t="shared" si="0"/>
+        <f>SUM($S28:$V28)</f>
         <v>85</v>
       </c>
       <c r="S28">
@@ -20643,7 +20742,7 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f t="shared" si="0"/>
+        <f>SUM($S29:$V29)</f>
         <v>87</v>
       </c>
       <c r="S29">
@@ -20727,7 +20826,7 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f t="shared" si="0"/>
+        <f>SUM($S30:$V30)</f>
         <v>6</v>
       </c>
       <c r="S30" s="6">
@@ -20812,7 +20911,7 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <f t="shared" si="0"/>
+        <f>SUM($S31:$V31)</f>
         <v>6</v>
       </c>
       <c r="S31" s="6">
@@ -20897,7 +20996,7 @@
         <v>4</v>
       </c>
       <c r="R32">
-        <f t="shared" si="0"/>
+        <f>SUM($S32:$V32)</f>
         <v>6</v>
       </c>
       <c r="S32" s="6">
@@ -20982,7 +21081,7 @@
         <v>4</v>
       </c>
       <c r="R33">
-        <f t="shared" si="0"/>
+        <f>SUM($S33:$V33)</f>
         <v>6</v>
       </c>
       <c r="S33" s="6">
@@ -21067,7 +21166,7 @@
         <v>4</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34:R65" si="1">SUM($S34:$V34)</f>
+        <f>SUM($S34:$V34)</f>
         <v>12</v>
       </c>
       <c r="S34" s="6">
@@ -21152,7 +21251,7 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
+        <f>SUM($S35:$V35)</f>
         <v>12</v>
       </c>
       <c r="S35" s="6">
@@ -21237,7 +21336,7 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
+        <f>SUM($S36:$V36)</f>
         <v>12</v>
       </c>
       <c r="S36" s="6">
@@ -21324,7 +21423,7 @@
         <v>4</v>
       </c>
       <c r="R37">
-        <f t="shared" si="1"/>
+        <f>SUM($S37:$V37)</f>
         <v>6</v>
       </c>
       <c r="S37" s="6">
@@ -21409,7 +21508,7 @@
         <v>4</v>
       </c>
       <c r="R38">
-        <f t="shared" si="1"/>
+        <f>SUM($S38:$V38)</f>
         <v>8</v>
       </c>
       <c r="S38" s="6">
@@ -21496,7 +21595,7 @@
         <v>3</v>
       </c>
       <c r="R39" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM($S39:$V39)</f>
         <v>0</v>
       </c>
       <c r="S39">
@@ -21583,7 +21682,7 @@
         <v>3</v>
       </c>
       <c r="R40" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM($S40:$V40)</f>
         <v>0</v>
       </c>
       <c r="S40">
@@ -21670,7 +21769,7 @@
         <v>3</v>
       </c>
       <c r="R41" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM($S41:$V41)</f>
         <v>3</v>
       </c>
       <c r="S41">
@@ -21754,7 +21853,7 @@
         <v>4</v>
       </c>
       <c r="R42" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM($S42:$V42)</f>
         <v>0</v>
       </c>
       <c r="S42">
@@ -21838,7 +21937,7 @@
         <v>3</v>
       </c>
       <c r="R43">
-        <f t="shared" si="1"/>
+        <f>SUM($S43:$V43)</f>
         <v>0</v>
       </c>
       <c r="S43" s="6">
@@ -21923,7 +22022,7 @@
         <v>3</v>
       </c>
       <c r="R44">
-        <f t="shared" si="1"/>
+        <f>SUM($S44:$V44)</f>
         <v>6</v>
       </c>
       <c r="S44" s="6">
@@ -22008,7 +22107,7 @@
         <v>3</v>
       </c>
       <c r="R45">
-        <f t="shared" si="1"/>
+        <f>SUM($S45:$V45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="6">
@@ -22093,7 +22192,7 @@
         <v>3</v>
       </c>
       <c r="R46">
-        <f t="shared" si="1"/>
+        <f>SUM($S46:$V46)</f>
         <v>12</v>
       </c>
       <c r="S46" s="6">
@@ -22180,7 +22279,7 @@
         <v>3</v>
       </c>
       <c r="R47">
-        <f t="shared" si="1"/>
+        <f>SUM($S47:$V47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="6">
@@ -22270,7 +22369,7 @@
         <v>3</v>
       </c>
       <c r="R48">
-        <f t="shared" si="1"/>
+        <f>SUM($S48:$V48)</f>
         <v>0</v>
       </c>
       <c r="S48" s="6">
@@ -22358,7 +22457,7 @@
         <v>3</v>
       </c>
       <c r="R49">
-        <f t="shared" si="1"/>
+        <f>SUM($S49:$V49)</f>
         <v>0</v>
       </c>
       <c r="S49" s="6">
@@ -22446,7 +22545,7 @@
         <v>3</v>
       </c>
       <c r="R50">
-        <f t="shared" si="1"/>
+        <f>SUM($S50:$V50)</f>
         <v>0</v>
       </c>
       <c r="S50" s="6">
@@ -22534,7 +22633,7 @@
         <v>3</v>
       </c>
       <c r="R51">
-        <f t="shared" si="1"/>
+        <f>SUM($S51:$V51)</f>
         <v>0</v>
       </c>
       <c r="S51" s="6">
@@ -22622,7 +22721,7 @@
         <v>3</v>
       </c>
       <c r="R52">
-        <f t="shared" si="1"/>
+        <f>SUM($S52:$V52)</f>
         <v>0</v>
       </c>
       <c r="S52" s="6">
@@ -22710,7 +22809,7 @@
         <v>3</v>
       </c>
       <c r="R53">
-        <f t="shared" si="1"/>
+        <f>SUM($S53:$V53)</f>
         <v>0</v>
       </c>
       <c r="S53" s="6">
@@ -22798,7 +22897,7 @@
         <v>3</v>
       </c>
       <c r="R54">
-        <f t="shared" si="1"/>
+        <f>SUM($S54:$V54)</f>
         <v>0</v>
       </c>
       <c r="S54" s="6">
@@ -22886,7 +22985,7 @@
         <v>3</v>
       </c>
       <c r="R55">
-        <f t="shared" si="1"/>
+        <f>SUM($S55:$V55)</f>
         <v>0</v>
       </c>
       <c r="S55" s="6">
@@ -22974,7 +23073,7 @@
         <v>3</v>
       </c>
       <c r="R56">
-        <f t="shared" si="1"/>
+        <f>SUM($S56:$V56)</f>
         <v>0</v>
       </c>
       <c r="S56" s="6">
@@ -23062,7 +23161,7 @@
         <v>3</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
+        <f>SUM($S57:$V57)</f>
         <v>0</v>
       </c>
       <c r="S57" s="6">
@@ -23150,7 +23249,7 @@
         <v>3</v>
       </c>
       <c r="R58">
-        <f t="shared" si="1"/>
+        <f>SUM($S58:$V58)</f>
         <v>0</v>
       </c>
       <c r="S58" s="6">
@@ -23240,7 +23339,7 @@
         <v>3</v>
       </c>
       <c r="R59">
-        <f t="shared" si="1"/>
+        <f>SUM($S59:$V59)</f>
         <v>0</v>
       </c>
       <c r="S59" s="6">
@@ -23328,7 +23427,7 @@
         <v>3</v>
       </c>
       <c r="R60">
-        <f t="shared" si="1"/>
+        <f>SUM($S60:$V60)</f>
         <v>0</v>
       </c>
       <c r="S60" s="6">
@@ -23416,7 +23515,7 @@
         <v>3</v>
       </c>
       <c r="R61">
-        <f t="shared" si="1"/>
+        <f>SUM($S61:$V61)</f>
         <v>0</v>
       </c>
       <c r="S61" s="6">
@@ -23504,7 +23603,7 @@
         <v>3</v>
       </c>
       <c r="R62">
-        <f t="shared" si="1"/>
+        <f>SUM($S62:$V62)</f>
         <v>0</v>
       </c>
       <c r="S62" s="6">
@@ -23589,7 +23688,7 @@
         <v>3</v>
       </c>
       <c r="R63">
-        <f t="shared" si="1"/>
+        <f>SUM($S63:$V63)</f>
         <v>0</v>
       </c>
       <c r="S63" s="6">
@@ -23676,7 +23775,7 @@
         <v>3</v>
       </c>
       <c r="R64">
-        <f t="shared" si="1"/>
+        <f>SUM($S64:$V64)</f>
         <v>0</v>
       </c>
       <c r="S64" s="6">
@@ -23761,7 +23860,7 @@
         <v>3</v>
       </c>
       <c r="R65">
-        <f t="shared" si="1"/>
+        <f>SUM($S65:$V65)</f>
         <v>0</v>
       </c>
       <c r="S65" s="6">
@@ -23846,7 +23945,7 @@
         <v>3</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R97" si="2">SUM($S66:$V66)</f>
+        <f>SUM($S66:$V66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="6">
@@ -23931,7 +24030,7 @@
         <v>3</v>
       </c>
       <c r="R67">
-        <f t="shared" si="2"/>
+        <f>SUM($S67:$V67)</f>
         <v>0</v>
       </c>
       <c r="S67" s="6">
@@ -24016,7 +24115,7 @@
         <v>3</v>
       </c>
       <c r="R68">
-        <f t="shared" si="2"/>
+        <f>SUM($S68:$V68)</f>
         <v>0</v>
       </c>
       <c r="S68" s="6">
@@ -24101,7 +24200,7 @@
         <v>3</v>
       </c>
       <c r="R69">
-        <f t="shared" si="2"/>
+        <f>SUM($S69:$V69)</f>
         <v>0</v>
       </c>
       <c r="S69" s="6">
@@ -24186,7 +24285,7 @@
         <v>3</v>
       </c>
       <c r="R70">
-        <f t="shared" si="2"/>
+        <f>SUM($S70:$V70)</f>
         <v>0</v>
       </c>
       <c r="S70" s="6">
@@ -24271,7 +24370,7 @@
         <v>3</v>
       </c>
       <c r="R71">
-        <f t="shared" si="2"/>
+        <f>SUM($S71:$V71)</f>
         <v>0</v>
       </c>
       <c r="S71" s="6">
@@ -24356,7 +24455,7 @@
         <v>3</v>
       </c>
       <c r="R72">
-        <f t="shared" si="2"/>
+        <f>SUM($S72:$V72)</f>
         <v>0</v>
       </c>
       <c r="S72" s="6">
@@ -24419,7 +24518,7 @@
         <v>80</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K73" s="1">
         <v>105</v>
@@ -24443,7 +24542,7 @@
         <v>3</v>
       </c>
       <c r="R73">
-        <f t="shared" si="2"/>
+        <f>SUM($S73:$V73)</f>
         <v>36</v>
       </c>
       <c r="S73">
@@ -24528,7 +24627,7 @@
         <v>3</v>
       </c>
       <c r="R74">
-        <f t="shared" si="2"/>
+        <f>SUM($S74:$V74)</f>
         <v>24</v>
       </c>
       <c r="S74">
@@ -24613,7 +24712,7 @@
         <v>3</v>
       </c>
       <c r="R75">
-        <f t="shared" si="2"/>
+        <f>SUM($S75:$V75)</f>
         <v>0</v>
       </c>
       <c r="S75" s="6">
@@ -24698,7 +24797,7 @@
         <v>3</v>
       </c>
       <c r="R76">
-        <f t="shared" si="2"/>
+        <f>SUM($S76:$V76)</f>
         <v>0</v>
       </c>
       <c r="S76" s="6">
@@ -24783,7 +24882,7 @@
         <v>4</v>
       </c>
       <c r="R77">
-        <f t="shared" si="2"/>
+        <f>SUM($S77:$V77)</f>
         <v>0</v>
       </c>
       <c r="S77" s="10">
@@ -24870,7 +24969,7 @@
         <v>4</v>
       </c>
       <c r="R78">
-        <f t="shared" si="2"/>
+        <f>SUM($S78:$V78)</f>
         <v>12</v>
       </c>
       <c r="S78" s="10">
@@ -24960,7 +25059,7 @@
         <v>4</v>
       </c>
       <c r="R79">
-        <f t="shared" si="2"/>
+        <f>SUM($S79:$V79)</f>
         <v>12</v>
       </c>
       <c r="S79" s="10">
@@ -25050,7 +25149,7 @@
         <v>4</v>
       </c>
       <c r="R80">
-        <f t="shared" si="2"/>
+        <f>SUM($S80:$V80)</f>
         <v>12</v>
       </c>
       <c r="S80" s="10">
@@ -25137,7 +25236,7 @@
         <v>4</v>
       </c>
       <c r="R81">
-        <f t="shared" si="2"/>
+        <f>SUM($S81:$V81)</f>
         <v>16</v>
       </c>
       <c r="S81" s="10">
@@ -25222,7 +25321,7 @@
         <v>4</v>
       </c>
       <c r="R82">
-        <f t="shared" si="2"/>
+        <f>SUM($S82:$V82)</f>
         <v>16</v>
       </c>
       <c r="S82" s="10">
@@ -25307,7 +25406,7 @@
         <v>4</v>
       </c>
       <c r="R83">
-        <f t="shared" si="2"/>
+        <f>SUM($S83:$V83)</f>
         <v>16</v>
       </c>
       <c r="S83" s="10">
@@ -25395,7 +25494,7 @@
         <v>4</v>
       </c>
       <c r="R84">
-        <f t="shared" si="2"/>
+        <f>SUM($S84:$V84)</f>
         <v>16</v>
       </c>
       <c r="S84" s="10">
@@ -25485,7 +25584,7 @@
         <v>4</v>
       </c>
       <c r="R85">
-        <f t="shared" si="2"/>
+        <f>SUM($S85:$V85)</f>
         <v>12</v>
       </c>
       <c r="S85" s="10">
@@ -25575,7 +25674,7 @@
         <v>4</v>
       </c>
       <c r="R86">
-        <f t="shared" si="2"/>
+        <f>SUM($S86:$V86)</f>
         <v>12</v>
       </c>
       <c r="S86" s="10">
@@ -25662,7 +25761,7 @@
         <v>4</v>
       </c>
       <c r="R87">
-        <f t="shared" si="2"/>
+        <f>SUM($S87:$V87)</f>
         <v>12</v>
       </c>
       <c r="S87" s="10">
@@ -25747,7 +25846,7 @@
         <v>4</v>
       </c>
       <c r="R88">
-        <f t="shared" si="2"/>
+        <f>SUM($S88:$V88)</f>
         <v>0</v>
       </c>
       <c r="S88" s="10">
@@ -25834,7 +25933,7 @@
         <v>4</v>
       </c>
       <c r="R89">
-        <f t="shared" si="2"/>
+        <f>SUM($S89:$V89)</f>
         <v>72</v>
       </c>
       <c r="S89">
@@ -25921,7 +26020,7 @@
         <v>4</v>
       </c>
       <c r="R90">
-        <f t="shared" si="2"/>
+        <f>SUM($S90:$V90)</f>
         <v>68</v>
       </c>
       <c r="S90">
@@ -26006,7 +26105,7 @@
         <v>4</v>
       </c>
       <c r="R91">
-        <f t="shared" si="2"/>
+        <f>SUM($S91:$V91)</f>
         <v>83</v>
       </c>
       <c r="S91">
@@ -26091,7 +26190,7 @@
         <v>4</v>
       </c>
       <c r="R92">
-        <f t="shared" si="2"/>
+        <f>SUM($S92:$V92)</f>
         <v>90</v>
       </c>
       <c r="S92">
@@ -26178,7 +26277,7 @@
         <v>3</v>
       </c>
       <c r="R93">
-        <f t="shared" si="2"/>
+        <f>SUM($S93:$V93)</f>
         <v>32</v>
       </c>
       <c r="S93">
@@ -26263,7 +26362,7 @@
         <v>3</v>
       </c>
       <c r="R94">
-        <f t="shared" si="2"/>
+        <f>SUM($S94:$V94)</f>
         <v>32</v>
       </c>
       <c r="S94">
@@ -26348,7 +26447,7 @@
         <v>3</v>
       </c>
       <c r="R95">
-        <f t="shared" si="2"/>
+        <f>SUM($S95:$V95)</f>
         <v>46</v>
       </c>
       <c r="S95">
@@ -26433,7 +26532,7 @@
         <v>3</v>
       </c>
       <c r="R96">
-        <f t="shared" si="2"/>
+        <f>SUM($S96:$V96)</f>
         <v>39</v>
       </c>
       <c r="S96">
@@ -26518,7 +26617,7 @@
         <v>4</v>
       </c>
       <c r="R97">
-        <f t="shared" si="2"/>
+        <f>SUM($S97:$V97)</f>
         <v>6</v>
       </c>
       <c r="S97" s="6">
@@ -26605,7 +26704,7 @@
         <v>4</v>
       </c>
       <c r="R98">
-        <f t="shared" ref="R98:R129" si="3">SUM($S98:$V98)</f>
+        <f>SUM($S98:$V98)</f>
         <v>6</v>
       </c>
       <c r="S98" s="6">
@@ -26690,7 +26789,7 @@
         <v>4</v>
       </c>
       <c r="R99">
-        <f t="shared" si="3"/>
+        <f>SUM($S99:$V99)</f>
         <v>8</v>
       </c>
       <c r="S99" s="6">
@@ -26775,7 +26874,7 @@
         <v>4</v>
       </c>
       <c r="R100">
-        <f t="shared" si="3"/>
+        <f>SUM($S100:$V100)</f>
         <v>6</v>
       </c>
       <c r="S100" s="6">
@@ -26860,7 +26959,7 @@
         <v>4</v>
       </c>
       <c r="R101">
-        <f t="shared" si="3"/>
+        <f>SUM($S101:$V101)</f>
         <v>0</v>
       </c>
       <c r="S101" s="6">
@@ -26945,7 +27044,7 @@
         <v>4</v>
       </c>
       <c r="R102">
-        <f t="shared" si="3"/>
+        <f>SUM($S102:$V102)</f>
         <v>0</v>
       </c>
       <c r="S102" s="6">
@@ -27030,7 +27129,7 @@
         <v>4</v>
       </c>
       <c r="R103">
-        <f t="shared" si="3"/>
+        <f>SUM($S103:$V103)</f>
         <v>0</v>
       </c>
       <c r="S103" s="6">
@@ -27115,7 +27214,7 @@
         <v>4</v>
       </c>
       <c r="R104">
-        <f t="shared" si="3"/>
+        <f>SUM($S104:$V104)</f>
         <v>8</v>
       </c>
       <c r="S104" s="6">
@@ -27200,7 +27299,7 @@
         <v>4</v>
       </c>
       <c r="R105">
-        <f t="shared" si="3"/>
+        <f>SUM($S105:$V105)</f>
         <v>0</v>
       </c>
       <c r="S105" s="6">
@@ -27285,7 +27384,7 @@
         <v>4</v>
       </c>
       <c r="R106">
-        <f t="shared" si="3"/>
+        <f>SUM($S106:$V106)</f>
         <v>0</v>
       </c>
       <c r="S106" s="6">
@@ -27370,7 +27469,7 @@
         <v>4</v>
       </c>
       <c r="R107">
-        <f t="shared" si="3"/>
+        <f>SUM($S107:$V107)</f>
         <v>0</v>
       </c>
       <c r="S107" s="6">
@@ -27455,7 +27554,7 @@
         <v>3</v>
       </c>
       <c r="R108">
-        <f t="shared" si="3"/>
+        <f>SUM($S108:$V108)</f>
         <v>6</v>
       </c>
       <c r="S108" s="6">
@@ -27540,7 +27639,7 @@
         <v>3</v>
       </c>
       <c r="R109">
-        <f t="shared" si="3"/>
+        <f>SUM($S109:$V109)</f>
         <v>0</v>
       </c>
       <c r="S109" s="6">
@@ -27625,7 +27724,7 @@
         <v>3</v>
       </c>
       <c r="R110">
-        <f t="shared" si="3"/>
+        <f>SUM($S110:$V110)</f>
         <v>0</v>
       </c>
       <c r="S110" s="6">
@@ -27710,7 +27809,7 @@
         <v>3</v>
       </c>
       <c r="R111">
-        <f t="shared" si="3"/>
+        <f>SUM($S111:$V111)</f>
         <v>0</v>
       </c>
       <c r="S111" s="6">
@@ -27795,7 +27894,7 @@
         <v>3</v>
       </c>
       <c r="R112">
-        <f t="shared" si="3"/>
+        <f>SUM($S112:$V112)</f>
         <v>0</v>
       </c>
       <c r="S112" s="6">
@@ -27880,7 +27979,7 @@
         <v>3</v>
       </c>
       <c r="R113">
-        <f t="shared" si="3"/>
+        <f>SUM($S113:$V113)</f>
         <v>0</v>
       </c>
       <c r="S113" s="6">
@@ -27965,7 +28064,7 @@
         <v>3</v>
       </c>
       <c r="R114">
-        <f t="shared" si="3"/>
+        <f>SUM($S114:$V114)</f>
         <v>0</v>
       </c>
       <c r="S114" s="6">
@@ -28050,7 +28149,7 @@
         <v>3</v>
       </c>
       <c r="R115">
-        <f t="shared" si="3"/>
+        <f>SUM($S115:$V115)</f>
         <v>0</v>
       </c>
       <c r="S115" s="6">
@@ -28137,7 +28236,7 @@
         <v>3</v>
       </c>
       <c r="R116">
-        <f t="shared" si="3"/>
+        <f>SUM($S116:$V116)</f>
         <v>0</v>
       </c>
       <c r="S116" s="6">
@@ -28225,7 +28324,7 @@
         <v>3</v>
       </c>
       <c r="R117">
-        <f t="shared" si="3"/>
+        <f>SUM($S117:$V117)</f>
         <v>0</v>
       </c>
       <c r="S117" s="6">
@@ -28310,7 +28409,7 @@
         <v>3</v>
       </c>
       <c r="R118">
-        <f t="shared" si="3"/>
+        <f>SUM($S118:$V118)</f>
         <v>0</v>
       </c>
       <c r="S118" s="6">
@@ -28395,7 +28494,7 @@
         <v>3</v>
       </c>
       <c r="R119">
-        <f t="shared" si="3"/>
+        <f>SUM($S119:$V119)</f>
         <v>0</v>
       </c>
       <c r="S119" s="6">
@@ -28482,7 +28581,7 @@
         <v>3</v>
       </c>
       <c r="R120">
-        <f t="shared" si="3"/>
+        <f>SUM($S120:$V120)</f>
         <v>0</v>
       </c>
       <c r="S120" s="6">
@@ -28567,7 +28666,7 @@
         <v>3</v>
       </c>
       <c r="R121">
-        <f t="shared" si="3"/>
+        <f>SUM($S121:$V121)</f>
         <v>0</v>
       </c>
       <c r="S121" s="6">
@@ -28652,7 +28751,7 @@
         <v>3</v>
       </c>
       <c r="R122">
-        <f t="shared" si="3"/>
+        <f>SUM($S122:$V122)</f>
         <v>0</v>
       </c>
       <c r="S122" s="6">
@@ -28737,7 +28836,7 @@
         <v>3</v>
       </c>
       <c r="R123">
-        <f t="shared" si="3"/>
+        <f>SUM($S123:$V123)</f>
         <v>0</v>
       </c>
       <c r="S123" s="6">
@@ -28822,7 +28921,7 @@
         <v>3</v>
       </c>
       <c r="R124">
-        <f t="shared" si="3"/>
+        <f>SUM($S124:$V124)</f>
         <v>0</v>
       </c>
       <c r="S124" s="6">
@@ -28907,7 +29006,7 @@
         <v>3</v>
       </c>
       <c r="R125">
-        <f t="shared" si="3"/>
+        <f>SUM($S125:$V125)</f>
         <v>0</v>
       </c>
       <c r="S125" s="6">
@@ -28992,7 +29091,7 @@
         <v>3</v>
       </c>
       <c r="R126">
-        <f t="shared" si="3"/>
+        <f>SUM($S126:$V126)</f>
         <v>0</v>
       </c>
       <c r="S126" s="18">
@@ -29077,7 +29176,7 @@
         <v>3</v>
       </c>
       <c r="R127">
-        <f t="shared" si="3"/>
+        <f>SUM($S127:$V127)</f>
         <v>0</v>
       </c>
       <c r="S127" s="18">
@@ -29162,7 +29261,7 @@
         <v>3</v>
       </c>
       <c r="R128">
-        <f t="shared" si="3"/>
+        <f>SUM($S128:$V128)</f>
         <v>0</v>
       </c>
       <c r="S128" s="18">
@@ -29252,7 +29351,7 @@
         <v>3</v>
       </c>
       <c r="R129">
-        <f t="shared" si="3"/>
+        <f>SUM($S129:$V129)</f>
         <v>0</v>
       </c>
       <c r="S129">
@@ -29337,7 +29436,7 @@
         <v>4</v>
       </c>
       <c r="R130">
-        <f t="shared" ref="R130:R161" si="4">SUM($S130:$V130)</f>
+        <f>SUM($S130:$V130)</f>
         <v>0</v>
       </c>
       <c r="S130" s="10">
@@ -29424,7 +29523,7 @@
         <v>4</v>
       </c>
       <c r="R131">
-        <f t="shared" si="4"/>
+        <f>SUM($S131:$V131)</f>
         <v>12</v>
       </c>
       <c r="S131" s="10">
@@ -29514,7 +29613,7 @@
         <v>4</v>
       </c>
       <c r="R132">
-        <f t="shared" si="4"/>
+        <f>SUM($S132:$V132)</f>
         <v>32</v>
       </c>
       <c r="S132">
@@ -29601,7 +29700,7 @@
         <v>4</v>
       </c>
       <c r="R133">
-        <f t="shared" si="4"/>
+        <f>SUM($S133:$V133)</f>
         <v>12</v>
       </c>
       <c r="S133" s="10">
@@ -29686,7 +29785,7 @@
         <v>4</v>
       </c>
       <c r="R134">
-        <f t="shared" si="4"/>
+        <f>SUM($S134:$V134)</f>
         <v>87</v>
       </c>
       <c r="S134">
@@ -29771,7 +29870,7 @@
         <v>4</v>
       </c>
       <c r="R135">
-        <f t="shared" si="4"/>
+        <f>SUM($S135:$V135)</f>
         <v>87</v>
       </c>
       <c r="S135">
@@ -29856,7 +29955,7 @@
         <v>4</v>
       </c>
       <c r="R136">
-        <f t="shared" si="4"/>
+        <f>SUM($S136:$V136)</f>
         <v>73</v>
       </c>
       <c r="S136">
@@ -29943,7 +30042,7 @@
         <v>4</v>
       </c>
       <c r="R137">
-        <f t="shared" si="4"/>
+        <f>SUM($S137:$V137)</f>
         <v>70</v>
       </c>
       <c r="S137">
@@ -30028,7 +30127,7 @@
         <v>4</v>
       </c>
       <c r="R138">
-        <f t="shared" si="4"/>
+        <f>SUM($S138:$V138)</f>
         <v>72</v>
       </c>
       <c r="S138">
@@ -30115,7 +30214,7 @@
         <v>4</v>
       </c>
       <c r="R139">
-        <f t="shared" si="4"/>
+        <f>SUM($S139:$V139)</f>
         <v>69</v>
       </c>
       <c r="S139">
@@ -30202,7 +30301,7 @@
         <v>4</v>
       </c>
       <c r="R140">
-        <f t="shared" si="4"/>
+        <f>SUM($S140:$V140)</f>
         <v>82</v>
       </c>
       <c r="S140">
@@ -30287,7 +30386,7 @@
         <v>3</v>
       </c>
       <c r="R141">
-        <f t="shared" si="4"/>
+        <f>SUM($S141:$V141)</f>
         <v>55</v>
       </c>
       <c r="S141">
@@ -30372,7 +30471,7 @@
         <v>3</v>
       </c>
       <c r="R142">
-        <f t="shared" si="4"/>
+        <f>SUM($S142:$V142)</f>
         <v>55</v>
       </c>
       <c r="S142">
@@ -30457,7 +30556,7 @@
         <v>4</v>
       </c>
       <c r="R143">
-        <f t="shared" si="4"/>
+        <f>SUM($S143:$V143)</f>
         <v>12</v>
       </c>
       <c r="S143" s="6">
@@ -30491,13 +30590,13 @@
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>11239</v>
+        <v>11238</v>
       </c>
       <c r="B144" t="s">
         <v>206</v>
       </c>
-      <c r="C144" s="29" t="s">
-        <v>2255</v>
+      <c r="C144" t="s">
+        <v>2362</v>
       </c>
       <c r="D144" t="s">
         <v>69</v>
@@ -30515,7 +30614,7 @@
         <v>48</v>
       </c>
       <c r="I144">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -30536,13 +30635,13 @@
         <v>2</v>
       </c>
       <c r="P144">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q144">
         <v>4</v>
       </c>
       <c r="R144" s="18">
-        <f t="shared" si="4"/>
+        <f>SUM($S144:$V144)</f>
         <v>8</v>
       </c>
       <c r="S144">
@@ -30557,140 +30656,139 @@
       <c r="V144">
         <v>2</v>
       </c>
-      <c r="W144">
+      <c r="W144" s="6">
         <v>35</v>
       </c>
-      <c r="X144">
+      <c r="X144" s="6">
         <v>70</v>
       </c>
-      <c r="Y144">
+      <c r="Y144" s="6">
         <v>1.28</v>
       </c>
-      <c r="Z144">
+      <c r="Z144" s="6">
         <v>2.4</v>
       </c>
-      <c r="AA144">
-        <v>112391</v>
+      <c r="AA144" s="6">
+        <v>112381</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>11240</v>
+        <v>11239</v>
       </c>
       <c r="B145" t="s">
         <v>206</v>
       </c>
-      <c r="C145" t="s">
-        <v>1935</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E145" s="6">
+      <c r="C145" s="29" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145">
+        <v>48</v>
+      </c>
+      <c r="F145">
+        <v>63</v>
+      </c>
+      <c r="G145">
         <v>58</v>
       </c>
-      <c r="F145" s="6">
+      <c r="H145">
+        <v>48</v>
+      </c>
+      <c r="I145">
         <v>73</v>
       </c>
-      <c r="G145" s="6">
-        <v>0</v>
-      </c>
-      <c r="H145" s="6">
-        <v>56</v>
-      </c>
-      <c r="I145" s="6">
-        <v>83</v>
-      </c>
-      <c r="J145" s="6">
-        <v>0</v>
-      </c>
-      <c r="K145" s="6">
-        <v>98</v>
-      </c>
-      <c r="L145" s="6">
-        <v>83</v>
-      </c>
-      <c r="M145" s="6">
-        <v>58</v>
-      </c>
-      <c r="N145" s="6">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="O145" s="6">
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>97</v>
+      </c>
+      <c r="L145">
+        <v>82</v>
+      </c>
+      <c r="M145">
+        <v>62</v>
+      </c>
+      <c r="N145">
+        <v>32</v>
+      </c>
+      <c r="O145">
         <v>2</v>
       </c>
-      <c r="P145" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q145" s="6">
+      <c r="P145">
+        <v>10</v>
+      </c>
+      <c r="Q145">
         <v>4</v>
       </c>
-      <c r="R145">
-        <f t="shared" si="4"/>
+      <c r="R145" s="18">
+        <f>SUM($S145:$V145)</f>
         <v>8</v>
       </c>
-      <c r="S145" s="6">
+      <c r="S145">
         <v>2</v>
       </c>
-      <c r="T145" s="6">
+      <c r="T145">
         <v>2</v>
       </c>
-      <c r="U145" s="6">
+      <c r="U145">
         <v>2</v>
       </c>
-      <c r="V145" s="6">
+      <c r="V145">
         <v>2</v>
       </c>
-      <c r="W145" s="6">
-        <v>40</v>
-      </c>
-      <c r="X145" s="6">
+      <c r="W145">
+        <v>35</v>
+      </c>
+      <c r="X145">
         <v>70</v>
       </c>
-      <c r="Y145" s="6">
+      <c r="Y145">
         <v>1.28</v>
       </c>
-      <c r="Z145" s="6">
+      <c r="Z145">
         <v>2.4</v>
       </c>
-      <c r="AA145" s="6">
-        <v>112401</v>
-      </c>
-      <c r="AB145" s="6"/>
+      <c r="AA145">
+        <v>112391</v>
+      </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>11241</v>
+        <v>11240</v>
       </c>
       <c r="B146" t="s">
         <v>206</v>
       </c>
       <c r="C146" t="s">
-        <v>1884</v>
+        <v>1935</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E146" s="6">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F146" s="6">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G146" s="6">
         <v>0</v>
       </c>
       <c r="H146" s="6">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I146" s="6">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="J146" s="6">
         <v>0</v>
       </c>
       <c r="K146" s="6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L146" s="6">
         <v>83</v>
@@ -30699,19 +30797,19 @@
         <v>58</v>
       </c>
       <c r="N146" s="6">
-        <v>33</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="O146" s="6">
         <v>2</v>
       </c>
       <c r="P146" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q146" s="6">
         <v>4</v>
       </c>
       <c r="R146">
-        <f t="shared" si="4"/>
+        <f>SUM($S146:$V146)</f>
         <v>8</v>
       </c>
       <c r="S146" s="6">
@@ -30727,10 +30825,10 @@
         <v>2</v>
       </c>
       <c r="W146" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X146" s="6">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y146" s="6">
         <v>1.28</v>
@@ -30739,152 +30837,152 @@
         <v>2.4</v>
       </c>
       <c r="AA146" s="6">
-        <v>112411</v>
-      </c>
-      <c r="AB146" s="6">
-        <v>112412</v>
-      </c>
+        <v>112401</v>
+      </c>
+      <c r="AB146" s="6"/>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>11248</v>
+        <v>11241</v>
       </c>
       <c r="B147" t="s">
-        <v>1944</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>1894</v>
+        <v>206</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1884</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E147" s="6">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F147" s="6">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G147" s="6">
         <v>0</v>
       </c>
       <c r="H147" s="6">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I147" s="6">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="J147" s="6">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K147" s="6">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L147" s="6">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M147" s="6">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N147" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O147" s="6">
         <v>2</v>
       </c>
       <c r="P147" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q147" s="6">
         <v>4</v>
       </c>
       <c r="R147">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f>SUM($S147:$V147)</f>
+        <v>8</v>
       </c>
       <c r="S147" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T147" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U147" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V147" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W147" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X147" s="6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y147" s="6">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Z147" s="6">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="AA147" s="6">
-        <v>112481</v>
-      </c>
-      <c r="AB147" s="6"/>
+        <v>112411</v>
+      </c>
+      <c r="AB147" s="6">
+        <v>112412</v>
+      </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>11265</v>
+        <v>11248</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1989</v>
+        <v>1944</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>1894</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E148" s="6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F148" s="6">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G148" s="6">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="H148" s="6">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I148" s="6">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="J148" s="6">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K148" s="6">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L148" s="6">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="M148" s="6">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N148" s="6">
         <v>34</v>
       </c>
       <c r="O148" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P148" s="6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q148" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R148">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM($S148:$V148)</f>
+        <v>18</v>
       </c>
       <c r="S148" s="6">
         <v>0</v>
@@ -30893,70 +30991,70 @@
         <v>0</v>
       </c>
       <c r="U148" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V148" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W148" s="6">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="X148" s="6">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="Y148" s="6">
-        <v>0.48</v>
+        <v>1.3</v>
       </c>
       <c r="Z148" s="6">
-        <v>0.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AA148" s="6">
-        <v>112651</v>
+        <v>112481</v>
       </c>
       <c r="AB148" s="6"/>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>11269</v>
+        <v>11265</v>
       </c>
       <c r="B149" t="s">
         <v>204</v>
       </c>
       <c r="C149" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E149" s="6">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F149" s="6">
         <v>38</v>
       </c>
       <c r="G149" s="6">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H149" s="6">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I149" s="6">
         <v>48</v>
       </c>
       <c r="J149" s="6">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K149" s="6">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L149" s="6">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M149" s="6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N149" s="6">
-        <v>38.5</v>
+        <v>34</v>
       </c>
       <c r="O149" s="6">
         <v>1</v>
@@ -30968,7 +31066,7 @@
         <v>3</v>
       </c>
       <c r="R149">
-        <f t="shared" si="4"/>
+        <f>SUM($S149:$V149)</f>
         <v>0</v>
       </c>
       <c r="S149" s="6">
@@ -30984,7 +31082,7 @@
         <v>0</v>
       </c>
       <c r="W149" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X149" s="6">
         <v>20</v>
@@ -30993,25 +31091,22 @@
         <v>0.48</v>
       </c>
       <c r="Z149" s="6">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="AA149" s="6">
-        <v>112691</v>
+        <v>112651</v>
       </c>
       <c r="AB149" s="6"/>
-      <c r="AC149" s="3" t="s">
-        <v>2085</v>
-      </c>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>11270</v>
+        <v>11269</v>
       </c>
       <c r="B150" t="s">
         <v>204</v>
       </c>
       <c r="C150" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>68</v>
@@ -31041,7 +31136,7 @@
         <v>92</v>
       </c>
       <c r="M150" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N150" s="6">
         <v>38.5</v>
@@ -31056,7 +31151,7 @@
         <v>3</v>
       </c>
       <c r="R150">
-        <f t="shared" si="4"/>
+        <f>SUM($S150:$V150)</f>
         <v>0</v>
       </c>
       <c r="S150" s="6">
@@ -31084,7 +31179,7 @@
         <v>0.99</v>
       </c>
       <c r="AA150" s="6">
-        <v>112701</v>
+        <v>112691</v>
       </c>
       <c r="AB150" s="6"/>
       <c r="AC150" s="3" t="s">
@@ -31093,205 +31188,206 @@
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>11275</v>
+        <v>11270</v>
       </c>
       <c r="B151" t="s">
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>2292</v>
-      </c>
-      <c r="D151" t="s">
-        <v>67</v>
-      </c>
-      <c r="E151">
-        <v>32</v>
-      </c>
-      <c r="F151">
-        <v>41</v>
-      </c>
-      <c r="G151">
-        <v>83</v>
-      </c>
-      <c r="H151">
+        <v>1991</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E151" s="6">
         <v>39</v>
       </c>
-      <c r="I151">
-        <v>79</v>
-      </c>
-      <c r="J151">
-        <v>84</v>
-      </c>
-      <c r="K151" s="1">
-        <v>94</v>
-      </c>
-      <c r="L151">
-        <v>91</v>
-      </c>
-      <c r="M151">
+      <c r="F151" s="6">
+        <v>38</v>
+      </c>
+      <c r="G151" s="6">
+        <v>80</v>
+      </c>
+      <c r="H151" s="6">
+        <v>40</v>
+      </c>
+      <c r="I151" s="6">
+        <v>48</v>
+      </c>
+      <c r="J151" s="6">
+        <v>66</v>
+      </c>
+      <c r="K151" s="6">
+        <v>92</v>
+      </c>
+      <c r="L151" s="6">
+        <v>92</v>
+      </c>
+      <c r="M151" s="6">
         <v>37</v>
       </c>
-      <c r="N151">
-        <v>37</v>
-      </c>
-      <c r="O151">
-        <v>1</v>
-      </c>
-      <c r="P151">
+      <c r="N151" s="6">
+        <v>38.5</v>
+      </c>
+      <c r="O151" s="6">
+        <v>1</v>
+      </c>
+      <c r="P151" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q151" s="6">
+        <v>3</v>
+      </c>
+      <c r="R151">
+        <f>SUM($S151:$V151)</f>
+        <v>0</v>
+      </c>
+      <c r="S151" s="6">
+        <v>0</v>
+      </c>
+      <c r="T151" s="6">
+        <v>0</v>
+      </c>
+      <c r="U151" s="6">
+        <v>0</v>
+      </c>
+      <c r="V151" s="6">
+        <v>0</v>
+      </c>
+      <c r="W151" s="6">
+        <v>10</v>
+      </c>
+      <c r="X151" s="6">
         <v>20</v>
       </c>
-      <c r="Q151">
-        <v>3</v>
-      </c>
-      <c r="R151" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S151">
-        <v>0</v>
-      </c>
-      <c r="T151">
-        <v>0</v>
-      </c>
-      <c r="U151">
-        <v>0</v>
-      </c>
-      <c r="V151">
-        <v>0</v>
-      </c>
-      <c r="W151">
-        <v>15</v>
-      </c>
-      <c r="X151">
-        <v>25</v>
-      </c>
-      <c r="Y151">
+      <c r="Y151" s="6">
         <v>0.48</v>
       </c>
-      <c r="Z151">
-        <v>0.9</v>
-      </c>
-      <c r="AA151">
-        <v>112751</v>
-      </c>
+      <c r="Z151" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="AA151" s="6">
+        <v>112701</v>
+      </c>
+      <c r="AB151" s="6"/>
       <c r="AC151" s="3" t="s">
-        <v>2293</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>11278</v>
+        <v>11275</v>
       </c>
       <c r="B152" t="s">
         <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>1992</v>
-      </c>
-      <c r="D152" s="3" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D152" t="s">
         <v>67</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152">
         <v>32</v>
       </c>
-      <c r="F152" s="6">
-        <v>43</v>
-      </c>
-      <c r="G152" s="6">
-        <v>87</v>
-      </c>
-      <c r="H152" s="6">
+      <c r="F152">
+        <v>41</v>
+      </c>
+      <c r="G152">
+        <v>83</v>
+      </c>
+      <c r="H152">
         <v>39</v>
       </c>
-      <c r="I152" s="6">
-        <v>70</v>
-      </c>
-      <c r="J152" s="6">
+      <c r="I152">
+        <v>79</v>
+      </c>
+      <c r="J152">
         <v>84</v>
       </c>
-      <c r="K152" s="6">
+      <c r="K152" s="1">
         <v>94</v>
       </c>
-      <c r="L152" s="6">
+      <c r="L152">
         <v>91</v>
       </c>
-      <c r="M152" s="6">
+      <c r="M152">
         <v>37</v>
       </c>
-      <c r="N152" s="6">
+      <c r="N152">
         <v>37</v>
       </c>
-      <c r="O152" s="6">
-        <v>1</v>
-      </c>
-      <c r="P152" s="6">
-        <v>18</v>
-      </c>
-      <c r="Q152" s="6">
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152">
+        <v>20</v>
+      </c>
+      <c r="Q152">
         <v>3</v>
       </c>
-      <c r="R152">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S152" s="6">
-        <v>0</v>
-      </c>
-      <c r="T152" s="6">
-        <v>0</v>
-      </c>
-      <c r="U152" s="6">
-        <v>0</v>
-      </c>
-      <c r="V152" s="6">
-        <v>0</v>
-      </c>
-      <c r="W152" s="6">
+      <c r="R152" s="18">
+        <f>SUM($S152:$V152)</f>
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
         <v>15</v>
       </c>
-      <c r="X152" s="6">
+      <c r="X152">
         <v>25</v>
       </c>
-      <c r="Y152" s="6">
+      <c r="Y152">
         <v>0.48</v>
       </c>
-      <c r="Z152" s="6">
+      <c r="Z152">
         <v>0.9</v>
       </c>
-      <c r="AA152" s="6">
-        <v>112781</v>
-      </c>
-      <c r="AB152" s="6">
-        <v>112782</v>
+      <c r="AA152">
+        <v>112751</v>
+      </c>
+      <c r="AC152" s="3" t="s">
+        <v>2293</v>
       </c>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>11279</v>
+        <v>11278</v>
       </c>
       <c r="B153" t="s">
         <v>204</v>
       </c>
       <c r="C153" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E153" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F153" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G153" s="6">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H153" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I153" s="6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J153" s="6">
         <v>84</v>
@@ -31300,13 +31396,13 @@
         <v>94</v>
       </c>
       <c r="L153" s="6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M153" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N153" s="6">
-        <v>28.7</v>
+        <v>37</v>
       </c>
       <c r="O153" s="6">
         <v>1</v>
@@ -31318,7 +31414,7 @@
         <v>3</v>
       </c>
       <c r="R153">
-        <f t="shared" si="4"/>
+        <f>SUM($S153:$V153)</f>
         <v>0</v>
       </c>
       <c r="S153" s="6">
@@ -31340,13 +31436,13 @@
         <v>25</v>
       </c>
       <c r="Y153" s="6">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="Z153" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AA153" s="6">
-        <v>112791</v>
+        <v>112781</v>
       </c>
       <c r="AB153" s="6">
         <v>112782</v>
@@ -31354,31 +31450,31 @@
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>11280</v>
+        <v>11279</v>
       </c>
       <c r="B154" t="s">
         <v>204</v>
       </c>
       <c r="C154" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E154" s="6">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F154" s="6">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G154" s="6">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H154" s="6">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I154" s="6">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J154" s="6">
         <v>84</v>
@@ -31387,13 +31483,13 @@
         <v>94</v>
       </c>
       <c r="L154" s="6">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M154" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N154" s="6">
-        <v>37</v>
+        <v>28.7</v>
       </c>
       <c r="O154" s="6">
         <v>1</v>
@@ -31405,7 +31501,7 @@
         <v>3</v>
       </c>
       <c r="R154">
-        <f t="shared" si="4"/>
+        <f>SUM($S154:$V154)</f>
         <v>0</v>
       </c>
       <c r="S154" s="6">
@@ -31427,159 +31523,159 @@
         <v>25</v>
       </c>
       <c r="Y154" s="6">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="Z154" s="6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AA154" s="6">
-        <v>112801</v>
+        <v>112791</v>
       </c>
       <c r="AB154" s="6">
         <v>112782</v>
       </c>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A155" s="15">
+      <c r="A155" s="3">
+        <v>11280</v>
+      </c>
+      <c r="B155" t="s">
+        <v>204</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E155" s="6">
+        <v>32</v>
+      </c>
+      <c r="F155" s="6">
+        <v>45</v>
+      </c>
+      <c r="G155" s="6">
+        <v>90</v>
+      </c>
+      <c r="H155" s="6">
+        <v>41</v>
+      </c>
+      <c r="I155" s="6">
+        <v>72</v>
+      </c>
+      <c r="J155" s="6">
+        <v>84</v>
+      </c>
+      <c r="K155" s="6">
+        <v>94</v>
+      </c>
+      <c r="L155" s="6">
+        <v>91</v>
+      </c>
+      <c r="M155" s="6">
+        <v>37</v>
+      </c>
+      <c r="N155" s="6">
+        <v>37</v>
+      </c>
+      <c r="O155" s="6">
+        <v>1</v>
+      </c>
+      <c r="P155" s="6">
+        <v>18</v>
+      </c>
+      <c r="Q155" s="6">
+        <v>3</v>
+      </c>
+      <c r="R155">
+        <f>SUM($S155:$V155)</f>
+        <v>0</v>
+      </c>
+      <c r="S155" s="6">
+        <v>0</v>
+      </c>
+      <c r="T155" s="6">
+        <v>0</v>
+      </c>
+      <c r="U155" s="6">
+        <v>0</v>
+      </c>
+      <c r="V155" s="6">
+        <v>0</v>
+      </c>
+      <c r="W155" s="6">
+        <v>15</v>
+      </c>
+      <c r="X155" s="6">
+        <v>25</v>
+      </c>
+      <c r="Y155" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="Z155" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AA155" s="6">
+        <v>112801</v>
+      </c>
+      <c r="AB155" s="6">
+        <v>112782</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A156" s="15">
         <v>11289</v>
-      </c>
-      <c r="B155" t="s">
-        <v>209</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>2061</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E155" s="17">
-        <v>15</v>
-      </c>
-      <c r="F155" s="17">
-        <v>25</v>
-      </c>
-      <c r="G155" s="17">
-        <v>78</v>
-      </c>
-      <c r="H155" s="17">
-        <v>30</v>
-      </c>
-      <c r="I155" s="17">
-        <v>0</v>
-      </c>
-      <c r="J155" s="18">
-        <v>0</v>
-      </c>
-      <c r="K155" s="18">
-        <v>102</v>
-      </c>
-      <c r="L155" s="18">
-        <v>45</v>
-      </c>
-      <c r="M155" s="18">
-        <v>49</v>
-      </c>
-      <c r="N155" s="17">
-        <v>18</v>
-      </c>
-      <c r="O155" s="18">
-        <v>1</v>
-      </c>
-      <c r="P155" s="17">
-        <v>18</v>
-      </c>
-      <c r="Q155" s="18">
-        <v>3</v>
-      </c>
-      <c r="R155">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S155" s="18">
-        <v>0</v>
-      </c>
-      <c r="T155" s="18">
-        <v>0</v>
-      </c>
-      <c r="U155" s="18">
-        <v>0</v>
-      </c>
-      <c r="V155" s="18">
-        <v>0</v>
-      </c>
-      <c r="W155" s="18">
-        <v>15</v>
-      </c>
-      <c r="X155" s="18">
-        <v>20</v>
-      </c>
-      <c r="Y155" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="Z155" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="AA155">
-        <v>112891</v>
-      </c>
-      <c r="AC155" s="3" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
-        <v>11290</v>
       </c>
       <c r="B156" t="s">
         <v>209</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E156" s="18">
+      <c r="E156" s="17">
         <v>15</v>
       </c>
-      <c r="F156" s="18">
-        <v>23</v>
-      </c>
-      <c r="G156" s="18">
-        <v>80</v>
-      </c>
-      <c r="H156" s="18">
+      <c r="F156" s="17">
+        <v>25</v>
+      </c>
+      <c r="G156" s="17">
+        <v>78</v>
+      </c>
+      <c r="H156" s="17">
         <v>30</v>
       </c>
-      <c r="I156" s="18">
+      <c r="I156" s="17">
         <v>0</v>
       </c>
       <c r="J156" s="18">
         <v>0</v>
       </c>
-      <c r="K156" s="19">
+      <c r="K156" s="18">
         <v>102</v>
       </c>
       <c r="L156" s="18">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M156" s="18">
-        <v>48</v>
-      </c>
-      <c r="N156" s="18">
+        <v>49</v>
+      </c>
+      <c r="N156" s="17">
         <v>18</v>
       </c>
       <c r="O156" s="18">
         <v>1</v>
       </c>
-      <c r="P156" s="18">
-        <v>19</v>
+      <c r="P156" s="17">
+        <v>18</v>
       </c>
       <c r="Q156" s="18">
         <v>3</v>
       </c>
       <c r="R156">
-        <f t="shared" si="4"/>
+        <f>SUM($S156:$V156)</f>
         <v>0</v>
       </c>
       <c r="S156" s="18">
@@ -31598,7 +31694,7 @@
         <v>15</v>
       </c>
       <c r="X156" s="18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y156" s="18">
         <v>0.6</v>
@@ -31607,7 +31703,7 @@
         <v>0.5</v>
       </c>
       <c r="AA156">
-        <v>112901</v>
+        <v>112891</v>
       </c>
       <c r="AC156" s="3" t="s">
         <v>2060</v>
@@ -31615,13 +31711,13 @@
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>11293</v>
+        <v>11290</v>
       </c>
       <c r="B157" t="s">
         <v>209</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>68</v>
@@ -31630,10 +31726,10 @@
         <v>15</v>
       </c>
       <c r="F157" s="18">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G157" s="18">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H157" s="18">
         <v>30</v>
@@ -31645,13 +31741,13 @@
         <v>0</v>
       </c>
       <c r="K157" s="19">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L157" s="18">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M157" s="18">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N157" s="18">
         <v>18</v>
@@ -31660,13 +31756,13 @@
         <v>1</v>
       </c>
       <c r="P157" s="18">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q157" s="18">
         <v>3</v>
       </c>
       <c r="R157">
-        <f t="shared" si="4"/>
+        <f>SUM($S157:$V157)</f>
         <v>0</v>
       </c>
       <c r="S157" s="18">
@@ -31694,7 +31790,7 @@
         <v>0.5</v>
       </c>
       <c r="AA157">
-        <v>112931</v>
+        <v>112901</v>
       </c>
       <c r="AC157" s="3" t="s">
         <v>2060</v>
@@ -31702,206 +31798,208 @@
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>11299</v>
+        <v>11293</v>
       </c>
       <c r="B158" t="s">
-        <v>2042</v>
-      </c>
-      <c r="C158" t="s">
-        <v>2043</v>
-      </c>
-      <c r="D158" t="s">
-        <v>2044</v>
-      </c>
-      <c r="E158">
-        <v>88</v>
-      </c>
-      <c r="F158">
-        <v>108</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>110</v>
-      </c>
-      <c r="I158">
-        <v>115</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158" s="1">
-        <v>102</v>
-      </c>
-      <c r="L158">
-        <v>56</v>
-      </c>
-      <c r="M158">
-        <v>47</v>
-      </c>
-      <c r="N158">
-        <v>32</v>
-      </c>
-      <c r="O158">
+        <v>209</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E158" s="18">
+        <v>15</v>
+      </c>
+      <c r="F158" s="18">
+        <v>25</v>
+      </c>
+      <c r="G158" s="18">
+        <v>77</v>
+      </c>
+      <c r="H158" s="18">
+        <v>30</v>
+      </c>
+      <c r="I158" s="18">
+        <v>0</v>
+      </c>
+      <c r="J158" s="18">
+        <v>0</v>
+      </c>
+      <c r="K158" s="19">
+        <v>101</v>
+      </c>
+      <c r="L158" s="18">
+        <v>45</v>
+      </c>
+      <c r="M158" s="18">
+        <v>49</v>
+      </c>
+      <c r="N158" s="18">
+        <v>18</v>
+      </c>
+      <c r="O158" s="18">
+        <v>1</v>
+      </c>
+      <c r="P158" s="18">
+        <v>8</v>
+      </c>
+      <c r="Q158" s="18">
         <v>3</v>
       </c>
-      <c r="P158">
-        <v>20</v>
-      </c>
-      <c r="Q158">
-        <v>4</v>
-      </c>
       <c r="R158">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="S158">
-        <v>8</v>
-      </c>
-      <c r="T158">
-        <v>8</v>
-      </c>
-      <c r="U158">
-        <v>8</v>
-      </c>
-      <c r="V158">
-        <v>8</v>
-      </c>
-      <c r="W158">
-        <v>110</v>
-      </c>
-      <c r="X158">
-        <v>190</v>
-      </c>
-      <c r="Y158">
-        <v>4.5</v>
-      </c>
-      <c r="Z158">
-        <v>8.5</v>
+        <f>SUM($S158:$V158)</f>
+        <v>0</v>
+      </c>
+      <c r="S158" s="18">
+        <v>0</v>
+      </c>
+      <c r="T158" s="18">
+        <v>0</v>
+      </c>
+      <c r="U158" s="18">
+        <v>0</v>
+      </c>
+      <c r="V158" s="18">
+        <v>0</v>
+      </c>
+      <c r="W158" s="18">
+        <v>15</v>
+      </c>
+      <c r="X158" s="18">
+        <v>25</v>
+      </c>
+      <c r="Y158" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="Z158" s="18">
+        <v>0.5</v>
       </c>
       <c r="AA158">
-        <v>102991</v>
-      </c>
-      <c r="AB158" s="18">
-        <v>112992</v>
+        <v>112931</v>
+      </c>
+      <c r="AC158" s="3" t="s">
+        <v>2060</v>
       </c>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>11301</v>
+        <v>11299</v>
       </c>
       <c r="B159" t="s">
-        <v>204</v>
+        <v>2042</v>
       </c>
       <c r="C159" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E159" s="6">
+        <v>2043</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E159">
+        <v>88</v>
+      </c>
+      <c r="F159">
+        <v>108</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>110</v>
+      </c>
+      <c r="I159">
+        <v>115</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159" s="1">
+        <v>102</v>
+      </c>
+      <c r="L159">
+        <v>56</v>
+      </c>
+      <c r="M159">
+        <v>47</v>
+      </c>
+      <c r="N159">
         <v>32</v>
       </c>
-      <c r="F159" s="6">
-        <v>40</v>
-      </c>
-      <c r="G159" s="6">
-        <v>87</v>
-      </c>
-      <c r="H159" s="6">
-        <v>39</v>
-      </c>
-      <c r="I159" s="6">
-        <v>62</v>
-      </c>
-      <c r="J159" s="6">
-        <v>79</v>
-      </c>
-      <c r="K159" s="6">
-        <v>94</v>
-      </c>
-      <c r="L159" s="6">
-        <v>90</v>
-      </c>
-      <c r="M159" s="6">
+      <c r="O159">
+        <v>3</v>
+      </c>
+      <c r="P159">
+        <v>20</v>
+      </c>
+      <c r="Q159">
+        <v>4</v>
+      </c>
+      <c r="R159">
+        <f>SUM($S159:$V159)</f>
         <v>32</v>
       </c>
-      <c r="N159" s="6">
-        <v>37</v>
-      </c>
-      <c r="O159" s="6">
-        <v>1</v>
-      </c>
-      <c r="P159" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q159" s="6">
-        <v>3</v>
-      </c>
-      <c r="R159">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S159" s="6">
-        <v>0</v>
-      </c>
-      <c r="T159" s="6">
-        <v>0</v>
-      </c>
-      <c r="U159" s="6">
-        <v>0</v>
-      </c>
-      <c r="V159" s="6">
-        <v>0</v>
-      </c>
-      <c r="W159" s="6">
-        <v>15</v>
-      </c>
-      <c r="X159" s="6">
-        <v>25</v>
-      </c>
-      <c r="Y159" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="Z159" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="AA159" s="6">
-        <v>113011</v>
-      </c>
-      <c r="AB159" s="6"/>
+      <c r="S159">
+        <v>8</v>
+      </c>
+      <c r="T159">
+        <v>8</v>
+      </c>
+      <c r="U159">
+        <v>8</v>
+      </c>
+      <c r="V159">
+        <v>8</v>
+      </c>
+      <c r="W159">
+        <v>110</v>
+      </c>
+      <c r="X159">
+        <v>190</v>
+      </c>
+      <c r="Y159">
+        <v>4.5</v>
+      </c>
+      <c r="Z159">
+        <v>8.5</v>
+      </c>
+      <c r="AA159">
+        <v>102991</v>
+      </c>
+      <c r="AB159" s="18">
+        <v>112992</v>
+      </c>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>11306</v>
+        <v>11301</v>
       </c>
       <c r="B160" t="s">
         <v>204</v>
       </c>
       <c r="C160" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E160" s="6">
         <v>32</v>
       </c>
       <c r="F160" s="6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G160" s="6">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H160" s="6">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I160" s="6">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J160" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K160" s="6">
         <v>94</v>
@@ -31910,22 +32008,22 @@
         <v>90</v>
       </c>
       <c r="M160" s="6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N160" s="6">
-        <v>35.799999999999997</v>
+        <v>37</v>
       </c>
       <c r="O160" s="6">
         <v>1</v>
       </c>
       <c r="P160" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q160" s="6">
         <v>3</v>
       </c>
       <c r="R160">
-        <f t="shared" si="4"/>
+        <f>SUM($S160:$V160)</f>
         <v>0</v>
       </c>
       <c r="S160" s="6">
@@ -31947,70 +32045,70 @@
         <v>25</v>
       </c>
       <c r="Y160" s="6">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="Z160" s="6">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AA160" s="6">
-        <v>113061</v>
+        <v>113011</v>
       </c>
       <c r="AB160" s="6"/>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>11316</v>
+        <v>11306</v>
       </c>
       <c r="B161" t="s">
         <v>204</v>
       </c>
       <c r="C161" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E161" s="6">
         <v>32</v>
       </c>
       <c r="F161" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G161" s="6">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H161" s="6">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I161" s="6">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J161" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K161" s="6">
         <v>94</v>
       </c>
       <c r="L161" s="6">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M161" s="6">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N161" s="6">
-        <v>41.7</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="O161" s="6">
         <v>1</v>
       </c>
       <c r="P161" s="6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q161" s="6">
         <v>3</v>
       </c>
       <c r="R161">
-        <f t="shared" si="4"/>
+        <f>SUM($S161:$V161)</f>
         <v>0</v>
       </c>
       <c r="S161" s="6">
@@ -32029,158 +32127,157 @@
         <v>15</v>
       </c>
       <c r="X161" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y161" s="6">
         <v>0.5</v>
       </c>
       <c r="Z161" s="6">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AA161" s="6">
-        <v>113161</v>
+        <v>113061</v>
       </c>
       <c r="AB161" s="6"/>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>11323</v>
+        <v>11311</v>
       </c>
       <c r="B162" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="C162" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E162" s="6">
-        <v>39</v>
-      </c>
-      <c r="F162" s="6">
-        <v>45</v>
-      </c>
-      <c r="G162" s="6">
-        <v>87</v>
-      </c>
-      <c r="H162" s="6">
+        <v>2364</v>
+      </c>
+      <c r="D162" t="s">
+        <v>67</v>
+      </c>
+      <c r="E162">
+        <v>52</v>
+      </c>
+      <c r="F162">
+        <v>30</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
         <v>37</v>
       </c>
-      <c r="I162" s="6">
-        <v>69</v>
-      </c>
-      <c r="J162" s="6">
-        <v>68</v>
-      </c>
-      <c r="K162" s="6">
+      <c r="I162">
+        <v>75</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162" s="1">
         <v>95</v>
       </c>
-      <c r="L162" s="6">
-        <v>102</v>
-      </c>
-      <c r="M162" s="6">
-        <v>26</v>
-      </c>
-      <c r="N162" s="6">
-        <v>42.5</v>
-      </c>
-      <c r="O162" s="6">
-        <v>1</v>
-      </c>
-      <c r="P162" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q162" s="6">
+      <c r="L162">
+        <v>46</v>
+      </c>
+      <c r="M162">
+        <v>65</v>
+      </c>
+      <c r="N162">
+        <v>20</v>
+      </c>
+      <c r="O162">
+        <v>1</v>
+      </c>
+      <c r="P162">
+        <v>21</v>
+      </c>
+      <c r="Q162">
         <v>3</v>
       </c>
-      <c r="R162">
-        <f t="shared" ref="R162:R178" si="5">SUM($S162:$V162)</f>
-        <v>0</v>
-      </c>
-      <c r="S162" s="6">
-        <v>0</v>
-      </c>
-      <c r="T162" s="6">
-        <v>0</v>
-      </c>
-      <c r="U162" s="6">
-        <v>0</v>
-      </c>
-      <c r="V162" s="6">
+      <c r="R162" s="18">
+        <f>SUM($S162:$V162)</f>
+        <v>34</v>
+      </c>
+      <c r="S162">
+        <v>12</v>
+      </c>
+      <c r="T162">
+        <v>12</v>
+      </c>
+      <c r="U162">
+        <v>10</v>
+      </c>
+      <c r="V162">
         <v>0</v>
       </c>
       <c r="W162" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X162" s="6">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y162" s="6">
-        <v>0.5</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="Z162" s="6">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="AA162" s="6">
-        <v>113231</v>
-      </c>
-      <c r="AB162" s="6"/>
+        <v>113111</v>
+      </c>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>11335</v>
+        <v>11316</v>
       </c>
       <c r="B163" t="s">
         <v>204</v>
       </c>
       <c r="C163" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E163" s="6">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F163" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G163" s="6">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H163" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I163" s="6">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J163" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K163" s="6">
         <v>94</v>
       </c>
       <c r="L163" s="6">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M163" s="6">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N163" s="6">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="O163" s="6">
         <v>1</v>
       </c>
       <c r="P163" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Q163" s="6">
         <v>3</v>
       </c>
       <c r="R163">
-        <f t="shared" si="5"/>
+        <f>SUM($S163:$V163)</f>
         <v>0</v>
       </c>
       <c r="S163" s="6">
@@ -32196,163 +32293,161 @@
         <v>0</v>
       </c>
       <c r="W163" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X163" s="6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y163" s="6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Z163" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AA163" s="6">
-        <v>113351</v>
+        <v>113161</v>
       </c>
       <c r="AB163" s="6"/>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>11339</v>
+        <v>11323</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D164" t="s">
-        <v>71</v>
-      </c>
-      <c r="E164">
-        <v>80</v>
-      </c>
-      <c r="F164">
-        <v>40</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>84</v>
-      </c>
-      <c r="I164">
-        <v>73</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
+        <v>204</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E164" s="6">
+        <v>39</v>
+      </c>
+      <c r="F164" s="6">
+        <v>45</v>
+      </c>
+      <c r="G164" s="6">
+        <v>87</v>
+      </c>
+      <c r="H164" s="6">
+        <v>37</v>
+      </c>
+      <c r="I164" s="6">
+        <v>69</v>
+      </c>
+      <c r="J164" s="6">
+        <v>68</v>
+      </c>
+      <c r="K164" s="6">
+        <v>95</v>
+      </c>
+      <c r="L164" s="6">
         <v>102</v>
       </c>
-      <c r="L164">
-        <v>58</v>
-      </c>
-      <c r="M164">
-        <v>72</v>
-      </c>
-      <c r="N164">
-        <v>30</v>
-      </c>
-      <c r="O164">
-        <v>1</v>
-      </c>
-      <c r="P164">
-        <v>9</v>
-      </c>
-      <c r="Q164">
-        <v>4</v>
+      <c r="M164" s="6">
+        <v>26</v>
+      </c>
+      <c r="N164" s="6">
+        <v>42.5</v>
+      </c>
+      <c r="O164" s="6">
+        <v>1</v>
+      </c>
+      <c r="P164" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q164" s="6">
+        <v>3</v>
       </c>
       <c r="R164">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="S164">
-        <v>16</v>
-      </c>
-      <c r="T164">
+        <f>SUM($S164:$V164)</f>
+        <v>0</v>
+      </c>
+      <c r="S164" s="6">
+        <v>0</v>
+      </c>
+      <c r="T164" s="6">
+        <v>0</v>
+      </c>
+      <c r="U164" s="6">
+        <v>0</v>
+      </c>
+      <c r="V164" s="6">
+        <v>0</v>
+      </c>
+      <c r="W164" s="6">
         <v>20</v>
       </c>
-      <c r="U164">
-        <v>30</v>
-      </c>
-      <c r="V164">
-        <v>16</v>
-      </c>
-      <c r="W164" s="6">
-        <v>70</v>
-      </c>
       <c r="X164" s="6">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="Y164" s="6">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="Z164" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AA164">
-        <v>113391</v>
-      </c>
-      <c r="AB164">
-        <v>113392</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="AA164" s="6">
+        <v>113231</v>
+      </c>
+      <c r="AB164" s="6"/>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>11342</v>
+        <v>11335</v>
       </c>
       <c r="B165" t="s">
         <v>204</v>
       </c>
       <c r="C165" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E165" s="6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F165" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G165" s="6">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H165" s="6">
         <v>40</v>
       </c>
       <c r="I165" s="6">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J165" s="6">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="K165" s="6">
         <v>94</v>
       </c>
       <c r="L165" s="6">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="M165" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N165" s="6">
-        <v>35</v>
+        <v>41.6</v>
       </c>
       <c r="O165" s="6">
         <v>1</v>
       </c>
       <c r="P165" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Q165" s="6">
         <v>3</v>
       </c>
       <c r="R165">
-        <f t="shared" si="5"/>
+        <f>SUM($S165:$V165)</f>
         <v>0</v>
       </c>
       <c r="S165" s="6">
@@ -32368,1134 +32463,1390 @@
         <v>0</v>
       </c>
       <c r="W165" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="X165" s="6">
         <v>25</v>
       </c>
       <c r="Y165" s="6">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="Z165" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA165" s="6">
-        <v>113421</v>
+        <v>113351</v>
       </c>
       <c r="AB165" s="6"/>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>11344</v>
+        <v>11339</v>
       </c>
       <c r="B166" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D166" t="s">
+        <v>71</v>
+      </c>
+      <c r="E166">
+        <v>80</v>
+      </c>
+      <c r="F166">
+        <v>40</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>84</v>
+      </c>
+      <c r="I166">
+        <v>73</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>102</v>
+      </c>
+      <c r="L166">
+        <v>58</v>
+      </c>
+      <c r="M166">
+        <v>72</v>
+      </c>
+      <c r="N166">
+        <v>30</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166">
+        <v>9</v>
+      </c>
+      <c r="Q166">
+        <v>4</v>
+      </c>
+      <c r="R166">
+        <f>SUM($S166:$V166)</f>
+        <v>82</v>
+      </c>
+      <c r="S166">
+        <v>16</v>
+      </c>
+      <c r="T166">
+        <v>20</v>
+      </c>
+      <c r="U166">
+        <v>30</v>
+      </c>
+      <c r="V166">
+        <v>16</v>
+      </c>
+      <c r="W166" s="6">
+        <v>70</v>
+      </c>
+      <c r="X166" s="6">
+        <v>75</v>
+      </c>
+      <c r="Y166" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="Z166" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA166">
+        <v>113391</v>
+      </c>
+      <c r="AB166">
+        <v>113392</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>11342</v>
+      </c>
+      <c r="B167" t="s">
         <v>204</v>
       </c>
-      <c r="C166" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D166" s="3" t="s">
+      <c r="C167" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E166" s="6">
-        <v>32</v>
-      </c>
-      <c r="F166" s="6">
+      <c r="E167" s="6">
+        <v>35</v>
+      </c>
+      <c r="F167" s="6">
+        <v>45</v>
+      </c>
+      <c r="G167" s="6">
+        <v>78</v>
+      </c>
+      <c r="H167" s="6">
+        <v>40</v>
+      </c>
+      <c r="I167" s="6">
+        <v>86</v>
+      </c>
+      <c r="J167" s="6">
+        <v>125</v>
+      </c>
+      <c r="K167" s="6">
+        <v>94</v>
+      </c>
+      <c r="L167" s="6">
+        <v>86</v>
+      </c>
+      <c r="M167" s="6">
         <v>43</v>
       </c>
-      <c r="G166" s="6">
-        <v>79</v>
-      </c>
-      <c r="H166" s="6">
-        <v>39</v>
-      </c>
-      <c r="I166" s="6">
-        <v>83</v>
-      </c>
-      <c r="J166" s="6">
-        <v>115</v>
-      </c>
-      <c r="K166" s="6">
-        <v>94</v>
-      </c>
-      <c r="L166" s="6">
-        <v>91</v>
-      </c>
-      <c r="M166" s="6">
-        <v>43</v>
-      </c>
-      <c r="N166" s="6">
-        <v>37</v>
-      </c>
-      <c r="O166" s="6">
-        <v>1</v>
-      </c>
-      <c r="P166" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q166" s="6">
+      <c r="N167" s="6">
+        <v>35</v>
+      </c>
+      <c r="O167" s="6">
+        <v>1</v>
+      </c>
+      <c r="P167" s="6">
+        <v>22</v>
+      </c>
+      <c r="Q167" s="6">
         <v>3</v>
       </c>
-      <c r="R166">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S166" s="6">
-        <v>0</v>
-      </c>
-      <c r="T166" s="6">
-        <v>0</v>
-      </c>
-      <c r="U166" s="6">
-        <v>0</v>
-      </c>
-      <c r="V166" s="6">
-        <v>0</v>
-      </c>
-      <c r="W166" s="6">
+      <c r="R167">
+        <f>SUM($S167:$V167)</f>
+        <v>0</v>
+      </c>
+      <c r="S167" s="6">
+        <v>0</v>
+      </c>
+      <c r="T167" s="6">
+        <v>0</v>
+      </c>
+      <c r="U167" s="6">
+        <v>0</v>
+      </c>
+      <c r="V167" s="6">
+        <v>0</v>
+      </c>
+      <c r="W167" s="6">
         <v>15</v>
       </c>
-      <c r="X166" s="6">
+      <c r="X167" s="6">
         <v>25</v>
       </c>
-      <c r="Y166" s="6">
+      <c r="Y167" s="6">
         <v>0.48</v>
       </c>
-      <c r="Z166" s="6">
+      <c r="Z167" s="6">
         <v>0.9</v>
       </c>
-      <c r="AA166" s="6">
-        <v>113441</v>
-      </c>
-      <c r="AB166" s="6"/>
-    </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A167" s="15">
-        <v>11351</v>
-      </c>
-      <c r="B167" t="s">
-        <v>209</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E167" s="17">
-        <v>12</v>
-      </c>
-      <c r="F167" s="17">
-        <v>22</v>
-      </c>
-      <c r="G167" s="17">
-        <v>67</v>
-      </c>
-      <c r="H167" s="17">
-        <v>25</v>
-      </c>
-      <c r="I167" s="17">
-        <v>0</v>
-      </c>
-      <c r="J167" s="18">
-        <v>0</v>
-      </c>
-      <c r="K167" s="18">
-        <v>102</v>
-      </c>
-      <c r="L167" s="18">
-        <v>68</v>
-      </c>
-      <c r="M167" s="18">
-        <v>28</v>
-      </c>
-      <c r="N167" s="17">
-        <v>25</v>
-      </c>
-      <c r="O167" s="18">
-        <v>1</v>
-      </c>
-      <c r="P167" s="17">
-        <v>10</v>
-      </c>
-      <c r="Q167" s="18">
-        <v>3</v>
-      </c>
-      <c r="R167">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S167" s="18">
-        <v>0</v>
-      </c>
-      <c r="T167" s="18">
-        <v>0</v>
-      </c>
-      <c r="U167" s="18">
-        <v>0</v>
-      </c>
-      <c r="V167" s="18">
-        <v>0</v>
-      </c>
-      <c r="W167" s="18">
-        <v>10</v>
-      </c>
-      <c r="X167" s="18">
-        <v>15</v>
-      </c>
-      <c r="Y167" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="Z167" s="18">
-        <v>0.5</v>
-      </c>
       <c r="AA167" s="6">
-        <v>113511</v>
-      </c>
-      <c r="AC167" s="3" t="s">
-        <v>2060</v>
-      </c>
+        <v>113421</v>
+      </c>
+      <c r="AB167" s="6"/>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>11362</v>
+        <v>11344</v>
       </c>
       <c r="B168" t="s">
-        <v>210</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>2020</v>
+        <v>204</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2001</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E168" s="6">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F168" s="6">
+        <v>43</v>
+      </c>
+      <c r="G168" s="6">
+        <v>79</v>
+      </c>
+      <c r="H168" s="6">
+        <v>39</v>
+      </c>
+      <c r="I168" s="6">
+        <v>83</v>
+      </c>
+      <c r="J168" s="6">
         <v>115</v>
       </c>
-      <c r="G168" s="6">
-        <v>0</v>
-      </c>
-      <c r="H168" s="6">
-        <v>90</v>
-      </c>
-      <c r="I168" s="6">
-        <v>95</v>
-      </c>
-      <c r="J168" s="6">
-        <v>0</v>
-      </c>
       <c r="K168" s="6">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L168" s="6">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="M168" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N168" s="6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O168" s="6">
+        <v>1</v>
+      </c>
+      <c r="P168" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q168" s="6">
         <v>3</v>
       </c>
-      <c r="P168" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q168" s="6">
-        <v>4</v>
-      </c>
       <c r="R168">
-        <f t="shared" si="5"/>
+        <f>SUM($S168:$V168)</f>
+        <v>0</v>
+      </c>
+      <c r="S168" s="6">
+        <v>0</v>
+      </c>
+      <c r="T168" s="6">
+        <v>0</v>
+      </c>
+      <c r="U168" s="6">
+        <v>0</v>
+      </c>
+      <c r="V168" s="6">
+        <v>0</v>
+      </c>
+      <c r="W168" s="6">
+        <v>15</v>
+      </c>
+      <c r="X168" s="6">
+        <v>25</v>
+      </c>
+      <c r="Y168" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="Z168" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AA168" s="6">
+        <v>113441</v>
+      </c>
+      <c r="AB168" s="6"/>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A169" s="15">
+        <v>11351</v>
+      </c>
+      <c r="B169" t="s">
+        <v>209</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E169" s="17">
         <v>12</v>
       </c>
-      <c r="S168" s="6">
+      <c r="F169" s="17">
+        <v>22</v>
+      </c>
+      <c r="G169" s="17">
+        <v>67</v>
+      </c>
+      <c r="H169" s="17">
+        <v>25</v>
+      </c>
+      <c r="I169" s="17">
+        <v>0</v>
+      </c>
+      <c r="J169" s="18">
+        <v>0</v>
+      </c>
+      <c r="K169" s="18">
+        <v>102</v>
+      </c>
+      <c r="L169" s="18">
+        <v>68</v>
+      </c>
+      <c r="M169" s="18">
+        <v>28</v>
+      </c>
+      <c r="N169" s="17">
+        <v>25</v>
+      </c>
+      <c r="O169" s="18">
+        <v>1</v>
+      </c>
+      <c r="P169" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q169" s="18">
         <v>3</v>
       </c>
-      <c r="T168" s="6">
-        <v>3</v>
-      </c>
-      <c r="U168" s="6">
-        <v>3</v>
-      </c>
-      <c r="V168" s="6">
-        <v>3</v>
-      </c>
-      <c r="W168" s="6">
-        <v>90</v>
-      </c>
-      <c r="X168" s="6">
-        <v>130</v>
-      </c>
-      <c r="Y168" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="Z168" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="AA168" s="6">
-        <v>113621</v>
-      </c>
-      <c r="AB168" s="6">
-        <v>113622</v>
-      </c>
-    </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
-        <v>11372</v>
-      </c>
-      <c r="B169" t="s">
-        <v>204</v>
-      </c>
-      <c r="C169" t="s">
-        <v>2002</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E169" s="6">
-        <v>36</v>
-      </c>
-      <c r="F169" s="6">
-        <v>40</v>
-      </c>
-      <c r="G169" s="6">
-        <v>93</v>
-      </c>
-      <c r="H169" s="6">
-        <v>38</v>
-      </c>
-      <c r="I169" s="6">
-        <v>75</v>
-      </c>
-      <c r="J169" s="6">
-        <v>84</v>
-      </c>
-      <c r="K169" s="6">
-        <v>94</v>
-      </c>
-      <c r="L169" s="6">
-        <v>90</v>
-      </c>
-      <c r="M169" s="6">
-        <v>21</v>
-      </c>
-      <c r="N169" s="6">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="O169" s="6">
-        <v>1</v>
-      </c>
-      <c r="P169" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q169" s="6">
-        <v>3</v>
-      </c>
       <c r="R169">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S169" s="6">
-        <v>0</v>
-      </c>
-      <c r="T169" s="6">
-        <v>0</v>
-      </c>
-      <c r="U169" s="6">
-        <v>0</v>
-      </c>
-      <c r="V169" s="6">
-        <v>0</v>
-      </c>
-      <c r="W169" s="6">
+        <f>SUM($S169:$V169)</f>
+        <v>0</v>
+      </c>
+      <c r="S169" s="18">
+        <v>0</v>
+      </c>
+      <c r="T169" s="18">
+        <v>0</v>
+      </c>
+      <c r="U169" s="18">
+        <v>0</v>
+      </c>
+      <c r="V169" s="18">
+        <v>0</v>
+      </c>
+      <c r="W169" s="18">
+        <v>10</v>
+      </c>
+      <c r="X169" s="18">
         <v>15</v>
       </c>
-      <c r="X169" s="6">
-        <v>25</v>
-      </c>
-      <c r="Y169" s="6">
+      <c r="Y169" s="18">
         <v>0.5</v>
       </c>
-      <c r="Z169" s="6">
-        <v>0.9</v>
+      <c r="Z169" s="18">
+        <v>0.5</v>
       </c>
       <c r="AA169" s="6">
-        <v>113721</v>
-      </c>
-      <c r="AB169" s="6"/>
+        <v>113511</v>
+      </c>
+      <c r="AC169" s="3" t="s">
+        <v>2060</v>
+      </c>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>11380</v>
+        <v>11362</v>
       </c>
       <c r="B170" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>1874</v>
+        <v>2020</v>
       </c>
       <c r="D170" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E170" s="6">
+        <v>84</v>
+      </c>
+      <c r="F170" s="6">
+        <v>115</v>
+      </c>
+      <c r="G170" s="6">
+        <v>0</v>
+      </c>
+      <c r="H170" s="6">
+        <v>90</v>
+      </c>
+      <c r="I170" s="6">
+        <v>95</v>
+      </c>
+      <c r="J170" s="6">
+        <v>0</v>
+      </c>
+      <c r="K170" s="6">
+        <v>101</v>
+      </c>
+      <c r="L170" s="6">
         <v>69</v>
-      </c>
-      <c r="E170" s="10">
-        <v>92</v>
-      </c>
-      <c r="F170" s="10">
-        <v>128</v>
-      </c>
-      <c r="G170" s="10">
-        <v>0</v>
-      </c>
-      <c r="H170" s="10">
-        <v>115</v>
-      </c>
-      <c r="I170" s="10">
-        <v>80</v>
-      </c>
-      <c r="J170" s="6">
-        <v>0</v>
-      </c>
-      <c r="K170" s="6">
-        <v>102</v>
-      </c>
-      <c r="L170" s="6">
-        <v>48</v>
       </c>
       <c r="M170" s="6">
         <v>45</v>
       </c>
-      <c r="N170" s="10">
-        <v>23</v>
+      <c r="N170" s="6">
+        <v>33</v>
       </c>
       <c r="O170" s="6">
         <v>3</v>
       </c>
-      <c r="P170" s="10">
-        <v>9</v>
+      <c r="P170" s="6">
+        <v>8</v>
       </c>
       <c r="Q170" s="6">
         <v>4</v>
       </c>
       <c r="R170">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S170" s="10">
-        <v>0</v>
-      </c>
-      <c r="T170" s="10">
-        <v>0</v>
-      </c>
-      <c r="U170" s="10">
-        <v>0</v>
-      </c>
-      <c r="V170" s="10">
-        <v>0</v>
+        <f>SUM($S170:$V170)</f>
+        <v>12</v>
+      </c>
+      <c r="S170" s="6">
+        <v>3</v>
+      </c>
+      <c r="T170" s="6">
+        <v>3</v>
+      </c>
+      <c r="U170" s="6">
+        <v>3</v>
+      </c>
+      <c r="V170" s="6">
+        <v>3</v>
       </c>
       <c r="W170" s="6">
+        <v>90</v>
+      </c>
+      <c r="X170" s="6">
         <v>130</v>
       </c>
-      <c r="X170" s="6">
-        <v>185</v>
-      </c>
       <c r="Y170" s="6">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Z170" s="6">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="AA170" s="6">
-        <v>113801</v>
+        <v>113621</v>
       </c>
       <c r="AB170" s="6">
-        <v>113802</v>
+        <v>113622</v>
       </c>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>11408</v>
+        <v>11372</v>
       </c>
       <c r="B171" t="s">
-        <v>209</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E171" s="18">
-        <v>17</v>
-      </c>
-      <c r="F171" s="18">
-        <v>26</v>
-      </c>
-      <c r="G171" s="18">
-        <v>89</v>
-      </c>
-      <c r="H171" s="18">
-        <v>32</v>
-      </c>
-      <c r="I171" s="18">
-        <v>0</v>
-      </c>
-      <c r="J171" s="18">
-        <v>0</v>
-      </c>
-      <c r="K171" s="19">
-        <v>100</v>
-      </c>
-      <c r="L171" s="18">
-        <v>47</v>
-      </c>
-      <c r="M171" s="18">
-        <v>47</v>
-      </c>
-      <c r="N171" s="18">
+        <v>204</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="6">
+        <v>36</v>
+      </c>
+      <c r="F171" s="6">
+        <v>40</v>
+      </c>
+      <c r="G171" s="6">
+        <v>93</v>
+      </c>
+      <c r="H171" s="6">
+        <v>38</v>
+      </c>
+      <c r="I171" s="6">
+        <v>75</v>
+      </c>
+      <c r="J171" s="6">
+        <v>84</v>
+      </c>
+      <c r="K171" s="6">
+        <v>94</v>
+      </c>
+      <c r="L171" s="6">
+        <v>90</v>
+      </c>
+      <c r="M171" s="6">
         <v>21</v>
       </c>
-      <c r="O171" s="18">
-        <v>1</v>
-      </c>
-      <c r="P171" s="18">
-        <v>20</v>
-      </c>
-      <c r="Q171" s="18">
+      <c r="N171" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="O171" s="6">
+        <v>1</v>
+      </c>
+      <c r="P171" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q171" s="6">
         <v>3</v>
       </c>
       <c r="R171">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S171" s="18">
-        <v>0</v>
-      </c>
-      <c r="T171" s="18">
-        <v>0</v>
-      </c>
-      <c r="U171" s="18">
-        <v>0</v>
-      </c>
-      <c r="V171" s="18">
-        <v>0</v>
-      </c>
-      <c r="W171" s="18">
-        <v>20</v>
-      </c>
-      <c r="X171" s="18">
+        <f>SUM($S171:$V171)</f>
+        <v>0</v>
+      </c>
+      <c r="S171" s="6">
+        <v>0</v>
+      </c>
+      <c r="T171" s="6">
+        <v>0</v>
+      </c>
+      <c r="U171" s="6">
+        <v>0</v>
+      </c>
+      <c r="V171" s="6">
+        <v>0</v>
+      </c>
+      <c r="W171" s="6">
+        <v>15</v>
+      </c>
+      <c r="X171" s="6">
         <v>25</v>
       </c>
-      <c r="Y171" s="18">
-        <v>0.64</v>
-      </c>
-      <c r="Z171" s="18">
-        <v>0.75</v>
-      </c>
-      <c r="AA171">
-        <v>114081</v>
-      </c>
+      <c r="Y171" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Z171" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AA171" s="6">
+        <v>113721</v>
+      </c>
+      <c r="AB171" s="6"/>
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>11413</v>
+        <v>11380</v>
       </c>
       <c r="B172" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C172" t="s">
-        <v>2035</v>
-      </c>
-      <c r="D172" t="s">
-        <v>2045</v>
-      </c>
-      <c r="E172">
-        <v>52</v>
-      </c>
-      <c r="F172">
-        <v>56</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>66</v>
-      </c>
-      <c r="I172">
-        <v>100</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>97</v>
-      </c>
-      <c r="L172">
-        <v>77</v>
-      </c>
-      <c r="M172">
-        <v>47</v>
-      </c>
-      <c r="N172">
-        <v>29</v>
-      </c>
-      <c r="O172">
-        <v>2</v>
-      </c>
-      <c r="P172">
-        <v>25</v>
-      </c>
-      <c r="Q172">
+        <v>207</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="10">
+        <v>92</v>
+      </c>
+      <c r="F172" s="10">
+        <v>128</v>
+      </c>
+      <c r="G172" s="10">
+        <v>0</v>
+      </c>
+      <c r="H172" s="10">
+        <v>115</v>
+      </c>
+      <c r="I172" s="10">
+        <v>80</v>
+      </c>
+      <c r="J172" s="6">
+        <v>0</v>
+      </c>
+      <c r="K172" s="6">
+        <v>102</v>
+      </c>
+      <c r="L172" s="6">
+        <v>48</v>
+      </c>
+      <c r="M172" s="6">
+        <v>45</v>
+      </c>
+      <c r="N172" s="10">
+        <v>23</v>
+      </c>
+      <c r="O172" s="6">
+        <v>3</v>
+      </c>
+      <c r="P172" s="10">
+        <v>9</v>
+      </c>
+      <c r="Q172" s="6">
         <v>4</v>
       </c>
       <c r="R172">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="S172">
-        <v>10</v>
-      </c>
-      <c r="T172">
-        <v>10</v>
-      </c>
-      <c r="U172">
-        <v>10</v>
-      </c>
-      <c r="V172">
-        <v>10</v>
-      </c>
-      <c r="W172">
-        <v>45</v>
-      </c>
-      <c r="X172">
-        <v>75</v>
-      </c>
-      <c r="Y172">
-        <v>1.3</v>
-      </c>
-      <c r="Z172">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="AA172" s="18">
-        <v>114131</v>
+        <f>SUM($S172:$V172)</f>
+        <v>0</v>
+      </c>
+      <c r="S172" s="10">
+        <v>0</v>
+      </c>
+      <c r="T172" s="10">
+        <v>0</v>
+      </c>
+      <c r="U172" s="10">
+        <v>0</v>
+      </c>
+      <c r="V172" s="10">
+        <v>0</v>
+      </c>
+      <c r="W172" s="6">
+        <v>130</v>
+      </c>
+      <c r="X172" s="6">
+        <v>185</v>
+      </c>
+      <c r="Y172" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z172" s="6">
+        <v>9</v>
+      </c>
+      <c r="AA172" s="6">
+        <v>113801</v>
+      </c>
+      <c r="AB172" s="6">
+        <v>113802</v>
       </c>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>11425</v>
+        <v>11408</v>
       </c>
       <c r="B173" t="s">
-        <v>204</v>
-      </c>
-      <c r="C173" t="s">
-        <v>2294</v>
-      </c>
-      <c r="D173" t="s">
+        <v>209</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="18">
+        <v>17</v>
+      </c>
+      <c r="F173" s="18">
+        <v>26</v>
+      </c>
+      <c r="G173" s="18">
+        <v>89</v>
+      </c>
+      <c r="H173" s="18">
         <v>32</v>
       </c>
-      <c r="F173">
-        <v>40</v>
-      </c>
-      <c r="G173">
-        <v>87</v>
-      </c>
-      <c r="H173">
-        <v>39</v>
-      </c>
-      <c r="I173">
-        <v>62</v>
-      </c>
-      <c r="J173">
-        <v>79</v>
-      </c>
-      <c r="K173" s="1">
-        <v>94</v>
-      </c>
-      <c r="L173">
-        <v>90</v>
-      </c>
-      <c r="M173">
-        <v>32</v>
-      </c>
-      <c r="N173">
-        <v>37</v>
-      </c>
-      <c r="O173">
-        <v>1</v>
-      </c>
-      <c r="P173">
+      <c r="I173" s="18">
+        <v>0</v>
+      </c>
+      <c r="J173" s="18">
+        <v>0</v>
+      </c>
+      <c r="K173" s="19">
+        <v>100</v>
+      </c>
+      <c r="L173" s="18">
+        <v>47</v>
+      </c>
+      <c r="M173" s="18">
+        <v>47</v>
+      </c>
+      <c r="N173" s="18">
+        <v>21</v>
+      </c>
+      <c r="O173" s="18">
+        <v>1</v>
+      </c>
+      <c r="P173" s="18">
         <v>20</v>
       </c>
-      <c r="Q173">
+      <c r="Q173" s="18">
         <v>3</v>
       </c>
-      <c r="R173" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S173">
-        <v>0</v>
-      </c>
-      <c r="T173">
-        <v>0</v>
-      </c>
-      <c r="U173">
-        <v>0</v>
-      </c>
-      <c r="V173">
-        <v>0</v>
-      </c>
-      <c r="W173">
-        <v>15</v>
-      </c>
-      <c r="X173">
+      <c r="R173">
+        <f>SUM($S173:$V173)</f>
+        <v>0</v>
+      </c>
+      <c r="S173" s="18">
+        <v>0</v>
+      </c>
+      <c r="T173" s="18">
+        <v>0</v>
+      </c>
+      <c r="U173" s="18">
+        <v>0</v>
+      </c>
+      <c r="V173" s="18">
+        <v>0</v>
+      </c>
+      <c r="W173" s="18">
+        <v>20</v>
+      </c>
+      <c r="X173" s="18">
         <v>25</v>
       </c>
-      <c r="Y173">
-        <v>0.48</v>
-      </c>
-      <c r="Z173">
-        <v>0.9</v>
+      <c r="Y173" s="18">
+        <v>0.64</v>
+      </c>
+      <c r="Z173" s="18">
+        <v>0.75</v>
       </c>
       <c r="AA173">
-        <v>114251</v>
+        <v>114081</v>
       </c>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>11431</v>
+        <v>11413</v>
       </c>
       <c r="B174" t="s">
-        <v>206</v>
+        <v>2254</v>
       </c>
       <c r="C174" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E174" s="6">
-        <v>60</v>
-      </c>
-      <c r="F174" s="6">
-        <v>65</v>
-      </c>
-      <c r="G174" s="6">
-        <v>60</v>
-      </c>
-      <c r="H174" s="6">
+        <v>2035</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E174">
+        <v>52</v>
+      </c>
+      <c r="F174">
+        <v>56</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>66</v>
+      </c>
+      <c r="I174">
+        <v>100</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>97</v>
+      </c>
+      <c r="L174">
+        <v>77</v>
+      </c>
+      <c r="M174">
         <v>47</v>
       </c>
-      <c r="I174" s="6">
-        <v>81</v>
-      </c>
-      <c r="J174" s="6">
-        <v>0</v>
-      </c>
-      <c r="K174" s="11">
-        <v>97</v>
-      </c>
-      <c r="L174" s="6">
-        <v>84</v>
-      </c>
-      <c r="M174" s="6">
-        <v>62</v>
-      </c>
-      <c r="N174" s="6">
-        <v>31.5</v>
-      </c>
-      <c r="O174" s="6">
+      <c r="N174">
+        <v>29</v>
+      </c>
+      <c r="O174">
         <v>2</v>
       </c>
-      <c r="P174" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q174" s="6">
+      <c r="P174">
+        <v>25</v>
+      </c>
+      <c r="Q174">
         <v>4</v>
       </c>
       <c r="R174">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S174" s="6">
-        <v>0</v>
-      </c>
-      <c r="T174" s="6">
-        <v>0</v>
-      </c>
-      <c r="U174" s="6">
-        <v>0</v>
-      </c>
-      <c r="V174" s="6">
-        <v>0</v>
-      </c>
-      <c r="W174" s="6">
-        <v>35</v>
-      </c>
-      <c r="X174" s="6">
-        <v>70</v>
-      </c>
-      <c r="Y174" s="6">
-        <v>1.28</v>
-      </c>
-      <c r="Z174" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="AA174" s="6">
-        <v>114311</v>
-      </c>
-      <c r="AB174" s="6"/>
+        <f>SUM($S174:$V174)</f>
+        <v>40</v>
+      </c>
+      <c r="S174">
+        <v>10</v>
+      </c>
+      <c r="T174">
+        <v>10</v>
+      </c>
+      <c r="U174">
+        <v>10</v>
+      </c>
+      <c r="V174">
+        <v>10</v>
+      </c>
+      <c r="W174">
+        <v>45</v>
+      </c>
+      <c r="X174">
+        <v>75</v>
+      </c>
+      <c r="Y174">
+        <v>1.3</v>
+      </c>
+      <c r="Z174">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AA174" s="18">
+        <v>114131</v>
+      </c>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>11456</v>
+        <v>11416</v>
       </c>
       <c r="B175" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C175" t="s">
-        <v>1943</v>
-      </c>
-      <c r="D175" s="3" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D175" t="s">
         <v>81</v>
       </c>
-      <c r="E175" s="6">
-        <v>64</v>
-      </c>
-      <c r="F175" s="6">
-        <v>76</v>
-      </c>
-      <c r="G175" s="6">
-        <v>0</v>
-      </c>
-      <c r="H175" s="6">
-        <v>67</v>
-      </c>
-      <c r="I175" s="6">
-        <v>100</v>
-      </c>
-      <c r="J175" s="6">
-        <v>79</v>
-      </c>
-      <c r="K175" s="6">
-        <v>97</v>
-      </c>
-      <c r="L175" s="6">
-        <v>83</v>
-      </c>
-      <c r="M175" s="6">
-        <v>59</v>
-      </c>
-      <c r="N175" s="6">
-        <v>32.6</v>
-      </c>
-      <c r="O175" s="6">
-        <v>2</v>
-      </c>
-      <c r="P175" s="6">
-        <v>19</v>
-      </c>
-      <c r="Q175" s="6">
-        <v>4</v>
-      </c>
-      <c r="R175">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S175" s="6">
-        <v>0</v>
-      </c>
-      <c r="T175" s="6">
-        <v>0</v>
-      </c>
-      <c r="U175" s="6">
-        <v>0</v>
-      </c>
-      <c r="V175" s="6">
+      <c r="E175">
+        <v>36</v>
+      </c>
+      <c r="F175">
+        <v>43</v>
+      </c>
+      <c r="G175">
+        <v>87</v>
+      </c>
+      <c r="H175">
+        <v>47</v>
+      </c>
+      <c r="I175">
+        <v>81</v>
+      </c>
+      <c r="J175">
+        <v>84</v>
+      </c>
+      <c r="K175" s="1">
+        <v>95</v>
+      </c>
+      <c r="L175">
+        <v>96</v>
+      </c>
+      <c r="M175">
+        <v>16</v>
+      </c>
+      <c r="N175">
+        <v>38</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="P175">
+        <v>7</v>
+      </c>
+      <c r="Q175">
+        <v>3</v>
+      </c>
+      <c r="R175" s="18">
+        <f>SUM($S175:$V175)</f>
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+      <c r="V175">
         <v>0</v>
       </c>
       <c r="W175" s="6">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="X175" s="6">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="Y175" s="6">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z175" s="6">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="AA175" s="6">
-        <v>114561</v>
-      </c>
-      <c r="AB175" s="6"/>
+        <v>114161</v>
+      </c>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
+        <v>11425</v>
+      </c>
+      <c r="B176" t="s">
+        <v>204</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D176" t="s">
+        <v>67</v>
+      </c>
+      <c r="E176">
+        <v>32</v>
+      </c>
+      <c r="F176">
+        <v>40</v>
+      </c>
+      <c r="G176">
+        <v>87</v>
+      </c>
+      <c r="H176">
+        <v>39</v>
+      </c>
+      <c r="I176">
+        <v>62</v>
+      </c>
+      <c r="J176">
+        <v>79</v>
+      </c>
+      <c r="K176" s="1">
+        <v>94</v>
+      </c>
+      <c r="L176">
+        <v>90</v>
+      </c>
+      <c r="M176">
+        <v>32</v>
+      </c>
+      <c r="N176">
+        <v>37</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176">
+        <v>20</v>
+      </c>
+      <c r="Q176">
+        <v>3</v>
+      </c>
+      <c r="R176" s="18">
+        <f>SUM($S176:$V176)</f>
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+      <c r="W176">
+        <v>15</v>
+      </c>
+      <c r="X176">
+        <v>25</v>
+      </c>
+      <c r="Y176">
+        <v>0.48</v>
+      </c>
+      <c r="Z176">
+        <v>0.9</v>
+      </c>
+      <c r="AA176">
+        <v>114251</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>11431</v>
+      </c>
+      <c r="B177" t="s">
+        <v>206</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="6">
+        <v>60</v>
+      </c>
+      <c r="F177" s="6">
+        <v>65</v>
+      </c>
+      <c r="G177" s="6">
+        <v>60</v>
+      </c>
+      <c r="H177" s="6">
+        <v>47</v>
+      </c>
+      <c r="I177" s="6">
+        <v>81</v>
+      </c>
+      <c r="J177" s="6">
+        <v>0</v>
+      </c>
+      <c r="K177" s="11">
+        <v>97</v>
+      </c>
+      <c r="L177" s="6">
+        <v>84</v>
+      </c>
+      <c r="M177" s="6">
+        <v>62</v>
+      </c>
+      <c r="N177" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="O177" s="6">
+        <v>2</v>
+      </c>
+      <c r="P177" s="6">
+        <v>20</v>
+      </c>
+      <c r="Q177" s="6">
+        <v>4</v>
+      </c>
+      <c r="R177">
+        <f>SUM($S177:$V177)</f>
+        <v>0</v>
+      </c>
+      <c r="S177" s="6">
+        <v>0</v>
+      </c>
+      <c r="T177" s="6">
+        <v>0</v>
+      </c>
+      <c r="U177" s="6">
+        <v>0</v>
+      </c>
+      <c r="V177" s="6">
+        <v>0</v>
+      </c>
+      <c r="W177" s="6">
+        <v>35</v>
+      </c>
+      <c r="X177" s="6">
+        <v>70</v>
+      </c>
+      <c r="Y177" s="6">
+        <v>1.28</v>
+      </c>
+      <c r="Z177" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="AA177" s="6">
+        <v>114311</v>
+      </c>
+      <c r="AB177" s="6"/>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>11456</v>
+      </c>
+      <c r="B178" t="s">
+        <v>205</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E178" s="6">
+        <v>64</v>
+      </c>
+      <c r="F178" s="6">
+        <v>76</v>
+      </c>
+      <c r="G178" s="6">
+        <v>0</v>
+      </c>
+      <c r="H178" s="6">
+        <v>67</v>
+      </c>
+      <c r="I178" s="6">
+        <v>100</v>
+      </c>
+      <c r="J178" s="6">
+        <v>79</v>
+      </c>
+      <c r="K178" s="6">
+        <v>97</v>
+      </c>
+      <c r="L178" s="6">
+        <v>83</v>
+      </c>
+      <c r="M178" s="6">
+        <v>59</v>
+      </c>
+      <c r="N178" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="O178" s="6">
+        <v>2</v>
+      </c>
+      <c r="P178" s="6">
+        <v>19</v>
+      </c>
+      <c r="Q178" s="6">
+        <v>4</v>
+      </c>
+      <c r="R178">
+        <f>SUM($S178:$V178)</f>
+        <v>0</v>
+      </c>
+      <c r="S178" s="6">
+        <v>0</v>
+      </c>
+      <c r="T178" s="6">
+        <v>0</v>
+      </c>
+      <c r="U178" s="6">
+        <v>0</v>
+      </c>
+      <c r="V178" s="6">
+        <v>0</v>
+      </c>
+      <c r="W178" s="6">
+        <v>45</v>
+      </c>
+      <c r="X178" s="6">
+        <v>80</v>
+      </c>
+      <c r="Y178" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="Z178" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="AA178" s="6">
+        <v>114561</v>
+      </c>
+      <c r="AB178" s="6"/>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <v>11483</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B179" t="s">
         <v>76</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C179" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D179" t="s">
         <v>69</v>
       </c>
-      <c r="E176">
+      <c r="E179">
         <v>80</v>
       </c>
-      <c r="F176">
+      <c r="F179">
         <v>45</v>
       </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-      <c r="H176">
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
         <v>96</v>
       </c>
-      <c r="I176">
+      <c r="I179">
         <v>101</v>
       </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176" s="1">
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" s="1">
         <v>97</v>
       </c>
-      <c r="L176">
+      <c r="L179">
         <v>66</v>
       </c>
-      <c r="M176">
+      <c r="M179">
         <v>78</v>
       </c>
-      <c r="N176">
+      <c r="N179">
         <v>30.5</v>
       </c>
-      <c r="O176">
-        <v>1</v>
-      </c>
-      <c r="P176">
+      <c r="O179">
+        <v>1</v>
+      </c>
+      <c r="P179">
         <v>25</v>
       </c>
-      <c r="Q176">
+      <c r="Q179">
         <v>4</v>
       </c>
-      <c r="R176">
-        <f t="shared" si="5"/>
+      <c r="R179">
+        <f>SUM($S179:$V179)</f>
         <v>67</v>
       </c>
-      <c r="S176">
+      <c r="S179">
         <v>20</v>
       </c>
-      <c r="T176">
+      <c r="T179">
         <v>21</v>
       </c>
-      <c r="U176">
+      <c r="U179">
         <v>15</v>
       </c>
-      <c r="V176">
+      <c r="V179">
         <v>11</v>
       </c>
-      <c r="W176" s="6">
+      <c r="W179" s="6">
         <v>75</v>
       </c>
-      <c r="X176" s="6">
+      <c r="X179" s="6">
         <v>90</v>
       </c>
-      <c r="Y176" s="6">
+      <c r="Y179" s="6">
         <v>2.88</v>
       </c>
-      <c r="Z176" s="6">
+      <c r="Z179" s="6">
         <v>5.5</v>
       </c>
-      <c r="AA176">
+      <c r="AA179">
         <v>104831</v>
       </c>
-      <c r="AB176" s="6">
+      <c r="AB179" s="6">
         <v>114832</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A177" s="29">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A180" s="29">
         <v>11496</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B180" t="s">
         <v>2237</v>
       </c>
-      <c r="C177" s="29" t="s">
+      <c r="C180" s="29" t="s">
         <v>2238</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D180" t="s">
         <v>2226</v>
       </c>
-      <c r="E177">
+      <c r="E180">
         <v>43</v>
       </c>
-      <c r="F177">
+      <c r="F180">
         <v>46</v>
       </c>
-      <c r="G177">
+      <c r="G180">
         <v>83</v>
       </c>
-      <c r="H177">
+      <c r="H180">
         <v>42</v>
       </c>
-      <c r="I177">
+      <c r="I180">
         <v>95</v>
       </c>
-      <c r="J177">
+      <c r="J180">
         <v>136</v>
       </c>
-      <c r="K177" s="1">
+      <c r="K180" s="1">
         <v>92</v>
       </c>
-      <c r="L177">
+      <c r="L180">
         <v>91</v>
       </c>
-      <c r="M177">
+      <c r="M180">
         <v>51</v>
       </c>
-      <c r="N177">
+      <c r="N180">
         <v>32</v>
       </c>
-      <c r="O177">
-        <v>1</v>
-      </c>
-      <c r="P177">
+      <c r="O180">
+        <v>1</v>
+      </c>
+      <c r="P180">
         <v>10</v>
       </c>
-      <c r="Q177">
+      <c r="Q180">
         <v>3</v>
       </c>
-      <c r="R177" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S177">
-        <v>0</v>
-      </c>
-      <c r="T177">
-        <v>0</v>
-      </c>
-      <c r="U177">
-        <v>0</v>
-      </c>
-      <c r="V177">
-        <v>0</v>
-      </c>
-      <c r="W177">
+      <c r="R180" s="18">
+        <f>SUM($S180:$V180)</f>
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
         <v>25</v>
       </c>
-      <c r="X177">
+      <c r="X180">
         <v>35</v>
       </c>
-      <c r="Y177">
+      <c r="Y180">
         <v>0.7</v>
       </c>
-      <c r="Z177">
+      <c r="Z180">
         <v>1.2</v>
       </c>
-      <c r="AA177">
+      <c r="AA180">
         <v>114961</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <v>11528</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B181" t="s">
         <v>2254</v>
       </c>
-      <c r="C178" s="29" t="s">
+      <c r="C181" s="29" t="s">
         <v>2256</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D181" t="s">
         <v>67</v>
       </c>
-      <c r="E178">
+      <c r="E181">
         <v>60</v>
       </c>
-      <c r="F178">
+      <c r="F181">
         <v>61</v>
       </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
         <v>68</v>
       </c>
-      <c r="I178">
+      <c r="I181">
         <v>112</v>
       </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178" s="1">
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181" s="1">
         <v>97</v>
       </c>
-      <c r="L178">
+      <c r="L181">
         <v>85</v>
       </c>
-      <c r="M178">
+      <c r="M181">
         <v>54</v>
       </c>
-      <c r="N178">
+      <c r="N181">
         <v>33</v>
       </c>
-      <c r="O178">
+      <c r="O181">
         <v>2</v>
       </c>
-      <c r="P178">
+      <c r="P181">
         <v>18</v>
       </c>
-      <c r="Q178">
+      <c r="Q181">
         <v>4</v>
       </c>
-      <c r="R178" s="18">
-        <f t="shared" si="5"/>
+      <c r="R181" s="18">
+        <f>SUM($S181:$V181)</f>
         <v>48</v>
       </c>
-      <c r="S178">
+      <c r="S181">
         <v>12</v>
       </c>
-      <c r="T178">
+      <c r="T181">
         <v>12</v>
       </c>
-      <c r="U178">
+      <c r="U181">
         <v>12</v>
       </c>
-      <c r="V178">
+      <c r="V181">
         <v>12</v>
       </c>
-      <c r="W178">
+      <c r="W181">
         <v>40</v>
       </c>
-      <c r="X178">
+      <c r="X181">
         <v>70</v>
       </c>
-      <c r="Y178">
+      <c r="Y181">
         <v>1.28</v>
       </c>
-      <c r="Z178">
+      <c r="Z181">
         <v>2.4</v>
       </c>
-      <c r="AA178">
+      <c r="AA181">
         <v>115281</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC176" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC178">
-      <sortCondition ref="A1:A176"/>
+  <autoFilter ref="A1:AC181" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC181">
+      <sortCondition ref="A1:A178"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -33888,7 +34239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA605"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="V590" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -78026,11 +78377,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M144" sqref="M144"/>
+      <selection pane="bottomRight" activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -86280,7 +86631,7 @@
         <v>10</v>
       </c>
       <c r="K106">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L106" s="1">
         <v>50</v>
@@ -86358,7 +86709,7 @@
         <v>20</v>
       </c>
       <c r="K107">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L107" s="1">
         <v>56</v>
@@ -86436,7 +86787,7 @@
         <v>30</v>
       </c>
       <c r="K108">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L108" s="1">
         <v>60</v>
@@ -86514,7 +86865,7 @@
         <v>50</v>
       </c>
       <c r="K109">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L109" s="1">
         <v>65</v>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ECB6F0-143E-472D-878E-80C3605E5A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0910BFBF-F617-4C92-9738-1E233135F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24495" yWindow="2700" windowWidth="21600" windowHeight="11325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27945" yWindow="885" windowWidth="27000" windowHeight="14160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15044" uniqueCount="2365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15050" uniqueCount="2365">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -18442,7 +18442,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R33" si="0">SUM($S2:$V2)</f>
         <v>12</v>
       </c>
       <c r="S2" s="6">
@@ -18529,7 +18529,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="S3">
@@ -18613,7 +18613,7 @@
         <v>4</v>
       </c>
       <c r="R4">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S4" s="10">
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S5">
@@ -18782,7 +18782,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S6">
@@ -18866,7 +18866,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S7" s="10">
@@ -18953,7 +18953,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S8" s="10">
@@ -19038,7 +19038,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S9" s="10">
@@ -19126,7 +19126,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S10" s="10">
@@ -19216,7 +19216,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S11" s="10">
@@ -19303,7 +19303,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S12" s="10">
@@ -19388,7 +19388,7 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S13" s="10">
@@ -19473,7 +19473,7 @@
         <v>4</v>
       </c>
       <c r="R14">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S14" s="10">
@@ -19558,7 +19558,7 @@
         <v>4</v>
       </c>
       <c r="R15">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S15" s="10">
@@ -19643,7 +19643,7 @@
         <v>4</v>
       </c>
       <c r="R16">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S16" s="6">
@@ -19730,7 +19730,7 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S17" s="6">
@@ -19815,7 +19815,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S18">
@@ -19899,7 +19899,7 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S19">
@@ -19983,7 +19983,7 @@
         <v>4</v>
       </c>
       <c r="R20">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="S20">
@@ -20070,7 +20070,7 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="S21">
@@ -20157,7 +20157,7 @@
         <v>3</v>
       </c>
       <c r="R22">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="S22">
@@ -20241,7 +20241,7 @@
         <v>3</v>
       </c>
       <c r="R23">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="S23">
@@ -20325,7 +20325,7 @@
         <v>3</v>
       </c>
       <c r="R24">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="S24">
@@ -20406,7 +20406,7 @@
         <v>3</v>
       </c>
       <c r="R25">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="S25">
@@ -20487,7 +20487,7 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="S26">
@@ -20571,7 +20571,7 @@
         <v>4</v>
       </c>
       <c r="R27">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="S27">
@@ -20655,7 +20655,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="S28">
@@ -20742,7 +20742,7 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="S29">
@@ -20826,7 +20826,7 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S30" s="6">
@@ -20911,7 +20911,7 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S31" s="6">
@@ -20996,7 +20996,7 @@
         <v>4</v>
       </c>
       <c r="R32">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S32" s="6">
@@ -21081,7 +21081,7 @@
         <v>4</v>
       </c>
       <c r="R33">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S33" s="6">
@@ -21166,7 +21166,7 @@
         <v>4</v>
       </c>
       <c r="R34">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" ref="R34:R65" si="1">SUM($S34:$V34)</f>
         <v>12</v>
       </c>
       <c r="S34" s="6">
@@ -21251,7 +21251,7 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S35" s="6">
@@ -21336,7 +21336,7 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S36" s="6">
@@ -21423,7 +21423,7 @@
         <v>4</v>
       </c>
       <c r="R37">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S37" s="6">
@@ -21508,7 +21508,7 @@
         <v>4</v>
       </c>
       <c r="R38">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S38" s="6">
@@ -21595,7 +21595,7 @@
         <v>3</v>
       </c>
       <c r="R39" s="18">
-        <f>SUM($S39:$V39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S39">
@@ -21682,7 +21682,7 @@
         <v>3</v>
       </c>
       <c r="R40" s="18">
-        <f>SUM($S40:$V40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
@@ -21769,7 +21769,7 @@
         <v>3</v>
       </c>
       <c r="R41" s="18">
-        <f>SUM($S41:$V41)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S41">
@@ -21853,7 +21853,7 @@
         <v>4</v>
       </c>
       <c r="R42" s="18">
-        <f>SUM($S42:$V42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S42">
@@ -21937,7 +21937,7 @@
         <v>3</v>
       </c>
       <c r="R43">
-        <f>SUM($S43:$V43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S43" s="6">
@@ -22022,7 +22022,7 @@
         <v>3</v>
       </c>
       <c r="R44">
-        <f>SUM($S44:$V44)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S44" s="6">
@@ -22107,7 +22107,7 @@
         <v>3</v>
       </c>
       <c r="R45">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S45" s="6">
@@ -22192,7 +22192,7 @@
         <v>3</v>
       </c>
       <c r="R46">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S46" s="6">
@@ -22279,7 +22279,7 @@
         <v>3</v>
       </c>
       <c r="R47">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S47" s="6">
@@ -22369,7 +22369,7 @@
         <v>3</v>
       </c>
       <c r="R48">
-        <f>SUM($S48:$V48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S48" s="6">
@@ -22457,7 +22457,7 @@
         <v>3</v>
       </c>
       <c r="R49">
-        <f>SUM($S49:$V49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S49" s="6">
@@ -22545,7 +22545,7 @@
         <v>3</v>
       </c>
       <c r="R50">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S50" s="6">
@@ -22633,7 +22633,7 @@
         <v>3</v>
       </c>
       <c r="R51">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S51" s="6">
@@ -22721,7 +22721,7 @@
         <v>3</v>
       </c>
       <c r="R52">
-        <f>SUM($S52:$V52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S52" s="6">
@@ -22809,7 +22809,7 @@
         <v>3</v>
       </c>
       <c r="R53">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S53" s="6">
@@ -22897,7 +22897,7 @@
         <v>3</v>
       </c>
       <c r="R54">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S54" s="6">
@@ -22985,7 +22985,7 @@
         <v>3</v>
       </c>
       <c r="R55">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S55" s="6">
@@ -23073,7 +23073,7 @@
         <v>3</v>
       </c>
       <c r="R56">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S56" s="6">
@@ -23161,7 +23161,7 @@
         <v>3</v>
       </c>
       <c r="R57">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S57" s="6">
@@ -23249,7 +23249,7 @@
         <v>3</v>
       </c>
       <c r="R58">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S58" s="6">
@@ -23339,7 +23339,7 @@
         <v>3</v>
       </c>
       <c r="R59">
-        <f>SUM($S59:$V59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S59" s="6">
@@ -23427,7 +23427,7 @@
         <v>3</v>
       </c>
       <c r="R60">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S60" s="6">
@@ -23515,7 +23515,7 @@
         <v>3</v>
       </c>
       <c r="R61">
-        <f>SUM($S61:$V61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S61" s="6">
@@ -23603,7 +23603,7 @@
         <v>3</v>
       </c>
       <c r="R62">
-        <f>SUM($S62:$V62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S62" s="6">
@@ -23688,7 +23688,7 @@
         <v>3</v>
       </c>
       <c r="R63">
-        <f>SUM($S63:$V63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S63" s="6">
@@ -23775,7 +23775,7 @@
         <v>3</v>
       </c>
       <c r="R64">
-        <f>SUM($S64:$V64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S64" s="6">
@@ -23860,7 +23860,7 @@
         <v>3</v>
       </c>
       <c r="R65">
-        <f>SUM($S65:$V65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S65" s="6">
@@ -23945,7 +23945,7 @@
         <v>3</v>
       </c>
       <c r="R66">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" ref="R66:R97" si="2">SUM($S66:$V66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="6">
@@ -24030,7 +24030,7 @@
         <v>3</v>
       </c>
       <c r="R67">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S67" s="6">
@@ -24115,7 +24115,7 @@
         <v>3</v>
       </c>
       <c r="R68">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S68" s="6">
@@ -24200,7 +24200,7 @@
         <v>3</v>
       </c>
       <c r="R69">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S69" s="6">
@@ -24285,7 +24285,7 @@
         <v>3</v>
       </c>
       <c r="R70">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S70" s="6">
@@ -24370,7 +24370,7 @@
         <v>3</v>
       </c>
       <c r="R71">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S71" s="6">
@@ -24455,7 +24455,7 @@
         <v>3</v>
       </c>
       <c r="R72">
-        <f>SUM($S72:$V72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S72" s="6">
@@ -24542,7 +24542,7 @@
         <v>3</v>
       </c>
       <c r="R73">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="S73">
@@ -24627,7 +24627,7 @@
         <v>3</v>
       </c>
       <c r="R74">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S74">
@@ -24712,7 +24712,7 @@
         <v>3</v>
       </c>
       <c r="R75">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S75" s="6">
@@ -24797,7 +24797,7 @@
         <v>3</v>
       </c>
       <c r="R76">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S76" s="6">
@@ -24882,7 +24882,7 @@
         <v>4</v>
       </c>
       <c r="R77">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S77" s="10">
@@ -24969,7 +24969,7 @@
         <v>4</v>
       </c>
       <c r="R78">
-        <f>SUM($S78:$V78)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S78" s="10">
@@ -25059,7 +25059,7 @@
         <v>4</v>
       </c>
       <c r="R79">
-        <f>SUM($S79:$V79)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S79" s="10">
@@ -25149,7 +25149,7 @@
         <v>4</v>
       </c>
       <c r="R80">
-        <f>SUM($S80:$V80)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S80" s="10">
@@ -25236,7 +25236,7 @@
         <v>4</v>
       </c>
       <c r="R81">
-        <f>SUM($S81:$V81)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S81" s="10">
@@ -25321,7 +25321,7 @@
         <v>4</v>
       </c>
       <c r="R82">
-        <f>SUM($S82:$V82)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S82" s="10">
@@ -25406,7 +25406,7 @@
         <v>4</v>
       </c>
       <c r="R83">
-        <f>SUM($S83:$V83)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S83" s="10">
@@ -25494,7 +25494,7 @@
         <v>4</v>
       </c>
       <c r="R84">
-        <f>SUM($S84:$V84)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S84" s="10">
@@ -25584,7 +25584,7 @@
         <v>4</v>
       </c>
       <c r="R85">
-        <f>SUM($S85:$V85)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S85" s="10">
@@ -25674,7 +25674,7 @@
         <v>4</v>
       </c>
       <c r="R86">
-        <f>SUM($S86:$V86)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S86" s="10">
@@ -25761,7 +25761,7 @@
         <v>4</v>
       </c>
       <c r="R87">
-        <f>SUM($S87:$V87)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S87" s="10">
@@ -25846,7 +25846,7 @@
         <v>4</v>
       </c>
       <c r="R88">
-        <f>SUM($S88:$V88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S88" s="10">
@@ -25933,7 +25933,7 @@
         <v>4</v>
       </c>
       <c r="R89">
-        <f>SUM($S89:$V89)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="S89">
@@ -26020,7 +26020,7 @@
         <v>4</v>
       </c>
       <c r="R90">
-        <f>SUM($S90:$V90)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="S90">
@@ -26105,7 +26105,7 @@
         <v>4</v>
       </c>
       <c r="R91">
-        <f>SUM($S91:$V91)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="S91">
@@ -26190,7 +26190,7 @@
         <v>4</v>
       </c>
       <c r="R92">
-        <f>SUM($S92:$V92)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S92">
@@ -26277,7 +26277,7 @@
         <v>3</v>
       </c>
       <c r="R93">
-        <f>SUM($S93:$V93)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S93">
@@ -26362,7 +26362,7 @@
         <v>3</v>
       </c>
       <c r="R94">
-        <f>SUM($S94:$V94)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S94">
@@ -26447,7 +26447,7 @@
         <v>3</v>
       </c>
       <c r="R95">
-        <f>SUM($S95:$V95)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="S95">
@@ -26532,7 +26532,7 @@
         <v>3</v>
       </c>
       <c r="R96">
-        <f>SUM($S96:$V96)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="S96">
@@ -26617,7 +26617,7 @@
         <v>4</v>
       </c>
       <c r="R97">
-        <f>SUM($S97:$V97)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S97" s="6">
@@ -26704,7 +26704,7 @@
         <v>4</v>
       </c>
       <c r="R98">
-        <f>SUM($S98:$V98)</f>
+        <f t="shared" ref="R98:R129" si="3">SUM($S98:$V98)</f>
         <v>6</v>
       </c>
       <c r="S98" s="6">
@@ -26789,7 +26789,7 @@
         <v>4</v>
       </c>
       <c r="R99">
-        <f>SUM($S99:$V99)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="S99" s="6">
@@ -26874,7 +26874,7 @@
         <v>4</v>
       </c>
       <c r="R100">
-        <f>SUM($S100:$V100)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="S100" s="6">
@@ -26959,7 +26959,7 @@
         <v>4</v>
       </c>
       <c r="R101">
-        <f>SUM($S101:$V101)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S101" s="6">
@@ -27044,7 +27044,7 @@
         <v>4</v>
       </c>
       <c r="R102">
-        <f>SUM($S102:$V102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S102" s="6">
@@ -27129,7 +27129,7 @@
         <v>4</v>
       </c>
       <c r="R103">
-        <f>SUM($S103:$V103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S103" s="6">
@@ -27214,7 +27214,7 @@
         <v>4</v>
       </c>
       <c r="R104">
-        <f>SUM($S104:$V104)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="S104" s="6">
@@ -27299,7 +27299,7 @@
         <v>4</v>
       </c>
       <c r="R105">
-        <f>SUM($S105:$V105)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S105" s="6">
@@ -27384,7 +27384,7 @@
         <v>4</v>
       </c>
       <c r="R106">
-        <f>SUM($S106:$V106)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S106" s="6">
@@ -27469,7 +27469,7 @@
         <v>4</v>
       </c>
       <c r="R107">
-        <f>SUM($S107:$V107)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S107" s="6">
@@ -27554,7 +27554,7 @@
         <v>3</v>
       </c>
       <c r="R108">
-        <f>SUM($S108:$V108)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="S108" s="6">
@@ -27639,7 +27639,7 @@
         <v>3</v>
       </c>
       <c r="R109">
-        <f>SUM($S109:$V109)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S109" s="6">
@@ -27724,7 +27724,7 @@
         <v>3</v>
       </c>
       <c r="R110">
-        <f>SUM($S110:$V110)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S110" s="6">
@@ -27809,7 +27809,7 @@
         <v>3</v>
       </c>
       <c r="R111">
-        <f>SUM($S111:$V111)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S111" s="6">
@@ -27894,7 +27894,7 @@
         <v>3</v>
       </c>
       <c r="R112">
-        <f>SUM($S112:$V112)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S112" s="6">
@@ -27979,7 +27979,7 @@
         <v>3</v>
       </c>
       <c r="R113">
-        <f>SUM($S113:$V113)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S113" s="6">
@@ -28064,7 +28064,7 @@
         <v>3</v>
       </c>
       <c r="R114">
-        <f>SUM($S114:$V114)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S114" s="6">
@@ -28149,7 +28149,7 @@
         <v>3</v>
       </c>
       <c r="R115">
-        <f>SUM($S115:$V115)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S115" s="6">
@@ -28236,7 +28236,7 @@
         <v>3</v>
       </c>
       <c r="R116">
-        <f>SUM($S116:$V116)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S116" s="6">
@@ -28324,7 +28324,7 @@
         <v>3</v>
       </c>
       <c r="R117">
-        <f>SUM($S117:$V117)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S117" s="6">
@@ -28409,7 +28409,7 @@
         <v>3</v>
       </c>
       <c r="R118">
-        <f>SUM($S118:$V118)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S118" s="6">
@@ -28494,7 +28494,7 @@
         <v>3</v>
       </c>
       <c r="R119">
-        <f>SUM($S119:$V119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S119" s="6">
@@ -28581,7 +28581,7 @@
         <v>3</v>
       </c>
       <c r="R120">
-        <f>SUM($S120:$V120)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S120" s="6">
@@ -28666,7 +28666,7 @@
         <v>3</v>
       </c>
       <c r="R121">
-        <f>SUM($S121:$V121)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S121" s="6">
@@ -28751,7 +28751,7 @@
         <v>3</v>
       </c>
       <c r="R122">
-        <f>SUM($S122:$V122)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S122" s="6">
@@ -28836,7 +28836,7 @@
         <v>3</v>
       </c>
       <c r="R123">
-        <f>SUM($S123:$V123)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S123" s="6">
@@ -28921,7 +28921,7 @@
         <v>3</v>
       </c>
       <c r="R124">
-        <f>SUM($S124:$V124)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S124" s="6">
@@ -29006,7 +29006,7 @@
         <v>3</v>
       </c>
       <c r="R125">
-        <f>SUM($S125:$V125)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S125" s="6">
@@ -29091,7 +29091,7 @@
         <v>3</v>
       </c>
       <c r="R126">
-        <f>SUM($S126:$V126)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S126" s="18">
@@ -29176,7 +29176,7 @@
         <v>3</v>
       </c>
       <c r="R127">
-        <f>SUM($S127:$V127)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S127" s="18">
@@ -29261,7 +29261,7 @@
         <v>3</v>
       </c>
       <c r="R128">
-        <f>SUM($S128:$V128)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S128" s="18">
@@ -29351,7 +29351,7 @@
         <v>3</v>
       </c>
       <c r="R129">
-        <f>SUM($S129:$V129)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S129">
@@ -29436,7 +29436,7 @@
         <v>4</v>
       </c>
       <c r="R130">
-        <f>SUM($S130:$V130)</f>
+        <f t="shared" ref="R130:R161" si="4">SUM($S130:$V130)</f>
         <v>0</v>
       </c>
       <c r="S130" s="10">
@@ -29523,7 +29523,7 @@
         <v>4</v>
       </c>
       <c r="R131">
-        <f>SUM($S131:$V131)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S131" s="10">
@@ -29613,7 +29613,7 @@
         <v>4</v>
       </c>
       <c r="R132">
-        <f>SUM($S132:$V132)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="S132">
@@ -29700,7 +29700,7 @@
         <v>4</v>
       </c>
       <c r="R133">
-        <f>SUM($S133:$V133)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S133" s="10">
@@ -29785,7 +29785,7 @@
         <v>4</v>
       </c>
       <c r="R134">
-        <f>SUM($S134:$V134)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="S134">
@@ -29870,7 +29870,7 @@
         <v>4</v>
       </c>
       <c r="R135">
-        <f>SUM($S135:$V135)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="S135">
@@ -29955,7 +29955,7 @@
         <v>4</v>
       </c>
       <c r="R136">
-        <f>SUM($S136:$V136)</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="S136">
@@ -30042,7 +30042,7 @@
         <v>4</v>
       </c>
       <c r="R137">
-        <f>SUM($S137:$V137)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="S137">
@@ -30127,7 +30127,7 @@
         <v>4</v>
       </c>
       <c r="R138">
-        <f>SUM($S138:$V138)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="S138">
@@ -30214,7 +30214,7 @@
         <v>4</v>
       </c>
       <c r="R139">
-        <f>SUM($S139:$V139)</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="S139">
@@ -30301,7 +30301,7 @@
         <v>4</v>
       </c>
       <c r="R140">
-        <f>SUM($S140:$V140)</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="S140">
@@ -30386,7 +30386,7 @@
         <v>3</v>
       </c>
       <c r="R141">
-        <f>SUM($S141:$V141)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="S141">
@@ -30471,7 +30471,7 @@
         <v>3</v>
       </c>
       <c r="R142">
-        <f>SUM($S142:$V142)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="S142">
@@ -30556,7 +30556,7 @@
         <v>4</v>
       </c>
       <c r="R143">
-        <f>SUM($S143:$V143)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S143" s="6">
@@ -30641,7 +30641,7 @@
         <v>4</v>
       </c>
       <c r="R144" s="18">
-        <f>SUM($S144:$V144)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S144">
@@ -30725,7 +30725,7 @@
         <v>4</v>
       </c>
       <c r="R145" s="18">
-        <f>SUM($S145:$V145)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S145">
@@ -30809,7 +30809,7 @@
         <v>4</v>
       </c>
       <c r="R146">
-        <f>SUM($S146:$V146)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S146" s="6">
@@ -30894,7 +30894,7 @@
         <v>4</v>
       </c>
       <c r="R147">
-        <f>SUM($S147:$V147)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S147" s="6">
@@ -30981,7 +30981,7 @@
         <v>4</v>
       </c>
       <c r="R148">
-        <f>SUM($S148:$V148)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="S148" s="6">
@@ -31066,7 +31066,7 @@
         <v>3</v>
       </c>
       <c r="R149">
-        <f>SUM($S149:$V149)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S149" s="6">
@@ -31151,7 +31151,7 @@
         <v>3</v>
       </c>
       <c r="R150">
-        <f>SUM($S150:$V150)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S150" s="6">
@@ -31239,7 +31239,7 @@
         <v>3</v>
       </c>
       <c r="R151">
-        <f>SUM($S151:$V151)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S151" s="6">
@@ -31327,7 +31327,7 @@
         <v>3</v>
       </c>
       <c r="R152" s="18">
-        <f>SUM($S152:$V152)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S152">
@@ -31414,7 +31414,7 @@
         <v>3</v>
       </c>
       <c r="R153">
-        <f>SUM($S153:$V153)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S153" s="6">
@@ -31501,7 +31501,7 @@
         <v>3</v>
       </c>
       <c r="R154">
-        <f>SUM($S154:$V154)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S154" s="6">
@@ -31588,7 +31588,7 @@
         <v>3</v>
       </c>
       <c r="R155">
-        <f>SUM($S155:$V155)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S155" s="6">
@@ -31675,7 +31675,7 @@
         <v>3</v>
       </c>
       <c r="R156">
-        <f>SUM($S156:$V156)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S156" s="18">
@@ -31762,7 +31762,7 @@
         <v>3</v>
       </c>
       <c r="R157">
-        <f>SUM($S157:$V157)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S157" s="18">
@@ -31849,7 +31849,7 @@
         <v>3</v>
       </c>
       <c r="R158">
-        <f>SUM($S158:$V158)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S158" s="18">
@@ -31936,7 +31936,7 @@
         <v>4</v>
       </c>
       <c r="R159">
-        <f>SUM($S159:$V159)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="S159">
@@ -32023,7 +32023,7 @@
         <v>3</v>
       </c>
       <c r="R160">
-        <f>SUM($S160:$V160)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S160" s="6">
@@ -32108,7 +32108,7 @@
         <v>3</v>
       </c>
       <c r="R161">
-        <f>SUM($S161:$V161)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S161" s="6">
@@ -32193,7 +32193,7 @@
         <v>3</v>
       </c>
       <c r="R162" s="18">
-        <f>SUM($S162:$V162)</f>
+        <f t="shared" ref="R162:R181" si="5">SUM($S162:$V162)</f>
         <v>34</v>
       </c>
       <c r="S162">
@@ -32277,7 +32277,7 @@
         <v>3</v>
       </c>
       <c r="R163">
-        <f>SUM($S163:$V163)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S163" s="6">
@@ -32362,7 +32362,7 @@
         <v>3</v>
       </c>
       <c r="R164">
-        <f>SUM($S164:$V164)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S164" s="6">
@@ -32447,7 +32447,7 @@
         <v>3</v>
       </c>
       <c r="R165">
-        <f>SUM($S165:$V165)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S165" s="6">
@@ -32532,7 +32532,7 @@
         <v>4</v>
       </c>
       <c r="R166">
-        <f>SUM($S166:$V166)</f>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="S166">
@@ -32619,7 +32619,7 @@
         <v>3</v>
       </c>
       <c r="R167">
-        <f>SUM($S167:$V167)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S167" s="6">
@@ -32704,7 +32704,7 @@
         <v>3</v>
       </c>
       <c r="R168">
-        <f>SUM($S168:$V168)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S168" s="6">
@@ -32789,7 +32789,7 @@
         <v>3</v>
       </c>
       <c r="R169">
-        <f>SUM($S169:$V169)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S169" s="18">
@@ -32876,7 +32876,7 @@
         <v>4</v>
       </c>
       <c r="R170">
-        <f>SUM($S170:$V170)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S170" s="6">
@@ -32963,7 +32963,7 @@
         <v>3</v>
       </c>
       <c r="R171">
-        <f>SUM($S171:$V171)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S171" s="6">
@@ -33048,7 +33048,7 @@
         <v>4</v>
       </c>
       <c r="R172">
-        <f>SUM($S172:$V172)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S172" s="10">
@@ -33135,7 +33135,7 @@
         <v>3</v>
       </c>
       <c r="R173">
-        <f>SUM($S173:$V173)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S173" s="18">
@@ -33219,7 +33219,7 @@
         <v>4</v>
       </c>
       <c r="R174">
-        <f>SUM($S174:$V174)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="S174">
@@ -33303,7 +33303,7 @@
         <v>3</v>
       </c>
       <c r="R175" s="18">
-        <f>SUM($S175:$V175)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S175">
@@ -33387,7 +33387,7 @@
         <v>3</v>
       </c>
       <c r="R176" s="18">
-        <f>SUM($S176:$V176)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S176">
@@ -33471,7 +33471,7 @@
         <v>4</v>
       </c>
       <c r="R177">
-        <f>SUM($S177:$V177)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S177" s="6">
@@ -33556,7 +33556,7 @@
         <v>4</v>
       </c>
       <c r="R178">
-        <f>SUM($S178:$V178)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S178" s="6">
@@ -33641,7 +33641,7 @@
         <v>4</v>
       </c>
       <c r="R179">
-        <f>SUM($S179:$V179)</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="S179">
@@ -33728,7 +33728,7 @@
         <v>3</v>
       </c>
       <c r="R180" s="18">
-        <f>SUM($S180:$V180)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S180">
@@ -33812,7 +33812,7 @@
         <v>4</v>
       </c>
       <c r="R181" s="18">
-        <f>SUM($S181:$V181)</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="S181">
@@ -78378,10 +78378,10 @@
   <dimension ref="A1:AD210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K110" sqref="K110"/>
+      <selection pane="bottomRight" activeCell="K139" sqref="K139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -89638,19 +89638,19 @@
         <v>180</v>
       </c>
       <c r="J143" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K143">
         <v>0</v>
       </c>
       <c r="L143" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M143" s="1">
         <v>100</v>
       </c>
       <c r="N143" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O143" s="1">
         <v>27</v>
@@ -89661,8 +89661,11 @@
       <c r="Q143">
         <v>0</v>
       </c>
+      <c r="R143" t="s">
+        <v>249</v>
+      </c>
       <c r="V143">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="V143:V150" si="5">SUM($W143:$Z143)</f>
         <v>0</v>
       </c>
       <c r="W143">
@@ -89713,19 +89716,19 @@
         <v>250</v>
       </c>
       <c r="J144" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K144">
         <v>0</v>
       </c>
       <c r="L144" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M144" s="1">
         <v>100</v>
       </c>
       <c r="N144" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O144" s="1">
         <v>27</v>
@@ -89736,8 +89739,11 @@
       <c r="Q144">
         <v>0</v>
       </c>
+      <c r="R144" t="s">
+        <v>249</v>
+      </c>
       <c r="V144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W144">
@@ -89786,19 +89792,19 @@
         <v>125</v>
       </c>
       <c r="J145" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K145">
         <v>0</v>
       </c>
       <c r="L145" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M145" s="1">
         <v>50</v>
       </c>
       <c r="N145" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O145" s="1">
         <v>27</v>
@@ -89809,8 +89815,11 @@
       <c r="Q145">
         <v>0</v>
       </c>
+      <c r="R145" t="s">
+        <v>249</v>
+      </c>
       <c r="V145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W145">
@@ -89859,19 +89868,19 @@
         <v>180</v>
       </c>
       <c r="J146" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K146">
         <v>0</v>
       </c>
       <c r="L146" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M146" s="1">
         <v>100</v>
       </c>
       <c r="N146" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O146" s="1">
         <v>27</v>
@@ -89882,8 +89891,11 @@
       <c r="Q146">
         <v>0</v>
       </c>
+      <c r="R146" t="s">
+        <v>249</v>
+      </c>
       <c r="V146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W146">
@@ -89932,19 +89944,19 @@
         <v>180</v>
       </c>
       <c r="J147" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K147">
         <v>0</v>
       </c>
       <c r="L147" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M147" s="1">
         <v>100</v>
       </c>
       <c r="N147" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O147" s="1">
         <v>24</v>
@@ -89955,8 +89967,11 @@
       <c r="Q147">
         <v>0</v>
       </c>
+      <c r="R147" t="s">
+        <v>249</v>
+      </c>
       <c r="V147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W147">
@@ -90005,19 +90020,19 @@
         <v>80</v>
       </c>
       <c r="J148" s="1">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K148">
         <v>0</v>
       </c>
       <c r="L148" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M148" s="1">
         <v>100</v>
       </c>
       <c r="N148" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="O148" s="1">
         <v>35</v>
@@ -90041,7 +90056,7 @@
         <v>2311</v>
       </c>
       <c r="V148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="W148">
@@ -90090,19 +90105,19 @@
         <v>40</v>
       </c>
       <c r="J149" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K149">
         <v>0</v>
       </c>
       <c r="L149" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M149" s="1">
         <v>50</v>
       </c>
       <c r="N149" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O149" s="1">
         <v>35</v>
@@ -90126,7 +90141,7 @@
         <v>243</v>
       </c>
       <c r="V149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="W149">
@@ -90175,19 +90190,19 @@
         <v>180</v>
       </c>
       <c r="J150" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K150">
         <v>0</v>
       </c>
       <c r="L150" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M150" s="1">
         <v>100</v>
       </c>
       <c r="N150" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O150" s="1">
         <v>27</v>
@@ -90198,8 +90213,11 @@
       <c r="Q150">
         <v>0</v>
       </c>
+      <c r="R150" t="s">
+        <v>249</v>
+      </c>
       <c r="V150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W150">
@@ -90275,7 +90293,7 @@
         <v>220</v>
       </c>
       <c r="V151">
-        <f t="shared" ref="V151:V182" si="5">SUM(W151:Z151)</f>
+        <f t="shared" ref="V151:V182" si="6">SUM(W151:Z151)</f>
         <v>0</v>
       </c>
       <c r="W151">
@@ -90347,7 +90365,7 @@
         <v>220</v>
       </c>
       <c r="V152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W152">
@@ -90419,7 +90437,7 @@
         <v>220</v>
       </c>
       <c r="V153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W153">
@@ -90491,7 +90509,7 @@
         <v>220</v>
       </c>
       <c r="V154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W154">
@@ -90563,7 +90581,7 @@
         <v>220</v>
       </c>
       <c r="V155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W155">
@@ -90635,7 +90653,7 @@
         <v>232</v>
       </c>
       <c r="V156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W156">
@@ -90713,7 +90731,7 @@
         <v>231</v>
       </c>
       <c r="V157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W157">
@@ -90788,7 +90806,7 @@
         <v>233</v>
       </c>
       <c r="V158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W158">
@@ -90863,7 +90881,7 @@
         <v>233</v>
       </c>
       <c r="V159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W159">
@@ -90938,7 +90956,7 @@
         <v>233</v>
       </c>
       <c r="V160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W160">
@@ -91013,7 +91031,7 @@
         <v>233</v>
       </c>
       <c r="V161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W161">
@@ -91088,7 +91106,7 @@
         <v>233</v>
       </c>
       <c r="V162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W162">
@@ -91166,7 +91184,7 @@
         <v>231</v>
       </c>
       <c r="V163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W163">
@@ -91244,7 +91262,7 @@
         <v>231</v>
       </c>
       <c r="V164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W164">
@@ -91322,7 +91340,7 @@
         <v>231</v>
       </c>
       <c r="V165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W165">
@@ -91397,7 +91415,7 @@
         <v>232</v>
       </c>
       <c r="V166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W166">
@@ -91472,7 +91490,7 @@
         <v>232</v>
       </c>
       <c r="V167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W167">
@@ -91547,7 +91565,7 @@
         <v>232</v>
       </c>
       <c r="V168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W168">
@@ -91625,7 +91643,7 @@
         <v>1667</v>
       </c>
       <c r="V169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="W169">
@@ -91703,7 +91721,7 @@
         <v>231</v>
       </c>
       <c r="V170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W170">
@@ -91781,7 +91799,7 @@
         <v>231</v>
       </c>
       <c r="V171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W171">
@@ -91859,7 +91877,7 @@
         <v>231</v>
       </c>
       <c r="V172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W172">
@@ -91934,7 +91952,7 @@
         <v>234</v>
       </c>
       <c r="V173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W173">
@@ -92009,7 +92027,7 @@
         <v>234</v>
       </c>
       <c r="V174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W174">
@@ -92087,7 +92105,7 @@
         <v>231</v>
       </c>
       <c r="V175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W175">
@@ -92165,7 +92183,7 @@
         <v>232</v>
       </c>
       <c r="V176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W176">
@@ -92240,7 +92258,7 @@
         <v>233</v>
       </c>
       <c r="V177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W177">
@@ -92315,7 +92333,7 @@
         <v>233</v>
       </c>
       <c r="V178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W178">
@@ -92390,7 +92408,7 @@
         <v>233</v>
       </c>
       <c r="V179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W179">
@@ -92465,7 +92483,7 @@
         <v>233</v>
       </c>
       <c r="V180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W180">
@@ -92546,7 +92564,7 @@
         <v>248</v>
       </c>
       <c r="V181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="W181">
@@ -92624,7 +92642,7 @@
         <v>233</v>
       </c>
       <c r="V182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W182">
@@ -92699,7 +92717,7 @@
         <v>221</v>
       </c>
       <c r="V183">
-        <f t="shared" ref="V183:V210" si="6">SUM(W183:Z183)</f>
+        <f t="shared" ref="V183:V210" si="7">SUM(W183:Z183)</f>
         <v>0</v>
       </c>
       <c r="W183">
@@ -92774,7 +92792,7 @@
         <v>221</v>
       </c>
       <c r="V184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W184">
@@ -92846,7 +92864,7 @@
         <v>234</v>
       </c>
       <c r="V185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W185">
@@ -92918,7 +92936,7 @@
         <v>234</v>
       </c>
       <c r="V186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W186">
@@ -92996,7 +93014,7 @@
         <v>1666</v>
       </c>
       <c r="V187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="W187">
@@ -93071,7 +93089,7 @@
         <v>232</v>
       </c>
       <c r="V188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W188">
@@ -93146,7 +93164,7 @@
         <v>232</v>
       </c>
       <c r="V189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W189">
@@ -93221,7 +93239,7 @@
         <v>232</v>
       </c>
       <c r="V190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W190">
@@ -93296,7 +93314,7 @@
         <v>232</v>
       </c>
       <c r="V191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W191">
@@ -93368,7 +93386,7 @@
         <v>220</v>
       </c>
       <c r="V192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W192">
@@ -93446,7 +93464,7 @@
         <v>1667</v>
       </c>
       <c r="V193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="W193">
@@ -93524,7 +93542,7 @@
         <v>1667</v>
       </c>
       <c r="V194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="W194">
@@ -93605,7 +93623,7 @@
         <v>244</v>
       </c>
       <c r="V195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="W195">
@@ -93686,7 +93704,7 @@
         <v>244</v>
       </c>
       <c r="V196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="W196">
@@ -93761,7 +93779,7 @@
         <v>233</v>
       </c>
       <c r="V197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W197">
@@ -93836,7 +93854,7 @@
         <v>233</v>
       </c>
       <c r="V198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W198">
@@ -93911,7 +93929,7 @@
         <v>232</v>
       </c>
       <c r="V199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="W199">
@@ -93986,7 +94004,7 @@
         <v>232</v>
       </c>
       <c r="V200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="W200">
@@ -94061,7 +94079,7 @@
         <v>232</v>
       </c>
       <c r="V201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="W201">
@@ -94139,7 +94157,7 @@
         <v>262</v>
       </c>
       <c r="V202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W202">
@@ -94217,7 +94235,7 @@
         <v>231</v>
       </c>
       <c r="V203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W203">
@@ -94295,7 +94313,7 @@
         <v>262</v>
       </c>
       <c r="V204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W204">
@@ -94376,7 +94394,7 @@
         <v>244</v>
       </c>
       <c r="V205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="W205">
@@ -94457,7 +94475,7 @@
         <v>244</v>
       </c>
       <c r="V206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="W206">
@@ -94538,7 +94556,7 @@
         <v>244</v>
       </c>
       <c r="V207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="W207">
@@ -94616,7 +94634,7 @@
         <v>261</v>
       </c>
       <c r="V208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W208">
@@ -94694,7 +94712,7 @@
         <v>261</v>
       </c>
       <c r="V209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W209">
@@ -94772,7 +94790,7 @@
         <v>261</v>
       </c>
       <c r="V210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="W210">

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0910BFBF-F617-4C92-9738-1E233135F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D157DC-59EC-4E6A-A9E7-76E07D8AB540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27945" yWindow="885" windowWidth="27000" windowHeight="14160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -78378,10 +78378,10 @@
   <dimension ref="A1:AD210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K139" sqref="K139"/>
+      <selection pane="bottomRight" activeCell="L149" sqref="L149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -88359,7 +88359,7 @@
         <v>590</v>
       </c>
       <c r="V127">
-        <f t="shared" ref="V127:V150" si="4">SUM($W127:$Z127)</f>
+        <f t="shared" ref="V127:V142" si="4">SUM($W127:$Z127)</f>
         <v>16</v>
       </c>
       <c r="W127">
@@ -89644,7 +89644,7 @@
         <v>0</v>
       </c>
       <c r="L143" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M143" s="1">
         <v>100</v>
@@ -89722,7 +89722,7 @@
         <v>0</v>
       </c>
       <c r="L144" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M144" s="1">
         <v>100</v>
@@ -89798,7 +89798,7 @@
         <v>0</v>
       </c>
       <c r="L145" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M145" s="1">
         <v>50</v>
@@ -89874,7 +89874,7 @@
         <v>0</v>
       </c>
       <c r="L146" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M146" s="1">
         <v>100</v>
@@ -89950,7 +89950,7 @@
         <v>0</v>
       </c>
       <c r="L147" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M147" s="1">
         <v>100</v>
@@ -90026,7 +90026,7 @@
         <v>0</v>
       </c>
       <c r="L148" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M148" s="1">
         <v>100</v>
@@ -90111,7 +90111,7 @@
         <v>0</v>
       </c>
       <c r="L149" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M149" s="1">
         <v>50</v>
@@ -90196,7 +90196,7 @@
         <v>0</v>
       </c>
       <c r="L150" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M150" s="1">
         <v>100</v>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D157DC-59EC-4E6A-A9E7-76E07D8AB540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF373B-7475-4A67-9CAC-16B083049672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23250" yWindow="1935" windowWidth="22440" windowHeight="11325" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15050" uniqueCount="2365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15167" uniqueCount="2394">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7569,6 +7569,102 @@
   </si>
   <si>
     <t>瓜达卡纳尔</t>
+  </si>
+  <si>
+    <t>00092</t>
+  </si>
+  <si>
+    <t>00096</t>
+  </si>
+  <si>
+    <t>00203</t>
+  </si>
+  <si>
+    <t>00202</t>
+  </si>
+  <si>
+    <t>00076</t>
+  </si>
+  <si>
+    <t>00204</t>
+  </si>
+  <si>
+    <t>00068</t>
+  </si>
+  <si>
+    <t>00205</t>
+  </si>
+  <si>
+    <t>00206</t>
+  </si>
+  <si>
+    <t>00207</t>
+  </si>
+  <si>
+    <t>00208</t>
+  </si>
+  <si>
+    <t>MidPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00209</t>
+  </si>
+  <si>
+    <t>00210</t>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00211</t>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00212</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00088</t>
+  </si>
+  <si>
+    <t>00213</t>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01047</t>
+  </si>
+  <si>
+    <t>01052</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01054</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00214</t>
+  </si>
+  <si>
+    <t>01049</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00215</t>
   </si>
 </sst>
 </file>
@@ -7785,7 +7881,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="131">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -18238,42 +18344,42 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C28">
-    <cfRule type="expression" dxfId="128" priority="7">
+    <cfRule type="expression" dxfId="130" priority="7">
       <formula>F2=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="8">
+    <cfRule type="expression" dxfId="129" priority="8">
       <formula>F2=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="9">
+    <cfRule type="expression" dxfId="128" priority="9">
       <formula>F2=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="10">
+    <cfRule type="expression" dxfId="127" priority="10">
       <formula>F2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="11">
+    <cfRule type="expression" dxfId="126" priority="11">
       <formula>F2=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="12">
+    <cfRule type="expression" dxfId="125" priority="12">
       <formula>F2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C39">
-    <cfRule type="expression" dxfId="122" priority="1">
+    <cfRule type="expression" dxfId="124" priority="1">
       <formula>F29=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="2">
+    <cfRule type="expression" dxfId="123" priority="2">
       <formula>F29=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="3">
+    <cfRule type="expression" dxfId="122" priority="3">
       <formula>F29=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="4">
+    <cfRule type="expression" dxfId="121" priority="4">
       <formula>F29=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="5">
+    <cfRule type="expression" dxfId="120" priority="5">
       <formula>F29=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="6">
+    <cfRule type="expression" dxfId="119" priority="6">
       <formula>F29=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33851,382 +33957,382 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="expression" dxfId="116" priority="109">
+    <cfRule type="expression" dxfId="118" priority="109">
       <formula>F2=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="110">
+    <cfRule type="expression" dxfId="117" priority="110">
       <formula>F2=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="111">
+    <cfRule type="expression" dxfId="116" priority="111">
       <formula>F2=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="112">
+    <cfRule type="expression" dxfId="115" priority="112">
       <formula>F2=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="113">
+    <cfRule type="expression" dxfId="114" priority="113">
       <formula>F2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="114">
+    <cfRule type="expression" dxfId="113" priority="114">
       <formula>F2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C18">
-    <cfRule type="expression" dxfId="110" priority="103">
+    <cfRule type="expression" dxfId="112" priority="103">
       <formula>F5=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="104">
+    <cfRule type="expression" dxfId="111" priority="104">
       <formula>F5=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="105">
+    <cfRule type="expression" dxfId="110" priority="105">
       <formula>F5=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="106">
+    <cfRule type="expression" dxfId="109" priority="106">
       <formula>F5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="107">
+    <cfRule type="expression" dxfId="108" priority="107">
       <formula>F5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="108">
+    <cfRule type="expression" dxfId="107" priority="108">
       <formula>F5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C29">
-    <cfRule type="expression" dxfId="104" priority="97">
+    <cfRule type="expression" dxfId="106" priority="97">
       <formula>F19=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="98">
+    <cfRule type="expression" dxfId="105" priority="98">
       <formula>F19=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="99">
+    <cfRule type="expression" dxfId="104" priority="99">
       <formula>F19=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="100">
+    <cfRule type="expression" dxfId="103" priority="100">
       <formula>F19=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="101">
+    <cfRule type="expression" dxfId="102" priority="101">
       <formula>F19=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="102">
+    <cfRule type="expression" dxfId="101" priority="102">
       <formula>F19=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C32">
-    <cfRule type="expression" dxfId="98" priority="91">
+    <cfRule type="expression" dxfId="100" priority="91">
       <formula>F30=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="92">
+    <cfRule type="expression" dxfId="99" priority="92">
       <formula>F30=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="93">
+    <cfRule type="expression" dxfId="98" priority="93">
       <formula>F30=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="94">
+    <cfRule type="expression" dxfId="97" priority="94">
       <formula>F30=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="95">
+    <cfRule type="expression" dxfId="96" priority="95">
       <formula>F30=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="96">
+    <cfRule type="expression" dxfId="95" priority="96">
       <formula>F30=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="92" priority="85">
+    <cfRule type="expression" dxfId="94" priority="85">
       <formula>F33=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="86">
+    <cfRule type="expression" dxfId="93" priority="86">
       <formula>F33=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="87">
+    <cfRule type="expression" dxfId="92" priority="87">
       <formula>F33=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="88">
+    <cfRule type="expression" dxfId="91" priority="88">
       <formula>F33=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="89">
+    <cfRule type="expression" dxfId="90" priority="89">
       <formula>F33=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="90">
+    <cfRule type="expression" dxfId="89" priority="90">
       <formula>F33=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C42">
-    <cfRule type="expression" dxfId="86" priority="79">
+    <cfRule type="expression" dxfId="88" priority="79">
       <formula>F34=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="80">
+    <cfRule type="expression" dxfId="87" priority="80">
       <formula>F34=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="81">
+    <cfRule type="expression" dxfId="86" priority="81">
       <formula>F34=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="82">
+    <cfRule type="expression" dxfId="85" priority="82">
       <formula>F34=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="84" priority="83">
       <formula>F34=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="84">
+    <cfRule type="expression" dxfId="83" priority="84">
       <formula>F34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C54">
-    <cfRule type="expression" dxfId="80" priority="73">
+    <cfRule type="expression" dxfId="82" priority="73">
       <formula>E46=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="74">
+    <cfRule type="expression" dxfId="81" priority="74">
       <formula>E46=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="75">
+    <cfRule type="expression" dxfId="80" priority="75">
       <formula>E46=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="76">
+    <cfRule type="expression" dxfId="79" priority="76">
       <formula>E46=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="78" priority="77">
       <formula>E46=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="78">
+    <cfRule type="expression" dxfId="77" priority="78">
       <formula>E46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
-    <cfRule type="expression" dxfId="74" priority="67">
+    <cfRule type="expression" dxfId="76" priority="67">
       <formula>F43=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="68">
+    <cfRule type="expression" dxfId="75" priority="68">
       <formula>F43=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="69">
+    <cfRule type="expression" dxfId="74" priority="69">
       <formula>F43=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="70">
+    <cfRule type="expression" dxfId="73" priority="70">
       <formula>F43=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="72" priority="71">
       <formula>F43=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="72">
+    <cfRule type="expression" dxfId="71" priority="72">
       <formula>F43=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C67">
-    <cfRule type="expression" dxfId="68" priority="61">
+    <cfRule type="expression" dxfId="70" priority="61">
       <formula>F62=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="62">
+    <cfRule type="expression" dxfId="69" priority="62">
       <formula>F62=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="63">
+    <cfRule type="expression" dxfId="68" priority="63">
       <formula>F62=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="64">
+    <cfRule type="expression" dxfId="67" priority="64">
       <formula>F62=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="66" priority="65">
       <formula>F62=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="66">
+    <cfRule type="expression" dxfId="65" priority="66">
       <formula>F62=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C61">
-    <cfRule type="expression" dxfId="62" priority="55">
+    <cfRule type="expression" dxfId="64" priority="55">
       <formula>F59=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="56">
+    <cfRule type="expression" dxfId="63" priority="56">
       <formula>F59=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="57">
+    <cfRule type="expression" dxfId="62" priority="57">
       <formula>F59=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="58">
+    <cfRule type="expression" dxfId="61" priority="58">
       <formula>F59=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="60" priority="59">
       <formula>F59=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60">
+    <cfRule type="expression" dxfId="59" priority="60">
       <formula>F59=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82 C84">
-    <cfRule type="expression" dxfId="56" priority="43">
+    <cfRule type="expression" dxfId="58" priority="43">
       <formula>F81=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="44">
+    <cfRule type="expression" dxfId="57" priority="44">
       <formula>F81=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="45">
+    <cfRule type="expression" dxfId="56" priority="45">
       <formula>F81=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="46">
+    <cfRule type="expression" dxfId="55" priority="46">
       <formula>F81=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="47">
+    <cfRule type="expression" dxfId="54" priority="47">
       <formula>F81=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="48">
+    <cfRule type="expression" dxfId="53" priority="48">
       <formula>F81=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="50" priority="49">
+    <cfRule type="expression" dxfId="52" priority="49">
       <formula>F84=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="51" priority="50">
       <formula>F84=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>F84=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="52">
+    <cfRule type="expression" dxfId="49" priority="52">
       <formula>F84=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="53">
+    <cfRule type="expression" dxfId="48" priority="53">
       <formula>F84=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="54">
+    <cfRule type="expression" dxfId="47" priority="54">
       <formula>F84=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C102">
-    <cfRule type="expression" dxfId="44" priority="37">
+    <cfRule type="expression" dxfId="46" priority="37">
       <formula>F90=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="38">
+    <cfRule type="expression" dxfId="45" priority="38">
       <formula>F90=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39">
+    <cfRule type="expression" dxfId="44" priority="39">
       <formula>F90=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>F90=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="42" priority="41">
       <formula>F90=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>F90=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103:C107">
-    <cfRule type="expression" dxfId="38" priority="31">
+    <cfRule type="expression" dxfId="40" priority="31">
       <formula>F103=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="32">
+    <cfRule type="expression" dxfId="39" priority="32">
       <formula>F103=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="38" priority="33">
       <formula>F103=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="37" priority="34">
       <formula>F103=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="36" priority="35">
       <formula>F103=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>F103=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108:C111">
-    <cfRule type="expression" dxfId="32" priority="25">
+    <cfRule type="expression" dxfId="34" priority="25">
       <formula>F108=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="26">
+    <cfRule type="expression" dxfId="33" priority="26">
       <formula>F108=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>F108=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="31" priority="28">
       <formula>F108=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>F108=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>F108=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:C115">
-    <cfRule type="expression" dxfId="26" priority="19">
+    <cfRule type="expression" dxfId="28" priority="19">
       <formula>F112=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="20">
+    <cfRule type="expression" dxfId="27" priority="20">
       <formula>F112=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>F112=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="25" priority="22">
       <formula>F112=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>F112=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>F112=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C117">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>E116=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="21" priority="14">
       <formula>E116=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>E116=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>E116=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>E116=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>E116=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>F148=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>F148=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>F148=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>F148=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>F148=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>F148=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:C150">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>F149=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>F149=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>F149=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>F149=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>F149=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>F149=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -78377,7 +78483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -98008,13 +98114,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:L1"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -98986,7 +99092,7 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1678</v>
+        <v>467</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2143</v>
@@ -99021,27 +99127,27 @@
       <c r="L10" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="M10" s="25" t="str">
+      <c r="M10" s="22" t="str">
         <f>IFERROR(VLOOKUP(G10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Hindenburg</v>
       </c>
-      <c r="N10" t="str">
+      <c r="N10" s="2" t="str">
         <f>IFERROR(VLOOKUP(H10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Peter Strasser</v>
       </c>
-      <c r="O10" t="str">
+      <c r="O10" s="2" t="str">
         <f>IFERROR(VLOOKUP(I10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Leopold(K5)</v>
       </c>
-      <c r="P10" t="str">
+      <c r="P10" s="2" t="str">
         <f>IFERROR(VLOOKUP(J10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Bismarck</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="Q10" s="2" t="str">
         <f>IFERROR(VLOOKUP(K10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>Prinz Eugen</v>
       </c>
-      <c r="R10" t="str">
+      <c r="R10" s="2" t="str">
         <f>IFERROR(VLOOKUP(L10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>U-99</v>
       </c>
@@ -99134,6 +99240,873 @@
       <c r="AR10" t="str">
         <f>IFERROR(VLOOKUP(AL10,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
         <v>U-99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M11" s="22" t="str">
+        <f>IFERROR(VLOOKUP(G11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅳ型</v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅳ型</v>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L11,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>防驱be级Ⅳ型</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="M12" s="22" t="str">
+        <f>IFERROR(VLOOKUP(G12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅳ型</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅳ型</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅳ型</v>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L12,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅳ型</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="M13" s="22" t="str">
+        <f>IFERROR(VLOOKUP(G13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅳ型</v>
+      </c>
+      <c r="R13" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L13,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅳ型</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="M14" s="22" t="str">
+        <f>IFERROR(VLOOKUP(G14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战巡Κ级Ⅳ型</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅳ型</v>
+      </c>
+      <c r="R14" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L14,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅳ型</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="M15" s="22" t="str">
+        <f>IFERROR(VLOOKUP(G15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战巡Κ级Ⅳ型</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L15,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅳ型</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="M16" s="22" t="str">
+        <f>IFERROR(VLOOKUP(G16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅳ型</v>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L16,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅳ型</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="M17" s="22" t="str">
+        <f>IFERROR(VLOOKUP(G17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>重巡Ω级Ⅳ型</v>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L17,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>驱逐Τ级Ⅳ型</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="22">
+        <f>IFERROR(VLOOKUP(G18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <f>IFERROR(VLOOKUP(H18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <f>IFERROR(VLOOKUP(I18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <f>IFERROR(VLOOKUP(J18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>IFERROR(VLOOKUP(K18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <f>IFERROR(VLOOKUP(L18,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
+        <f>IFERROR(VLOOKUP(G19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <f>IFERROR(VLOOKUP(H19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <f>IFERROR(VLOOKUP(I19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <f>IFERROR(VLOOKUP(J19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <f>IFERROR(VLOOKUP(K19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <f>IFERROR(VLOOKUP(L19,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="22">
+        <f>IFERROR(VLOOKUP(G20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <f>IFERROR(VLOOKUP(H20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <f>IFERROR(VLOOKUP(I20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <f>IFERROR(VLOOKUP(J20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>IFERROR(VLOOKUP(K20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <f>IFERROR(VLOOKUP(L20,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="M21" s="22" t="str">
+        <f>IFERROR(VLOOKUP(G21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="N21" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Λ级Ⅳ型</v>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅳ型</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅳ型</v>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L21,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅳ型</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="M22" s="22" t="str">
+        <f>IFERROR(VLOOKUP(G22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战列Ψ级Ⅳ型</v>
+      </c>
+      <c r="N22" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战巡Κ级Ⅳ型</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>战巡Κ级Ⅳ型</v>
+      </c>
+      <c r="P22" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻母Ξ级Ⅳ型</v>
+      </c>
+      <c r="R22" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L22,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>轻巡ei级Ⅳ型</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>2302</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>2305</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="M23" s="22">
+        <f>IFERROR(VLOOKUP(G23,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>111</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H23,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Yamato</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I23,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Musashi</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J23,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Cyou-Yamato</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K23,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Akagi&amp;Kaga</v>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L23,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>13 Class Battleship</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>2305</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="M24" s="22">
+        <f>IFERROR(VLOOKUP(G24,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>111</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H24,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Yamato</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I24,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Musashi</v>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J24,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Cyou-Yamato</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K24,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Akagi&amp;Kaga</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L24,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>13 Class Battleship</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>2305</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="M25" s="22">
+        <f>IFERROR(VLOOKUP(G25,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>111</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f>IFERROR(VLOOKUP(H25,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Yamato</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f>IFERROR(VLOOKUP(I25,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Musashi</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f>IFERROR(VLOOKUP(J25,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Cyou-Yamato</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f>IFERROR(VLOOKUP(K25,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>Akagi&amp;Kaga</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f>IFERROR(VLOOKUP(L25,'舰船数据-深海'!$A:$C,3,FALSE),)</f>
+        <v>13 Class Battleship</v>
       </c>
     </row>
   </sheetData>
@@ -99146,17 +100119,27 @@
     <mergeCell ref="AF1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="M2:R10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="M2:R25">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AE10">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2:AR10">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z10:AE10">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AR10">
+  <conditionalFormatting sqref="AM10:AQ10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF373B-7475-4A67-9CAC-16B083049672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F76261-97CC-4D83-B659-FF0DC806AEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23250" yWindow="1935" windowWidth="22440" windowHeight="11325" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15167" uniqueCount="2394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15168" uniqueCount="2394">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8816,10 +8816,10 @@
   <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomRight" activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18393,10 +18393,10 @@
   <dimension ref="A1:AC181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K188" sqref="K188"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -78483,11 +78483,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD210"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L149" sqref="L149"/>
+      <selection pane="bottomRight" activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -78619,7 +78619,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -78630,20 +78630,23 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="M2" s="31">
+        <v>100</v>
+      </c>
+      <c r="N2" s="31">
+        <v>60</v>
+      </c>
+      <c r="O2" s="31">
+        <v>27</v>
       </c>
       <c r="P2">
         <v>3</v>
       </c>
       <c r="Q2">
         <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>249</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V33" si="0">SUM(W2:Z2)</f>
@@ -89750,7 +89753,7 @@
         <v>0</v>
       </c>
       <c r="L143" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M143" s="1">
         <v>100</v>
@@ -89828,7 +89831,7 @@
         <v>0</v>
       </c>
       <c r="L144" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M144" s="1">
         <v>100</v>
@@ -89980,7 +89983,7 @@
         <v>0</v>
       </c>
       <c r="L146" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M146" s="1">
         <v>100</v>
@@ -90056,7 +90059,7 @@
         <v>0</v>
       </c>
       <c r="L147" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M147" s="1">
         <v>100</v>
@@ -90123,7 +90126,7 @@
         <v>0</v>
       </c>
       <c r="I148">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="J148" s="1">
         <v>130</v>
@@ -90132,7 +90135,7 @@
         <v>0</v>
       </c>
       <c r="L148" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M148" s="1">
         <v>100</v>
@@ -90208,7 +90211,7 @@
         <v>0</v>
       </c>
       <c r="I149">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="J149" s="1">
         <v>65</v>
@@ -90302,7 +90305,7 @@
         <v>0</v>
       </c>
       <c r="L150" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M150" s="1">
         <v>100</v>
@@ -98116,7 +98119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\凌于翔\游戏\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F76261-97CC-4D83-B659-FF0DC806AEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A94B1D6-DF8B-42C4-BCB0-5E6AC93F46A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23760" yWindow="1980" windowWidth="17730" windowHeight="11325" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15168" uniqueCount="2394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15186" uniqueCount="2395">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7665,6 +7665,10 @@
   </si>
   <si>
     <t>00215</t>
+  </si>
+  <si>
+    <t>J国46厘米三连装炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -78484,10 +78488,10 @@
   <dimension ref="A1:AD210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K148" sqref="K148"/>
+      <selection pane="bottomRight" activeCell="Q143" sqref="Q143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -89738,7 +89742,7 @@
         <v>666</v>
       </c>
       <c r="G143">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -89747,31 +89751,40 @@
         <v>180</v>
       </c>
       <c r="J143" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K143">
         <v>0</v>
       </c>
       <c r="L143" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M143" s="1">
         <v>100</v>
       </c>
       <c r="N143" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O143" s="1">
         <v>27</v>
       </c>
       <c r="P143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q143">
         <v>0</v>
       </c>
       <c r="R143" t="s">
-        <v>249</v>
+        <v>2394</v>
+      </c>
+      <c r="S143" t="s">
+        <v>2394</v>
+      </c>
+      <c r="T143" t="s">
+        <v>602</v>
+      </c>
+      <c r="U143" t="s">
+        <v>228</v>
       </c>
       <c r="V143">
         <f t="shared" ref="V143:V150" si="5">SUM($W143:$Z143)</f>
@@ -89816,7 +89829,7 @@
         <v>450</v>
       </c>
       <c r="G144">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -89825,31 +89838,40 @@
         <v>250</v>
       </c>
       <c r="J144" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K144">
         <v>0</v>
       </c>
       <c r="L144" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M144" s="1">
         <v>100</v>
       </c>
       <c r="N144" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O144" s="1">
         <v>27</v>
       </c>
       <c r="P144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q144">
         <v>0</v>
       </c>
       <c r="R144" t="s">
-        <v>249</v>
+        <v>2394</v>
+      </c>
+      <c r="S144" t="s">
+        <v>2394</v>
+      </c>
+      <c r="T144" t="s">
+        <v>602</v>
+      </c>
+      <c r="U144" t="s">
+        <v>228</v>
       </c>
       <c r="V144">
         <f t="shared" si="5"/>
@@ -89892,7 +89914,7 @@
         <v>225</v>
       </c>
       <c r="G145">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -89907,25 +89929,34 @@
         <v>0</v>
       </c>
       <c r="L145" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M145" s="1">
         <v>50</v>
       </c>
       <c r="N145" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O145" s="1">
         <v>27</v>
       </c>
       <c r="P145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q145">
         <v>0</v>
       </c>
       <c r="R145" t="s">
-        <v>249</v>
+        <v>2394</v>
+      </c>
+      <c r="S145" t="s">
+        <v>2394</v>
+      </c>
+      <c r="T145" t="s">
+        <v>602</v>
+      </c>
+      <c r="U145" t="s">
+        <v>228</v>
       </c>
       <c r="V145">
         <f t="shared" si="5"/>
@@ -89968,7 +89999,7 @@
         <v>256</v>
       </c>
       <c r="G146">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -89977,31 +90008,40 @@
         <v>180</v>
       </c>
       <c r="J146" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="K146">
         <v>0</v>
       </c>
       <c r="L146" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M146" s="1">
         <v>100</v>
       </c>
       <c r="N146" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O146" s="1">
         <v>27</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q146">
         <v>0</v>
       </c>
       <c r="R146" t="s">
-        <v>249</v>
+        <v>2394</v>
+      </c>
+      <c r="S146" t="s">
+        <v>2394</v>
+      </c>
+      <c r="T146" t="s">
+        <v>602</v>
+      </c>
+      <c r="U146" t="s">
+        <v>228</v>
       </c>
       <c r="V146">
         <f t="shared" si="5"/>
@@ -90044,7 +90084,7 @@
         <v>256</v>
       </c>
       <c r="G147">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -90053,31 +90093,40 @@
         <v>180</v>
       </c>
       <c r="J147" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>0</v>
       </c>
       <c r="L147" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M147" s="1">
         <v>100</v>
       </c>
       <c r="N147" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O147" s="1">
         <v>24</v>
       </c>
       <c r="P147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q147">
         <v>0</v>
       </c>
       <c r="R147" t="s">
-        <v>249</v>
+        <v>2394</v>
+      </c>
+      <c r="S147" t="s">
+        <v>2394</v>
+      </c>
+      <c r="T147" t="s">
+        <v>602</v>
+      </c>
+      <c r="U147" t="s">
+        <v>228</v>
       </c>
       <c r="V147">
         <f t="shared" si="5"/>
@@ -90129,13 +90178,13 @@
         <v>180</v>
       </c>
       <c r="J148" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K148">
         <v>0</v>
       </c>
       <c r="L148" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M148" s="1">
         <v>100</v>
@@ -90147,7 +90196,7 @@
         <v>35</v>
       </c>
       <c r="P148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -90214,13 +90263,13 @@
         <v>90</v>
       </c>
       <c r="J149" s="1">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K149">
         <v>0</v>
       </c>
       <c r="L149" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M149" s="1">
         <v>50</v>
@@ -90232,7 +90281,7 @@
         <v>35</v>
       </c>
       <c r="P149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -90290,7 +90339,7 @@
         <v>216</v>
       </c>
       <c r="G150">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -90299,31 +90348,40 @@
         <v>180</v>
       </c>
       <c r="J150" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K150">
         <v>0</v>
       </c>
       <c r="L150" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M150" s="1">
         <v>100</v>
       </c>
       <c r="N150" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O150" s="1">
         <v>27</v>
       </c>
       <c r="P150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q150">
         <v>0</v>
       </c>
       <c r="R150" t="s">
-        <v>249</v>
+        <v>2394</v>
+      </c>
+      <c r="S150" t="s">
+        <v>2394</v>
+      </c>
+      <c r="T150" t="s">
+        <v>602</v>
+      </c>
+      <c r="U150" t="s">
+        <v>228</v>
       </c>
       <c r="V150">
         <f t="shared" si="5"/>
@@ -94935,7 +94993,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA87982-14FA-40F5-BE17-FF7D94BFA7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD396EB5-6978-4443-8C3E-E158A1AA0B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1275" windowWidth="20775" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="1815" windowWidth="20775" windowHeight="13035" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15511" uniqueCount="2553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15517" uniqueCount="2557">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8229,6 +8229,22 @@
   </si>
   <si>
     <t>贝亚恩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10661</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76A式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>661</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C国舰船装备时增加5%回避率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8470,7 +8486,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF9900"/>
       </font>
     </dxf>
     <dxf>
@@ -8480,12 +8496,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -8500,77 +8511,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
       </font>
     </dxf>
     <dxf>
@@ -8581,51 +8522,6 @@
     <dxf>
       <font>
         <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
       </font>
     </dxf>
     <dxf>
@@ -8650,7 +8546,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
       </font>
     </dxf>
     <dxf>
@@ -8660,7 +8571,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
       </font>
     </dxf>
     <dxf>
@@ -8670,7 +8591,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF65FF65"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -8680,7 +8611,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
       </font>
     </dxf>
     <dxf>
@@ -8690,7 +8631,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -8700,7 +8641,32 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
       </font>
     </dxf>
     <dxf>
@@ -8710,7 +8676,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF808080"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -8720,7 +8696,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
       </font>
     </dxf>
     <dxf>
@@ -8730,12 +8716,42 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B0F0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF65FF65"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -9046,11 +9062,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N130" sqref="N130"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9201,7 +9217,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R33" si="0">SUM($S2:$V2)</f>
         <v>76</v>
       </c>
       <c r="S2">
@@ -9282,7 +9298,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S3">
@@ -9363,7 +9379,7 @@
         <v>4</v>
       </c>
       <c r="R4">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S4">
@@ -9444,7 +9460,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S5">
@@ -9525,7 +9541,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S6">
@@ -9606,7 +9622,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S7" s="6">
@@ -9691,7 +9707,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S8" s="6">
@@ -9776,7 +9792,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S9" s="6">
@@ -9861,7 +9877,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="S10">
@@ -9945,7 +9961,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S11">
@@ -10026,7 +10042,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="S12">
@@ -10110,7 +10126,7 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S13">
@@ -10191,7 +10207,7 @@
         <v>4</v>
       </c>
       <c r="R14">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S14">
@@ -10275,7 +10291,7 @@
         <v>4</v>
       </c>
       <c r="R15" s="18">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S15">
@@ -10359,7 +10375,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="18">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S16">
@@ -10443,7 +10459,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="18">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S17">
@@ -10527,7 +10543,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S18" s="6">
@@ -10612,7 +10628,7 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S19" s="6">
@@ -10697,7 +10713,7 @@
         <v>4</v>
       </c>
       <c r="R20">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S20" s="6">
@@ -10782,7 +10798,7 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S21" s="6">
@@ -10870,7 +10886,7 @@
         <v>4</v>
       </c>
       <c r="R22">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S22" s="6">
@@ -10958,7 +10974,7 @@
         <v>4</v>
       </c>
       <c r="R23">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S23" s="6">
@@ -11043,7 +11059,7 @@
         <v>4</v>
       </c>
       <c r="R24">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S24" s="6">
@@ -11128,7 +11144,7 @@
         <v>4</v>
       </c>
       <c r="R25" s="18">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S25">
@@ -11215,7 +11231,7 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S26" s="6">
@@ -11303,7 +11319,7 @@
         <v>4</v>
       </c>
       <c r="R27">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S27" s="6">
@@ -11388,7 +11404,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S28">
@@ -11469,7 +11485,7 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S29">
@@ -11550,7 +11566,7 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S30">
@@ -11631,7 +11647,7 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S31">
@@ -11712,7 +11728,7 @@
         <v>4</v>
       </c>
       <c r="R32">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="S32">
@@ -11796,7 +11812,7 @@
         <v>4</v>
       </c>
       <c r="R33">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="S33">
@@ -11880,7 +11896,7 @@
         <v>4</v>
       </c>
       <c r="R34">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" ref="R34:R58" si="1">SUM($S34:$V34)</f>
         <v>70</v>
       </c>
       <c r="S34">
@@ -11961,7 +11977,7 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S35">
@@ -12048,7 +12064,7 @@
         <v>4</v>
       </c>
       <c r="R36" s="18">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S36">
@@ -12135,7 +12151,7 @@
         <v>4</v>
       </c>
       <c r="R37">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S37">
@@ -12216,7 +12232,7 @@
         <v>3</v>
       </c>
       <c r="R38">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S38" s="6">
@@ -12301,7 +12317,7 @@
         <v>3</v>
       </c>
       <c r="R39">
-        <f>SUM($S39:$V39)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S39" s="6">
@@ -12386,7 +12402,7 @@
         <v>2</v>
       </c>
       <c r="R40" s="18">
-        <f>SUM($S40:$V40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
@@ -12467,7 +12483,7 @@
         <v>2</v>
       </c>
       <c r="R41" s="18">
-        <f>SUM($S41:$V41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S41">
@@ -12548,7 +12564,7 @@
         <v>3</v>
       </c>
       <c r="R42" s="18">
-        <f>SUM($S42:$V42)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="S42">
@@ -12632,7 +12648,7 @@
         <v>4</v>
       </c>
       <c r="R43">
-        <f>SUM($S43:$V43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S43" s="6">
@@ -12717,7 +12733,7 @@
         <v>4</v>
       </c>
       <c r="R44" s="18">
-        <f>SUM($S44:$V44)</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="S44">
@@ -12801,7 +12817,7 @@
         <v>4</v>
       </c>
       <c r="R45">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="S45" s="6">
@@ -12886,7 +12902,7 @@
         <v>3</v>
       </c>
       <c r="R46" s="18">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S46">
@@ -12970,7 +12986,7 @@
         <v>4</v>
       </c>
       <c r="R47">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="S47">
@@ -13054,7 +13070,7 @@
         <v>4</v>
       </c>
       <c r="R48" s="18">
-        <f>SUM($S48:$V48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S48">
@@ -13138,7 +13154,7 @@
         <v>4</v>
       </c>
       <c r="R49">
-        <f>SUM($S49:$V49)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S49">
@@ -13225,7 +13241,7 @@
         <v>4</v>
       </c>
       <c r="R50">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S50" s="6">
@@ -13309,7 +13325,7 @@
         <v>4</v>
       </c>
       <c r="R51">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="S51">
@@ -13393,7 +13409,7 @@
         <v>4</v>
       </c>
       <c r="R52">
-        <f>SUM($S52:$V52)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="S52">
@@ -13480,7 +13496,7 @@
         <v>3</v>
       </c>
       <c r="R53">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S53">
@@ -13561,7 +13577,7 @@
         <v>4</v>
       </c>
       <c r="R54">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S54" s="6">
@@ -13646,7 +13662,7 @@
         <v>3</v>
       </c>
       <c r="R55">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S55" s="6">
@@ -13731,7 +13747,7 @@
         <v>4</v>
       </c>
       <c r="R56">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S56" s="6">
@@ -13815,7 +13831,7 @@
         <v>3</v>
       </c>
       <c r="R57">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S57" s="6">
@@ -13900,7 +13916,7 @@
         <v>3</v>
       </c>
       <c r="R58">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S58">
@@ -14064,7 +14080,7 @@
         <v>4</v>
       </c>
       <c r="R60">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" ref="R60:R89" si="2">SUM($S60:$V60)</f>
         <v>16</v>
       </c>
       <c r="S60" s="6">
@@ -14149,7 +14165,7 @@
         <v>4</v>
       </c>
       <c r="R61">
-        <f>SUM($S61:$V61)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="S61">
@@ -14233,7 +14249,7 @@
         <v>4</v>
       </c>
       <c r="R62">
-        <f>SUM($S62:$V62)</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="S62">
@@ -14320,7 +14336,7 @@
         <v>3</v>
       </c>
       <c r="R63" s="18">
-        <f>SUM($S63:$V63)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S63">
@@ -14404,7 +14420,7 @@
         <v>4</v>
       </c>
       <c r="R64">
-        <f>SUM($S64:$V64)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S64" s="6">
@@ -14489,7 +14505,7 @@
         <v>4</v>
       </c>
       <c r="R65">
-        <f>SUM($S65:$V65)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S65" s="10">
@@ -14577,7 +14593,7 @@
         <v>3</v>
       </c>
       <c r="R66">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S66" s="6">
@@ -14662,7 +14678,7 @@
         <v>2</v>
       </c>
       <c r="R67">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="S67">
@@ -14743,7 +14759,7 @@
         <v>4</v>
       </c>
       <c r="R68">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S68" s="10">
@@ -14827,7 +14843,7 @@
         <v>3</v>
       </c>
       <c r="R69">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S69">
@@ -14908,7 +14924,7 @@
         <v>3</v>
       </c>
       <c r="R70">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S70">
@@ -14989,7 +15005,7 @@
         <v>4</v>
       </c>
       <c r="R71">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="S71">
@@ -15073,7 +15089,7 @@
         <v>2</v>
       </c>
       <c r="R72">
-        <f>SUM($S72:$V72)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="S72">
@@ -15154,7 +15170,7 @@
         <v>4</v>
       </c>
       <c r="R73">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S73" s="10">
@@ -15239,7 +15255,7 @@
         <v>3</v>
       </c>
       <c r="R74">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S74" s="6">
@@ -15324,7 +15340,7 @@
         <v>4</v>
       </c>
       <c r="R75">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S75" s="10">
@@ -15409,7 +15425,7 @@
         <v>3</v>
       </c>
       <c r="R76">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S76" s="6">
@@ -15494,7 +15510,7 @@
         <v>3</v>
       </c>
       <c r="R77">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S77" s="6">
@@ -15579,7 +15595,7 @@
         <v>4</v>
       </c>
       <c r="R78">
-        <f>SUM($S78:$V78)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="S78">
@@ -15663,7 +15679,7 @@
         <v>4</v>
       </c>
       <c r="R79">
-        <f>SUM($S79:$V79)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S79">
@@ -15750,7 +15766,7 @@
         <v>4</v>
       </c>
       <c r="R80">
-        <f>SUM($S80:$V80)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S80" s="10">
@@ -15834,7 +15850,7 @@
         <v>4</v>
       </c>
       <c r="R81">
-        <f>SUM($S81:$V81)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S81" s="10">
@@ -15918,7 +15934,7 @@
         <v>3</v>
       </c>
       <c r="R82">
-        <f>SUM($S82:$V82)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S82" s="6">
@@ -16003,7 +16019,7 @@
         <v>4</v>
       </c>
       <c r="R83">
-        <f>SUM($S83:$V83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S83" s="10">
@@ -16088,7 +16104,7 @@
         <v>4</v>
       </c>
       <c r="R84">
-        <f>SUM($S84:$V84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S84" s="10">
@@ -16172,7 +16188,7 @@
         <v>4</v>
       </c>
       <c r="R85">
-        <f>SUM($S85:$V85)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S85" s="10">
@@ -16257,7 +16273,7 @@
         <v>4</v>
       </c>
       <c r="R86">
-        <f>SUM($S86:$V86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S86" s="10">
@@ -16342,7 +16358,7 @@
         <v>3</v>
       </c>
       <c r="R87">
-        <f>SUM($S87:$V87)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S87" s="6">
@@ -16427,7 +16443,7 @@
         <v>4</v>
       </c>
       <c r="R88">
-        <f>SUM($S88:$V88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S88" s="10">
@@ -16512,7 +16528,7 @@
         <v>4</v>
       </c>
       <c r="R89">
-        <f>SUM($S89:$V89)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="S89">
@@ -16679,7 +16695,7 @@
         <v>4</v>
       </c>
       <c r="R91">
-        <f>SUM($S91:$V91)</f>
+        <f t="shared" ref="R91:R125" si="3">SUM($S91:$V91)</f>
         <v>12</v>
       </c>
       <c r="S91" s="10">
@@ -16764,7 +16780,7 @@
         <v>4</v>
       </c>
       <c r="R92">
-        <f>SUM($S92:$V92)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S92" s="10">
@@ -16848,7 +16864,7 @@
         <v>4</v>
       </c>
       <c r="R93">
-        <f>SUM($S93:$V93)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S93" s="10">
@@ -16933,7 +16949,7 @@
         <v>3</v>
       </c>
       <c r="R94">
-        <f>SUM($S94:$V94)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="S94">
@@ -17020,7 +17036,7 @@
         <v>4</v>
       </c>
       <c r="R95">
-        <f>SUM($S95:$V95)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S95" s="10">
@@ -17105,7 +17121,7 @@
         <v>4</v>
       </c>
       <c r="R96">
-        <f>SUM($S96:$V96)</f>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="S96">
@@ -17192,7 +17208,7 @@
         <v>4</v>
       </c>
       <c r="R97">
-        <f>SUM($S97:$V97)</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="S97">
@@ -17276,7 +17292,7 @@
         <v>4</v>
       </c>
       <c r="R98">
-        <f>SUM($S98:$V98)</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="S98">
@@ -17357,7 +17373,7 @@
         <v>4</v>
       </c>
       <c r="R99">
-        <f>SUM($S99:$V99)</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="S99">
@@ -17441,7 +17457,7 @@
         <v>3</v>
       </c>
       <c r="R100">
-        <f>SUM($S100:$V100)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="S100" s="6">
@@ -17526,7 +17542,7 @@
         <v>4</v>
       </c>
       <c r="R101">
-        <f>SUM($S101:$V101)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="S101">
@@ -17610,7 +17626,7 @@
         <v>4</v>
       </c>
       <c r="R102">
-        <f>SUM($S102:$V102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S102" s="6">
@@ -17694,7 +17710,7 @@
         <v>4</v>
       </c>
       <c r="R103">
-        <f>SUM($S103:$V103)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="S103">
@@ -17778,7 +17794,7 @@
         <v>4</v>
       </c>
       <c r="R104">
-        <f>SUM($S104:$V104)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S104" s="6">
@@ -17862,7 +17878,7 @@
         <v>4</v>
       </c>
       <c r="R105">
-        <f>SUM($S105:$V105)</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="S105">
@@ -17946,7 +17962,7 @@
         <v>4</v>
       </c>
       <c r="R106">
-        <f>SUM($S106:$V106)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="S106">
@@ -18033,7 +18049,7 @@
         <v>4</v>
       </c>
       <c r="R107">
-        <f>SUM($S107:$V107)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S107" s="6">
@@ -18118,7 +18134,7 @@
         <v>3</v>
       </c>
       <c r="R108" s="18">
-        <f>SUM($S108:$V108)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="S108">
@@ -18202,7 +18218,7 @@
         <v>4</v>
       </c>
       <c r="R109" s="18">
-        <f>SUM($S109:$V109)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S109">
@@ -18286,7 +18302,7 @@
         <v>4</v>
       </c>
       <c r="R110">
-        <f>SUM($S110:$V110)</f>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="S110">
@@ -18370,7 +18386,7 @@
         <v>4</v>
       </c>
       <c r="R111">
-        <f>SUM($S111:$V111)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="S111" s="6">
@@ -18458,7 +18474,7 @@
         <v>4</v>
       </c>
       <c r="R112" s="18">
-        <f>SUM($S112:$V112)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S112">
@@ -18542,7 +18558,7 @@
         <v>4</v>
       </c>
       <c r="R113" s="18">
-        <f>SUM($S113:$V113)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S113">
@@ -18626,7 +18642,7 @@
         <v>4</v>
       </c>
       <c r="R114" s="18">
-        <f>SUM($S114:$V114)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S114">
@@ -18710,7 +18726,7 @@
         <v>3</v>
       </c>
       <c r="R115" s="18">
-        <f>SUM($S115:$V115)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S115">
@@ -18794,7 +18810,7 @@
         <v>4</v>
       </c>
       <c r="R116" s="18">
-        <f>SUM($S116:$V116)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S116">
@@ -18881,7 +18897,7 @@
         <v>4</v>
       </c>
       <c r="R117" s="18">
-        <f>SUM($S117:$V117)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S117">
@@ -18965,7 +18981,7 @@
         <v>4</v>
       </c>
       <c r="R118" s="18">
-        <f>SUM($S118:$V118)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S118">
@@ -19049,7 +19065,7 @@
         <v>3</v>
       </c>
       <c r="R119" s="18">
-        <f>SUM($S119:$V119)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="S119">
@@ -19133,7 +19149,7 @@
         <v>4</v>
       </c>
       <c r="R120" s="18">
-        <f>SUM($S120:$V120)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S120">
@@ -19217,7 +19233,7 @@
         <v>4</v>
       </c>
       <c r="R121" s="18">
-        <f>SUM($S121:$V121)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S121">
@@ -19301,7 +19317,7 @@
         <v>4</v>
       </c>
       <c r="R122" s="18">
-        <f>SUM($S122:$V122)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S122">
@@ -19385,7 +19401,7 @@
         <v>3</v>
       </c>
       <c r="R123" s="18">
-        <f>SUM($S123:$V123)</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="S123">
@@ -19469,7 +19485,7 @@
         <v>3</v>
       </c>
       <c r="R124" s="18">
-        <f>SUM($S124:$V124)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="S124">
@@ -19553,7 +19569,7 @@
         <v>4</v>
       </c>
       <c r="R125" s="18">
-        <f>SUM($S125:$V125)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="S125">
@@ -19776,7 +19792,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R33" si="0">SUM($S2:$V2)</f>
         <v>12</v>
       </c>
       <c r="S2" s="6">
@@ -19863,7 +19879,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="S3">
@@ -19947,7 +19963,7 @@
         <v>4</v>
       </c>
       <c r="R4">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S4" s="10">
@@ -20032,7 +20048,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S5">
@@ -20116,7 +20132,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S6">
@@ -20200,7 +20216,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S7" s="10">
@@ -20287,7 +20303,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S8" s="10">
@@ -20372,7 +20388,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S9" s="10">
@@ -20460,7 +20476,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S10" s="10">
@@ -20550,7 +20566,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S11" s="10">
@@ -20637,7 +20653,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S12" s="10">
@@ -20722,7 +20738,7 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S13" s="10">
@@ -20807,7 +20823,7 @@
         <v>4</v>
       </c>
       <c r="R14">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S14" s="10">
@@ -20892,7 +20908,7 @@
         <v>4</v>
       </c>
       <c r="R15">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S15" s="10">
@@ -20977,7 +20993,7 @@
         <v>4</v>
       </c>
       <c r="R16">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S16" s="6">
@@ -21064,7 +21080,7 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S17" s="6">
@@ -21149,7 +21165,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S18">
@@ -21233,7 +21249,7 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S19">
@@ -21317,7 +21333,7 @@
         <v>4</v>
       </c>
       <c r="R20">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="S20">
@@ -21404,7 +21420,7 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="S21">
@@ -21491,7 +21507,7 @@
         <v>3</v>
       </c>
       <c r="R22">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="S22">
@@ -21575,7 +21591,7 @@
         <v>3</v>
       </c>
       <c r="R23">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="S23">
@@ -21659,7 +21675,7 @@
         <v>3</v>
       </c>
       <c r="R24">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="S24">
@@ -21740,7 +21756,7 @@
         <v>3</v>
       </c>
       <c r="R25">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="S25">
@@ -21821,7 +21837,7 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="S26">
@@ -21905,7 +21921,7 @@
         <v>4</v>
       </c>
       <c r="R27">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="S27">
@@ -21989,7 +22005,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="S28">
@@ -22076,7 +22092,7 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="S29">
@@ -22160,7 +22176,7 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S30" s="6">
@@ -22245,7 +22261,7 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S31" s="6">
@@ -22330,7 +22346,7 @@
         <v>4</v>
       </c>
       <c r="R32">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S32" s="6">
@@ -22415,7 +22431,7 @@
         <v>4</v>
       </c>
       <c r="R33">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S33" s="6">
@@ -22500,7 +22516,7 @@
         <v>4</v>
       </c>
       <c r="R34">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" ref="R34:R65" si="1">SUM($S34:$V34)</f>
         <v>12</v>
       </c>
       <c r="S34" s="6">
@@ -22585,7 +22601,7 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S35" s="6">
@@ -22670,7 +22686,7 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S36" s="6">
@@ -22757,7 +22773,7 @@
         <v>4</v>
       </c>
       <c r="R37">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S37" s="6">
@@ -22842,7 +22858,7 @@
         <v>4</v>
       </c>
       <c r="R38">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S38" s="6">
@@ -22929,7 +22945,7 @@
         <v>3</v>
       </c>
       <c r="R39" s="18">
-        <f>SUM($S39:$V39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S39">
@@ -23016,7 +23032,7 @@
         <v>3</v>
       </c>
       <c r="R40" s="18">
-        <f>SUM($S40:$V40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40">
@@ -23103,7 +23119,7 @@
         <v>3</v>
       </c>
       <c r="R41" s="18">
-        <f>SUM($S41:$V41)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S41">
@@ -23187,7 +23203,7 @@
         <v>4</v>
       </c>
       <c r="R42" s="18">
-        <f>SUM($S42:$V42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S42">
@@ -23271,7 +23287,7 @@
         <v>3</v>
       </c>
       <c r="R43">
-        <f>SUM($S43:$V43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S43" s="6">
@@ -23356,7 +23372,7 @@
         <v>3</v>
       </c>
       <c r="R44">
-        <f>SUM($S44:$V44)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S44" s="6">
@@ -23441,7 +23457,7 @@
         <v>3</v>
       </c>
       <c r="R45">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S45" s="6">
@@ -23526,7 +23542,7 @@
         <v>3</v>
       </c>
       <c r="R46">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S46" s="6">
@@ -23613,7 +23629,7 @@
         <v>3</v>
       </c>
       <c r="R47" s="18">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S47">
@@ -23697,7 +23713,7 @@
         <v>3</v>
       </c>
       <c r="R48" s="18">
-        <f>SUM($S48:$V48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S48">
@@ -23781,7 +23797,7 @@
         <v>3</v>
       </c>
       <c r="R49">
-        <f>SUM($S49:$V49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S49" s="6">
@@ -23871,7 +23887,7 @@
         <v>3</v>
       </c>
       <c r="R50">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S50" s="6">
@@ -23959,7 +23975,7 @@
         <v>3</v>
       </c>
       <c r="R51">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S51" s="6">
@@ -24047,7 +24063,7 @@
         <v>3</v>
       </c>
       <c r="R52">
-        <f>SUM($S52:$V52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S52" s="6">
@@ -24135,7 +24151,7 @@
         <v>3</v>
       </c>
       <c r="R53">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S53" s="6">
@@ -24223,7 +24239,7 @@
         <v>3</v>
       </c>
       <c r="R54">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S54" s="6">
@@ -24311,7 +24327,7 @@
         <v>3</v>
       </c>
       <c r="R55">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S55" s="6">
@@ -24399,7 +24415,7 @@
         <v>3</v>
       </c>
       <c r="R56">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S56" s="6">
@@ -24487,7 +24503,7 @@
         <v>3</v>
       </c>
       <c r="R57">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S57" s="6">
@@ -24575,7 +24591,7 @@
         <v>3</v>
       </c>
       <c r="R58">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S58" s="6">
@@ -24663,7 +24679,7 @@
         <v>3</v>
       </c>
       <c r="R59">
-        <f>SUM($S59:$V59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S59" s="6">
@@ -24751,7 +24767,7 @@
         <v>3</v>
       </c>
       <c r="R60">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S60" s="6">
@@ -24841,7 +24857,7 @@
         <v>3</v>
       </c>
       <c r="R61">
-        <f>SUM($S61:$V61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S61" s="6">
@@ -24929,7 +24945,7 @@
         <v>3</v>
       </c>
       <c r="R62">
-        <f>SUM($S62:$V62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S62" s="6">
@@ -25017,7 +25033,7 @@
         <v>3</v>
       </c>
       <c r="R63">
-        <f>SUM($S63:$V63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S63" s="6">
@@ -25105,7 +25121,7 @@
         <v>3</v>
       </c>
       <c r="R64">
-        <f>SUM($S64:$V64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S64" s="6">
@@ -25190,7 +25206,7 @@
         <v>3</v>
       </c>
       <c r="R65">
-        <f>SUM($S65:$V65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S65" s="6">
@@ -25277,7 +25293,7 @@
         <v>3</v>
       </c>
       <c r="R66">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" ref="R66:R97" si="2">SUM($S66:$V66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="6">
@@ -25362,7 +25378,7 @@
         <v>3</v>
       </c>
       <c r="R67">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S67" s="6">
@@ -25447,7 +25463,7 @@
         <v>3</v>
       </c>
       <c r="R68">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S68" s="6">
@@ -25532,7 +25548,7 @@
         <v>3</v>
       </c>
       <c r="R69">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S69" s="6">
@@ -25617,7 +25633,7 @@
         <v>3</v>
       </c>
       <c r="R70">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S70" s="6">
@@ -25702,7 +25718,7 @@
         <v>3</v>
       </c>
       <c r="R71">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S71" s="6">
@@ -25787,7 +25803,7 @@
         <v>3</v>
       </c>
       <c r="R72">
-        <f>SUM($S72:$V72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S72" s="6">
@@ -25872,7 +25888,7 @@
         <v>3</v>
       </c>
       <c r="R73">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S73" s="6">
@@ -25957,7 +25973,7 @@
         <v>3</v>
       </c>
       <c r="R74">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S74" s="6">
@@ -26044,7 +26060,7 @@
         <v>3</v>
       </c>
       <c r="R75">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="S75">
@@ -26129,7 +26145,7 @@
         <v>3</v>
       </c>
       <c r="R76">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S76">
@@ -26217,7 +26233,7 @@
         <v>3</v>
       </c>
       <c r="R77">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S77" s="6">
@@ -26302,7 +26318,7 @@
         <v>3</v>
       </c>
       <c r="R78">
-        <f>SUM($S78:$V78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S78" s="6">
@@ -26387,7 +26403,7 @@
         <v>4</v>
       </c>
       <c r="R79">
-        <f>SUM($S79:$V79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S79" s="10">
@@ -26474,7 +26490,7 @@
         <v>4</v>
       </c>
       <c r="R80">
-        <f>SUM($S80:$V80)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S80" s="10">
@@ -26564,7 +26580,7 @@
         <v>4</v>
       </c>
       <c r="R81">
-        <f>SUM($S81:$V81)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S81" s="10">
@@ -26654,7 +26670,7 @@
         <v>4</v>
       </c>
       <c r="R82">
-        <f>SUM($S82:$V82)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S82" s="10">
@@ -26741,7 +26757,7 @@
         <v>4</v>
       </c>
       <c r="R83">
-        <f>SUM($S83:$V83)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S83" s="10">
@@ -26826,7 +26842,7 @@
         <v>4</v>
       </c>
       <c r="R84">
-        <f>SUM($S84:$V84)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S84" s="10">
@@ -26911,7 +26927,7 @@
         <v>4</v>
       </c>
       <c r="R85">
-        <f>SUM($S85:$V85)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S85" s="10">
@@ -26999,7 +27015,7 @@
         <v>4</v>
       </c>
       <c r="R86">
-        <f>SUM($S86:$V86)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S86" s="10">
@@ -27089,7 +27105,7 @@
         <v>4</v>
       </c>
       <c r="R87">
-        <f>SUM($S87:$V87)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S87" s="10">
@@ -27179,7 +27195,7 @@
         <v>4</v>
       </c>
       <c r="R88">
-        <f>SUM($S88:$V88)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S88" s="10">
@@ -27266,7 +27282,7 @@
         <v>4</v>
       </c>
       <c r="R89">
-        <f>SUM($S89:$V89)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S89" s="10">
@@ -27354,7 +27370,7 @@
         <v>4</v>
       </c>
       <c r="R90">
-        <f>SUM($S90:$V90)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S90" s="10">
@@ -27441,7 +27457,7 @@
         <v>4</v>
       </c>
       <c r="R91">
-        <f>SUM($S91:$V91)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="S91">
@@ -27528,7 +27544,7 @@
         <v>4</v>
       </c>
       <c r="R92">
-        <f>SUM($S92:$V92)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="S92">
@@ -27613,7 +27629,7 @@
         <v>4</v>
       </c>
       <c r="R93">
-        <f>SUM($S93:$V93)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="S93">
@@ -27698,7 +27714,7 @@
         <v>4</v>
       </c>
       <c r="R94">
-        <f>SUM($S94:$V94)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S94">
@@ -27785,7 +27801,7 @@
         <v>3</v>
       </c>
       <c r="R95">
-        <f>SUM($S95:$V95)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S95">
@@ -27870,7 +27886,7 @@
         <v>3</v>
       </c>
       <c r="R96">
-        <f>SUM($S96:$V96)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S96">
@@ -27955,7 +27971,7 @@
         <v>3</v>
       </c>
       <c r="R97">
-        <f>SUM($S97:$V97)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="S97">
@@ -28040,7 +28056,7 @@
         <v>3</v>
       </c>
       <c r="R98">
-        <f>SUM($S98:$V98)</f>
+        <f t="shared" ref="R98:R129" si="3">SUM($S98:$V98)</f>
         <v>39</v>
       </c>
       <c r="S98">
@@ -28125,7 +28141,7 @@
         <v>4</v>
       </c>
       <c r="R99">
-        <f>SUM($S99:$V99)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="S99" s="6">
@@ -28212,7 +28228,7 @@
         <v>4</v>
       </c>
       <c r="R100">
-        <f>SUM($S100:$V100)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="S100" s="6">
@@ -28297,7 +28313,7 @@
         <v>4</v>
       </c>
       <c r="R101">
-        <f>SUM($S101:$V101)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="S101" s="6">
@@ -28382,7 +28398,7 @@
         <v>4</v>
       </c>
       <c r="R102">
-        <f>SUM($S102:$V102)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="S102" s="6">
@@ -28467,7 +28483,7 @@
         <v>4</v>
       </c>
       <c r="R103">
-        <f>SUM($S103:$V103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S103" s="6">
@@ -28552,7 +28568,7 @@
         <v>4</v>
       </c>
       <c r="R104">
-        <f>SUM($S104:$V104)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S104" s="6">
@@ -28637,7 +28653,7 @@
         <v>4</v>
       </c>
       <c r="R105">
-        <f>SUM($S105:$V105)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S105" s="6">
@@ -28722,7 +28738,7 @@
         <v>4</v>
       </c>
       <c r="R106">
-        <f>SUM($S106:$V106)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="S106" s="6">
@@ -28807,7 +28823,7 @@
         <v>4</v>
       </c>
       <c r="R107">
-        <f>SUM($S107:$V107)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S107" s="6">
@@ -28892,7 +28908,7 @@
         <v>4</v>
       </c>
       <c r="R108">
-        <f>SUM($S108:$V108)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S108" s="6">
@@ -28977,7 +28993,7 @@
         <v>4</v>
       </c>
       <c r="R109">
-        <f>SUM($S109:$V109)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S109" s="6">
@@ -29062,7 +29078,7 @@
         <v>3</v>
       </c>
       <c r="R110">
-        <f>SUM($S110:$V110)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="S110" s="6">
@@ -29147,7 +29163,7 @@
         <v>3</v>
       </c>
       <c r="R111">
-        <f>SUM($S111:$V111)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S111" s="6">
@@ -29232,7 +29248,7 @@
         <v>3</v>
       </c>
       <c r="R112">
-        <f>SUM($S112:$V112)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S112" s="6">
@@ -29317,7 +29333,7 @@
         <v>3</v>
       </c>
       <c r="R113">
-        <f>SUM($S113:$V113)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S113" s="6">
@@ -29402,7 +29418,7 @@
         <v>3</v>
       </c>
       <c r="R114">
-        <f>SUM($S114:$V114)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S114" s="6">
@@ -29487,7 +29503,7 @@
         <v>3</v>
       </c>
       <c r="R115">
-        <f>SUM($S115:$V115)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S115" s="6">
@@ -29572,7 +29588,7 @@
         <v>3</v>
       </c>
       <c r="R116">
-        <f>SUM($S116:$V116)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S116" s="6">
@@ -29657,7 +29673,7 @@
         <v>3</v>
       </c>
       <c r="R117">
-        <f>SUM($S117:$V117)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S117" s="6">
@@ -29744,7 +29760,7 @@
         <v>3</v>
       </c>
       <c r="R118">
-        <f>SUM($S118:$V118)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S118" s="6">
@@ -29832,7 +29848,7 @@
         <v>3</v>
       </c>
       <c r="R119">
-        <f>SUM($S119:$V119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S119" s="6">
@@ -29917,7 +29933,7 @@
         <v>3</v>
       </c>
       <c r="R120">
-        <f>SUM($S120:$V120)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S120" s="6">
@@ -30002,7 +30018,7 @@
         <v>3</v>
       </c>
       <c r="R121">
-        <f>SUM($S121:$V121)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S121" s="6">
@@ -30089,7 +30105,7 @@
         <v>3</v>
       </c>
       <c r="R122">
-        <f>SUM($S122:$V122)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S122" s="6">
@@ -30174,7 +30190,7 @@
         <v>3</v>
       </c>
       <c r="R123">
-        <f>SUM($S123:$V123)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S123" s="6">
@@ -30259,7 +30275,7 @@
         <v>3</v>
       </c>
       <c r="R124">
-        <f>SUM($S124:$V124)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S124" s="6">
@@ -30344,7 +30360,7 @@
         <v>3</v>
       </c>
       <c r="R125">
-        <f>SUM($S125:$V125)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S125" s="6">
@@ -30429,7 +30445,7 @@
         <v>3</v>
       </c>
       <c r="R126">
-        <f>SUM($S126:$V126)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S126" s="6">
@@ -30514,7 +30530,7 @@
         <v>3</v>
       </c>
       <c r="R127">
-        <f>SUM($S127:$V127)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S127" s="6">
@@ -30599,7 +30615,7 @@
         <v>3</v>
       </c>
       <c r="R128">
-        <f>SUM($S128:$V128)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S128" s="18">
@@ -30684,7 +30700,7 @@
         <v>3</v>
       </c>
       <c r="R129">
-        <f>SUM($S129:$V129)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S129" s="18">
@@ -30769,7 +30785,7 @@
         <v>3</v>
       </c>
       <c r="R130">
-        <f>SUM($S130:$V130)</f>
+        <f t="shared" ref="R130:R161" si="4">SUM($S130:$V130)</f>
         <v>0</v>
       </c>
       <c r="S130" s="18">
@@ -30859,7 +30875,7 @@
         <v>3</v>
       </c>
       <c r="R131" s="18">
-        <f>SUM($S131:$V131)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S131">
@@ -30946,7 +30962,7 @@
         <v>3</v>
       </c>
       <c r="R132">
-        <f>SUM($S132:$V132)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S132">
@@ -31031,7 +31047,7 @@
         <v>4</v>
       </c>
       <c r="R133">
-        <f>SUM($S133:$V133)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S133" s="10">
@@ -31118,7 +31134,7 @@
         <v>4</v>
       </c>
       <c r="R134">
-        <f>SUM($S134:$V134)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S134" s="10">
@@ -31208,7 +31224,7 @@
         <v>4</v>
       </c>
       <c r="R135">
-        <f>SUM($S135:$V135)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="S135">
@@ -31295,7 +31311,7 @@
         <v>4</v>
       </c>
       <c r="R136">
-        <f>SUM($S136:$V136)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S136" s="10">
@@ -31380,7 +31396,7 @@
         <v>4</v>
       </c>
       <c r="R137">
-        <f>SUM($S137:$V137)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="S137">
@@ -31465,7 +31481,7 @@
         <v>4</v>
       </c>
       <c r="R138">
-        <f>SUM($S138:$V138)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="S138">
@@ -31550,7 +31566,7 @@
         <v>4</v>
       </c>
       <c r="R139">
-        <f>SUM($S139:$V139)</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="S139">
@@ -31637,7 +31653,7 @@
         <v>4</v>
       </c>
       <c r="R140">
-        <f>SUM($S140:$V140)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="S140">
@@ -31722,7 +31738,7 @@
         <v>4</v>
       </c>
       <c r="R141">
-        <f>SUM($S141:$V141)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="S141">
@@ -31809,7 +31825,7 @@
         <v>4</v>
       </c>
       <c r="R142">
-        <f>SUM($S142:$V142)</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="S142">
@@ -31896,7 +31912,7 @@
         <v>4</v>
       </c>
       <c r="R143">
-        <f>SUM($S143:$V143)</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="S143">
@@ -31981,7 +31997,7 @@
         <v>3</v>
       </c>
       <c r="R144">
-        <f>SUM($S144:$V144)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="S144">
@@ -32066,7 +32082,7 @@
         <v>3</v>
       </c>
       <c r="R145">
-        <f>SUM($S145:$V145)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="S145">
@@ -32151,7 +32167,7 @@
         <v>4</v>
       </c>
       <c r="R146" s="18">
-        <f>SUM($S146:$V146)</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="S146">
@@ -32235,7 +32251,7 @@
         <v>4</v>
       </c>
       <c r="R147">
-        <f>SUM($S147:$V147)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S147" s="6">
@@ -32320,7 +32336,7 @@
         <v>4</v>
       </c>
       <c r="R148" s="18">
-        <f>SUM($S148:$V148)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S148">
@@ -32404,7 +32420,7 @@
         <v>4</v>
       </c>
       <c r="R149" s="18">
-        <f>SUM($S149:$V149)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S149">
@@ -32488,7 +32504,7 @@
         <v>4</v>
       </c>
       <c r="R150">
-        <f>SUM($S150:$V150)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S150" s="6">
@@ -32573,7 +32589,7 @@
         <v>4</v>
       </c>
       <c r="R151">
-        <f>SUM($S151:$V151)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S151" s="6">
@@ -32660,7 +32676,7 @@
         <v>4</v>
       </c>
       <c r="R152">
-        <f>SUM($S152:$V152)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="S152" s="6">
@@ -32745,7 +32761,7 @@
         <v>3</v>
       </c>
       <c r="R153">
-        <f>SUM($S153:$V153)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S153" s="6">
@@ -32830,7 +32846,7 @@
         <v>3</v>
       </c>
       <c r="R154">
-        <f>SUM($S154:$V154)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S154" s="6">
@@ -32918,7 +32934,7 @@
         <v>3</v>
       </c>
       <c r="R155">
-        <f>SUM($S155:$V155)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S155" s="6">
@@ -33006,7 +33022,7 @@
         <v>3</v>
       </c>
       <c r="R156" s="18">
-        <f>SUM($S156:$V156)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S156">
@@ -33093,7 +33109,7 @@
         <v>3</v>
       </c>
       <c r="R157">
-        <f>SUM($S157:$V157)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S157" s="6">
@@ -33180,7 +33196,7 @@
         <v>3</v>
       </c>
       <c r="R158">
-        <f>SUM($S158:$V158)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S158" s="6">
@@ -33267,7 +33283,7 @@
         <v>3</v>
       </c>
       <c r="R159">
-        <f>SUM($S159:$V159)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S159" s="6">
@@ -33354,7 +33370,7 @@
         <v>3</v>
       </c>
       <c r="R160">
-        <f>SUM($S160:$V160)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S160" s="18">
@@ -33441,7 +33457,7 @@
         <v>3</v>
       </c>
       <c r="R161">
-        <f>SUM($S161:$V161)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S161" s="18">
@@ -33528,7 +33544,7 @@
         <v>3</v>
       </c>
       <c r="R162">
-        <f>SUM($S162:$V162)</f>
+        <f t="shared" ref="R162:R195" si="5">SUM($S162:$V162)</f>
         <v>0</v>
       </c>
       <c r="S162" s="18">
@@ -33615,7 +33631,7 @@
         <v>4</v>
       </c>
       <c r="R163">
-        <f>SUM($S163:$V163)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="S163">
@@ -33702,7 +33718,7 @@
         <v>3</v>
       </c>
       <c r="R164">
-        <f>SUM($S164:$V164)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S164" s="6">
@@ -33787,7 +33803,7 @@
         <v>3</v>
       </c>
       <c r="R165">
-        <f>SUM($S165:$V165)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S165" s="6">
@@ -33872,7 +33888,7 @@
         <v>3</v>
       </c>
       <c r="R166" s="18">
-        <f>SUM($S166:$V166)</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="S166">
@@ -33956,7 +33972,7 @@
         <v>3</v>
       </c>
       <c r="R167">
-        <f>SUM($S167:$V167)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S167" s="6">
@@ -34041,7 +34057,7 @@
         <v>3</v>
       </c>
       <c r="R168">
-        <f>SUM($S168:$V168)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S168" s="6">
@@ -34126,7 +34142,7 @@
         <v>4</v>
       </c>
       <c r="R169" s="18">
-        <f>SUM($S169:$V169)</f>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="S169">
@@ -34216,7 +34232,7 @@
         <v>3</v>
       </c>
       <c r="R170" s="18">
-        <f>SUM($S170:$V170)</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="S170">
@@ -34300,7 +34316,7 @@
         <v>3</v>
       </c>
       <c r="R171">
-        <f>SUM($S171:$V171)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S171" s="6">
@@ -34385,7 +34401,7 @@
         <v>4</v>
       </c>
       <c r="R172">
-        <f>SUM($S172:$V172)</f>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="S172">
@@ -34475,7 +34491,7 @@
         <v>4</v>
       </c>
       <c r="R173" s="18">
-        <f>SUM($S173:$V173)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S173">
@@ -34559,7 +34575,7 @@
         <v>3</v>
       </c>
       <c r="R174">
-        <f>SUM($S174:$V174)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S174" s="6">
@@ -34644,7 +34660,7 @@
         <v>3</v>
       </c>
       <c r="R175">
-        <f>SUM($S175:$V175)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S175" s="6">
@@ -34729,7 +34745,7 @@
         <v>3</v>
       </c>
       <c r="R176">
-        <f>SUM($S176:$V176)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S176" s="18">
@@ -34816,7 +34832,7 @@
         <v>4</v>
       </c>
       <c r="R177">
-        <f>SUM($S177:$V177)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S177" s="6">
@@ -34903,7 +34919,7 @@
         <v>3</v>
       </c>
       <c r="R178">
-        <f>SUM($S178:$V178)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S178" s="6">
@@ -34988,7 +35004,7 @@
         <v>4</v>
       </c>
       <c r="R179">
-        <f>SUM($S179:$V179)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S179" s="10">
@@ -35075,7 +35091,7 @@
         <v>3</v>
       </c>
       <c r="R180">
-        <f>SUM($S180:$V180)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S180" s="18">
@@ -35159,7 +35175,7 @@
         <v>4</v>
       </c>
       <c r="R181">
-        <f>SUM($S181:$V181)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="S181">
@@ -35243,7 +35259,7 @@
         <v>3</v>
       </c>
       <c r="R182" s="18">
-        <f>SUM($S182:$V182)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S182">
@@ -35327,7 +35343,7 @@
         <v>3</v>
       </c>
       <c r="R183" s="18">
-        <f>SUM($S183:$V183)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S183">
@@ -35411,7 +35427,7 @@
         <v>3</v>
       </c>
       <c r="R184" s="18">
-        <f>SUM($S184:$V184)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S184">
@@ -35495,7 +35511,7 @@
         <v>4</v>
       </c>
       <c r="R185" s="18">
-        <f>SUM($S185:$V185)</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="S185">
@@ -35582,7 +35598,7 @@
         <v>4</v>
       </c>
       <c r="R186">
-        <f>SUM($S186:$V186)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S186" s="6">
@@ -35667,7 +35683,7 @@
         <v>4</v>
       </c>
       <c r="R187">
-        <f>SUM($S187:$V187)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S187" s="6">
@@ -35752,7 +35768,7 @@
         <v>3</v>
       </c>
       <c r="R188" s="18">
-        <f>SUM($S188:$V188)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="S188">
@@ -35842,7 +35858,7 @@
         <v>4</v>
       </c>
       <c r="R189">
-        <f>SUM($S189:$V189)</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="S189">
@@ -35929,7 +35945,7 @@
         <v>3</v>
       </c>
       <c r="R190" s="18">
-        <f>SUM($S190:$V190)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S190">
@@ -36013,7 +36029,7 @@
         <v>3</v>
       </c>
       <c r="R191" s="18">
-        <f>SUM($S191:$V191)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S191">
@@ -36097,7 +36113,7 @@
         <v>3</v>
       </c>
       <c r="R192" s="18">
-        <f>SUM($S192:$V192)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S192">
@@ -36181,7 +36197,7 @@
         <v>4</v>
       </c>
       <c r="R193" s="18">
-        <f>SUM($S193:$V193)</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="S193">
@@ -36265,7 +36281,7 @@
         <v>4</v>
       </c>
       <c r="R194" s="18">
-        <f>SUM($S194:$V194)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S194">
@@ -36352,7 +36368,7 @@
         <v>3</v>
       </c>
       <c r="R195" s="18">
-        <f>SUM($S195:$V195)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="S195">
@@ -36391,63 +36407,63 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C45">
-    <cfRule type="expression" dxfId="57" priority="77">
-      <formula>F2=2</formula>
+    <cfRule type="expression" dxfId="57" priority="73">
+      <formula>F2=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="76">
-      <formula>F2=3</formula>
+    <cfRule type="expression" dxfId="56" priority="74">
+      <formula>F2=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="55" priority="75">
       <formula>F2=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="74">
-      <formula>F2=5</formula>
+    <cfRule type="expression" dxfId="54" priority="76">
+      <formula>F2=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="73">
-      <formula>F2=6</formula>
+    <cfRule type="expression" dxfId="53" priority="77">
+      <formula>F2=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="78">
       <formula>F2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C54">
-    <cfRule type="expression" dxfId="51" priority="83">
+    <cfRule type="expression" dxfId="51" priority="79">
+      <formula>E46=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="80">
+      <formula>E46=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="81">
+      <formula>E46=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="82">
+      <formula>E46=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="83">
       <formula>E46=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="82">
-      <formula>E46=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="84">
+    <cfRule type="expression" dxfId="46" priority="84">
       <formula>E46=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="81">
-      <formula>E46=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="80">
-      <formula>E46=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="79">
-      <formula>E46=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C67">
-    <cfRule type="expression" dxfId="45" priority="66">
-      <formula>F59=1</formula>
+    <cfRule type="expression" dxfId="45" priority="61">
+      <formula>F59=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="65">
+    <cfRule type="expression" dxfId="44" priority="62">
+      <formula>F59=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="63">
+      <formula>F59=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="64">
+      <formula>F59=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>F59=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="64">
-      <formula>F59=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="63">
-      <formula>F59=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="62">
-      <formula>F59=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="61">
-      <formula>F59=6</formula>
+    <cfRule type="expression" dxfId="40" priority="66">
+      <formula>F59=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82 C84">
@@ -36463,111 +36479,111 @@
     <cfRule type="expression" dxfId="36" priority="52">
       <formula>F81=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="54">
+    <cfRule type="expression" dxfId="35" priority="53">
+      <formula>F81=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="54">
       <formula>F81=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="53">
-      <formula>F81=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="33" priority="57">
+    <cfRule type="expression" dxfId="33" priority="55">
+      <formula>F84=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="56">
+      <formula>F84=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="57">
       <formula>F84=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="59">
-      <formula>F84=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="60">
-      <formula>F84=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="58">
       <formula>F84=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="55">
-      <formula>F84=6</formula>
+    <cfRule type="expression" dxfId="29" priority="59">
+      <formula>F84=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="56">
-      <formula>F84=5</formula>
+    <cfRule type="expression" dxfId="28" priority="60">
+      <formula>F84=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C115">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="27" priority="25">
+      <formula>F90=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>F90=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>F90=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>F90=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>F90=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="30">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula>F90=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>F90=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="26">
-      <formula>F90=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="25">
-      <formula>F90=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C117">
     <cfRule type="expression" dxfId="21" priority="19">
       <formula>E116=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
-      <formula>E116=1</formula>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>E116=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23">
-      <formula>E116=2</formula>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>E116=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
       <formula>E116=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="21">
-      <formula>E116=4</formula>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>E116=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>E116=5</formula>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>E116=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:C150">
-    <cfRule type="expression" dxfId="15" priority="12">
-      <formula>F148=1</formula>
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>F148=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
-      <formula>F148=2</formula>
+    <cfRule type="expression" dxfId="14" priority="8">
+      <formula>F148=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>F148=6</formula>
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>F148=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="10">
       <formula>F148=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>F148=4</formula>
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>F148=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>F148=5</formula>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>F148=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>F189=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>F189=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>F189=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>F189=6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>F189=5</formula>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>F189=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>F189=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>F189=2</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>F189=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36577,13 +36593,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA646"/>
+  <dimension ref="A1:AA647"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E625" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E378" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L629" sqref="L629"/>
+      <selection pane="bottomRight" activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -81530,340 +81546,342 @@
     </row>
     <row r="634" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A634" s="2" t="s">
-        <v>2490</v>
+        <v>2553</v>
       </c>
       <c r="B634" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C634" t="s">
-        <v>2491</v>
+        <v>2554</v>
       </c>
       <c r="D634" s="5" t="s">
-        <v>2340</v>
-      </c>
-      <c r="K634">
+        <v>292</v>
+      </c>
+      <c r="M634">
         <v>2</v>
       </c>
-      <c r="O634">
-        <v>25</v>
+      <c r="P634">
+        <v>16</v>
       </c>
       <c r="Q634">
-        <v>1</v>
-      </c>
-      <c r="V634">
-        <v>17</v>
+        <v>3.5</v>
+      </c>
+      <c r="R634">
+        <v>0.5</v>
+      </c>
+      <c r="W634" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="AA634" t="s">
+        <v>2556</v>
       </c>
     </row>
     <row r="635" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A635" s="2" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="B635" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C635" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="D635" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G635">
-        <v>10</v>
-      </c>
-      <c r="I635">
-        <v>12</v>
-      </c>
-      <c r="J635">
-        <v>15</v>
+        <v>2340</v>
       </c>
       <c r="K635">
-        <v>6</v>
-      </c>
-      <c r="M635">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="O635">
+        <v>25</v>
       </c>
       <c r="Q635">
         <v>1</v>
       </c>
       <c r="V635">
-        <v>5</v>
-      </c>
-      <c r="W635" s="2" t="s">
-        <v>2494</v>
-      </c>
-      <c r="X635" s="6"/>
-      <c r="Y635">
-        <v>0.05</v>
-      </c>
-      <c r="AA635" t="s">
-        <v>2495</v>
+        <v>17</v>
       </c>
     </row>
     <row r="636" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A636" s="2" t="s">
-        <v>2515</v>
+        <v>2492</v>
       </c>
       <c r="B636" t="s">
-        <v>486</v>
+        <v>304</v>
       </c>
       <c r="C636" t="s">
-        <v>2516</v>
+        <v>2493</v>
       </c>
       <c r="D636" s="5" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
       <c r="G636">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I636">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="J636">
+        <v>15</v>
       </c>
       <c r="K636">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M636">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q636">
         <v>1</v>
       </c>
+      <c r="V636">
+        <v>5</v>
+      </c>
       <c r="W636" s="2" t="s">
-        <v>2193</v>
-      </c>
-      <c r="Y636" s="6">
-        <v>0.1</v>
+        <v>2494</v>
+      </c>
+      <c r="X636" s="6"/>
+      <c r="Y636">
+        <v>0.05</v>
       </c>
       <c r="AA636" t="s">
-        <v>2415</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="637" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A637" s="2" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B637" t="s">
         <v>486</v>
       </c>
       <c r="C637" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="D637" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G637">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="I637">
+        <v>13</v>
       </c>
       <c r="K637">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M637">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q637">
         <v>1</v>
       </c>
       <c r="W637" s="2" t="s">
-        <v>2494</v>
-      </c>
-      <c r="Y637">
+        <v>2193</v>
+      </c>
+      <c r="Y637" s="6">
         <v>0.1</v>
       </c>
       <c r="AA637" t="s">
-        <v>2519</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="638" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A638" s="2" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="B638" t="s">
         <v>486</v>
       </c>
       <c r="C638" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="D638" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G638">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K638">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M638">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q638">
         <v>1</v>
       </c>
       <c r="W638" s="2" t="s">
-        <v>2522</v>
-      </c>
-      <c r="Y638"/>
+        <v>2494</v>
+      </c>
+      <c r="Y638">
+        <v>0.1</v>
+      </c>
       <c r="AA638" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="639" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A639" s="2" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="B639" t="s">
-        <v>304</v>
+        <v>486</v>
       </c>
       <c r="C639" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="D639" s="5" t="s">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="G639">
-        <v>11</v>
-      </c>
-      <c r="I639">
-        <v>16</v>
-      </c>
-      <c r="J639">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K639">
+        <v>6</v>
       </c>
       <c r="M639">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q639">
         <v>1</v>
       </c>
-      <c r="V639">
-        <v>5</v>
-      </c>
       <c r="W639" s="2" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="Y639"/>
       <c r="AA639" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="640" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="B640" t="s">
-        <v>1672</v>
+        <v>304</v>
       </c>
       <c r="C640" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="D640" s="5" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F640">
+        <v>285</v>
+      </c>
+      <c r="G640">
         <v>11</v>
       </c>
-      <c r="P640">
-        <v>15</v>
+      <c r="I640">
+        <v>16</v>
+      </c>
+      <c r="J640">
+        <v>5</v>
+      </c>
+      <c r="M640">
+        <v>3</v>
       </c>
       <c r="Q640">
-        <v>3.5</v>
-      </c>
-      <c r="R640">
-        <v>0.7</v>
-      </c>
-      <c r="T640">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="V640">
         <v>5</v>
       </c>
       <c r="W640" s="2" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="Y640"/>
       <c r="AA640" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="641" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A641" s="2" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="B641" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="C641" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="D641" s="5" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="F641">
-        <v>3</v>
-      </c>
-      <c r="J641">
-        <v>7</v>
-      </c>
-      <c r="K641">
+        <v>11</v>
+      </c>
+      <c r="P641">
+        <v>15</v>
+      </c>
+      <c r="Q641">
+        <v>3.5</v>
+      </c>
+      <c r="R641">
+        <v>0.7</v>
+      </c>
+      <c r="T641">
+        <v>19</v>
+      </c>
+      <c r="V641">
         <v>5</v>
       </c>
-      <c r="Q641">
-        <v>1</v>
-      </c>
       <c r="W641" s="2" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="Y641"/>
       <c r="AA641" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="642" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A642" s="2" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="B642" t="s">
-        <v>486</v>
+        <v>1684</v>
       </c>
       <c r="C642" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="D642" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F642">
+        <v>3</v>
+      </c>
+      <c r="J642">
         <v>7</v>
       </c>
-      <c r="G642">
-        <v>12</v>
-      </c>
       <c r="K642">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q642">
         <v>1</v>
       </c>
+      <c r="W642" s="2" t="s">
+        <v>2534</v>
+      </c>
       <c r="Y642"/>
+      <c r="AA642" t="s">
+        <v>2535</v>
+      </c>
     </row>
     <row r="643" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A643" s="2" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B643" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C643" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="D643" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F643">
-        <v>4</v>
-      </c>
-      <c r="I643">
-        <v>17</v>
-      </c>
-      <c r="L643">
-        <v>1</v>
-      </c>
-      <c r="M643">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="G643">
+        <v>12</v>
+      </c>
+      <c r="K643">
+        <v>7</v>
       </c>
       <c r="Q643">
         <v>1</v>
@@ -81872,85 +81890,115 @@
     </row>
     <row r="644" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="B644" t="s">
-        <v>218</v>
+        <v>487</v>
       </c>
       <c r="C644" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="D644" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="P644">
-        <v>16</v>
+        <v>293</v>
+      </c>
+      <c r="F644">
+        <v>4</v>
+      </c>
+      <c r="I644">
+        <v>17</v>
+      </c>
+      <c r="L644">
+        <v>1</v>
+      </c>
+      <c r="M644">
+        <v>3</v>
       </c>
       <c r="Q644">
         <v>1</v>
-      </c>
-      <c r="V644">
-        <v>10</v>
       </c>
       <c r="Y644"/>
     </row>
     <row r="645" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="B645" t="s">
-        <v>1670</v>
+        <v>218</v>
       </c>
       <c r="C645" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="D645" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F645">
-        <v>31</v>
-      </c>
-      <c r="H645">
-        <v>1</v>
-      </c>
-      <c r="L645">
-        <v>3</v>
+        <v>286</v>
+      </c>
+      <c r="P645">
+        <v>16</v>
       </c>
       <c r="Q645">
         <v>1</v>
+      </c>
+      <c r="V645">
+        <v>10</v>
       </c>
       <c r="Y645"/>
     </row>
     <row r="646" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A646" s="2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C646" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D646" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F646">
+        <v>31</v>
+      </c>
+      <c r="H646">
+        <v>1</v>
+      </c>
+      <c r="L646">
+        <v>3</v>
+      </c>
+      <c r="Q646">
+        <v>1</v>
+      </c>
+      <c r="Y646"/>
+    </row>
+    <row r="647" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A647" s="2" t="s">
         <v>2544</v>
       </c>
-      <c r="B646" t="s">
+      <c r="B647" t="s">
         <v>2072</v>
       </c>
-      <c r="C646" t="s">
+      <c r="C647" t="s">
         <v>2545</v>
       </c>
-      <c r="D646" s="5" t="s">
+      <c r="D647" s="5" t="s">
         <v>1558</v>
       </c>
-      <c r="F646">
+      <c r="F647">
         <v>22</v>
       </c>
-      <c r="Q646">
-        <v>1</v>
-      </c>
-      <c r="S646">
+      <c r="Q647">
+        <v>1</v>
+      </c>
+      <c r="S647">
         <v>23</v>
       </c>
-      <c r="V646">
+      <c r="V647">
         <v>8</v>
       </c>
-      <c r="W646" s="2" t="s">
+      <c r="W647" s="2" t="s">
         <v>2546</v>
       </c>
-      <c r="Y646"/>
-      <c r="AA646" t="s">
+      <c r="Y647"/>
+      <c r="AA647" t="s">
         <v>2547</v>
       </c>
     </row>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD396EB5-6978-4443-8C3E-E158A1AA0B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA0AEE1-FE42-4185-87F4-3DFEB28EE0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="1815" windowWidth="20775" windowHeight="13035" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -8486,7 +8486,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF9900"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -8496,7 +8496,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF9900"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -8511,7 +8516,77 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
       </font>
     </dxf>
     <dxf>
@@ -8522,6 +8597,51 @@
     <dxf>
       <font>
         <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
       </font>
     </dxf>
     <dxf>
@@ -8546,7 +8666,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF808080"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
       </font>
     </dxf>
     <dxf>
@@ -8556,7 +8691,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -8566,7 +8711,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
       </font>
     </dxf>
     <dxf>
@@ -8576,12 +8736,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF808080"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF65FF65"/>
+        <color rgb="FF7030A0"/>
       </font>
     </dxf>
     <dxf>
@@ -8591,167 +8751,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -36407,63 +36407,63 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C45">
-    <cfRule type="expression" dxfId="57" priority="73">
-      <formula>F2=6</formula>
+    <cfRule type="expression" dxfId="57" priority="77">
+      <formula>F2=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="74">
-      <formula>F2=5</formula>
+    <cfRule type="expression" dxfId="56" priority="76">
+      <formula>F2=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="55" priority="75">
       <formula>F2=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="76">
-      <formula>F2=3</formula>
+    <cfRule type="expression" dxfId="54" priority="74">
+      <formula>F2=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="77">
-      <formula>F2=2</formula>
+    <cfRule type="expression" dxfId="53" priority="73">
+      <formula>F2=6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="78">
       <formula>F2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C54">
-    <cfRule type="expression" dxfId="51" priority="79">
-      <formula>E46=6</formula>
+    <cfRule type="expression" dxfId="51" priority="83">
+      <formula>E46=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="80">
+    <cfRule type="expression" dxfId="50" priority="82">
+      <formula>E46=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="84">
+      <formula>E46=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="81">
+      <formula>E46=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="80">
       <formula>E46=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="81">
-      <formula>E46=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="82">
-      <formula>E46=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="83">
-      <formula>E46=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="84">
-      <formula>E46=1</formula>
+    <cfRule type="expression" dxfId="46" priority="79">
+      <formula>E46=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C67">
-    <cfRule type="expression" dxfId="45" priority="61">
-      <formula>F59=6</formula>
+    <cfRule type="expression" dxfId="45" priority="66">
+      <formula>F59=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="62">
+    <cfRule type="expression" dxfId="44" priority="65">
+      <formula>F59=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="64">
+      <formula>F59=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="63">
+      <formula>F59=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="62">
       <formula>F59=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="63">
-      <formula>F59=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="64">
-      <formula>F59=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="65">
-      <formula>F59=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="66">
-      <formula>F59=1</formula>
+    <cfRule type="expression" dxfId="40" priority="61">
+      <formula>F59=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82 C84">
@@ -36479,111 +36479,111 @@
     <cfRule type="expression" dxfId="36" priority="52">
       <formula>F81=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="53">
+    <cfRule type="expression" dxfId="35" priority="54">
+      <formula>F81=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="53">
       <formula>F81=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="54">
-      <formula>F81=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="33" priority="55">
-      <formula>F84=6</formula>
+    <cfRule type="expression" dxfId="33" priority="57">
+      <formula>F84=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="56">
-      <formula>F84=5</formula>
+    <cfRule type="expression" dxfId="32" priority="59">
+      <formula>F84=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="57">
-      <formula>F84=4</formula>
+    <cfRule type="expression" dxfId="31" priority="60">
+      <formula>F84=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="58">
       <formula>F84=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="59">
-      <formula>F84=2</formula>
+    <cfRule type="expression" dxfId="29" priority="55">
+      <formula>F84=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="60">
-      <formula>F84=1</formula>
+    <cfRule type="expression" dxfId="28" priority="56">
+      <formula>F84=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C115">
-    <cfRule type="expression" dxfId="27" priority="25">
-      <formula>F90=6</formula>
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>F90=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="26" priority="29">
+      <formula>F90=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="30">
+      <formula>F90=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>F90=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>F90=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
-      <formula>F90=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
-      <formula>F90=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="29">
-      <formula>F90=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="30">
-      <formula>F90=1</formula>
+    <cfRule type="expression" dxfId="22" priority="25">
+      <formula>F90=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C117">
     <cfRule type="expression" dxfId="21" priority="19">
       <formula>E116=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>E116=5</formula>
+    <cfRule type="expression" dxfId="20" priority="24">
+      <formula>E116=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>E116=4</formula>
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>E116=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
       <formula>E116=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>E116=2</formula>
+    <cfRule type="expression" dxfId="17" priority="21">
+      <formula>E116=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>E116=1</formula>
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>E116=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:C150">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="15" priority="12">
+      <formula>F148=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="11">
+      <formula>F148=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>F148=6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
-      <formula>F148=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>F148=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="10">
       <formula>F148=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>F148=2</formula>
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>F148=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>F148=1</formula>
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>F148=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>F189=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>F189=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>F189=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>F189=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>F189=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>F189=2</formula>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>F189=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>F189=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>F189=5</formula>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>F189=2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36595,7 +36595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA647"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E378" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -82018,11 +82018,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD216"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F143" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C152" sqref="C152"/>
+      <selection pane="bottomRight" activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -93970,7 +93970,7 @@
         <v>0</v>
       </c>
       <c r="L151" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M151" s="1">
         <v>80</v>
@@ -94045,7 +94045,7 @@
         <v>0</v>
       </c>
       <c r="L152" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M152" s="1">
         <v>80</v>
@@ -94120,7 +94120,7 @@
         <v>0</v>
       </c>
       <c r="L153" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M153" s="1">
         <v>5</v>
@@ -94201,7 +94201,7 @@
         <v>0</v>
       </c>
       <c r="L154" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M154" s="1">
         <v>5</v>
@@ -94282,7 +94282,7 @@
         <v>0</v>
       </c>
       <c r="L155" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M155" s="1">
         <v>80</v>
@@ -98992,7 +98992,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA0AEE1-FE42-4185-87F4-3DFEB28EE0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDBAE02-EA06-422A-A921-2071461B413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="1530" windowWidth="20775" windowHeight="13035" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$215</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$122</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$619</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15517" uniqueCount="2557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15567" uniqueCount="2568">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8245,6 +8245,44 @@
   </si>
   <si>
     <t>C国舰船装备时增加5%回避率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01061</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶摇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01062</t>
+  </si>
+  <si>
+    <t>01063</t>
+  </si>
+  <si>
+    <t>01064</t>
+  </si>
+  <si>
+    <t>01065</t>
+  </si>
+  <si>
+    <t>01066</t>
+  </si>
+  <si>
+    <t>C国生存标靶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01067</t>
+  </si>
+  <si>
+    <t>C国输出标靶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zumwalt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8373,7 +8411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -8446,6 +8484,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -36596,10 +36635,10 @@
   <dimension ref="A1:AA647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E378" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C382" sqref="C382"/>
+      <selection pane="bottomRight" activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -82016,13 +82055,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD216"/>
+  <dimension ref="A1:AD223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F151" sqref="F151"/>
+      <selection pane="bottomRight" activeCell="F162" sqref="F157:F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -94404,203 +94443,226 @@
       </c>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>1604</v>
+      <c r="A157" s="34" t="s">
+        <v>2557</v>
       </c>
       <c r="B157" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="C157" t="s">
-        <v>1603</v>
+        <v>2558</v>
       </c>
       <c r="D157" t="s">
         <v>92</v>
       </c>
-      <c r="E157" s="8">
-        <v>5</v>
+      <c r="E157">
+        <v>120</v>
       </c>
       <c r="F157">
-        <v>20</v>
+        <v>666</v>
       </c>
       <c r="G157">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="H157">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>10</v>
-      </c>
-      <c r="J157">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="J157" s="31">
+        <v>70</v>
       </c>
       <c r="K157">
-        <v>22</v>
-      </c>
-      <c r="L157" s="1">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="L157" s="31">
+        <v>150</v>
       </c>
       <c r="M157">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="N157">
+        <v>80</v>
+      </c>
+      <c r="O157">
+        <v>30</v>
+      </c>
+      <c r="P157">
         <v>3</v>
       </c>
-      <c r="O157">
-        <v>35</v>
-      </c>
-      <c r="P157">
-        <v>1</v>
-      </c>
       <c r="Q157">
         <v>0</v>
       </c>
       <c r="R157" t="s">
-        <v>220</v>
+        <v>2245</v>
+      </c>
+      <c r="S157" t="s">
+        <v>2245</v>
+      </c>
+      <c r="T157" t="s">
+        <v>2311</v>
+      </c>
+      <c r="U157" t="s">
+        <v>2246</v>
       </c>
       <c r="V157">
-        <f t="shared" ref="V157:V188" si="6">SUM(W157:Z157)</f>
-        <v>0</v>
+        <f t="shared" ref="V157:V162" si="6">SUM($W157:$Z157)</f>
+        <v>120</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X157">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AA157" s="2"/>
+      <c r="AD157" t="s">
+        <v>2564</v>
       </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>1605</v>
+      <c r="A158" s="34" t="s">
+        <v>2559</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>1677</v>
       </c>
       <c r="C158" t="s">
-        <v>1562</v>
+        <v>2016</v>
       </c>
       <c r="D158" t="s">
         <v>92</v>
       </c>
-      <c r="E158" s="8">
-        <v>5</v>
+      <c r="E158">
+        <v>120</v>
       </c>
       <c r="F158">
-        <v>20</v>
+        <v>466</v>
       </c>
       <c r="G158">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="H158">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>10</v>
-      </c>
-      <c r="J158">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="J158" s="31">
+        <v>70</v>
       </c>
       <c r="K158">
-        <v>22</v>
-      </c>
-      <c r="L158" s="1">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="L158" s="31">
+        <v>150</v>
       </c>
       <c r="M158">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="N158">
+        <v>80</v>
+      </c>
+      <c r="O158">
+        <v>21</v>
+      </c>
+      <c r="P158">
         <v>3</v>
       </c>
-      <c r="O158">
-        <v>35</v>
-      </c>
-      <c r="P158">
-        <v>1</v>
-      </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158" t="s">
-        <v>220</v>
+        <v>2146</v>
+      </c>
+      <c r="S158" t="s">
+        <v>2146</v>
+      </c>
+      <c r="T158" t="s">
+        <v>2146</v>
+      </c>
+      <c r="U158" t="s">
+        <v>240</v>
       </c>
       <c r="V158">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="W158">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X158">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y158">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AA158" s="2"/>
+      <c r="AD158" t="s">
+        <v>2564</v>
       </c>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>1606</v>
+      <c r="A159" s="34" t="s">
+        <v>2560</v>
       </c>
       <c r="B159" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C159" t="s">
-        <v>1563</v>
+        <v>1581</v>
       </c>
       <c r="D159" t="s">
         <v>92</v>
       </c>
-      <c r="E159" s="8">
-        <v>5</v>
+      <c r="E159">
+        <v>120</v>
       </c>
       <c r="F159">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="G159">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="H159">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>10</v>
-      </c>
-      <c r="J159">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="J159" s="31">
+        <v>70</v>
       </c>
       <c r="K159">
-        <v>22</v>
-      </c>
-      <c r="L159" s="1">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="L159" s="31">
+        <v>150</v>
       </c>
       <c r="M159">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="N159">
+        <v>80</v>
+      </c>
+      <c r="O159">
+        <v>30</v>
+      </c>
+      <c r="P159">
         <v>3</v>
       </c>
-      <c r="O159">
-        <v>35</v>
-      </c>
-      <c r="P159">
-        <v>1</v>
-      </c>
       <c r="Q159">
         <v>0</v>
-      </c>
-      <c r="R159" t="s">
-        <v>220</v>
       </c>
       <c r="V159">
         <f t="shared" si="6"/>
@@ -94618,133 +94680,147 @@
       <c r="Z159">
         <v>0</v>
       </c>
+      <c r="AA159" s="2"/>
+      <c r="AD159" t="s">
+        <v>2564</v>
+      </c>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>1607</v>
+      <c r="A160" s="34" t="s">
+        <v>2561</v>
       </c>
       <c r="B160" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="C160" t="s">
-        <v>1564</v>
+        <v>2244</v>
       </c>
       <c r="D160" t="s">
         <v>92</v>
       </c>
-      <c r="E160" s="8">
-        <v>5</v>
+      <c r="E160">
+        <v>120</v>
       </c>
       <c r="F160">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="G160">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="H160">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>8</v>
-      </c>
-      <c r="J160">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="J160" s="31">
+        <v>70</v>
       </c>
       <c r="K160">
-        <v>22</v>
-      </c>
-      <c r="L160" s="1">
+        <v>0</v>
+      </c>
+      <c r="L160" s="31">
+        <v>150</v>
+      </c>
+      <c r="M160">
+        <v>90</v>
+      </c>
+      <c r="N160">
+        <v>80</v>
+      </c>
+      <c r="O160">
         <v>32</v>
       </c>
-      <c r="M160">
-        <v>17</v>
-      </c>
-      <c r="N160">
+      <c r="P160">
         <v>3</v>
       </c>
-      <c r="O160">
-        <v>35</v>
-      </c>
-      <c r="P160">
-        <v>1</v>
-      </c>
       <c r="Q160">
         <v>0</v>
       </c>
       <c r="R160" t="s">
-        <v>220</v>
+        <v>2245</v>
+      </c>
+      <c r="S160" t="s">
+        <v>2245</v>
+      </c>
+      <c r="T160" t="s">
+        <v>2245</v>
+      </c>
+      <c r="U160" t="s">
+        <v>2246</v>
       </c>
       <c r="V160">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="W160">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X160">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y160">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>1608</v>
+        <v>30</v>
+      </c>
+      <c r="AA160" s="2"/>
+      <c r="AD160" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A161" s="34" t="s">
+        <v>2562</v>
       </c>
       <c r="B161" t="s">
-        <v>204</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1565</v>
+        <v>207</v>
+      </c>
+      <c r="C161" s="2">
+        <v>111</v>
       </c>
       <c r="D161" t="s">
         <v>92</v>
       </c>
-      <c r="E161" s="8">
-        <v>5</v>
+      <c r="E161">
+        <v>120</v>
       </c>
       <c r="F161">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="G161">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="H161">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>8</v>
-      </c>
-      <c r="J161">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="J161" s="31">
+        <v>70</v>
       </c>
       <c r="K161">
-        <v>22</v>
-      </c>
-      <c r="L161" s="1">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="L161" s="31">
+        <v>150</v>
       </c>
       <c r="M161">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="N161">
+        <v>80</v>
+      </c>
+      <c r="O161">
+        <v>30</v>
+      </c>
+      <c r="P161">
         <v>3</v>
       </c>
-      <c r="O161">
-        <v>35</v>
-      </c>
-      <c r="P161">
-        <v>1</v>
-      </c>
       <c r="Q161">
         <v>0</v>
-      </c>
-      <c r="R161" t="s">
-        <v>220</v>
       </c>
       <c r="V161">
         <f t="shared" si="6"/>
@@ -94762,124 +94838,141 @@
       <c r="Z161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>1609</v>
+      <c r="AA161" s="2"/>
+      <c r="AD161" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A162" s="34" t="s">
+        <v>2563</v>
       </c>
       <c r="B162" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C162" t="s">
-        <v>1566</v>
+        <v>2567</v>
       </c>
       <c r="D162" t="s">
         <v>92</v>
       </c>
-      <c r="E162" s="8">
-        <v>8</v>
+      <c r="E162">
+        <v>120</v>
       </c>
       <c r="F162">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H162">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>7</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="J162" s="31">
+        <v>70</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
-      <c r="L162" s="1">
-        <v>36</v>
+      <c r="L162" s="31">
+        <v>150</v>
       </c>
       <c r="M162">
+        <v>90</v>
+      </c>
+      <c r="N162">
+        <v>30</v>
+      </c>
+      <c r="O162">
+        <v>35</v>
+      </c>
+      <c r="P162">
         <v>3</v>
       </c>
-      <c r="N162">
-        <v>3</v>
-      </c>
-      <c r="O162">
-        <v>15</v>
-      </c>
-      <c r="P162">
-        <v>1</v>
-      </c>
       <c r="Q162">
         <v>0</v>
       </c>
       <c r="R162" t="s">
-        <v>232</v>
+        <v>306</v>
+      </c>
+      <c r="S162" t="s">
+        <v>2152</v>
+      </c>
+      <c r="T162" t="s">
+        <v>2152</v>
+      </c>
+      <c r="U162" t="s">
+        <v>2152</v>
       </c>
       <c r="V162">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="W162">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X162">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y162">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>1610</v>
+        <v>8</v>
+      </c>
+      <c r="AA162" s="2"/>
+      <c r="AD162" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A163" s="34" t="s">
+        <v>2565</v>
       </c>
       <c r="B163" t="s">
         <v>207</v>
       </c>
       <c r="C163" t="s">
-        <v>1567</v>
+        <v>2303</v>
       </c>
       <c r="D163" t="s">
         <v>92</v>
       </c>
-      <c r="E163" s="8">
-        <v>50</v>
+      <c r="E163">
+        <v>120</v>
       </c>
       <c r="F163">
+        <v>999</v>
+      </c>
+      <c r="G163">
+        <v>300</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>180</v>
+      </c>
+      <c r="J163" s="31">
+        <v>70</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163" s="31">
+        <v>150</v>
+      </c>
+      <c r="M163">
+        <v>120</v>
+      </c>
+      <c r="N163">
         <v>80</v>
       </c>
-      <c r="G163">
-        <v>130</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="I163">
-        <v>85</v>
-      </c>
-      <c r="J163">
-        <v>60</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163" s="1">
-        <v>65</v>
-      </c>
-      <c r="M163">
+      <c r="O163">
         <v>32</v>
-      </c>
-      <c r="N163">
-        <v>30</v>
-      </c>
-      <c r="O163">
-        <v>21</v>
       </c>
       <c r="P163">
         <v>3</v>
@@ -94887,17 +94980,8 @@
       <c r="Q163">
         <v>0</v>
       </c>
-      <c r="R163" t="s">
-        <v>228</v>
-      </c>
-      <c r="S163" t="s">
-        <v>227</v>
-      </c>
-      <c r="T163" t="s">
-        <v>231</v>
-      </c>
       <c r="V163">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="V163" si="7">SUM(W163:Z163)</f>
         <v>0</v>
       </c>
       <c r="W163">
@@ -94912,52 +94996,56 @@
       <c r="Z163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA163" s="2"/>
+      <c r="AD163" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="B164" t="s">
         <v>204</v>
       </c>
       <c r="C164" t="s">
-        <v>1568</v>
+        <v>1603</v>
       </c>
       <c r="D164" t="s">
         <v>92</v>
       </c>
       <c r="E164" s="8">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F164">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G164">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H164">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I164">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J164">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K164">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L164" s="1">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M164">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N164">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O164">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P164">
         <v>1</v>
@@ -94968,11 +95056,8 @@
       <c r="R164" t="s">
         <v>220</v>
       </c>
-      <c r="S164" t="s">
-        <v>233</v>
-      </c>
       <c r="V164">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="V164:V195" si="8">SUM(W164:Z164)</f>
         <v>0</v>
       </c>
       <c r="W164">
@@ -94988,51 +95073,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="B165" t="s">
         <v>204</v>
       </c>
       <c r="C165" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="D165" t="s">
         <v>92</v>
       </c>
       <c r="E165" s="8">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F165">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G165">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H165">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I165">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J165">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K165">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L165" s="1">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M165">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N165">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O165">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P165">
         <v>1</v>
@@ -95043,11 +95128,8 @@
       <c r="R165" t="s">
         <v>220</v>
       </c>
-      <c r="S165" t="s">
-        <v>233</v>
-      </c>
       <c r="V165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W165">
@@ -95063,51 +95145,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="B166" t="s">
         <v>204</v>
       </c>
       <c r="C166" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="D166" t="s">
         <v>92</v>
       </c>
       <c r="E166" s="8">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F166">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G166">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H166">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I166">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J166">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K166">
+        <v>22</v>
+      </c>
+      <c r="L166" s="1">
+        <v>32</v>
+      </c>
+      <c r="M166">
+        <v>17</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166">
         <v>35</v>
-      </c>
-      <c r="L166" s="1">
-        <v>45</v>
-      </c>
-      <c r="M166">
-        <v>48</v>
-      </c>
-      <c r="N166">
-        <v>8</v>
-      </c>
-      <c r="O166">
-        <v>40</v>
       </c>
       <c r="P166">
         <v>1</v>
@@ -95118,11 +95200,8 @@
       <c r="R166" t="s">
         <v>220</v>
       </c>
-      <c r="S166" t="s">
-        <v>233</v>
-      </c>
       <c r="V166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W166">
@@ -95138,51 +95217,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="B167" t="s">
         <v>204</v>
       </c>
       <c r="C167" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="D167" t="s">
         <v>92</v>
       </c>
       <c r="E167" s="8">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F167">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G167">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H167">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I167">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J167">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K167">
+        <v>22</v>
+      </c>
+      <c r="L167" s="1">
+        <v>32</v>
+      </c>
+      <c r="M167">
+        <v>17</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167">
         <v>35</v>
-      </c>
-      <c r="L167" s="1">
-        <v>45</v>
-      </c>
-      <c r="M167">
-        <v>48</v>
-      </c>
-      <c r="N167">
-        <v>8</v>
-      </c>
-      <c r="O167">
-        <v>40</v>
       </c>
       <c r="P167">
         <v>1</v>
@@ -95193,11 +95272,8 @@
       <c r="R167" t="s">
         <v>220</v>
       </c>
-      <c r="S167" t="s">
-        <v>233</v>
-      </c>
       <c r="V167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W167">
@@ -95213,51 +95289,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="B168" t="s">
         <v>204</v>
       </c>
       <c r="C168" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="D168" t="s">
         <v>92</v>
       </c>
       <c r="E168" s="8">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F168">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G168">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="H168">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I168">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J168">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K168">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L168" s="1">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M168">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N168">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O168">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P168">
         <v>1</v>
@@ -95268,11 +95344,8 @@
       <c r="R168" t="s">
         <v>220</v>
       </c>
-      <c r="S168" t="s">
-        <v>233</v>
-      </c>
       <c r="V168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W168">
@@ -95288,69 +95361,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="B169" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C169" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D169" t="s">
         <v>92</v>
       </c>
       <c r="E169" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F169">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="G169">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I169">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="J169">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K169">
         <v>0</v>
       </c>
       <c r="L169" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M169">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169">
         <v>15</v>
       </c>
-      <c r="O169">
-        <v>18</v>
-      </c>
       <c r="P169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q169">
         <v>0</v>
       </c>
       <c r="R169" t="s">
-        <v>228</v>
-      </c>
-      <c r="S169" t="s">
-        <v>227</v>
-      </c>
-      <c r="T169" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="V169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W169">
@@ -95366,51 +95433,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="B170" t="s">
         <v>207</v>
       </c>
       <c r="C170" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="D170" t="s">
         <v>92</v>
       </c>
       <c r="E170" s="8">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F170">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G170">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J170">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
       <c r="L170" s="1">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M170">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N170">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="O170">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P170">
         <v>3</v>
@@ -95428,7 +95495,7 @@
         <v>231</v>
       </c>
       <c r="V170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W170">
@@ -95444,69 +95511,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="B171" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C171" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="D171" t="s">
         <v>92</v>
       </c>
       <c r="E171" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F171">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G171">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I171">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="J171">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="K171">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L171" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M171">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N171">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O171">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="P171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q171">
         <v>0</v>
       </c>
       <c r="R171" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="S171" t="s">
-        <v>227</v>
-      </c>
-      <c r="T171" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="V171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W171">
@@ -95522,66 +95586,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="B172" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C172" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="D172" t="s">
         <v>92</v>
       </c>
       <c r="E172" s="8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F172">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G172">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H172">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I172">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J172">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K172">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L172" s="1">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M172">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N172">
         <v>9</v>
       </c>
       <c r="O172">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q172">
         <v>0</v>
       </c>
       <c r="R172" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S172" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W172">
@@ -95597,66 +95661,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="B173" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C173" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="D173" t="s">
         <v>92</v>
       </c>
       <c r="E173" s="8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F173">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G173">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H173">
+        <v>48</v>
+      </c>
+      <c r="I173">
+        <v>25</v>
+      </c>
+      <c r="J173">
+        <v>23</v>
+      </c>
+      <c r="K173">
+        <v>35</v>
+      </c>
+      <c r="L173" s="1">
+        <v>45</v>
+      </c>
+      <c r="M173">
+        <v>48</v>
+      </c>
+      <c r="N173">
+        <v>8</v>
+      </c>
+      <c r="O173">
         <v>40</v>
       </c>
-      <c r="I173">
-        <v>14</v>
-      </c>
-      <c r="J173">
-        <v>28</v>
-      </c>
-      <c r="K173">
-        <v>28</v>
-      </c>
-      <c r="L173" s="1">
-        <v>36</v>
-      </c>
-      <c r="M173">
-        <v>30</v>
-      </c>
-      <c r="N173">
-        <v>9</v>
-      </c>
-      <c r="O173">
-        <v>30</v>
-      </c>
       <c r="P173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q173">
         <v>0</v>
       </c>
       <c r="R173" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S173" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W173">
@@ -95672,66 +95736,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="B174" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C174" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="D174" t="s">
         <v>92</v>
       </c>
       <c r="E174" s="8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F174">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G174">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H174">
+        <v>48</v>
+      </c>
+      <c r="I174">
+        <v>25</v>
+      </c>
+      <c r="J174">
+        <v>23</v>
+      </c>
+      <c r="K174">
+        <v>35</v>
+      </c>
+      <c r="L174" s="1">
+        <v>45</v>
+      </c>
+      <c r="M174">
+        <v>48</v>
+      </c>
+      <c r="N174">
+        <v>8</v>
+      </c>
+      <c r="O174">
         <v>40</v>
       </c>
-      <c r="I174">
-        <v>14</v>
-      </c>
-      <c r="J174">
-        <v>28</v>
-      </c>
-      <c r="K174">
-        <v>28</v>
-      </c>
-      <c r="L174" s="1">
-        <v>36</v>
-      </c>
-      <c r="M174">
-        <v>30</v>
-      </c>
-      <c r="N174">
-        <v>9</v>
-      </c>
-      <c r="O174">
-        <v>30</v>
-      </c>
       <c r="P174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S174" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W174">
@@ -95747,52 +95811,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="C175" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="D175" t="s">
         <v>92</v>
       </c>
       <c r="E175" s="8">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F175">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="G175">
+        <v>36</v>
+      </c>
+      <c r="H175">
+        <v>44</v>
+      </c>
+      <c r="I175">
+        <v>23</v>
+      </c>
+      <c r="J175">
+        <v>21</v>
+      </c>
+      <c r="K175">
+        <v>33</v>
+      </c>
+      <c r="L175" s="1">
+        <v>43</v>
+      </c>
+      <c r="M175">
+        <v>44</v>
+      </c>
+      <c r="N175">
+        <v>8</v>
+      </c>
+      <c r="O175">
         <v>40</v>
       </c>
-      <c r="H175">
-        <v>0</v>
-      </c>
-      <c r="I175">
-        <v>60</v>
-      </c>
-      <c r="J175">
-        <v>68</v>
-      </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
-      <c r="L175" s="1">
-        <v>61</v>
-      </c>
-      <c r="M175">
-        <v>39</v>
-      </c>
-      <c r="N175">
-        <v>55</v>
-      </c>
-      <c r="O175">
-        <v>30</v>
-      </c>
       <c r="P175">
         <v>1</v>
       </c>
@@ -95800,34 +95864,31 @@
         <v>0</v>
       </c>
       <c r="R175" t="s">
-        <v>1669</v>
+        <v>220</v>
       </c>
       <c r="S175" t="s">
-        <v>1668</v>
-      </c>
-      <c r="T175" t="s">
-        <v>1667</v>
+        <v>233</v>
       </c>
       <c r="V175">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="W175">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X175">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y175">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z175">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="B176" t="s">
         <v>207</v>
@@ -95839,37 +95900,37 @@
         <v>92</v>
       </c>
       <c r="E176" s="8">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F176">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G176">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J176">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K176">
         <v>0</v>
       </c>
       <c r="L176" s="1">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M176">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N176">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O176">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P176">
         <v>3</v>
@@ -95887,7 +95948,7 @@
         <v>231</v>
       </c>
       <c r="V176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W176">
@@ -95905,7 +95966,7 @@
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="B177" t="s">
         <v>207</v>
@@ -95917,37 +95978,37 @@
         <v>92</v>
       </c>
       <c r="E177" s="8">
+        <v>15</v>
+      </c>
+      <c r="F177">
+        <v>72</v>
+      </c>
+      <c r="G177">
+        <v>124</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>70</v>
+      </c>
+      <c r="J177">
+        <v>66</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177" s="1">
         <v>47</v>
       </c>
-      <c r="F177">
-        <v>78</v>
-      </c>
-      <c r="G177">
-        <v>134</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>80</v>
-      </c>
-      <c r="J177">
-        <v>74</v>
-      </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
-      <c r="L177" s="1">
-        <v>63</v>
-      </c>
       <c r="M177">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N177">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="O177">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P177">
         <v>3</v>
@@ -95965,7 +96026,7 @@
         <v>231</v>
       </c>
       <c r="V177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W177">
@@ -95983,7 +96044,7 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="B178" t="s">
         <v>207</v>
@@ -95995,37 +96056,37 @@
         <v>92</v>
       </c>
       <c r="E178" s="8">
+        <v>15</v>
+      </c>
+      <c r="F178">
+        <v>72</v>
+      </c>
+      <c r="G178">
+        <v>124</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>70</v>
+      </c>
+      <c r="J178">
+        <v>66</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178" s="1">
         <v>47</v>
       </c>
-      <c r="F178">
-        <v>78</v>
-      </c>
-      <c r="G178">
-        <v>134</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178">
-        <v>80</v>
-      </c>
-      <c r="J178">
-        <v>74</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-      <c r="L178" s="1">
-        <v>63</v>
-      </c>
       <c r="M178">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N178">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="O178">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P178">
         <v>3</v>
@@ -96043,7 +96104,7 @@
         <v>231</v>
       </c>
       <c r="V178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W178">
@@ -96061,64 +96122,64 @@
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
       <c r="B179" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C179" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="D179" t="s">
         <v>92</v>
       </c>
       <c r="E179" s="8">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F179">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G179">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H179">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I179">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J179">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K179">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L179" s="1">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M179">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N179">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O179">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q179">
         <v>0</v>
       </c>
       <c r="R179" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="S179" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W179">
@@ -96136,64 +96197,64 @@
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="B180" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C180" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="D180" t="s">
         <v>92</v>
       </c>
       <c r="E180" s="8">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F180">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G180">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H180">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I180">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J180">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K180">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L180" s="1">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M180">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N180">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O180">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q180">
         <v>0</v>
       </c>
       <c r="R180" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="S180" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W180">
@@ -96211,67 +96272,64 @@
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="B181" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C181" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D181" t="s">
         <v>92</v>
       </c>
       <c r="E181" s="8">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F181">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="G181">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I181">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="J181">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L181" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M181">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N181">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O181">
         <v>30</v>
       </c>
       <c r="P181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q181">
         <v>0</v>
       </c>
       <c r="R181" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S181" t="s">
-        <v>227</v>
-      </c>
-      <c r="T181" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="V181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W181">
@@ -96289,142 +96347,145 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="B182" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="C182" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="D182" t="s">
         <v>92</v>
       </c>
       <c r="E182" s="8">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F182">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G182">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>60</v>
+      </c>
+      <c r="J182">
+        <v>68</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182" s="1">
+        <v>61</v>
+      </c>
+      <c r="M182">
+        <v>39</v>
+      </c>
+      <c r="N182">
+        <v>55</v>
+      </c>
+      <c r="O182">
+        <v>30</v>
+      </c>
+      <c r="P182">
+        <v>1</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182" t="s">
+        <v>1669</v>
+      </c>
+      <c r="S182" t="s">
+        <v>1668</v>
+      </c>
+      <c r="T182" t="s">
+        <v>1667</v>
+      </c>
+      <c r="V182">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="W182">
         <v>20</v>
       </c>
-      <c r="I182">
-        <v>36</v>
-      </c>
-      <c r="J182">
-        <v>22</v>
-      </c>
-      <c r="K182">
-        <v>0</v>
-      </c>
-      <c r="L182" s="1">
-        <v>44</v>
-      </c>
-      <c r="M182">
+      <c r="X182">
+        <v>20</v>
+      </c>
+      <c r="Y182">
         <v>30</v>
       </c>
-      <c r="N182">
-        <v>14</v>
-      </c>
-      <c r="O182">
-        <v>32</v>
-      </c>
-      <c r="P182">
-        <v>2</v>
-      </c>
-      <c r="Q182">
-        <v>0</v>
-      </c>
-      <c r="R182" t="s">
-        <v>223</v>
-      </c>
-      <c r="S182" t="s">
-        <v>232</v>
-      </c>
-      <c r="T182" t="s">
-        <v>232</v>
-      </c>
-      <c r="V182">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W182">
-        <v>0</v>
-      </c>
-      <c r="X182">
-        <v>0</v>
-      </c>
-      <c r="Y182">
-        <v>0</v>
-      </c>
       <c r="Z182">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="B183" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C183" t="s">
-        <v>1583</v>
+        <v>1567</v>
       </c>
       <c r="D183" t="s">
         <v>92</v>
       </c>
       <c r="E183" s="8">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F183">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="G183">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>85</v>
+      </c>
+      <c r="J183">
+        <v>76</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183" s="1">
+        <v>66</v>
+      </c>
+      <c r="M183">
+        <v>32</v>
+      </c>
+      <c r="N183">
         <v>24</v>
       </c>
-      <c r="I183">
-        <v>8</v>
-      </c>
-      <c r="J183">
-        <v>12</v>
-      </c>
-      <c r="K183">
+      <c r="O183">
         <v>21</v>
       </c>
-      <c r="L183" s="1">
-        <v>32</v>
-      </c>
-      <c r="M183">
-        <v>30</v>
-      </c>
-      <c r="N183">
-        <v>4</v>
-      </c>
-      <c r="O183">
-        <v>35</v>
-      </c>
       <c r="P183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q183">
         <v>0</v>
       </c>
       <c r="R183" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="S183" t="s">
-        <v>233</v>
+        <v>227</v>
+      </c>
+      <c r="T183" t="s">
+        <v>231</v>
       </c>
       <c r="V183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W183">
@@ -96442,64 +96503,67 @@
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="B184" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C184" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
       <c r="D184" t="s">
         <v>92</v>
       </c>
       <c r="E184" s="8">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F184">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="G184">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="H184">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J184">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184" s="1">
+        <v>63</v>
+      </c>
+      <c r="M184">
+        <v>29</v>
+      </c>
+      <c r="N184">
+        <v>22</v>
+      </c>
+      <c r="O184">
         <v>21</v>
       </c>
-      <c r="L184" s="1">
-        <v>32</v>
-      </c>
-      <c r="M184">
-        <v>30</v>
-      </c>
-      <c r="N184">
-        <v>4</v>
-      </c>
-      <c r="O184">
-        <v>35</v>
-      </c>
       <c r="P184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q184">
         <v>0</v>
       </c>
       <c r="R184" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="S184" t="s">
-        <v>233</v>
+        <v>227</v>
+      </c>
+      <c r="T184" t="s">
+        <v>231</v>
       </c>
       <c r="V184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W184">
@@ -96517,64 +96581,67 @@
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="B185" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C185" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
       <c r="D185" t="s">
         <v>92</v>
       </c>
       <c r="E185" s="8">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F185">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="G185">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="H185">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J185">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185" s="1">
+        <v>63</v>
+      </c>
+      <c r="M185">
+        <v>29</v>
+      </c>
+      <c r="N185">
+        <v>22</v>
+      </c>
+      <c r="O185">
         <v>21</v>
       </c>
-      <c r="L185" s="1">
-        <v>32</v>
-      </c>
-      <c r="M185">
-        <v>30</v>
-      </c>
-      <c r="N185">
-        <v>4</v>
-      </c>
-      <c r="O185">
-        <v>35</v>
-      </c>
       <c r="P185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q185">
         <v>0</v>
       </c>
       <c r="R185" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="S185" t="s">
-        <v>233</v>
+        <v>227</v>
+      </c>
+      <c r="T185" t="s">
+        <v>231</v>
       </c>
       <c r="V185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W185">
@@ -96592,49 +96659,49 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="B186" t="s">
         <v>204</v>
       </c>
       <c r="C186" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D186" t="s">
         <v>92</v>
       </c>
       <c r="E186" s="8">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F186">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G186">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H186">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I186">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J186">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K186">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L186" s="1">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M186">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N186">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O186">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P186">
         <v>1</v>
@@ -96643,13 +96710,13 @@
         <v>0</v>
       </c>
       <c r="R186" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S186" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W186">
@@ -96667,148 +96734,142 @@
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="B187" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C187" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D187" t="s">
         <v>92</v>
       </c>
       <c r="E187" s="8">
+        <v>35</v>
+      </c>
+      <c r="F187">
+        <v>27</v>
+      </c>
+      <c r="G187">
+        <v>42</v>
+      </c>
+      <c r="H187">
+        <v>62</v>
+      </c>
+      <c r="I187">
+        <v>18</v>
+      </c>
+      <c r="J187">
+        <v>35</v>
+      </c>
+      <c r="K187">
+        <v>35</v>
+      </c>
+      <c r="L187" s="1">
         <v>47</v>
       </c>
-      <c r="F187">
-        <v>90</v>
-      </c>
-      <c r="G187">
-        <v>132</v>
-      </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="I187">
-        <v>100</v>
-      </c>
-      <c r="J187">
+      <c r="M187">
+        <v>49</v>
+      </c>
+      <c r="N187">
+        <v>15</v>
+      </c>
+      <c r="O187">
         <v>40</v>
       </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187" s="1">
-        <v>63</v>
-      </c>
-      <c r="M187">
-        <v>38</v>
-      </c>
-      <c r="N187">
-        <v>41</v>
-      </c>
-      <c r="O187">
-        <v>30</v>
-      </c>
       <c r="P187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q187">
         <v>0</v>
       </c>
       <c r="R187" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="S187" t="s">
-        <v>228</v>
-      </c>
-      <c r="T187" t="s">
-        <v>244</v>
-      </c>
-      <c r="U187" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="V187">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="W187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z187">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="B188" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C188" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D188" t="s">
         <v>92</v>
       </c>
       <c r="E188" s="8">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F188">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="G188">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J188">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K188">
         <v>0</v>
       </c>
       <c r="L188" s="1">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M188">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N188">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="O188">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S188" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="T188" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W188">
@@ -96826,64 +96887,67 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="B189" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C189" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D189" t="s">
         <v>92</v>
       </c>
       <c r="E189" s="8">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F189">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G189">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H189">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I189">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J189">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K189">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L189" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M189">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N189">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O189">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="S189" t="s">
-        <v>221</v>
+        <v>232</v>
+      </c>
+      <c r="T189" t="s">
+        <v>232</v>
       </c>
       <c r="V189">
-        <f t="shared" ref="V189:V216" si="7">SUM(W189:Z189)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W189">
@@ -96901,7 +96965,7 @@
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="B190" t="s">
         <v>204</v>
@@ -96913,38 +96977,38 @@
         <v>92</v>
       </c>
       <c r="E190" s="8">
+        <v>5</v>
+      </c>
+      <c r="F190">
+        <v>28</v>
+      </c>
+      <c r="G190">
+        <v>9</v>
+      </c>
+      <c r="H190">
+        <v>24</v>
+      </c>
+      <c r="I190">
+        <v>8</v>
+      </c>
+      <c r="J190">
+        <v>12</v>
+      </c>
+      <c r="K190">
+        <v>21</v>
+      </c>
+      <c r="L190" s="1">
+        <v>32</v>
+      </c>
+      <c r="M190">
+        <v>30</v>
+      </c>
+      <c r="N190">
+        <v>4</v>
+      </c>
+      <c r="O190">
         <v>35</v>
       </c>
-      <c r="F190">
-        <v>27</v>
-      </c>
-      <c r="G190">
-        <v>34</v>
-      </c>
-      <c r="H190">
-        <v>64</v>
-      </c>
-      <c r="I190">
-        <v>21</v>
-      </c>
-      <c r="J190">
-        <v>33</v>
-      </c>
-      <c r="K190">
-        <v>36</v>
-      </c>
-      <c r="L190" s="1">
-        <v>47</v>
-      </c>
-      <c r="M190">
-        <v>60</v>
-      </c>
-      <c r="N190">
-        <v>12</v>
-      </c>
-      <c r="O190">
-        <v>40</v>
-      </c>
       <c r="P190">
         <v>1</v>
       </c>
@@ -96952,13 +97016,13 @@
         <v>0</v>
       </c>
       <c r="R190" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="S190" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="V190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W190">
@@ -96976,49 +97040,49 @@
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="B191" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C191" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D191" t="s">
         <v>92</v>
       </c>
       <c r="E191" s="8">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F191">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H191">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I191">
+        <v>8</v>
+      </c>
+      <c r="J191">
+        <v>12</v>
+      </c>
+      <c r="K191">
         <v>21</v>
       </c>
-      <c r="J191">
-        <v>0</v>
-      </c>
-      <c r="K191">
-        <v>0</v>
-      </c>
       <c r="L191" s="1">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M191">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N191">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O191">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="P191">
         <v>1</v>
@@ -97027,10 +97091,13 @@
         <v>0</v>
       </c>
       <c r="R191" t="s">
-        <v>234</v>
+        <v>220</v>
+      </c>
+      <c r="S191" t="s">
+        <v>233</v>
       </c>
       <c r="V191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W191">
@@ -97048,49 +97115,49 @@
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="B192" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C192" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D192" t="s">
         <v>92</v>
       </c>
       <c r="E192" s="8">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F192">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H192">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I192">
+        <v>8</v>
+      </c>
+      <c r="J192">
+        <v>12</v>
+      </c>
+      <c r="K192">
         <v>21</v>
       </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-      <c r="K192">
-        <v>0</v>
-      </c>
       <c r="L192" s="1">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M192">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N192">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O192">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="P192">
         <v>1</v>
@@ -97099,10 +97166,13 @@
         <v>0</v>
       </c>
       <c r="R192" t="s">
-        <v>234</v>
+        <v>220</v>
+      </c>
+      <c r="S192" t="s">
+        <v>233</v>
       </c>
       <c r="V192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W192">
@@ -97120,49 +97190,49 @@
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="B193" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="C193" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D193" t="s">
         <v>92</v>
       </c>
       <c r="E193" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F193">
+        <v>28</v>
+      </c>
+      <c r="G193">
+        <v>9</v>
+      </c>
+      <c r="H193">
+        <v>24</v>
+      </c>
+      <c r="I193">
+        <v>8</v>
+      </c>
+      <c r="J193">
+        <v>12</v>
+      </c>
+      <c r="K193">
+        <v>21</v>
+      </c>
+      <c r="L193" s="1">
         <v>32</v>
       </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>0</v>
-      </c>
-      <c r="I193">
-        <v>19</v>
-      </c>
-      <c r="J193">
-        <v>14</v>
-      </c>
-      <c r="K193">
-        <v>0</v>
-      </c>
-      <c r="L193" s="1">
-        <v>43</v>
-      </c>
       <c r="M193">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N193">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="O193">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P193">
         <v>1</v>
@@ -97171,26 +97241,23 @@
         <v>0</v>
       </c>
       <c r="R193" t="s">
-        <v>1664</v>
+        <v>220</v>
       </c>
       <c r="S193" t="s">
-        <v>1665</v>
-      </c>
-      <c r="T193" t="s">
-        <v>1666</v>
+        <v>233</v>
       </c>
       <c r="V193">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="W193">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X193">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y193">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z193">
         <v>0</v>
@@ -97198,124 +97265,130 @@
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="B194" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C194" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="D194" t="s">
         <v>92</v>
       </c>
       <c r="E194" s="8">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F194">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="G194">
+        <v>132</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>100</v>
+      </c>
+      <c r="J194">
+        <v>40</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194" s="1">
+        <v>63</v>
+      </c>
+      <c r="M194">
         <v>38</v>
       </c>
-      <c r="H194">
+      <c r="N194">
+        <v>41</v>
+      </c>
+      <c r="O194">
+        <v>30</v>
+      </c>
+      <c r="P194">
+        <v>3</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194" t="s">
+        <v>228</v>
+      </c>
+      <c r="S194" t="s">
+        <v>228</v>
+      </c>
+      <c r="T194" t="s">
+        <v>244</v>
+      </c>
+      <c r="U194" t="s">
+        <v>248</v>
+      </c>
+      <c r="V194">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="I194">
-        <v>26</v>
-      </c>
-      <c r="J194">
-        <v>16</v>
-      </c>
-      <c r="K194">
-        <v>0</v>
-      </c>
-      <c r="L194" s="1">
-        <v>43</v>
-      </c>
-      <c r="M194">
-        <v>33</v>
-      </c>
-      <c r="N194">
-        <v>11</v>
-      </c>
-      <c r="O194">
-        <v>25</v>
-      </c>
-      <c r="P194">
-        <v>2</v>
-      </c>
-      <c r="Q194">
-        <v>0</v>
-      </c>
-      <c r="R194" t="s">
-        <v>224</v>
-      </c>
-      <c r="S194" t="s">
-        <v>232</v>
-      </c>
-      <c r="V194">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="W194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="B195" t="s">
         <v>206</v>
       </c>
       <c r="C195" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="D195" t="s">
         <v>92</v>
       </c>
       <c r="E195" s="8">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F195">
+        <v>54</v>
+      </c>
+      <c r="G195">
+        <v>59</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>51</v>
+      </c>
+      <c r="J195">
+        <v>52</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195" s="1">
+        <v>59</v>
+      </c>
+      <c r="M195">
+        <v>48</v>
+      </c>
+      <c r="N195">
         <v>36</v>
       </c>
-      <c r="G195">
-        <v>38</v>
-      </c>
-      <c r="H195">
-        <v>12</v>
-      </c>
-      <c r="I195">
-        <v>25</v>
-      </c>
-      <c r="J195">
-        <v>16</v>
-      </c>
-      <c r="K195">
-        <v>0</v>
-      </c>
-      <c r="L195" s="1">
-        <v>43</v>
-      </c>
-      <c r="M195">
-        <v>33</v>
-      </c>
-      <c r="N195">
-        <v>11</v>
-      </c>
       <c r="O195">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P195">
         <v>2</v>
@@ -97324,13 +97397,16 @@
         <v>0</v>
       </c>
       <c r="R195" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="S195" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="T195" t="s">
+        <v>233</v>
       </c>
       <c r="V195">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W195">
@@ -97348,64 +97424,64 @@
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="B196" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C196" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="D196" t="s">
         <v>92</v>
       </c>
       <c r="E196" s="8">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F196">
+        <v>27</v>
+      </c>
+      <c r="G196">
+        <v>34</v>
+      </c>
+      <c r="H196">
+        <v>64</v>
+      </c>
+      <c r="I196">
+        <v>21</v>
+      </c>
+      <c r="J196">
+        <v>33</v>
+      </c>
+      <c r="K196">
         <v>36</v>
       </c>
-      <c r="G196">
-        <v>38</v>
-      </c>
-      <c r="H196">
+      <c r="L196" s="1">
+        <v>47</v>
+      </c>
+      <c r="M196">
+        <v>60</v>
+      </c>
+      <c r="N196">
         <v>12</v>
       </c>
-      <c r="I196">
-        <v>25</v>
-      </c>
-      <c r="J196">
-        <v>16</v>
-      </c>
-      <c r="K196">
-        <v>0</v>
-      </c>
-      <c r="L196" s="1">
-        <v>43</v>
-      </c>
-      <c r="M196">
-        <v>33</v>
-      </c>
-      <c r="N196">
-        <v>11</v>
-      </c>
       <c r="O196">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q196">
         <v>0</v>
       </c>
       <c r="R196" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="S196" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="V196">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="V196:V223" si="9">SUM(W196:Z196)</f>
         <v>0</v>
       </c>
       <c r="W196">
@@ -97423,64 +97499,64 @@
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C197" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="D197" t="s">
         <v>92</v>
       </c>
       <c r="E197" s="8">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F197">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G197">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H197">
+        <v>64</v>
+      </c>
+      <c r="I197">
+        <v>21</v>
+      </c>
+      <c r="J197">
+        <v>33</v>
+      </c>
+      <c r="K197">
+        <v>36</v>
+      </c>
+      <c r="L197" s="1">
+        <v>47</v>
+      </c>
+      <c r="M197">
+        <v>60</v>
+      </c>
+      <c r="N197">
         <v>12</v>
       </c>
-      <c r="I197">
-        <v>36</v>
-      </c>
-      <c r="J197">
-        <v>16</v>
-      </c>
-      <c r="K197">
-        <v>0</v>
-      </c>
-      <c r="L197" s="1">
-        <v>43</v>
-      </c>
-      <c r="M197">
-        <v>33</v>
-      </c>
-      <c r="N197">
-        <v>11</v>
-      </c>
       <c r="O197">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q197">
         <v>0</v>
       </c>
       <c r="R197" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="S197" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="V197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W197">
@@ -97498,50 +97574,50 @@
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C198" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="D198" t="s">
         <v>92</v>
       </c>
       <c r="E198" s="8">
+        <v>29</v>
+      </c>
+      <c r="F198">
+        <v>27</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>64</v>
+      </c>
+      <c r="I198">
+        <v>21</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198" s="1">
+        <v>48</v>
+      </c>
+      <c r="M198">
         <v>5</v>
       </c>
-      <c r="F198">
+      <c r="N198">
+        <v>8</v>
+      </c>
+      <c r="O198">
         <v>15</v>
       </c>
-      <c r="G198">
-        <v>11</v>
-      </c>
-      <c r="H198">
-        <v>27</v>
-      </c>
-      <c r="I198">
-        <v>5</v>
-      </c>
-      <c r="J198">
-        <v>12</v>
-      </c>
-      <c r="K198">
-        <v>20</v>
-      </c>
-      <c r="L198" s="1">
-        <v>32</v>
-      </c>
-      <c r="M198">
-        <v>41</v>
-      </c>
-      <c r="N198">
-        <v>5</v>
-      </c>
-      <c r="O198">
-        <v>35</v>
-      </c>
       <c r="P198">
         <v>1</v>
       </c>
@@ -97549,10 +97625,10 @@
         <v>0</v>
       </c>
       <c r="R198" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="V198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W198">
@@ -97570,205 +97646,199 @@
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="B199" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="C199" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="D199" t="s">
         <v>92</v>
       </c>
       <c r="E199" s="8">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F199">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G199">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I199">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J199">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="K199">
         <v>0</v>
       </c>
       <c r="L199" s="1">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M199">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="N199">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="O199">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q199">
         <v>0</v>
       </c>
       <c r="R199" t="s">
-        <v>1669</v>
-      </c>
-      <c r="S199" t="s">
-        <v>1668</v>
-      </c>
-      <c r="T199" t="s">
-        <v>1667</v>
+        <v>234</v>
       </c>
       <c r="V199">
-        <f t="shared" si="7"/>
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="W199">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X199">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y199">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z199">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="B200" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C200" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="D200" t="s">
         <v>92</v>
       </c>
       <c r="E200" s="8">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F200">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>19</v>
+      </c>
+      <c r="J200">
+        <v>14</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200" s="1">
+        <v>43</v>
+      </c>
+      <c r="M200">
+        <v>28</v>
+      </c>
+      <c r="N200">
         <v>39</v>
       </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-      <c r="I200">
-        <v>49</v>
-      </c>
-      <c r="J200">
-        <v>69</v>
-      </c>
-      <c r="K200">
-        <v>0</v>
-      </c>
-      <c r="L200" s="1">
-        <v>54</v>
-      </c>
-      <c r="M200">
-        <v>49</v>
-      </c>
-      <c r="N200">
-        <v>49</v>
-      </c>
       <c r="O200">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q200">
         <v>0</v>
       </c>
       <c r="R200" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="S200" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="T200" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="V200">
-        <f t="shared" si="7"/>
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>42</v>
       </c>
       <c r="W200">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="X200">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Y200">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Z200">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="B201" t="s">
         <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="D201" t="s">
         <v>92</v>
       </c>
       <c r="E201" s="8">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F201">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G201">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H201">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I201">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J201">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K201">
         <v>0</v>
       </c>
       <c r="L201" s="1">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M201">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N201">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O201">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P201">
         <v>2</v>
@@ -97780,76 +97850,70 @@
         <v>224</v>
       </c>
       <c r="S201" t="s">
-        <v>225</v>
-      </c>
-      <c r="T201" t="s">
-        <v>234</v>
-      </c>
-      <c r="U201" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V201">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="W201">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X201">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y201">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z201">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="B202" t="s">
         <v>206</v>
       </c>
       <c r="C202" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="D202" t="s">
         <v>92</v>
       </c>
       <c r="E202" s="8">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F202">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G202">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H202">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I202">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J202">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="K202">
         <v>0</v>
       </c>
       <c r="L202" s="1">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M202">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N202">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O202">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P202">
         <v>2</v>
@@ -97861,76 +97925,70 @@
         <v>224</v>
       </c>
       <c r="S202" t="s">
-        <v>225</v>
-      </c>
-      <c r="T202" t="s">
-        <v>234</v>
-      </c>
-      <c r="U202" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V202">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="W202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z202">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="D203" t="s">
         <v>92</v>
       </c>
       <c r="E203" s="8">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F203">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G203">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H203">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I203">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J203">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K203">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L203" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M203">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N203">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O203">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="P203">
         <v>2</v>
@@ -97939,13 +97997,13 @@
         <v>0</v>
       </c>
       <c r="R203" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="S203" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W203">
@@ -97963,49 +98021,49 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="D204" t="s">
         <v>92</v>
       </c>
       <c r="E204" s="8">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F204">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G204">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H204">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I204">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J204">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K204">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L204" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M204">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N204">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O204">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="P204">
         <v>2</v>
@@ -98014,13 +98072,13 @@
         <v>0</v>
       </c>
       <c r="R204" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="S204" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W204">
@@ -98038,124 +98096,121 @@
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="B205" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="D205" t="s">
         <v>92</v>
       </c>
       <c r="E205" s="8">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F205">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G205">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H205">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I205">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J205">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K205">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L205" s="1">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M205">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N205">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O205">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q205">
         <v>0</v>
       </c>
       <c r="R205" t="s">
-        <v>224</v>
-      </c>
-      <c r="S205" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="V205">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="W205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z205">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="C206" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="D206" t="s">
         <v>92</v>
       </c>
       <c r="E206" s="8">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F206">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G206">
+        <v>39</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>49</v>
+      </c>
+      <c r="J206">
+        <v>69</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206" s="1">
+        <v>54</v>
+      </c>
+      <c r="M206">
         <v>47</v>
       </c>
-      <c r="H206">
-        <v>20</v>
-      </c>
-      <c r="I206">
-        <v>32</v>
-      </c>
-      <c r="J206">
-        <v>16</v>
-      </c>
-      <c r="K206">
-        <v>0</v>
-      </c>
-      <c r="L206" s="1">
-        <v>45</v>
-      </c>
-      <c r="M206">
-        <v>33</v>
-      </c>
       <c r="N206">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="O206">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P206">
         <v>2</v>
@@ -98164,73 +98219,76 @@
         <v>0</v>
       </c>
       <c r="R206" t="s">
-        <v>224</v>
+        <v>1669</v>
       </c>
       <c r="S206" t="s">
-        <v>232</v>
+        <v>1668</v>
+      </c>
+      <c r="T206" t="s">
+        <v>1667</v>
       </c>
       <c r="V206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="W206">
+        <v>21</v>
+      </c>
+      <c r="X206">
+        <v>21</v>
+      </c>
+      <c r="Y206">
+        <v>21</v>
+      </c>
+      <c r="Z206">
         <v>12</v>
-      </c>
-      <c r="W206">
-        <v>3</v>
-      </c>
-      <c r="X206">
-        <v>3</v>
-      </c>
-      <c r="Y206">
-        <v>3</v>
-      </c>
-      <c r="Z206">
-        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="C207" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="D207" t="s">
         <v>92</v>
       </c>
       <c r="E207" s="8">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F207">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G207">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H207">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J207">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="K207">
         <v>0</v>
       </c>
       <c r="L207" s="1">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M207">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N207">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="O207">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P207">
         <v>2</v>
@@ -98239,232 +98297,241 @@
         <v>0</v>
       </c>
       <c r="R207" t="s">
-        <v>224</v>
+        <v>1669</v>
       </c>
       <c r="S207" t="s">
-        <v>232</v>
+        <v>1668</v>
+      </c>
+      <c r="T207" t="s">
+        <v>1667</v>
       </c>
       <c r="V207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="W207">
+        <v>21</v>
+      </c>
+      <c r="X207">
+        <v>21</v>
+      </c>
+      <c r="Y207">
+        <v>21</v>
+      </c>
+      <c r="Z207">
         <v>12</v>
-      </c>
-      <c r="W207">
-        <v>3</v>
-      </c>
-      <c r="X207">
-        <v>3</v>
-      </c>
-      <c r="Y207">
-        <v>3</v>
-      </c>
-      <c r="Z207">
-        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="B208" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="D208" t="s">
         <v>92</v>
       </c>
       <c r="E208" s="8">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F208">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G208">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="H208">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I208">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="J208">
+        <v>64</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208" s="1">
+        <v>59</v>
+      </c>
+      <c r="M208">
+        <v>45</v>
+      </c>
+      <c r="N208">
+        <v>33</v>
+      </c>
+      <c r="O208">
+        <v>30</v>
+      </c>
+      <c r="P208">
+        <v>2</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208" t="s">
+        <v>224</v>
+      </c>
+      <c r="S208" t="s">
+        <v>225</v>
+      </c>
+      <c r="T208" t="s">
+        <v>234</v>
+      </c>
+      <c r="U208" t="s">
+        <v>244</v>
+      </c>
+      <c r="V208">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="K208">
-        <v>38</v>
-      </c>
-      <c r="L208" s="1">
-        <v>37</v>
-      </c>
-      <c r="M208">
-        <v>40</v>
-      </c>
-      <c r="N208">
-        <v>12</v>
-      </c>
-      <c r="O208">
-        <v>35</v>
-      </c>
-      <c r="P208">
-        <v>1</v>
-      </c>
-      <c r="Q208">
-        <v>0</v>
-      </c>
-      <c r="R208" t="s">
-        <v>220</v>
-      </c>
-      <c r="S208" t="s">
-        <v>233</v>
-      </c>
-      <c r="T208" t="s">
-        <v>262</v>
-      </c>
-      <c r="V208">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="W208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>1578</v>
+        <v>1594</v>
       </c>
       <c r="D209" t="s">
         <v>92</v>
       </c>
       <c r="E209" s="8">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F209">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G209">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I209">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J209">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
       <c r="L209" s="1">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M209">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N209">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O209">
         <v>30</v>
       </c>
       <c r="P209">
+        <v>2</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209" t="s">
+        <v>224</v>
+      </c>
+      <c r="S209" t="s">
+        <v>225</v>
+      </c>
+      <c r="T209" t="s">
+        <v>234</v>
+      </c>
+      <c r="U209" t="s">
+        <v>244</v>
+      </c>
+      <c r="V209">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="W209">
         <v>3</v>
       </c>
-      <c r="Q209">
-        <v>0</v>
-      </c>
-      <c r="R209" t="s">
-        <v>227</v>
-      </c>
-      <c r="S209" t="s">
-        <v>227</v>
-      </c>
-      <c r="T209" t="s">
-        <v>231</v>
-      </c>
-      <c r="V209">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W209">
-        <v>0</v>
-      </c>
       <c r="X209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="B210" t="s">
         <v>204</v>
       </c>
       <c r="C210" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="D210" t="s">
         <v>92</v>
       </c>
       <c r="E210" s="8">
+        <v>35</v>
+      </c>
+      <c r="F210">
         <v>15</v>
       </c>
-      <c r="F210">
-        <v>26</v>
-      </c>
       <c r="G210">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H210">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I210">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J210">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K210">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L210" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M210">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N210">
         <v>12</v>
       </c>
       <c r="O210">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -98475,11 +98542,8 @@
       <c r="S210" t="s">
         <v>233</v>
       </c>
-      <c r="T210" t="s">
-        <v>262</v>
-      </c>
       <c r="V210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W210">
@@ -98497,49 +98561,49 @@
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="B211" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C211" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D211" t="s">
         <v>92</v>
       </c>
       <c r="E211" s="8">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F211">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G211">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H211">
+        <v>69</v>
+      </c>
+      <c r="I211">
+        <v>19</v>
+      </c>
+      <c r="J211">
+        <v>39</v>
+      </c>
+      <c r="K211">
+        <v>35</v>
+      </c>
+      <c r="L211" s="1">
+        <v>47</v>
+      </c>
+      <c r="M211">
+        <v>60</v>
+      </c>
+      <c r="N211">
         <v>12</v>
       </c>
-      <c r="I211">
-        <v>15</v>
-      </c>
-      <c r="J211">
-        <v>54</v>
-      </c>
-      <c r="K211">
-        <v>0</v>
-      </c>
-      <c r="L211" s="1">
-        <v>57</v>
-      </c>
-      <c r="M211">
-        <v>58</v>
-      </c>
-      <c r="N211">
-        <v>33</v>
-      </c>
       <c r="O211">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P211">
         <v>2</v>
@@ -98548,79 +98612,73 @@
         <v>0</v>
       </c>
       <c r="R211" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="S211" t="s">
-        <v>225</v>
-      </c>
-      <c r="T211" t="s">
-        <v>234</v>
-      </c>
-      <c r="U211" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="V211">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="W211">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X211">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y211">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z211">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="B212" t="s">
         <v>206</v>
       </c>
       <c r="C212" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D212" t="s">
         <v>92</v>
       </c>
       <c r="E212" s="8">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F212">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G212">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H212">
+        <v>24</v>
+      </c>
+      <c r="I212">
+        <v>34</v>
+      </c>
+      <c r="J212">
+        <v>18</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212" s="1">
+        <v>47</v>
+      </c>
+      <c r="M212">
+        <v>33</v>
+      </c>
+      <c r="N212">
         <v>12</v>
       </c>
-      <c r="I212">
-        <v>15</v>
-      </c>
-      <c r="J212">
-        <v>54</v>
-      </c>
-      <c r="K212">
-        <v>0</v>
-      </c>
-      <c r="L212" s="1">
-        <v>57</v>
-      </c>
-      <c r="M212">
-        <v>53</v>
-      </c>
-      <c r="N212">
-        <v>33</v>
-      </c>
       <c r="O212">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P212">
         <v>2</v>
@@ -98632,16 +98690,10 @@
         <v>224</v>
       </c>
       <c r="S212" t="s">
-        <v>225</v>
-      </c>
-      <c r="T212" t="s">
-        <v>234</v>
-      </c>
-      <c r="U212" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W212">
@@ -98659,49 +98711,49 @@
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="B213" t="s">
         <v>206</v>
       </c>
       <c r="C213" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D213" t="s">
         <v>92</v>
       </c>
       <c r="E213" s="8">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F213">
+        <v>58</v>
+      </c>
+      <c r="G213">
+        <v>47</v>
+      </c>
+      <c r="H213">
+        <v>20</v>
+      </c>
+      <c r="I213">
         <v>32</v>
       </c>
-      <c r="G213">
-        <v>41</v>
-      </c>
-      <c r="H213">
-        <v>12</v>
-      </c>
-      <c r="I213">
-        <v>15</v>
-      </c>
       <c r="J213">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="K213">
         <v>0</v>
       </c>
       <c r="L213" s="1">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M213">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N213">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O213">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P213">
         <v>2</v>
@@ -98713,16 +98765,10 @@
         <v>224</v>
       </c>
       <c r="S213" t="s">
-        <v>225</v>
-      </c>
-      <c r="T213" t="s">
-        <v>234</v>
-      </c>
-      <c r="U213" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="W213">
@@ -98740,127 +98786,124 @@
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="B214" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C214" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D214" t="s">
         <v>92</v>
       </c>
       <c r="E214" s="8">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F214">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G214">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H214">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I214">
+        <v>32</v>
+      </c>
+      <c r="J214">
+        <v>16</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214" s="1">
+        <v>45</v>
+      </c>
+      <c r="M214">
+        <v>33</v>
+      </c>
+      <c r="N214">
+        <v>11</v>
+      </c>
+      <c r="O214">
+        <v>25</v>
+      </c>
+      <c r="P214">
+        <v>2</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214" t="s">
+        <v>224</v>
+      </c>
+      <c r="S214" t="s">
+        <v>232</v>
+      </c>
+      <c r="V214">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="J214">
-        <v>32</v>
-      </c>
-      <c r="K214">
-        <v>15</v>
-      </c>
-      <c r="L214" s="1">
-        <v>47</v>
-      </c>
-      <c r="M214">
-        <v>60</v>
-      </c>
-      <c r="N214">
-        <v>12</v>
-      </c>
-      <c r="O214">
-        <v>40</v>
-      </c>
-      <c r="P214">
-        <v>1</v>
-      </c>
-      <c r="Q214">
-        <v>0</v>
-      </c>
-      <c r="R214" t="s">
-        <v>221</v>
-      </c>
-      <c r="S214" t="s">
-        <v>234</v>
-      </c>
-      <c r="T214" t="s">
-        <v>261</v>
-      </c>
-      <c r="V214">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="W214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z214">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="B215" t="s">
         <v>204</v>
       </c>
       <c r="C215" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D215" t="s">
         <v>92</v>
       </c>
       <c r="E215" s="8">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F215">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G215">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H215">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I215">
+        <v>8</v>
+      </c>
+      <c r="J215">
         <v>12</v>
       </c>
-      <c r="J215">
-        <v>32</v>
-      </c>
       <c r="K215">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="L215" s="1">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M215">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N215">
         <v>12</v>
       </c>
       <c r="O215">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P215">
         <v>1</v>
@@ -98869,16 +98912,16 @@
         <v>0</v>
       </c>
       <c r="R215" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S215" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T215" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="V215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W215">
@@ -98896,86 +98939,641 @@
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="B216" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C216" t="s">
-        <v>1602</v>
+        <v>1578</v>
       </c>
       <c r="D216" t="s">
         <v>92</v>
       </c>
       <c r="E216" s="8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F216">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="G216">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="H216">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="J216">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K216">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L216" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M216">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N216">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O216">
         <v>30</v>
       </c>
       <c r="P216">
+        <v>3</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216" t="s">
+        <v>227</v>
+      </c>
+      <c r="S216" t="s">
+        <v>227</v>
+      </c>
+      <c r="T216" t="s">
+        <v>231</v>
+      </c>
+      <c r="V216">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B217" t="s">
+        <v>204</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D217" t="s">
+        <v>92</v>
+      </c>
+      <c r="E217" s="8">
+        <v>15</v>
+      </c>
+      <c r="F217">
+        <v>26</v>
+      </c>
+      <c r="G217">
+        <v>13</v>
+      </c>
+      <c r="H217">
+        <v>36</v>
+      </c>
+      <c r="I217">
+        <v>8</v>
+      </c>
+      <c r="J217">
+        <v>12</v>
+      </c>
+      <c r="K217">
+        <v>40</v>
+      </c>
+      <c r="L217" s="1">
+        <v>37</v>
+      </c>
+      <c r="M217">
+        <v>40</v>
+      </c>
+      <c r="N217">
+        <v>12</v>
+      </c>
+      <c r="O217">
+        <v>35</v>
+      </c>
+      <c r="P217">
+        <v>1</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217" t="s">
+        <v>220</v>
+      </c>
+      <c r="S217" t="s">
+        <v>233</v>
+      </c>
+      <c r="T217" t="s">
+        <v>262</v>
+      </c>
+      <c r="V217">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B218" t="s">
+        <v>206</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D218" t="s">
+        <v>92</v>
+      </c>
+      <c r="E218" s="8">
+        <v>41</v>
+      </c>
+      <c r="F218">
+        <v>34</v>
+      </c>
+      <c r="G218">
+        <v>41</v>
+      </c>
+      <c r="H218">
+        <v>12</v>
+      </c>
+      <c r="I218">
+        <v>15</v>
+      </c>
+      <c r="J218">
+        <v>54</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218" s="1">
+        <v>57</v>
+      </c>
+      <c r="M218">
+        <v>58</v>
+      </c>
+      <c r="N218">
+        <v>33</v>
+      </c>
+      <c r="O218">
+        <v>30</v>
+      </c>
+      <c r="P218">
         <v>2</v>
       </c>
-      <c r="Q216">
-        <v>0</v>
-      </c>
-      <c r="R216" t="s">
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218" t="s">
+        <v>224</v>
+      </c>
+      <c r="S218" t="s">
         <v>225</v>
       </c>
-      <c r="S216" t="s">
+      <c r="T218" t="s">
+        <v>234</v>
+      </c>
+      <c r="U218" t="s">
+        <v>244</v>
+      </c>
+      <c r="V218">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="W218">
+        <v>3</v>
+      </c>
+      <c r="X218">
+        <v>3</v>
+      </c>
+      <c r="Y218">
+        <v>3</v>
+      </c>
+      <c r="Z218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B219" t="s">
+        <v>206</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D219" t="s">
+        <v>92</v>
+      </c>
+      <c r="E219" s="8">
+        <v>40</v>
+      </c>
+      <c r="F219">
+        <v>32</v>
+      </c>
+      <c r="G219">
+        <v>41</v>
+      </c>
+      <c r="H219">
+        <v>12</v>
+      </c>
+      <c r="I219">
+        <v>15</v>
+      </c>
+      <c r="J219">
+        <v>54</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219" s="1">
+        <v>57</v>
+      </c>
+      <c r="M219">
+        <v>53</v>
+      </c>
+      <c r="N219">
+        <v>33</v>
+      </c>
+      <c r="O219">
+        <v>30</v>
+      </c>
+      <c r="P219">
+        <v>2</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219" t="s">
+        <v>224</v>
+      </c>
+      <c r="S219" t="s">
+        <v>225</v>
+      </c>
+      <c r="T219" t="s">
+        <v>234</v>
+      </c>
+      <c r="U219" t="s">
+        <v>244</v>
+      </c>
+      <c r="V219">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="W219">
+        <v>3</v>
+      </c>
+      <c r="X219">
+        <v>3</v>
+      </c>
+      <c r="Y219">
+        <v>3</v>
+      </c>
+      <c r="Z219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B220" t="s">
+        <v>206</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D220" t="s">
+        <v>92</v>
+      </c>
+      <c r="E220" s="8">
+        <v>40</v>
+      </c>
+      <c r="F220">
+        <v>32</v>
+      </c>
+      <c r="G220">
+        <v>41</v>
+      </c>
+      <c r="H220">
+        <v>12</v>
+      </c>
+      <c r="I220">
+        <v>15</v>
+      </c>
+      <c r="J220">
+        <v>54</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220" s="1">
+        <v>57</v>
+      </c>
+      <c r="M220">
+        <v>53</v>
+      </c>
+      <c r="N220">
+        <v>33</v>
+      </c>
+      <c r="O220">
+        <v>30</v>
+      </c>
+      <c r="P220">
+        <v>2</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220" t="s">
+        <v>224</v>
+      </c>
+      <c r="S220" t="s">
+        <v>225</v>
+      </c>
+      <c r="T220" t="s">
+        <v>234</v>
+      </c>
+      <c r="U220" t="s">
+        <v>244</v>
+      </c>
+      <c r="V220">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="W220">
+        <v>3</v>
+      </c>
+      <c r="X220">
+        <v>3</v>
+      </c>
+      <c r="Y220">
+        <v>3</v>
+      </c>
+      <c r="Z220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B221" t="s">
+        <v>204</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D221" t="s">
+        <v>92</v>
+      </c>
+      <c r="E221" s="8">
+        <v>35</v>
+      </c>
+      <c r="F221">
+        <v>35</v>
+      </c>
+      <c r="G221">
+        <v>24</v>
+      </c>
+      <c r="H221">
+        <v>64</v>
+      </c>
+      <c r="I221">
+        <v>12</v>
+      </c>
+      <c r="J221">
+        <v>32</v>
+      </c>
+      <c r="K221">
+        <v>15</v>
+      </c>
+      <c r="L221" s="1">
+        <v>47</v>
+      </c>
+      <c r="M221">
+        <v>60</v>
+      </c>
+      <c r="N221">
+        <v>12</v>
+      </c>
+      <c r="O221">
+        <v>40</v>
+      </c>
+      <c r="P221">
+        <v>1</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221" t="s">
+        <v>221</v>
+      </c>
+      <c r="S221" t="s">
+        <v>234</v>
+      </c>
+      <c r="T221" t="s">
+        <v>261</v>
+      </c>
+      <c r="V221">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B222" t="s">
+        <v>204</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D222" t="s">
+        <v>92</v>
+      </c>
+      <c r="E222" s="8">
+        <v>35</v>
+      </c>
+      <c r="F222">
+        <v>35</v>
+      </c>
+      <c r="G222">
+        <v>24</v>
+      </c>
+      <c r="H222">
+        <v>64</v>
+      </c>
+      <c r="I222">
+        <v>12</v>
+      </c>
+      <c r="J222">
+        <v>32</v>
+      </c>
+      <c r="K222">
+        <v>15</v>
+      </c>
+      <c r="L222" s="1">
+        <v>47</v>
+      </c>
+      <c r="M222">
+        <v>60</v>
+      </c>
+      <c r="N222">
+        <v>12</v>
+      </c>
+      <c r="O222">
+        <v>40</v>
+      </c>
+      <c r="P222">
+        <v>1</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222" t="s">
+        <v>221</v>
+      </c>
+      <c r="S222" t="s">
+        <v>234</v>
+      </c>
+      <c r="T222" t="s">
+        <v>261</v>
+      </c>
+      <c r="V222">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B223" t="s">
+        <v>205</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D223" t="s">
+        <v>92</v>
+      </c>
+      <c r="E223" s="8">
+        <v>32</v>
+      </c>
+      <c r="F223">
+        <v>50</v>
+      </c>
+      <c r="G223">
+        <v>43</v>
+      </c>
+      <c r="H223">
+        <v>66</v>
+      </c>
+      <c r="I223">
+        <v>28</v>
+      </c>
+      <c r="J223">
+        <v>28</v>
+      </c>
+      <c r="K223">
+        <v>16</v>
+      </c>
+      <c r="L223" s="1">
+        <v>51</v>
+      </c>
+      <c r="M223">
+        <v>48</v>
+      </c>
+      <c r="N223">
+        <v>20</v>
+      </c>
+      <c r="O223">
+        <v>30</v>
+      </c>
+      <c r="P223">
+        <v>2</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223" t="s">
+        <v>225</v>
+      </c>
+      <c r="S223" t="s">
         <v>233</v>
       </c>
-      <c r="T216" t="s">
+      <c r="T223" t="s">
         <v>261</v>
       </c>
-      <c r="V216">
-        <f t="shared" si="7"/>
+      <c r="V223">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="W216">
+      <c r="W223">
         <v>2</v>
       </c>
-      <c r="X216">
+      <c r="X223">
         <v>2</v>
       </c>
-      <c r="Y216">
+      <c r="Y223">
         <v>2</v>
       </c>
-      <c r="Z216">
+      <c r="Z223">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC208" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC216">
-      <sortCondition ref="A1:A208"/>
+  <autoFilter ref="A1:AC215" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC223">
+      <sortCondition ref="A1:A215"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -98989,10 +99587,10 @@
   <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -102221,57 +102819,57 @@
       <c r="E1" s="3" t="s">
         <v>2134</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>2125</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="35" t="s">
         <v>2126</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="37" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="38" t="s">
         <v>2127</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="34" t="s">
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>2128</v>
       </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38" t="s">
         <v>2129</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="34" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="35" t="s">
         <v>2130</v>
       </c>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="37"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDC9E3E-6FBE-4C6E-B045-6BC3B5AA2593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14F1641-206C-462B-9032-533E9CD304FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="1575" windowWidth="20775" windowHeight="13035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'舰船数据-改造'!$A$1:$AC$189</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'舰船数据-深海'!$A$1:$AC$215</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'舰船数据-未改'!$A$1:$AC$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$619</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'装备数据-常规'!$A$1:$AA$647</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'装备数据-深海'!$A$1:$X$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15629" uniqueCount="2588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15743" uniqueCount="2650">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8023,337 +8023,542 @@
     <t>E-1预警机</t>
   </si>
   <si>
+    <t>增加5%命中率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01056</t>
+  </si>
+  <si>
+    <t>航母标靶舰队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01057</t>
+  </si>
+  <si>
+    <t>01058</t>
+  </si>
+  <si>
+    <t>01059</t>
+  </si>
+  <si>
+    <t>大型连装炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G国双联406毫米炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tirpitz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hindenburg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01060</t>
+  </si>
+  <si>
+    <t>11016</t>
+  </si>
+  <si>
+    <t>11017</t>
+  </si>
+  <si>
+    <t>实验长炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验超长炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备时增加10%命中率，降低敌方航空战阶段15%命中率</t>
+  </si>
+  <si>
+    <t>0.1,-0.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10666</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联反潜鱼雷发射器（MK46）</t>
+  </si>
+  <si>
+    <t>10667</t>
+  </si>
+  <si>
+    <t>53-61鱼雷（潜射）</t>
+  </si>
+  <si>
+    <t>增加10%命中率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10668</t>
+  </si>
+  <si>
+    <t>四联533毫米鱼雷（ur高速）</t>
+  </si>
+  <si>
+    <t>668</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼雷战和夜战阶段提高15%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10669</t>
+  </si>
+  <si>
+    <t>S-2反潜机</t>
+  </si>
+  <si>
+    <t>669</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加5%命中率，先制反潜阶段额外增加5%命中率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10670</t>
+  </si>
+  <si>
+    <t>红旗61防空导弹</t>
+  </si>
+  <si>
+    <t>670</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰潭装备时增加25%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10671</t>
+  </si>
+  <si>
+    <t>7231发射系统（ZL-1）</t>
+  </si>
+  <si>
+    <t>671</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰潭装备时提高10%回避率，降低敌方航空战阶段5%命中率</t>
+  </si>
+  <si>
+    <t>10672</t>
+  </si>
+  <si>
+    <t>五连鱼雷发射器（53-56）</t>
+  </si>
+  <si>
+    <t>10673</t>
+  </si>
+  <si>
+    <t>РБУ-6000火箭深弹</t>
+  </si>
+  <si>
+    <t>10674</t>
+  </si>
+  <si>
+    <t>XF2Y水上战斗机</t>
+  </si>
+  <si>
+    <t>10675</t>
+  </si>
+  <si>
+    <t>18英寸四联主炮</t>
+  </si>
+  <si>
+    <t>10676</t>
+  </si>
+  <si>
+    <t>鹰击反舰导弹</t>
+  </si>
+  <si>
+    <t>676</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加10%护甲穿透（同类效果只生效一个），C国舰船装备时提高5%伤害和10%暴击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞瓦斯托波尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰潭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞍山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神鹰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝亚恩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10661</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76A式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>661</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C国舰船装备时增加5%回避率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01061</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶摇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01062</t>
+  </si>
+  <si>
+    <t>01063</t>
+  </si>
+  <si>
+    <t>01064</t>
+  </si>
+  <si>
+    <t>01065</t>
+  </si>
+  <si>
+    <t>01066</t>
+  </si>
+  <si>
+    <t>C国生存标靶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zumwalt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>景云改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01070</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊利诺伊</t>
+  </si>
+  <si>
+    <t>iowa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布勃诺夫方案</t>
+  </si>
+  <si>
+    <t>骏河</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途岛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵敏</t>
+  </si>
+  <si>
+    <t>高波</t>
+  </si>
+  <si>
+    <t>赛尔弗里吉</t>
+  </si>
+  <si>
+    <t>克拉克斯顿</t>
+  </si>
+  <si>
+    <t>U-2540</t>
+  </si>
+  <si>
+    <t>克劳塞维茨</t>
+  </si>
+  <si>
+    <t>M-296</t>
+  </si>
+  <si>
+    <t>伊-25</t>
+  </si>
+  <si>
+    <t>BM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石勒苏益格-荷尔施泰因</t>
+  </si>
+  <si>
+    <t>威武</t>
+  </si>
+  <si>
+    <t>007,012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10677</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅农反潜迫击炮</t>
+  </si>
+  <si>
+    <t>深投</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六连61厘米鱼雷发射器（93M3）</t>
+  </si>
+  <si>
+    <t>10679</t>
+  </si>
+  <si>
+    <t>布莱克本B-88</t>
+  </si>
+  <si>
+    <t>10680</t>
+  </si>
+  <si>
+    <t>Бе-6水上飞机（轰炸）</t>
+  </si>
+  <si>
+    <t>10681</t>
+  </si>
+  <si>
+    <t>军旗IV攻击机</t>
+  </si>
+  <si>
+    <t>增加10%暴击率</t>
+  </si>
+  <si>
+    <t>10682</t>
+  </si>
+  <si>
+    <t>MK-112发射器（鱼叉反舰导弹）</t>
+  </si>
+  <si>
+    <t>10683</t>
+  </si>
+  <si>
+    <t>F4U（蝙蝠制导炸弹）</t>
+  </si>
+  <si>
+    <t>10684</t>
+  </si>
+  <si>
+    <t>NC.1071（L50）</t>
+  </si>
+  <si>
     <t>006</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增加5%命中率</t>
+    <t>航空战阶段增加50%鱼雷机攻击威力</t>
+  </si>
+  <si>
+    <t>10685</t>
+  </si>
+  <si>
+    <t>TB2D-1（MK25）</t>
+  </si>
+  <si>
+    <t>航空战阶段增加40%鱼雷机攻击威力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01055</t>
+    <t>10686</t>
+  </si>
+  <si>
+    <t>天河攻击机（KI-148）</t>
+  </si>
+  <si>
+    <t>686</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01056</t>
-  </si>
-  <si>
-    <t>航母标靶舰队</t>
+    <t>增加25%护甲穿透（同类效果只生效一个），J国舰船装备时增加20%攻击威力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01057</t>
-  </si>
-  <si>
-    <t>01058</t>
-  </si>
-  <si>
-    <t>01059</t>
-  </si>
-  <si>
-    <t>大型连装炮</t>
+    <t>10687</t>
+  </si>
+  <si>
+    <t>AK-230（MR-104）</t>
+  </si>
+  <si>
+    <t>687</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>G国双联406毫米炮</t>
+    <t>S国舰船装备时提高5%回避率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tirpitz</t>
+    <t>10688</t>
+  </si>
+  <si>
+    <t>V600防空导弹</t>
+  </si>
+  <si>
+    <t>10689</t>
+  </si>
+  <si>
+    <t>M1“波浪”防空系统</t>
+  </si>
+  <si>
+    <t>10690</t>
+  </si>
+  <si>
+    <t>A-1H攻击机</t>
+  </si>
+  <si>
+    <t>690</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hindenburg</t>
+    <t>中途岛装备时增加10%攻击威力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01060</t>
-  </si>
-  <si>
-    <t>11016</t>
-  </si>
-  <si>
-    <t>11017</t>
-  </si>
-  <si>
-    <t>实验长炮</t>
+    <t>10691</t>
+  </si>
+  <si>
+    <t>德国双联480毫米主炮</t>
+  </si>
+  <si>
+    <t>10692</t>
+  </si>
+  <si>
+    <t>P-35反舰导弹（1134）</t>
+  </si>
+  <si>
+    <t>692</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>实验超长炮</t>
+    <t>增加10%护甲穿透(同类弹药效果只生效一个)，塞瓦斯托波尔装备时提高5%护甲穿透</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PLAN4</t>
+    <t>10693</t>
+  </si>
+  <si>
+    <t>KT-35发射器</t>
+  </si>
+  <si>
+    <t>693</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>装备时增加10%命中率，降低敌方航空战阶段15%命中率</t>
-  </si>
-  <si>
-    <t>006,012</t>
+    <t>塞瓦斯托波尔装备时提10%回避率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.1,-0.15</t>
+    <t>10694</t>
+  </si>
+  <si>
+    <t>Yak-38</t>
+  </si>
+  <si>
+    <t>10695</t>
+  </si>
+  <si>
+    <t>F-4B</t>
+  </si>
+  <si>
+    <t>10696</t>
+  </si>
+  <si>
+    <t>A-6</t>
+  </si>
+  <si>
+    <t>10697</t>
+  </si>
+  <si>
+    <t>掠夺者攻击机MK.2</t>
+  </si>
+  <si>
+    <t>697</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10666</t>
+    <t>E国舰船装备时增加5%攻击威力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>三联反潜鱼雷发射器（MK46）</t>
-  </si>
-  <si>
-    <t>10667</t>
-  </si>
-  <si>
-    <t>53-61鱼雷（潜射）</t>
-  </si>
-  <si>
-    <t>增加10%命中率</t>
+    <t>10698</t>
+  </si>
+  <si>
+    <t>MK143战斧导弹发射箱（91）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10668</t>
-  </si>
-  <si>
-    <t>四联533毫米鱼雷（ur高速）</t>
-  </si>
-  <si>
-    <t>668</t>
+    <t>698</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>鱼雷战和夜战阶段提高15%伤害</t>
+    <t>密苏里装备时增加15%暴击率，炮击战阶段增加10%攻击威力</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10669</t>
-  </si>
-  <si>
-    <t>S-2反潜机</t>
-  </si>
-  <si>
-    <t>669</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加5%命中率，先制反潜阶段额外增加5%命中率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10670</t>
-  </si>
-  <si>
-    <t>红旗61防空导弹</t>
-  </si>
-  <si>
-    <t>670</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰潭装备时增加25%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10671</t>
-  </si>
-  <si>
-    <t>7231发射系统（ZL-1）</t>
-  </si>
-  <si>
-    <t>671</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰潭装备时提高10%回避率，降低敌方航空战阶段5%命中率</t>
-  </si>
-  <si>
-    <t>10672</t>
-  </si>
-  <si>
-    <t>五连鱼雷发射器（53-56）</t>
-  </si>
-  <si>
-    <t>10673</t>
-  </si>
-  <si>
-    <t>РБУ-6000火箭深弹</t>
-  </si>
-  <si>
-    <t>10674</t>
-  </si>
-  <si>
-    <t>XF2Y水上战斗机</t>
-  </si>
-  <si>
-    <t>10675</t>
-  </si>
-  <si>
-    <t>18英寸四联主炮</t>
-  </si>
-  <si>
-    <t>10676</t>
-  </si>
-  <si>
-    <t>鹰击反舰导弹</t>
-  </si>
-  <si>
-    <t>676</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加10%护甲穿透（同类效果只生效一个），C国舰船装备时提高5%伤害和10%暴击率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞瓦斯托波尔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰潭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞍山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神鹰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝亚恩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10661</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>76A式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>661</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C国舰船装备时增加5%回避率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01061</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扶摇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01062</t>
-  </si>
-  <si>
-    <t>01063</t>
-  </si>
-  <si>
-    <t>01064</t>
-  </si>
-  <si>
-    <t>01065</t>
-  </si>
-  <si>
-    <t>01066</t>
-  </si>
-  <si>
-    <t>C国生存标靶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zumwalt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>景云改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01070</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊利诺伊</t>
-  </si>
-  <si>
-    <t>iowa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>85工程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>布勃诺夫方案</t>
-  </si>
-  <si>
-    <t>骏河</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中途岛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛瓦斯托波尔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵敏</t>
-  </si>
-  <si>
-    <t>高波</t>
-  </si>
-  <si>
-    <t>赛尔弗里吉</t>
-  </si>
-  <si>
-    <t>克拉克斯顿</t>
-  </si>
-  <si>
-    <t>U-2540</t>
-  </si>
-  <si>
-    <t>克劳塞维茨</t>
-  </si>
-  <si>
-    <t>M-296</t>
-  </si>
-  <si>
-    <t>伊-25</t>
-  </si>
-  <si>
-    <t>BM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>石勒苏益格-荷尔施泰因</t>
-  </si>
-  <si>
-    <t>威武</t>
   </si>
 </sst>
 </file>
@@ -8563,6 +8768,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8574,12 +8785,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9186,10 +9391,10 @@
   <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="P115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC76" sqref="AC76"/>
+      <selection pane="bottomRight" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9340,7 +9545,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R33" si="0">SUM($S2:$V2)</f>
         <v>76</v>
       </c>
       <c r="S2">
@@ -9421,7 +9626,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="S3">
@@ -9502,7 +9707,7 @@
         <v>4</v>
       </c>
       <c r="R4">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S4">
@@ -9583,7 +9788,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="S5">
@@ -9664,7 +9869,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S6">
@@ -9745,7 +9950,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S7" s="6">
@@ -9830,7 +10035,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S8" s="6">
@@ -9915,7 +10120,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S9" s="6">
@@ -10000,7 +10205,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="S10">
@@ -10084,7 +10289,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S11">
@@ -10165,7 +10370,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="S12">
@@ -10249,7 +10454,7 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S13">
@@ -10330,7 +10535,7 @@
         <v>4</v>
       </c>
       <c r="R14">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="S14">
@@ -10414,7 +10619,7 @@
         <v>4</v>
       </c>
       <c r="R15" s="18">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S15">
@@ -10498,7 +10703,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="18">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S16">
@@ -10582,7 +10787,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="18">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S17">
@@ -10666,7 +10871,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S18" s="6">
@@ -10706,10 +10911,10 @@
         <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="D19" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="E19">
         <v>76</v>
@@ -10751,7 +10956,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="18">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S19">
@@ -10789,8 +10994,8 @@
       <c r="B20" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>2569</v>
+      <c r="C20" s="35" t="s">
+        <v>2567</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -10835,7 +11040,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="18">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S20">
@@ -10865,8 +11070,8 @@
       <c r="AA20">
         <v>102021</v>
       </c>
-      <c r="AC20" s="40" t="s">
-        <v>2570</v>
+      <c r="AC20" s="36" t="s">
+        <v>2568</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -10922,7 +11127,7 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S21" s="6">
@@ -11007,7 +11212,7 @@
         <v>4</v>
       </c>
       <c r="R22">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S22" s="6">
@@ -11092,7 +11297,7 @@
         <v>4</v>
       </c>
       <c r="R23">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S23" s="6">
@@ -11180,7 +11385,7 @@
         <v>4</v>
       </c>
       <c r="R24">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S24" s="6">
@@ -11268,7 +11473,7 @@
         <v>4</v>
       </c>
       <c r="R25">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S25" s="6">
@@ -11300,7 +11505,7 @@
       </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="3" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -11356,7 +11561,7 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S26" s="6">
@@ -11388,7 +11593,7 @@
       </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="3" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -11444,7 +11649,7 @@
         <v>4</v>
       </c>
       <c r="R27" s="18">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S27">
@@ -11531,7 +11736,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S28" s="6">
@@ -11619,7 +11824,7 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S29" s="6">
@@ -11704,7 +11909,7 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S30">
@@ -11785,7 +11990,7 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="S31">
@@ -11866,7 +12071,7 @@
         <v>4</v>
       </c>
       <c r="R32">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S32">
@@ -11947,7 +12152,7 @@
         <v>4</v>
       </c>
       <c r="R33">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S33">
@@ -12028,7 +12233,7 @@
         <v>4</v>
       </c>
       <c r="R34">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" ref="R34:R61" si="1">SUM($S34:$V34)</f>
         <v>59</v>
       </c>
       <c r="S34">
@@ -12112,7 +12317,7 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="S35">
@@ -12196,7 +12401,7 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="S36">
@@ -12277,7 +12482,7 @@
         <v>4</v>
       </c>
       <c r="R37">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S37">
@@ -12364,7 +12569,7 @@
         <v>4</v>
       </c>
       <c r="R38" s="18">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S38">
@@ -12451,7 +12656,7 @@
         <v>4</v>
       </c>
       <c r="R39">
-        <f>SUM($S39:$V39)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S39">
@@ -12532,7 +12737,7 @@
         <v>3</v>
       </c>
       <c r="R40">
-        <f>SUM($S40:$V40)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S40" s="6">
@@ -12617,7 +12822,7 @@
         <v>3</v>
       </c>
       <c r="R41">
-        <f>SUM($S41:$V41)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S41" s="6">
@@ -12702,7 +12907,7 @@
         <v>2</v>
       </c>
       <c r="R42" s="18">
-        <f>SUM($S42:$V42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S42">
@@ -12783,7 +12988,7 @@
         <v>2</v>
       </c>
       <c r="R43" s="18">
-        <f>SUM($S43:$V43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S43">
@@ -12819,7 +13024,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="D44" t="s">
         <v>81</v>
@@ -12864,7 +13069,7 @@
         <v>4</v>
       </c>
       <c r="R44" s="18">
-        <f>SUM($S44:$V44)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="S44">
@@ -12903,7 +13108,7 @@
         <v>213</v>
       </c>
       <c r="C45" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="D45" t="s">
         <v>1938</v>
@@ -12948,7 +13153,7 @@
         <v>3</v>
       </c>
       <c r="R45" s="18">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="S45">
@@ -13032,7 +13237,7 @@
         <v>4</v>
       </c>
       <c r="R46">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S46" s="6">
@@ -13117,7 +13322,7 @@
         <v>4</v>
       </c>
       <c r="R47" s="18">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="S47">
@@ -13201,7 +13406,7 @@
         <v>4</v>
       </c>
       <c r="R48">
-        <f>SUM($S48:$V48)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="S48" s="6">
@@ -13286,7 +13491,7 @@
         <v>3</v>
       </c>
       <c r="R49" s="18">
-        <f>SUM($S49:$V49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S49">
@@ -13370,7 +13575,7 @@
         <v>4</v>
       </c>
       <c r="R50">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="S50">
@@ -13454,7 +13659,7 @@
         <v>4</v>
       </c>
       <c r="R51" s="18">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S51">
@@ -13538,7 +13743,7 @@
         <v>4</v>
       </c>
       <c r="R52">
-        <f>SUM($S52:$V52)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S52">
@@ -13625,7 +13830,7 @@
         <v>4</v>
       </c>
       <c r="R53">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S53" s="6">
@@ -13709,7 +13914,7 @@
         <v>4</v>
       </c>
       <c r="R54">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="S54">
@@ -13793,7 +13998,7 @@
         <v>4</v>
       </c>
       <c r="R55">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="S55">
@@ -13880,7 +14085,7 @@
         <v>3</v>
       </c>
       <c r="R56">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S56">
@@ -13961,7 +14166,7 @@
         <v>4</v>
       </c>
       <c r="R57">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S57" s="6">
@@ -13993,7 +14198,7 @@
       </c>
       <c r="AB57" s="6"/>
       <c r="AC57" s="3" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -14049,7 +14254,7 @@
         <v>3</v>
       </c>
       <c r="R58">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S58" s="6">
@@ -14134,7 +14339,7 @@
         <v>4</v>
       </c>
       <c r="R59">
-        <f>SUM($S59:$V59)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S59" s="6">
@@ -14218,7 +14423,7 @@
         <v>3</v>
       </c>
       <c r="R60">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S60" s="6">
@@ -14303,7 +14508,7 @@
         <v>3</v>
       </c>
       <c r="R61">
-        <f>SUM($S61:$V61)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S61">
@@ -14467,7 +14672,7 @@
         <v>4</v>
       </c>
       <c r="R63">
-        <f>SUM($S63:$V63)</f>
+        <f t="shared" ref="R63:R92" si="2">SUM($S63:$V63)</f>
         <v>16</v>
       </c>
       <c r="S63" s="6">
@@ -14552,7 +14757,7 @@
         <v>4</v>
       </c>
       <c r="R64">
-        <f>SUM($S64:$V64)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="S64">
@@ -14636,7 +14841,7 @@
         <v>4</v>
       </c>
       <c r="R65">
-        <f>SUM($S65:$V65)</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="S65">
@@ -14723,7 +14928,7 @@
         <v>3</v>
       </c>
       <c r="R66" s="18">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S66">
@@ -14807,7 +15012,7 @@
         <v>4</v>
       </c>
       <c r="R67">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S67" s="6">
@@ -14892,7 +15097,7 @@
         <v>4</v>
       </c>
       <c r="R68">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S68" s="10">
@@ -14980,7 +15185,7 @@
         <v>3</v>
       </c>
       <c r="R69">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S69" s="6">
@@ -15065,7 +15270,7 @@
         <v>2</v>
       </c>
       <c r="R70">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="S70">
@@ -15146,7 +15351,7 @@
         <v>4</v>
       </c>
       <c r="R71">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S71" s="10">
@@ -15230,7 +15435,7 @@
         <v>3</v>
       </c>
       <c r="R72">
-        <f>SUM($S72:$V72)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S72">
@@ -15311,7 +15516,7 @@
         <v>3</v>
       </c>
       <c r="R73">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S73">
@@ -15392,7 +15597,7 @@
         <v>4</v>
       </c>
       <c r="R74">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="S74">
@@ -15476,7 +15681,7 @@
         <v>2</v>
       </c>
       <c r="R75">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="S75">
@@ -15557,7 +15762,7 @@
         <v>4</v>
       </c>
       <c r="R76">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S76" s="10">
@@ -15589,7 +15794,7 @@
       </c>
       <c r="AB76" s="6"/>
       <c r="AC76" s="3" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
@@ -15645,7 +15850,7 @@
         <v>3</v>
       </c>
       <c r="R77">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S77" s="6">
@@ -15730,7 +15935,7 @@
         <v>4</v>
       </c>
       <c r="R78">
-        <f>SUM($S78:$V78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S78" s="10">
@@ -15815,7 +16020,7 @@
         <v>3</v>
       </c>
       <c r="R79">
-        <f>SUM($S79:$V79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S79" s="6">
@@ -15900,7 +16105,7 @@
         <v>3</v>
       </c>
       <c r="R80">
-        <f>SUM($S80:$V80)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S80" s="6">
@@ -15985,7 +16190,7 @@
         <v>4</v>
       </c>
       <c r="R81">
-        <f>SUM($S81:$V81)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="S81">
@@ -16069,7 +16274,7 @@
         <v>4</v>
       </c>
       <c r="R82">
-        <f>SUM($S82:$V82)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S82">
@@ -16156,7 +16361,7 @@
         <v>4</v>
       </c>
       <c r="R83">
-        <f>SUM($S83:$V83)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S83" s="10">
@@ -16240,7 +16445,7 @@
         <v>4</v>
       </c>
       <c r="R84">
-        <f>SUM($S84:$V84)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S84" s="10">
@@ -16324,7 +16529,7 @@
         <v>3</v>
       </c>
       <c r="R85">
-        <f>SUM($S85:$V85)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S85" s="6">
@@ -16409,7 +16614,7 @@
         <v>4</v>
       </c>
       <c r="R86">
-        <f>SUM($S86:$V86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S86" s="10">
@@ -16494,7 +16699,7 @@
         <v>4</v>
       </c>
       <c r="R87">
-        <f>SUM($S87:$V87)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S87" s="10">
@@ -16578,7 +16783,7 @@
         <v>4</v>
       </c>
       <c r="R88">
-        <f>SUM($S88:$V88)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S88" s="10">
@@ -16663,7 +16868,7 @@
         <v>4</v>
       </c>
       <c r="R89">
-        <f>SUM($S89:$V89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S89" s="10">
@@ -16748,7 +16953,7 @@
         <v>3</v>
       </c>
       <c r="R90">
-        <f>SUM($S90:$V90)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S90" s="6">
@@ -16833,7 +17038,7 @@
         <v>4</v>
       </c>
       <c r="R91">
-        <f>SUM($S91:$V91)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S91" s="10">
@@ -16918,7 +17123,7 @@
         <v>4</v>
       </c>
       <c r="R92">
-        <f>SUM($S92:$V92)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="S92">
@@ -17085,7 +17290,7 @@
         <v>4</v>
       </c>
       <c r="R94">
-        <f>SUM($S94:$V94)</f>
+        <f t="shared" ref="R94:R133" si="3">SUM($S94:$V94)</f>
         <v>12</v>
       </c>
       <c r="S94" s="10">
@@ -17170,7 +17375,7 @@
         <v>4</v>
       </c>
       <c r="R95">
-        <f>SUM($S95:$V95)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S95" s="10">
@@ -17254,7 +17459,7 @@
         <v>4</v>
       </c>
       <c r="R96">
-        <f>SUM($S96:$V96)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S96" s="10">
@@ -17339,7 +17544,7 @@
         <v>3</v>
       </c>
       <c r="R97">
-        <f>SUM($S97:$V97)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="S97">
@@ -17370,7 +17575,7 @@
         <v>104671</v>
       </c>
       <c r="AC97" s="3" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.2">
@@ -17426,7 +17631,7 @@
         <v>4</v>
       </c>
       <c r="R98">
-        <f>SUM($S98:$V98)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S98" s="10">
@@ -17511,7 +17716,7 @@
         <v>4</v>
       </c>
       <c r="R99">
-        <f>SUM($S99:$V99)</f>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="S99">
@@ -17598,7 +17803,7 @@
         <v>4</v>
       </c>
       <c r="R100">
-        <f>SUM($S100:$V100)</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="S100">
@@ -17682,7 +17887,7 @@
         <v>4</v>
       </c>
       <c r="R101">
-        <f>SUM($S101:$V101)</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="S101">
@@ -17763,7 +17968,7 @@
         <v>4</v>
       </c>
       <c r="R102">
-        <f>SUM($S102:$V102)</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="S102">
@@ -17847,7 +18052,7 @@
         <v>3</v>
       </c>
       <c r="R103">
-        <f>SUM($S103:$V103)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="S103" s="6">
@@ -17932,7 +18137,7 @@
         <v>4</v>
       </c>
       <c r="R104">
-        <f>SUM($S104:$V104)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="S104">
@@ -18016,7 +18221,7 @@
         <v>4</v>
       </c>
       <c r="R105">
-        <f>SUM($S105:$V105)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S105" s="6">
@@ -18100,7 +18305,7 @@
         <v>4</v>
       </c>
       <c r="R106">
-        <f>SUM($S106:$V106)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="S106">
@@ -18184,7 +18389,7 @@
         <v>4</v>
       </c>
       <c r="R107">
-        <f>SUM($S107:$V107)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S107" s="6">
@@ -18268,7 +18473,7 @@
         <v>4</v>
       </c>
       <c r="R108">
-        <f>SUM($S108:$V108)</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="S108">
@@ -18352,7 +18557,7 @@
         <v>4</v>
       </c>
       <c r="R109">
-        <f>SUM($S109:$V109)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="S109">
@@ -18439,7 +18644,7 @@
         <v>4</v>
       </c>
       <c r="R110">
-        <f>SUM($S110:$V110)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S110" s="6">
@@ -18524,7 +18729,7 @@
         <v>3</v>
       </c>
       <c r="R111" s="18">
-        <f>SUM($S111:$V111)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="S111">
@@ -18608,7 +18813,7 @@
         <v>4</v>
       </c>
       <c r="R112" s="18">
-        <f>SUM($S112:$V112)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S112">
@@ -18692,7 +18897,7 @@
         <v>4</v>
       </c>
       <c r="R113">
-        <f>SUM($S113:$V113)</f>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="S113">
@@ -18776,7 +18981,7 @@
         <v>4</v>
       </c>
       <c r="R114">
-        <f>SUM($S114:$V114)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="S114" s="6">
@@ -18864,7 +19069,7 @@
         <v>4</v>
       </c>
       <c r="R115" s="18">
-        <f>SUM($S115:$V115)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S115">
@@ -18948,7 +19153,7 @@
         <v>4</v>
       </c>
       <c r="R116" s="18">
-        <f>SUM($S116:$V116)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S116">
@@ -19032,7 +19237,7 @@
         <v>4</v>
       </c>
       <c r="R117" s="18">
-        <f>SUM($S117:$V117)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S117">
@@ -19116,7 +19321,7 @@
         <v>3</v>
       </c>
       <c r="R118" s="18">
-        <f>SUM($S118:$V118)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S118">
@@ -19200,7 +19405,7 @@
         <v>4</v>
       </c>
       <c r="R119" s="18">
-        <f>SUM($S119:$V119)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S119">
@@ -19287,7 +19492,7 @@
         <v>4</v>
       </c>
       <c r="R120" s="18">
-        <f>SUM($S120:$V120)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S120">
@@ -19371,7 +19576,7 @@
         <v>4</v>
       </c>
       <c r="R121" s="18">
-        <f>SUM($S121:$V121)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S121">
@@ -19455,7 +19660,7 @@
         <v>3</v>
       </c>
       <c r="R122" s="18">
-        <f>SUM($S122:$V122)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="S122">
@@ -19539,7 +19744,7 @@
         <v>4</v>
       </c>
       <c r="R123" s="18">
-        <f>SUM($S123:$V123)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S123">
@@ -19623,7 +19828,7 @@
         <v>4</v>
       </c>
       <c r="R124" s="18">
-        <f>SUM($S124:$V124)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S124">
@@ -19707,7 +19912,7 @@
         <v>4</v>
       </c>
       <c r="R125" s="18">
-        <f>SUM($S125:$V125)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S125">
@@ -19791,7 +19996,7 @@
         <v>3</v>
       </c>
       <c r="R126" s="18">
-        <f>SUM($S126:$V126)</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="S126">
@@ -19875,7 +20080,7 @@
         <v>3</v>
       </c>
       <c r="R127" s="18">
-        <f>SUM($S127:$V127)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="S127">
@@ -19914,7 +20119,7 @@
         <v>210</v>
       </c>
       <c r="C128" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="D128" t="s">
         <v>81</v>
@@ -19959,7 +20164,7 @@
         <v>4</v>
       </c>
       <c r="R128" s="18">
-        <f>SUM($S128:$V128)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="S128">
@@ -19998,7 +20203,7 @@
         <v>207</v>
       </c>
       <c r="C129" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="D129" t="s">
         <v>81</v>
@@ -20043,7 +20248,7 @@
         <v>4</v>
       </c>
       <c r="R129" s="18">
-        <f>SUM($S129:$V129)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S129">
@@ -20082,7 +20287,7 @@
         <v>207</v>
       </c>
       <c r="C130" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -20127,7 +20332,7 @@
         <v>4</v>
       </c>
       <c r="R130" s="18">
-        <f>SUM($S130:$V130)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S130">
@@ -20166,7 +20371,7 @@
         <v>76</v>
       </c>
       <c r="C131" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="D131" t="s">
         <v>67</v>
@@ -20211,7 +20416,7 @@
         <v>4</v>
       </c>
       <c r="R131" s="18">
-        <f>SUM($S131:$V131)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="S131">
@@ -20250,7 +20455,7 @@
         <v>2256</v>
       </c>
       <c r="C132" t="s">
-        <v>2575</v>
+        <v>2545</v>
       </c>
       <c r="D132" t="s">
         <v>81</v>
@@ -20295,7 +20500,7 @@
         <v>3</v>
       </c>
       <c r="R132" s="18">
-        <f>SUM($S132:$V132)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="S132">
@@ -20334,7 +20539,7 @@
         <v>207</v>
       </c>
       <c r="C133" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="D133" t="s">
         <v>68</v>
@@ -20379,7 +20584,7 @@
         <v>4</v>
       </c>
       <c r="R133" s="18">
-        <f>SUM($S133:$V133)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="S133">
@@ -20446,7 +20651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -20602,7 +20807,7 @@
         <v>4</v>
       </c>
       <c r="R2">
-        <f>SUM($S2:$V2)</f>
+        <f t="shared" ref="R2:R65" si="0">SUM($S2:$V2)</f>
         <v>12</v>
       </c>
       <c r="S2" s="6">
@@ -20689,7 +20894,7 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <f>SUM($S3:$V3)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="S3">
@@ -20773,7 +20978,7 @@
         <v>4</v>
       </c>
       <c r="R4">
-        <f>SUM($S4:$V4)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S4" s="10">
@@ -20858,7 +21063,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f>SUM($S5:$V5)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S5">
@@ -20942,7 +21147,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f>SUM($S6:$V6)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S6">
@@ -21026,7 +21231,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <f>SUM($S7:$V7)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S7" s="10">
@@ -21113,7 +21318,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f>SUM($S8:$V8)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S8" s="10">
@@ -21198,7 +21403,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f>SUM($S9:$V9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S9" s="10">
@@ -21286,7 +21491,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f>SUM($S10:$V10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S10" s="10">
@@ -21376,7 +21581,7 @@
         <v>4</v>
       </c>
       <c r="R11">
-        <f>SUM($S11:$V11)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S11" s="10">
@@ -21463,7 +21668,7 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <f>SUM($S12:$V12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S12" s="10">
@@ -21548,7 +21753,7 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <f>SUM($S13:$V13)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S13" s="10">
@@ -21633,7 +21838,7 @@
         <v>4</v>
       </c>
       <c r="R14">
-        <f>SUM($S14:$V14)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S14" s="10">
@@ -21718,7 +21923,7 @@
         <v>4</v>
       </c>
       <c r="R15">
-        <f>SUM($S15:$V15)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S15" s="10">
@@ -21803,7 +22008,7 @@
         <v>4</v>
       </c>
       <c r="R16">
-        <f>SUM($S16:$V16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S16" s="6">
@@ -21890,7 +22095,7 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f>SUM($S17:$V17)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S17" s="6">
@@ -21975,7 +22180,7 @@
         <v>4</v>
       </c>
       <c r="R18">
-        <f>SUM($S18:$V18)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S18">
@@ -22059,7 +22264,7 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <f>SUM($S19:$V19)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="S19">
@@ -22143,7 +22348,7 @@
         <v>4</v>
       </c>
       <c r="R20">
-        <f>SUM($S20:$V20)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="S20">
@@ -22230,7 +22435,7 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f>SUM($S21:$V21)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="S21">
@@ -22317,7 +22522,7 @@
         <v>3</v>
       </c>
       <c r="R22">
-        <f>SUM($S22:$V22)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="S22">
@@ -22401,7 +22606,7 @@
         <v>3</v>
       </c>
       <c r="R23">
-        <f>SUM($S23:$V23)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="S23">
@@ -22485,7 +22690,7 @@
         <v>3</v>
       </c>
       <c r="R24">
-        <f>SUM($S24:$V24)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="S24">
@@ -22566,7 +22771,7 @@
         <v>3</v>
       </c>
       <c r="R25">
-        <f>SUM($S25:$V25)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="S25">
@@ -22647,7 +22852,7 @@
         <v>4</v>
       </c>
       <c r="R26">
-        <f>SUM($S26:$V26)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="S26">
@@ -22731,7 +22936,7 @@
         <v>4</v>
       </c>
       <c r="R27">
-        <f>SUM($S27:$V27)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="S27">
@@ -22815,7 +23020,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <f>SUM($S28:$V28)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="S28">
@@ -22902,7 +23107,7 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f>SUM($S29:$V29)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="S29">
@@ -22986,7 +23191,7 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f>SUM($S30:$V30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S30" s="6">
@@ -23071,7 +23276,7 @@
         <v>4</v>
       </c>
       <c r="R31">
-        <f>SUM($S31:$V31)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S31" s="6">
@@ -23156,7 +23361,7 @@
         <v>4</v>
       </c>
       <c r="R32">
-        <f>SUM($S32:$V32)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S32" s="6">
@@ -23241,7 +23446,7 @@
         <v>4</v>
       </c>
       <c r="R33">
-        <f>SUM($S33:$V33)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S33" s="6">
@@ -23326,7 +23531,7 @@
         <v>4</v>
       </c>
       <c r="R34">
-        <f>SUM($S34:$V34)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S34" s="6">
@@ -23411,7 +23616,7 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <f>SUM($S35:$V35)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S35" s="6">
@@ -23496,7 +23701,7 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <f>SUM($S36:$V36)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S36" s="6">
@@ -23583,7 +23788,7 @@
         <v>4</v>
       </c>
       <c r="R37">
-        <f>SUM($S37:$V37)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S37" s="6">
@@ -23668,7 +23873,7 @@
         <v>4</v>
       </c>
       <c r="R38">
-        <f>SUM($S38:$V38)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="S38" s="6">
@@ -23755,7 +23960,7 @@
         <v>3</v>
       </c>
       <c r="R39" s="18">
-        <f>SUM($S39:$V39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S39">
@@ -23842,7 +24047,7 @@
         <v>3</v>
       </c>
       <c r="R40" s="18">
-        <f>SUM($S40:$V40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40">
@@ -23929,7 +24134,7 @@
         <v>3</v>
       </c>
       <c r="R41" s="18">
-        <f>SUM($S41:$V41)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="S41">
@@ -24013,7 +24218,7 @@
         <v>4</v>
       </c>
       <c r="R42" s="18">
-        <f>SUM($S42:$V42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S42">
@@ -24097,7 +24302,7 @@
         <v>3</v>
       </c>
       <c r="R43">
-        <f>SUM($S43:$V43)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S43" s="6">
@@ -24182,7 +24387,7 @@
         <v>3</v>
       </c>
       <c r="R44">
-        <f>SUM($S44:$V44)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S44" s="6">
@@ -24267,7 +24472,7 @@
         <v>3</v>
       </c>
       <c r="R45">
-        <f>SUM($S45:$V45)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S45" s="6">
@@ -24352,7 +24557,7 @@
         <v>3</v>
       </c>
       <c r="R46">
-        <f>SUM($S46:$V46)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S46" s="6">
@@ -24439,7 +24644,7 @@
         <v>3</v>
       </c>
       <c r="R47" s="18">
-        <f>SUM($S47:$V47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S47">
@@ -24523,7 +24728,7 @@
         <v>3</v>
       </c>
       <c r="R48" s="18">
-        <f>SUM($S48:$V48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S48">
@@ -24607,7 +24812,7 @@
         <v>3</v>
       </c>
       <c r="R49">
-        <f>SUM($S49:$V49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S49" s="6">
@@ -24697,7 +24902,7 @@
         <v>3</v>
       </c>
       <c r="R50">
-        <f>SUM($S50:$V50)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S50" s="6">
@@ -24785,7 +24990,7 @@
         <v>3</v>
       </c>
       <c r="R51">
-        <f>SUM($S51:$V51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S51" s="6">
@@ -24873,7 +25078,7 @@
         <v>3</v>
       </c>
       <c r="R52">
-        <f>SUM($S52:$V52)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S52" s="6">
@@ -24961,7 +25166,7 @@
         <v>3</v>
       </c>
       <c r="R53">
-        <f>SUM($S53:$V53)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S53" s="6">
@@ -25049,7 +25254,7 @@
         <v>3</v>
       </c>
       <c r="R54">
-        <f>SUM($S54:$V54)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S54" s="6">
@@ -25137,7 +25342,7 @@
         <v>3</v>
       </c>
       <c r="R55">
-        <f>SUM($S55:$V55)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S55" s="6">
@@ -25225,7 +25430,7 @@
         <v>3</v>
       </c>
       <c r="R56">
-        <f>SUM($S56:$V56)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S56" s="6">
@@ -25313,7 +25518,7 @@
         <v>3</v>
       </c>
       <c r="R57">
-        <f>SUM($S57:$V57)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S57" s="6">
@@ -25401,7 +25606,7 @@
         <v>3</v>
       </c>
       <c r="R58">
-        <f>SUM($S58:$V58)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S58" s="6">
@@ -25489,7 +25694,7 @@
         <v>3</v>
       </c>
       <c r="R59">
-        <f>SUM($S59:$V59)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S59" s="6">
@@ -25577,7 +25782,7 @@
         <v>3</v>
       </c>
       <c r="R60">
-        <f>SUM($S60:$V60)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S60" s="6">
@@ -25667,7 +25872,7 @@
         <v>3</v>
       </c>
       <c r="R61">
-        <f>SUM($S61:$V61)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S61" s="6">
@@ -25755,7 +25960,7 @@
         <v>3</v>
       </c>
       <c r="R62">
-        <f>SUM($S62:$V62)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S62" s="6">
@@ -25843,7 +26048,7 @@
         <v>3</v>
       </c>
       <c r="R63">
-        <f>SUM($S63:$V63)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S63" s="6">
@@ -25931,7 +26136,7 @@
         <v>3</v>
       </c>
       <c r="R64">
-        <f>SUM($S64:$V64)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S64" s="6">
@@ -26016,7 +26221,7 @@
         <v>3</v>
       </c>
       <c r="R65">
-        <f>SUM($S65:$V65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S65" s="6">
@@ -26103,7 +26308,7 @@
         <v>3</v>
       </c>
       <c r="R66">
-        <f>SUM($S66:$V66)</f>
+        <f t="shared" ref="R66:R129" si="1">SUM($S66:$V66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="6">
@@ -26188,7 +26393,7 @@
         <v>3</v>
       </c>
       <c r="R67">
-        <f>SUM($S67:$V67)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S67" s="6">
@@ -26273,7 +26478,7 @@
         <v>3</v>
       </c>
       <c r="R68">
-        <f>SUM($S68:$V68)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S68" s="6">
@@ -26358,7 +26563,7 @@
         <v>3</v>
       </c>
       <c r="R69">
-        <f>SUM($S69:$V69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S69" s="6">
@@ -26443,7 +26648,7 @@
         <v>3</v>
       </c>
       <c r="R70">
-        <f>SUM($S70:$V70)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S70" s="6">
@@ -26528,7 +26733,7 @@
         <v>3</v>
       </c>
       <c r="R71">
-        <f>SUM($S71:$V71)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S71" s="6">
@@ -26613,7 +26818,7 @@
         <v>3</v>
       </c>
       <c r="R72">
-        <f>SUM($S72:$V72)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S72" s="6">
@@ -26698,7 +26903,7 @@
         <v>3</v>
       </c>
       <c r="R73">
-        <f>SUM($S73:$V73)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S73" s="6">
@@ -26783,7 +26988,7 @@
         <v>3</v>
       </c>
       <c r="R74">
-        <f>SUM($S74:$V74)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S74" s="6">
@@ -26870,7 +27075,7 @@
         <v>3</v>
       </c>
       <c r="R75">
-        <f>SUM($S75:$V75)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="S75">
@@ -26955,7 +27160,7 @@
         <v>3</v>
       </c>
       <c r="R76">
-        <f>SUM($S76:$V76)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S76">
@@ -26987,7 +27192,7 @@
       </c>
       <c r="AB76" s="6"/>
       <c r="AC76" s="3" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
@@ -27043,7 +27248,7 @@
         <v>3</v>
       </c>
       <c r="R77">
-        <f>SUM($S77:$V77)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S77" s="6">
@@ -27128,7 +27333,7 @@
         <v>3</v>
       </c>
       <c r="R78">
-        <f>SUM($S78:$V78)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S78" s="6">
@@ -27213,7 +27418,7 @@
         <v>4</v>
       </c>
       <c r="R79">
-        <f>SUM($S79:$V79)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S79" s="10">
@@ -27300,7 +27505,7 @@
         <v>4</v>
       </c>
       <c r="R80">
-        <f>SUM($S80:$V80)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S80" s="10">
@@ -27390,7 +27595,7 @@
         <v>4</v>
       </c>
       <c r="R81">
-        <f>SUM($S81:$V81)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S81" s="10">
@@ -27480,7 +27685,7 @@
         <v>4</v>
       </c>
       <c r="R82">
-        <f>SUM($S82:$V82)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S82" s="10">
@@ -27567,7 +27772,7 @@
         <v>4</v>
       </c>
       <c r="R83">
-        <f>SUM($S83:$V83)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="S83" s="10">
@@ -27652,7 +27857,7 @@
         <v>4</v>
       </c>
       <c r="R84">
-        <f>SUM($S84:$V84)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="S84" s="10">
@@ -27737,7 +27942,7 @@
         <v>4</v>
       </c>
       <c r="R85">
-        <f>SUM($S85:$V85)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="S85" s="10">
@@ -27825,7 +28030,7 @@
         <v>4</v>
       </c>
       <c r="R86">
-        <f>SUM($S86:$V86)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="S86" s="10">
@@ -27915,7 +28120,7 @@
         <v>4</v>
       </c>
       <c r="R87">
-        <f>SUM($S87:$V87)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S87" s="10">
@@ -28005,7 +28210,7 @@
         <v>4</v>
       </c>
       <c r="R88">
-        <f>SUM($S88:$V88)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S88" s="10">
@@ -28092,7 +28297,7 @@
         <v>4</v>
       </c>
       <c r="R89">
-        <f>SUM($S89:$V89)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S89" s="10">
@@ -28180,7 +28385,7 @@
         <v>4</v>
       </c>
       <c r="R90">
-        <f>SUM($S90:$V90)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S90" s="10">
@@ -28267,7 +28472,7 @@
         <v>4</v>
       </c>
       <c r="R91">
-        <f>SUM($S91:$V91)</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="S91">
@@ -28354,7 +28559,7 @@
         <v>4</v>
       </c>
       <c r="R92">
-        <f>SUM($S92:$V92)</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="S92">
@@ -28439,7 +28644,7 @@
         <v>4</v>
       </c>
       <c r="R93">
-        <f>SUM($S93:$V93)</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="S93">
@@ -28524,7 +28729,7 @@
         <v>4</v>
       </c>
       <c r="R94">
-        <f>SUM($S94:$V94)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S94">
@@ -28611,7 +28816,7 @@
         <v>3</v>
       </c>
       <c r="R95">
-        <f>SUM($S95:$V95)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="S95">
@@ -28696,7 +28901,7 @@
         <v>3</v>
       </c>
       <c r="R96">
-        <f>SUM($S96:$V96)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="S96">
@@ -28781,7 +28986,7 @@
         <v>3</v>
       </c>
       <c r="R97">
-        <f>SUM($S97:$V97)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="S97">
@@ -28866,7 +29071,7 @@
         <v>3</v>
       </c>
       <c r="R98">
-        <f>SUM($S98:$V98)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="S98">
@@ -28951,7 +29156,7 @@
         <v>4</v>
       </c>
       <c r="R99">
-        <f>SUM($S99:$V99)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S99" s="6">
@@ -29038,7 +29243,7 @@
         <v>4</v>
       </c>
       <c r="R100">
-        <f>SUM($S100:$V100)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S100" s="6">
@@ -29123,7 +29328,7 @@
         <v>4</v>
       </c>
       <c r="R101">
-        <f>SUM($S101:$V101)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S101" s="6">
@@ -29208,7 +29413,7 @@
         <v>4</v>
       </c>
       <c r="R102">
-        <f>SUM($S102:$V102)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S102" s="6">
@@ -29293,7 +29498,7 @@
         <v>4</v>
       </c>
       <c r="R103">
-        <f>SUM($S103:$V103)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S103" s="6">
@@ -29378,7 +29583,7 @@
         <v>4</v>
       </c>
       <c r="R104">
-        <f>SUM($S104:$V104)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S104" s="6">
@@ -29463,7 +29668,7 @@
         <v>4</v>
       </c>
       <c r="R105">
-        <f>SUM($S105:$V105)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S105" s="6">
@@ -29548,7 +29753,7 @@
         <v>4</v>
       </c>
       <c r="R106">
-        <f>SUM($S106:$V106)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S106" s="6">
@@ -29633,7 +29838,7 @@
         <v>4</v>
       </c>
       <c r="R107">
-        <f>SUM($S107:$V107)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S107" s="6">
@@ -29718,7 +29923,7 @@
         <v>4</v>
       </c>
       <c r="R108">
-        <f>SUM($S108:$V108)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S108" s="6">
@@ -29803,7 +30008,7 @@
         <v>4</v>
       </c>
       <c r="R109">
-        <f>SUM($S109:$V109)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S109" s="6">
@@ -29888,7 +30093,7 @@
         <v>3</v>
       </c>
       <c r="R110">
-        <f>SUM($S110:$V110)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S110" s="6">
@@ -29973,7 +30178,7 @@
         <v>3</v>
       </c>
       <c r="R111">
-        <f>SUM($S111:$V111)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S111" s="6">
@@ -30058,7 +30263,7 @@
         <v>3</v>
       </c>
       <c r="R112">
-        <f>SUM($S112:$V112)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S112" s="6">
@@ -30143,7 +30348,7 @@
         <v>3</v>
       </c>
       <c r="R113">
-        <f>SUM($S113:$V113)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S113" s="6">
@@ -30228,7 +30433,7 @@
         <v>3</v>
       </c>
       <c r="R114">
-        <f>SUM($S114:$V114)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S114" s="6">
@@ -30313,7 +30518,7 @@
         <v>3</v>
       </c>
       <c r="R115">
-        <f>SUM($S115:$V115)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S115" s="6">
@@ -30398,7 +30603,7 @@
         <v>3</v>
       </c>
       <c r="R116">
-        <f>SUM($S116:$V116)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S116" s="6">
@@ -30483,7 +30688,7 @@
         <v>3</v>
       </c>
       <c r="R117">
-        <f>SUM($S117:$V117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S117" s="6">
@@ -30570,7 +30775,7 @@
         <v>3</v>
       </c>
       <c r="R118">
-        <f>SUM($S118:$V118)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S118" s="6">
@@ -30658,7 +30863,7 @@
         <v>3</v>
       </c>
       <c r="R119">
-        <f>SUM($S119:$V119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S119" s="6">
@@ -30743,7 +30948,7 @@
         <v>3</v>
       </c>
       <c r="R120">
-        <f>SUM($S120:$V120)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S120" s="6">
@@ -30828,7 +31033,7 @@
         <v>3</v>
       </c>
       <c r="R121">
-        <f>SUM($S121:$V121)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S121" s="6">
@@ -30915,7 +31120,7 @@
         <v>3</v>
       </c>
       <c r="R122">
-        <f>SUM($S122:$V122)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S122" s="6">
@@ -31000,7 +31205,7 @@
         <v>3</v>
       </c>
       <c r="R123">
-        <f>SUM($S123:$V123)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S123" s="6">
@@ -31085,7 +31290,7 @@
         <v>3</v>
       </c>
       <c r="R124">
-        <f>SUM($S124:$V124)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S124" s="6">
@@ -31170,7 +31375,7 @@
         <v>3</v>
       </c>
       <c r="R125">
-        <f>SUM($S125:$V125)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S125" s="6">
@@ -31255,7 +31460,7 @@
         <v>3</v>
       </c>
       <c r="R126">
-        <f>SUM($S126:$V126)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S126" s="6">
@@ -31340,7 +31545,7 @@
         <v>3</v>
       </c>
       <c r="R127">
-        <f>SUM($S127:$V127)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S127" s="6">
@@ -31425,7 +31630,7 @@
         <v>3</v>
       </c>
       <c r="R128">
-        <f>SUM($S128:$V128)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S128" s="18">
@@ -31510,7 +31715,7 @@
         <v>3</v>
       </c>
       <c r="R129">
-        <f>SUM($S129:$V129)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S129" s="18">
@@ -31595,7 +31800,7 @@
         <v>3</v>
       </c>
       <c r="R130">
-        <f>SUM($S130:$V130)</f>
+        <f t="shared" ref="R130:R193" si="2">SUM($S130:$V130)</f>
         <v>0</v>
       </c>
       <c r="S130" s="18">
@@ -31685,7 +31890,7 @@
         <v>3</v>
       </c>
       <c r="R131" s="18">
-        <f>SUM($S131:$V131)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S131">
@@ -31772,7 +31977,7 @@
         <v>3</v>
       </c>
       <c r="R132">
-        <f>SUM($S132:$V132)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S132">
@@ -31857,7 +32062,7 @@
         <v>4</v>
       </c>
       <c r="R133">
-        <f>SUM($S133:$V133)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S133" s="10">
@@ -31944,7 +32149,7 @@
         <v>4</v>
       </c>
       <c r="R134">
-        <f>SUM($S134:$V134)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S134" s="10">
@@ -32034,7 +32239,7 @@
         <v>4</v>
       </c>
       <c r="R135">
-        <f>SUM($S135:$V135)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S135">
@@ -32068,7 +32273,7 @@
         <v>112092</v>
       </c>
       <c r="AC135" s="3" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.2">
@@ -32124,7 +32329,7 @@
         <v>4</v>
       </c>
       <c r="R136">
-        <f>SUM($S136:$V136)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S136" s="10">
@@ -32209,7 +32414,7 @@
         <v>4</v>
       </c>
       <c r="R137">
-        <f>SUM($S137:$V137)</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="S137">
@@ -32294,7 +32499,7 @@
         <v>4</v>
       </c>
       <c r="R138">
-        <f>SUM($S138:$V138)</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="S138">
@@ -32379,7 +32584,7 @@
         <v>4</v>
       </c>
       <c r="R139">
-        <f>SUM($S139:$V139)</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="S139">
@@ -32466,7 +32671,7 @@
         <v>4</v>
       </c>
       <c r="R140">
-        <f>SUM($S140:$V140)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="S140">
@@ -32551,7 +32756,7 @@
         <v>4</v>
       </c>
       <c r="R141">
-        <f>SUM($S141:$V141)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="S141">
@@ -32638,7 +32843,7 @@
         <v>4</v>
       </c>
       <c r="R142">
-        <f>SUM($S142:$V142)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="S142">
@@ -32725,7 +32930,7 @@
         <v>4</v>
       </c>
       <c r="R143">
-        <f>SUM($S143:$V143)</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="S143">
@@ -32810,7 +33015,7 @@
         <v>3</v>
       </c>
       <c r="R144">
-        <f>SUM($S144:$V144)</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="S144">
@@ -32895,7 +33100,7 @@
         <v>3</v>
       </c>
       <c r="R145">
-        <f>SUM($S145:$V145)</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="S145">
@@ -32935,7 +33140,7 @@
         <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="D146" t="s">
         <v>70</v>
@@ -32980,7 +33185,7 @@
         <v>4</v>
       </c>
       <c r="R146" s="18">
-        <f>SUM($S146:$V146)</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="S146">
@@ -33064,7 +33269,7 @@
         <v>4</v>
       </c>
       <c r="R147">
-        <f>SUM($S147:$V147)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S147" s="6">
@@ -33149,7 +33354,7 @@
         <v>4</v>
       </c>
       <c r="R148" s="18">
-        <f>SUM($S148:$V148)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="S148">
@@ -33233,7 +33438,7 @@
         <v>4</v>
       </c>
       <c r="R149" s="18">
-        <f>SUM($S149:$V149)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="S149">
@@ -33317,7 +33522,7 @@
         <v>4</v>
       </c>
       <c r="R150">
-        <f>SUM($S150:$V150)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="S150" s="6">
@@ -33402,7 +33607,7 @@
         <v>4</v>
       </c>
       <c r="R151">
-        <f>SUM($S151:$V151)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="S151" s="6">
@@ -33444,7 +33649,7 @@
         <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="D152" t="s">
         <v>81</v>
@@ -33489,7 +33694,7 @@
         <v>3</v>
       </c>
       <c r="R152" s="18">
-        <f>SUM($S152:$V152)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S152">
@@ -33573,7 +33778,7 @@
         <v>4</v>
       </c>
       <c r="R153">
-        <f>SUM($S153:$V153)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="S153" s="6">
@@ -33613,7 +33818,7 @@
         <v>204</v>
       </c>
       <c r="C154" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
@@ -33658,7 +33863,7 @@
         <v>3</v>
       </c>
       <c r="R154" s="18">
-        <f>SUM($S154:$V154)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S154">
@@ -33742,7 +33947,7 @@
         <v>3</v>
       </c>
       <c r="R155">
-        <f>SUM($S155:$V155)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S155" s="6">
@@ -33827,7 +34032,7 @@
         <v>3</v>
       </c>
       <c r="R156">
-        <f>SUM($S156:$V156)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S156" s="6">
@@ -33915,7 +34120,7 @@
         <v>3</v>
       </c>
       <c r="R157">
-        <f>SUM($S157:$V157)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S157" s="6">
@@ -33958,7 +34163,7 @@
         <v>204</v>
       </c>
       <c r="C158" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="D158" t="s">
         <v>67</v>
@@ -34003,7 +34208,7 @@
         <v>3</v>
       </c>
       <c r="R158" s="18">
-        <f>SUM($S158:$V158)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S158">
@@ -34087,7 +34292,7 @@
         <v>3</v>
       </c>
       <c r="R159" s="18">
-        <f>SUM($S159:$V159)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S159">
@@ -34129,7 +34334,7 @@
         <v>204</v>
       </c>
       <c r="C160" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="D160" t="s">
         <v>67</v>
@@ -34174,7 +34379,7 @@
         <v>3</v>
       </c>
       <c r="R160" s="18">
-        <f>SUM($S160:$V160)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S160">
@@ -34261,7 +34466,7 @@
         <v>3</v>
       </c>
       <c r="R161">
-        <f>SUM($S161:$V161)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S161" s="6">
@@ -34348,7 +34553,7 @@
         <v>3</v>
       </c>
       <c r="R162">
-        <f>SUM($S162:$V162)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S162" s="6">
@@ -34435,7 +34640,7 @@
         <v>3</v>
       </c>
       <c r="R163">
-        <f>SUM($S163:$V163)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S163" s="6">
@@ -34522,7 +34727,7 @@
         <v>3</v>
       </c>
       <c r="R164">
-        <f>SUM($S164:$V164)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S164" s="18">
@@ -34609,7 +34814,7 @@
         <v>3</v>
       </c>
       <c r="R165">
-        <f>SUM($S165:$V165)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S165" s="18">
@@ -34651,7 +34856,7 @@
         <v>209</v>
       </c>
       <c r="C166" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="D166" t="s">
         <v>68</v>
@@ -34696,7 +34901,7 @@
         <v>3</v>
       </c>
       <c r="R166" s="18">
-        <f>SUM($S166:$V166)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S166">
@@ -34783,7 +34988,7 @@
         <v>3</v>
       </c>
       <c r="R167">
-        <f>SUM($S167:$V167)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S167" s="18">
@@ -34870,7 +35075,7 @@
         <v>4</v>
       </c>
       <c r="R168">
-        <f>SUM($S168:$V168)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S168">
@@ -34957,7 +35162,7 @@
         <v>3</v>
       </c>
       <c r="R169">
-        <f>SUM($S169:$V169)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S169" s="6">
@@ -35042,7 +35247,7 @@
         <v>3</v>
       </c>
       <c r="R170">
-        <f>SUM($S170:$V170)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S170" s="6">
@@ -35127,7 +35332,7 @@
         <v>3</v>
       </c>
       <c r="R171" s="18">
-        <f>SUM($S171:$V171)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="S171">
@@ -35211,7 +35416,7 @@
         <v>3</v>
       </c>
       <c r="R172">
-        <f>SUM($S172:$V172)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S172" s="6">
@@ -35296,7 +35501,7 @@
         <v>3</v>
       </c>
       <c r="R173">
-        <f>SUM($S173:$V173)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S173" s="6">
@@ -35381,7 +35586,7 @@
         <v>4</v>
       </c>
       <c r="R174" s="18">
-        <f>SUM($S174:$V174)</f>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="S174">
@@ -35426,7 +35631,7 @@
         <v>91</v>
       </c>
       <c r="C175" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
@@ -35471,7 +35676,7 @@
         <v>3</v>
       </c>
       <c r="R175" s="18">
-        <f>SUM($S175:$V175)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="S175">
@@ -35555,7 +35760,7 @@
         <v>3</v>
       </c>
       <c r="R176">
-        <f>SUM($S176:$V176)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S176" s="6">
@@ -35640,7 +35845,7 @@
         <v>4</v>
       </c>
       <c r="R177">
-        <f>SUM($S177:$V177)</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="S177">
@@ -35730,7 +35935,7 @@
         <v>4</v>
       </c>
       <c r="R178" s="18">
-        <f>SUM($S178:$V178)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S178">
@@ -35814,7 +36019,7 @@
         <v>3</v>
       </c>
       <c r="R179">
-        <f>SUM($S179:$V179)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S179" s="6">
@@ -35899,7 +36104,7 @@
         <v>3</v>
       </c>
       <c r="R180">
-        <f>SUM($S180:$V180)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S180" s="6">
@@ -35984,7 +36189,7 @@
         <v>3</v>
       </c>
       <c r="R181">
-        <f>SUM($S181:$V181)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S181" s="18">
@@ -36071,7 +36276,7 @@
         <v>4</v>
       </c>
       <c r="R182">
-        <f>SUM($S182:$V182)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S182" s="6">
@@ -36158,7 +36363,7 @@
         <v>3</v>
       </c>
       <c r="R183">
-        <f>SUM($S183:$V183)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S183" s="6">
@@ -36243,7 +36448,7 @@
         <v>4</v>
       </c>
       <c r="R184">
-        <f>SUM($S184:$V184)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S184" s="10">
@@ -36330,7 +36535,7 @@
         <v>3</v>
       </c>
       <c r="R185">
-        <f>SUM($S185:$V185)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S185" s="18">
@@ -36414,7 +36619,7 @@
         <v>4</v>
       </c>
       <c r="R186">
-        <f>SUM($S186:$V186)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="S186">
@@ -36498,7 +36703,7 @@
         <v>3</v>
       </c>
       <c r="R187" s="18">
-        <f>SUM($S187:$V187)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S187">
@@ -36582,7 +36787,7 @@
         <v>3</v>
       </c>
       <c r="R188" s="18">
-        <f>SUM($S188:$V188)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S188">
@@ -36666,7 +36871,7 @@
         <v>3</v>
       </c>
       <c r="R189" s="18">
-        <f>SUM($S189:$V189)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S189">
@@ -36750,7 +36955,7 @@
         <v>4</v>
       </c>
       <c r="R190" s="18">
-        <f>SUM($S190:$V190)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="S190">
@@ -36837,7 +37042,7 @@
         <v>4</v>
       </c>
       <c r="R191">
-        <f>SUM($S191:$V191)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S191" s="6">
@@ -36922,7 +37127,7 @@
         <v>4</v>
       </c>
       <c r="R192">
-        <f>SUM($S192:$V192)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S192" s="6">
@@ -36962,7 +37167,7 @@
         <v>212</v>
       </c>
       <c r="C193" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="D193" t="s">
         <v>1938</v>
@@ -37007,7 +37212,7 @@
         <v>3</v>
       </c>
       <c r="R193" s="18">
-        <f>SUM($S193:$V193)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S193">
@@ -37041,7 +37246,7 @@
         <v>114672</v>
       </c>
       <c r="AC193" s="3" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.2">
@@ -37097,7 +37302,7 @@
         <v>4</v>
       </c>
       <c r="R194">
-        <f>SUM($S194:$V194)</f>
+        <f t="shared" ref="R194:R205" si="3">SUM($S194:$V194)</f>
         <v>67</v>
       </c>
       <c r="S194">
@@ -37139,7 +37344,7 @@
         <v>210</v>
       </c>
       <c r="C195" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="D195" t="s">
         <v>68</v>
@@ -37184,7 +37389,7 @@
         <v>4</v>
       </c>
       <c r="R195" s="18">
-        <f>SUM($S195:$V195)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S195">
@@ -37268,7 +37473,7 @@
         <v>3</v>
       </c>
       <c r="R196" s="18">
-        <f>SUM($S196:$V196)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S196">
@@ -37352,7 +37557,7 @@
         <v>3</v>
       </c>
       <c r="R197" s="18">
-        <f>SUM($S197:$V197)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S197">
@@ -37436,7 +37641,7 @@
         <v>3</v>
       </c>
       <c r="R198" s="18">
-        <f>SUM($S198:$V198)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S198">
@@ -37520,7 +37725,7 @@
         <v>4</v>
       </c>
       <c r="R199" s="18">
-        <f>SUM($S199:$V199)</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="S199">
@@ -37559,7 +37764,7 @@
         <v>209</v>
       </c>
       <c r="C200" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="D200" t="s">
         <v>81</v>
@@ -37604,7 +37809,7 @@
         <v>3</v>
       </c>
       <c r="R200" s="18">
-        <f>SUM($S200:$V200)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S200">
@@ -37688,7 +37893,7 @@
         <v>4</v>
       </c>
       <c r="R201" s="18">
-        <f>SUM($S201:$V201)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S201">
@@ -37730,7 +37935,7 @@
         <v>209</v>
       </c>
       <c r="C202" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
@@ -37775,7 +37980,7 @@
         <v>3</v>
       </c>
       <c r="R202" s="18">
-        <f>SUM($S202:$V202)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S202">
@@ -37859,7 +38064,7 @@
         <v>3</v>
       </c>
       <c r="R203" s="18">
-        <f>SUM($S203:$V203)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="S203">
@@ -37895,10 +38100,10 @@
         <v>11560</v>
       </c>
       <c r="B204" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="C204" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="D204" t="s">
         <v>68</v>
@@ -37943,7 +38148,7 @@
         <v>3</v>
       </c>
       <c r="R204" s="18">
-        <f>SUM($S204:$V204)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S204">
@@ -37982,7 +38187,7 @@
         <v>213</v>
       </c>
       <c r="C205" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="D205" t="s">
         <v>81</v>
@@ -38027,7 +38232,7 @@
         <v>3</v>
       </c>
       <c r="R205" s="18">
-        <f>SUM($S205:$V205)</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="S205">
@@ -38252,13 +38457,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA647"/>
+  <dimension ref="A1:AA669"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J604" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E636" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S591" sqref="S591"/>
+      <selection pane="bottomRight" activeCell="D671" sqref="D671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38975,13 +39180,13 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B17" t="s">
         <v>1669</v>
       </c>
       <c r="C17" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D17" t="s">
         <v>1681</v>
@@ -39001,13 +39206,13 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B18" t="s">
         <v>1669</v>
       </c>
       <c r="C18" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D18" t="s">
         <v>1681</v>
@@ -55503,7 +55708,7 @@
         <v>294</v>
       </c>
       <c r="C229" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>287</v>
@@ -83197,24 +83402,24 @@
         <v>8</v>
       </c>
       <c r="W633" s="2" t="s">
-        <v>2512</v>
+        <v>2585</v>
       </c>
       <c r="Y633" s="6" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="AA633" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="634" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A634" s="2" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B634" t="s">
         <v>295</v>
       </c>
       <c r="C634" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="D634" s="5" t="s">
         <v>292</v>
@@ -83232,10 +83437,10 @@
         <v>0.5</v>
       </c>
       <c r="W634" s="2" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="AA634" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="635" spans="1:27" x14ac:dyDescent="0.2">
@@ -83299,25 +83504,25 @@
         <v>5</v>
       </c>
       <c r="W636" s="2" t="s">
-        <v>2493</v>
+        <v>2586</v>
       </c>
       <c r="X636" s="6"/>
       <c r="Y636">
         <v>0.05</v>
       </c>
       <c r="AA636" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="637" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A637" s="2" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B637" t="s">
         <v>486</v>
       </c>
       <c r="C637" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="D637" s="5" t="s">
         <v>7</v>
@@ -83349,13 +83554,13 @@
     </row>
     <row r="638" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A638" s="2" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B638" t="s">
         <v>486</v>
       </c>
       <c r="C638" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="D638" s="5" t="s">
         <v>7</v>
@@ -83373,24 +83578,24 @@
         <v>1</v>
       </c>
       <c r="W638" s="2" t="s">
-        <v>2493</v>
+        <v>2586</v>
       </c>
       <c r="Y638">
         <v>0.1</v>
       </c>
       <c r="AA638" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="639" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A639" s="2" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B639" t="s">
         <v>486</v>
       </c>
       <c r="C639" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="D639" s="5" t="s">
         <v>7</v>
@@ -83408,22 +83613,22 @@
         <v>1</v>
       </c>
       <c r="W639" s="2" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="Y639"/>
       <c r="AA639" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="640" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="B640" t="s">
         <v>304</v>
       </c>
       <c r="C640" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="D640" s="5" t="s">
         <v>285</v>
@@ -83447,22 +83652,22 @@
         <v>5</v>
       </c>
       <c r="W640" s="2" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="Y640"/>
       <c r="AA640" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="641" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A641" s="2" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B641" t="s">
         <v>1671</v>
       </c>
       <c r="C641" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="D641" s="5" t="s">
         <v>1559</v>
@@ -83486,22 +83691,22 @@
         <v>5</v>
       </c>
       <c r="W641" s="2" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="Y641"/>
       <c r="AA641" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="642" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A642" s="2" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="B642" t="s">
         <v>1683</v>
       </c>
       <c r="C642" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="D642" s="5" t="s">
         <v>1556</v>
@@ -83519,22 +83724,22 @@
         <v>1</v>
       </c>
       <c r="W642" s="2" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="Y642"/>
       <c r="AA642" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="643" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A643" s="2" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="B643" t="s">
         <v>486</v>
       </c>
       <c r="C643" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="D643" s="5" t="s">
         <v>7</v>
@@ -83552,13 +83757,13 @@
     </row>
     <row r="644" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="B644" t="s">
         <v>487</v>
       </c>
       <c r="C644" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="D644" s="5" t="s">
         <v>293</v>
@@ -83582,13 +83787,13 @@
     </row>
     <row r="645" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B645" t="s">
         <v>218</v>
       </c>
       <c r="C645" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="D645" s="5" t="s">
         <v>286</v>
@@ -83606,13 +83811,13 @@
     </row>
     <row r="646" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A646" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B646" t="s">
         <v>1669</v>
       </c>
       <c r="C646" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="D646" s="5" t="s">
         <v>282</v>
@@ -83633,13 +83838,13 @@
     </row>
     <row r="647" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A647" s="2" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="B647" t="s">
         <v>2071</v>
       </c>
       <c r="C647" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="D647" s="5" t="s">
         <v>1557</v>
@@ -83657,15 +83862,723 @@
         <v>8</v>
       </c>
       <c r="W647" s="2" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="Y647"/>
       <c r="AA647" t="s">
-        <v>2546</v>
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="648" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A648" s="2" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B648" t="s">
+        <v>487</v>
+      </c>
+      <c r="C648" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D648" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F648">
+        <v>3</v>
+      </c>
+      <c r="I648">
+        <v>18</v>
+      </c>
+      <c r="M648">
+        <v>5</v>
+      </c>
+      <c r="N648">
+        <v>2</v>
+      </c>
+      <c r="Q648">
+        <v>1</v>
+      </c>
+      <c r="W648" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="Y648" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA648" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="649" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A649" s="2" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B649" t="s">
+        <v>486</v>
+      </c>
+      <c r="C649" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D649" t="s">
+        <v>7</v>
+      </c>
+      <c r="G649">
+        <v>18</v>
+      </c>
+      <c r="K649">
+        <v>-1</v>
+      </c>
+      <c r="Q649">
+        <v>1</v>
+      </c>
+      <c r="Y649"/>
+    </row>
+    <row r="650" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A650" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B650" t="s">
+        <v>304</v>
+      </c>
+      <c r="C650" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D650" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G650">
+        <v>12</v>
+      </c>
+      <c r="I650">
+        <v>8</v>
+      </c>
+      <c r="J650">
+        <v>3</v>
+      </c>
+      <c r="Q650">
+        <v>1</v>
+      </c>
+      <c r="V650">
+        <v>4</v>
+      </c>
+      <c r="Y650"/>
+    </row>
+    <row r="651" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A651" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B651" t="s">
+        <v>294</v>
+      </c>
+      <c r="C651" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D651" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="I651">
+        <v>3</v>
+      </c>
+      <c r="J651">
+        <v>2</v>
+      </c>
+      <c r="O651">
+        <v>14</v>
+      </c>
+      <c r="Q651">
+        <v>1</v>
+      </c>
+      <c r="V651">
+        <v>9</v>
+      </c>
+      <c r="Y651"/>
+    </row>
+    <row r="652" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A652" s="2" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B652" t="s">
+        <v>294</v>
+      </c>
+      <c r="C652" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D652" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="O652">
+        <v>20</v>
+      </c>
+      <c r="P652">
+        <v>5</v>
+      </c>
+      <c r="Q652">
+        <v>1</v>
+      </c>
+      <c r="V652">
+        <v>15</v>
+      </c>
+      <c r="W652" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="Y652">
+        <v>0.1</v>
+      </c>
+      <c r="AA652" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="653" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A653" s="2" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B653" t="s">
+        <v>487</v>
+      </c>
+      <c r="C653" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D653" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F653">
+        <v>11</v>
+      </c>
+      <c r="I653">
+        <v>15</v>
+      </c>
+      <c r="K653">
+        <v>3</v>
+      </c>
+      <c r="Q653">
+        <v>1</v>
+      </c>
+      <c r="W653" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="Y653" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA653" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="654" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A654" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B654" t="s">
+        <v>294</v>
+      </c>
+      <c r="C654" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D654" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="L654">
+        <v>2</v>
+      </c>
+      <c r="M654">
+        <v>1</v>
+      </c>
+      <c r="O654">
+        <v>14</v>
+      </c>
+      <c r="P654">
+        <v>7</v>
+      </c>
+      <c r="Q654">
+        <v>1</v>
+      </c>
+      <c r="V654">
+        <v>6</v>
+      </c>
+      <c r="W654" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="Y654" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AA654" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="655" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A655" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B655" t="s">
+        <v>304</v>
+      </c>
+      <c r="C655" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D655" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G655">
+        <v>17</v>
+      </c>
+      <c r="I655">
+        <v>3</v>
+      </c>
+      <c r="K655">
+        <v>2</v>
+      </c>
+      <c r="Q655">
+        <v>1</v>
+      </c>
+      <c r="V655">
+        <v>6</v>
+      </c>
+      <c r="W655" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y655">
+        <v>0.5</v>
+      </c>
+      <c r="AA655" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="656" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A656" s="2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B656" t="s">
+        <v>304</v>
+      </c>
+      <c r="C656" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D656" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G656">
+        <v>19</v>
+      </c>
+      <c r="I656">
+        <v>3</v>
+      </c>
+      <c r="Q656">
+        <v>1</v>
+      </c>
+      <c r="V656">
+        <v>9</v>
+      </c>
+      <c r="W656" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y656">
+        <v>0.4</v>
+      </c>
+      <c r="AA656" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="657" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A657" s="2" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B657" t="s">
+        <v>294</v>
+      </c>
+      <c r="C657" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D657" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="J657">
+        <v>2</v>
+      </c>
+      <c r="K657">
+        <v>3</v>
+      </c>
+      <c r="O657">
+        <v>13</v>
+      </c>
+      <c r="Q657">
+        <v>1</v>
+      </c>
+      <c r="V657">
+        <v>5</v>
+      </c>
+      <c r="W657" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="Y657"/>
+      <c r="AA657" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="658" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A658" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B658" t="s">
+        <v>295</v>
+      </c>
+      <c r="C658" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D658" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F658">
+        <v>4</v>
+      </c>
+      <c r="J658">
+        <v>5</v>
+      </c>
+      <c r="K658">
+        <v>2</v>
+      </c>
+      <c r="M658">
+        <v>3</v>
+      </c>
+      <c r="P658">
+        <v>12</v>
+      </c>
+      <c r="Q658">
+        <v>4</v>
+      </c>
+      <c r="R658">
+        <v>0.5</v>
+      </c>
+      <c r="W658" s="2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="Y658"/>
+      <c r="AA658" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="659" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A659" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C659" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D659" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F659">
+        <v>14</v>
+      </c>
+      <c r="P659">
+        <v>16</v>
+      </c>
+      <c r="Q659">
+        <v>3.8</v>
+      </c>
+      <c r="R659">
+        <v>0.8</v>
+      </c>
+      <c r="T659">
+        <v>21</v>
+      </c>
+      <c r="V659">
+        <v>6</v>
+      </c>
+      <c r="Y659"/>
+    </row>
+    <row r="660" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A660" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C660" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D660" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F660">
+        <v>2</v>
+      </c>
+      <c r="J660">
+        <v>3</v>
+      </c>
+      <c r="K660">
+        <v>2</v>
+      </c>
+      <c r="Q660">
+        <v>1</v>
+      </c>
+      <c r="Y660"/>
+    </row>
+    <row r="661" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A661" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B661" t="s">
+        <v>294</v>
+      </c>
+      <c r="C661" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D661" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="K661">
+        <v>2</v>
+      </c>
+      <c r="O661">
+        <v>16</v>
+      </c>
+      <c r="Q661">
+        <v>1</v>
+      </c>
+      <c r="V661">
+        <v>7</v>
+      </c>
+      <c r="W661" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="Y661"/>
+      <c r="AA661" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="662" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A662" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B662" t="s">
+        <v>484</v>
+      </c>
+      <c r="C662" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D662" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F662">
+        <v>27</v>
+      </c>
+      <c r="K662">
+        <v>3</v>
+      </c>
+      <c r="L662">
+        <v>3</v>
+      </c>
+      <c r="Q662">
+        <v>1</v>
+      </c>
+      <c r="Y662"/>
+    </row>
+    <row r="663" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A663" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B663" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C663" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D663" s="5" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F663">
+        <v>25</v>
+      </c>
+      <c r="Q663">
+        <v>1</v>
+      </c>
+      <c r="S663">
+        <v>22</v>
+      </c>
+      <c r="V663">
+        <v>12</v>
+      </c>
+      <c r="W663" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="Y663"/>
+      <c r="AA663" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="664" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A664" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C664" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D664" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F664">
+        <v>4</v>
+      </c>
+      <c r="K664">
+        <v>2</v>
+      </c>
+      <c r="Q664">
+        <v>1</v>
+      </c>
+      <c r="W664" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="Y664"/>
+      <c r="AA664" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="665" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A665" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B665" t="s">
+        <v>218</v>
+      </c>
+      <c r="C665" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D665" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="O665">
+        <v>2</v>
+      </c>
+      <c r="P665">
+        <v>17</v>
+      </c>
+      <c r="Q665">
+        <v>1</v>
+      </c>
+      <c r="V665">
+        <v>9</v>
+      </c>
+      <c r="Y665"/>
+    </row>
+    <row r="666" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A666" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B666" t="s">
+        <v>218</v>
+      </c>
+      <c r="C666" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D666" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="O666">
+        <v>10</v>
+      </c>
+      <c r="P666">
+        <v>19</v>
+      </c>
+      <c r="Q666">
+        <v>1</v>
+      </c>
+      <c r="V666">
+        <v>12</v>
+      </c>
+      <c r="Y666"/>
+    </row>
+    <row r="667" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A667" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B667" t="s">
+        <v>294</v>
+      </c>
+      <c r="C667" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D667" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="K667">
+        <v>3</v>
+      </c>
+      <c r="O667">
+        <v>26</v>
+      </c>
+      <c r="Q667">
+        <v>1</v>
+      </c>
+      <c r="V667">
+        <v>15</v>
+      </c>
+      <c r="Y667"/>
+    </row>
+    <row r="668" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A668" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B668" t="s">
+        <v>294</v>
+      </c>
+      <c r="C668" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D668" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="O668">
+        <v>22</v>
+      </c>
+      <c r="Q668">
+        <v>1</v>
+      </c>
+      <c r="V668">
+        <v>14</v>
+      </c>
+      <c r="W668" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="Y668"/>
+      <c r="AA668" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="669" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A669" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C669" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D669" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F669">
+        <v>9</v>
+      </c>
+      <c r="K669">
+        <v>3</v>
+      </c>
+      <c r="Q669">
+        <v>1</v>
+      </c>
+      <c r="W669" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="Y669"/>
+      <c r="AA669" t="s">
+        <v>2649</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA619" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:AA647" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA572">
       <sortCondition ref="A1:A572"/>
     </sortState>
@@ -93149,7 +94062,7 @@
         <v>0</v>
       </c>
       <c r="R121" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="S121" t="s">
         <v>504</v>
@@ -95599,13 +96512,13 @@
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B151" t="s">
         <v>207</v>
       </c>
       <c r="C151" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D151" t="s">
         <v>92</v>
@@ -95669,12 +96582,12 @@
       <c r="AB151" s="31"/>
       <c r="AC151" s="31"/>
       <c r="AD151" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B152" t="s">
         <v>207</v>
@@ -95744,12 +96657,12 @@
       <c r="AB152" s="31"/>
       <c r="AC152" s="31"/>
       <c r="AD152" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B153" t="s">
         <v>1676</v>
@@ -95825,12 +96738,12 @@
       <c r="AB153" s="31"/>
       <c r="AC153" s="31"/>
       <c r="AD153" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B154" t="s">
         <v>1676</v>
@@ -95906,18 +96819,18 @@
       <c r="AB154" s="31"/>
       <c r="AC154" s="31"/>
       <c r="AD154" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B155" t="s">
         <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D155" t="s">
         <v>92</v>
@@ -95981,12 +96894,12 @@
       <c r="AB155" s="31"/>
       <c r="AC155" s="31"/>
       <c r="AD155" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B156" t="s">
         <v>206</v>
@@ -96062,18 +96975,18 @@
       <c r="AB156" s="31"/>
       <c r="AC156" s="31"/>
       <c r="AD156" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="34" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B157" t="s">
         <v>21</v>
       </c>
       <c r="C157" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="D157" t="s">
         <v>92</v>
@@ -96147,12 +97060,12 @@
       </c>
       <c r="AA157" s="2"/>
       <c r="AD157" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="34" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="B158" t="s">
         <v>1676</v>
@@ -96232,12 +97145,12 @@
       </c>
       <c r="AA158" s="2"/>
       <c r="AD158" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="34" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B159" t="s">
         <v>207</v>
@@ -96305,12 +97218,12 @@
       </c>
       <c r="AA159" s="2"/>
       <c r="AD159" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="34" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B160" t="s">
         <v>76</v>
@@ -96390,12 +97303,12 @@
       </c>
       <c r="AA160" s="2"/>
       <c r="AD160" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="34" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B161" t="s">
         <v>207</v>
@@ -96463,18 +97376,18 @@
       </c>
       <c r="AA161" s="2"/>
       <c r="AD161" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="34" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B162" t="s">
         <v>212</v>
       </c>
       <c r="C162" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="D162" t="s">
         <v>92</v>
@@ -96548,12 +97461,12 @@
       </c>
       <c r="AA162" s="2"/>
       <c r="AD162" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B163" t="s">
         <v>209</v>
@@ -101764,7 +102677,7 @@
         <v>484</v>
       </c>
       <c r="C9" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D9" t="s">
         <v>282</v>
@@ -104445,57 +105358,57 @@
       <c r="E1" s="3" t="s">
         <v>2133</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="40" t="s">
         <v>2124</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="37" t="s">
         <v>2125</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40" t="s">
         <v>2126</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>2127</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="40" t="s">
         <v>2128</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="35" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="37"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="39"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01DBB3E-EE99-41AA-B20A-CE3E928AB514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B32BF8-BFCC-4167-9A8A-CEB3AB5845AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -38470,7 +38470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA670"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E536" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -84637,11 +84637,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD223"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L151" sqref="L151"/>
+      <selection pane="bottomRight" activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -96583,7 +96583,7 @@
         <v>250</v>
       </c>
       <c r="J151" s="31">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -96658,7 +96658,7 @@
         <v>185</v>
       </c>
       <c r="J152" s="31">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -96733,7 +96733,7 @@
         <v>150</v>
       </c>
       <c r="J153" s="31">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -96814,7 +96814,7 @@
         <v>150</v>
       </c>
       <c r="J154" s="31">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -96895,7 +96895,7 @@
         <v>185</v>
       </c>
       <c r="J155" s="31">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -96970,7 +96970,7 @@
         <v>185</v>
       </c>
       <c r="J156" s="31">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K156">
         <v>0</v>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B32BF8-BFCC-4167-9A8A-CEB3AB5845AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA95B6ED-E19F-42DB-8A40-E3CED5B7958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84638,10 +84638,10 @@
   <dimension ref="A1:AD223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J157" sqref="J157"/>
+      <selection pane="bottomRight" activeCell="AD163" sqref="AD163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -84776,7 +84776,7 @@
         <v>180</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -95909,7 +95909,7 @@
       <c r="L143" s="1">
         <v>160</v>
       </c>
-      <c r="M143" s="1">
+      <c r="M143" s="31">
         <v>100</v>
       </c>
       <c r="N143" s="31">
@@ -95996,7 +95996,7 @@
       <c r="L144" s="1">
         <v>160</v>
       </c>
-      <c r="M144" s="1">
+      <c r="M144" s="31">
         <v>100</v>
       </c>
       <c r="N144" s="31">
@@ -96081,7 +96081,7 @@
       <c r="L145" s="1">
         <v>80</v>
       </c>
-      <c r="M145" s="1">
+      <c r="M145" s="31">
         <v>50</v>
       </c>
       <c r="N145" s="31">
@@ -96166,7 +96166,7 @@
       <c r="L146" s="1">
         <v>160</v>
       </c>
-      <c r="M146" s="1">
+      <c r="M146" s="31">
         <v>100</v>
       </c>
       <c r="N146" s="31">
@@ -96251,7 +96251,7 @@
       <c r="L147" s="1">
         <v>160</v>
       </c>
-      <c r="M147" s="1">
+      <c r="M147" s="31">
         <v>100</v>
       </c>
       <c r="N147" s="31">
@@ -96336,7 +96336,7 @@
       <c r="L148" s="1">
         <v>160</v>
       </c>
-      <c r="M148" s="1">
+      <c r="M148" s="31">
         <v>100</v>
       </c>
       <c r="N148" s="31">
@@ -96421,7 +96421,7 @@
       <c r="L149" s="1">
         <v>80</v>
       </c>
-      <c r="M149" s="1">
+      <c r="M149" s="31">
         <v>50</v>
       </c>
       <c r="N149" s="31">
@@ -96506,7 +96506,7 @@
       <c r="L150" s="1">
         <v>160</v>
       </c>
-      <c r="M150" s="1">
+      <c r="M150" s="31">
         <v>100</v>
       </c>
       <c r="N150" s="31">
@@ -96591,7 +96591,7 @@
       <c r="L151" s="1">
         <v>140</v>
       </c>
-      <c r="M151" s="1">
+      <c r="M151" s="31">
         <v>80</v>
       </c>
       <c r="N151" s="31">
@@ -96666,7 +96666,7 @@
       <c r="L152" s="1">
         <v>140</v>
       </c>
-      <c r="M152" s="1">
+      <c r="M152" s="31">
         <v>80</v>
       </c>
       <c r="N152" s="31">
@@ -96741,7 +96741,7 @@
       <c r="L153" s="1">
         <v>140</v>
       </c>
-      <c r="M153" s="1">
+      <c r="M153" s="31">
         <v>5</v>
       </c>
       <c r="N153" s="31">
@@ -96822,7 +96822,7 @@
       <c r="L154" s="1">
         <v>140</v>
       </c>
-      <c r="M154" s="1">
+      <c r="M154" s="31">
         <v>5</v>
       </c>
       <c r="N154" s="31">
@@ -96903,7 +96903,7 @@
       <c r="L155" s="1">
         <v>140</v>
       </c>
-      <c r="M155" s="1">
+      <c r="M155" s="31">
         <v>80</v>
       </c>
       <c r="N155" s="31">
@@ -96978,7 +96978,7 @@
       <c r="L156" s="1">
         <v>100</v>
       </c>
-      <c r="M156" s="1">
+      <c r="M156" s="31">
         <v>80</v>
       </c>
       <c r="N156" s="31">

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F06E68-832F-470A-B6CC-AEEC1ED584EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0066505-CA00-4237-8620-23CCEA9A34B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="1200" windowWidth="20775" windowHeight="13035" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15781" uniqueCount="2673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15784" uniqueCount="2676">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8648,6 +8648,18 @@
   </si>
   <si>
     <t>九江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9478,13 +9490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC135"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C131" sqref="C131"/>
+      <selection pane="bottomRight" activeCell="AB134" sqref="AB134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17380,7 +17392,7 @@
         <v>4</v>
       </c>
       <c r="R94">
-        <f t="shared" ref="R94:R135" si="3">SUM($S94:$V94)</f>
+        <f t="shared" ref="R94:R136" si="3">SUM($S94:$V94)</f>
         <v>12</v>
       </c>
       <c r="S94" s="10">
@@ -20707,59 +20719,59 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>10596</v>
+        <v>10586</v>
       </c>
       <c r="B134" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="C134" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="D134" t="s">
-        <v>2661</v>
+        <v>2675</v>
       </c>
       <c r="E134">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="F134">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H134">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I134">
+        <v>66</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
+        <v>100</v>
+      </c>
+      <c r="L134">
+        <v>50</v>
+      </c>
+      <c r="M134">
         <v>65</v>
       </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134" s="1">
-        <v>95</v>
-      </c>
-      <c r="L134">
-        <v>85</v>
-      </c>
-      <c r="M134">
-        <v>31</v>
-      </c>
       <c r="N134">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P134">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R134" s="18">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="S134">
         <v>8</v>
@@ -20771,30 +20783,33 @@
         <v>8</v>
       </c>
       <c r="V134">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W134">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="X134">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="Y134">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="Z134">
-        <v>0.9</v>
+        <v>10</v>
+      </c>
+      <c r="AA134">
+        <v>105861</v>
       </c>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>10601</v>
+        <v>10596</v>
       </c>
       <c r="B135" t="s">
-        <v>2660</v>
-      </c>
-      <c r="C135" s="2">
-        <v>351</v>
+        <v>2671</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2672</v>
       </c>
       <c r="D135" t="s">
         <v>2661</v>
@@ -20803,70 +20818,151 @@
         <v>16</v>
       </c>
       <c r="F135">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G135">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L135">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="M135">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N135">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="O135">
         <v>1</v>
       </c>
       <c r="P135">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q135">
         <v>3</v>
       </c>
       <c r="R135" s="18">
         <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="S135">
+        <v>8</v>
+      </c>
+      <c r="T135">
+        <v>8</v>
+      </c>
+      <c r="U135">
+        <v>8</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>15</v>
+      </c>
+      <c r="X135">
+        <v>25</v>
+      </c>
+      <c r="Y135">
+        <v>0.5</v>
+      </c>
+      <c r="Z135">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>10601</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C136" s="2">
+        <v>351</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E136">
+        <v>16</v>
+      </c>
+      <c r="F136">
+        <v>28</v>
+      </c>
+      <c r="G136">
+        <v>82</v>
+      </c>
+      <c r="H136">
+        <v>30</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>96</v>
+      </c>
+      <c r="L136">
+        <v>55</v>
+      </c>
+      <c r="M136">
+        <v>51</v>
+      </c>
+      <c r="N136">
+        <v>15</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>16</v>
+      </c>
+      <c r="Q136">
+        <v>3</v>
+      </c>
+      <c r="R136" s="18">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="S135">
+      <c r="S136">
         <v>6</v>
       </c>
-      <c r="T135">
+      <c r="T136">
         <v>6</v>
       </c>
-      <c r="U135">
+      <c r="U136">
         <v>6</v>
       </c>
-      <c r="V135">
-        <v>0</v>
-      </c>
-      <c r="W135">
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
         <v>30</v>
       </c>
-      <c r="X135">
+      <c r="X136">
         <v>50</v>
       </c>
-      <c r="Y135">
+      <c r="Y136">
         <v>0.6</v>
       </c>
-      <c r="Z135">
+      <c r="Z136">
         <v>0.6</v>
       </c>
-      <c r="AA135">
+      <c r="AA136">
         <v>106011</v>
       </c>
     </row>
@@ -20907,10 +21003,10 @@
   <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X165" sqref="X165"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38715,10 +38811,10 @@
   <dimension ref="A1:AA675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E675" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C614" sqref="C614"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -85015,10 +85111,10 @@
   <dimension ref="A1:AD224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I158" sqref="I158"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -85165,7 +85261,7 @@
         <v>100</v>
       </c>
       <c r="N2" s="31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O2" s="31">
         <v>27</v>

--- a/depend/ship/database.xlsx
+++ b/depend/ship/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\战舰少女\WSGR_simulation\depend\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0066505-CA00-4237-8620-23CCEA9A34B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFA8F5B-D3C9-4A1E-BBE8-31DB72D35353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舰船数据-未改" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15784" uniqueCount="2676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15810" uniqueCount="2690">
   <si>
     <t>cid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8660,6 +8660,61 @@
   </si>
   <si>
     <t>G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10703</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS.12武器系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10710</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军旗攻击机(AS.30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10719</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“覆灭”巨型鱼雷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10720</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET-53鱼雷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10718</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七联鱼雷发射器（93M3）</t>
+  </si>
+  <si>
+    <t>718</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J国舰船装备时增加5%攻击威力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8916,7 +8971,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF9900"/>
       </font>
     </dxf>
     <dxf>
@@ -8926,12 +8981,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -8946,77 +8996,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
       </font>
     </dxf>
     <dxf>
@@ -9027,51 +9007,6 @@
     <dxf>
       <font>
         <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF65FF65"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
       </font>
     </dxf>
     <dxf>
@@ -9096,7 +9031,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
       </font>
     </dxf>
     <dxf>
@@ -9106,7 +9056,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
       </font>
     </dxf>
     <dxf>
@@ -9116,7 +9076,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF65FF65"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -9126,7 +9096,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
       </font>
     </dxf>
     <dxf>
@@ -9136,7 +9116,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -9146,7 +9126,32 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
       </font>
     </dxf>
     <dxf>
@@ -9156,7 +9161,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF808080"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -9166,7 +9181,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
       </font>
     </dxf>
     <dxf>
@@ -9176,12 +9201,42 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF65FF65"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B0F0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF65FF65"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -9496,7 +9551,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB134" sqref="AB134"/>
+      <selection pane="bottomRight" activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38622,63 +38677,63 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C45">
-    <cfRule type="expression" dxfId="57" priority="77">
-      <formula>F2=2</formula>
+    <cfRule type="expression" dxfId="57" priority="73">
+      <formula>F2=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="76">
-      <formula>F2=3</formula>
+    <cfRule type="expression" dxfId="56" priority="74">
+      <formula>F2=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="55" priority="75">
       <formula>F2=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="74">
-      <formula>F2=5</formula>
+    <cfRule type="expression" dxfId="54" priority="76">
+      <formula>F2=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="73">
-      <formula>F2=6</formula>
+    <cfRule type="expression" dxfId="53" priority="77">
+      <formula>F2=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="78">
       <formula>F2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C54">
-    <cfRule type="expression" dxfId="51" priority="83">
+    <cfRule type="expression" dxfId="51" priority="79">
+      <formula>E46=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="80">
+      <formula>E46=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="81">
+      <formula>E46=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="82">
+      <formula>E46=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="83">
       <formula>E46=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="82">
-      <formula>E46=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="84">
+    <cfRule type="expression" dxfId="46" priority="84">
       <formula>E46=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="81">
-      <formula>E46=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="80">
-      <formula>E46=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="79">
-      <formula>E46=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C67">
-    <cfRule type="expression" dxfId="45" priority="66">
-      <formula>F59=1</formula>
+    <cfRule type="expression" dxfId="45" priority="61">
+      <formula>F59=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="65">
+    <cfRule type="expression" dxfId="44" priority="62">
+      <formula>F59=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="63">
+      <formula>F59=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="64">
+      <formula>F59=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>F59=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="64">
-      <formula>F59=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="63">
-      <formula>F59=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="62">
-      <formula>F59=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="61">
-      <formula>F59=6</formula>
+    <cfRule type="expression" dxfId="40" priority="66">
+      <formula>F59=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82 C84">
@@ -38694,111 +38749,111 @@
     <cfRule type="expression" dxfId="36" priority="52">
       <formula>F81=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="54">
+    <cfRule type="expression" dxfId="35" priority="53">
+      <formula>F81=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="54">
       <formula>F81=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="53">
-      <formula>F81=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="33" priority="57">
+    <cfRule type="expression" dxfId="33" priority="55">
+      <formula>F84=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="56">
+      <formula>F84=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="57">
       <formula>F84=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="59">
-      <formula>F84=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="60">
-      <formula>F84=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="58">
       <formula>F84=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="55">
-      <formula>F84=6</formula>
+    <cfRule type="expression" dxfId="29" priority="59">
+      <formula>F84=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="56">
-      <formula>F84=5</formula>
+    <cfRule type="expression" dxfId="28" priority="60">
+      <formula>F84=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C115">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="27" priority="25">
+      <formula>F90=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>F90=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>F90=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>F90=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>F90=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="30">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula>F90=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>F90=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="26">
-      <formula>F90=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="25">
-      <formula>F90=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C117">
     <cfRule type="expression" dxfId="21" priority="19">
       <formula>E116=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
-      <formula>E116=1</formula>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>E116=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23">
-      <formula>E116=2</formula>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>E116=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
       <formula>E116=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="21">
-      <formula>E116=4</formula>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>E116=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>E116=5</formula>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>E116=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:C150">
-    <cfRule type="expression" dxfId="15" priority="12">
-      <formula>F148=1</formula>
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>F148=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
-      <formula>F148=2</formula>
+    <cfRule type="expression" dxfId="14" priority="8">
+      <formula>F148=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>F148=6</formula>
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>F148=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="10">
       <formula>F148=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>F148=4</formula>
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>F148=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>F148=5</formula>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>F148=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>F189=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>F189=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>F189=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>F189=6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>F189=5</formula>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>F189=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>F189=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>F189=2</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>F189=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38808,13 +38863,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA675"/>
+  <dimension ref="A1:AA680"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="L664" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="W680" sqref="W680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -85004,94 +85059,248 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A673" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B673" t="s">
+        <v>484</v>
+      </c>
+      <c r="C673" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D673" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F673">
+        <v>12</v>
+      </c>
+      <c r="K673">
+        <v>2</v>
+      </c>
+      <c r="L673">
+        <v>2</v>
+      </c>
+      <c r="Q673">
+        <v>1</v>
+      </c>
+      <c r="W673" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="Y673" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A674" s="2" t="s">
         <v>2668</v>
-      </c>
-      <c r="B673" t="s">
-        <v>2071</v>
-      </c>
-      <c r="C673" t="s">
-        <v>2669</v>
-      </c>
-      <c r="D673" s="5" t="s">
-        <v>1557</v>
-      </c>
-      <c r="F673">
-        <v>23</v>
-      </c>
-      <c r="M673">
-        <v>1</v>
-      </c>
-      <c r="Q673">
-        <v>1</v>
-      </c>
-      <c r="S673">
-        <v>29</v>
-      </c>
-      <c r="V673">
-        <v>8</v>
-      </c>
-      <c r="W673" s="2" t="s">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="674" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A674" s="2" t="s">
-        <v>2662</v>
       </c>
       <c r="B674" t="s">
         <v>2071</v>
       </c>
       <c r="C674" t="s">
-        <v>2663</v>
+        <v>2669</v>
       </c>
       <c r="D674" s="5" t="s">
         <v>1557</v>
       </c>
       <c r="F674">
+        <v>23</v>
+      </c>
+      <c r="M674">
+        <v>1</v>
+      </c>
+      <c r="Q674">
+        <v>1</v>
+      </c>
+      <c r="S674">
+        <v>29</v>
+      </c>
+      <c r="V674">
+        <v>8</v>
+      </c>
+      <c r="W674" s="2" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="675" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A675" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B675" t="s">
+        <v>294</v>
+      </c>
+      <c r="C675" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D675" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="O675">
         <v>22</v>
       </c>
-      <c r="M674">
-        <v>1</v>
-      </c>
-      <c r="Q674">
-        <v>1</v>
-      </c>
-      <c r="S674">
+      <c r="P675">
+        <v>5</v>
+      </c>
+      <c r="Q675">
+        <v>1</v>
+      </c>
+      <c r="V675">
+        <v>18</v>
+      </c>
+      <c r="W675" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="Y675" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="676" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A676" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B676" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C676" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D676" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F676">
+        <v>22</v>
+      </c>
+      <c r="M676">
+        <v>1</v>
+      </c>
+      <c r="Q676">
+        <v>1</v>
+      </c>
+      <c r="S676">
         <v>23</v>
       </c>
-      <c r="V674">
+      <c r="V676">
         <v>9</v>
       </c>
-      <c r="W674" s="2" t="s">
+      <c r="W676" s="2" t="s">
         <v>2667</v>
       </c>
     </row>
-    <row r="675" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A675" s="2" t="s">
+    <row r="677" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A677" s="2" t="s">
         <v>2665</v>
       </c>
-      <c r="B675" t="s">
+      <c r="B677" t="s">
         <v>1683</v>
       </c>
-      <c r="C675" t="s">
+      <c r="C677" t="s">
         <v>2664</v>
       </c>
-      <c r="D675" s="5" t="s">
+      <c r="D677" s="5" t="s">
         <v>1556</v>
       </c>
-      <c r="F675">
+      <c r="F677">
         <v>4</v>
       </c>
-      <c r="K675">
+      <c r="K677">
         <v>2</v>
       </c>
-      <c r="Q675">
-        <v>1</v>
-      </c>
-      <c r="W675" s="2" t="s">
+      <c r="Q677">
+        <v>1</v>
+      </c>
+      <c r="W677" s="2" t="s">
         <v>2666</v>
+      </c>
+    </row>
+    <row r="678" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A678" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B678" t="s">
+        <v>486</v>
+      </c>
+      <c r="C678" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D678" t="s">
+        <v>7</v>
+      </c>
+      <c r="G678">
+        <v>23</v>
+      </c>
+      <c r="Q678">
+        <v>1</v>
+      </c>
+      <c r="W678" s="2" t="s">
+        <v>2688</v>
+      </c>
+      <c r="AA678" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="679" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A679" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B679" t="s">
+        <v>486</v>
+      </c>
+      <c r="C679" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D679" t="s">
+        <v>7</v>
+      </c>
+      <c r="G679">
+        <v>15</v>
+      </c>
+      <c r="K679">
+        <v>1</v>
+      </c>
+      <c r="M679">
+        <v>1</v>
+      </c>
+      <c r="Q679">
+        <v>1</v>
+      </c>
+      <c r="W679" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="Y679" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="680" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A680" s="34" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C680" s="4" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D680" t="s">
+        <v>7</v>
+      </c>
+      <c r="G680">
+        <v>15</v>
+      </c>
+      <c r="K680">
+        <v>3</v>
+      </c>
+      <c r="M680">
+        <v>7</v>
+      </c>
+      <c r="Q680">
+        <v>1</v>
+      </c>
+      <c r="W680" s="34" t="s">
+        <v>2678</v>
+      </c>
+      <c r="Y680" s="11">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -85110,11 +85319,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
